--- a/inst/doc/files/parameterization.xlsx
+++ b/inst/doc/files/parameterization.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="2" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="375" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="375" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="sunflo_input" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,6 +24,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">sunflo_input!$A$1:$O$102</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">sunflo_input!$A$1:$O$102</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">sunflo_input!$A$1:$O$102</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">sunflo_input!$A$1:$O$102</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
 </workbook>
@@ -1707,8 +1708,8 @@
   </sheetPr>
   <dimension ref="1:102"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="H53" activeCellId="0" pane="topLeft" sqref="H53"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="D1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="L12" activeCellId="0" pane="topLeft" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.2"/>
@@ -1812,6 +1813,9 @@
       <c r="K2" s="0" t="s">
         <v>22</v>
       </c>
+      <c r="L2" s="0" t="n">
+        <v>482</v>
+      </c>
       <c r="N2" s="0" t="n">
         <v>1</v>
       </c>
@@ -1850,6 +1854,9 @@
       <c r="K3" s="0" t="s">
         <v>22</v>
       </c>
+      <c r="L3" s="0" t="n">
+        <v>836</v>
+      </c>
       <c r="N3" s="0" t="n">
         <v>1</v>
       </c>
@@ -1888,6 +1895,9 @@
       <c r="K4" s="0" t="s">
         <v>22</v>
       </c>
+      <c r="L4" s="0" t="n">
+        <v>1083</v>
+      </c>
       <c r="N4" s="0" t="n">
         <v>1</v>
       </c>
@@ -1926,6 +1936,9 @@
       <c r="K5" s="0" t="s">
         <v>22</v>
       </c>
+      <c r="L5" s="0" t="n">
+        <v>1673</v>
+      </c>
       <c r="N5" s="0" t="n">
         <v>1</v>
       </c>
@@ -1964,6 +1977,9 @@
       <c r="K6" s="0" t="s">
         <v>22</v>
       </c>
+      <c r="L6" s="0" t="n">
+        <v>29</v>
+      </c>
       <c r="N6" s="0" t="n">
         <v>1</v>
       </c>
@@ -2002,6 +2018,9 @@
       <c r="K7" s="0" t="s">
         <v>22</v>
       </c>
+      <c r="L7" s="0" t="n">
+        <v>17</v>
+      </c>
       <c r="N7" s="0" t="n">
         <v>1</v>
       </c>
@@ -2040,6 +2059,9 @@
       <c r="K8" s="0" t="s">
         <v>22</v>
       </c>
+      <c r="L8" s="0" t="n">
+        <v>448</v>
+      </c>
       <c r="N8" s="0" t="n">
         <v>1</v>
       </c>
@@ -2078,6 +2100,9 @@
       <c r="K9" s="0" t="s">
         <v>22</v>
       </c>
+      <c r="L9" s="0" t="n">
+        <v>0.88</v>
+      </c>
       <c r="N9" s="0" t="n">
         <v>1</v>
       </c>
@@ -2116,6 +2141,9 @@
       <c r="K10" s="0" t="s">
         <v>57</v>
       </c>
+      <c r="L10" s="0" t="n">
+        <v>-4.42</v>
+      </c>
       <c r="N10" s="0" t="n">
         <v>1</v>
       </c>
@@ -2154,6 +2182,9 @@
       <c r="K11" s="0" t="s">
         <v>57</v>
       </c>
+      <c r="L11" s="0" t="n">
+        <v>-9.3</v>
+      </c>
       <c r="N11" s="0" t="n">
         <v>1</v>
       </c>
@@ -2190,6 +2221,9 @@
       <c r="K12" s="0" t="s">
         <v>22</v>
       </c>
+      <c r="L12" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="N12" s="0" t="n">
         <v>0</v>
       </c>
@@ -2228,6 +2262,9 @@
       <c r="K13" s="0" t="s">
         <v>69</v>
       </c>
+      <c r="L13" s="0" t="n">
+        <v>0.398</v>
+      </c>
       <c r="N13" s="0" t="n">
         <v>1</v>
       </c>
@@ -2265,6 +2302,9 @@
       </c>
       <c r="K14" s="0" t="s">
         <v>69</v>
+      </c>
+      <c r="L14" s="0" t="n">
+        <v>55.4</v>
       </c>
       <c r="N14" s="0" t="n">
         <v>1</v>
@@ -4785,8 +4825,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="true" usePrinterDefaults="false" verticalDpi="300"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -5418,8 +5458,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -5429,9 +5469,9 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="J22" activeCellId="0" pane="topLeft" sqref="J22"/>
     </sheetView>
   </sheetViews>
@@ -6184,13 +6224,14 @@
         <v>510</v>
       </c>
     </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.15" outlineLevel="0" r="22"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/inst/doc/files/parameterization.xlsx
+++ b/inst/doc/files/parameterization.xlsx
@@ -5,33 +5,117 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="375" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="1" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="527" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="sunflo_input" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="sunflo_variables" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="sunflo_indicators" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="inputs" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="parameters" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="outputs" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="indicators" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">sunflo_input!$A$1:$O$102</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">sunflo_input!$A$1:$O$102</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">sunflo_input!$A$1:$O$102</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">sunflo_input!$A$1:$O$102</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">sunflo_input!$A$1:$O$102</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">sunflo_input!$A$1:$O$102</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">sunflo_input!$A$1:$O$102</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">sunflo_input!$A$1:$O$102</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">sunflo_input!$A$1:$O$102</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">sunflo_input!$A$1:$O$102</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">sunflo_input!$A$1:$O$102</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">sunflo_input!$A$1:$O$102</definedName>
+    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">parameters!$A$1:$Q$102</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">parameters!$A$1:$Q$102</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">parameters!$A$1:$Q$102</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">parameters!$A$1:$Q$102</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">parameters!$A$1:$Q$102</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">parameters!$A$1:$Q$102</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">parameters!$A$1:$Q$102</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">parameters!$A$1:$Q$102</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">parameters!$A$1:$Q$102</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">parameters!$A$1:$Q$102</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">parameters!$A$1:$Q$102</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">parameters!$A$1:$Q$102</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">parameters!$A$1:$Q$102</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">parameters!$A$1:$Q$102</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="511">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1069" uniqueCount="536">
+  <si>
+    <t>name.rsunflo.fr</t>
+  </si>
+  <si>
+    <t>label.doc</t>
+  </si>
+  <si>
+    <t>label.fr</t>
+  </si>
+  <si>
+    <t>label.en</t>
+  </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <t>TN</t>
+  </si>
+  <si>
+    <t>TemperatureAirMin</t>
+  </si>
+  <si>
+    <t>Température minimale de l'air</t>
+  </si>
+  <si>
+    <t>Minimum air temperature</t>
+  </si>
+  <si>
+    <t>°C</t>
+  </si>
+  <si>
+    <t>TX</t>
+  </si>
+  <si>
+    <t>TemperatureAirMax</t>
+  </si>
+  <si>
+    <t>Température maximale de l'air</t>
+  </si>
+  <si>
+    <t>Maximum air temperature</t>
+  </si>
+  <si>
+    <t>GR</t>
+  </si>
+  <si>
+    <t>Radiation</t>
+  </si>
+  <si>
+    <t>Rayonnement global incident</t>
+  </si>
+  <si>
+    <t>Global incident radiation</t>
+  </si>
+  <si>
+    <t>MJ.m-2</t>
+  </si>
+  <si>
+    <t>ETP</t>
+  </si>
+  <si>
+    <t>PET</t>
+  </si>
+  <si>
+    <t>Evapotranspiration de référence</t>
+  </si>
+  <si>
+    <t>Reference evapotranspiration</t>
+  </si>
+  <si>
+    <t>mm</t>
+  </si>
+  <si>
+    <t>RR</t>
+  </si>
+  <si>
+    <t>Rainfall</t>
+  </si>
+  <si>
+    <t>Précipitations</t>
+  </si>
   <si>
     <t>rankID</t>
   </si>
@@ -45,24 +129,15 @@
     <t>condition</t>
   </si>
   <si>
+    <t>module</t>
+  </si>
+  <si>
     <t>name.vle</t>
   </si>
   <si>
-    <t>name.rsunflo.fr</t>
-  </si>
-  <si>
     <t>name.rsunflo.en</t>
   </si>
   <si>
-    <t>label.fr</t>
-  </si>
-  <si>
-    <t>label.en</t>
-  </si>
-  <si>
-    <t>unit</t>
-  </si>
-  <si>
     <t>reference</t>
   </si>
   <si>
@@ -84,12 +159,18 @@
     <t>CONFIG_Variete</t>
   </si>
   <si>
+    <t>Phenology</t>
+  </si>
+  <si>
     <t>date_TT_E1</t>
   </si>
   <si>
     <t>TDE1</t>
   </si>
   <si>
+    <t>ThermalTimeVegetative</t>
+  </si>
+  <si>
     <t>Durée de la phase levée (A2) - initiation florale (E1)</t>
   </si>
   <si>
@@ -99,7 +180,7 @@
     <t>°Cd</t>
   </si>
   <si>
-    <t>[Lecoeur2011]</t>
+    <t>[@Lecoeur2011]</t>
   </si>
   <si>
     <t>date_TT_F1</t>
@@ -108,6 +189,9 @@
     <t>TDF1</t>
   </si>
   <si>
+    <t>ThermalTimeFlowering</t>
+  </si>
+  <si>
     <t>Durée de la phase levée (A2) - floraison (F1)</t>
   </si>
   <si>
@@ -120,6 +204,9 @@
     <t>TDM0</t>
   </si>
   <si>
+    <t>ThermalTimeSenescence</t>
+  </si>
+  <si>
     <t>Durée de la phase levée (A2) - debut maturité (M0)</t>
   </si>
   <si>
@@ -132,6 +219,9 @@
     <t>TDM3</t>
   </si>
   <si>
+    <t>ThermalTimeMaturity</t>
+  </si>
+  <si>
     <t>Durée de la phase levée (A2) - maturité (M3)</t>
   </si>
   <si>
@@ -204,7 +294,7 @@
     <t>Threshold for leaf expansion response to water stress</t>
   </si>
   <si>
-    <t>[Casadebaig2008]</t>
+    <t>[@Casadebaig2008]</t>
   </si>
   <si>
     <t>a_TR</t>
@@ -240,7 +330,7 @@
     <t>Potential harvest index</t>
   </si>
   <si>
-    <t>[Casadebaig2011]</t>
+    <t>[@Casadebaig2011]</t>
   </si>
   <si>
     <t>thp</t>
@@ -291,9 +381,6 @@
     <t>Profondeur d'enracinement maximale</t>
   </si>
   <si>
-    <t>mm</t>
-  </si>
-  <si>
     <t>Hcc_C1</t>
   </si>
   <si>
@@ -402,7 +489,7 @@
     <t>kg/ha/jour normalise</t>
   </si>
   <si>
-    <t>[Vale2007]</t>
+    <t>[@Vale2007]</t>
   </si>
   <si>
     <t>Fpf</t>
@@ -453,9 +540,15 @@
     <t>crop_sowing_depth</t>
   </si>
   <si>
+    <t>SowingDepth</t>
+  </si>
+  <si>
     <t>Profondeur de semis</t>
   </si>
   <si>
+    <t>Sowing depth</t>
+  </si>
+  <si>
     <t>densite</t>
   </si>
   <si>
@@ -765,19 +858,22 @@
     <t>Température de base pour les processus de croissance et développement</t>
   </si>
   <si>
-    <t>°C</t>
-  </si>
-  <si>
-    <t>[Granier1998]</t>
+    <t>[@Granier1998]</t>
   </si>
   <si>
     <t>date_TT_germination</t>
   </si>
   <si>
+    <t>Germination</t>
+  </si>
+  <si>
     <t>Durée de la phase de germination</t>
   </si>
   <si>
-    <t>[Villalobos1996]</t>
+    <t>Temperature sum from sowing to germination</t>
+  </si>
+  <si>
+    <t>[@Villalobos1996]</t>
   </si>
   <si>
     <t>Phy1</t>
@@ -786,7 +882,7 @@
     <t>Phyllotherme pour les 6 premières feuilles</t>
   </si>
   <si>
-    <t>[Rey2003]</t>
+    <t>[@Rey2003]</t>
   </si>
   <si>
     <t>Phy2</t>
@@ -801,7 +897,7 @@
     <t>Profondeur d'enracinement maximale de l'espèce</t>
   </si>
   <si>
-    <t>[Casadebaig2008b]</t>
+    <t>[@Casadebaig2008b]</t>
   </si>
   <si>
     <t>AP_a</t>
@@ -924,7 +1020,7 @@
     <t>Teneur en azote critique de la biomasse aerienne au seuil de biomasse juvénile</t>
   </si>
   <si>
-    <t>[Debaeke2012a]</t>
+    <t>[@Debaeke2012a]</t>
   </si>
   <si>
     <t>PNCc_b</t>
@@ -966,7 +1062,7 @@
     <t>Indice de nutrition azoté minimum considéré dans la réponse de la croissance foliaire</t>
   </si>
   <si>
-    <t>[Brisson2008]</t>
+    <t>[@Brisson2008]</t>
   </si>
   <si>
     <t>FNLEm</t>
@@ -1002,9 +1098,15 @@
     <t>dHE</t>
   </si>
   <si>
+    <t>ElongationRate</t>
+  </si>
+  <si>
     <t>Réciproque de la vitesse d'élongation de l'hypocotyle</t>
   </si>
   <si>
+    <t>Reciprocal of hypocotyl elongation rate</t>
+  </si>
+  <si>
     <t>°Cd/mm</t>
   </si>
   <si>
@@ -1059,18 +1161,12 @@
     <t>Tn</t>
   </si>
   <si>
-    <t>TN</t>
-  </si>
-  <si>
     <t>Température minimale</t>
   </si>
   <si>
     <t>Tx</t>
   </si>
   <si>
-    <t>TX</t>
-  </si>
-  <si>
     <t>Température maximale</t>
   </si>
   <si>
@@ -1086,31 +1182,13 @@
     <t>RG</t>
   </si>
   <si>
-    <t>GR</t>
-  </si>
-  <si>
-    <t>Rayonnement global incident</t>
-  </si>
-  <si>
     <t>MJ/m2</t>
   </si>
   <si>
     <t>ETPP</t>
   </si>
   <si>
-    <t>ETP</t>
-  </si>
-  <si>
-    <t>Evapotranspiration de référence</t>
-  </si>
-  <si>
     <t>Pluie</t>
-  </si>
-  <si>
-    <t>RR</t>
-  </si>
-  <si>
-    <t>Précipitations</t>
   </si>
   <si>
     <t>bio</t>
@@ -1706,76 +1784,216 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="E7" activeCellId="5" pane="topLeft" sqref="M2:M14 M16 M24:M25 M58:M89 M91:M92 E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.15"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.280612244898"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.6224489795918"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.3061224489796"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.1530612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="2">
+      <c r="A2" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="3">
+      <c r="A3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="4">
+      <c r="A4" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="5">
+      <c r="A5" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.15" outlineLevel="0" r="6">
+      <c r="A6" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="1:102"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="D1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="L12" activeCellId="0" pane="topLeft" sqref="L12"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="K55" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="M1" activeCellId="5" pane="topLeft" sqref="M2:M14 M16 M24:M25 M58:M89 M91:M92 M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.2"/>
+  <sheetFormatPr defaultRowHeight="13.15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.69387755102041"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="7.62244897959184"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.2908163265306"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.6122448979592"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.25"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.1377551020408"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="17.5408163265306"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="90.6581632653061"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="55.3826530612245"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="21.2091836734694"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="16.5969387755102"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="12.8061224489796"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="15.8826530612245"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.5612244897959"/>
-    <col collapsed="false" hidden="false" max="1025" min="16" style="0" width="11.8061224489796"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="20.25"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.1377551020408"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="17.5408163265306"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="23.6581632653061"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="90.6581632653061"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="55.3826530612245"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="21.2091836734694"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="18.9234693877551"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="12.8061224489796"/>
+    <col collapsed="false" hidden="false" max="16" min="15" style="0" width="15.8826530612245"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="13.5612244897959"/>
+    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="11.8061224489796"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="1" s="1">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
+        <v>34</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>14</v>
+        <v>36</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="AMJ1" s="0"/>
     </row>
@@ -1787,36 +2005,42 @@
         <v>2</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>21</v>
+        <v>44</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>45</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" s="0" t="n">
+        <v>46</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="N2" s="0" t="n">
         <v>482</v>
       </c>
-      <c r="N2" s="0" t="n">
+      <c r="P2" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1828,36 +2052,42 @@
         <v>2</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>21</v>
+        <v>51</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>52</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="L3" s="0" t="n">
+        <v>53</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="N3" s="0" t="n">
         <v>836</v>
       </c>
-      <c r="N3" s="0" t="n">
+      <c r="P3" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1869,36 +2099,42 @@
         <v>2</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>21</v>
+        <v>56</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>57</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="L4" s="0" t="n">
+        <v>58</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="N4" s="0" t="n">
         <v>1083</v>
       </c>
-      <c r="N4" s="0" t="n">
+      <c r="P4" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1910,36 +2146,42 @@
         <v>2</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>21</v>
+        <v>61</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>62</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="L5" s="0" t="n">
+        <v>63</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="N5" s="0" t="n">
         <v>1673</v>
       </c>
-      <c r="N5" s="0" t="n">
+      <c r="P5" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1951,36 +2193,36 @@
         <v>2</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="I6" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>38</v>
+        <v>64</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>65</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="L6" s="0" t="n">
+        <v>66</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="N6" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="N6" s="0" t="n">
+      <c r="P6" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1992,36 +2234,36 @@
         <v>2</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="I7" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>38</v>
+        <v>69</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>70</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="L7" s="0" t="n">
+        <v>71</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="M7" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="N7" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="N7" s="0" t="n">
+      <c r="P7" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2033,36 +2275,36 @@
         <v>2</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="I8" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>47</v>
+        <v>73</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>74</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="L8" s="0" t="n">
+        <v>75</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="M8" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="N8" s="0" t="n">
         <v>448</v>
       </c>
-      <c r="N8" s="0" t="n">
+      <c r="P8" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2074,36 +2316,36 @@
         <v>2</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="J9" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="K9" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="M9" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="F9" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="G9" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="H9" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="I9" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="K9" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="L9" s="0" t="n">
+      <c r="N9" s="0" t="n">
         <v>0.88</v>
       </c>
-      <c r="N9" s="0" t="n">
+      <c r="P9" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2115,36 +2357,36 @@
         <v>2</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>54</v>
+        <v>82</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>83</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="I10" s="0" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="L10" s="0" t="n">
+        <v>85</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="M10" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="N10" s="0" t="n">
         <v>-4.42</v>
       </c>
-      <c r="N10" s="0" t="n">
+      <c r="P10" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2156,36 +2398,36 @@
         <v>2</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="I11" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>52</v>
+        <v>88</v>
+      </c>
+      <c r="J11" s="0" t="s">
+        <v>89</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="L11" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="M11" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="N11" s="0" t="n">
         <v>-9.3</v>
       </c>
-      <c r="N11" s="0" t="n">
+      <c r="P11" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2197,34 +2439,34 @@
         <v>2</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>62</v>
+        <v>91</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>62</v>
+        <v>91</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="I12" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="J12" s="3"/>
+        <v>91</v>
+      </c>
+      <c r="J12" s="0" t="s">
+        <v>92</v>
+      </c>
       <c r="K12" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="L12" s="0" t="n">
-        <v>1</v>
+        <v>93</v>
+      </c>
+      <c r="L12" s="3"/>
+      <c r="M12" s="0" t="s">
+        <v>48</v>
       </c>
       <c r="N12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P12" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2236,36 +2478,36 @@
         <v>2</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" s="0" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>66</v>
+        <v>95</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="I13" s="0" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>52</v>
+        <v>96</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="L13" s="0" t="n">
+        <v>97</v>
+      </c>
+      <c r="L13" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="M13" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="N13" s="0" t="n">
         <v>0.398</v>
       </c>
-      <c r="N13" s="0" t="n">
+      <c r="P13" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2277,36 +2519,36 @@
         <v>2</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="0" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>71</v>
+        <v>99</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="I14" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>74</v>
+        <v>100</v>
+      </c>
+      <c r="J14" s="0" t="s">
+        <v>101</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="L14" s="0" t="n">
+        <v>102</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="M14" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="N14" s="0" t="n">
         <v>55.4</v>
       </c>
-      <c r="N14" s="0" t="n">
+      <c r="P14" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2315,30 +2557,30 @@
         <v>14</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="E15" s="0" t="s">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="L15" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="J15" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="L15" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="N15" s="0" t="n">
+      <c r="N15" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="P15" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2347,30 +2589,30 @@
         <v>15</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="E16" s="0" t="s">
-        <v>83</v>
+        <v>111</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="K16" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="N16" s="0" t="n">
+        <v>113</v>
+      </c>
+      <c r="J16" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M16" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="P16" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2379,27 +2621,27 @@
         <v>16</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="E17" s="0" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>88</v>
+        <v>115</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>89</v>
+        <v>116</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="N17" s="0" t="n">
+        <v>117</v>
+      </c>
+      <c r="J17" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="P17" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2408,27 +2650,27 @@
         <v>17</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="E18" s="0" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>94</v>
+        <v>121</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="N18" s="0" t="n">
+        <v>122</v>
+      </c>
+      <c r="J18" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="P18" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2437,27 +2679,27 @@
         <v>18</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="E19" s="0" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>97</v>
+        <v>124</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="N19" s="0" t="n">
+        <v>126</v>
+      </c>
+      <c r="J19" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="P19" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2466,27 +2708,27 @@
         <v>19</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="E20" s="0" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="N20" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="J20" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="P20" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2495,27 +2737,27 @@
         <v>20</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="E21" s="0" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>105</v>
+        <v>132</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>106</v>
+        <v>133</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="N21" s="0" t="n">
+        <v>134</v>
+      </c>
+      <c r="J21" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="P21" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2524,27 +2766,27 @@
         <v>21</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="E22" s="0" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>110</v>
+        <v>137</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>111</v>
+        <v>138</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="N22" s="0" t="n">
+        <v>139</v>
+      </c>
+      <c r="J22" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="P22" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2553,27 +2795,27 @@
         <v>22</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="E23" s="0" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>114</v>
+        <v>141</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>115</v>
+        <v>142</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="N23" s="0" t="n">
+        <v>143</v>
+      </c>
+      <c r="J23" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="P23" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2582,30 +2824,30 @@
         <v>23</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="E24" s="0" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>120</v>
+        <v>147</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="K24" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="N24" s="0" t="n">
+        <v>148</v>
+      </c>
+      <c r="J24" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="M24" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="P24" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2614,24 +2856,24 @@
         <v>24</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="E25" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="H25" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="J25" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="K25" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="N25" s="0" t="n">
+        <v>111</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="J25" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="M25" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="P25" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2640,30 +2882,30 @@
         <v>25</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>126</v>
+        <v>154</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="E26" s="0" t="s">
-        <v>128</v>
+        <v>155</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>129</v>
+        <v>156</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>130</v>
+        <v>157</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="L26" s="5" t="n">
+        <v>158</v>
+      </c>
+      <c r="J26" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="N26" s="5" t="n">
         <v>41380</v>
       </c>
-      <c r="N26" s="0" t="n">
+      <c r="P26" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2672,30 +2914,30 @@
         <v>26</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>126</v>
+        <v>154</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="E27" s="0" t="s">
-        <v>133</v>
+        <v>155</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>134</v>
+        <v>161</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>135</v>
+        <v>162</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="L27" s="5" t="n">
+        <v>163</v>
+      </c>
+      <c r="J27" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="N27" s="5" t="n">
         <v>41509</v>
       </c>
-      <c r="N27" s="0" t="n">
+      <c r="P27" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2704,30 +2946,39 @@
         <v>27</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>126</v>
+        <v>154</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>127</v>
+        <v>155</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>137</v>
+        <v>41</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>138</v>
+        <v>165</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>139</v>
+        <v>166</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="J28" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="L28" s="4" t="n">
+        <v>167</v>
+      </c>
+      <c r="I28" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="J28" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="K28" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N28" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="N28" s="0" t="n">
+      <c r="P28" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2736,30 +2987,30 @@
         <v>28</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>126</v>
+        <v>154</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="E29" s="0" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>141</v>
+        <v>171</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>142</v>
+        <v>171</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="L29" s="4" t="n">
+        <v>172</v>
+      </c>
+      <c r="J29" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="N29" s="4" t="n">
         <v>6.8</v>
       </c>
-      <c r="N29" s="0" t="n">
+      <c r="P29" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2768,30 +3019,30 @@
         <v>29</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>126</v>
+        <v>154</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="E30" s="0" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>146</v>
+        <v>175</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>147</v>
+        <v>176</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>148</v>
-      </c>
-      <c r="J30" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="L30" s="6" t="n">
+        <v>177</v>
+      </c>
+      <c r="J30" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="N30" s="6" t="n">
         <v>41275</v>
       </c>
-      <c r="N30" s="0" t="n">
+      <c r="P30" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2800,30 +3051,30 @@
         <v>30</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>126</v>
+        <v>154</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="E31" s="0" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>150</v>
+        <v>179</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>151</v>
+        <v>180</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>152</v>
-      </c>
-      <c r="J31" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="L31" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" s="0" t="n">
+        <v>181</v>
+      </c>
+      <c r="J31" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="L31" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="N31" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2832,30 +3083,30 @@
         <v>31</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>126</v>
+        <v>154</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="E32" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>155</v>
+        <v>184</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>156</v>
+        <v>185</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>148</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="L32" s="6" t="n">
+        <v>186</v>
+      </c>
+      <c r="J32" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="N32" s="6" t="n">
         <v>41275</v>
       </c>
-      <c r="N32" s="0" t="n">
+      <c r="P32" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2864,30 +3115,30 @@
         <v>32</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>126</v>
+        <v>154</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="E33" s="0" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>158</v>
+        <v>187</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>159</v>
+        <v>188</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>152</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="L33" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" s="0" t="n">
+        <v>189</v>
+      </c>
+      <c r="J33" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="L33" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="N33" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2896,30 +3147,30 @@
         <v>33</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>126</v>
+        <v>154</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="E34" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="F34" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="G34" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="H34" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="J34" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="L34" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="F34" s="0" t="s">
-        <v>161</v>
-      </c>
-      <c r="G34" s="0" t="s">
-        <v>162</v>
-      </c>
-      <c r="H34" s="0" t="s">
-        <v>148</v>
-      </c>
-      <c r="J34" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="L34" s="6" t="n">
+      <c r="N34" s="6" t="n">
         <v>41275</v>
       </c>
-      <c r="N34" s="0" t="n">
+      <c r="P34" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2928,30 +3179,30 @@
         <v>34</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>126</v>
+        <v>154</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="E35" s="0" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>164</v>
+        <v>193</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>165</v>
+        <v>194</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>152</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="L35" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" s="0" t="n">
+        <v>195</v>
+      </c>
+      <c r="J35" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="L35" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="N35" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2960,30 +3211,30 @@
         <v>35</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>126</v>
+        <v>154</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="E36" s="0" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>167</v>
+        <v>196</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>168</v>
+        <v>197</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>148</v>
-      </c>
-      <c r="J36" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="L36" s="6" t="n">
+        <v>198</v>
+      </c>
+      <c r="J36" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="L36" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="N36" s="6" t="n">
         <v>41275</v>
       </c>
-      <c r="N36" s="0" t="n">
+      <c r="P36" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2992,30 +3243,30 @@
         <v>36</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>126</v>
+        <v>154</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="E37" s="0" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>170</v>
+        <v>199</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>152</v>
-      </c>
-      <c r="J37" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="L37" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" s="0" t="n">
+        <v>201</v>
+      </c>
+      <c r="J37" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="L37" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="N37" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3024,30 +3275,30 @@
         <v>37</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>126</v>
+        <v>154</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="E38" s="0" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>173</v>
+        <v>202</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>174</v>
+        <v>203</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>175</v>
-      </c>
-      <c r="J38" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="L38" s="6" t="n">
+        <v>204</v>
+      </c>
+      <c r="J38" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="L38" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="N38" s="6" t="n">
         <v>41275</v>
       </c>
-      <c r="N38" s="0" t="n">
+      <c r="P38" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3056,30 +3307,30 @@
         <v>38</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>126</v>
+        <v>154</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="E39" s="0" t="s">
-        <v>176</v>
+        <v>155</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>177</v>
+        <v>206</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>178</v>
+        <v>207</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>179</v>
-      </c>
-      <c r="J39" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="L39" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" s="0" t="n">
+        <v>208</v>
+      </c>
+      <c r="J39" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="L39" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N39" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3088,30 +3339,30 @@
         <v>39</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>126</v>
+        <v>154</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="E40" s="0" t="s">
-        <v>180</v>
+        <v>155</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>181</v>
+        <v>210</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>182</v>
+        <v>211</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>175</v>
-      </c>
-      <c r="J40" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="L40" s="6" t="n">
+        <v>212</v>
+      </c>
+      <c r="J40" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="L40" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="N40" s="6" t="n">
         <v>41275</v>
       </c>
-      <c r="N40" s="0" t="n">
+      <c r="P40" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3120,30 +3371,30 @@
         <v>40</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>126</v>
+        <v>154</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="E41" s="0" t="s">
-        <v>183</v>
+        <v>155</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>184</v>
+        <v>213</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>185</v>
+        <v>214</v>
       </c>
       <c r="H41" s="0" t="s">
-        <v>179</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="L41" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" s="0" t="n">
+        <v>215</v>
+      </c>
+      <c r="J41" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="L41" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N41" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3152,30 +3403,30 @@
         <v>41</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>126</v>
+        <v>154</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="E42" s="0" t="s">
-        <v>186</v>
+        <v>155</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>187</v>
+        <v>216</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>188</v>
+        <v>217</v>
       </c>
       <c r="H42" s="0" t="s">
-        <v>175</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="L42" s="6" t="n">
+        <v>218</v>
+      </c>
+      <c r="J42" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="N42" s="6" t="n">
         <v>41275</v>
       </c>
-      <c r="N42" s="0" t="n">
+      <c r="P42" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3184,30 +3435,30 @@
         <v>42</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>126</v>
+        <v>154</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="E43" s="0" t="s">
-        <v>189</v>
+        <v>155</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>190</v>
+        <v>219</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>191</v>
+        <v>220</v>
       </c>
       <c r="H43" s="0" t="s">
-        <v>179</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="L43" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" s="0" t="n">
+        <v>221</v>
+      </c>
+      <c r="J43" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="L43" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N43" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3216,30 +3467,30 @@
         <v>43</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>126</v>
+        <v>154</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="E44" s="0" t="s">
-        <v>192</v>
+        <v>155</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>193</v>
+        <v>222</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>194</v>
+        <v>223</v>
       </c>
       <c r="H44" s="0" t="s">
-        <v>175</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="L44" s="6" t="n">
+        <v>224</v>
+      </c>
+      <c r="J44" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="L44" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="N44" s="6" t="n">
         <v>41275</v>
       </c>
-      <c r="N44" s="0" t="n">
+      <c r="P44" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3248,30 +3499,30 @@
         <v>44</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>126</v>
+        <v>154</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="E45" s="0" t="s">
-        <v>195</v>
+        <v>155</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>196</v>
+        <v>225</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>197</v>
+        <v>226</v>
       </c>
       <c r="H45" s="0" t="s">
-        <v>179</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="L45" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" s="0" t="n">
+        <v>227</v>
+      </c>
+      <c r="J45" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="L45" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N45" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3280,30 +3531,30 @@
         <v>45</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>126</v>
+        <v>154</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="E46" s="0" t="s">
-        <v>198</v>
+        <v>155</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>199</v>
+        <v>228</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>200</v>
+        <v>229</v>
       </c>
       <c r="H46" s="0" t="s">
-        <v>175</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="L46" s="6" t="n">
+        <v>230</v>
+      </c>
+      <c r="J46" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="L46" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="N46" s="6" t="n">
         <v>41275</v>
       </c>
-      <c r="N46" s="0" t="n">
+      <c r="P46" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3312,30 +3563,30 @@
         <v>46</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>126</v>
+        <v>154</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="E47" s="0" t="s">
-        <v>201</v>
+        <v>155</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>202</v>
+        <v>231</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>203</v>
+        <v>232</v>
       </c>
       <c r="H47" s="0" t="s">
-        <v>179</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="L47" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N47" s="0" t="n">
+        <v>233</v>
+      </c>
+      <c r="J47" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="L47" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N47" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P47" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3344,30 +3595,30 @@
         <v>47</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>126</v>
+        <v>154</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="E48" s="0" t="s">
-        <v>204</v>
+        <v>155</v>
       </c>
       <c r="F48" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="G48" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="H48" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="J48" s="0" t="s">
         <v>205</v>
       </c>
-      <c r="G48" s="0" t="s">
-        <v>206</v>
-      </c>
-      <c r="H48" s="0" t="s">
-        <v>175</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="L48" s="6" t="n">
+      <c r="L48" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="N48" s="6" t="n">
         <v>41275</v>
       </c>
-      <c r="N48" s="0" t="n">
+      <c r="P48" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3376,30 +3627,30 @@
         <v>48</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>126</v>
+        <v>154</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="E49" s="0" t="s">
-        <v>207</v>
+        <v>155</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>208</v>
+        <v>237</v>
       </c>
       <c r="G49" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="H49" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="J49" s="0" t="s">
         <v>209</v>
       </c>
-      <c r="H49" s="0" t="s">
-        <v>179</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="L49" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N49" s="0" t="n">
+      <c r="L49" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N49" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P49" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3408,24 +3659,24 @@
         <v>49</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>210</v>
-      </c>
-      <c r="E50" s="0" t="s">
-        <v>211</v>
+        <v>240</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>211</v>
+        <v>241</v>
       </c>
       <c r="G50" s="0" t="s">
-        <v>211</v>
+        <v>241</v>
       </c>
       <c r="H50" s="0" t="s">
-        <v>212</v>
-      </c>
-      <c r="J50" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="N50" s="0" t="n">
+        <v>241</v>
+      </c>
+      <c r="J50" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="L50" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="P50" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3434,24 +3685,24 @@
         <v>50</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>210</v>
-      </c>
-      <c r="E51" s="0" t="s">
-        <v>214</v>
+        <v>240</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>214</v>
+        <v>244</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>214</v>
+        <v>244</v>
       </c>
       <c r="H51" s="0" t="s">
-        <v>215</v>
+        <v>244</v>
       </c>
       <c r="J51" s="0" t="s">
-        <v>216</v>
-      </c>
-      <c r="N51" s="0" t="n">
+        <v>245</v>
+      </c>
+      <c r="L51" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="P51" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3460,27 +3711,27 @@
         <v>51</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>210</v>
+        <v>240</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>217</v>
-      </c>
-      <c r="E52" s="0" t="s">
-        <v>218</v>
+        <v>247</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>219</v>
+        <v>248</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="H52" s="0" t="s">
-        <v>221</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="N52" s="0" t="n">
+        <v>250</v>
+      </c>
+      <c r="J52" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="L52" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="P52" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3489,27 +3740,27 @@
         <v>52</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>210</v>
+        <v>240</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>217</v>
-      </c>
-      <c r="E53" s="0" t="s">
-        <v>222</v>
+        <v>247</v>
       </c>
       <c r="F53" s="0" t="s">
-        <v>223</v>
+        <v>252</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>224</v>
+        <v>253</v>
       </c>
       <c r="H53" s="0" t="s">
-        <v>225</v>
-      </c>
-      <c r="J53" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="N53" s="0" t="n">
+        <v>254</v>
+      </c>
+      <c r="J53" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="L53" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="P53" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3518,27 +3769,27 @@
         <v>53</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>210</v>
+        <v>240</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>217</v>
-      </c>
-      <c r="E54" s="0" t="s">
-        <v>226</v>
+        <v>247</v>
       </c>
       <c r="F54" s="0" t="s">
-        <v>227</v>
+        <v>256</v>
       </c>
       <c r="G54" s="0" t="s">
-        <v>228</v>
+        <v>257</v>
       </c>
       <c r="H54" s="0" t="s">
-        <v>229</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="N54" s="0" t="n">
+        <v>258</v>
+      </c>
+      <c r="J54" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="L54" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="P54" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3547,27 +3798,27 @@
         <v>54</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>210</v>
+        <v>240</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>217</v>
-      </c>
-      <c r="E55" s="0" t="s">
-        <v>230</v>
+        <v>247</v>
       </c>
       <c r="F55" s="0" t="s">
-        <v>231</v>
+        <v>260</v>
       </c>
       <c r="G55" s="0" t="s">
-        <v>232</v>
+        <v>261</v>
       </c>
       <c r="H55" s="0" t="s">
-        <v>233</v>
-      </c>
-      <c r="J55" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="N55" s="0" t="n">
+        <v>262</v>
+      </c>
+      <c r="J55" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="L55" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="P55" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3576,27 +3827,27 @@
         <v>55</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>210</v>
+        <v>240</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>217</v>
-      </c>
-      <c r="E56" s="0" t="s">
-        <v>234</v>
+        <v>247</v>
       </c>
       <c r="F56" s="0" t="s">
-        <v>235</v>
+        <v>264</v>
       </c>
       <c r="G56" s="0" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="H56" s="0" t="s">
-        <v>237</v>
-      </c>
-      <c r="J56" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="N56" s="0" t="n">
+        <v>266</v>
+      </c>
+      <c r="J56" s="0" t="s">
+        <v>267</v>
+      </c>
+      <c r="L56" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="P56" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3605,24 +3856,24 @@
         <v>56</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>210</v>
+        <v>240</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>217</v>
-      </c>
-      <c r="E57" s="0" t="s">
-        <v>238</v>
-      </c>
-      <c r="H57" s="0" t="s">
-        <v>239</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="L57" s="4" t="n">
+        <v>247</v>
+      </c>
+      <c r="F57" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="J57" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="L57" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N57" s="4" t="n">
         <v>300</v>
       </c>
-      <c r="N57" s="0" t="n">
+      <c r="P57" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3631,27 +3882,27 @@
         <v>57</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>240</v>
+        <v>270</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>241</v>
-      </c>
-      <c r="E58" s="0" t="s">
-        <v>242</v>
-      </c>
-      <c r="H58" s="0" t="s">
-        <v>243</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="K58" s="0" t="s">
-        <v>245</v>
-      </c>
-      <c r="L58" s="4" t="n">
+        <v>271</v>
+      </c>
+      <c r="F58" s="0" t="s">
+        <v>272</v>
+      </c>
+      <c r="J58" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M58" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="N58" s="4" t="n">
         <v>4.8</v>
       </c>
-      <c r="N58" s="0" t="n">
+      <c r="P58" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3660,27 +3911,36 @@
         <v>58</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>240</v>
+        <v>270</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>241</v>
+        <v>271</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>246</v>
-      </c>
-      <c r="H59" s="0" t="s">
-        <v>247</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>21</v>
+        <v>41</v>
+      </c>
+      <c r="F59" s="0" t="s">
+        <v>275</v>
+      </c>
+      <c r="I59" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="J59" s="0" t="s">
+        <v>277</v>
       </c>
       <c r="K59" s="0" t="s">
-        <v>248</v>
-      </c>
-      <c r="L59" s="4" t="n">
+        <v>278</v>
+      </c>
+      <c r="L59" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M59" s="0" t="s">
+        <v>279</v>
+      </c>
+      <c r="N59" s="4" t="n">
         <v>86.2</v>
       </c>
-      <c r="N59" s="0" t="n">
+      <c r="P59" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3689,27 +3949,27 @@
         <v>59</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>240</v>
+        <v>270</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>241</v>
-      </c>
-      <c r="E60" s="0" t="s">
-        <v>249</v>
-      </c>
-      <c r="H60" s="0" t="s">
-        <v>250</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K60" s="0" t="s">
-        <v>251</v>
-      </c>
-      <c r="L60" s="4" t="n">
+        <v>271</v>
+      </c>
+      <c r="F60" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="J60" s="0" t="s">
+        <v>281</v>
+      </c>
+      <c r="L60" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M60" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="N60" s="4" t="n">
         <v>71.43</v>
       </c>
-      <c r="N60" s="0" t="n">
+      <c r="P60" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3718,27 +3978,27 @@
         <v>60</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>240</v>
+        <v>270</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>241</v>
-      </c>
-      <c r="E61" s="0" t="s">
-        <v>252</v>
-      </c>
-      <c r="H61" s="0" t="s">
-        <v>253</v>
-      </c>
-      <c r="J61" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K61" s="0" t="s">
-        <v>251</v>
-      </c>
-      <c r="L61" s="4" t="n">
+        <v>271</v>
+      </c>
+      <c r="F61" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="J61" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="L61" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M61" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="N61" s="4" t="n">
         <v>16.34</v>
       </c>
-      <c r="N61" s="0" t="n">
+      <c r="P61" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3747,27 +4007,27 @@
         <v>61</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>240</v>
+        <v>270</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>241</v>
-      </c>
-      <c r="E62" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="H62" s="0" t="s">
-        <v>255</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="K62" s="0" t="s">
-        <v>256</v>
-      </c>
-      <c r="L62" s="4" t="n">
+        <v>271</v>
+      </c>
+      <c r="F62" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="J62" s="0" t="s">
+        <v>286</v>
+      </c>
+      <c r="L62" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M62" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="N62" s="4" t="n">
         <v>1800</v>
       </c>
-      <c r="N62" s="0" t="n">
+      <c r="P62" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3776,27 +4036,27 @@
         <v>62</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>240</v>
+        <v>270</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>241</v>
-      </c>
-      <c r="E63" s="0" t="s">
-        <v>257</v>
-      </c>
-      <c r="H63" s="0" t="s">
-        <v>258</v>
-      </c>
-      <c r="J63" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="K63" s="0" t="s">
-        <v>256</v>
-      </c>
-      <c r="L63" s="4" t="n">
+        <v>271</v>
+      </c>
+      <c r="F63" s="0" t="s">
+        <v>288</v>
+      </c>
+      <c r="J63" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="L63" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="M63" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="N63" s="4" t="n">
         <v>0.1</v>
       </c>
-      <c r="N63" s="0" t="n">
+      <c r="P63" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3805,27 +4065,27 @@
         <v>63</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>240</v>
+        <v>270</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>241</v>
-      </c>
-      <c r="E64" s="0" t="s">
-        <v>259</v>
-      </c>
-      <c r="H64" s="0" t="s">
-        <v>260</v>
-      </c>
-      <c r="J64" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K64" s="0" t="s">
-        <v>256</v>
-      </c>
-      <c r="L64" s="4" t="n">
+        <v>271</v>
+      </c>
+      <c r="F64" s="0" t="s">
+        <v>290</v>
+      </c>
+      <c r="J64" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="L64" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M64" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="N64" s="4" t="n">
         <v>400</v>
       </c>
-      <c r="N64" s="0" t="n">
+      <c r="P64" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3834,27 +4094,27 @@
         <v>64</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>240</v>
+        <v>270</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>241</v>
-      </c>
-      <c r="E65" s="0" t="s">
-        <v>261</v>
-      </c>
-      <c r="H65" s="0" t="s">
-        <v>262</v>
-      </c>
-      <c r="J65" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="K65" s="0" t="s">
-        <v>256</v>
-      </c>
-      <c r="L65" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" s="0" t="n">
+        <v>271</v>
+      </c>
+      <c r="F65" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="J65" s="0" t="s">
+        <v>293</v>
+      </c>
+      <c r="L65" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="M65" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="N65" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P65" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3863,27 +4123,27 @@
         <v>65</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>240</v>
+        <v>270</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>241</v>
-      </c>
-      <c r="E66" s="0" t="s">
-        <v>263</v>
-      </c>
-      <c r="H66" s="0" t="s">
-        <v>264</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K66" s="0" t="s">
-        <v>256</v>
-      </c>
-      <c r="L66" s="4" t="n">
+        <v>271</v>
+      </c>
+      <c r="F66" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="J66" s="0" t="s">
+        <v>295</v>
+      </c>
+      <c r="L66" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M66" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="N66" s="4" t="n">
         <v>153</v>
       </c>
-      <c r="N66" s="0" t="n">
+      <c r="P66" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3892,27 +4152,27 @@
         <v>66</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>240</v>
+        <v>270</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>241</v>
-      </c>
-      <c r="E67" s="0" t="s">
-        <v>265</v>
-      </c>
-      <c r="H67" s="0" t="s">
-        <v>266</v>
-      </c>
-      <c r="J67" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K67" s="0" t="s">
-        <v>256</v>
-      </c>
-      <c r="L67" s="4" t="n">
+        <v>271</v>
+      </c>
+      <c r="F67" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="J67" s="0" t="s">
+        <v>297</v>
+      </c>
+      <c r="L67" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M67" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="N67" s="4" t="n">
         <v>851.33</v>
       </c>
-      <c r="N67" s="0" t="n">
+      <c r="P67" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3921,27 +4181,27 @@
         <v>67</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>240</v>
+        <v>270</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>241</v>
-      </c>
-      <c r="E68" s="0" t="s">
-        <v>267</v>
-      </c>
-      <c r="H68" s="0" t="s">
-        <v>268</v>
-      </c>
-      <c r="J68" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K68" s="0" t="s">
-        <v>256</v>
-      </c>
-      <c r="L68" s="4" t="n">
+        <v>271</v>
+      </c>
+      <c r="F68" s="0" t="s">
+        <v>298</v>
+      </c>
+      <c r="J68" s="0" t="s">
+        <v>299</v>
+      </c>
+      <c r="L68" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="M68" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="N68" s="4" t="n">
         <v>-0.03783</v>
       </c>
-      <c r="N68" s="0" t="n">
+      <c r="P68" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3950,27 +4210,27 @@
         <v>68</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>240</v>
+        <v>270</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>241</v>
-      </c>
-      <c r="E69" s="0" t="s">
-        <v>269</v>
-      </c>
-      <c r="H69" s="0" t="s">
-        <v>270</v>
-      </c>
-      <c r="J69" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K69" s="0" t="s">
-        <v>256</v>
-      </c>
-      <c r="L69" s="4" t="n">
+        <v>271</v>
+      </c>
+      <c r="F69" s="0" t="s">
+        <v>300</v>
+      </c>
+      <c r="J69" s="0" t="s">
+        <v>301</v>
+      </c>
+      <c r="L69" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="M69" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="N69" s="4" t="n">
         <v>0.78469</v>
       </c>
-      <c r="N69" s="0" t="n">
+      <c r="P69" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3979,27 +4239,27 @@
         <v>69</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>240</v>
+        <v>270</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>241</v>
-      </c>
-      <c r="E70" s="0" t="s">
         <v>271</v>
       </c>
-      <c r="H70" s="0" t="s">
-        <v>272</v>
-      </c>
-      <c r="J70" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="K70" s="0" t="s">
-        <v>256</v>
-      </c>
-      <c r="L70" s="4" t="n">
+      <c r="F70" s="0" t="s">
+        <v>302</v>
+      </c>
+      <c r="J70" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="L70" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="M70" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="N70" s="4" t="n">
         <v>0.01379</v>
       </c>
-      <c r="N70" s="0" t="n">
+      <c r="P70" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4008,27 +4268,27 @@
         <v>70</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>240</v>
+        <v>270</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>241</v>
-      </c>
-      <c r="E71" s="0" t="s">
-        <v>273</v>
-      </c>
-      <c r="H71" s="0" t="s">
-        <v>274</v>
-      </c>
-      <c r="J71" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="K71" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="L71" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" s="0" t="n">
+        <v>271</v>
+      </c>
+      <c r="F71" s="0" t="s">
+        <v>304</v>
+      </c>
+      <c r="J71" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="L71" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="M71" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="N71" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P71" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4037,27 +4297,27 @@
         <v>71</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>240</v>
+        <v>270</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>241</v>
-      </c>
-      <c r="E72" s="0" t="s">
-        <v>276</v>
-      </c>
-      <c r="H72" s="0" t="s">
-        <v>277</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="K72" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="L72" s="4" t="n">
+        <v>271</v>
+      </c>
+      <c r="F72" s="0" t="s">
+        <v>307</v>
+      </c>
+      <c r="J72" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="L72" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="M72" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="N72" s="4" t="n">
         <v>4.5</v>
       </c>
-      <c r="N72" s="0" t="n">
+      <c r="P72" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4066,27 +4326,27 @@
         <v>72</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>240</v>
+        <v>270</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>241</v>
-      </c>
-      <c r="E73" s="0" t="s">
-        <v>278</v>
-      </c>
-      <c r="H73" s="0" t="s">
-        <v>279</v>
-      </c>
-      <c r="J73" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="K73" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="L73" s="4" t="n">
+        <v>271</v>
+      </c>
+      <c r="F73" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="J73" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="L73" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="M73" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="N73" s="4" t="n">
         <v>0.015</v>
       </c>
-      <c r="N73" s="0" t="n">
+      <c r="P73" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4095,27 +4355,27 @@
         <v>73</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>240</v>
+        <v>270</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>241</v>
-      </c>
-      <c r="E74" s="0" t="s">
-        <v>280</v>
-      </c>
-      <c r="H74" s="0" t="s">
-        <v>281</v>
-      </c>
-      <c r="J74" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="K74" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="L74" s="4" t="n">
+        <v>271</v>
+      </c>
+      <c r="F74" s="0" t="s">
+        <v>311</v>
+      </c>
+      <c r="J74" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="L74" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="M74" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="N74" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="N74" s="0" t="n">
+      <c r="P74" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4124,27 +4384,27 @@
         <v>74</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>240</v>
+        <v>270</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>241</v>
-      </c>
-      <c r="E75" s="0" t="s">
-        <v>282</v>
-      </c>
-      <c r="H75" s="0" t="s">
-        <v>283</v>
-      </c>
-      <c r="J75" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="K75" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="L75" s="4" t="n">
+        <v>271</v>
+      </c>
+      <c r="F75" s="0" t="s">
+        <v>313</v>
+      </c>
+      <c r="J75" s="0" t="s">
+        <v>314</v>
+      </c>
+      <c r="L75" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M75" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="N75" s="4" t="n">
         <v>37</v>
       </c>
-      <c r="N75" s="0" t="n">
+      <c r="P75" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4153,28 +4413,28 @@
         <v>75</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>240</v>
+        <v>270</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>241</v>
-      </c>
-      <c r="E76" s="0" t="s">
-        <v>284</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="I76" s="3"/>
+        <v>271</v>
+      </c>
+      <c r="F76" s="0" t="s">
+        <v>315</v>
+      </c>
       <c r="J76" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="K76" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="L76" s="4" t="n">
+        <v>316</v>
+      </c>
+      <c r="K76" s="3"/>
+      <c r="L76" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M76" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="N76" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="N76" s="0" t="n">
+      <c r="P76" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4183,28 +4443,28 @@
         <v>76</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>240</v>
+        <v>270</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>241</v>
-      </c>
-      <c r="E77" s="0" t="s">
-        <v>286</v>
-      </c>
-      <c r="H77" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="I77" s="3"/>
+        <v>271</v>
+      </c>
+      <c r="F77" s="0" t="s">
+        <v>317</v>
+      </c>
       <c r="J77" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="K77" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="L77" s="4" t="n">
+        <v>318</v>
+      </c>
+      <c r="K77" s="3"/>
+      <c r="L77" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M77" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="N77" s="4" t="n">
         <v>28</v>
       </c>
-      <c r="N77" s="0" t="n">
+      <c r="P77" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4213,27 +4473,27 @@
         <v>77</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>240</v>
+        <v>270</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>241</v>
-      </c>
-      <c r="E78" s="0" t="s">
-        <v>288</v>
-      </c>
-      <c r="H78" s="0" t="s">
-        <v>289</v>
-      </c>
-      <c r="J78" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="K78" s="0" t="s">
-        <v>256</v>
-      </c>
-      <c r="L78" s="4" t="n">
+        <v>271</v>
+      </c>
+      <c r="F78" s="0" t="s">
+        <v>319</v>
+      </c>
+      <c r="J78" s="0" t="s">
+        <v>320</v>
+      </c>
+      <c r="L78" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="M78" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="N78" s="4" t="n">
         <v>-25</v>
       </c>
-      <c r="N78" s="0" t="n">
+      <c r="P78" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4242,27 +4502,27 @@
         <v>78</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>240</v>
+        <v>270</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>241</v>
-      </c>
-      <c r="E79" s="0" t="s">
-        <v>290</v>
-      </c>
-      <c r="H79" s="0" t="s">
-        <v>291</v>
-      </c>
-      <c r="J79" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K79" s="0" t="s">
-        <v>256</v>
-      </c>
-      <c r="L79" s="4" t="n">
+        <v>271</v>
+      </c>
+      <c r="F79" s="0" t="s">
+        <v>321</v>
+      </c>
+      <c r="J79" s="0" t="s">
+        <v>322</v>
+      </c>
+      <c r="L79" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M79" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="N79" s="4" t="n">
         <v>350</v>
       </c>
-      <c r="N79" s="0" t="n">
+      <c r="P79" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4271,27 +4531,27 @@
         <v>79</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>240</v>
+        <v>270</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>241</v>
-      </c>
-      <c r="E80" s="0" t="s">
-        <v>292</v>
-      </c>
-      <c r="H80" s="0" t="s">
-        <v>293</v>
-      </c>
-      <c r="J80" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="K80" s="0" t="s">
-        <v>256</v>
-      </c>
-      <c r="L80" s="4" t="n">
+        <v>271</v>
+      </c>
+      <c r="F80" s="0" t="s">
+        <v>323</v>
+      </c>
+      <c r="J80" s="0" t="s">
+        <v>324</v>
+      </c>
+      <c r="L80" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="M80" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="N80" s="4" t="n">
         <v>0.1</v>
       </c>
-      <c r="N80" s="0" t="n">
+      <c r="P80" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4300,27 +4560,27 @@
         <v>80</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>240</v>
+        <v>270</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>294</v>
-      </c>
-      <c r="E81" s="0" t="s">
-        <v>295</v>
-      </c>
-      <c r="H81" s="0" t="s">
-        <v>296</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="K81" s="0" t="s">
-        <v>297</v>
-      </c>
-      <c r="L81" s="4" t="n">
+        <v>325</v>
+      </c>
+      <c r="F81" s="0" t="s">
+        <v>326</v>
+      </c>
+      <c r="J81" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="L81" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="M81" s="0" t="s">
+        <v>328</v>
+      </c>
+      <c r="N81" s="4" t="n">
         <v>4.53</v>
       </c>
-      <c r="N81" s="0" t="n">
+      <c r="P81" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4329,27 +4589,27 @@
         <v>81</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>240</v>
+        <v>270</v>
       </c>
       <c r="D82" s="0" t="s">
-        <v>294</v>
-      </c>
-      <c r="E82" s="0" t="s">
-        <v>298</v>
-      </c>
-      <c r="H82" s="0" t="s">
-        <v>299</v>
-      </c>
-      <c r="J82" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="K82" s="0" t="s">
-        <v>297</v>
-      </c>
-      <c r="L82" s="4" t="n">
+        <v>325</v>
+      </c>
+      <c r="F82" s="0" t="s">
+        <v>329</v>
+      </c>
+      <c r="J82" s="0" t="s">
+        <v>330</v>
+      </c>
+      <c r="L82" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="M82" s="0" t="s">
+        <v>328</v>
+      </c>
+      <c r="N82" s="4" t="n">
         <v>0.42</v>
       </c>
-      <c r="N82" s="0" t="n">
+      <c r="P82" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4358,27 +4618,27 @@
         <v>82</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>240</v>
+        <v>270</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>294</v>
-      </c>
-      <c r="E83" s="0" t="s">
-        <v>300</v>
-      </c>
-      <c r="H83" s="0" t="s">
-        <v>301</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="K83" s="0" t="s">
-        <v>297</v>
-      </c>
-      <c r="L83" s="4" t="n">
+        <v>325</v>
+      </c>
+      <c r="F83" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="J83" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="L83" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="M83" s="0" t="s">
+        <v>328</v>
+      </c>
+      <c r="N83" s="4" t="n">
         <v>6.49</v>
       </c>
-      <c r="N83" s="0" t="n">
+      <c r="P83" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4387,27 +4647,27 @@
         <v>83</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>240</v>
+        <v>270</v>
       </c>
       <c r="D84" s="0" t="s">
-        <v>294</v>
-      </c>
-      <c r="E84" s="0" t="s">
-        <v>302</v>
-      </c>
-      <c r="H84" s="0" t="s">
-        <v>303</v>
-      </c>
-      <c r="J84" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="K84" s="0" t="s">
-        <v>297</v>
-      </c>
-      <c r="L84" s="4" t="n">
+        <v>325</v>
+      </c>
+      <c r="F84" s="0" t="s">
+        <v>333</v>
+      </c>
+      <c r="J84" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="L84" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="M84" s="0" t="s">
+        <v>328</v>
+      </c>
+      <c r="N84" s="4" t="n">
         <v>0.44</v>
       </c>
-      <c r="N84" s="0" t="n">
+      <c r="P84" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4416,27 +4676,27 @@
         <v>84</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>240</v>
+        <v>270</v>
       </c>
       <c r="D85" s="0" t="s">
-        <v>294</v>
-      </c>
-      <c r="E85" s="0" t="s">
-        <v>304</v>
-      </c>
-      <c r="H85" s="0" t="s">
-        <v>305</v>
-      </c>
-      <c r="J85" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="K85" s="0" t="s">
-        <v>297</v>
-      </c>
-      <c r="L85" s="4" t="n">
+        <v>325</v>
+      </c>
+      <c r="F85" s="0" t="s">
+        <v>335</v>
+      </c>
+      <c r="J85" s="0" t="s">
+        <v>336</v>
+      </c>
+      <c r="L85" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="M85" s="0" t="s">
+        <v>328</v>
+      </c>
+      <c r="N85" s="4" t="n">
         <v>75</v>
       </c>
-      <c r="N85" s="0" t="n">
+      <c r="P85" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4445,27 +4705,27 @@
         <v>85</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>240</v>
+        <v>270</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>294</v>
-      </c>
-      <c r="E86" s="0" t="s">
-        <v>307</v>
-      </c>
-      <c r="H86" s="0" t="s">
-        <v>308</v>
-      </c>
-      <c r="J86" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="K86" s="0" t="s">
-        <v>297</v>
-      </c>
-      <c r="L86" s="4" t="n">
+        <v>325</v>
+      </c>
+      <c r="F86" s="0" t="s">
+        <v>338</v>
+      </c>
+      <c r="J86" s="0" t="s">
+        <v>339</v>
+      </c>
+      <c r="L86" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="M86" s="0" t="s">
+        <v>328</v>
+      </c>
+      <c r="N86" s="4" t="n">
         <v>75</v>
       </c>
-      <c r="N86" s="0" t="n">
+      <c r="P86" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4474,27 +4734,27 @@
         <v>86</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>240</v>
+        <v>270</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>294</v>
-      </c>
-      <c r="E87" s="0" t="s">
-        <v>309</v>
-      </c>
-      <c r="H87" s="0" t="s">
-        <v>310</v>
-      </c>
-      <c r="J87" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="K87" s="0" t="s">
-        <v>311</v>
-      </c>
-      <c r="L87" s="4" t="n">
+        <v>325</v>
+      </c>
+      <c r="F87" s="0" t="s">
+        <v>340</v>
+      </c>
+      <c r="J87" s="0" t="s">
+        <v>341</v>
+      </c>
+      <c r="L87" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="M87" s="0" t="s">
+        <v>342</v>
+      </c>
+      <c r="N87" s="4" t="n">
         <v>0.6</v>
       </c>
-      <c r="N87" s="0" t="n">
+      <c r="P87" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4503,27 +4763,27 @@
         <v>87</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>240</v>
+        <v>270</v>
       </c>
       <c r="D88" s="0" t="s">
-        <v>294</v>
-      </c>
-      <c r="E88" s="0" t="s">
-        <v>312</v>
-      </c>
-      <c r="H88" s="0" t="s">
-        <v>313</v>
-      </c>
-      <c r="J88" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="K88" s="0" t="s">
-        <v>311</v>
-      </c>
-      <c r="L88" s="4" t="n">
+        <v>325</v>
+      </c>
+      <c r="F88" s="0" t="s">
+        <v>343</v>
+      </c>
+      <c r="J88" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="L88" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="M88" s="0" t="s">
+        <v>342</v>
+      </c>
+      <c r="N88" s="4" t="n">
         <v>0.3</v>
       </c>
-      <c r="N88" s="0" t="n">
+      <c r="P88" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4532,27 +4792,27 @@
         <v>88</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>240</v>
+        <v>270</v>
       </c>
       <c r="D89" s="0" t="s">
-        <v>294</v>
-      </c>
-      <c r="E89" s="0" t="s">
-        <v>314</v>
-      </c>
-      <c r="H89" s="0" t="s">
-        <v>315</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="K89" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="L89" s="4" t="n">
+        <v>325</v>
+      </c>
+      <c r="F89" s="0" t="s">
+        <v>345</v>
+      </c>
+      <c r="J89" s="0" t="s">
+        <v>346</v>
+      </c>
+      <c r="L89" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="M89" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="N89" s="4" t="n">
         <v>0.7</v>
       </c>
-      <c r="N89" s="0" t="n">
+      <c r="P89" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4561,24 +4821,24 @@
         <v>89</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>240</v>
+        <v>270</v>
       </c>
       <c r="D90" s="0" t="s">
-        <v>317</v>
-      </c>
-      <c r="E90" s="0" t="s">
-        <v>318</v>
-      </c>
-      <c r="H90" s="0" t="s">
-        <v>319</v>
-      </c>
-      <c r="J90" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="L90" s="4" t="n">
+        <v>348</v>
+      </c>
+      <c r="F90" s="0" t="s">
+        <v>349</v>
+      </c>
+      <c r="J90" s="0" t="s">
+        <v>350</v>
+      </c>
+      <c r="L90" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="N90" s="4" t="n">
         <v>0.6</v>
       </c>
-      <c r="N90" s="0" t="n">
+      <c r="P90" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4587,27 +4847,27 @@
         <v>90</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>240</v>
+        <v>270</v>
       </c>
       <c r="D91" s="0" t="s">
-        <v>294</v>
-      </c>
-      <c r="E91" s="0" t="s">
-        <v>320</v>
-      </c>
-      <c r="H91" s="0" t="s">
-        <v>321</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="K91" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="L91" s="4" t="n">
+        <v>325</v>
+      </c>
+      <c r="F91" s="0" t="s">
+        <v>351</v>
+      </c>
+      <c r="J91" s="0" t="s">
+        <v>352</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="M91" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="N91" s="4" t="n">
         <v>1.2</v>
       </c>
-      <c r="N91" s="0" t="n">
+      <c r="P91" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4616,27 +4876,36 @@
         <v>91</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>240</v>
+        <v>270</v>
       </c>
       <c r="D92" s="0" t="s">
-        <v>294</v>
+        <v>325</v>
       </c>
       <c r="E92" s="0" t="s">
-        <v>322</v>
-      </c>
-      <c r="H92" s="0" t="s">
-        <v>323</v>
-      </c>
-      <c r="J92" s="3" t="s">
-        <v>324</v>
+        <v>41</v>
+      </c>
+      <c r="F92" s="0" t="s">
+        <v>353</v>
+      </c>
+      <c r="I92" s="0" t="s">
+        <v>354</v>
+      </c>
+      <c r="J92" s="0" t="s">
+        <v>355</v>
       </c>
       <c r="K92" s="0" t="s">
-        <v>248</v>
-      </c>
-      <c r="L92" s="4" t="n">
+        <v>356</v>
+      </c>
+      <c r="L92" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="M92" s="0" t="s">
+        <v>279</v>
+      </c>
+      <c r="N92" s="4" t="n">
         <v>1.19</v>
       </c>
-      <c r="N92" s="0" t="n">
+      <c r="P92" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4645,16 +4914,16 @@
         <v>100</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>325</v>
+        <v>358</v>
       </c>
       <c r="D93" s="0" t="s">
-        <v>326</v>
-      </c>
-      <c r="E93" s="0" t="s">
-        <v>327</v>
-      </c>
-      <c r="J93" s="3"/>
-      <c r="N93" s="0" t="n">
+        <v>359</v>
+      </c>
+      <c r="F93" s="0" t="s">
+        <v>360</v>
+      </c>
+      <c r="L93" s="3"/>
+      <c r="P93" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4663,16 +4932,16 @@
         <v>101</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>325</v>
+        <v>358</v>
       </c>
       <c r="D94" s="0" t="s">
-        <v>326</v>
-      </c>
-      <c r="E94" s="0" t="s">
-        <v>328</v>
-      </c>
-      <c r="J94" s="3"/>
-      <c r="N94" s="0" t="n">
+        <v>359</v>
+      </c>
+      <c r="F94" s="0" t="s">
+        <v>361</v>
+      </c>
+      <c r="L94" s="3"/>
+      <c r="P94" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4681,16 +4950,16 @@
         <v>102</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>325</v>
+        <v>358</v>
       </c>
       <c r="D95" s="0" t="s">
-        <v>326</v>
-      </c>
-      <c r="E95" s="0" t="s">
-        <v>329</v>
-      </c>
-      <c r="J95" s="3"/>
-      <c r="N95" s="0" t="n">
+        <v>359</v>
+      </c>
+      <c r="F95" s="0" t="s">
+        <v>362</v>
+      </c>
+      <c r="L95" s="3"/>
+      <c r="P95" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4699,16 +4968,16 @@
         <v>103</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>325</v>
+        <v>358</v>
       </c>
       <c r="D96" s="0" t="s">
-        <v>326</v>
-      </c>
-      <c r="E96" s="0" t="s">
-        <v>330</v>
-      </c>
-      <c r="J96" s="3"/>
-      <c r="N96" s="0" t="n">
+        <v>359</v>
+      </c>
+      <c r="F96" s="0" t="s">
+        <v>363</v>
+      </c>
+      <c r="L96" s="3"/>
+      <c r="P96" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4717,16 +4986,16 @@
         <v>104</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>325</v>
+        <v>358</v>
       </c>
       <c r="D97" s="0" t="s">
-        <v>326</v>
-      </c>
-      <c r="E97" s="0" t="s">
-        <v>331</v>
-      </c>
-      <c r="J97" s="3"/>
-      <c r="N97" s="0" t="n">
+        <v>359</v>
+      </c>
+      <c r="F97" s="0" t="s">
+        <v>364</v>
+      </c>
+      <c r="L97" s="3"/>
+      <c r="P97" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4735,16 +5004,16 @@
         <v>105</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>325</v>
+        <v>358</v>
       </c>
       <c r="D98" s="0" t="s">
-        <v>326</v>
-      </c>
-      <c r="E98" s="0" t="s">
-        <v>332</v>
-      </c>
-      <c r="J98" s="3"/>
-      <c r="N98" s="0" t="n">
+        <v>359</v>
+      </c>
+      <c r="F98" s="0" t="s">
+        <v>365</v>
+      </c>
+      <c r="L98" s="3"/>
+      <c r="P98" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4753,16 +5022,16 @@
         <v>106</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>325</v>
+        <v>358</v>
       </c>
       <c r="D99" s="0" t="s">
-        <v>326</v>
-      </c>
-      <c r="E99" s="0" t="s">
-        <v>333</v>
-      </c>
-      <c r="J99" s="3"/>
-      <c r="N99" s="0" t="n">
+        <v>359</v>
+      </c>
+      <c r="F99" s="0" t="s">
+        <v>366</v>
+      </c>
+      <c r="L99" s="3"/>
+      <c r="P99" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4771,16 +5040,16 @@
         <v>107</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>325</v>
+        <v>358</v>
       </c>
       <c r="D100" s="0" t="s">
-        <v>334</v>
-      </c>
-      <c r="E100" s="0" t="s">
-        <v>329</v>
-      </c>
-      <c r="J100" s="3"/>
-      <c r="N100" s="0" t="n">
+        <v>367</v>
+      </c>
+      <c r="F100" s="0" t="s">
+        <v>362</v>
+      </c>
+      <c r="L100" s="3"/>
+      <c r="P100" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4789,38 +5058,38 @@
         <v>108</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>325</v>
+        <v>358</v>
       </c>
       <c r="D101" s="0" t="s">
-        <v>334</v>
-      </c>
-      <c r="E101" s="0" t="s">
-        <v>335</v>
-      </c>
-      <c r="J101" s="3"/>
-      <c r="N101" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="102">
+        <v>367</v>
+      </c>
+      <c r="F101" s="0" t="s">
+        <v>368</v>
+      </c>
+      <c r="L101" s="3"/>
+      <c r="P101" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="102">
       <c r="A102" s="0" t="n">
         <v>109</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>325</v>
+        <v>358</v>
       </c>
       <c r="D102" s="0" t="s">
-        <v>334</v>
-      </c>
-      <c r="E102" s="0" t="s">
-        <v>331</v>
-      </c>
-      <c r="N102" s="0" t="n">
+        <v>367</v>
+      </c>
+      <c r="F102" s="0" t="s">
+        <v>364</v>
+      </c>
+      <c r="P102" s="0" t="n">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O102"/>
+  <autoFilter ref="A1:Q102"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="true" usePrinterDefaults="false" verticalDpi="300"/>
@@ -4832,7 +5101,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -4840,7 +5109,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="E1" activeCellId="0" pane="topLeft" sqref="E1"/>
+      <selection activeCell="E1" activeCellId="5" pane="topLeft" sqref="M2:M14 M16 M24:M25 M58:M89 M91:M92 E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.2"/>
@@ -4857,28 +5126,28 @@
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="1">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>336</v>
+        <v>369</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>337</v>
+        <v>370</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>338</v>
+        <v>371</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="2">
@@ -4886,22 +5155,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>339</v>
+        <v>372</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>340</v>
+        <v>373</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>341</v>
+        <v>374</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>342</v>
+        <v>5</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>343</v>
+        <v>375</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>244</v>
+        <v>9</v>
       </c>
       <c r="H2" s="0" t="n">
         <v>1</v>
@@ -4912,22 +5181,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>339</v>
+        <v>372</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>340</v>
+        <v>373</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>344</v>
+        <v>376</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>345</v>
+        <v>10</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>346</v>
+        <v>377</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>244</v>
+        <v>9</v>
       </c>
       <c r="H3" s="0" t="n">
         <v>1</v>
@@ -4938,22 +5207,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>339</v>
+        <v>372</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>340</v>
+        <v>373</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>347</v>
+        <v>378</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>348</v>
+        <v>379</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>349</v>
+        <v>380</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>244</v>
+        <v>9</v>
       </c>
       <c r="H4" s="0" t="n">
         <v>1</v>
@@ -4964,22 +5233,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>339</v>
+        <v>372</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>340</v>
+        <v>373</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>350</v>
+        <v>381</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>351</v>
+        <v>14</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>352</v>
+        <v>16</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>353</v>
+        <v>382</v>
       </c>
       <c r="H5" s="0" t="n">
         <v>1</v>
@@ -4990,22 +5259,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>339</v>
+        <v>372</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>340</v>
+        <v>373</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>354</v>
+        <v>383</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>355</v>
+        <v>19</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>356</v>
+        <v>21</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="H6" s="0" t="n">
         <v>1</v>
@@ -5016,22 +5285,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>339</v>
+        <v>372</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>340</v>
+        <v>373</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>357</v>
+        <v>384</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>358</v>
+        <v>24</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>359</v>
+        <v>26</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="H7" s="0" t="n">
         <v>1</v>
@@ -5042,22 +5311,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>360</v>
+        <v>385</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>361</v>
+        <v>386</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>362</v>
+        <v>387</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>363</v>
+        <v>388</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>364</v>
+        <v>389</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>365</v>
+        <v>390</v>
       </c>
       <c r="H8" s="0" t="n">
         <v>1</v>
@@ -5068,22 +5337,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>360</v>
+        <v>385</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>361</v>
+        <v>386</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>366</v>
+        <v>391</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>367</v>
+        <v>392</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>368</v>
+        <v>393</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="H9" s="0" t="n">
         <v>1</v>
@@ -5094,22 +5363,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>360</v>
+        <v>385</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>369</v>
+        <v>394</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>370</v>
+        <v>395</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>370</v>
+        <v>395</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>371</v>
+        <v>396</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="H10" s="0" t="n">
         <v>1</v>
@@ -5120,22 +5389,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>360</v>
+        <v>385</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>369</v>
+        <v>394</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>372</v>
+        <v>397</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>372</v>
+        <v>397</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>373</v>
+        <v>398</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="H11" s="0" t="n">
         <v>1</v>
@@ -5146,22 +5415,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>360</v>
+        <v>385</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>369</v>
+        <v>394</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>374</v>
+        <v>399</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>374</v>
+        <v>399</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>375</v>
+        <v>400</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="H12" s="0" t="n">
         <v>1</v>
@@ -5172,22 +5441,22 @@
         <v>12</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>360</v>
+        <v>385</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>369</v>
+        <v>394</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>376</v>
+        <v>401</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>376</v>
+        <v>401</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>377</v>
+        <v>402</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="H13" s="0" t="n">
         <v>1</v>
@@ -5198,22 +5467,22 @@
         <v>13</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>360</v>
+        <v>385</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>378</v>
+        <v>403</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>379</v>
+        <v>404</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>380</v>
+        <v>405</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>381</v>
+        <v>406</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="H14" s="0" t="n">
         <v>1</v>
@@ -5224,22 +5493,22 @@
         <v>14</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>360</v>
+        <v>385</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>382</v>
+        <v>407</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>383</v>
+        <v>408</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>384</v>
+        <v>409</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>385</v>
+        <v>410</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>386</v>
+        <v>411</v>
       </c>
       <c r="H15" s="0" t="n">
         <v>1</v>
@@ -5250,22 +5519,22 @@
         <v>15</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>360</v>
+        <v>385</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>382</v>
+        <v>407</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>387</v>
+        <v>412</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>388</v>
+        <v>413</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>389</v>
+        <v>414</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="H16" s="0" t="n">
         <v>1</v>
@@ -5276,22 +5545,22 @@
         <v>16</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>360</v>
+        <v>385</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>382</v>
+        <v>407</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>390</v>
+        <v>415</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>391</v>
+        <v>416</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>392</v>
+        <v>417</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="H17" s="0" t="n">
         <v>1</v>
@@ -5302,22 +5571,22 @@
         <v>17</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>360</v>
+        <v>385</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>393</v>
+        <v>418</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>394</v>
+        <v>419</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>394</v>
+        <v>419</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>395</v>
+        <v>420</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="H18" s="0" t="n">
         <v>1</v>
@@ -5328,22 +5597,22 @@
         <v>18</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>360</v>
+        <v>385</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>393</v>
+        <v>418</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>396</v>
+        <v>421</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>397</v>
+        <v>422</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>398</v>
+        <v>423</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="H19" s="0" t="n">
         <v>1</v>
@@ -5354,22 +5623,22 @@
         <v>19</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>360</v>
+        <v>385</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>393</v>
+        <v>418</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>399</v>
+        <v>424</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>400</v>
+        <v>425</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>401</v>
+        <v>426</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="H20" s="0" t="n">
         <v>1</v>
@@ -5380,22 +5649,22 @@
         <v>20</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>360</v>
+        <v>385</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>393</v>
+        <v>418</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>402</v>
+        <v>427</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>402</v>
+        <v>427</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>403</v>
+        <v>428</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>306</v>
+        <v>337</v>
       </c>
       <c r="H21" s="0" t="n">
         <v>1</v>
@@ -5406,22 +5675,22 @@
         <v>21</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>360</v>
+        <v>385</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>404</v>
+        <v>429</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>405</v>
+        <v>430</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>406</v>
+        <v>431</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>407</v>
+        <v>432</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>408</v>
+        <v>433</v>
       </c>
       <c r="H22" s="0" t="n">
         <v>1</v>
@@ -5432,22 +5701,22 @@
         <v>22</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>360</v>
+        <v>385</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>409</v>
+        <v>434</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>410</v>
+        <v>435</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>411</v>
+        <v>436</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>412</v>
+        <v>437</v>
       </c>
       <c r="H23" s="0" t="n">
         <v>1</v>
@@ -5464,7 +5733,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -5472,7 +5741,7 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="J22" activeCellId="0" pane="topLeft" sqref="J22"/>
+      <selection activeCell="J22" activeCellId="5" pane="topLeft" sqref="M2:M14 M16 M24:M25 M58:M89 M91:M92 J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.2"/>
@@ -5491,37 +5760,37 @@
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="1" s="7">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>413</v>
+        <v>438</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>414</v>
+        <v>439</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>415</v>
+        <v>440</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>416</v>
+        <v>441</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>417</v>
+        <v>442</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>418</v>
+        <v>443</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="2">
@@ -5529,34 +5798,34 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>419</v>
+        <v>444</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>420</v>
+        <v>445</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>421</v>
+        <v>446</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>422</v>
+        <v>447</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>423</v>
+        <v>448</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>424</v>
+        <v>449</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>425</v>
+        <v>450</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>426</v>
+        <v>451</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>353</v>
+        <v>382</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>427</v>
+        <v>452</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="3">
@@ -5564,34 +5833,34 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>419</v>
+        <v>444</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>420</v>
+        <v>445</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>428</v>
+        <v>453</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>429</v>
+        <v>454</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>424</v>
+        <v>449</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>359</v>
+        <v>26</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>430</v>
+        <v>455</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>431</v>
+        <v>456</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="4">
@@ -5599,34 +5868,34 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>419</v>
+        <v>444</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>420</v>
+        <v>445</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>428</v>
+        <v>453</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>432</v>
+        <v>457</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>424</v>
+        <v>449</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>433</v>
+        <v>458</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>434</v>
+        <v>459</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>435</v>
+        <v>460</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="5">
@@ -5634,34 +5903,34 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>419</v>
+        <v>444</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>420</v>
+        <v>445</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>428</v>
+        <v>453</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>436</v>
+        <v>461</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>424</v>
+        <v>449</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>437</v>
+        <v>462</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>438</v>
+        <v>463</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>439</v>
+        <v>464</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="6">
@@ -5669,34 +5938,34 @@
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>440</v>
+        <v>465</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>441</v>
+        <v>466</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>428</v>
+        <v>453</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>442</v>
+        <v>467</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>424</v>
+        <v>449</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>443</v>
+        <v>468</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>444</v>
+        <v>469</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>445</v>
+        <v>470</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="7">
@@ -5704,34 +5973,34 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>440</v>
+        <v>465</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>441</v>
+        <v>466</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>428</v>
+        <v>453</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>446</v>
+        <v>471</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>424</v>
+        <v>449</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>447</v>
+        <v>472</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>448</v>
+        <v>473</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>449</v>
+        <v>474</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="8">
@@ -5739,34 +6008,34 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>440</v>
+        <v>465</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>441</v>
+        <v>466</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>428</v>
+        <v>453</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>450</v>
+        <v>475</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>451</v>
+        <v>476</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>424</v>
+        <v>449</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>452</v>
+        <v>477</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>453</v>
+        <v>478</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>454</v>
+        <v>479</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="9">
@@ -5774,34 +6043,34 @@
         <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>440</v>
+        <v>465</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>441</v>
+        <v>466</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>428</v>
+        <v>453</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>422</v>
+        <v>447</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>455</v>
+        <v>480</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>424</v>
+        <v>449</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>456</v>
+        <v>481</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>457</v>
+        <v>482</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>458</v>
+        <v>483</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="10">
@@ -5809,34 +6078,34 @@
         <v>9</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>440</v>
+        <v>465</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>441</v>
+        <v>466</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>459</v>
+        <v>484</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>460</v>
+        <v>485</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>424</v>
+        <v>449</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>461</v>
+        <v>486</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>462</v>
+        <v>487</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>463</v>
+        <v>488</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="11">
@@ -5844,34 +6113,34 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>440</v>
+        <v>465</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>441</v>
+        <v>466</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>459</v>
+        <v>484</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>464</v>
+        <v>489</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>424</v>
+        <v>449</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>385</v>
+        <v>410</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>465</v>
+        <v>490</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>466</v>
+        <v>491</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>467</v>
+        <v>492</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="12">
@@ -5879,34 +6148,34 @@
         <v>11</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>440</v>
+        <v>465</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>441</v>
+        <v>466</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>459</v>
+        <v>484</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>422</v>
+        <v>447</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>468</v>
+        <v>493</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>424</v>
+        <v>449</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>469</v>
+        <v>494</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>470</v>
+        <v>495</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>471</v>
+        <v>496</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="13">
@@ -5914,34 +6183,34 @@
         <v>12</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>440</v>
+        <v>465</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>441</v>
+        <v>466</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>472</v>
+        <v>497</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>422</v>
+        <v>447</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>473</v>
+        <v>498</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>424</v>
+        <v>449</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>474</v>
+        <v>499</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>475</v>
+        <v>500</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>476</v>
+        <v>501</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="14">
@@ -5949,34 +6218,34 @@
         <v>13</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>477</v>
+        <v>502</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>441</v>
+        <v>466</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>478</v>
+        <v>503</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>394</v>
+        <v>419</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>424</v>
+        <v>449</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>479</v>
+        <v>504</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>480</v>
+        <v>505</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>481</v>
+        <v>506</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="15">
@@ -5984,34 +6253,34 @@
         <v>14</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>477</v>
+        <v>502</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>441</v>
+        <v>466</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>478</v>
+        <v>503</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>482</v>
+        <v>507</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>424</v>
+        <v>449</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>483</v>
+        <v>508</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>484</v>
+        <v>509</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>485</v>
+        <v>510</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="16">
@@ -6019,34 +6288,34 @@
         <v>15</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>419</v>
+        <v>444</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>441</v>
+        <v>466</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>421</v>
+        <v>446</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>478</v>
+        <v>503</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>486</v>
+        <v>511</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>424</v>
+        <v>449</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>487</v>
+        <v>512</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>488</v>
+        <v>513</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>353</v>
+        <v>382</v>
       </c>
       <c r="K16" s="0" t="s">
-        <v>489</v>
+        <v>514</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="17">
@@ -6054,34 +6323,34 @@
         <v>16</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>477</v>
+        <v>502</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>441</v>
+        <v>466</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>422</v>
+        <v>447</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>490</v>
+        <v>515</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>424</v>
+        <v>449</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>491</v>
+        <v>516</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>492</v>
+        <v>517</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>493</v>
+        <v>518</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>494</v>
+        <v>519</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="18">
@@ -6089,34 +6358,34 @@
         <v>17</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>477</v>
+        <v>502</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>441</v>
+        <v>466</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>422</v>
+        <v>447</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>495</v>
+        <v>520</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>424</v>
+        <v>449</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>496</v>
+        <v>521</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>497</v>
+        <v>522</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>306</v>
+        <v>337</v>
       </c>
       <c r="K18" s="0" t="s">
-        <v>498</v>
+        <v>523</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="19">
@@ -6124,34 +6393,34 @@
         <v>18</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>499</v>
+        <v>524</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>441</v>
+        <v>466</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>472</v>
+        <v>497</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>500</v>
+        <v>525</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>501</v>
+        <v>526</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>424</v>
+        <v>449</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>502</v>
+        <v>527</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>503</v>
+        <v>528</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>365</v>
+        <v>390</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>504</v>
+        <v>529</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.15" outlineLevel="0" r="20">
@@ -6159,34 +6428,34 @@
         <v>19</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>477</v>
+        <v>502</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>441</v>
+        <v>466</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>505</v>
+        <v>530</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>406</v>
+        <v>431</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>424</v>
+        <v>449</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>407</v>
+        <v>432</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>506</v>
+        <v>531</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>408</v>
+        <v>433</v>
       </c>
       <c r="K20" s="0" t="s">
-        <v>507</v>
+        <v>532</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="21">
@@ -6194,34 +6463,34 @@
         <v>20</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>477</v>
+        <v>502</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>441</v>
+        <v>466</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>505</v>
+        <v>530</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>424</v>
+        <v>449</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>411</v>
+        <v>436</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>508</v>
+        <v>533</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>509</v>
+        <v>534</v>
       </c>
       <c r="K21" s="0" t="s">
-        <v>510</v>
+        <v>535</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.15" outlineLevel="0" r="22"/>

--- a/inst/doc/files/parameterization.xlsx
+++ b/inst/doc/files/parameterization.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="1" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="527" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="422" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="inputs" sheetId="1" state="visible" r:id="rId2"/>
@@ -28,13 +28,14 @@
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">parameters!$A$1:$Q$102</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">parameters!$A$1:$Q$102</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">parameters!$A$1:$Q$102</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">parameters!$A$1:$Q$102</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1069" uniqueCount="536">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="604">
   <si>
     <t>name.rsunflo.fr</t>
   </si>
@@ -231,709 +232,913 @@
     <t>TLN</t>
   </si>
   <si>
+    <t>LeafNumber</t>
+  </si>
+  <si>
     <t>Nombre de feuille potentiel</t>
   </si>
   <si>
     <t>Number of leaves at flowering</t>
   </si>
   <si>
+    <t>leaf</t>
+  </si>
+  <si>
+    <t>bSF</t>
+  </si>
+  <si>
+    <t>LLH</t>
+  </si>
+  <si>
+    <t>LeafProfile</t>
+  </si>
+  <si>
+    <t>Rang (depuis le sol) de la plus grande feuille du profil foliaire à la floraison</t>
+  </si>
+  <si>
+    <t>Rank of the largest leave of leaf profile at flowering</t>
+  </si>
+  <si>
+    <t>cSF</t>
+  </si>
+  <si>
+    <t>LLS</t>
+  </si>
+  <si>
+    <t>LeafSize</t>
+  </si>
+  <si>
+    <t>Surface de la plus grande feuille du profil folaire à la floraison</t>
+  </si>
+  <si>
+    <t>Area of the largest leave of leaf profile at flowering</t>
+  </si>
+  <si>
+    <t>cm2</t>
+  </si>
+  <si>
+    <t>ext</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>ExtinctionCoefficient</t>
+  </si>
+  <si>
+    <t>Coefficient d’extinction du rayonnement lors de la phase végétative (E1-F1)</t>
+  </si>
+  <si>
+    <t>Light extinction coefficient during vegetative growth</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>a_LE</t>
+  </si>
+  <si>
+    <t>LE</t>
+  </si>
+  <si>
+    <t>WaterResponseExpansion</t>
+  </si>
+  <si>
+    <t>Seuil de réponse de l'expansion foliaire à une contrainte hydrique</t>
+  </si>
+  <si>
+    <t>Threshold for leaf expansion response to water stress</t>
+  </si>
+  <si>
+    <t>[@Casadebaig2008]</t>
+  </si>
+  <si>
+    <t>a_TR</t>
+  </si>
+  <si>
+    <t>TR</t>
+  </si>
+  <si>
+    <t>WaterResponseConductance</t>
+  </si>
+  <si>
+    <t>Seuil de réponse de la conductance stomatique à une contrainte hydrique</t>
+  </si>
+  <si>
+    <t>Threshold for stomatal conductance response to water stress</t>
+  </si>
+  <si>
+    <t>PHS</t>
+  </si>
+  <si>
+    <t>PotentialPhotosynthesis</t>
+  </si>
+  <si>
+    <t>Capacité photosynthétique relative à la variete Melody</t>
+  </si>
+  <si>
+    <t>Potential photosynthesis capacity</t>
+  </si>
+  <si>
+    <t>IRg</t>
+  </si>
+  <si>
+    <t>HI</t>
+  </si>
+  <si>
+    <t>PotentialHarvestIndex</t>
+  </si>
+  <si>
+    <t>Indice de récolte potentiel</t>
+  </si>
+  <si>
+    <t>Potential harvest index</t>
+  </si>
+  <si>
+    <t>[@Casadebaig2011]</t>
+  </si>
+  <si>
+    <t>thp</t>
+  </si>
+  <si>
+    <t>OC</t>
+  </si>
+  <si>
+    <t>PotentialOilContent</t>
+  </si>
+  <si>
+    <t>Teneur en huile dans l’akène en conditions potentielles</t>
+  </si>
+  <si>
+    <t>Potential seed oil content</t>
+  </si>
+  <si>
+    <t>% (dry matter)</t>
+  </si>
+  <si>
+    <t>Pedoclimat</t>
+  </si>
+  <si>
+    <t>CONFIG_ClimatNomFichier</t>
+  </si>
+  <si>
+    <t>datas_file</t>
+  </si>
+  <si>
+    <t>meteo</t>
+  </si>
+  <si>
+    <t>file</t>
+  </si>
+  <si>
+    <t>Nom du fichier climatique</t>
+  </si>
+  <si>
+    <t>AUZ_2006.txt</t>
+  </si>
+  <si>
+    <t>CONFIG_Sol</t>
+  </si>
+  <si>
+    <t>profondeur</t>
+  </si>
+  <si>
+    <t>root_depth</t>
+  </si>
+  <si>
+    <t>RootingDepth</t>
+  </si>
+  <si>
+    <t>Profondeur d'enracinement maximale</t>
+  </si>
+  <si>
+    <t>Potential rooting depth</t>
+  </si>
+  <si>
+    <t>Hcc_C1</t>
+  </si>
+  <si>
+    <t>hcc1</t>
+  </si>
+  <si>
+    <t>field_capacity_1</t>
+  </si>
+  <si>
+    <t>WaterCapacity</t>
+  </si>
+  <si>
+    <t>Humidité massique à la capacité au champ dans l'horizon de surface (0 - 30 cm)</t>
+  </si>
+  <si>
+    <t>Water content at field capacity (0-30 cm)</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>Hpf_C1</t>
+  </si>
+  <si>
+    <t>hpf1</t>
+  </si>
+  <si>
+    <t>wilting_point_1</t>
+  </si>
+  <si>
+    <t>Humidité massique au point de flétrissement dans l'horizon de surface (0 - 30 cm)</t>
+  </si>
+  <si>
+    <t>Water content at wilting point (0-30cm)</t>
+  </si>
+  <si>
+    <t>Hcc_C2</t>
+  </si>
+  <si>
+    <t>hcc2</t>
+  </si>
+  <si>
+    <t>field_capacity_2</t>
+  </si>
+  <si>
+    <t>Humidité massique à la capacité au champ dans l'horizon inférieur (30 cm - profondeur)</t>
+  </si>
+  <si>
+    <t>Water content at field capacity (30 cm-rooting depth)</t>
+  </si>
+  <si>
+    <t>Hpf_C2</t>
+  </si>
+  <si>
+    <t>hpf2</t>
+  </si>
+  <si>
+    <t>wilting_point_2</t>
+  </si>
+  <si>
+    <t>Humidité massique au point de flétrissement dans l'horizon inférieur (30 cm - profondeur)</t>
+  </si>
+  <si>
+    <t>Water content at wilting point (30 cm-rooting depth)</t>
+  </si>
+  <si>
+    <t>da_C1</t>
+  </si>
+  <si>
+    <t>da1</t>
+  </si>
+  <si>
+    <t>soil_density_1</t>
+  </si>
+  <si>
+    <t>SoilDensity</t>
+  </si>
+  <si>
+    <t>Densité apparente du sol dans l'horizon de surface (0 - 30 cm)</t>
+  </si>
+  <si>
+    <t>Soil bulk density (0-30cm)</t>
+  </si>
+  <si>
+    <t>g.cm-3</t>
+  </si>
+  <si>
+    <t>da_C2</t>
+  </si>
+  <si>
+    <t>da2</t>
+  </si>
+  <si>
+    <t>soil_density_2</t>
+  </si>
+  <si>
+    <t>Densité apparente du sol dans l'horizon inférieur (30 cm - profondeur)</t>
+  </si>
+  <si>
+    <t>Soil bulk density (30 cm-rooting depth)</t>
+  </si>
+  <si>
+    <t>TC</t>
+  </si>
+  <si>
+    <t>cailloux</t>
+  </si>
+  <si>
+    <t>stone_content</t>
+  </si>
+  <si>
+    <t>StoneContent</t>
+  </si>
+  <si>
+    <t>Taux de cailloux</t>
+  </si>
+  <si>
+    <t>Stone content (0-rooting depth)</t>
+  </si>
+  <si>
+    <t>[0 ; 1]</t>
+  </si>
+  <si>
+    <t>Vp</t>
+  </si>
+  <si>
+    <t>mineralisation</t>
+  </si>
+  <si>
+    <t>mineralization</t>
+  </si>
+  <si>
+    <t>MineralizationRate</t>
+  </si>
+  <si>
+    <t>Vitesse potentielle de minéralisation</t>
+  </si>
+  <si>
+    <t>Potential nitrogen mineralization rate</t>
+  </si>
+  <si>
+    <t>kg/ha/day (normalized)</t>
+  </si>
+  <si>
+    <t>[@Vale2007]</t>
+  </si>
+  <si>
+    <t>Fpf</t>
+  </si>
+  <si>
+    <t>Valeur au point de flétrissement de la fonction "humidité" pour la minéralisation</t>
+  </si>
+  <si>
+    <t>Conduite</t>
+  </si>
+  <si>
+    <t>CONFIG_Conduite</t>
+  </si>
+  <si>
+    <t>jsemis</t>
+  </si>
+  <si>
+    <t>semis</t>
+  </si>
+  <si>
+    <t>crop_sowing</t>
+  </si>
+  <si>
+    <t>SowingDate</t>
+  </si>
+  <si>
+    <t>Date de semis</t>
+  </si>
+  <si>
+    <t>Sowing date</t>
+  </si>
+  <si>
+    <t>dd/mm</t>
+  </si>
+  <si>
+    <t>jrecolte</t>
+  </si>
+  <si>
+    <t>recolte</t>
+  </si>
+  <si>
+    <t>crop_harvest</t>
+  </si>
+  <si>
+    <t>HarvestDate</t>
+  </si>
+  <si>
+    <t>Date de récolte</t>
+  </si>
+  <si>
+    <t>Harvest date</t>
+  </si>
+  <si>
+    <t>zSemis</t>
+  </si>
+  <si>
+    <t>semis_profondeur</t>
+  </si>
+  <si>
+    <t>crop_sowing_depth</t>
+  </si>
+  <si>
+    <t>SowingDepth</t>
+  </si>
+  <si>
+    <t>Profondeur de semis</t>
+  </si>
+  <si>
+    <t>Sowing depth</t>
+  </si>
+  <si>
+    <t>densite</t>
+  </si>
+  <si>
+    <t>crop_density</t>
+  </si>
+  <si>
+    <t>SowingDensity</t>
+  </si>
+  <si>
+    <t>Densité du peuplement à la levée</t>
+  </si>
+  <si>
+    <t>Plant density</t>
+  </si>
+  <si>
+    <t>pnt/m2</t>
+  </si>
+  <si>
+    <t>date_ferti_1</t>
+  </si>
+  <si>
+    <t>azote_date1</t>
+  </si>
+  <si>
+    <t>nitrogen_date_1</t>
+  </si>
+  <si>
+    <t>Fertilization</t>
+  </si>
+  <si>
+    <t>Fertilisation (date 1)</t>
+  </si>
+  <si>
+    <t>Fertilization (date 1)</t>
+  </si>
+  <si>
+    <t>apport_ferti_1</t>
+  </si>
+  <si>
+    <t>azote_dose1</t>
+  </si>
+  <si>
+    <t>nitrogen_dose_1</t>
+  </si>
+  <si>
+    <t>Fertilisation (dose 1)</t>
+  </si>
+  <si>
+    <t>Fertilization (amount 1)</t>
+  </si>
+  <si>
+    <t>kg/ha eq. mineral nitrogen</t>
+  </si>
+  <si>
+    <t>date_ferti_2</t>
+  </si>
+  <si>
+    <t>azote_date2</t>
+  </si>
+  <si>
+    <t>nitrogen_date_2</t>
+  </si>
+  <si>
+    <t>Fertilisation (date 2)</t>
+  </si>
+  <si>
+    <t>Fertilization (date 2)</t>
+  </si>
+  <si>
+    <t>apport_ferti_2</t>
+  </si>
+  <si>
+    <t>azote_dose2</t>
+  </si>
+  <si>
+    <t>nitrogen_dose_2</t>
+  </si>
+  <si>
+    <t>Fertilisation (dose 2)</t>
+  </si>
+  <si>
+    <t>Fertilization (amount 2)</t>
+  </si>
+  <si>
+    <t>date_ferti_3</t>
+  </si>
+  <si>
+    <t>azote_date3</t>
+  </si>
+  <si>
+    <t>nitrogen_date_3</t>
+  </si>
+  <si>
+    <t>Fertilisation (date 3)</t>
+  </si>
+  <si>
+    <t>Fertilization (date 3)</t>
+  </si>
+  <si>
+    <t>apport_ferti_3</t>
+  </si>
+  <si>
+    <t>azote_dose3</t>
+  </si>
+  <si>
+    <t>nitrogen_dose_3</t>
+  </si>
+  <si>
+    <t>Fertilisation (dose 3)</t>
+  </si>
+  <si>
+    <t>Fertilization (amount 3)</t>
+  </si>
+  <si>
+    <t>date_ferti_4</t>
+  </si>
+  <si>
+    <t>azote_date4</t>
+  </si>
+  <si>
+    <t>nitrogen_date_4</t>
+  </si>
+  <si>
+    <t>Fertilisation (date 4)</t>
+  </si>
+  <si>
+    <t>Fertilization (date 4)</t>
+  </si>
+  <si>
+    <t>apport_ferti_4</t>
+  </si>
+  <si>
+    <t>azote_dose4</t>
+  </si>
+  <si>
+    <t>nitrogen_dose_4</t>
+  </si>
+  <si>
+    <t>Fertilisation (dose 4)</t>
+  </si>
+  <si>
+    <t>Fertilization (amount 4)</t>
+  </si>
+  <si>
+    <t>date_irrig_1</t>
+  </si>
+  <si>
+    <t>eau_date1</t>
+  </si>
+  <si>
+    <t>water_date_1</t>
+  </si>
+  <si>
+    <t>Irrigation</t>
+  </si>
+  <si>
+    <t>Irrigation (date 1)</t>
+  </si>
+  <si>
+    <t>apport_irrig_1</t>
+  </si>
+  <si>
+    <t>eau_dose1</t>
+  </si>
+  <si>
+    <t>water_dose_1</t>
+  </si>
+  <si>
+    <t>Irrigation (dose 1)</t>
+  </si>
+  <si>
+    <t>Irrigation (amount 1)</t>
+  </si>
+  <si>
+    <t>date_irrig_2</t>
+  </si>
+  <si>
+    <t>eau_date2</t>
+  </si>
+  <si>
+    <t>water_date_2</t>
+  </si>
+  <si>
+    <t>Irrigation (date 2)</t>
+  </si>
+  <si>
+    <t>apport_irrig_2</t>
+  </si>
+  <si>
+    <t>eau_dose2</t>
+  </si>
+  <si>
+    <t>water_dose_2</t>
+  </si>
+  <si>
+    <t>Irrigation (dose 2)</t>
+  </si>
+  <si>
+    <t>Irrigation (amount 2)</t>
+  </si>
+  <si>
+    <t>date_irrig_3</t>
+  </si>
+  <si>
+    <t>eau_date3</t>
+  </si>
+  <si>
+    <t>water_date_3</t>
+  </si>
+  <si>
+    <t>Irrigation (date 3)</t>
+  </si>
+  <si>
+    <t>apport_irrig_3</t>
+  </si>
+  <si>
+    <t>eau_dose3</t>
+  </si>
+  <si>
+    <t>water_dose_3</t>
+  </si>
+  <si>
+    <t>Irrigation (dose 3)</t>
+  </si>
+  <si>
+    <t>Irrigation (amount 3)</t>
+  </si>
+  <si>
+    <t>date_irrig_4</t>
+  </si>
+  <si>
+    <t>eau_date4</t>
+  </si>
+  <si>
+    <t>water_date_4</t>
+  </si>
+  <si>
+    <t>Irrigation (date 4)</t>
+  </si>
+  <si>
+    <t>apport_irrig_4</t>
+  </si>
+  <si>
+    <t>eau_dose4</t>
+  </si>
+  <si>
+    <t>water_dose_4</t>
+  </si>
+  <si>
+    <t>Irrigation (dose 4)</t>
+  </si>
+  <si>
+    <t>Irrigation (amount 4)</t>
+  </si>
+  <si>
+    <t>date_irrig_5</t>
+  </si>
+  <si>
+    <t>eau_date5</t>
+  </si>
+  <si>
+    <t>water_date_5</t>
+  </si>
+  <si>
+    <t>Irrigation (date 5)</t>
+  </si>
+  <si>
+    <t>apport_irrig_5</t>
+  </si>
+  <si>
+    <t>eau_dose5</t>
+  </si>
+  <si>
+    <t>water_dose_5</t>
+  </si>
+  <si>
+    <t>Irrigation (dose 5)</t>
+  </si>
+  <si>
+    <t>Irrigation (amount 5)</t>
+  </si>
+  <si>
+    <t>date_irrig_6</t>
+  </si>
+  <si>
+    <t>eau_date6</t>
+  </si>
+  <si>
+    <t>water_date_6</t>
+  </si>
+  <si>
+    <t>Irrigation (date 6)</t>
+  </si>
+  <si>
+    <t>apport_irrig_6</t>
+  </si>
+  <si>
+    <t>eau_dose6</t>
+  </si>
+  <si>
+    <t>water_dose_6</t>
+  </si>
+  <si>
+    <t>Irrigation (dose 6)</t>
+  </si>
+  <si>
+    <t>Irrigation (amount 6)</t>
+  </si>
+  <si>
+    <t>Initialisation</t>
+  </si>
+  <si>
+    <t>begin</t>
+  </si>
+  <si>
+    <t>Date de début de la simulation</t>
+  </si>
+  <si>
+    <t>jj/mm/aaaa</t>
+  </si>
+  <si>
+    <t>duration</t>
+  </si>
+  <si>
+    <t>Durée de la simulation</t>
+  </si>
+  <si>
+    <t>jour</t>
+  </si>
+  <si>
+    <t>CONFIG_SimuInit</t>
+  </si>
+  <si>
+    <t>dateLevee_casForcee</t>
+  </si>
+  <si>
+    <t>levee</t>
+  </si>
+  <si>
+    <t>crop_emergence</t>
+  </si>
+  <si>
+    <t>Date de levée forcée, simulée pour valeur = 01/01</t>
+  </si>
+  <si>
+    <t>jj/mm</t>
+  </si>
+  <si>
+    <t>rh1</t>
+  </si>
+  <si>
+    <t>ninit1</t>
+  </si>
+  <si>
+    <t>nitrogen_initial_1</t>
+  </si>
+  <si>
+    <t>Reliquats azotés dans l'horizon de surface (0 - 30 cm)</t>
+  </si>
+  <si>
+    <t>kg/ha eq. azote mineral</t>
+  </si>
+  <si>
+    <t>rh2</t>
+  </si>
+  <si>
+    <t>ninit2</t>
+  </si>
+  <si>
+    <t>nitrogen_initial_2</t>
+  </si>
+  <si>
+    <t>Reliquats azotés dans l'horizon inférieur (30 cm - profondeur)</t>
+  </si>
+  <si>
+    <t>Hini_C1</t>
+  </si>
+  <si>
+    <t>hinit1</t>
+  </si>
+  <si>
+    <t>water_initial_1</t>
+  </si>
+  <si>
+    <t>Humidité massique initiale dans l'horizon de surface  (0 - 30 cm)</t>
+  </si>
+  <si>
+    <t>Hini_C2</t>
+  </si>
+  <si>
+    <t>hinit2</t>
+  </si>
+  <si>
+    <t>water_initial_2</t>
+  </si>
+  <si>
+    <t>Humidité massique initiale dans l'horizon inférieur  (30 cm - profondeur)</t>
+  </si>
+  <si>
+    <t>zC1</t>
+  </si>
+  <si>
+    <t>Profondeur de l'horizon de surface</t>
+  </si>
+  <si>
+    <t>Espece</t>
+  </si>
+  <si>
+    <t>CONFIG_Plante</t>
+  </si>
+  <si>
+    <t>Tbase</t>
+  </si>
+  <si>
+    <t>Température de base pour les processus de croissance et développement</t>
+  </si>
+  <si>
+    <t>[@Granier1998]</t>
+  </si>
+  <si>
+    <t>date_TT_germination</t>
+  </si>
+  <si>
+    <t>Germination</t>
+  </si>
+  <si>
+    <t>Durée de la phase de germination</t>
+  </si>
+  <si>
+    <t>Temperature sum from sowing to germination</t>
+  </si>
+  <si>
+    <t>[@Villalobos1996]</t>
+  </si>
+  <si>
+    <t>Phy1</t>
+  </si>
+  <si>
+    <t>Phyllotherm_1</t>
+  </si>
+  <si>
+    <t>Phyllotherme pour les 6 premières feuilles</t>
+  </si>
+  <si>
+    <t>Phyllotherm (leaf &lt;= 6)</t>
+  </si>
+  <si>
+    <t>[@Rey2003]</t>
+  </si>
+  <si>
+    <t>Phy2</t>
+  </si>
+  <si>
+    <t>Phyllotherm_7</t>
+  </si>
+  <si>
+    <t>Phyllotherme pour les feuilles au dela du 6eme rang</t>
+  </si>
+  <si>
+    <t>Phyllotherm (leaf &gt; 7)</t>
+  </si>
+  <si>
+    <t>zRac_max</t>
+  </si>
+  <si>
+    <t>Profondeur d'enracinement maximale de l'espèce</t>
+  </si>
+  <si>
+    <t>[@Casadebaig2008b]</t>
+  </si>
+  <si>
+    <t>AP_a</t>
+  </si>
+  <si>
+    <t>Ajustement de l'effet de la contrainte hydrique sur la phénologie</t>
+  </si>
+  <si>
+    <t>LAI_a</t>
+  </si>
+  <si>
+    <t>Date thermique de fin d'expansion de la troisième paire de feuilles</t>
+  </si>
+  <si>
+    <t>LAI_b</t>
+  </si>
+  <si>
+    <t>Ajustement du calcul des dates thermique de demi-expansion des feuilles</t>
+  </si>
+  <si>
+    <t>LAI_c</t>
+  </si>
+  <si>
+    <t>Valeur de l'asymptote de la fonction de la durée de vie des feuilles en fonction du rang sur la tige</t>
+  </si>
+  <si>
+    <t>LAI_d</t>
+  </si>
+  <si>
+    <t>Valeur du maximum de la fonction de la durée de vie des feuilles en fonction du rang sur la tige</t>
+  </si>
+  <si>
+    <t>LAI_e</t>
+  </si>
+  <si>
+    <t>Abscisse du maximum de la fonction de la durée de vie des feuilles (relatif à la position de la plus grande feuille)</t>
+  </si>
+  <si>
     <t>feuilles</t>
-  </si>
-  <si>
-    <t>bSF</t>
-  </si>
-  <si>
-    <t>LLH</t>
-  </si>
-  <si>
-    <t>Rang (depuis le sol) de la plus grande feuille du profil foliaire à la floraison</t>
-  </si>
-  <si>
-    <t>Rank of the largest leave of leaf profile at flowering</t>
-  </si>
-  <si>
-    <t>cSF</t>
-  </si>
-  <si>
-    <t>LLS</t>
-  </si>
-  <si>
-    <t>Surface de la plus grande feuille du profil folaire à la floraison</t>
-  </si>
-  <si>
-    <t>Area of the largest leave of leaf profile at flowering</t>
-  </si>
-  <si>
-    <t>cm2</t>
-  </si>
-  <si>
-    <t>ext</t>
-  </si>
-  <si>
-    <t>K</t>
-  </si>
-  <si>
-    <t>Coefficient d’extinction du rayonnement lors de la phase végétative (E1-F1)</t>
-  </si>
-  <si>
-    <t>Light extinction coefficient during vegetative growth</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>a_LE</t>
-  </si>
-  <si>
-    <t>LE</t>
-  </si>
-  <si>
-    <t>Seuil de réponse de l'expansion foliaire à une contrainte hydrique</t>
-  </si>
-  <si>
-    <t>Threshold for leaf expansion response to water stress</t>
-  </si>
-  <si>
-    <t>[@Casadebaig2008]</t>
-  </si>
-  <si>
-    <t>a_TR</t>
-  </si>
-  <si>
-    <t>TR</t>
-  </si>
-  <si>
-    <t>Seuil de réponse de la conductance stomatique à une contrainte hydrique</t>
-  </si>
-  <si>
-    <t>Threshold for stomatal conductance response to water stress</t>
-  </si>
-  <si>
-    <t>PHS</t>
-  </si>
-  <si>
-    <t>Capacité photosynthétique relative à la variete Melody</t>
-  </si>
-  <si>
-    <t>Potential photosynthesis capacity</t>
-  </si>
-  <si>
-    <t>IRg</t>
-  </si>
-  <si>
-    <t>HI</t>
-  </si>
-  <si>
-    <t>Indice de récolte potentiel</t>
-  </si>
-  <si>
-    <t>Potential harvest index</t>
-  </si>
-  <si>
-    <t>[@Casadebaig2011]</t>
-  </si>
-  <si>
-    <t>thp</t>
-  </si>
-  <si>
-    <t>OC</t>
-  </si>
-  <si>
-    <t>Teneur en huile dans l’akène en conditions potentielles</t>
-  </si>
-  <si>
-    <t>Potential seed oil content</t>
-  </si>
-  <si>
-    <t>%, 0% humidité</t>
-  </si>
-  <si>
-    <t>Pedoclimat</t>
-  </si>
-  <si>
-    <t>CONFIG_ClimatNomFichier</t>
-  </si>
-  <si>
-    <t>datas_file</t>
-  </si>
-  <si>
-    <t>meteo</t>
-  </si>
-  <si>
-    <t>file</t>
-  </si>
-  <si>
-    <t>Nom du fichier climatique</t>
-  </si>
-  <si>
-    <t>AUZ_2006.txt</t>
-  </si>
-  <si>
-    <t>CONFIG_Sol</t>
-  </si>
-  <si>
-    <t>profondeur</t>
-  </si>
-  <si>
-    <t>root_depth</t>
-  </si>
-  <si>
-    <t>Profondeur d'enracinement maximale</t>
-  </si>
-  <si>
-    <t>Hcc_C1</t>
-  </si>
-  <si>
-    <t>hcc1</t>
-  </si>
-  <si>
-    <t>field_capacity_1</t>
-  </si>
-  <si>
-    <t>Humidité massique à la capacité au champ dans l'horizon de surface (0 - 30 cm)</t>
-  </si>
-  <si>
-    <t>%</t>
-  </si>
-  <si>
-    <t>Hpf_C1</t>
-  </si>
-  <si>
-    <t>hpf1</t>
-  </si>
-  <si>
-    <t>wilting_point_1</t>
-  </si>
-  <si>
-    <t>Humidité massique au point de flétrissement dans l'horizon de surface (0 - 30 cm)</t>
-  </si>
-  <si>
-    <t>Hcc_C2</t>
-  </si>
-  <si>
-    <t>hcc2</t>
-  </si>
-  <si>
-    <t>field_capacity_2</t>
-  </si>
-  <si>
-    <t>Humidité massique à la capacité au champ dans l'horizon inférieur (30 cm - profondeur)</t>
-  </si>
-  <si>
-    <t>Hpf_C2</t>
-  </si>
-  <si>
-    <t>hpf2</t>
-  </si>
-  <si>
-    <t>wilting_point_2</t>
-  </si>
-  <si>
-    <t>Humidité massique au point de flétrissement dans l'horizon inférieur (30 cm - profondeur)</t>
-  </si>
-  <si>
-    <t>da_C1</t>
-  </si>
-  <si>
-    <t>da1</t>
-  </si>
-  <si>
-    <t>soil_density_1</t>
-  </si>
-  <si>
-    <t>Densité apparente du sol dans l'horizon de surface (0 - 30 cm)</t>
-  </si>
-  <si>
-    <t>g.cm-3</t>
-  </si>
-  <si>
-    <t>da_C2</t>
-  </si>
-  <si>
-    <t>da2</t>
-  </si>
-  <si>
-    <t>soil_density_2</t>
-  </si>
-  <si>
-    <t>Densité apparente du sol dans l'horizon inférieur (30 cm - profondeur)</t>
-  </si>
-  <si>
-    <t>TC</t>
-  </si>
-  <si>
-    <t>cailloux</t>
-  </si>
-  <si>
-    <t>stone_content</t>
-  </si>
-  <si>
-    <t>Taux de cailloux</t>
-  </si>
-  <si>
-    <t>[0 ; 1]</t>
-  </si>
-  <si>
-    <t>Vp</t>
-  </si>
-  <si>
-    <t>mineralisation</t>
-  </si>
-  <si>
-    <t>mineralization</t>
-  </si>
-  <si>
-    <t>Vitesse potentielle de minéralisation</t>
-  </si>
-  <si>
-    <t>kg/ha/jour normalise</t>
-  </si>
-  <si>
-    <t>[@Vale2007]</t>
-  </si>
-  <si>
-    <t>Fpf</t>
-  </si>
-  <si>
-    <t>Valeur au point de flétrissement de la fonction "humidité" pour la minéralisation</t>
-  </si>
-  <si>
-    <t>Conduite</t>
-  </si>
-  <si>
-    <t>CONFIG_Conduite</t>
-  </si>
-  <si>
-    <t>jsemis</t>
-  </si>
-  <si>
-    <t>semis</t>
-  </si>
-  <si>
-    <t>crop_sowing</t>
-  </si>
-  <si>
-    <t>Date de semis</t>
-  </si>
-  <si>
-    <t>jj/mm</t>
-  </si>
-  <si>
-    <t>jrecolte</t>
-  </si>
-  <si>
-    <t>recolte</t>
-  </si>
-  <si>
-    <t>crop_harvest</t>
-  </si>
-  <si>
-    <t>Date de récolte</t>
-  </si>
-  <si>
-    <t>zSemis</t>
-  </si>
-  <si>
-    <t>semis_profondeur</t>
-  </si>
-  <si>
-    <t>crop_sowing_depth</t>
-  </si>
-  <si>
-    <t>SowingDepth</t>
-  </si>
-  <si>
-    <t>Profondeur de semis</t>
-  </si>
-  <si>
-    <t>Sowing depth</t>
-  </si>
-  <si>
-    <t>densite</t>
-  </si>
-  <si>
-    <t>crop_density</t>
-  </si>
-  <si>
-    <t>Densité du peuplement à la levée</t>
-  </si>
-  <si>
-    <t>plantes/m2</t>
-  </si>
-  <si>
-    <t>date_ferti_1</t>
-  </si>
-  <si>
-    <t>azote_date1</t>
-  </si>
-  <si>
-    <t>nitrogen_date_1</t>
-  </si>
-  <si>
-    <t>Fertilisation (date)</t>
-  </si>
-  <si>
-    <t>apport_ferti_1</t>
-  </si>
-  <si>
-    <t>azote_dose1</t>
-  </si>
-  <si>
-    <t>nitrogen_dose_1</t>
-  </si>
-  <si>
-    <t>Fertilisation (dose)</t>
-  </si>
-  <si>
-    <t>kg/ha eq. azote mineral</t>
-  </si>
-  <si>
-    <t>date_ferti_2</t>
-  </si>
-  <si>
-    <t>azote_date2</t>
-  </si>
-  <si>
-    <t>nitrogen_date_2</t>
-  </si>
-  <si>
-    <t>apport_ferti_2</t>
-  </si>
-  <si>
-    <t>azote_dose2</t>
-  </si>
-  <si>
-    <t>nitrogen_dose_2</t>
-  </si>
-  <si>
-    <t>date_ferti_3</t>
-  </si>
-  <si>
-    <t>azote_date3</t>
-  </si>
-  <si>
-    <t>nitrogen_date_3</t>
-  </si>
-  <si>
-    <t>apport_ferti_3</t>
-  </si>
-  <si>
-    <t>azote_dose3</t>
-  </si>
-  <si>
-    <t>nitrogen_dose_3</t>
-  </si>
-  <si>
-    <t>date_ferti_4</t>
-  </si>
-  <si>
-    <t>azote_date4</t>
-  </si>
-  <si>
-    <t>nitrogen_date_4</t>
-  </si>
-  <si>
-    <t>apport_ferti_4</t>
-  </si>
-  <si>
-    <t>azote_dose4</t>
-  </si>
-  <si>
-    <t>nitrogen_dose_4</t>
-  </si>
-  <si>
-    <t>date_irrig_1</t>
-  </si>
-  <si>
-    <t>eau_date1</t>
-  </si>
-  <si>
-    <t>water_date_1</t>
-  </si>
-  <si>
-    <t>Irrigation (date)</t>
-  </si>
-  <si>
-    <t>apport_irrig_1</t>
-  </si>
-  <si>
-    <t>eau_dose1</t>
-  </si>
-  <si>
-    <t>water_dose_1</t>
-  </si>
-  <si>
-    <t>Irrigation (dose)</t>
-  </si>
-  <si>
-    <t>date_irrig_2</t>
-  </si>
-  <si>
-    <t>eau_date2</t>
-  </si>
-  <si>
-    <t>water_date_2</t>
-  </si>
-  <si>
-    <t>apport_irrig_2</t>
-  </si>
-  <si>
-    <t>eau_dose2</t>
-  </si>
-  <si>
-    <t>water_dose_2</t>
-  </si>
-  <si>
-    <t>date_irrig_3</t>
-  </si>
-  <si>
-    <t>eau_date3</t>
-  </si>
-  <si>
-    <t>water_date_3</t>
-  </si>
-  <si>
-    <t>apport_irrig_3</t>
-  </si>
-  <si>
-    <t>eau_dose3</t>
-  </si>
-  <si>
-    <t>water_dose_3</t>
-  </si>
-  <si>
-    <t>date_irrig_4</t>
-  </si>
-  <si>
-    <t>eau_date4</t>
-  </si>
-  <si>
-    <t>water_date_4</t>
-  </si>
-  <si>
-    <t>apport_irrig_4</t>
-  </si>
-  <si>
-    <t>eau_dose4</t>
-  </si>
-  <si>
-    <t>water_dose_4</t>
-  </si>
-  <si>
-    <t>date_irrig_5</t>
-  </si>
-  <si>
-    <t>eau_date5</t>
-  </si>
-  <si>
-    <t>water_date_5</t>
-  </si>
-  <si>
-    <t>apport_irrig_5</t>
-  </si>
-  <si>
-    <t>eau_dose5</t>
-  </si>
-  <si>
-    <t>water_dose_5</t>
-  </si>
-  <si>
-    <t>date_irrig_6</t>
-  </si>
-  <si>
-    <t>eau_date6</t>
-  </si>
-  <si>
-    <t>water_date_6</t>
-  </si>
-  <si>
-    <t>apport_irrig_6</t>
-  </si>
-  <si>
-    <t>eau_dose6</t>
-  </si>
-  <si>
-    <t>water_dose_6</t>
-  </si>
-  <si>
-    <t>Initialisation</t>
-  </si>
-  <si>
-    <t>begin</t>
-  </si>
-  <si>
-    <t>Date de début de la simulation</t>
-  </si>
-  <si>
-    <t>jj/mm/aaaa</t>
-  </si>
-  <si>
-    <t>duration</t>
-  </si>
-  <si>
-    <t>Durée de la simulation</t>
-  </si>
-  <si>
-    <t>jour</t>
-  </si>
-  <si>
-    <t>CONFIG_SimuInit</t>
-  </si>
-  <si>
-    <t>dateLevee_casForcee</t>
-  </si>
-  <si>
-    <t>levee</t>
-  </si>
-  <si>
-    <t>crop_emergence</t>
-  </si>
-  <si>
-    <t>Date de levée forcée, simulée pour valeur = 01/01</t>
-  </si>
-  <si>
-    <t>rh1</t>
-  </si>
-  <si>
-    <t>ninit1</t>
-  </si>
-  <si>
-    <t>nitrogen_initial_1</t>
-  </si>
-  <si>
-    <t>Reliquats azotés dans l'horizon de surface (0 - 30 cm)</t>
-  </si>
-  <si>
-    <t>rh2</t>
-  </si>
-  <si>
-    <t>ninit2</t>
-  </si>
-  <si>
-    <t>nitrogen_initial_2</t>
-  </si>
-  <si>
-    <t>Reliquats azotés dans l'horizon inférieur (30 cm - profondeur)</t>
-  </si>
-  <si>
-    <t>Hini_C1</t>
-  </si>
-  <si>
-    <t>hinit1</t>
-  </si>
-  <si>
-    <t>water_initial_1</t>
-  </si>
-  <si>
-    <t>Humidité massique initiale dans l'horizon de surface  (0 - 30 cm)</t>
-  </si>
-  <si>
-    <t>Hini_C2</t>
-  </si>
-  <si>
-    <t>hinit2</t>
-  </si>
-  <si>
-    <t>water_initial_2</t>
-  </si>
-  <si>
-    <t>Humidité massique initiale dans l'horizon inférieur  (30 cm - profondeur)</t>
-  </si>
-  <si>
-    <t>zC1</t>
-  </si>
-  <si>
-    <t>Profondeur de l'horizon de surface</t>
-  </si>
-  <si>
-    <t>Espece</t>
-  </si>
-  <si>
-    <t>CONFIG_Plante</t>
-  </si>
-  <si>
-    <t>Tbase</t>
-  </si>
-  <si>
-    <t>Température de base pour les processus de croissance et développement</t>
-  </si>
-  <si>
-    <t>[@Granier1998]</t>
-  </si>
-  <si>
-    <t>date_TT_germination</t>
-  </si>
-  <si>
-    <t>Germination</t>
-  </si>
-  <si>
-    <t>Durée de la phase de germination</t>
-  </si>
-  <si>
-    <t>Temperature sum from sowing to germination</t>
-  </si>
-  <si>
-    <t>[@Villalobos1996]</t>
-  </si>
-  <si>
-    <t>Phy1</t>
-  </si>
-  <si>
-    <t>Phyllotherme pour les 6 premières feuilles</t>
-  </si>
-  <si>
-    <t>[@Rey2003]</t>
-  </si>
-  <si>
-    <t>Phy2</t>
-  </si>
-  <si>
-    <t>Phyllotherme pour les feuilles au dela du 6eme rang</t>
-  </si>
-  <si>
-    <t>zRac_max</t>
-  </si>
-  <si>
-    <t>Profondeur d'enracinement maximale de l'espèce</t>
-  </si>
-  <si>
-    <t>[@Casadebaig2008b]</t>
-  </si>
-  <si>
-    <t>AP_a</t>
-  </si>
-  <si>
-    <t>Ajustement de l'effet de la contrainte hydrique sur la phénologie</t>
-  </si>
-  <si>
-    <t>LAI_a</t>
-  </si>
-  <si>
-    <t>Date thermique de fin d'expansion de la troisième paire de feuilles</t>
-  </si>
-  <si>
-    <t>LAI_b</t>
-  </si>
-  <si>
-    <t>Ajustement du calcul des dates thermique de demi-expansion des feuilles</t>
-  </si>
-  <si>
-    <t>LAI_c</t>
-  </si>
-  <si>
-    <t>Valeur de l'asymptote de la fonction de la durée de vie des feuilles en fonction du rang sur la tige</t>
-  </si>
-  <si>
-    <t>LAI_d</t>
-  </si>
-  <si>
-    <t>Valeur du maximum de la fonction de la durée de vie des feuilles en fonction du rang sur la tige</t>
-  </si>
-  <si>
-    <t>LAI_e</t>
-  </si>
-  <si>
-    <t>Abscisse du maximum de la fonction de la durée de vie des feuilles (relatif à la position de la plus grande feuille)</t>
   </si>
   <si>
     <t>LAI_f</t>
@@ -1649,8 +1854,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="GENERAL" numFmtId="164"/>
-    <numFmt formatCode="DD/MM" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="165" formatCode="DD/MM"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -1697,7 +1902,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalDown="false" diagonalUp="false">
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
@@ -1706,77 +1911,77 @@
     </border>
   </borders>
   <cellStyleXfs count="20">
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="43"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="41"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="44"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="8">
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="2" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="2" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0">
-      <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0">
-      <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="2" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
-    <cellStyle builtinId="3" customBuiltin="false" name="Comma" xfId="15"/>
-    <cellStyle builtinId="6" customBuiltin="false" name="Comma [0]" xfId="16"/>
-    <cellStyle builtinId="4" customBuiltin="false" name="Currency" xfId="17"/>
-    <cellStyle builtinId="7" customBuiltin="false" name="Currency [0]" xfId="18"/>
-    <cellStyle builtinId="5" customBuiltin="false" name="Percent" xfId="19"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1786,8 +1991,8 @@
   </sheetPr>
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="E7" activeCellId="5" pane="topLeft" sqref="M2:M14 M16 M24:M25 M58:M89 M91:M92 E7"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.15"/>
@@ -1799,7 +2004,7 @@
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="1">
+    <row r="1" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1816,7 +2021,7 @@
         <v>4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="2">
+    <row r="2" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>5</v>
       </c>
@@ -1833,7 +2038,7 @@
         <v>9</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="3">
+    <row r="3" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>10</v>
       </c>
@@ -1850,7 +2055,7 @@
         <v>9</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="4">
+    <row r="4" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>14</v>
       </c>
@@ -1867,7 +2072,7 @@
         <v>18</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="5">
+    <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>19</v>
       </c>
@@ -1884,7 +2089,7 @@
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.15" outlineLevel="0" r="6">
+    <row r="6" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>24</v>
       </c>
@@ -1904,7 +2109,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -1919,8 +2124,8 @@
   </sheetPr>
   <dimension ref="1:102"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="K55" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="M1" activeCellId="5" pane="topLeft" sqref="M2:M14 M16 M24:M25 M58:M89 M91:M92 M1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B43" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B60" activeCellId="0" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.15"/>
@@ -1943,7 +2148,7 @@
     <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="11.8061224489796"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="1" s="1">
+    <row r="1" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
@@ -1997,7 +2202,7 @@
       </c>
       <c r="AMJ1" s="0"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.2" outlineLevel="0" r="2">
+    <row r="2" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
@@ -2044,7 +2249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.2" outlineLevel="0" r="3">
+    <row r="3" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
         <v>2</v>
       </c>
@@ -2091,7 +2296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.2" outlineLevel="0" r="4">
+    <row r="4" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
         <v>3</v>
       </c>
@@ -2138,7 +2343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.2" outlineLevel="0" r="5">
+    <row r="5" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
         <v>4</v>
       </c>
@@ -2185,7 +2390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.2" outlineLevel="0" r="6">
+    <row r="6" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
         <v>5</v>
       </c>
@@ -2207,14 +2412,17 @@
       <c r="H6" s="0" t="s">
         <v>64</v>
       </c>
+      <c r="I6" s="0" t="s">
+        <v>65</v>
+      </c>
       <c r="J6" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M6" s="0" t="s">
         <v>48</v>
@@ -2226,7 +2434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.2" outlineLevel="0" r="7">
+    <row r="7" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
         <v>6</v>
       </c>
@@ -2240,22 +2448,25 @@
         <v>40</v>
       </c>
       <c r="F7" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="L7" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="H7" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="J7" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="K7" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>67</v>
       </c>
       <c r="M7" s="0" t="s">
         <v>48</v>
@@ -2267,7 +2478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.2" outlineLevel="0" r="8">
+    <row r="8" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
         <v>7</v>
       </c>
@@ -2281,22 +2492,25 @@
         <v>40</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>76</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M8" s="0" t="s">
         <v>48</v>
@@ -2308,7 +2522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.2" outlineLevel="0" r="9">
+    <row r="9" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
         <v>8</v>
       </c>
@@ -2322,22 +2536,25 @@
         <v>40</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>78</v>
+        <v>81</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>82</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="M9" s="0" t="s">
         <v>48</v>
@@ -2349,7 +2566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.2" outlineLevel="0" r="10">
+    <row r="10" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
         <v>9</v>
       </c>
@@ -2363,25 +2580,28 @@
         <v>40</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>83</v>
+        <v>87</v>
+      </c>
+      <c r="I10" s="0" t="s">
+        <v>88</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="K10" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="L10" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>81</v>
-      </c>
       <c r="M10" s="0" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="N10" s="0" t="n">
         <v>-4.42</v>
@@ -2390,7 +2610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.2" outlineLevel="0" r="11">
+    <row r="11" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
         <v>10</v>
       </c>
@@ -2404,25 +2624,28 @@
         <v>40</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>88</v>
+        <v>93</v>
+      </c>
+      <c r="I11" s="0" t="s">
+        <v>94</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="M11" s="0" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="N11" s="0" t="n">
         <v>-9.3</v>
@@ -2431,7 +2654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.2" outlineLevel="0" r="12">
+    <row r="12" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
         <v>11</v>
       </c>
@@ -2445,19 +2668,22 @@
         <v>40</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>91</v>
+        <v>97</v>
+      </c>
+      <c r="I12" s="0" t="s">
+        <v>98</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="L12" s="3"/>
       <c r="M12" s="0" t="s">
@@ -2470,7 +2696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.2" outlineLevel="0" r="13">
+    <row r="13" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
         <v>12</v>
       </c>
@@ -2484,25 +2710,28 @@
         <v>40</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>95</v>
+        <v>102</v>
+      </c>
+      <c r="I13" s="0" t="s">
+        <v>103</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="L13" s="0" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="M13" s="0" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="N13" s="0" t="n">
         <v>0.398</v>
@@ -2511,7 +2740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.2" outlineLevel="0" r="14">
+    <row r="14" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
         <v>13</v>
       </c>
@@ -2525,25 +2754,28 @@
         <v>40</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>100</v>
+        <v>108</v>
+      </c>
+      <c r="I14" s="0" t="s">
+        <v>109</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="M14" s="0" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="N14" s="0" t="n">
         <v>55.4</v>
@@ -2552,59 +2784,65 @@
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.2" outlineLevel="0" r="15">
+    <row r="15" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
         <v>14</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="P15" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.2" outlineLevel="0" r="16">
+    <row r="16" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
         <v>15</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>113</v>
+        <v>122</v>
+      </c>
+      <c r="I16" s="0" t="s">
+        <v>123</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>114</v>
+        <v>124</v>
+      </c>
+      <c r="K16" s="0" t="s">
+        <v>125</v>
       </c>
       <c r="L16" s="3" t="s">
         <v>23</v>
@@ -2612,295 +2850,379 @@
       <c r="M16" s="0" t="s">
         <v>48</v>
       </c>
+      <c r="N16" s="0" t="n">
+        <v>1800</v>
+      </c>
       <c r="P16" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.2" outlineLevel="0" r="17">
+    <row r="17" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
         <v>16</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>117</v>
+        <v>128</v>
+      </c>
+      <c r="I17" s="0" t="s">
+        <v>129</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>118</v>
+        <v>130</v>
+      </c>
+      <c r="K17" s="0" t="s">
+        <v>131</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>119</v>
+        <v>132</v>
+      </c>
+      <c r="N17" s="0" t="n">
+        <v>19.69</v>
       </c>
       <c r="P17" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.2" outlineLevel="0" r="18">
+    <row r="18" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
         <v>17</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>122</v>
+        <v>135</v>
+      </c>
+      <c r="I18" s="0" t="s">
+        <v>129</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>123</v>
+        <v>136</v>
+      </c>
+      <c r="K18" s="0" t="s">
+        <v>137</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>119</v>
+        <v>132</v>
+      </c>
+      <c r="N18" s="0" t="n">
+        <v>9.69</v>
       </c>
       <c r="P18" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.2" outlineLevel="0" r="19">
+    <row r="19" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
         <v>18</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>126</v>
+        <v>140</v>
+      </c>
+      <c r="I19" s="0" t="s">
+        <v>129</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>127</v>
+        <v>141</v>
+      </c>
+      <c r="K19" s="0" t="s">
+        <v>142</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>119</v>
+        <v>132</v>
+      </c>
+      <c r="N19" s="0" t="n">
+        <v>19.69</v>
       </c>
       <c r="P19" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.2" outlineLevel="0" r="20">
+    <row r="20" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
         <v>19</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="G20" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="H20" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="I20" s="0" t="s">
         <v>129</v>
       </c>
-      <c r="H20" s="0" t="s">
-        <v>130</v>
-      </c>
       <c r="J20" s="0" t="s">
-        <v>131</v>
+        <v>146</v>
+      </c>
+      <c r="K20" s="0" t="s">
+        <v>147</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>119</v>
+        <v>132</v>
+      </c>
+      <c r="N20" s="0" t="n">
+        <v>9.69</v>
       </c>
       <c r="P20" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.2" outlineLevel="0" r="21">
+    <row r="21" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
         <v>20</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>134</v>
+        <v>150</v>
+      </c>
+      <c r="I21" s="0" t="s">
+        <v>151</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>135</v>
+        <v>152</v>
+      </c>
+      <c r="K21" s="0" t="s">
+        <v>153</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>136</v>
+        <v>154</v>
+      </c>
+      <c r="N21" s="0" t="n">
+        <v>1.5</v>
       </c>
       <c r="P21" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.2" outlineLevel="0" r="22">
+    <row r="22" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
         <v>21</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>139</v>
+        <v>157</v>
+      </c>
+      <c r="I22" s="0" t="s">
+        <v>151</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>140</v>
+        <v>158</v>
+      </c>
+      <c r="K22" s="0" t="s">
+        <v>159</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>136</v>
+        <v>154</v>
+      </c>
+      <c r="N22" s="0" t="n">
+        <v>1.5</v>
       </c>
       <c r="P22" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.2" outlineLevel="0" r="23">
+    <row r="23" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
         <v>22</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>141</v>
+        <v>160</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>143</v>
+        <v>162</v>
+      </c>
+      <c r="I23" s="0" t="s">
+        <v>163</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
+      </c>
+      <c r="K23" s="0" t="s">
+        <v>165</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>145</v>
+        <v>166</v>
+      </c>
+      <c r="N23" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="P23" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.2" outlineLevel="0" r="24">
+    <row r="24" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
         <v>23</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>146</v>
+        <v>167</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>147</v>
+        <v>168</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>148</v>
+        <v>169</v>
+      </c>
+      <c r="I24" s="0" t="s">
+        <v>170</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>149</v>
+        <v>171</v>
+      </c>
+      <c r="K24" s="0" t="s">
+        <v>172</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>150</v>
+        <v>173</v>
       </c>
       <c r="M24" s="0" t="s">
-        <v>151</v>
+        <v>174</v>
+      </c>
+      <c r="N24" s="0" t="n">
+        <v>0.5</v>
       </c>
       <c r="P24" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.2" outlineLevel="0" r="25">
+    <row r="25" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="n">
         <v>24</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>152</v>
+        <v>175</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>153</v>
+        <v>176</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="M25" s="0" t="s">
-        <v>151</v>
+        <v>174</v>
+      </c>
+      <c r="N25" s="0" t="n">
+        <v>0.2</v>
       </c>
       <c r="P25" s="0" t="n">
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.2" outlineLevel="0" r="26">
+    <row r="26" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="n">
         <v>25</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>154</v>
+        <v>177</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>155</v>
+        <v>178</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>156</v>
+        <v>179</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>157</v>
+        <v>180</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>158</v>
+        <v>181</v>
+      </c>
+      <c r="I26" s="0" t="s">
+        <v>182</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>159</v>
+        <v>183</v>
+      </c>
+      <c r="K26" s="0" t="s">
+        <v>184</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="N26" s="5" t="n">
         <v>41380</v>
@@ -2909,30 +3231,36 @@
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.2" outlineLevel="0" r="27">
+    <row r="27" customFormat="false" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="n">
         <v>26</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>154</v>
+        <v>177</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>155</v>
+        <v>178</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>161</v>
+        <v>186</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>162</v>
+        <v>187</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>163</v>
+        <v>188</v>
+      </c>
+      <c r="I27" s="0" t="s">
+        <v>189</v>
       </c>
       <c r="J27" s="0" t="s">
-        <v>164</v>
+        <v>190</v>
+      </c>
+      <c r="K27" s="0" t="s">
+        <v>191</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="N27" s="5" t="n">
         <v>41509</v>
@@ -2941,36 +3269,36 @@
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.2" outlineLevel="0" r="28">
+    <row r="28" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="n">
         <v>27</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>154</v>
+        <v>177</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>155</v>
+        <v>178</v>
       </c>
       <c r="E28" s="0" t="s">
         <v>41</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>165</v>
+        <v>192</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>166</v>
+        <v>193</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>167</v>
+        <v>194</v>
       </c>
       <c r="I28" s="0" t="s">
-        <v>168</v>
+        <v>195</v>
       </c>
       <c r="J28" s="0" t="s">
-        <v>169</v>
+        <v>196</v>
       </c>
       <c r="K28" s="0" t="s">
-        <v>170</v>
+        <v>197</v>
       </c>
       <c r="L28" s="3" t="s">
         <v>23</v>
@@ -2982,30 +3310,36 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.2" outlineLevel="0" r="29">
+    <row r="29" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="n">
         <v>28</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>154</v>
+        <v>177</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>155</v>
+        <v>178</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>171</v>
+        <v>198</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>171</v>
+        <v>198</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>172</v>
+        <v>199</v>
+      </c>
+      <c r="I29" s="0" t="s">
+        <v>200</v>
       </c>
       <c r="J29" s="0" t="s">
-        <v>173</v>
+        <v>201</v>
+      </c>
+      <c r="K29" s="0" t="s">
+        <v>202</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>174</v>
+        <v>203</v>
       </c>
       <c r="N29" s="4" t="n">
         <v>6.8</v>
@@ -3014,30 +3348,36 @@
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.2" outlineLevel="0" r="30">
+    <row r="30" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="n">
         <v>29</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>154</v>
+        <v>177</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>155</v>
+        <v>178</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>175</v>
+        <v>204</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>176</v>
+        <v>205</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>177</v>
+        <v>206</v>
+      </c>
+      <c r="I30" s="0" t="s">
+        <v>207</v>
       </c>
       <c r="J30" s="0" t="s">
-        <v>178</v>
+        <v>208</v>
+      </c>
+      <c r="K30" s="0" t="s">
+        <v>209</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>41275</v>
@@ -3046,30 +3386,36 @@
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.2" outlineLevel="0" r="31">
+    <row r="31" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="n">
         <v>30</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>154</v>
+        <v>177</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>155</v>
+        <v>178</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>179</v>
+        <v>210</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>180</v>
+        <v>211</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>181</v>
+        <v>212</v>
+      </c>
+      <c r="I31" s="0" t="s">
+        <v>207</v>
       </c>
       <c r="J31" s="0" t="s">
-        <v>182</v>
+        <v>213</v>
+      </c>
+      <c r="K31" s="0" t="s">
+        <v>214</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>183</v>
+        <v>215</v>
       </c>
       <c r="N31" s="4" t="n">
         <v>0</v>
@@ -3078,30 +3424,36 @@
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.2" outlineLevel="0" r="32">
+    <row r="32" customFormat="false" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="n">
         <v>31</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>154</v>
+        <v>177</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>155</v>
+        <v>178</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>184</v>
+        <v>216</v>
       </c>
       <c r="G32" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="H32" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="I32" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="J32" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="K32" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="L32" s="3" t="s">
         <v>185</v>
-      </c>
-      <c r="H32" s="0" t="s">
-        <v>186</v>
-      </c>
-      <c r="J32" s="0" t="s">
-        <v>178</v>
-      </c>
-      <c r="L32" s="3" t="s">
-        <v>160</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>41275</v>
@@ -3110,30 +3462,36 @@
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.2" outlineLevel="0" r="33">
+    <row r="33" customFormat="false" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="n">
         <v>32</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>154</v>
+        <v>177</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>155</v>
+        <v>178</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>187</v>
+        <v>221</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>188</v>
+        <v>222</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>189</v>
+        <v>223</v>
+      </c>
+      <c r="I33" s="0" t="s">
+        <v>207</v>
       </c>
       <c r="J33" s="0" t="s">
-        <v>182</v>
+        <v>224</v>
+      </c>
+      <c r="K33" s="0" t="s">
+        <v>225</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>183</v>
+        <v>215</v>
       </c>
       <c r="N33" s="4" t="n">
         <v>0</v>
@@ -3142,30 +3500,36 @@
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.2" outlineLevel="0" r="34">
+    <row r="34" customFormat="false" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="n">
         <v>33</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>154</v>
+        <v>177</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>155</v>
+        <v>178</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>190</v>
+        <v>226</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>191</v>
+        <v>227</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>192</v>
+        <v>228</v>
+      </c>
+      <c r="I34" s="0" t="s">
+        <v>207</v>
       </c>
       <c r="J34" s="0" t="s">
-        <v>178</v>
+        <v>229</v>
+      </c>
+      <c r="K34" s="0" t="s">
+        <v>230</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>41275</v>
@@ -3174,30 +3538,36 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.2" outlineLevel="0" r="35">
+    <row r="35" customFormat="false" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="n">
         <v>34</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>154</v>
+        <v>177</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>155</v>
+        <v>178</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>193</v>
+        <v>231</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>194</v>
+        <v>232</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>195</v>
+        <v>233</v>
+      </c>
+      <c r="I35" s="0" t="s">
+        <v>207</v>
       </c>
       <c r="J35" s="0" t="s">
-        <v>182</v>
+        <v>234</v>
+      </c>
+      <c r="K35" s="0" t="s">
+        <v>235</v>
       </c>
       <c r="L35" s="3" t="s">
-        <v>183</v>
+        <v>215</v>
       </c>
       <c r="N35" s="4" t="n">
         <v>0</v>
@@ -3206,30 +3576,36 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.2" outlineLevel="0" r="36">
+    <row r="36" customFormat="false" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="n">
         <v>35</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>154</v>
+        <v>177</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>155</v>
+        <v>178</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>196</v>
+        <v>236</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>197</v>
+        <v>237</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>198</v>
+        <v>238</v>
+      </c>
+      <c r="I36" s="0" t="s">
+        <v>207</v>
       </c>
       <c r="J36" s="0" t="s">
-        <v>178</v>
+        <v>239</v>
+      </c>
+      <c r="K36" s="0" t="s">
+        <v>240</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>41275</v>
@@ -3238,30 +3614,36 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.2" outlineLevel="0" r="37">
+    <row r="37" customFormat="false" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="n">
         <v>36</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>154</v>
+        <v>177</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>155</v>
+        <v>178</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>199</v>
+        <v>241</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>200</v>
+        <v>242</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>201</v>
+        <v>243</v>
+      </c>
+      <c r="I37" s="0" t="s">
+        <v>207</v>
       </c>
       <c r="J37" s="0" t="s">
-        <v>182</v>
+        <v>244</v>
+      </c>
+      <c r="K37" s="0" t="s">
+        <v>245</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>183</v>
+        <v>215</v>
       </c>
       <c r="N37" s="4" t="n">
         <v>0</v>
@@ -3270,30 +3652,36 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.2" outlineLevel="0" r="38">
+    <row r="38" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="n">
         <v>37</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>154</v>
+        <v>177</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>155</v>
+        <v>178</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>202</v>
+        <v>246</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>203</v>
+        <v>247</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>204</v>
+        <v>248</v>
+      </c>
+      <c r="I38" s="0" t="s">
+        <v>249</v>
       </c>
       <c r="J38" s="0" t="s">
-        <v>205</v>
+        <v>250</v>
+      </c>
+      <c r="K38" s="0" t="s">
+        <v>250</v>
       </c>
       <c r="L38" s="3" t="s">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>41275</v>
@@ -3302,27 +3690,33 @@
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.2" outlineLevel="0" r="39">
+    <row r="39" customFormat="false" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="n">
         <v>38</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>154</v>
+        <v>177</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>155</v>
+        <v>178</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>206</v>
+        <v>251</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>207</v>
+        <v>252</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>208</v>
+        <v>253</v>
+      </c>
+      <c r="I39" s="0" t="s">
+        <v>249</v>
       </c>
       <c r="J39" s="0" t="s">
-        <v>209</v>
+        <v>254</v>
+      </c>
+      <c r="K39" s="0" t="s">
+        <v>255</v>
       </c>
       <c r="L39" s="3" t="s">
         <v>23</v>
@@ -3334,30 +3728,36 @@
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.2" outlineLevel="0" r="40">
+    <row r="40" customFormat="false" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="n">
         <v>39</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>154</v>
+        <v>177</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>155</v>
+        <v>178</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>210</v>
+        <v>256</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>211</v>
+        <v>257</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>212</v>
+        <v>258</v>
+      </c>
+      <c r="I40" s="0" t="s">
+        <v>249</v>
       </c>
       <c r="J40" s="0" t="s">
-        <v>205</v>
+        <v>259</v>
+      </c>
+      <c r="K40" s="0" t="s">
+        <v>259</v>
       </c>
       <c r="L40" s="3" t="s">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>41275</v>
@@ -3366,27 +3766,33 @@
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.2" outlineLevel="0" r="41">
+    <row r="41" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="n">
         <v>40</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>154</v>
+        <v>177</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>155</v>
+        <v>178</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>213</v>
+        <v>260</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>214</v>
+        <v>261</v>
       </c>
       <c r="H41" s="0" t="s">
-        <v>215</v>
+        <v>262</v>
+      </c>
+      <c r="I41" s="0" t="s">
+        <v>249</v>
       </c>
       <c r="J41" s="0" t="s">
-        <v>209</v>
+        <v>263</v>
+      </c>
+      <c r="K41" s="0" t="s">
+        <v>264</v>
       </c>
       <c r="L41" s="3" t="s">
         <v>23</v>
@@ -3398,30 +3804,36 @@
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.2" outlineLevel="0" r="42">
+    <row r="42" customFormat="false" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="n">
         <v>41</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>154</v>
+        <v>177</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>155</v>
+        <v>178</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>216</v>
+        <v>265</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>217</v>
+        <v>266</v>
       </c>
       <c r="H42" s="0" t="s">
-        <v>218</v>
+        <v>267</v>
+      </c>
+      <c r="I42" s="0" t="s">
+        <v>249</v>
       </c>
       <c r="J42" s="0" t="s">
-        <v>205</v>
+        <v>268</v>
+      </c>
+      <c r="K42" s="0" t="s">
+        <v>268</v>
       </c>
       <c r="L42" s="3" t="s">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>41275</v>
@@ -3430,27 +3842,33 @@
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.2" outlineLevel="0" r="43">
+    <row r="43" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="n">
         <v>42</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>154</v>
+        <v>177</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>155</v>
+        <v>178</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>219</v>
+        <v>269</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>220</v>
+        <v>270</v>
       </c>
       <c r="H43" s="0" t="s">
-        <v>221</v>
+        <v>271</v>
+      </c>
+      <c r="I43" s="0" t="s">
+        <v>249</v>
       </c>
       <c r="J43" s="0" t="s">
-        <v>209</v>
+        <v>272</v>
+      </c>
+      <c r="K43" s="0" t="s">
+        <v>273</v>
       </c>
       <c r="L43" s="3" t="s">
         <v>23</v>
@@ -3462,30 +3880,36 @@
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.2" outlineLevel="0" r="44">
+    <row r="44" customFormat="false" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="n">
         <v>43</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>154</v>
+        <v>177</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>155</v>
+        <v>178</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>222</v>
+        <v>274</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>223</v>
+        <v>275</v>
       </c>
       <c r="H44" s="0" t="s">
-        <v>224</v>
+        <v>276</v>
+      </c>
+      <c r="I44" s="0" t="s">
+        <v>249</v>
       </c>
       <c r="J44" s="0" t="s">
-        <v>205</v>
+        <v>277</v>
+      </c>
+      <c r="K44" s="0" t="s">
+        <v>277</v>
       </c>
       <c r="L44" s="3" t="s">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>41275</v>
@@ -3494,27 +3918,33 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.2" outlineLevel="0" r="45">
+    <row r="45" customFormat="false" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="n">
         <v>44</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>154</v>
+        <v>177</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>155</v>
+        <v>178</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>225</v>
+        <v>278</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>226</v>
+        <v>279</v>
       </c>
       <c r="H45" s="0" t="s">
-        <v>227</v>
+        <v>280</v>
+      </c>
+      <c r="I45" s="0" t="s">
+        <v>249</v>
       </c>
       <c r="J45" s="0" t="s">
-        <v>209</v>
+        <v>281</v>
+      </c>
+      <c r="K45" s="0" t="s">
+        <v>282</v>
       </c>
       <c r="L45" s="3" t="s">
         <v>23</v>
@@ -3526,30 +3956,36 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.2" outlineLevel="0" r="46">
+    <row r="46" customFormat="false" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="n">
         <v>45</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>154</v>
+        <v>177</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>155</v>
+        <v>178</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>228</v>
+        <v>283</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>229</v>
+        <v>284</v>
       </c>
       <c r="H46" s="0" t="s">
-        <v>230</v>
+        <v>285</v>
+      </c>
+      <c r="I46" s="0" t="s">
+        <v>249</v>
       </c>
       <c r="J46" s="0" t="s">
-        <v>205</v>
+        <v>286</v>
+      </c>
+      <c r="K46" s="0" t="s">
+        <v>286</v>
       </c>
       <c r="L46" s="3" t="s">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>41275</v>
@@ -3558,27 +3994,33 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.2" outlineLevel="0" r="47">
+    <row r="47" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="n">
         <v>46</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>154</v>
+        <v>177</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>155</v>
+        <v>178</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>231</v>
+        <v>287</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>232</v>
+        <v>288</v>
       </c>
       <c r="H47" s="0" t="s">
-        <v>233</v>
+        <v>289</v>
+      </c>
+      <c r="I47" s="0" t="s">
+        <v>249</v>
       </c>
       <c r="J47" s="0" t="s">
-        <v>209</v>
+        <v>290</v>
+      </c>
+      <c r="K47" s="0" t="s">
+        <v>291</v>
       </c>
       <c r="L47" s="3" t="s">
         <v>23</v>
@@ -3590,30 +4032,36 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.2" outlineLevel="0" r="48">
+    <row r="48" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="n">
         <v>47</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>154</v>
+        <v>177</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>155</v>
+        <v>178</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>234</v>
+        <v>292</v>
       </c>
       <c r="G48" s="0" t="s">
-        <v>235</v>
+        <v>293</v>
       </c>
       <c r="H48" s="0" t="s">
-        <v>236</v>
+        <v>294</v>
+      </c>
+      <c r="I48" s="0" t="s">
+        <v>249</v>
       </c>
       <c r="J48" s="0" t="s">
-        <v>205</v>
+        <v>295</v>
+      </c>
+      <c r="K48" s="0" t="s">
+        <v>295</v>
       </c>
       <c r="L48" s="3" t="s">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>41275</v>
@@ -3622,27 +4070,33 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.2" outlineLevel="0" r="49">
+    <row r="49" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="n">
         <v>48</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>154</v>
+        <v>177</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>155</v>
+        <v>178</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>237</v>
+        <v>296</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>238</v>
+        <v>297</v>
       </c>
       <c r="H49" s="0" t="s">
-        <v>239</v>
+        <v>298</v>
+      </c>
+      <c r="I49" s="0" t="s">
+        <v>249</v>
       </c>
       <c r="J49" s="0" t="s">
-        <v>209</v>
+        <v>299</v>
+      </c>
+      <c r="K49" s="0" t="s">
+        <v>300</v>
       </c>
       <c r="L49" s="3" t="s">
         <v>23</v>
@@ -3654,218 +4108,218 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.2" outlineLevel="0" r="50">
+    <row r="50" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="n">
         <v>49</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>240</v>
+        <v>301</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>241</v>
+        <v>302</v>
       </c>
       <c r="G50" s="0" t="s">
-        <v>241</v>
+        <v>302</v>
       </c>
       <c r="H50" s="0" t="s">
-        <v>241</v>
+        <v>302</v>
       </c>
       <c r="J50" s="0" t="s">
-        <v>242</v>
+        <v>303</v>
       </c>
       <c r="L50" s="3" t="s">
-        <v>243</v>
+        <v>304</v>
       </c>
       <c r="P50" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.2" outlineLevel="0" r="51">
+    <row r="51" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="n">
         <v>50</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>240</v>
+        <v>301</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>244</v>
+        <v>305</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>244</v>
+        <v>305</v>
       </c>
       <c r="H51" s="0" t="s">
-        <v>244</v>
+        <v>305</v>
       </c>
       <c r="J51" s="0" t="s">
-        <v>245</v>
+        <v>306</v>
       </c>
       <c r="L51" s="0" t="s">
-        <v>246</v>
+        <v>307</v>
       </c>
       <c r="P51" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.2" outlineLevel="0" r="52">
+    <row r="52" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="n">
         <v>51</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>240</v>
+        <v>301</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>247</v>
+        <v>308</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>248</v>
+        <v>309</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>249</v>
+        <v>310</v>
       </c>
       <c r="H52" s="0" t="s">
-        <v>250</v>
+        <v>311</v>
       </c>
       <c r="J52" s="0" t="s">
-        <v>251</v>
+        <v>312</v>
       </c>
       <c r="L52" s="3" t="s">
-        <v>160</v>
+        <v>313</v>
       </c>
       <c r="P52" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.2" outlineLevel="0" r="53">
+    <row r="53" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="n">
         <v>52</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>240</v>
+        <v>301</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>247</v>
+        <v>308</v>
       </c>
       <c r="F53" s="0" t="s">
-        <v>252</v>
+        <v>314</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>253</v>
+        <v>315</v>
       </c>
       <c r="H53" s="0" t="s">
-        <v>254</v>
+        <v>316</v>
       </c>
       <c r="J53" s="0" t="s">
-        <v>255</v>
+        <v>317</v>
       </c>
       <c r="L53" s="3" t="s">
-        <v>183</v>
+        <v>318</v>
       </c>
       <c r="P53" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.2" outlineLevel="0" r="54">
+    <row r="54" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="n">
         <v>53</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>240</v>
+        <v>301</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>247</v>
+        <v>308</v>
       </c>
       <c r="F54" s="0" t="s">
-        <v>256</v>
+        <v>319</v>
       </c>
       <c r="G54" s="0" t="s">
-        <v>257</v>
+        <v>320</v>
       </c>
       <c r="H54" s="0" t="s">
-        <v>258</v>
+        <v>321</v>
       </c>
       <c r="J54" s="0" t="s">
-        <v>259</v>
+        <v>322</v>
       </c>
       <c r="L54" s="3" t="s">
-        <v>183</v>
+        <v>318</v>
       </c>
       <c r="P54" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.2" outlineLevel="0" r="55">
+    <row r="55" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="n">
         <v>54</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>240</v>
+        <v>301</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>247</v>
+        <v>308</v>
       </c>
       <c r="F55" s="0" t="s">
-        <v>260</v>
+        <v>323</v>
       </c>
       <c r="G55" s="0" t="s">
-        <v>261</v>
+        <v>324</v>
       </c>
       <c r="H55" s="0" t="s">
-        <v>262</v>
+        <v>325</v>
       </c>
       <c r="J55" s="0" t="s">
-        <v>263</v>
+        <v>326</v>
       </c>
       <c r="L55" s="3" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="P55" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.2" outlineLevel="0" r="56">
+    <row r="56" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="n">
         <v>55</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>240</v>
+        <v>301</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>247</v>
+        <v>308</v>
       </c>
       <c r="F56" s="0" t="s">
-        <v>264</v>
+        <v>327</v>
       </c>
       <c r="G56" s="0" t="s">
-        <v>265</v>
+        <v>328</v>
       </c>
       <c r="H56" s="0" t="s">
-        <v>266</v>
+        <v>329</v>
       </c>
       <c r="J56" s="0" t="s">
-        <v>267</v>
+        <v>330</v>
       </c>
       <c r="L56" s="3" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="P56" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.2" outlineLevel="0" r="57">
+    <row r="57" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="n">
         <v>56</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>240</v>
+        <v>301</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>247</v>
+        <v>308</v>
       </c>
       <c r="F57" s="0" t="s">
-        <v>268</v>
+        <v>331</v>
       </c>
       <c r="J57" s="0" t="s">
-        <v>269</v>
+        <v>332</v>
       </c>
       <c r="L57" s="3" t="s">
         <v>23</v>
@@ -3877,27 +4331,27 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.2" outlineLevel="0" r="58">
+    <row r="58" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="n">
         <v>57</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>270</v>
+        <v>333</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>271</v>
+        <v>334</v>
       </c>
       <c r="F58" s="0" t="s">
-        <v>272</v>
+        <v>335</v>
       </c>
       <c r="J58" s="0" t="s">
-        <v>273</v>
+        <v>336</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>9</v>
       </c>
       <c r="M58" s="0" t="s">
-        <v>274</v>
+        <v>337</v>
       </c>
       <c r="N58" s="4" t="n">
         <v>4.8</v>
@@ -3906,36 +4360,36 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.2" outlineLevel="0" r="59">
+    <row r="59" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="n">
         <v>58</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>270</v>
+        <v>333</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>271</v>
+        <v>334</v>
       </c>
       <c r="E59" s="0" t="s">
         <v>41</v>
       </c>
       <c r="F59" s="0" t="s">
-        <v>275</v>
+        <v>338</v>
       </c>
       <c r="I59" s="0" t="s">
-        <v>276</v>
+        <v>339</v>
       </c>
       <c r="J59" s="0" t="s">
-        <v>277</v>
+        <v>340</v>
       </c>
       <c r="K59" s="0" t="s">
-        <v>278</v>
+        <v>341</v>
       </c>
       <c r="L59" s="3" t="s">
         <v>47</v>
       </c>
       <c r="M59" s="0" t="s">
-        <v>279</v>
+        <v>342</v>
       </c>
       <c r="N59" s="4" t="n">
         <v>86.2</v>
@@ -3944,27 +4398,36 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.2" outlineLevel="0" r="60">
+    <row r="60" customFormat="false" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="n">
         <v>59</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>270</v>
+        <v>333</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>271</v>
+        <v>334</v>
+      </c>
+      <c r="E60" s="0" t="s">
+        <v>41</v>
       </c>
       <c r="F60" s="0" t="s">
-        <v>280</v>
+        <v>343</v>
+      </c>
+      <c r="I60" s="0" t="s">
+        <v>344</v>
       </c>
       <c r="J60" s="0" t="s">
-        <v>281</v>
+        <v>345</v>
+      </c>
+      <c r="K60" s="0" t="s">
+        <v>346</v>
       </c>
       <c r="L60" s="3" t="s">
         <v>47</v>
       </c>
       <c r="M60" s="0" t="s">
-        <v>282</v>
+        <v>347</v>
       </c>
       <c r="N60" s="4" t="n">
         <v>71.43</v>
@@ -3973,27 +4436,36 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.2" outlineLevel="0" r="61">
+    <row r="61" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="n">
         <v>60</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>270</v>
+        <v>333</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>271</v>
+        <v>334</v>
+      </c>
+      <c r="E61" s="0" t="s">
+        <v>41</v>
       </c>
       <c r="F61" s="0" t="s">
-        <v>283</v>
+        <v>348</v>
+      </c>
+      <c r="I61" s="0" t="s">
+        <v>349</v>
       </c>
       <c r="J61" s="0" t="s">
-        <v>284</v>
+        <v>350</v>
+      </c>
+      <c r="K61" s="0" t="s">
+        <v>351</v>
       </c>
       <c r="L61" s="3" t="s">
         <v>47</v>
       </c>
       <c r="M61" s="0" t="s">
-        <v>282</v>
+        <v>347</v>
       </c>
       <c r="N61" s="4" t="n">
         <v>16.34</v>
@@ -4002,27 +4474,27 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.2" outlineLevel="0" r="62">
+    <row r="62" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="n">
         <v>61</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>270</v>
+        <v>333</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>271</v>
+        <v>334</v>
       </c>
       <c r="F62" s="0" t="s">
-        <v>285</v>
+        <v>352</v>
       </c>
       <c r="J62" s="0" t="s">
-        <v>286</v>
+        <v>353</v>
       </c>
       <c r="L62" s="3" t="s">
         <v>23</v>
       </c>
       <c r="M62" s="0" t="s">
-        <v>287</v>
+        <v>354</v>
       </c>
       <c r="N62" s="4" t="n">
         <v>1800</v>
@@ -4031,27 +4503,27 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.2" outlineLevel="0" r="63">
+    <row r="63" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="n">
         <v>62</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>270</v>
+        <v>333</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>271</v>
+        <v>334</v>
       </c>
       <c r="F63" s="0" t="s">
-        <v>288</v>
+        <v>355</v>
       </c>
       <c r="J63" s="0" t="s">
-        <v>289</v>
+        <v>356</v>
       </c>
       <c r="L63" s="3" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="M63" s="0" t="s">
-        <v>287</v>
+        <v>354</v>
       </c>
       <c r="N63" s="4" t="n">
         <v>0.1</v>
@@ -4060,27 +4532,27 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.2" outlineLevel="0" r="64">
+    <row r="64" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="n">
         <v>63</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>270</v>
+        <v>333</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>271</v>
+        <v>334</v>
       </c>
       <c r="F64" s="0" t="s">
-        <v>290</v>
+        <v>357</v>
       </c>
       <c r="J64" s="0" t="s">
-        <v>291</v>
+        <v>358</v>
       </c>
       <c r="L64" s="3" t="s">
         <v>47</v>
       </c>
       <c r="M64" s="0" t="s">
-        <v>287</v>
+        <v>354</v>
       </c>
       <c r="N64" s="4" t="n">
         <v>400</v>
@@ -4089,27 +4561,27 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.2" outlineLevel="0" r="65">
+    <row r="65" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="n">
         <v>64</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>270</v>
+        <v>333</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>271</v>
+        <v>334</v>
       </c>
       <c r="F65" s="0" t="s">
-        <v>292</v>
+        <v>359</v>
       </c>
       <c r="J65" s="0" t="s">
-        <v>293</v>
+        <v>360</v>
       </c>
       <c r="L65" s="3" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="M65" s="0" t="s">
-        <v>287</v>
+        <v>354</v>
       </c>
       <c r="N65" s="4" t="n">
         <v>1</v>
@@ -4118,27 +4590,27 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.2" outlineLevel="0" r="66">
+    <row r="66" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="n">
         <v>65</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>270</v>
+        <v>333</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>271</v>
+        <v>334</v>
       </c>
       <c r="F66" s="0" t="s">
-        <v>294</v>
+        <v>361</v>
       </c>
       <c r="J66" s="0" t="s">
-        <v>295</v>
+        <v>362</v>
       </c>
       <c r="L66" s="3" t="s">
         <v>47</v>
       </c>
       <c r="M66" s="0" t="s">
-        <v>287</v>
+        <v>354</v>
       </c>
       <c r="N66" s="4" t="n">
         <v>153</v>
@@ -4147,27 +4619,27 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.2" outlineLevel="0" r="67">
+    <row r="67" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="n">
         <v>66</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>270</v>
+        <v>333</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>271</v>
+        <v>334</v>
       </c>
       <c r="F67" s="0" t="s">
-        <v>296</v>
+        <v>363</v>
       </c>
       <c r="J67" s="0" t="s">
-        <v>297</v>
+        <v>364</v>
       </c>
       <c r="L67" s="3" t="s">
         <v>47</v>
       </c>
       <c r="M67" s="0" t="s">
-        <v>287</v>
+        <v>354</v>
       </c>
       <c r="N67" s="4" t="n">
         <v>851.33</v>
@@ -4176,27 +4648,27 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.2" outlineLevel="0" r="68">
+    <row r="68" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="n">
         <v>67</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>270</v>
+        <v>333</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>271</v>
+        <v>334</v>
       </c>
       <c r="F68" s="0" t="s">
-        <v>298</v>
+        <v>365</v>
       </c>
       <c r="J68" s="0" t="s">
-        <v>299</v>
+        <v>366</v>
       </c>
       <c r="L68" s="3" t="s">
-        <v>67</v>
+        <v>367</v>
       </c>
       <c r="M68" s="0" t="s">
-        <v>287</v>
+        <v>354</v>
       </c>
       <c r="N68" s="4" t="n">
         <v>-0.03783</v>
@@ -4205,27 +4677,27 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.2" outlineLevel="0" r="69">
+    <row r="69" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="n">
         <v>68</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>270</v>
+        <v>333</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>271</v>
+        <v>334</v>
       </c>
       <c r="F69" s="0" t="s">
-        <v>300</v>
+        <v>368</v>
       </c>
       <c r="J69" s="0" t="s">
-        <v>301</v>
+        <v>369</v>
       </c>
       <c r="L69" s="3" t="s">
-        <v>67</v>
+        <v>367</v>
       </c>
       <c r="M69" s="0" t="s">
-        <v>287</v>
+        <v>354</v>
       </c>
       <c r="N69" s="4" t="n">
         <v>0.78469</v>
@@ -4234,27 +4706,27 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.2" outlineLevel="0" r="70">
+    <row r="70" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="n">
         <v>69</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>270</v>
+        <v>333</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>271</v>
+        <v>334</v>
       </c>
       <c r="F70" s="0" t="s">
-        <v>302</v>
+        <v>370</v>
       </c>
       <c r="J70" s="0" t="s">
-        <v>303</v>
+        <v>371</v>
       </c>
       <c r="L70" s="3" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="M70" s="0" t="s">
-        <v>287</v>
+        <v>354</v>
       </c>
       <c r="N70" s="4" t="n">
         <v>0.01379</v>
@@ -4263,27 +4735,27 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.2" outlineLevel="0" r="71">
+    <row r="71" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="n">
         <v>70</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>270</v>
+        <v>333</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>271</v>
+        <v>334</v>
       </c>
       <c r="F71" s="0" t="s">
-        <v>304</v>
+        <v>372</v>
       </c>
       <c r="J71" s="0" t="s">
-        <v>305</v>
+        <v>373</v>
       </c>
       <c r="L71" s="3" t="s">
-        <v>306</v>
+        <v>374</v>
       </c>
       <c r="M71" s="0" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="N71" s="4" t="n">
         <v>1</v>
@@ -4292,27 +4764,27 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.2" outlineLevel="0" r="72">
+    <row r="72" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="n">
         <v>71</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>270</v>
+        <v>333</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>271</v>
+        <v>334</v>
       </c>
       <c r="F72" s="0" t="s">
-        <v>307</v>
+        <v>375</v>
       </c>
       <c r="J72" s="0" t="s">
-        <v>308</v>
+        <v>376</v>
       </c>
       <c r="L72" s="3" t="s">
-        <v>306</v>
+        <v>374</v>
       </c>
       <c r="M72" s="0" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="N72" s="4" t="n">
         <v>4.5</v>
@@ -4321,27 +4793,27 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.2" outlineLevel="0" r="73">
+    <row r="73" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="n">
         <v>72</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>270</v>
+        <v>333</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>271</v>
+        <v>334</v>
       </c>
       <c r="F73" s="0" t="s">
-        <v>309</v>
+        <v>377</v>
       </c>
       <c r="J73" s="0" t="s">
-        <v>310</v>
+        <v>378</v>
       </c>
       <c r="L73" s="3" t="s">
-        <v>306</v>
+        <v>374</v>
       </c>
       <c r="M73" s="0" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="N73" s="4" t="n">
         <v>0.015</v>
@@ -4350,27 +4822,27 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.2" outlineLevel="0" r="74">
+    <row r="74" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="n">
         <v>73</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>270</v>
+        <v>333</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>271</v>
+        <v>334</v>
       </c>
       <c r="F74" s="0" t="s">
-        <v>311</v>
+        <v>379</v>
       </c>
       <c r="J74" s="0" t="s">
-        <v>312</v>
+        <v>380</v>
       </c>
       <c r="L74" s="3" t="s">
-        <v>306</v>
+        <v>374</v>
       </c>
       <c r="M74" s="0" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="N74" s="4" t="n">
         <v>3</v>
@@ -4379,27 +4851,27 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.2" outlineLevel="0" r="75">
+    <row r="75" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="n">
         <v>74</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>270</v>
+        <v>333</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>271</v>
+        <v>334</v>
       </c>
       <c r="F75" s="0" t="s">
-        <v>313</v>
+        <v>381</v>
       </c>
       <c r="J75" s="0" t="s">
-        <v>314</v>
+        <v>382</v>
       </c>
       <c r="L75" s="3" t="s">
         <v>9</v>
       </c>
       <c r="M75" s="0" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="N75" s="4" t="n">
         <v>37</v>
@@ -4408,28 +4880,28 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.2" outlineLevel="0" r="76">
+    <row r="76" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="n">
         <v>75</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>270</v>
+        <v>333</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>271</v>
+        <v>334</v>
       </c>
       <c r="F76" s="0" t="s">
-        <v>315</v>
+        <v>383</v>
       </c>
       <c r="J76" s="3" t="s">
-        <v>316</v>
+        <v>384</v>
       </c>
       <c r="K76" s="3"/>
       <c r="L76" s="3" t="s">
         <v>9</v>
       </c>
       <c r="M76" s="0" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="N76" s="4" t="n">
         <v>20</v>
@@ -4438,28 +4910,28 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.2" outlineLevel="0" r="77">
+    <row r="77" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="n">
         <v>76</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>270</v>
+        <v>333</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>271</v>
+        <v>334</v>
       </c>
       <c r="F77" s="0" t="s">
-        <v>317</v>
+        <v>385</v>
       </c>
       <c r="J77" s="3" t="s">
-        <v>318</v>
+        <v>386</v>
       </c>
       <c r="K77" s="3"/>
       <c r="L77" s="3" t="s">
         <v>9</v>
       </c>
       <c r="M77" s="0" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="N77" s="4" t="n">
         <v>28</v>
@@ -4468,27 +4940,27 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.2" outlineLevel="0" r="78">
+    <row r="78" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="n">
         <v>77</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>270</v>
+        <v>333</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>271</v>
+        <v>334</v>
       </c>
       <c r="F78" s="0" t="s">
-        <v>319</v>
+        <v>387</v>
       </c>
       <c r="J78" s="0" t="s">
-        <v>320</v>
+        <v>388</v>
       </c>
       <c r="L78" s="3" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="M78" s="0" t="s">
-        <v>287</v>
+        <v>354</v>
       </c>
       <c r="N78" s="4" t="n">
         <v>-25</v>
@@ -4497,27 +4969,27 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.2" outlineLevel="0" r="79">
+    <row r="79" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="n">
         <v>78</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>270</v>
+        <v>333</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>271</v>
+        <v>334</v>
       </c>
       <c r="F79" s="0" t="s">
-        <v>321</v>
+        <v>389</v>
       </c>
       <c r="J79" s="0" t="s">
-        <v>322</v>
+        <v>390</v>
       </c>
       <c r="L79" s="3" t="s">
         <v>47</v>
       </c>
       <c r="M79" s="0" t="s">
-        <v>287</v>
+        <v>354</v>
       </c>
       <c r="N79" s="4" t="n">
         <v>350</v>
@@ -4526,27 +4998,27 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.2" outlineLevel="0" r="80">
+    <row r="80" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="n">
         <v>79</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>270</v>
+        <v>333</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>271</v>
+        <v>334</v>
       </c>
       <c r="F80" s="0" t="s">
-        <v>323</v>
+        <v>391</v>
       </c>
       <c r="J80" s="0" t="s">
-        <v>324</v>
+        <v>392</v>
       </c>
       <c r="L80" s="3" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="M80" s="0" t="s">
-        <v>287</v>
+        <v>354</v>
       </c>
       <c r="N80" s="4" t="n">
         <v>0.1</v>
@@ -4555,27 +5027,27 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.2" outlineLevel="0" r="81">
+    <row r="81" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="n">
         <v>80</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>270</v>
+        <v>333</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>325</v>
+        <v>393</v>
       </c>
       <c r="F81" s="0" t="s">
-        <v>326</v>
+        <v>394</v>
       </c>
       <c r="J81" s="0" t="s">
-        <v>327</v>
+        <v>395</v>
       </c>
       <c r="L81" s="3" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="M81" s="0" t="s">
-        <v>328</v>
+        <v>396</v>
       </c>
       <c r="N81" s="4" t="n">
         <v>4.53</v>
@@ -4584,27 +5056,27 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.2" outlineLevel="0" r="82">
+    <row r="82" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="n">
         <v>81</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>270</v>
+        <v>333</v>
       </c>
       <c r="D82" s="0" t="s">
-        <v>325</v>
+        <v>393</v>
       </c>
       <c r="F82" s="0" t="s">
-        <v>329</v>
+        <v>397</v>
       </c>
       <c r="J82" s="0" t="s">
-        <v>330</v>
+        <v>398</v>
       </c>
       <c r="L82" s="3" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="M82" s="0" t="s">
-        <v>328</v>
+        <v>396</v>
       </c>
       <c r="N82" s="4" t="n">
         <v>0.42</v>
@@ -4613,27 +5085,27 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.2" outlineLevel="0" r="83">
+    <row r="83" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="n">
         <v>82</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>270</v>
+        <v>333</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>325</v>
+        <v>393</v>
       </c>
       <c r="F83" s="0" t="s">
-        <v>331</v>
+        <v>399</v>
       </c>
       <c r="J83" s="0" t="s">
-        <v>332</v>
+        <v>400</v>
       </c>
       <c r="L83" s="3" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="M83" s="0" t="s">
-        <v>328</v>
+        <v>396</v>
       </c>
       <c r="N83" s="4" t="n">
         <v>6.49</v>
@@ -4642,27 +5114,27 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.2" outlineLevel="0" r="84">
+    <row r="84" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="n">
         <v>83</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>270</v>
+        <v>333</v>
       </c>
       <c r="D84" s="0" t="s">
-        <v>325</v>
+        <v>393</v>
       </c>
       <c r="F84" s="0" t="s">
-        <v>333</v>
+        <v>401</v>
       </c>
       <c r="J84" s="0" t="s">
-        <v>334</v>
+        <v>402</v>
       </c>
       <c r="L84" s="3" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="M84" s="0" t="s">
-        <v>328</v>
+        <v>396</v>
       </c>
       <c r="N84" s="4" t="n">
         <v>0.44</v>
@@ -4671,27 +5143,27 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.2" outlineLevel="0" r="85">
+    <row r="85" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="n">
         <v>84</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>270</v>
+        <v>333</v>
       </c>
       <c r="D85" s="0" t="s">
-        <v>325</v>
+        <v>393</v>
       </c>
       <c r="F85" s="0" t="s">
-        <v>335</v>
+        <v>403</v>
       </c>
       <c r="J85" s="0" t="s">
-        <v>336</v>
+        <v>404</v>
       </c>
       <c r="L85" s="3" t="s">
-        <v>337</v>
+        <v>405</v>
       </c>
       <c r="M85" s="0" t="s">
-        <v>328</v>
+        <v>396</v>
       </c>
       <c r="N85" s="4" t="n">
         <v>75</v>
@@ -4700,27 +5172,27 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.2" outlineLevel="0" r="86">
+    <row r="86" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="n">
         <v>85</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>270</v>
+        <v>333</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>325</v>
+        <v>393</v>
       </c>
       <c r="F86" s="0" t="s">
-        <v>338</v>
+        <v>406</v>
       </c>
       <c r="J86" s="0" t="s">
-        <v>339</v>
+        <v>407</v>
       </c>
       <c r="L86" s="3" t="s">
-        <v>337</v>
+        <v>405</v>
       </c>
       <c r="M86" s="0" t="s">
-        <v>328</v>
+        <v>396</v>
       </c>
       <c r="N86" s="4" t="n">
         <v>75</v>
@@ -4729,27 +5201,27 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.2" outlineLevel="0" r="87">
+    <row r="87" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="n">
         <v>86</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>270</v>
+        <v>333</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>325</v>
+        <v>393</v>
       </c>
       <c r="F87" s="0" t="s">
-        <v>340</v>
+        <v>408</v>
       </c>
       <c r="J87" s="0" t="s">
-        <v>341</v>
+        <v>409</v>
       </c>
       <c r="L87" s="3" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="M87" s="0" t="s">
-        <v>342</v>
+        <v>410</v>
       </c>
       <c r="N87" s="4" t="n">
         <v>0.6</v>
@@ -4758,27 +5230,27 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.2" outlineLevel="0" r="88">
+    <row r="88" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="n">
         <v>87</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>270</v>
+        <v>333</v>
       </c>
       <c r="D88" s="0" t="s">
-        <v>325</v>
+        <v>393</v>
       </c>
       <c r="F88" s="0" t="s">
-        <v>343</v>
+        <v>411</v>
       </c>
       <c r="J88" s="0" t="s">
-        <v>344</v>
+        <v>412</v>
       </c>
       <c r="L88" s="3" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="M88" s="0" t="s">
-        <v>342</v>
+        <v>410</v>
       </c>
       <c r="N88" s="4" t="n">
         <v>0.3</v>
@@ -4787,24 +5259,24 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.2" outlineLevel="0" r="89">
+    <row r="89" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="n">
         <v>88</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>270</v>
+        <v>333</v>
       </c>
       <c r="D89" s="0" t="s">
-        <v>325</v>
+        <v>393</v>
       </c>
       <c r="F89" s="0" t="s">
-        <v>345</v>
+        <v>413</v>
       </c>
       <c r="J89" s="0" t="s">
-        <v>346</v>
+        <v>414</v>
       </c>
       <c r="L89" s="3" t="s">
-        <v>347</v>
+        <v>415</v>
       </c>
       <c r="M89" s="0" t="s">
         <v>48</v>
@@ -4816,24 +5288,24 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.2" outlineLevel="0" r="90">
+    <row r="90" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="n">
         <v>89</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>270</v>
+        <v>333</v>
       </c>
       <c r="D90" s="0" t="s">
-        <v>348</v>
+        <v>416</v>
       </c>
       <c r="F90" s="0" t="s">
-        <v>349</v>
+        <v>417</v>
       </c>
       <c r="J90" s="0" t="s">
-        <v>350</v>
+        <v>418</v>
       </c>
       <c r="L90" s="3" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="N90" s="4" t="n">
         <v>0.6</v>
@@ -4842,24 +5314,24 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.2" outlineLevel="0" r="91">
+    <row r="91" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="n">
         <v>90</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>270</v>
+        <v>333</v>
       </c>
       <c r="D91" s="0" t="s">
-        <v>325</v>
+        <v>393</v>
       </c>
       <c r="F91" s="0" t="s">
-        <v>351</v>
+        <v>419</v>
       </c>
       <c r="J91" s="0" t="s">
-        <v>352</v>
+        <v>420</v>
       </c>
       <c r="L91" s="3" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="M91" s="0" t="s">
         <v>48</v>
@@ -4871,36 +5343,36 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.2" outlineLevel="0" r="92">
+    <row r="92" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="n">
         <v>91</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>270</v>
+        <v>333</v>
       </c>
       <c r="D92" s="0" t="s">
-        <v>325</v>
+        <v>393</v>
       </c>
       <c r="E92" s="0" t="s">
         <v>41</v>
       </c>
       <c r="F92" s="0" t="s">
-        <v>353</v>
+        <v>421</v>
       </c>
       <c r="I92" s="0" t="s">
-        <v>354</v>
+        <v>422</v>
       </c>
       <c r="J92" s="0" t="s">
-        <v>355</v>
+        <v>423</v>
       </c>
       <c r="K92" s="0" t="s">
-        <v>356</v>
+        <v>424</v>
       </c>
       <c r="L92" s="3" t="s">
-        <v>357</v>
+        <v>425</v>
       </c>
       <c r="M92" s="0" t="s">
-        <v>279</v>
+        <v>342</v>
       </c>
       <c r="N92" s="4" t="n">
         <v>1.19</v>
@@ -4909,180 +5381,180 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.2" outlineLevel="0" r="93">
+    <row r="93" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="n">
         <v>100</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>358</v>
+        <v>426</v>
       </c>
       <c r="D93" s="0" t="s">
-        <v>359</v>
+        <v>427</v>
       </c>
       <c r="F93" s="0" t="s">
-        <v>360</v>
+        <v>428</v>
       </c>
       <c r="L93" s="3"/>
       <c r="P93" s="0" t="n">
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.2" outlineLevel="0" r="94">
+    <row r="94" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="n">
         <v>101</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>358</v>
+        <v>426</v>
       </c>
       <c r="D94" s="0" t="s">
-        <v>359</v>
+        <v>427</v>
       </c>
       <c r="F94" s="0" t="s">
-        <v>361</v>
+        <v>429</v>
       </c>
       <c r="L94" s="3"/>
       <c r="P94" s="0" t="n">
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.2" outlineLevel="0" r="95">
+    <row r="95" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="n">
         <v>102</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>358</v>
+        <v>426</v>
       </c>
       <c r="D95" s="0" t="s">
-        <v>359</v>
+        <v>427</v>
       </c>
       <c r="F95" s="0" t="s">
-        <v>362</v>
+        <v>430</v>
       </c>
       <c r="L95" s="3"/>
       <c r="P95" s="0" t="n">
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.2" outlineLevel="0" r="96">
+    <row r="96" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="n">
         <v>103</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>358</v>
+        <v>426</v>
       </c>
       <c r="D96" s="0" t="s">
-        <v>359</v>
+        <v>427</v>
       </c>
       <c r="F96" s="0" t="s">
-        <v>363</v>
+        <v>431</v>
       </c>
       <c r="L96" s="3"/>
       <c r="P96" s="0" t="n">
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.2" outlineLevel="0" r="97">
+    <row r="97" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="n">
         <v>104</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>358</v>
+        <v>426</v>
       </c>
       <c r="D97" s="0" t="s">
-        <v>359</v>
+        <v>427</v>
       </c>
       <c r="F97" s="0" t="s">
-        <v>364</v>
+        <v>432</v>
       </c>
       <c r="L97" s="3"/>
       <c r="P97" s="0" t="n">
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.2" outlineLevel="0" r="98">
+    <row r="98" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="n">
         <v>105</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>358</v>
+        <v>426</v>
       </c>
       <c r="D98" s="0" t="s">
-        <v>359</v>
+        <v>427</v>
       </c>
       <c r="F98" s="0" t="s">
-        <v>365</v>
+        <v>433</v>
       </c>
       <c r="L98" s="3"/>
       <c r="P98" s="0" t="n">
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.2" outlineLevel="0" r="99">
+    <row r="99" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="n">
         <v>106</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>358</v>
+        <v>426</v>
       </c>
       <c r="D99" s="0" t="s">
-        <v>359</v>
+        <v>427</v>
       </c>
       <c r="F99" s="0" t="s">
-        <v>366</v>
+        <v>434</v>
       </c>
       <c r="L99" s="3"/>
       <c r="P99" s="0" t="n">
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.2" outlineLevel="0" r="100">
+    <row r="100" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="n">
         <v>107</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>358</v>
+        <v>426</v>
       </c>
       <c r="D100" s="0" t="s">
-        <v>367</v>
+        <v>435</v>
       </c>
       <c r="F100" s="0" t="s">
-        <v>362</v>
+        <v>430</v>
       </c>
       <c r="L100" s="3"/>
       <c r="P100" s="0" t="n">
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.2" outlineLevel="0" r="101">
+    <row r="101" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="n">
         <v>108</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>358</v>
+        <v>426</v>
       </c>
       <c r="D101" s="0" t="s">
-        <v>367</v>
+        <v>435</v>
       </c>
       <c r="F101" s="0" t="s">
-        <v>368</v>
+        <v>436</v>
       </c>
       <c r="L101" s="3"/>
       <c r="P101" s="0" t="n">
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="102">
+    <row r="102" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="n">
         <v>109</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>358</v>
+        <v>426</v>
       </c>
       <c r="D102" s="0" t="s">
-        <v>367</v>
+        <v>435</v>
       </c>
       <c r="F102" s="0" t="s">
-        <v>364</v>
+        <v>432</v>
       </c>
       <c r="P102" s="0" t="n">
         <v>0</v>
@@ -5092,7 +5564,7 @@
   <autoFilter ref="A1:Q102"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="true" usePrinterDefaults="false" verticalDpi="300"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -5108,8 +5580,8 @@
   </sheetPr>
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="E1" activeCellId="5" pane="topLeft" sqref="M2:M14 M16 M24:M25 M58:M89 M91:M92 E1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.2"/>
@@ -5124,15 +5596,15 @@
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.6377551020408"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="1">
+    <row r="1" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>369</v>
+        <v>437</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>370</v>
+        <v>438</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>32</v>
@@ -5147,27 +5619,27 @@
         <v>4</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="2">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>372</v>
+        <v>440</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>373</v>
+        <v>441</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>374</v>
+        <v>442</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>375</v>
+        <v>443</v>
       </c>
       <c r="G2" s="0" t="s">
         <v>9</v>
@@ -5176,24 +5648,24 @@
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="3">
+    <row r="3" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>372</v>
+        <v>440</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>373</v>
+        <v>441</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>376</v>
+        <v>444</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>377</v>
+        <v>445</v>
       </c>
       <c r="G3" s="0" t="s">
         <v>9</v>
@@ -5202,24 +5674,24 @@
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="4">
+    <row r="4" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>372</v>
+        <v>440</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>373</v>
+        <v>441</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>378</v>
+        <v>446</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>379</v>
+        <v>447</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>380</v>
+        <v>448</v>
       </c>
       <c r="G4" s="0" t="s">
         <v>9</v>
@@ -5228,18 +5700,18 @@
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.2" outlineLevel="0" r="5">
+    <row r="5" customFormat="false" ht="12.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>372</v>
+        <v>440</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>373</v>
+        <v>441</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>381</v>
+        <v>449</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>14</v>
@@ -5248,24 +5720,24 @@
         <v>16</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>382</v>
+        <v>450</v>
       </c>
       <c r="H5" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="6">
+    <row r="6" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>372</v>
+        <v>440</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>373</v>
+        <v>441</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>383</v>
+        <v>451</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>19</v>
@@ -5280,18 +5752,18 @@
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.2" outlineLevel="0" r="7">
+    <row r="7" customFormat="false" ht="12.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>372</v>
+        <v>440</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>373</v>
+        <v>441</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>384</v>
+        <v>452</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>24</v>
@@ -5306,417 +5778,417 @@
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="8">
+    <row r="8" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>385</v>
+        <v>453</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>386</v>
+        <v>454</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>387</v>
+        <v>455</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>388</v>
+        <v>456</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>389</v>
+        <v>457</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>390</v>
+        <v>458</v>
       </c>
       <c r="H8" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="9">
+    <row r="9" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
         <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>385</v>
+        <v>453</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>386</v>
+        <v>454</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>391</v>
+        <v>459</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>392</v>
+        <v>460</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>393</v>
+        <v>461</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="H9" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.2" outlineLevel="0" r="10">
+    <row r="10" customFormat="false" ht="12.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
         <v>9</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>385</v>
+        <v>453</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>394</v>
+        <v>462</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>395</v>
+        <v>463</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>395</v>
+        <v>463</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>396</v>
+        <v>464</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="H10" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.2" outlineLevel="0" r="11">
+    <row r="11" customFormat="false" ht="12.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>385</v>
+        <v>453</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>394</v>
+        <v>462</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>397</v>
+        <v>465</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>397</v>
+        <v>465</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>398</v>
+        <v>466</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="H11" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.2" outlineLevel="0" r="12">
+    <row r="12" customFormat="false" ht="12.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
         <v>11</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>385</v>
+        <v>453</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>394</v>
+        <v>462</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>399</v>
+        <v>467</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>399</v>
+        <v>467</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>400</v>
+        <v>468</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="H12" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.2" outlineLevel="0" r="13">
+    <row r="13" customFormat="false" ht="12.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
         <v>12</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>385</v>
+        <v>453</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>394</v>
+        <v>462</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>401</v>
+        <v>469</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>401</v>
+        <v>469</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>402</v>
+        <v>470</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="H13" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="14">
+    <row r="14" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
         <v>13</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>385</v>
+        <v>453</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>403</v>
+        <v>471</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>404</v>
+        <v>472</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>405</v>
+        <v>473</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>406</v>
+        <v>474</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="H14" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="15">
+    <row r="15" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
         <v>14</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>385</v>
+        <v>453</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>407</v>
+        <v>475</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>408</v>
+        <v>476</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>409</v>
+        <v>477</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>410</v>
+        <v>478</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>411</v>
+        <v>479</v>
       </c>
       <c r="H15" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.2" outlineLevel="0" r="16">
+    <row r="16" customFormat="false" ht="12.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
         <v>15</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>385</v>
+        <v>453</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>407</v>
+        <v>475</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>412</v>
+        <v>480</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>413</v>
+        <v>481</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>414</v>
+        <v>482</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="H16" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.2" outlineLevel="0" r="17">
+    <row r="17" customFormat="false" ht="12.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
         <v>16</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>385</v>
+        <v>453</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>407</v>
+        <v>475</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>415</v>
+        <v>483</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>416</v>
+        <v>484</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>417</v>
+        <v>485</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="H17" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.2" outlineLevel="0" r="18">
+    <row r="18" customFormat="false" ht="12.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
         <v>17</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>385</v>
+        <v>453</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>418</v>
+        <v>486</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>419</v>
+        <v>487</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>419</v>
+        <v>487</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>420</v>
+        <v>488</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="H18" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="19">
+    <row r="19" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
         <v>18</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>385</v>
+        <v>453</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>418</v>
+        <v>486</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>421</v>
+        <v>489</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>422</v>
+        <v>490</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>423</v>
+        <v>491</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="H19" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="20">
+    <row r="20" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
         <v>19</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>385</v>
+        <v>453</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>418</v>
+        <v>486</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>424</v>
+        <v>492</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>425</v>
+        <v>493</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>426</v>
+        <v>494</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="H20" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.2" outlineLevel="0" r="21">
+    <row r="21" customFormat="false" ht="12.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
         <v>20</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>385</v>
+        <v>453</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>418</v>
+        <v>486</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>427</v>
+        <v>495</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>427</v>
+        <v>495</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>428</v>
+        <v>496</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>337</v>
+        <v>405</v>
       </c>
       <c r="H21" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="22">
+    <row r="22" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
         <v>21</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>385</v>
+        <v>453</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>429</v>
+        <v>497</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>430</v>
+        <v>498</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>431</v>
+        <v>499</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>432</v>
+        <v>500</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>433</v>
+        <v>501</v>
       </c>
       <c r="H22" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="23">
+    <row r="23" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
         <v>22</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>385</v>
+        <v>453</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>434</v>
+        <v>502</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>435</v>
+        <v>503</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>436</v>
+        <v>504</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>437</v>
+        <v>505</v>
       </c>
       <c r="H23" s="0" t="n">
         <v>1</v>
@@ -5725,7 +6197,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -5740,8 +6212,8 @@
   </sheetPr>
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="J22" activeCellId="5" pane="topLeft" sqref="M2:M14 M16 M24:M25 M58:M89 M91:M92 J22"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J22" activeCellId="0" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.2"/>
@@ -5758,27 +6230,27 @@
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="1" s="7">
+    <row r="1" s="7" customFormat="true" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>438</v>
+        <v>506</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>439</v>
+        <v>507</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>440</v>
+        <v>508</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>441</v>
+        <v>509</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>442</v>
+        <v>510</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>2</v>
@@ -5790,714 +6262,714 @@
         <v>4</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="2">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>444</v>
+        <v>512</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>445</v>
+        <v>513</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>446</v>
+        <v>514</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>447</v>
+        <v>515</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>448</v>
+        <v>516</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>449</v>
+        <v>517</v>
       </c>
       <c r="H2" s="0" t="s">
+        <v>518</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>519</v>
+      </c>
+      <c r="J2" s="0" t="s">
         <v>450</v>
       </c>
-      <c r="I2" s="0" t="s">
-        <v>451</v>
-      </c>
-      <c r="J2" s="0" t="s">
-        <v>382</v>
-      </c>
       <c r="K2" s="0" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="3">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>444</v>
+        <v>512</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>445</v>
+        <v>513</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>453</v>
+        <v>521</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>454</v>
+        <v>522</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>449</v>
+        <v>517</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>26</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>455</v>
+        <v>523</v>
       </c>
       <c r="J3" s="0" t="s">
         <v>23</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="4">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>444</v>
+        <v>512</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>445</v>
+        <v>513</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>453</v>
+        <v>521</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>457</v>
+        <v>525</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>449</v>
+        <v>517</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>458</v>
+        <v>526</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>459</v>
+        <v>527</v>
       </c>
       <c r="J4" s="0" t="s">
         <v>23</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="5">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>444</v>
+        <v>512</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>445</v>
+        <v>513</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>453</v>
+        <v>521</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>461</v>
+        <v>529</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>449</v>
+        <v>517</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>462</v>
+        <v>530</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>463</v>
+        <v>531</v>
       </c>
       <c r="J5" s="0" t="s">
         <v>23</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="6">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>465</v>
+        <v>533</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>466</v>
+        <v>534</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>453</v>
+        <v>521</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>467</v>
+        <v>535</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>449</v>
+        <v>517</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>468</v>
+        <v>536</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>469</v>
+        <v>537</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="7">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>465</v>
+        <v>533</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>466</v>
+        <v>534</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>453</v>
+        <v>521</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>471</v>
+        <v>539</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>449</v>
+        <v>517</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>472</v>
+        <v>540</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>473</v>
+        <v>541</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="8">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>465</v>
+        <v>533</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>466</v>
+        <v>534</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>453</v>
+        <v>521</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>475</v>
+        <v>543</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>476</v>
+        <v>544</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>449</v>
+        <v>517</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>477</v>
+        <v>545</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>478</v>
+        <v>546</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="9">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
         <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>465</v>
+        <v>533</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>466</v>
+        <v>534</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>453</v>
+        <v>521</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>447</v>
+        <v>515</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>480</v>
+        <v>548</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>449</v>
+        <v>517</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>481</v>
+        <v>549</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>482</v>
+        <v>550</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="10">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
         <v>9</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>465</v>
+        <v>533</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>466</v>
+        <v>534</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>484</v>
+        <v>552</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>485</v>
+        <v>553</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>449</v>
+        <v>517</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>486</v>
+        <v>554</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>487</v>
+        <v>555</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="11">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>465</v>
+        <v>533</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>466</v>
+        <v>534</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>484</v>
+        <v>552</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>489</v>
+        <v>557</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>449</v>
+        <v>517</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>410</v>
+        <v>478</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>490</v>
+        <v>558</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>491</v>
+        <v>559</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="12">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
         <v>11</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>465</v>
+        <v>533</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>466</v>
+        <v>534</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>484</v>
+        <v>552</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>447</v>
+        <v>515</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>493</v>
+        <v>561</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>449</v>
+        <v>517</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>494</v>
+        <v>562</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>495</v>
+        <v>563</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="13">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
         <v>12</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>465</v>
+        <v>533</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>466</v>
+        <v>534</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>497</v>
+        <v>565</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>447</v>
+        <v>515</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>498</v>
+        <v>566</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>449</v>
+        <v>517</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>499</v>
+        <v>567</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>500</v>
+        <v>568</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="14">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
         <v>13</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>502</v>
+        <v>570</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>466</v>
+        <v>534</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>503</v>
+        <v>571</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>419</v>
+        <v>487</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>449</v>
+        <v>517</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>504</v>
+        <v>572</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>505</v>
+        <v>573</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="15">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
         <v>14</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>502</v>
+        <v>570</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>466</v>
+        <v>534</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>503</v>
+        <v>571</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>507</v>
+        <v>575</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>449</v>
+        <v>517</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>508</v>
+        <v>576</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>509</v>
+        <v>577</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="16">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
         <v>15</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>444</v>
+        <v>512</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>466</v>
+        <v>534</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>446</v>
+        <v>514</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>503</v>
+        <v>571</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>511</v>
+        <v>579</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>449</v>
+        <v>517</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>512</v>
+        <v>580</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>513</v>
+        <v>581</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>382</v>
+        <v>450</v>
       </c>
       <c r="K16" s="0" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="17">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
         <v>16</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>502</v>
+        <v>570</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>466</v>
+        <v>534</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>447</v>
+        <v>515</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>515</v>
+        <v>583</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>449</v>
+        <v>517</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>516</v>
+        <v>584</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>517</v>
+        <v>585</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>518</v>
+        <v>586</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="18">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
         <v>17</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>502</v>
+        <v>570</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>466</v>
+        <v>534</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>447</v>
+        <v>515</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>520</v>
+        <v>588</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>449</v>
+        <v>517</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>521</v>
+        <v>589</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>522</v>
+        <v>590</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>337</v>
+        <v>405</v>
       </c>
       <c r="K18" s="0" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="19">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
         <v>18</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>524</v>
+        <v>592</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>466</v>
+        <v>534</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>497</v>
+        <v>565</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>525</v>
+        <v>593</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>526</v>
+        <v>594</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>449</v>
+        <v>517</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>527</v>
+        <v>595</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>528</v>
+        <v>596</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>390</v>
+        <v>458</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.15" outlineLevel="0" r="20">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
         <v>19</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>502</v>
+        <v>570</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>466</v>
+        <v>534</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>530</v>
+        <v>598</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>431</v>
+        <v>499</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>449</v>
+        <v>517</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>432</v>
+        <v>500</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>531</v>
+        <v>599</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>433</v>
+        <v>501</v>
       </c>
       <c r="K20" s="0" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="21">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
         <v>20</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>502</v>
+        <v>570</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>466</v>
+        <v>534</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>530</v>
+        <v>598</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>449</v>
+        <v>517</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>436</v>
+        <v>504</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>533</v>
+        <v>601</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>534</v>
+        <v>602</v>
       </c>
       <c r="K21" s="0" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.15" outlineLevel="0" r="22"/>
+        <v>603</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/inst/doc/files/parameterization.xlsx
+++ b/inst/doc/files/parameterization.xlsx
@@ -5,13 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="422" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="240" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="inputs" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="climate" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="parameters" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="outputs" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="indicators" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="variables" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="outputs" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="indicators" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">parameters!$A$1:$Q$102</definedName>
@@ -29,13 +30,15 @@
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">parameters!$A$1:$Q$102</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">parameters!$A$1:$Q$102</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">parameters!$A$1:$Q$102</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">parameters!$A$1:$Q$102</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">parameters!$A$1:$Q$102</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="604">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1181" uniqueCount="612">
   <si>
     <t>name.rsunflo.fr</t>
   </si>
@@ -232,1120 +235,1156 @@
     <t>TLN</t>
   </si>
   <si>
+    <t>PotentialLeafNumber</t>
+  </si>
+  <si>
+    <t>Nombre de feuille potentiel</t>
+  </si>
+  <si>
+    <t>Potential number of leaves at flowering</t>
+  </si>
+  <si>
+    <t>leaf</t>
+  </si>
+  <si>
+    <t>bSF</t>
+  </si>
+  <si>
+    <t>LLH</t>
+  </si>
+  <si>
+    <t>PotentialLeafProfile</t>
+  </si>
+  <si>
+    <t>Rang (depuis le sol) de la plus grande feuille du profil foliaire à la floraison</t>
+  </si>
+  <si>
+    <t>Potential rank of the largest leave of leaf profile at flowering</t>
+  </si>
+  <si>
+    <t>cSF</t>
+  </si>
+  <si>
+    <t>LLS</t>
+  </si>
+  <si>
+    <t>PotentialLeafSize</t>
+  </si>
+  <si>
+    <t>Surface de la plus grande feuille du profil folaire à la floraison</t>
+  </si>
+  <si>
+    <t>Potential area of the largest leave of leaf profile at flowering</t>
+  </si>
+  <si>
+    <t>cm2</t>
+  </si>
+  <si>
+    <t>ext</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>ExtinctionCoefficient</t>
+  </si>
+  <si>
+    <t>Coefficient d’extinction du rayonnement lors de la phase végétative (E1-F1)</t>
+  </si>
+  <si>
+    <t>Light extinction coefficient during vegetative growth</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>a_LE</t>
+  </si>
+  <si>
+    <t>LE</t>
+  </si>
+  <si>
+    <t>WaterResponseExpansion</t>
+  </si>
+  <si>
+    <t>Seuil de réponse de l'expansion foliaire à une contrainte hydrique</t>
+  </si>
+  <si>
+    <t>Threshold for leaf expansion response to water stress</t>
+  </si>
+  <si>
+    <t>[@Casadebaig2008]</t>
+  </si>
+  <si>
+    <t>a_TR</t>
+  </si>
+  <si>
+    <t>TR</t>
+  </si>
+  <si>
+    <t>WaterResponseConductance</t>
+  </si>
+  <si>
+    <t>Seuil de réponse de la conductance stomatique à une contrainte hydrique</t>
+  </si>
+  <si>
+    <t>Threshold for stomatal conductance response to water stress</t>
+  </si>
+  <si>
+    <t>PHS</t>
+  </si>
+  <si>
+    <t>PotentialPhotosynthesis</t>
+  </si>
+  <si>
+    <t>Capacité photosynthétique relative à la variete Melody</t>
+  </si>
+  <si>
+    <t>Potential photosynthesis capacity</t>
+  </si>
+  <si>
+    <t>IRg</t>
+  </si>
+  <si>
+    <t>HI</t>
+  </si>
+  <si>
+    <t>PotentialHarvestIndex</t>
+  </si>
+  <si>
+    <t>Indice de récolte potentiel</t>
+  </si>
+  <si>
+    <t>Potential harvest index</t>
+  </si>
+  <si>
+    <t>[@Casadebaig2011]</t>
+  </si>
+  <si>
+    <t>thp</t>
+  </si>
+  <si>
+    <t>OC</t>
+  </si>
+  <si>
+    <t>PotentialOilContent</t>
+  </si>
+  <si>
+    <t>Teneur en huile dans l’akène en conditions potentielles</t>
+  </si>
+  <si>
+    <t>Potential seed oil content</t>
+  </si>
+  <si>
+    <t>% dry matter</t>
+  </si>
+  <si>
+    <t>Pedoclimat</t>
+  </si>
+  <si>
+    <t>CONFIG_ClimatNomFichier</t>
+  </si>
+  <si>
+    <t>datas_file</t>
+  </si>
+  <si>
+    <t>meteo</t>
+  </si>
+  <si>
+    <t>file</t>
+  </si>
+  <si>
+    <t>Nom du fichier climatique</t>
+  </si>
+  <si>
+    <t>AUZ_2006.txt</t>
+  </si>
+  <si>
+    <t>CONFIG_Sol</t>
+  </si>
+  <si>
+    <t>profondeur</t>
+  </si>
+  <si>
+    <t>root_depth</t>
+  </si>
+  <si>
+    <t>RootingDepth</t>
+  </si>
+  <si>
+    <t>Profondeur d'enracinement maximale</t>
+  </si>
+  <si>
+    <t>Potential rooting depth</t>
+  </si>
+  <si>
+    <t>Hcc_C1</t>
+  </si>
+  <si>
+    <t>hcc1</t>
+  </si>
+  <si>
+    <t>field_capacity_1</t>
+  </si>
+  <si>
+    <t>WaterCapacity</t>
+  </si>
+  <si>
+    <t>Humidité massique à la capacité au champ dans l'horizon de surface (0 - 30 cm)</t>
+  </si>
+  <si>
+    <t>Water content at field capacity (0-30 cm)</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>Hpf_C1</t>
+  </si>
+  <si>
+    <t>hpf1</t>
+  </si>
+  <si>
+    <t>wilting_point_1</t>
+  </si>
+  <si>
+    <t>Humidité massique au point de flétrissement dans l'horizon de surface (0 - 30 cm)</t>
+  </si>
+  <si>
+    <t>Water content at wilting point (0-30cm)</t>
+  </si>
+  <si>
+    <t>Hcc_C2</t>
+  </si>
+  <si>
+    <t>hcc2</t>
+  </si>
+  <si>
+    <t>field_capacity_2</t>
+  </si>
+  <si>
+    <t>Humidité massique à la capacité au champ dans l'horizon inférieur (30 cm - profondeur)</t>
+  </si>
+  <si>
+    <t>Water content at field capacity (30 cm-rooting depth)</t>
+  </si>
+  <si>
+    <t>Hpf_C2</t>
+  </si>
+  <si>
+    <t>hpf2</t>
+  </si>
+  <si>
+    <t>wilting_point_2</t>
+  </si>
+  <si>
+    <t>Humidité massique au point de flétrissement dans l'horizon inférieur (30 cm - profondeur)</t>
+  </si>
+  <si>
+    <t>Water content at wilting point (30 cm-rooting depth)</t>
+  </si>
+  <si>
+    <t>da_C1</t>
+  </si>
+  <si>
+    <t>da1</t>
+  </si>
+  <si>
+    <t>soil_density_1</t>
+  </si>
+  <si>
+    <t>SoilDensity</t>
+  </si>
+  <si>
+    <t>Densité apparente du sol dans l'horizon de surface (0 - 30 cm)</t>
+  </si>
+  <si>
+    <t>Soil bulk density (0-30cm)</t>
+  </si>
+  <si>
+    <t>g.cm-3</t>
+  </si>
+  <si>
+    <t>da_C2</t>
+  </si>
+  <si>
+    <t>da2</t>
+  </si>
+  <si>
+    <t>soil_density_2</t>
+  </si>
+  <si>
+    <t>Densité apparente du sol dans l'horizon inférieur (30 cm - profondeur)</t>
+  </si>
+  <si>
+    <t>Soil bulk density (30 cm-rooting depth)</t>
+  </si>
+  <si>
+    <t>TC</t>
+  </si>
+  <si>
+    <t>cailloux</t>
+  </si>
+  <si>
+    <t>stone_content</t>
+  </si>
+  <si>
+    <t>StoneContent</t>
+  </si>
+  <si>
+    <t>Taux de cailloux</t>
+  </si>
+  <si>
+    <t>Stone content (0-rooting depth)</t>
+  </si>
+  <si>
+    <t>[0 ; 1]</t>
+  </si>
+  <si>
+    <t>Vp</t>
+  </si>
+  <si>
+    <t>mineralisation</t>
+  </si>
+  <si>
+    <t>mineralization</t>
+  </si>
+  <si>
+    <t>MineralizationRate</t>
+  </si>
+  <si>
+    <t>Vitesse potentielle de minéralisation</t>
+  </si>
+  <si>
+    <t>Potential nitrogen mineralization rate</t>
+  </si>
+  <si>
+    <t>kg/ha/day (normalized)</t>
+  </si>
+  <si>
+    <t>[@Vale2007]</t>
+  </si>
+  <si>
+    <t>Fpf</t>
+  </si>
+  <si>
+    <t>Valeur au point de flétrissement de la fonction "humidité" pour la minéralisation</t>
+  </si>
+  <si>
+    <t>Conduite</t>
+  </si>
+  <si>
+    <t>CONFIG_Conduite</t>
+  </si>
+  <si>
+    <t>jsemis</t>
+  </si>
+  <si>
+    <t>semis</t>
+  </si>
+  <si>
+    <t>crop_sowing</t>
+  </si>
+  <si>
+    <t>SowingDate</t>
+  </si>
+  <si>
+    <t>Date de semis</t>
+  </si>
+  <si>
+    <t>Sowing date</t>
+  </si>
+  <si>
+    <t>dd/mm</t>
+  </si>
+  <si>
+    <t>jrecolte</t>
+  </si>
+  <si>
+    <t>recolte</t>
+  </si>
+  <si>
+    <t>crop_harvest</t>
+  </si>
+  <si>
+    <t>HarvestDate</t>
+  </si>
+  <si>
+    <t>Date de récolte</t>
+  </si>
+  <si>
+    <t>Harvest date</t>
+  </si>
+  <si>
+    <t>zSemis</t>
+  </si>
+  <si>
+    <t>semis_profondeur</t>
+  </si>
+  <si>
+    <t>crop_sowing_depth</t>
+  </si>
+  <si>
+    <t>SowingDepth</t>
+  </si>
+  <si>
+    <t>Profondeur de semis</t>
+  </si>
+  <si>
+    <t>Sowing depth</t>
+  </si>
+  <si>
+    <t>densite</t>
+  </si>
+  <si>
+    <t>crop_density</t>
+  </si>
+  <si>
+    <t>SowingDensity</t>
+  </si>
+  <si>
+    <t>Densité du peuplement à la levée</t>
+  </si>
+  <si>
+    <t>Plant density</t>
+  </si>
+  <si>
+    <t>pnt/m2</t>
+  </si>
+  <si>
+    <t>date_ferti_1</t>
+  </si>
+  <si>
+    <t>azote_date1</t>
+  </si>
+  <si>
+    <t>nitrogen_date_1</t>
+  </si>
+  <si>
+    <t>Fertilization</t>
+  </si>
+  <si>
+    <t>Fertilisation (date 1)</t>
+  </si>
+  <si>
+    <t>Fertilization (date 1)</t>
+  </si>
+  <si>
+    <t>apport_ferti_1</t>
+  </si>
+  <si>
+    <t>azote_dose1</t>
+  </si>
+  <si>
+    <t>nitrogen_dose_1</t>
+  </si>
+  <si>
+    <t>Fertilisation (dose 1)</t>
+  </si>
+  <si>
+    <t>Fertilization (amount 1)</t>
+  </si>
+  <si>
+    <t>kg/ha eq. mineral nitrogen</t>
+  </si>
+  <si>
+    <t>date_ferti_2</t>
+  </si>
+  <si>
+    <t>azote_date2</t>
+  </si>
+  <si>
+    <t>nitrogen_date_2</t>
+  </si>
+  <si>
+    <t>Fertilisation (date 2)</t>
+  </si>
+  <si>
+    <t>Fertilization (date 2)</t>
+  </si>
+  <si>
+    <t>apport_ferti_2</t>
+  </si>
+  <si>
+    <t>azote_dose2</t>
+  </si>
+  <si>
+    <t>nitrogen_dose_2</t>
+  </si>
+  <si>
+    <t>Fertilisation (dose 2)</t>
+  </si>
+  <si>
+    <t>Fertilization (amount 2)</t>
+  </si>
+  <si>
+    <t>date_ferti_3</t>
+  </si>
+  <si>
+    <t>azote_date3</t>
+  </si>
+  <si>
+    <t>nitrogen_date_3</t>
+  </si>
+  <si>
+    <t>Fertilisation (date 3)</t>
+  </si>
+  <si>
+    <t>Fertilization (date 3)</t>
+  </si>
+  <si>
+    <t>apport_ferti_3</t>
+  </si>
+  <si>
+    <t>azote_dose3</t>
+  </si>
+  <si>
+    <t>nitrogen_dose_3</t>
+  </si>
+  <si>
+    <t>Fertilisation (dose 3)</t>
+  </si>
+  <si>
+    <t>Fertilization (amount 3)</t>
+  </si>
+  <si>
+    <t>date_ferti_4</t>
+  </si>
+  <si>
+    <t>azote_date4</t>
+  </si>
+  <si>
+    <t>nitrogen_date_4</t>
+  </si>
+  <si>
+    <t>Fertilisation (date 4)</t>
+  </si>
+  <si>
+    <t>Fertilization (date 4)</t>
+  </si>
+  <si>
+    <t>apport_ferti_4</t>
+  </si>
+  <si>
+    <t>azote_dose4</t>
+  </si>
+  <si>
+    <t>nitrogen_dose_4</t>
+  </si>
+  <si>
+    <t>Fertilisation (dose 4)</t>
+  </si>
+  <si>
+    <t>Fertilization (amount 4)</t>
+  </si>
+  <si>
+    <t>date_irrig_1</t>
+  </si>
+  <si>
+    <t>eau_date1</t>
+  </si>
+  <si>
+    <t>water_date_1</t>
+  </si>
+  <si>
+    <t>Irrigation</t>
+  </si>
+  <si>
+    <t>Irrigation (date 1)</t>
+  </si>
+  <si>
+    <t>apport_irrig_1</t>
+  </si>
+  <si>
+    <t>eau_dose1</t>
+  </si>
+  <si>
+    <t>water_dose_1</t>
+  </si>
+  <si>
+    <t>Irrigation (dose 1)</t>
+  </si>
+  <si>
+    <t>Irrigation (amount 1)</t>
+  </si>
+  <si>
+    <t>date_irrig_2</t>
+  </si>
+  <si>
+    <t>eau_date2</t>
+  </si>
+  <si>
+    <t>water_date_2</t>
+  </si>
+  <si>
+    <t>Irrigation (date 2)</t>
+  </si>
+  <si>
+    <t>apport_irrig_2</t>
+  </si>
+  <si>
+    <t>eau_dose2</t>
+  </si>
+  <si>
+    <t>water_dose_2</t>
+  </si>
+  <si>
+    <t>Irrigation (dose 2)</t>
+  </si>
+  <si>
+    <t>Irrigation (amount 2)</t>
+  </si>
+  <si>
+    <t>date_irrig_3</t>
+  </si>
+  <si>
+    <t>eau_date3</t>
+  </si>
+  <si>
+    <t>water_date_3</t>
+  </si>
+  <si>
+    <t>Irrigation (date 3)</t>
+  </si>
+  <si>
+    <t>apport_irrig_3</t>
+  </si>
+  <si>
+    <t>eau_dose3</t>
+  </si>
+  <si>
+    <t>water_dose_3</t>
+  </si>
+  <si>
+    <t>Irrigation (dose 3)</t>
+  </si>
+  <si>
+    <t>Irrigation (amount 3)</t>
+  </si>
+  <si>
+    <t>date_irrig_4</t>
+  </si>
+  <si>
+    <t>eau_date4</t>
+  </si>
+  <si>
+    <t>water_date_4</t>
+  </si>
+  <si>
+    <t>Irrigation (date 4)</t>
+  </si>
+  <si>
+    <t>apport_irrig_4</t>
+  </si>
+  <si>
+    <t>eau_dose4</t>
+  </si>
+  <si>
+    <t>water_dose_4</t>
+  </si>
+  <si>
+    <t>Irrigation (dose 4)</t>
+  </si>
+  <si>
+    <t>Irrigation (amount 4)</t>
+  </si>
+  <si>
+    <t>date_irrig_5</t>
+  </si>
+  <si>
+    <t>eau_date5</t>
+  </si>
+  <si>
+    <t>water_date_5</t>
+  </si>
+  <si>
+    <t>Irrigation (date 5)</t>
+  </si>
+  <si>
+    <t>apport_irrig_5</t>
+  </si>
+  <si>
+    <t>eau_dose5</t>
+  </si>
+  <si>
+    <t>water_dose_5</t>
+  </si>
+  <si>
+    <t>Irrigation (dose 5)</t>
+  </si>
+  <si>
+    <t>Irrigation (amount 5)</t>
+  </si>
+  <si>
+    <t>date_irrig_6</t>
+  </si>
+  <si>
+    <t>eau_date6</t>
+  </si>
+  <si>
+    <t>water_date_6</t>
+  </si>
+  <si>
+    <t>Irrigation (date 6)</t>
+  </si>
+  <si>
+    <t>apport_irrig_6</t>
+  </si>
+  <si>
+    <t>eau_dose6</t>
+  </si>
+  <si>
+    <t>water_dose_6</t>
+  </si>
+  <si>
+    <t>Irrigation (dose 6)</t>
+  </si>
+  <si>
+    <t>Irrigation (amount 6)</t>
+  </si>
+  <si>
+    <t>Initialisation</t>
+  </si>
+  <si>
+    <t>begin</t>
+  </si>
+  <si>
+    <t>Date de début de la simulation</t>
+  </si>
+  <si>
+    <t>jj/mm/aaaa</t>
+  </si>
+  <si>
+    <t>duration</t>
+  </si>
+  <si>
+    <t>Durée de la simulation</t>
+  </si>
+  <si>
+    <t>jour</t>
+  </si>
+  <si>
+    <t>CONFIG_SimuInit</t>
+  </si>
+  <si>
+    <t>dateLevee_casForcee</t>
+  </si>
+  <si>
+    <t>levee</t>
+  </si>
+  <si>
+    <t>crop_emergence</t>
+  </si>
+  <si>
+    <t>Date de levée forcée, simulée pour valeur = 01/01</t>
+  </si>
+  <si>
+    <t>jj/mm</t>
+  </si>
+  <si>
+    <t>rh1</t>
+  </si>
+  <si>
+    <t>ninit1</t>
+  </si>
+  <si>
+    <t>nitrogen_initial_1</t>
+  </si>
+  <si>
+    <t>Reliquats azotés dans l'horizon de surface (0 - 30 cm)</t>
+  </si>
+  <si>
+    <t>rh2</t>
+  </si>
+  <si>
+    <t>ninit2</t>
+  </si>
+  <si>
+    <t>nitrogen_initial_2</t>
+  </si>
+  <si>
+    <t>Reliquats azotés dans l'horizon inférieur (30 cm - profondeur)</t>
+  </si>
+  <si>
+    <t>Hini_C1</t>
+  </si>
+  <si>
+    <t>hinit1</t>
+  </si>
+  <si>
+    <t>water_initial_1</t>
+  </si>
+  <si>
+    <t>Humidité massique initiale dans l'horizon de surface  (0 - 30 cm)</t>
+  </si>
+  <si>
+    <t>Hini_C2</t>
+  </si>
+  <si>
+    <t>hinit2</t>
+  </si>
+  <si>
+    <t>water_initial_2</t>
+  </si>
+  <si>
+    <t>Humidité massique initiale dans l'horizon inférieur  (30 cm - profondeur)</t>
+  </si>
+  <si>
+    <t>zC1</t>
+  </si>
+  <si>
+    <t>Profondeur de l'horizon de surface</t>
+  </si>
+  <si>
+    <t>Espece</t>
+  </si>
+  <si>
+    <t>CONFIG_Plante</t>
+  </si>
+  <si>
+    <t>Tbase</t>
+  </si>
+  <si>
+    <t>Température de base pour les processus de croissance et développement</t>
+  </si>
+  <si>
+    <t>[@Granier1998]</t>
+  </si>
+  <si>
+    <t>date_TT_germination</t>
+  </si>
+  <si>
+    <t>Germination</t>
+  </si>
+  <si>
+    <t>Durée de la phase de germination</t>
+  </si>
+  <si>
+    <t>Temperature sum from sowing to germination</t>
+  </si>
+  <si>
+    <t>[@Villalobos1996]</t>
+  </si>
+  <si>
+    <t>LeafArea</t>
+  </si>
+  <si>
+    <t>Phy1</t>
+  </si>
+  <si>
+    <t>Phyllotherm_1</t>
+  </si>
+  <si>
+    <t>Phyllotherme pour les 6 premières feuilles</t>
+  </si>
+  <si>
+    <t>Phyllotherm (leaf &lt;= 6)</t>
+  </si>
+  <si>
+    <t>[@Rey2003]</t>
+  </si>
+  <si>
+    <t>Phy2</t>
+  </si>
+  <si>
+    <t>Phyllotherm_7</t>
+  </si>
+  <si>
+    <t>Phyllotherme pour les feuilles au dela du 6eme rang</t>
+  </si>
+  <si>
+    <t>Phyllotherm (leaf &gt; 7)</t>
+  </si>
+  <si>
+    <t>zRac_max</t>
+  </si>
+  <si>
+    <t>Profondeur d'enracinement maximale de l'espèce</t>
+  </si>
+  <si>
+    <t>[@Casadebaig2008b]</t>
+  </si>
+  <si>
+    <t>AP_a</t>
+  </si>
+  <si>
+    <t>Ajustement de l'effet de la contrainte hydrique sur la phénologie</t>
+  </si>
+  <si>
+    <t>LAI_a</t>
+  </si>
+  <si>
+    <t>Date thermique de fin d'expansion de la troisième paire de feuilles</t>
+  </si>
+  <si>
+    <t>LAI_b</t>
+  </si>
+  <si>
+    <t>Ajustement du calcul des dates thermique de demi-expansion des feuilles</t>
+  </si>
+  <si>
+    <t>LAI_c</t>
+  </si>
+  <si>
+    <t>Valeur de l'asymptote de la fonction de la durée de vie des feuilles en fonction du rang sur la tige</t>
+  </si>
+  <si>
+    <t>LAI_d</t>
+  </si>
+  <si>
+    <t>Valeur du maximum de la fonction de la durée de vie des feuilles en fonction du rang sur la tige</t>
+  </si>
+  <si>
+    <t>LAI_e</t>
+  </si>
+  <si>
+    <t>Abscisse du maximum de la fonction de la durée de vie des feuilles (relatif à la position de la plus grande feuille)</t>
+  </si>
+  <si>
+    <t>LAI_f</t>
+  </si>
+  <si>
+    <t>Valeur de l'amplitude de la fonction de la durée de vie des feuilles en fonction du rang sur la tige</t>
+  </si>
+  <si>
+    <t>LAI_Kei</t>
+  </si>
+  <si>
+    <t>Pente de la logistique représentant l'expansion et la senescence foliaire</t>
+  </si>
+  <si>
+    <t>Eb_0</t>
+  </si>
+  <si>
+    <t>Valeur initiale (0-300°Cj) de l'efficience biologique potentielle</t>
+  </si>
+  <si>
+    <t>g/m2/MJ</t>
+  </si>
+  <si>
+    <t>Eb_c</t>
+  </si>
+  <si>
+    <t>Pente de la décroissance de l'efficience biologique potentielle en fin de cycle (M0 - M3)</t>
+  </si>
+  <si>
+    <t>Eb_fin</t>
+  </si>
+  <si>
+    <t>Valeur de l'efficience biologique potentielle en fin de cycle (M3)</t>
+  </si>
+  <si>
+    <t>Eb_max</t>
+  </si>
+  <si>
+    <t>Valeur du plateau d'efficience biologique potentielle (F1-M0)</t>
+  </si>
+  <si>
+    <t>Tmax_PHS</t>
+  </si>
+  <si>
+    <t>Température maximale pour la réponse de la capacité photosynthétique</t>
+  </si>
+  <si>
+    <t>Topt1_PHS</t>
+  </si>
+  <si>
+    <t>Température optimale minimale pour la réponse de la capacité photosynthétique</t>
+  </si>
+  <si>
+    <t>Topt2_PHS</t>
+  </si>
+  <si>
+    <t>Température optimale maximale pour la réponse de la capacité photosynthétique</t>
+  </si>
+  <si>
+    <t>a_Pho</t>
+  </si>
+  <si>
+    <t>Décalage entre le seuil de réponse de la transpiration et celui de la photosynthèse</t>
+  </si>
+  <si>
+    <t>date_TT_F1M0</t>
+  </si>
+  <si>
+    <t>Durée de la phase de floraison utilisée dans le calcul d'indicateurs</t>
+  </si>
+  <si>
+    <t>AA_a</t>
+  </si>
+  <si>
+    <t>Ajustement du transport actif de nitrate dans la plante</t>
+  </si>
+  <si>
+    <t>EXPERT_Plante</t>
+  </si>
+  <si>
+    <t>PNCc_a</t>
+  </si>
+  <si>
+    <t>Teneur en azote critique de la biomasse aerienne au seuil de biomasse juvénile</t>
+  </si>
+  <si>
+    <t>[@Debaeke2012a]</t>
+  </si>
+  <si>
+    <t>PNCc_b</t>
+  </si>
+  <si>
+    <t>Décroissance de la courbe de dilution pour la teneur en azote critique</t>
+  </si>
+  <si>
+    <t>PNCm_a</t>
+  </si>
+  <si>
+    <t>Teneur en azote maximale de la biomasse aerienne au seuil de biomasse juvénile</t>
+  </si>
+  <si>
+    <t>PNCm_b</t>
+  </si>
+  <si>
+    <t>Décroissance de la courbe de dilution pour la teneur en azote maximale</t>
+  </si>
+  <si>
+    <t>TDMc_seuil</t>
+  </si>
+  <si>
+    <t>Seuil de biomasse aerienne au stade juvénile considéré pour la courbe de dilution d'azote critique</t>
+  </si>
+  <si>
+    <t>g/m2</t>
+  </si>
+  <si>
+    <t>TDMm_seuil</t>
+  </si>
+  <si>
+    <t>Seuil de biomasse aerienne au stade juvénile considéré pour la courbe de dilution d'azote maximal</t>
+  </si>
+  <si>
+    <t>INNseuil</t>
+  </si>
+  <si>
+    <t>Indice de nutrition azoté minimum considéré dans la réponse de la croissance foliaire</t>
+  </si>
+  <si>
+    <t>[@Brisson2008]</t>
+  </si>
+  <si>
+    <t>FNLEm</t>
+  </si>
+  <si>
+    <t>Valeur minimale de la fonction de réponse de la croissance foliaire à l'azote</t>
+  </si>
+  <si>
+    <t>VitCroiRac</t>
+  </si>
+  <si>
+    <t>Vitesse de croissance racinaire</t>
+  </si>
+  <si>
+    <t>mm/°Cd</t>
+  </si>
+  <si>
+    <t>EXPERT_SimuInit</t>
+  </si>
+  <si>
+    <t>SeuilETRETM</t>
+  </si>
+  <si>
+    <t>Seuil de ratio ETR/ETM considéré dans le calcul d'indicateur de contrainte hydrique</t>
+  </si>
+  <si>
+    <t>Kc</t>
+  </si>
+  <si>
+    <t>Coefficient cultural utilisé pour calculer l'évapotranspiration potentielle</t>
+  </si>
+  <si>
+    <t>dHE</t>
+  </si>
+  <si>
+    <t>ElongationRate</t>
+  </si>
+  <si>
+    <t>Réciproque de la vitesse d'élongation de l'hypocotyle</t>
+  </si>
+  <si>
+    <t>Reciprocal of hypocotyl elongation rate</t>
+  </si>
+  <si>
+    <t>°Cd/mm</t>
+  </si>
+  <si>
+    <t>Simulation</t>
+  </si>
+  <si>
+    <t>zCondClimat</t>
+  </si>
+  <si>
+    <t>columns</t>
+  </si>
+  <si>
+    <t>day_column</t>
+  </si>
+  <si>
+    <t>mode</t>
+  </si>
+  <si>
+    <t>month_column</t>
+  </si>
+  <si>
+    <t>time-step</t>
+  </si>
+  <si>
+    <t>variables</t>
+  </si>
+  <si>
+    <t>year_column</t>
+  </si>
+  <si>
+    <t>zCondEqDiff_sunflo</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>ThermalTime</t>
+  </si>
+  <si>
+    <t>LeafInitiationTime</t>
+  </si>
+  <si>
+    <t>LeafExpansionTime</t>
+  </si>
+  <si>
+    <t>LeafSenescenceTime</t>
+  </si>
+  <si>
     <t>LeafNumber</t>
   </si>
   <si>
-    <t>Nombre de feuille potentiel</t>
-  </si>
-  <si>
-    <t>Number of leaves at flowering</t>
-  </si>
-  <si>
-    <t>leaf</t>
-  </si>
-  <si>
-    <t>bSF</t>
-  </si>
-  <si>
-    <t>LLH</t>
-  </si>
-  <si>
-    <t>LeafProfile</t>
-  </si>
-  <si>
-    <t>Rang (depuis le sol) de la plus grande feuille du profil foliaire à la floraison</t>
-  </si>
-  <si>
-    <t>Rank of the largest leave of leaf profile at flowering</t>
-  </si>
-  <si>
-    <t>cSF</t>
-  </si>
-  <si>
-    <t>LLS</t>
-  </si>
-  <si>
-    <t>LeafSize</t>
-  </si>
-  <si>
-    <t>Surface de la plus grande feuille du profil folaire à la floraison</t>
-  </si>
-  <si>
-    <t>Area of the largest leave of leaf profile at flowering</t>
-  </si>
-  <si>
-    <t>cm2</t>
-  </si>
-  <si>
-    <t>ext</t>
-  </si>
-  <si>
-    <t>K</t>
-  </si>
-  <si>
-    <t>ExtinctionCoefficient</t>
-  </si>
-  <si>
-    <t>Coefficient d’extinction du rayonnement lors de la phase végétative (E1-F1)</t>
-  </si>
-  <si>
-    <t>Light extinction coefficient during vegetative growth</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>a_LE</t>
-  </si>
-  <si>
-    <t>LE</t>
-  </si>
-  <si>
-    <t>WaterResponseExpansion</t>
-  </si>
-  <si>
-    <t>Seuil de réponse de l'expansion foliaire à une contrainte hydrique</t>
-  </si>
-  <si>
-    <t>Threshold for leaf expansion response to water stress</t>
-  </si>
-  <si>
-    <t>[@Casadebaig2008]</t>
-  </si>
-  <si>
-    <t>a_TR</t>
-  </si>
-  <si>
-    <t>TR</t>
-  </si>
-  <si>
-    <t>WaterResponseConductance</t>
-  </si>
-  <si>
-    <t>Seuil de réponse de la conductance stomatique à une contrainte hydrique</t>
-  </si>
-  <si>
-    <t>Threshold for stomatal conductance response to water stress</t>
-  </si>
-  <si>
-    <t>PHS</t>
-  </si>
-  <si>
-    <t>PotentialPhotosynthesis</t>
-  </si>
-  <si>
-    <t>Capacité photosynthétique relative à la variete Melody</t>
-  </si>
-  <si>
-    <t>Potential photosynthesis capacity</t>
-  </si>
-  <si>
-    <t>IRg</t>
-  </si>
-  <si>
-    <t>HI</t>
-  </si>
-  <si>
-    <t>PotentialHarvestIndex</t>
-  </si>
-  <si>
-    <t>Indice de récolte potentiel</t>
-  </si>
-  <si>
-    <t>Potential harvest index</t>
-  </si>
-  <si>
-    <t>[@Casadebaig2011]</t>
-  </si>
-  <si>
-    <t>thp</t>
-  </si>
-  <si>
-    <t>OC</t>
-  </si>
-  <si>
-    <t>PotentialOilContent</t>
-  </si>
-  <si>
-    <t>Teneur en huile dans l’akène en conditions potentielles</t>
-  </si>
-  <si>
-    <t>Potential seed oil content</t>
-  </si>
-  <si>
-    <t>% (dry matter)</t>
-  </si>
-  <si>
-    <t>Pedoclimat</t>
-  </si>
-  <si>
-    <t>CONFIG_ClimatNomFichier</t>
-  </si>
-  <si>
-    <t>datas_file</t>
-  </si>
-  <si>
-    <t>meteo</t>
-  </si>
-  <si>
-    <t>file</t>
-  </si>
-  <si>
-    <t>Nom du fichier climatique</t>
-  </si>
-  <si>
-    <t>AUZ_2006.txt</t>
-  </si>
-  <si>
-    <t>CONFIG_Sol</t>
-  </si>
-  <si>
-    <t>profondeur</t>
-  </si>
-  <si>
-    <t>root_depth</t>
-  </si>
-  <si>
-    <t>RootingDepth</t>
-  </si>
-  <si>
-    <t>Profondeur d'enracinement maximale</t>
-  </si>
-  <si>
-    <t>Potential rooting depth</t>
-  </si>
-  <si>
-    <t>Hcc_C1</t>
-  </si>
-  <si>
-    <t>hcc1</t>
-  </si>
-  <si>
-    <t>field_capacity_1</t>
-  </si>
-  <si>
-    <t>WaterCapacity</t>
-  </si>
-  <si>
-    <t>Humidité massique à la capacité au champ dans l'horizon de surface (0 - 30 cm)</t>
-  </si>
-  <si>
-    <t>Water content at field capacity (0-30 cm)</t>
-  </si>
-  <si>
-    <t>%</t>
-  </si>
-  <si>
-    <t>Hpf_C1</t>
-  </si>
-  <si>
-    <t>hpf1</t>
-  </si>
-  <si>
-    <t>wilting_point_1</t>
-  </si>
-  <si>
-    <t>Humidité massique au point de flétrissement dans l'horizon de surface (0 - 30 cm)</t>
-  </si>
-  <si>
-    <t>Water content at wilting point (0-30cm)</t>
-  </si>
-  <si>
-    <t>Hcc_C2</t>
-  </si>
-  <si>
-    <t>hcc2</t>
-  </si>
-  <si>
-    <t>field_capacity_2</t>
-  </si>
-  <si>
-    <t>Humidité massique à la capacité au champ dans l'horizon inférieur (30 cm - profondeur)</t>
-  </si>
-  <si>
-    <t>Water content at field capacity (30 cm-rooting depth)</t>
-  </si>
-  <si>
-    <t>Hpf_C2</t>
-  </si>
-  <si>
-    <t>hpf2</t>
-  </si>
-  <si>
-    <t>wilting_point_2</t>
-  </si>
-  <si>
-    <t>Humidité massique au point de flétrissement dans l'horizon inférieur (30 cm - profondeur)</t>
-  </si>
-  <si>
-    <t>Water content at wilting point (30 cm-rooting depth)</t>
-  </si>
-  <si>
-    <t>da_C1</t>
-  </si>
-  <si>
-    <t>da1</t>
-  </si>
-  <si>
-    <t>soil_density_1</t>
-  </si>
-  <si>
-    <t>SoilDensity</t>
-  </si>
-  <si>
-    <t>Densité apparente du sol dans l'horizon de surface (0 - 30 cm)</t>
-  </si>
-  <si>
-    <t>Soil bulk density (0-30cm)</t>
-  </si>
-  <si>
-    <t>g.cm-3</t>
-  </si>
-  <si>
-    <t>da_C2</t>
-  </si>
-  <si>
-    <t>da2</t>
-  </si>
-  <si>
-    <t>soil_density_2</t>
-  </si>
-  <si>
-    <t>Densité apparente du sol dans l'horizon inférieur (30 cm - profondeur)</t>
-  </si>
-  <si>
-    <t>Soil bulk density (30 cm-rooting depth)</t>
-  </si>
-  <si>
-    <t>TC</t>
-  </si>
-  <si>
-    <t>cailloux</t>
-  </si>
-  <si>
-    <t>stone_content</t>
-  </si>
-  <si>
-    <t>StoneContent</t>
-  </si>
-  <si>
-    <t>Taux de cailloux</t>
-  </si>
-  <si>
-    <t>Stone content (0-rooting depth)</t>
-  </si>
-  <si>
-    <t>[0 ; 1]</t>
-  </si>
-  <si>
-    <t>Vp</t>
-  </si>
-  <si>
-    <t>mineralisation</t>
-  </si>
-  <si>
-    <t>mineralization</t>
-  </si>
-  <si>
-    <t>MineralizationRate</t>
-  </si>
-  <si>
-    <t>Vitesse potentielle de minéralisation</t>
-  </si>
-  <si>
-    <t>Potential nitrogen mineralization rate</t>
-  </si>
-  <si>
-    <t>kg/ha/day (normalized)</t>
-  </si>
-  <si>
-    <t>[@Vale2007]</t>
-  </si>
-  <si>
-    <t>Fpf</t>
-  </si>
-  <si>
-    <t>Valeur au point de flétrissement de la fonction "humidité" pour la minéralisation</t>
-  </si>
-  <si>
-    <t>Conduite</t>
-  </si>
-  <si>
-    <t>CONFIG_Conduite</t>
-  </si>
-  <si>
-    <t>jsemis</t>
-  </si>
-  <si>
-    <t>semis</t>
-  </si>
-  <si>
-    <t>crop_sowing</t>
-  </si>
-  <si>
-    <t>SowingDate</t>
-  </si>
-  <si>
-    <t>Date de semis</t>
-  </si>
-  <si>
-    <t>Sowing date</t>
-  </si>
-  <si>
-    <t>dd/mm</t>
-  </si>
-  <si>
-    <t>jrecolte</t>
-  </si>
-  <si>
-    <t>recolte</t>
-  </si>
-  <si>
-    <t>crop_harvest</t>
-  </si>
-  <si>
-    <t>HarvestDate</t>
-  </si>
-  <si>
-    <t>Date de récolte</t>
-  </si>
-  <si>
-    <t>Harvest date</t>
-  </si>
-  <si>
-    <t>zSemis</t>
-  </si>
-  <si>
-    <t>semis_profondeur</t>
-  </si>
-  <si>
-    <t>crop_sowing_depth</t>
-  </si>
-  <si>
-    <t>SowingDepth</t>
-  </si>
-  <si>
-    <t>Profondeur de semis</t>
-  </si>
-  <si>
-    <t>Sowing depth</t>
-  </si>
-  <si>
-    <t>densite</t>
-  </si>
-  <si>
-    <t>crop_density</t>
-  </si>
-  <si>
-    <t>SowingDensity</t>
-  </si>
-  <si>
-    <t>Densité du peuplement à la levée</t>
-  </si>
-  <si>
-    <t>Plant density</t>
-  </si>
-  <si>
-    <t>pnt/m2</t>
-  </si>
-  <si>
-    <t>date_ferti_1</t>
-  </si>
-  <si>
-    <t>azote_date1</t>
-  </si>
-  <si>
-    <t>nitrogen_date_1</t>
-  </si>
-  <si>
-    <t>Fertilization</t>
-  </si>
-  <si>
-    <t>Fertilisation (date 1)</t>
-  </si>
-  <si>
-    <t>Fertilization (date 1)</t>
-  </si>
-  <si>
-    <t>apport_ferti_1</t>
-  </si>
-  <si>
-    <t>azote_dose1</t>
-  </si>
-  <si>
-    <t>nitrogen_dose_1</t>
-  </si>
-  <si>
-    <t>Fertilisation (dose 1)</t>
-  </si>
-  <si>
-    <t>Fertilization (amount 1)</t>
-  </si>
-  <si>
-    <t>kg/ha eq. mineral nitrogen</t>
-  </si>
-  <si>
-    <t>date_ferti_2</t>
-  </si>
-  <si>
-    <t>azote_date2</t>
-  </si>
-  <si>
-    <t>nitrogen_date_2</t>
-  </si>
-  <si>
-    <t>Fertilisation (date 2)</t>
-  </si>
-  <si>
-    <t>Fertilization (date 2)</t>
-  </si>
-  <si>
-    <t>apport_ferti_2</t>
-  </si>
-  <si>
-    <t>azote_dose2</t>
-  </si>
-  <si>
-    <t>nitrogen_dose_2</t>
-  </si>
-  <si>
-    <t>Fertilisation (dose 2)</t>
-  </si>
-  <si>
-    <t>Fertilization (amount 2)</t>
-  </si>
-  <si>
-    <t>date_ferti_3</t>
-  </si>
-  <si>
-    <t>azote_date3</t>
-  </si>
-  <si>
-    <t>nitrogen_date_3</t>
-  </si>
-  <si>
-    <t>Fertilisation (date 3)</t>
-  </si>
-  <si>
-    <t>Fertilization (date 3)</t>
-  </si>
-  <si>
-    <t>apport_ferti_3</t>
-  </si>
-  <si>
-    <t>azote_dose3</t>
-  </si>
-  <si>
-    <t>nitrogen_dose_3</t>
-  </si>
-  <si>
-    <t>Fertilisation (dose 3)</t>
-  </si>
-  <si>
-    <t>Fertilization (amount 3)</t>
-  </si>
-  <si>
-    <t>date_ferti_4</t>
-  </si>
-  <si>
-    <t>azote_date4</t>
-  </si>
-  <si>
-    <t>nitrogen_date_4</t>
-  </si>
-  <si>
-    <t>Fertilisation (date 4)</t>
-  </si>
-  <si>
-    <t>Fertilization (date 4)</t>
-  </si>
-  <si>
-    <t>apport_ferti_4</t>
-  </si>
-  <si>
-    <t>azote_dose4</t>
-  </si>
-  <si>
-    <t>nitrogen_dose_4</t>
-  </si>
-  <si>
-    <t>Fertilisation (dose 4)</t>
-  </si>
-  <si>
-    <t>Fertilization (amount 4)</t>
-  </si>
-  <si>
-    <t>date_irrig_1</t>
-  </si>
-  <si>
-    <t>eau_date1</t>
-  </si>
-  <si>
-    <t>water_date_1</t>
-  </si>
-  <si>
-    <t>Irrigation</t>
-  </si>
-  <si>
-    <t>Irrigation (date 1)</t>
-  </si>
-  <si>
-    <t>apport_irrig_1</t>
-  </si>
-  <si>
-    <t>eau_dose1</t>
-  </si>
-  <si>
-    <t>water_dose_1</t>
-  </si>
-  <si>
-    <t>Irrigation (dose 1)</t>
-  </si>
-  <si>
-    <t>Irrigation (amount 1)</t>
-  </si>
-  <si>
-    <t>date_irrig_2</t>
-  </si>
-  <si>
-    <t>eau_date2</t>
-  </si>
-  <si>
-    <t>water_date_2</t>
-  </si>
-  <si>
-    <t>Irrigation (date 2)</t>
-  </si>
-  <si>
-    <t>apport_irrig_2</t>
-  </si>
-  <si>
-    <t>eau_dose2</t>
-  </si>
-  <si>
-    <t>water_dose_2</t>
-  </si>
-  <si>
-    <t>Irrigation (dose 2)</t>
-  </si>
-  <si>
-    <t>Irrigation (amount 2)</t>
-  </si>
-  <si>
-    <t>date_irrig_3</t>
-  </si>
-  <si>
-    <t>eau_date3</t>
-  </si>
-  <si>
-    <t>water_date_3</t>
-  </si>
-  <si>
-    <t>Irrigation (date 3)</t>
-  </si>
-  <si>
-    <t>apport_irrig_3</t>
-  </si>
-  <si>
-    <t>eau_dose3</t>
-  </si>
-  <si>
-    <t>water_dose_3</t>
-  </si>
-  <si>
-    <t>Irrigation (dose 3)</t>
-  </si>
-  <si>
-    <t>Irrigation (amount 3)</t>
-  </si>
-  <si>
-    <t>date_irrig_4</t>
-  </si>
-  <si>
-    <t>eau_date4</t>
-  </si>
-  <si>
-    <t>water_date_4</t>
-  </si>
-  <si>
-    <t>Irrigation (date 4)</t>
-  </si>
-  <si>
-    <t>apport_irrig_4</t>
-  </si>
-  <si>
-    <t>eau_dose4</t>
-  </si>
-  <si>
-    <t>water_dose_4</t>
-  </si>
-  <si>
-    <t>Irrigation (dose 4)</t>
-  </si>
-  <si>
-    <t>Irrigation (amount 4)</t>
-  </si>
-  <si>
-    <t>date_irrig_5</t>
-  </si>
-  <si>
-    <t>eau_date5</t>
-  </si>
-  <si>
-    <t>water_date_5</t>
-  </si>
-  <si>
-    <t>Irrigation (date 5)</t>
-  </si>
-  <si>
-    <t>apport_irrig_5</t>
-  </si>
-  <si>
-    <t>eau_dose5</t>
-  </si>
-  <si>
-    <t>water_dose_5</t>
-  </si>
-  <si>
-    <t>Irrigation (dose 5)</t>
-  </si>
-  <si>
-    <t>Irrigation (amount 5)</t>
-  </si>
-  <si>
-    <t>date_irrig_6</t>
-  </si>
-  <si>
-    <t>eau_date6</t>
-  </si>
-  <si>
-    <t>water_date_6</t>
-  </si>
-  <si>
-    <t>Irrigation (date 6)</t>
-  </si>
-  <si>
-    <t>apport_irrig_6</t>
-  </si>
-  <si>
-    <t>eau_dose6</t>
-  </si>
-  <si>
-    <t>water_dose_6</t>
-  </si>
-  <si>
-    <t>Irrigation (dose 6)</t>
-  </si>
-  <si>
-    <t>Irrigation (amount 6)</t>
-  </si>
-  <si>
-    <t>Initialisation</t>
-  </si>
-  <si>
-    <t>begin</t>
-  </si>
-  <si>
-    <t>Date de début de la simulation</t>
-  </si>
-  <si>
-    <t>jj/mm/aaaa</t>
-  </si>
-  <si>
-    <t>duration</t>
-  </si>
-  <si>
-    <t>Durée de la simulation</t>
-  </si>
-  <si>
-    <t>jour</t>
-  </si>
-  <si>
-    <t>CONFIG_SimuInit</t>
-  </si>
-  <si>
-    <t>dateLevee_casForcee</t>
-  </si>
-  <si>
-    <t>levee</t>
-  </si>
-  <si>
-    <t>crop_emergence</t>
-  </si>
-  <si>
-    <t>Date de levée forcée, simulée pour valeur = 01/01</t>
-  </si>
-  <si>
-    <t>jj/mm</t>
-  </si>
-  <si>
-    <t>rh1</t>
-  </si>
-  <si>
-    <t>ninit1</t>
-  </si>
-  <si>
-    <t>nitrogen_initial_1</t>
-  </si>
-  <si>
-    <t>Reliquats azotés dans l'horizon de surface (0 - 30 cm)</t>
-  </si>
-  <si>
-    <t>kg/ha eq. azote mineral</t>
-  </si>
-  <si>
-    <t>rh2</t>
-  </si>
-  <si>
-    <t>ninit2</t>
-  </si>
-  <si>
-    <t>nitrogen_initial_2</t>
-  </si>
-  <si>
-    <t>Reliquats azotés dans l'horizon inférieur (30 cm - profondeur)</t>
-  </si>
-  <si>
-    <t>Hini_C1</t>
-  </si>
-  <si>
-    <t>hinit1</t>
-  </si>
-  <si>
-    <t>water_initial_1</t>
-  </si>
-  <si>
-    <t>Humidité massique initiale dans l'horizon de surface  (0 - 30 cm)</t>
-  </si>
-  <si>
-    <t>Hini_C2</t>
-  </si>
-  <si>
-    <t>hinit2</t>
-  </si>
-  <si>
-    <t>water_initial_2</t>
-  </si>
-  <si>
-    <t>Humidité massique initiale dans l'horizon inférieur  (30 cm - profondeur)</t>
-  </si>
-  <si>
-    <t>zC1</t>
-  </si>
-  <si>
-    <t>Profondeur de l'horizon de surface</t>
-  </si>
-  <si>
-    <t>Espece</t>
-  </si>
-  <si>
-    <t>CONFIG_Plante</t>
-  </si>
-  <si>
-    <t>Tbase</t>
-  </si>
-  <si>
-    <t>Température de base pour les processus de croissance et développement</t>
-  </si>
-  <si>
-    <t>[@Granier1998]</t>
-  </si>
-  <si>
-    <t>date_TT_germination</t>
-  </si>
-  <si>
-    <t>Germination</t>
-  </si>
-  <si>
-    <t>Durée de la phase de germination</t>
-  </si>
-  <si>
-    <t>Temperature sum from sowing to germination</t>
-  </si>
-  <si>
-    <t>[@Villalobos1996]</t>
-  </si>
-  <si>
-    <t>Phy1</t>
-  </si>
-  <si>
-    <t>Phyllotherm_1</t>
-  </si>
-  <si>
-    <t>Phyllotherme pour les 6 premières feuilles</t>
-  </si>
-  <si>
-    <t>Phyllotherm (leaf &lt;= 6)</t>
-  </si>
-  <si>
-    <t>[@Rey2003]</t>
-  </si>
-  <si>
-    <t>Phy2</t>
-  </si>
-  <si>
-    <t>Phyllotherm_7</t>
-  </si>
-  <si>
-    <t>Phyllotherme pour les feuilles au dela du 6eme rang</t>
-  </si>
-  <si>
-    <t>Phyllotherm (leaf &gt; 7)</t>
-  </si>
-  <si>
-    <t>zRac_max</t>
-  </si>
-  <si>
-    <t>Profondeur d'enracinement maximale de l'espèce</t>
-  </si>
-  <si>
-    <t>[@Casadebaig2008b]</t>
-  </si>
-  <si>
-    <t>AP_a</t>
-  </si>
-  <si>
-    <t>Ajustement de l'effet de la contrainte hydrique sur la phénologie</t>
-  </si>
-  <si>
-    <t>LAI_a</t>
-  </si>
-  <si>
-    <t>Date thermique de fin d'expansion de la troisième paire de feuilles</t>
-  </si>
-  <si>
-    <t>LAI_b</t>
-  </si>
-  <si>
-    <t>Ajustement du calcul des dates thermique de demi-expansion des feuilles</t>
-  </si>
-  <si>
-    <t>LAI_c</t>
-  </si>
-  <si>
-    <t>Valeur de l'asymptote de la fonction de la durée de vie des feuilles en fonction du rang sur la tige</t>
-  </si>
-  <si>
-    <t>LAI_d</t>
-  </si>
-  <si>
-    <t>Valeur du maximum de la fonction de la durée de vie des feuilles en fonction du rang sur la tige</t>
-  </si>
-  <si>
-    <t>LAI_e</t>
-  </si>
-  <si>
-    <t>Abscisse du maximum de la fonction de la durée de vie des feuilles (relatif à la position de la plus grande feuille)</t>
-  </si>
-  <si>
-    <t>feuilles</t>
-  </si>
-  <si>
-    <t>LAI_f</t>
-  </si>
-  <si>
-    <t>Valeur de l'amplitude de la fonction de la durée de vie des feuilles en fonction du rang sur la tige</t>
-  </si>
-  <si>
-    <t>LAI_Kei</t>
-  </si>
-  <si>
-    <t>Pente de la logistique représentant l'expansion et la senescence foliaire</t>
-  </si>
-  <si>
-    <t>Eb_0</t>
-  </si>
-  <si>
-    <t>Valeur initiale (0-300°Cj) de l'efficience biologique potentielle</t>
-  </si>
-  <si>
-    <t>g/m2/MJ</t>
-  </si>
-  <si>
-    <t>Eb_c</t>
-  </si>
-  <si>
-    <t>Pente de la décroissance de l'efficience biologique potentielle en fin de cycle (M0 - M3)</t>
-  </si>
-  <si>
-    <t>Eb_fin</t>
-  </si>
-  <si>
-    <t>Valeur de l'efficience biologique potentielle en fin de cycle (M3)</t>
-  </si>
-  <si>
-    <t>Eb_max</t>
-  </si>
-  <si>
-    <t>Valeur du plateau d'efficience biologique potentielle (F1-M0)</t>
-  </si>
-  <si>
-    <t>Tmax_PHS</t>
-  </si>
-  <si>
-    <t>Température maximale pour la réponse de la capacité photosynthétique</t>
-  </si>
-  <si>
-    <t>Topt1_PHS</t>
-  </si>
-  <si>
-    <t>Température optimale minimale pour la réponse de la capacité photosynthétique</t>
-  </si>
-  <si>
-    <t>Topt2_PHS</t>
-  </si>
-  <si>
-    <t>Température optimale maximale pour la réponse de la capacité photosynthétique</t>
-  </si>
-  <si>
-    <t>a_Pho</t>
-  </si>
-  <si>
-    <t>Décalage entre le seuil de réponse de la transpiration et celui de la photosynthèse</t>
-  </si>
-  <si>
-    <t>date_TT_F1M0</t>
-  </si>
-  <si>
-    <t>Durée de la phase de floraison utilisée dans le calcul d'indicateurs</t>
-  </si>
-  <si>
-    <t>AA_a</t>
-  </si>
-  <si>
-    <t>Ajustement du transport actif de nitrate dans la plante</t>
-  </si>
-  <si>
-    <t>EXPERT_Plante</t>
-  </si>
-  <si>
-    <t>PNCc_a</t>
-  </si>
-  <si>
-    <t>Teneur en azote critique de la biomasse aerienne au seuil de biomasse juvénile</t>
-  </si>
-  <si>
-    <t>[@Debaeke2012a]</t>
-  </si>
-  <si>
-    <t>PNCc_b</t>
-  </si>
-  <si>
-    <t>Décroissance de la courbe de dilution pour la teneur en azote critique</t>
-  </si>
-  <si>
-    <t>PNCm_a</t>
-  </si>
-  <si>
-    <t>Teneur en azote maximale de la biomasse aerienne au seuil de biomasse juvénile</t>
-  </si>
-  <si>
-    <t>PNCm_b</t>
-  </si>
-  <si>
-    <t>Décroissance de la courbe de dilution pour la teneur en azote maximale</t>
-  </si>
-  <si>
-    <t>TDMc_seuil</t>
-  </si>
-  <si>
-    <t>Seuil de biomasse aerienne au stade juvénile considéré pour la courbe de dilution d'azote critique</t>
-  </si>
-  <si>
-    <t>g/m2</t>
-  </si>
-  <si>
-    <t>TDMm_seuil</t>
-  </si>
-  <si>
-    <t>Seuil de biomasse aerienne au stade juvénile considéré pour la courbe de dilution d'azote maximal</t>
-  </si>
-  <si>
-    <t>INNseuil</t>
-  </si>
-  <si>
-    <t>Indice de nutrition azoté minimum considéré dans la réponse de la croissance foliaire</t>
-  </si>
-  <si>
-    <t>[@Brisson2008]</t>
-  </si>
-  <si>
-    <t>FNLEm</t>
-  </si>
-  <si>
-    <t>Valeur minimale de la fonction de réponse de la croissance foliaire à l'azote</t>
-  </si>
-  <si>
-    <t>VitCroiRac</t>
-  </si>
-  <si>
-    <t>Vitesse de croissance racinaire</t>
-  </si>
-  <si>
-    <t>mm/°Cd</t>
-  </si>
-  <si>
-    <t>EXPERT_SimuInit</t>
-  </si>
-  <si>
-    <t>SeuilETRETM</t>
-  </si>
-  <si>
-    <t>Seuil de ratio ETR/ETM considéré dans le calcul d'indicateur de contrainte hydrique</t>
-  </si>
-  <si>
-    <t>Kc</t>
-  </si>
-  <si>
-    <t>Coefficient cultural utilisé pour calculer l'évapotranspiration potentielle</t>
-  </si>
-  <si>
-    <t>dHE</t>
-  </si>
-  <si>
-    <t>ElongationRate</t>
-  </si>
-  <si>
-    <t>Réciproque de la vitesse d'élongation de l'hypocotyle</t>
-  </si>
-  <si>
-    <t>Reciprocal of hypocotyl elongation rate</t>
-  </si>
-  <si>
-    <t>°Cd/mm</t>
-  </si>
-  <si>
-    <t>Simulation</t>
-  </si>
-  <si>
-    <t>zCondClimat</t>
-  </si>
-  <si>
-    <t>columns</t>
-  </si>
-  <si>
-    <t>day_column</t>
-  </si>
-  <si>
-    <t>mode</t>
-  </si>
-  <si>
-    <t>month_column</t>
-  </si>
-  <si>
-    <t>time-step</t>
-  </si>
-  <si>
-    <t>variables</t>
-  </si>
-  <si>
-    <t>year_column</t>
-  </si>
-  <si>
-    <t>zCondEqDiff_sunflo</t>
-  </si>
-  <si>
-    <t>size</t>
+    <t>LeafExpansionRate</t>
+  </si>
+  <si>
+    <t>LeafSenescenceRate</t>
+  </si>
+  <si>
+    <t>CropInterception</t>
+  </si>
+  <si>
+    <t>PlantLeafArea</t>
+  </si>
+  <si>
+    <t>LAI</t>
+  </si>
+  <si>
+    <t>RIE</t>
+  </si>
+  <si>
+    <t>CropBiomass</t>
+  </si>
+  <si>
+    <t>RUE</t>
   </si>
   <si>
     <t>package</t>
@@ -1498,27 +1537,18 @@
     <t>croissance_plante</t>
   </si>
   <si>
-    <t>LAI</t>
-  </si>
-  <si>
     <t>Indice foliaire</t>
   </si>
   <si>
     <t>Ei</t>
   </si>
   <si>
-    <t>RIE</t>
-  </si>
-  <si>
     <t>Efficience d'interception de la lumière</t>
   </si>
   <si>
     <t>Eb</t>
   </si>
   <si>
-    <t>RUE</t>
-  </si>
-  <si>
     <t>Efficience d'utilisation de la lumière</t>
   </si>
   <si>
@@ -1550,9 +1580,6 @@
   </si>
   <si>
     <t>Teneur en huile</t>
-  </si>
-  <si>
-    <t>%, grain à 0% humidite</t>
   </si>
   <si>
     <t>type</t>
@@ -2124,8 +2151,8 @@
   </sheetPr>
   <dimension ref="1:102"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B43" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B60" activeCellId="0" sqref="B60"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K9" activeCellId="0" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.15"/>
@@ -4212,7 +4239,7 @@
         <v>317</v>
       </c>
       <c r="L53" s="3" t="s">
-        <v>318</v>
+        <v>215</v>
       </c>
       <c r="P53" s="0" t="n">
         <v>1</v>
@@ -4229,19 +4256,19 @@
         <v>308</v>
       </c>
       <c r="F54" s="0" t="s">
+        <v>318</v>
+      </c>
+      <c r="G54" s="0" t="s">
         <v>319</v>
       </c>
-      <c r="G54" s="0" t="s">
+      <c r="H54" s="0" t="s">
         <v>320</v>
       </c>
-      <c r="H54" s="0" t="s">
+      <c r="J54" s="0" t="s">
         <v>321</v>
       </c>
-      <c r="J54" s="0" t="s">
-        <v>322</v>
-      </c>
       <c r="L54" s="3" t="s">
-        <v>318</v>
+        <v>215</v>
       </c>
       <c r="P54" s="0" t="n">
         <v>1</v>
@@ -4258,16 +4285,16 @@
         <v>308</v>
       </c>
       <c r="F55" s="0" t="s">
+        <v>322</v>
+      </c>
+      <c r="G55" s="0" t="s">
         <v>323</v>
       </c>
-      <c r="G55" s="0" t="s">
+      <c r="H55" s="0" t="s">
         <v>324</v>
       </c>
-      <c r="H55" s="0" t="s">
+      <c r="J55" s="0" t="s">
         <v>325</v>
-      </c>
-      <c r="J55" s="0" t="s">
-        <v>326</v>
       </c>
       <c r="L55" s="3" t="s">
         <v>132</v>
@@ -4287,16 +4314,16 @@
         <v>308</v>
       </c>
       <c r="F56" s="0" t="s">
+        <v>326</v>
+      </c>
+      <c r="G56" s="0" t="s">
         <v>327</v>
       </c>
-      <c r="G56" s="0" t="s">
+      <c r="H56" s="0" t="s">
         <v>328</v>
       </c>
-      <c r="H56" s="0" t="s">
+      <c r="J56" s="0" t="s">
         <v>329</v>
-      </c>
-      <c r="J56" s="0" t="s">
-        <v>330</v>
       </c>
       <c r="L56" s="3" t="s">
         <v>132</v>
@@ -4316,10 +4343,10 @@
         <v>308</v>
       </c>
       <c r="F57" s="0" t="s">
+        <v>330</v>
+      </c>
+      <c r="J57" s="0" t="s">
         <v>331</v>
-      </c>
-      <c r="J57" s="0" t="s">
-        <v>332</v>
       </c>
       <c r="L57" s="3" t="s">
         <v>23</v>
@@ -4336,22 +4363,22 @@
         <v>57</v>
       </c>
       <c r="C58" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="D58" s="0" t="s">
         <v>333</v>
       </c>
-      <c r="D58" s="0" t="s">
+      <c r="F58" s="0" t="s">
         <v>334</v>
       </c>
-      <c r="F58" s="0" t="s">
+      <c r="J58" s="0" t="s">
         <v>335</v>
-      </c>
-      <c r="J58" s="0" t="s">
-        <v>336</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>9</v>
       </c>
       <c r="M58" s="0" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="N58" s="4" t="n">
         <v>4.8</v>
@@ -4365,31 +4392,31 @@
         <v>58</v>
       </c>
       <c r="C59" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="D59" s="0" t="s">
         <v>333</v>
-      </c>
-      <c r="D59" s="0" t="s">
-        <v>334</v>
       </c>
       <c r="E59" s="0" t="s">
         <v>41</v>
       </c>
       <c r="F59" s="0" t="s">
+        <v>337</v>
+      </c>
+      <c r="I59" s="0" t="s">
         <v>338</v>
       </c>
-      <c r="I59" s="0" t="s">
+      <c r="J59" s="0" t="s">
         <v>339</v>
       </c>
-      <c r="J59" s="0" t="s">
+      <c r="K59" s="0" t="s">
         <v>340</v>
-      </c>
-      <c r="K59" s="0" t="s">
-        <v>341</v>
       </c>
       <c r="L59" s="3" t="s">
         <v>47</v>
       </c>
       <c r="M59" s="0" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="N59" s="4" t="n">
         <v>86.2</v>
@@ -4403,13 +4430,13 @@
         <v>59</v>
       </c>
       <c r="C60" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="D60" s="0" t="s">
         <v>333</v>
       </c>
-      <c r="D60" s="0" t="s">
-        <v>334</v>
-      </c>
       <c r="E60" s="0" t="s">
-        <v>41</v>
+        <v>342</v>
       </c>
       <c r="F60" s="0" t="s">
         <v>343</v>
@@ -4441,13 +4468,13 @@
         <v>60</v>
       </c>
       <c r="C61" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="D61" s="0" t="s">
         <v>333</v>
       </c>
-      <c r="D61" s="0" t="s">
-        <v>334</v>
-      </c>
       <c r="E61" s="0" t="s">
-        <v>41</v>
+        <v>342</v>
       </c>
       <c r="F61" s="0" t="s">
         <v>348</v>
@@ -4479,10 +4506,10 @@
         <v>61</v>
       </c>
       <c r="C62" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="D62" s="0" t="s">
         <v>333</v>
-      </c>
-      <c r="D62" s="0" t="s">
-        <v>334</v>
       </c>
       <c r="F62" s="0" t="s">
         <v>352</v>
@@ -4508,10 +4535,10 @@
         <v>62</v>
       </c>
       <c r="C63" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="D63" s="0" t="s">
         <v>333</v>
-      </c>
-      <c r="D63" s="0" t="s">
-        <v>334</v>
       </c>
       <c r="F63" s="0" t="s">
         <v>355</v>
@@ -4537,10 +4564,10 @@
         <v>63</v>
       </c>
       <c r="C64" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="D64" s="0" t="s">
         <v>333</v>
-      </c>
-      <c r="D64" s="0" t="s">
-        <v>334</v>
       </c>
       <c r="F64" s="0" t="s">
         <v>357</v>
@@ -4566,10 +4593,10 @@
         <v>64</v>
       </c>
       <c r="C65" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="D65" s="0" t="s">
         <v>333</v>
-      </c>
-      <c r="D65" s="0" t="s">
-        <v>334</v>
       </c>
       <c r="F65" s="0" t="s">
         <v>359</v>
@@ -4595,10 +4622,10 @@
         <v>65</v>
       </c>
       <c r="C66" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="D66" s="0" t="s">
         <v>333</v>
-      </c>
-      <c r="D66" s="0" t="s">
-        <v>334</v>
       </c>
       <c r="F66" s="0" t="s">
         <v>361</v>
@@ -4624,10 +4651,10 @@
         <v>66</v>
       </c>
       <c r="C67" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="D67" s="0" t="s">
         <v>333</v>
-      </c>
-      <c r="D67" s="0" t="s">
-        <v>334</v>
       </c>
       <c r="F67" s="0" t="s">
         <v>363</v>
@@ -4653,10 +4680,10 @@
         <v>67</v>
       </c>
       <c r="C68" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="D68" s="0" t="s">
         <v>333</v>
-      </c>
-      <c r="D68" s="0" t="s">
-        <v>334</v>
       </c>
       <c r="F68" s="0" t="s">
         <v>365</v>
@@ -4665,7 +4692,7 @@
         <v>366</v>
       </c>
       <c r="L68" s="3" t="s">
-        <v>367</v>
+        <v>68</v>
       </c>
       <c r="M68" s="0" t="s">
         <v>354</v>
@@ -4682,19 +4709,19 @@
         <v>68</v>
       </c>
       <c r="C69" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="D69" s="0" t="s">
         <v>333</v>
       </c>
-      <c r="D69" s="0" t="s">
-        <v>334</v>
-      </c>
       <c r="F69" s="0" t="s">
+        <v>367</v>
+      </c>
+      <c r="J69" s="0" t="s">
         <v>368</v>
       </c>
-      <c r="J69" s="0" t="s">
-        <v>369</v>
-      </c>
       <c r="L69" s="3" t="s">
-        <v>367</v>
+        <v>68</v>
       </c>
       <c r="M69" s="0" t="s">
         <v>354</v>
@@ -4711,16 +4738,16 @@
         <v>69</v>
       </c>
       <c r="C70" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="D70" s="0" t="s">
         <v>333</v>
       </c>
-      <c r="D70" s="0" t="s">
-        <v>334</v>
-      </c>
       <c r="F70" s="0" t="s">
+        <v>369</v>
+      </c>
+      <c r="J70" s="0" t="s">
         <v>370</v>
-      </c>
-      <c r="J70" s="0" t="s">
-        <v>371</v>
       </c>
       <c r="L70" s="3" t="s">
         <v>85</v>
@@ -4740,19 +4767,19 @@
         <v>70</v>
       </c>
       <c r="C71" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="D71" s="0" t="s">
         <v>333</v>
       </c>
-      <c r="D71" s="0" t="s">
-        <v>334</v>
-      </c>
       <c r="F71" s="0" t="s">
+        <v>371</v>
+      </c>
+      <c r="J71" s="0" t="s">
         <v>372</v>
       </c>
-      <c r="J71" s="0" t="s">
+      <c r="L71" s="3" t="s">
         <v>373</v>
-      </c>
-      <c r="L71" s="3" t="s">
-        <v>374</v>
       </c>
       <c r="M71" s="0" t="s">
         <v>106</v>
@@ -4769,19 +4796,19 @@
         <v>71</v>
       </c>
       <c r="C72" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="D72" s="0" t="s">
         <v>333</v>
       </c>
-      <c r="D72" s="0" t="s">
-        <v>334</v>
-      </c>
       <c r="F72" s="0" t="s">
+        <v>374</v>
+      </c>
+      <c r="J72" s="0" t="s">
         <v>375</v>
       </c>
-      <c r="J72" s="0" t="s">
-        <v>376</v>
-      </c>
       <c r="L72" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M72" s="0" t="s">
         <v>106</v>
@@ -4798,19 +4825,19 @@
         <v>72</v>
       </c>
       <c r="C73" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="D73" s="0" t="s">
         <v>333</v>
       </c>
-      <c r="D73" s="0" t="s">
-        <v>334</v>
-      </c>
       <c r="F73" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="J73" s="0" t="s">
         <v>377</v>
       </c>
-      <c r="J73" s="0" t="s">
-        <v>378</v>
-      </c>
       <c r="L73" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M73" s="0" t="s">
         <v>106</v>
@@ -4827,19 +4854,19 @@
         <v>73</v>
       </c>
       <c r="C74" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="D74" s="0" t="s">
         <v>333</v>
       </c>
-      <c r="D74" s="0" t="s">
-        <v>334</v>
-      </c>
       <c r="F74" s="0" t="s">
+        <v>378</v>
+      </c>
+      <c r="J74" s="0" t="s">
         <v>379</v>
       </c>
-      <c r="J74" s="0" t="s">
-        <v>380</v>
-      </c>
       <c r="L74" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M74" s="0" t="s">
         <v>106</v>
@@ -4856,16 +4883,16 @@
         <v>74</v>
       </c>
       <c r="C75" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="D75" s="0" t="s">
         <v>333</v>
       </c>
-      <c r="D75" s="0" t="s">
-        <v>334</v>
-      </c>
       <c r="F75" s="0" t="s">
+        <v>380</v>
+      </c>
+      <c r="J75" s="0" t="s">
         <v>381</v>
-      </c>
-      <c r="J75" s="0" t="s">
-        <v>382</v>
       </c>
       <c r="L75" s="3" t="s">
         <v>9</v>
@@ -4885,16 +4912,16 @@
         <v>75</v>
       </c>
       <c r="C76" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="D76" s="0" t="s">
         <v>333</v>
       </c>
-      <c r="D76" s="0" t="s">
-        <v>334</v>
-      </c>
       <c r="F76" s="0" t="s">
+        <v>382</v>
+      </c>
+      <c r="J76" s="3" t="s">
         <v>383</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>384</v>
       </c>
       <c r="K76" s="3"/>
       <c r="L76" s="3" t="s">
@@ -4915,16 +4942,16 @@
         <v>76</v>
       </c>
       <c r="C77" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="D77" s="0" t="s">
         <v>333</v>
       </c>
-      <c r="D77" s="0" t="s">
-        <v>334</v>
-      </c>
       <c r="F77" s="0" t="s">
+        <v>384</v>
+      </c>
+      <c r="J77" s="3" t="s">
         <v>385</v>
-      </c>
-      <c r="J77" s="3" t="s">
-        <v>386</v>
       </c>
       <c r="K77" s="3"/>
       <c r="L77" s="3" t="s">
@@ -4945,16 +4972,16 @@
         <v>77</v>
       </c>
       <c r="C78" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="D78" s="0" t="s">
         <v>333</v>
       </c>
-      <c r="D78" s="0" t="s">
-        <v>334</v>
-      </c>
       <c r="F78" s="0" t="s">
+        <v>386</v>
+      </c>
+      <c r="J78" s="0" t="s">
         <v>387</v>
-      </c>
-      <c r="J78" s="0" t="s">
-        <v>388</v>
       </c>
       <c r="L78" s="3" t="s">
         <v>85</v>
@@ -4974,16 +5001,16 @@
         <v>78</v>
       </c>
       <c r="C79" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="D79" s="0" t="s">
         <v>333</v>
       </c>
-      <c r="D79" s="0" t="s">
-        <v>334</v>
-      </c>
       <c r="F79" s="0" t="s">
+        <v>388</v>
+      </c>
+      <c r="J79" s="0" t="s">
         <v>389</v>
-      </c>
-      <c r="J79" s="0" t="s">
-        <v>390</v>
       </c>
       <c r="L79" s="3" t="s">
         <v>47</v>
@@ -5003,16 +5030,16 @@
         <v>79</v>
       </c>
       <c r="C80" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="D80" s="0" t="s">
         <v>333</v>
       </c>
-      <c r="D80" s="0" t="s">
-        <v>334</v>
-      </c>
       <c r="F80" s="0" t="s">
+        <v>390</v>
+      </c>
+      <c r="J80" s="0" t="s">
         <v>391</v>
-      </c>
-      <c r="J80" s="0" t="s">
-        <v>392</v>
       </c>
       <c r="L80" s="3" t="s">
         <v>85</v>
@@ -5032,22 +5059,22 @@
         <v>80</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D81" s="0" t="s">
+        <v>392</v>
+      </c>
+      <c r="F81" s="0" t="s">
         <v>393</v>
       </c>
-      <c r="F81" s="0" t="s">
+      <c r="J81" s="0" t="s">
         <v>394</v>
-      </c>
-      <c r="J81" s="0" t="s">
-        <v>395</v>
       </c>
       <c r="L81" s="3" t="s">
         <v>132</v>
       </c>
       <c r="M81" s="0" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="N81" s="4" t="n">
         <v>4.53</v>
@@ -5061,22 +5088,22 @@
         <v>81</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D82" s="0" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F82" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="J82" s="0" t="s">
         <v>397</v>
-      </c>
-      <c r="J82" s="0" t="s">
-        <v>398</v>
       </c>
       <c r="L82" s="3" t="s">
         <v>85</v>
       </c>
       <c r="M82" s="0" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="N82" s="4" t="n">
         <v>0.42</v>
@@ -5090,22 +5117,22 @@
         <v>82</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F83" s="0" t="s">
+        <v>398</v>
+      </c>
+      <c r="J83" s="0" t="s">
         <v>399</v>
-      </c>
-      <c r="J83" s="0" t="s">
-        <v>400</v>
       </c>
       <c r="L83" s="3" t="s">
         <v>132</v>
       </c>
       <c r="M83" s="0" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="N83" s="4" t="n">
         <v>6.49</v>
@@ -5119,22 +5146,22 @@
         <v>83</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D84" s="0" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F84" s="0" t="s">
+        <v>400</v>
+      </c>
+      <c r="J84" s="0" t="s">
         <v>401</v>
-      </c>
-      <c r="J84" s="0" t="s">
-        <v>402</v>
       </c>
       <c r="L84" s="3" t="s">
         <v>85</v>
       </c>
       <c r="M84" s="0" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="N84" s="4" t="n">
         <v>0.44</v>
@@ -5148,22 +5175,22 @@
         <v>84</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D85" s="0" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F85" s="0" t="s">
+        <v>402</v>
+      </c>
+      <c r="J85" s="0" t="s">
         <v>403</v>
       </c>
-      <c r="J85" s="0" t="s">
+      <c r="L85" s="3" t="s">
         <v>404</v>
       </c>
-      <c r="L85" s="3" t="s">
-        <v>405</v>
-      </c>
       <c r="M85" s="0" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="N85" s="4" t="n">
         <v>75</v>
@@ -5177,22 +5204,22 @@
         <v>85</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F86" s="0" t="s">
+        <v>405</v>
+      </c>
+      <c r="J86" s="0" t="s">
         <v>406</v>
       </c>
-      <c r="J86" s="0" t="s">
-        <v>407</v>
-      </c>
       <c r="L86" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="M86" s="0" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="N86" s="4" t="n">
         <v>75</v>
@@ -5206,22 +5233,22 @@
         <v>86</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F87" s="0" t="s">
+        <v>407</v>
+      </c>
+      <c r="J87" s="0" t="s">
         <v>408</v>
-      </c>
-      <c r="J87" s="0" t="s">
-        <v>409</v>
       </c>
       <c r="L87" s="3" t="s">
         <v>85</v>
       </c>
       <c r="M87" s="0" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="N87" s="4" t="n">
         <v>0.6</v>
@@ -5235,22 +5262,22 @@
         <v>87</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D88" s="0" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F88" s="0" t="s">
+        <v>410</v>
+      </c>
+      <c r="J88" s="0" t="s">
         <v>411</v>
-      </c>
-      <c r="J88" s="0" t="s">
-        <v>412</v>
       </c>
       <c r="L88" s="3" t="s">
         <v>85</v>
       </c>
       <c r="M88" s="0" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="N88" s="4" t="n">
         <v>0.3</v>
@@ -5264,19 +5291,19 @@
         <v>88</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D89" s="0" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F89" s="0" t="s">
+        <v>412</v>
+      </c>
+      <c r="J89" s="0" t="s">
         <v>413</v>
       </c>
-      <c r="J89" s="0" t="s">
+      <c r="L89" s="3" t="s">
         <v>414</v>
-      </c>
-      <c r="L89" s="3" t="s">
-        <v>415</v>
       </c>
       <c r="M89" s="0" t="s">
         <v>48</v>
@@ -5293,16 +5320,16 @@
         <v>89</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D90" s="0" t="s">
+        <v>415</v>
+      </c>
+      <c r="F90" s="0" t="s">
         <v>416</v>
       </c>
-      <c r="F90" s="0" t="s">
+      <c r="J90" s="0" t="s">
         <v>417</v>
-      </c>
-      <c r="J90" s="0" t="s">
-        <v>418</v>
       </c>
       <c r="L90" s="3" t="s">
         <v>85</v>
@@ -5319,16 +5346,16 @@
         <v>90</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D91" s="0" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F91" s="0" t="s">
+        <v>418</v>
+      </c>
+      <c r="J91" s="0" t="s">
         <v>419</v>
-      </c>
-      <c r="J91" s="0" t="s">
-        <v>420</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>85</v>
@@ -5348,31 +5375,31 @@
         <v>91</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D92" s="0" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E92" s="0" t="s">
         <v>41</v>
       </c>
       <c r="F92" s="0" t="s">
+        <v>420</v>
+      </c>
+      <c r="I92" s="0" t="s">
         <v>421</v>
       </c>
-      <c r="I92" s="0" t="s">
+      <c r="J92" s="0" t="s">
         <v>422</v>
       </c>
-      <c r="J92" s="0" t="s">
+      <c r="K92" s="0" t="s">
         <v>423</v>
       </c>
-      <c r="K92" s="0" t="s">
+      <c r="L92" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="L92" s="3" t="s">
-        <v>425</v>
-      </c>
       <c r="M92" s="0" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="N92" s="4" t="n">
         <v>1.19</v>
@@ -5386,13 +5413,13 @@
         <v>100</v>
       </c>
       <c r="C93" s="0" t="s">
+        <v>425</v>
+      </c>
+      <c r="D93" s="0" t="s">
         <v>426</v>
       </c>
-      <c r="D93" s="0" t="s">
+      <c r="F93" s="0" t="s">
         <v>427</v>
-      </c>
-      <c r="F93" s="0" t="s">
-        <v>428</v>
       </c>
       <c r="L93" s="3"/>
       <c r="P93" s="0" t="n">
@@ -5404,13 +5431,13 @@
         <v>101</v>
       </c>
       <c r="C94" s="0" t="s">
+        <v>425</v>
+      </c>
+      <c r="D94" s="0" t="s">
         <v>426</v>
       </c>
-      <c r="D94" s="0" t="s">
-        <v>427</v>
-      </c>
       <c r="F94" s="0" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="L94" s="3"/>
       <c r="P94" s="0" t="n">
@@ -5422,13 +5449,13 @@
         <v>102</v>
       </c>
       <c r="C95" s="0" t="s">
+        <v>425</v>
+      </c>
+      <c r="D95" s="0" t="s">
         <v>426</v>
       </c>
-      <c r="D95" s="0" t="s">
-        <v>427</v>
-      </c>
       <c r="F95" s="0" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="L95" s="3"/>
       <c r="P95" s="0" t="n">
@@ -5440,13 +5467,13 @@
         <v>103</v>
       </c>
       <c r="C96" s="0" t="s">
+        <v>425</v>
+      </c>
+      <c r="D96" s="0" t="s">
         <v>426</v>
       </c>
-      <c r="D96" s="0" t="s">
-        <v>427</v>
-      </c>
       <c r="F96" s="0" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="L96" s="3"/>
       <c r="P96" s="0" t="n">
@@ -5458,13 +5485,13 @@
         <v>104</v>
       </c>
       <c r="C97" s="0" t="s">
+        <v>425</v>
+      </c>
+      <c r="D97" s="0" t="s">
         <v>426</v>
       </c>
-      <c r="D97" s="0" t="s">
-        <v>427</v>
-      </c>
       <c r="F97" s="0" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="L97" s="3"/>
       <c r="P97" s="0" t="n">
@@ -5476,13 +5503,13 @@
         <v>105</v>
       </c>
       <c r="C98" s="0" t="s">
+        <v>425</v>
+      </c>
+      <c r="D98" s="0" t="s">
         <v>426</v>
       </c>
-      <c r="D98" s="0" t="s">
-        <v>427</v>
-      </c>
       <c r="F98" s="0" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="L98" s="3"/>
       <c r="P98" s="0" t="n">
@@ -5494,13 +5521,13 @@
         <v>106</v>
       </c>
       <c r="C99" s="0" t="s">
+        <v>425</v>
+      </c>
+      <c r="D99" s="0" t="s">
         <v>426</v>
       </c>
-      <c r="D99" s="0" t="s">
-        <v>427</v>
-      </c>
       <c r="F99" s="0" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="L99" s="3"/>
       <c r="P99" s="0" t="n">
@@ -5512,13 +5539,13 @@
         <v>107</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D100" s="0" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F100" s="0" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="L100" s="3"/>
       <c r="P100" s="0" t="n">
@@ -5530,13 +5557,13 @@
         <v>108</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D101" s="0" t="s">
+        <v>434</v>
+      </c>
+      <c r="F101" s="0" t="s">
         <v>435</v>
-      </c>
-      <c r="F101" s="0" t="s">
-        <v>436</v>
       </c>
       <c r="L101" s="3"/>
       <c r="P101" s="0" t="n">
@@ -5548,13 +5575,13 @@
         <v>109</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D102" s="0" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F102" s="0" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="P102" s="0" t="n">
         <v>0</v>
@@ -5578,10 +5605,169 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:G14"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A23" activeCellId="0" sqref="A23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.15"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.1020408163265"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.7091836734694"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.6479591836735"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="25.3061224489796"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>342</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>342</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>342</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>342</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>342</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>342</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>342</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>443</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>443</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>443</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>447</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>447</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>447</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="topLeft" activeCell="G24" activeCellId="0" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.2"/>
@@ -5601,10 +5787,10 @@
         <v>27</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>437</v>
+        <v>449</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>438</v>
+        <v>450</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>32</v>
@@ -5619,7 +5805,7 @@
         <v>4</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>439</v>
+        <v>451</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5627,19 +5813,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>440</v>
+        <v>452</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>441</v>
+        <v>453</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>442</v>
+        <v>454</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>443</v>
+        <v>455</v>
       </c>
       <c r="G2" s="0" t="s">
         <v>9</v>
@@ -5653,19 +5839,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>440</v>
+        <v>452</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>441</v>
+        <v>453</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>444</v>
+        <v>456</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>445</v>
+        <v>457</v>
       </c>
       <c r="G3" s="0" t="s">
         <v>9</v>
@@ -5679,19 +5865,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>440</v>
+        <v>452</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>441</v>
+        <v>453</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>446</v>
+        <v>458</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>447</v>
+        <v>459</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>448</v>
+        <v>460</v>
       </c>
       <c r="G4" s="0" t="s">
         <v>9</v>
@@ -5705,13 +5891,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>440</v>
+        <v>452</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>441</v>
+        <v>453</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>449</v>
+        <v>461</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>14</v>
@@ -5720,7 +5906,7 @@
         <v>16</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>450</v>
+        <v>462</v>
       </c>
       <c r="H5" s="0" t="n">
         <v>1</v>
@@ -5731,13 +5917,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>440</v>
+        <v>452</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>441</v>
+        <v>453</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>451</v>
+        <v>463</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>19</v>
@@ -5757,13 +5943,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>440</v>
+        <v>452</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>441</v>
+        <v>453</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>452</v>
+        <v>464</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>24</v>
@@ -5783,22 +5969,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>453</v>
+        <v>465</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>454</v>
+        <v>466</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>456</v>
+        <v>468</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>457</v>
+        <v>469</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>458</v>
+        <v>470</v>
       </c>
       <c r="H8" s="0" t="n">
         <v>1</v>
@@ -5809,19 +5995,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>453</v>
+        <v>465</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>454</v>
+        <v>466</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>460</v>
+        <v>472</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>461</v>
+        <v>473</v>
       </c>
       <c r="G9" s="0" t="s">
         <v>85</v>
@@ -5835,19 +6021,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>453</v>
+        <v>465</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>462</v>
+        <v>474</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>463</v>
+        <v>475</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>463</v>
+        <v>475</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>464</v>
+        <v>476</v>
       </c>
       <c r="G10" s="0" t="s">
         <v>85</v>
@@ -5861,19 +6047,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>453</v>
+        <v>465</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>462</v>
+        <v>474</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>465</v>
+        <v>477</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>465</v>
+        <v>477</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>466</v>
+        <v>478</v>
       </c>
       <c r="G11" s="0" t="s">
         <v>85</v>
@@ -5887,19 +6073,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>453</v>
+        <v>465</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>462</v>
+        <v>474</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>467</v>
+        <v>479</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>467</v>
+        <v>479</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>468</v>
+        <v>480</v>
       </c>
       <c r="G12" s="0" t="s">
         <v>85</v>
@@ -5913,19 +6099,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>453</v>
+        <v>465</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>462</v>
+        <v>474</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>470</v>
+        <v>482</v>
       </c>
       <c r="G13" s="0" t="s">
         <v>85</v>
@@ -5939,19 +6125,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>453</v>
+        <v>465</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>471</v>
+        <v>483</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>473</v>
+        <v>485</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>474</v>
+        <v>486</v>
       </c>
       <c r="G14" s="0" t="s">
         <v>85</v>
@@ -5965,22 +6151,22 @@
         <v>14</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>453</v>
+        <v>465</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>475</v>
+        <v>487</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>476</v>
+        <v>488</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>477</v>
+        <v>489</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>478</v>
+        <v>490</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>479</v>
+        <v>491</v>
       </c>
       <c r="H15" s="0" t="n">
         <v>1</v>
@@ -5991,19 +6177,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>453</v>
+        <v>465</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>475</v>
+        <v>487</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>480</v>
+        <v>492</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>481</v>
+        <v>493</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>482</v>
+        <v>494</v>
       </c>
       <c r="G16" s="0" t="s">
         <v>85</v>
@@ -6017,19 +6203,19 @@
         <v>16</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>453</v>
+        <v>465</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>475</v>
+        <v>487</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>483</v>
+        <v>495</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>484</v>
+        <v>496</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>485</v>
+        <v>497</v>
       </c>
       <c r="G17" s="0" t="s">
         <v>85</v>
@@ -6043,19 +6229,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>453</v>
+        <v>465</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>487</v>
+        <v>445</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>487</v>
+        <v>445</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>488</v>
+        <v>499</v>
       </c>
       <c r="G18" s="0" t="s">
         <v>85</v>
@@ -6069,19 +6255,19 @@
         <v>18</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>453</v>
+        <v>465</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>489</v>
+        <v>500</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>490</v>
+        <v>446</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>491</v>
+        <v>501</v>
       </c>
       <c r="G19" s="0" t="s">
         <v>85</v>
@@ -6095,19 +6281,19 @@
         <v>19</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>453</v>
+        <v>465</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>493</v>
+        <v>448</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>494</v>
+        <v>503</v>
       </c>
       <c r="G20" s="0" t="s">
         <v>85</v>
@@ -6121,22 +6307,22 @@
         <v>20</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>453</v>
+        <v>465</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>495</v>
+        <v>504</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>495</v>
+        <v>504</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H21" s="0" t="n">
         <v>1</v>
@@ -6147,22 +6333,22 @@
         <v>21</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>453</v>
+        <v>465</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>497</v>
+        <v>506</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>498</v>
+        <v>507</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>499</v>
+        <v>508</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>500</v>
+        <v>509</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>501</v>
+        <v>510</v>
       </c>
       <c r="H22" s="0" t="n">
         <v>1</v>
@@ -6173,22 +6359,22 @@
         <v>22</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>453</v>
+        <v>465</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>502</v>
+        <v>511</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>503</v>
+        <v>512</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>108</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>505</v>
+        <v>112</v>
       </c>
       <c r="H23" s="0" t="n">
         <v>1</v>
@@ -6205,7 +6391,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -6235,22 +6421,22 @@
         <v>27</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>506</v>
+        <v>514</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>507</v>
+        <v>515</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>508</v>
+        <v>516</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>509</v>
+        <v>517</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>510</v>
+        <v>518</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>2</v>
@@ -6262,7 +6448,7 @@
         <v>4</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>511</v>
+        <v>519</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6270,34 +6456,34 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>512</v>
+        <v>520</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>513</v>
+        <v>521</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>514</v>
+        <v>522</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>515</v>
+        <v>523</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>516</v>
+        <v>524</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>518</v>
+        <v>526</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>450</v>
+        <v>462</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>520</v>
+        <v>528</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6305,34 +6491,34 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>512</v>
+        <v>520</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>513</v>
+        <v>521</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>85</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>26</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>523</v>
+        <v>531</v>
       </c>
       <c r="J3" s="0" t="s">
         <v>23</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>524</v>
+        <v>532</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6340,34 +6526,34 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>512</v>
+        <v>520</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>513</v>
+        <v>521</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="E4" s="0" t="s">
         <v>85</v>
       </c>
       <c r="F4" s="0" t="s">
+        <v>533</v>
+      </c>
+      <c r="G4" s="0" t="s">
         <v>525</v>
       </c>
-      <c r="G4" s="0" t="s">
-        <v>517</v>
-      </c>
       <c r="H4" s="0" t="s">
-        <v>526</v>
+        <v>534</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>527</v>
+        <v>535</v>
       </c>
       <c r="J4" s="0" t="s">
         <v>23</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>528</v>
+        <v>536</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6375,34 +6561,34 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>512</v>
+        <v>520</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>513</v>
+        <v>521</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="E5" s="0" t="s">
         <v>85</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>529</v>
+        <v>537</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>530</v>
+        <v>538</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>531</v>
+        <v>539</v>
       </c>
       <c r="J5" s="0" t="s">
         <v>23</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>532</v>
+        <v>540</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6410,34 +6596,34 @@
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>533</v>
+        <v>541</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>534</v>
+        <v>542</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="E6" s="0" t="s">
         <v>85</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>535</v>
+        <v>543</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>536</v>
+        <v>544</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>537</v>
+        <v>545</v>
       </c>
       <c r="J6" s="0" t="s">
         <v>85</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>538</v>
+        <v>546</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6445,34 +6631,34 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>533</v>
+        <v>541</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>534</v>
+        <v>542</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="E7" s="0" t="s">
         <v>85</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>539</v>
+        <v>547</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>540</v>
+        <v>548</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>541</v>
+        <v>549</v>
       </c>
       <c r="J7" s="0" t="s">
         <v>85</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>542</v>
+        <v>550</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6480,34 +6666,34 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>533</v>
+        <v>541</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>534</v>
+        <v>542</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>543</v>
+        <v>551</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>544</v>
+        <v>552</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>545</v>
+        <v>553</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>546</v>
+        <v>554</v>
       </c>
       <c r="J8" s="0" t="s">
         <v>85</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>547</v>
+        <v>555</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6515,34 +6701,34 @@
         <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>533</v>
+        <v>541</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>534</v>
+        <v>542</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>515</v>
+        <v>523</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>548</v>
+        <v>556</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>549</v>
+        <v>557</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>550</v>
+        <v>558</v>
       </c>
       <c r="J9" s="0" t="s">
         <v>85</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>551</v>
+        <v>559</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6550,34 +6736,34 @@
         <v>9</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>533</v>
+        <v>541</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>534</v>
+        <v>542</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>552</v>
+        <v>560</v>
       </c>
       <c r="E10" s="0" t="s">
         <v>85</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>553</v>
+        <v>561</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>554</v>
+        <v>562</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>555</v>
+        <v>563</v>
       </c>
       <c r="J10" s="0" t="s">
         <v>85</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>556</v>
+        <v>564</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6585,34 +6771,34 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>533</v>
+        <v>541</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>534</v>
+        <v>542</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>552</v>
+        <v>560</v>
       </c>
       <c r="E11" s="0" t="s">
         <v>85</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>557</v>
+        <v>565</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>478</v>
+        <v>490</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>558</v>
+        <v>566</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>559</v>
+        <v>567</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>560</v>
+        <v>568</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6620,34 +6806,34 @@
         <v>11</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>533</v>
+        <v>541</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>534</v>
+        <v>542</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>552</v>
+        <v>560</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>515</v>
+        <v>523</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>561</v>
+        <v>569</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>562</v>
+        <v>570</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>563</v>
+        <v>571</v>
       </c>
       <c r="J12" s="0" t="s">
         <v>85</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>564</v>
+        <v>572</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6655,34 +6841,34 @@
         <v>12</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>533</v>
+        <v>541</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>534</v>
+        <v>542</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>565</v>
+        <v>573</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>515</v>
+        <v>523</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>566</v>
+        <v>574</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>567</v>
+        <v>575</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>568</v>
+        <v>576</v>
       </c>
       <c r="J13" s="0" t="s">
         <v>85</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>569</v>
+        <v>577</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6690,34 +6876,34 @@
         <v>13</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>570</v>
+        <v>578</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>534</v>
+        <v>542</v>
       </c>
       <c r="D14" s="0" t="s">
         <v>85</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>571</v>
+        <v>579</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>487</v>
+        <v>445</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>572</v>
+        <v>580</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>573</v>
+        <v>581</v>
       </c>
       <c r="J14" s="0" t="s">
         <v>85</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>574</v>
+        <v>582</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6725,34 +6911,34 @@
         <v>14</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>570</v>
+        <v>578</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>534</v>
+        <v>542</v>
       </c>
       <c r="D15" s="0" t="s">
         <v>85</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>571</v>
+        <v>579</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>575</v>
+        <v>583</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>576</v>
+        <v>584</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>577</v>
+        <v>585</v>
       </c>
       <c r="J15" s="0" t="s">
         <v>85</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>578</v>
+        <v>586</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6760,34 +6946,34 @@
         <v>15</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>512</v>
+        <v>520</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>534</v>
+        <v>542</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>514</v>
+        <v>522</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>571</v>
+        <v>579</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>579</v>
+        <v>587</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>580</v>
+        <v>588</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>581</v>
+        <v>589</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>450</v>
+        <v>462</v>
       </c>
       <c r="K16" s="0" t="s">
-        <v>582</v>
+        <v>590</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6795,34 +6981,34 @@
         <v>16</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>570</v>
+        <v>578</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>534</v>
+        <v>542</v>
       </c>
       <c r="D17" s="0" t="s">
         <v>85</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>515</v>
+        <v>523</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>583</v>
+        <v>591</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>584</v>
+        <v>592</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>585</v>
+        <v>593</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>586</v>
+        <v>594</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>587</v>
+        <v>595</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6830,34 +7016,34 @@
         <v>17</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>570</v>
+        <v>578</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>534</v>
+        <v>542</v>
       </c>
       <c r="D18" s="0" t="s">
         <v>85</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>515</v>
+        <v>523</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>588</v>
+        <v>596</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>589</v>
+        <v>597</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>590</v>
+        <v>598</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="K18" s="0" t="s">
-        <v>591</v>
+        <v>599</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6865,34 +7051,34 @@
         <v>18</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>592</v>
+        <v>600</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>534</v>
+        <v>542</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>565</v>
+        <v>573</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>593</v>
+        <v>601</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>594</v>
+        <v>602</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>595</v>
+        <v>603</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>458</v>
+        <v>470</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>597</v>
+        <v>605</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6900,34 +7086,34 @@
         <v>19</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>570</v>
+        <v>578</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>534</v>
+        <v>542</v>
       </c>
       <c r="D20" s="0" t="s">
         <v>85</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>598</v>
+        <v>606</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>499</v>
+        <v>508</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>500</v>
+        <v>509</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>599</v>
+        <v>607</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>501</v>
+        <v>510</v>
       </c>
       <c r="K20" s="0" t="s">
-        <v>600</v>
+        <v>608</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6935,34 +7121,34 @@
         <v>20</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>570</v>
+        <v>578</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>534</v>
+        <v>542</v>
       </c>
       <c r="D21" s="0" t="s">
         <v>85</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>598</v>
+        <v>606</v>
       </c>
       <c r="F21" s="0" t="s">
         <v>108</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>601</v>
+        <v>609</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>602</v>
+        <v>610</v>
       </c>
       <c r="K21" s="0" t="s">
-        <v>603</v>
+        <v>611</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/inst/doc/files/parameterization.xlsx
+++ b/inst/doc/files/parameterization.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="240" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="240" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="climate" sheetId="1" state="visible" r:id="rId2"/>
@@ -32,13 +32,14 @@
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">parameters!$A$1:$Q$102</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">parameters!$A$1:$Q$102</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">parameters!$A$1:$Q$102</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">parameters!$A$1:$Q$102</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1181" uniqueCount="612">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="612">
   <si>
     <t>name.rsunflo.fr</t>
   </si>
@@ -232,6 +233,9 @@
     <t>Temperature sum from emergence to seed physiological maturity</t>
   </si>
   <si>
+    <t>LeafArea</t>
+  </si>
+  <si>
     <t>TLN</t>
   </si>
   <si>
@@ -1064,9 +1068,6 @@
   </si>
   <si>
     <t>[@Villalobos1996]</t>
-  </si>
-  <si>
-    <t>LeafArea</t>
   </si>
   <si>
     <t>Phy1</t>
@@ -2151,8 +2152,8 @@
   </sheetPr>
   <dimension ref="1:102"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K9" activeCellId="0" sqref="K9"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.15"/>
@@ -2430,26 +2431,29 @@
       <c r="D6" s="0" t="s">
         <v>40</v>
       </c>
+      <c r="E6" s="0" t="s">
+        <v>64</v>
+      </c>
       <c r="F6" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M6" s="0" t="s">
         <v>48</v>
@@ -2474,26 +2478,29 @@
       <c r="D7" s="0" t="s">
         <v>40</v>
       </c>
+      <c r="E7" s="0" t="s">
+        <v>64</v>
+      </c>
       <c r="F7" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="L7" s="3" t="s">
         <v>69</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="H7" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="I7" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="J7" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="K7" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>68</v>
       </c>
       <c r="M7" s="0" t="s">
         <v>48</v>
@@ -2518,26 +2525,29 @@
       <c r="D8" s="0" t="s">
         <v>40</v>
       </c>
+      <c r="E8" s="0" t="s">
+        <v>64</v>
+      </c>
       <c r="F8" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M8" s="0" t="s">
         <v>48</v>
@@ -2563,25 +2573,25 @@
         <v>40</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M9" s="0" t="s">
         <v>48</v>
@@ -2607,28 +2617,28 @@
         <v>40</v>
       </c>
       <c r="F10" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="I10" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="K10" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="L10" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="G10" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="I10" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="K10" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>85</v>
-      </c>
       <c r="M10" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N10" s="0" t="n">
         <v>-4.42</v>
@@ -2651,28 +2661,28 @@
         <v>40</v>
       </c>
       <c r="F11" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="I11" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="J11" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="K11" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="M11" s="0" t="s">
         <v>92</v>
-      </c>
-      <c r="G11" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="H11" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="I11" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="J11" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="K11" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="M11" s="0" t="s">
-        <v>91</v>
       </c>
       <c r="N11" s="0" t="n">
         <v>-9.3</v>
@@ -2695,22 +2705,22 @@
         <v>40</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L12" s="3"/>
       <c r="M12" s="0" t="s">
@@ -2737,28 +2747,28 @@
         <v>40</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L13" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M13" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="N13" s="0" t="n">
         <v>0.398</v>
@@ -2781,28 +2791,28 @@
         <v>40</v>
       </c>
       <c r="F14" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="I14" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="J14" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="K14" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="M14" s="0" t="s">
         <v>107</v>
-      </c>
-      <c r="G14" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="H14" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="I14" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="J14" s="0" t="s">
-        <v>110</v>
-      </c>
-      <c r="K14" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="M14" s="0" t="s">
-        <v>106</v>
       </c>
       <c r="N14" s="0" t="n">
         <v>55.4</v>
@@ -2816,28 +2826,28 @@
         <v>14</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="P15" s="0" t="n">
         <v>1</v>
@@ -2848,28 +2858,28 @@
         <v>15</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K16" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L16" s="3" t="s">
         <v>23</v>
@@ -2889,31 +2899,31 @@
         <v>16</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N17" s="0" t="n">
         <v>19.69</v>
@@ -2927,31 +2937,31 @@
         <v>17</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F18" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="H18" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="I18" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="J18" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="K18" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="L18" s="3" t="s">
         <v>133</v>
-      </c>
-      <c r="G18" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="H18" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="I18" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="J18" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="K18" s="0" t="s">
-        <v>137</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>132</v>
       </c>
       <c r="N18" s="0" t="n">
         <v>9.69</v>
@@ -2965,31 +2975,31 @@
         <v>18</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N19" s="0" t="n">
         <v>19.69</v>
@@ -3003,31 +3013,31 @@
         <v>19</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K20" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N20" s="0" t="n">
         <v>9.69</v>
@@ -3041,31 +3051,31 @@
         <v>20</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K21" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="N21" s="0" t="n">
         <v>1.5</v>
@@ -3079,31 +3089,31 @@
         <v>21</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F22" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="H22" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="I22" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="J22" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="K22" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="L22" s="3" t="s">
         <v>155</v>
-      </c>
-      <c r="G22" s="0" t="s">
-        <v>156</v>
-      </c>
-      <c r="H22" s="0" t="s">
-        <v>157</v>
-      </c>
-      <c r="I22" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="J22" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="K22" s="0" t="s">
-        <v>159</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>154</v>
       </c>
       <c r="N22" s="0" t="n">
         <v>1.5</v>
@@ -3117,31 +3127,31 @@
         <v>22</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K23" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="N23" s="0" t="n">
         <v>0</v>
@@ -3155,34 +3165,34 @@
         <v>23</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K24" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M24" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N24" s="0" t="n">
         <v>0.5</v>
@@ -3196,22 +3206,22 @@
         <v>24</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F25" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="J25" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="M25" s="0" t="s">
         <v>175</v>
-      </c>
-      <c r="J25" s="0" t="s">
-        <v>176</v>
-      </c>
-      <c r="L25" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="M25" s="0" t="s">
-        <v>174</v>
       </c>
       <c r="N25" s="0" t="n">
         <v>0.2</v>
@@ -3225,31 +3235,31 @@
         <v>25</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I26" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K26" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N26" s="5" t="n">
         <v>41380</v>
@@ -3263,31 +3273,31 @@
         <v>26</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F27" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="G27" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="H27" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="I27" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="J27" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="K27" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="L27" s="3" t="s">
         <v>186</v>
-      </c>
-      <c r="G27" s="0" t="s">
-        <v>187</v>
-      </c>
-      <c r="H27" s="0" t="s">
-        <v>188</v>
-      </c>
-      <c r="I27" s="0" t="s">
-        <v>189</v>
-      </c>
-      <c r="J27" s="0" t="s">
-        <v>190</v>
-      </c>
-      <c r="K27" s="0" t="s">
-        <v>191</v>
-      </c>
-      <c r="L27" s="3" t="s">
-        <v>185</v>
       </c>
       <c r="N27" s="5" t="n">
         <v>41509</v>
@@ -3301,31 +3311,31 @@
         <v>27</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E28" s="0" t="s">
         <v>41</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I28" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="J28" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K28" s="0" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L28" s="3" t="s">
         <v>23</v>
@@ -3342,31 +3352,31 @@
         <v>28</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="I29" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J29" s="0" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="K29" s="0" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N29" s="4" t="n">
         <v>6.8</v>
@@ -3380,31 +3390,31 @@
         <v>29</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="I30" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J30" s="0" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K30" s="0" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>41275</v>
@@ -3418,31 +3428,31 @@
         <v>30</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I31" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J31" s="0" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="K31" s="0" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N31" s="4" t="n">
         <v>0</v>
@@ -3456,31 +3466,31 @@
         <v>31</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I32" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J32" s="0" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K32" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>41275</v>
@@ -3494,31 +3504,31 @@
         <v>32</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I33" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J33" s="0" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K33" s="0" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N33" s="4" t="n">
         <v>0</v>
@@ -3532,31 +3542,31 @@
         <v>33</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="I34" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J34" s="0" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="K34" s="0" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>41275</v>
@@ -3570,31 +3580,31 @@
         <v>34</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I35" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J35" s="0" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K35" s="0" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L35" s="3" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N35" s="4" t="n">
         <v>0</v>
@@ -3608,31 +3618,31 @@
         <v>35</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I36" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J36" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K36" s="0" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>41275</v>
@@ -3646,31 +3656,31 @@
         <v>36</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="I37" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J37" s="0" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="K37" s="0" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N37" s="4" t="n">
         <v>0</v>
@@ -3684,31 +3694,31 @@
         <v>37</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="I38" s="0" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="J38" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="K38" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L38" s="3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>41275</v>
@@ -3722,28 +3732,28 @@
         <v>38</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="I39" s="0" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="J39" s="0" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="K39" s="0" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L39" s="3" t="s">
         <v>23</v>
@@ -3760,31 +3770,31 @@
         <v>39</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="I40" s="0" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="J40" s="0" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="K40" s="0" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L40" s="3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>41275</v>
@@ -3798,28 +3808,28 @@
         <v>40</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H41" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="I41" s="0" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="J41" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="K41" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L41" s="3" t="s">
         <v>23</v>
@@ -3836,31 +3846,31 @@
         <v>41</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H42" s="0" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I42" s="0" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="J42" s="0" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="K42" s="0" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L42" s="3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>41275</v>
@@ -3874,28 +3884,28 @@
         <v>42</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H43" s="0" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="I43" s="0" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="J43" s="0" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="K43" s="0" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L43" s="3" t="s">
         <v>23</v>
@@ -3912,31 +3922,31 @@
         <v>43</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H44" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="I44" s="0" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="J44" s="0" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="K44" s="0" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L44" s="3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>41275</v>
@@ -3950,28 +3960,28 @@
         <v>44</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H45" s="0" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="I45" s="0" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="J45" s="0" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K45" s="0" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="L45" s="3" t="s">
         <v>23</v>
@@ -3988,31 +3998,31 @@
         <v>45</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H46" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="I46" s="0" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="J46" s="0" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="K46" s="0" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="L46" s="3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>41275</v>
@@ -4026,28 +4036,28 @@
         <v>46</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H47" s="0" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="I47" s="0" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="J47" s="0" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K47" s="0" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="L47" s="3" t="s">
         <v>23</v>
@@ -4064,31 +4074,31 @@
         <v>47</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G48" s="0" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H48" s="0" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="I48" s="0" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="J48" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="K48" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="L48" s="3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>41275</v>
@@ -4102,28 +4112,28 @@
         <v>48</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H49" s="0" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="I49" s="0" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="J49" s="0" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="K49" s="0" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L49" s="3" t="s">
         <v>23</v>
@@ -4140,22 +4150,22 @@
         <v>49</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G50" s="0" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H50" s="0" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="J50" s="0" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L50" s="3" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="P50" s="0" t="n">
         <v>1</v>
@@ -4166,22 +4176,22 @@
         <v>50</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H51" s="0" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="J51" s="0" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L51" s="0" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="P51" s="0" t="n">
         <v>1</v>
@@ -4192,25 +4202,25 @@
         <v>51</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H52" s="0" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="J52" s="0" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="L52" s="3" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="P52" s="0" t="n">
         <v>1</v>
@@ -4221,25 +4231,25 @@
         <v>52</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F53" s="0" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H53" s="0" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="J53" s="0" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="L53" s="3" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="P53" s="0" t="n">
         <v>1</v>
@@ -4250,25 +4260,25 @@
         <v>53</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F54" s="0" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="G54" s="0" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H54" s="0" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="J54" s="0" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="L54" s="3" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="P54" s="0" t="n">
         <v>1</v>
@@ -4279,25 +4289,25 @@
         <v>54</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F55" s="0" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="G55" s="0" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H55" s="0" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="J55" s="0" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="L55" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P55" s="0" t="n">
         <v>1</v>
@@ -4308,25 +4318,25 @@
         <v>55</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F56" s="0" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="G56" s="0" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H56" s="0" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="J56" s="0" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L56" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P56" s="0" t="n">
         <v>1</v>
@@ -4337,16 +4347,16 @@
         <v>56</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F57" s="0" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="J57" s="0" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="L57" s="3" t="s">
         <v>23</v>
@@ -4363,22 +4373,22 @@
         <v>57</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="F58" s="0" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="J58" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>9</v>
       </c>
       <c r="M58" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="N58" s="4" t="n">
         <v>4.8</v>
@@ -4392,31 +4402,31 @@
         <v>58</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E59" s="0" t="s">
         <v>41</v>
       </c>
       <c r="F59" s="0" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="I59" s="0" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="J59" s="0" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="K59" s="0" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="L59" s="3" t="s">
         <v>47</v>
       </c>
       <c r="M59" s="0" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="N59" s="4" t="n">
         <v>86.2</v>
@@ -4430,13 +4440,13 @@
         <v>59</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>342</v>
+        <v>64</v>
       </c>
       <c r="F60" s="0" t="s">
         <v>343</v>
@@ -4468,13 +4478,13 @@
         <v>60</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>342</v>
+        <v>64</v>
       </c>
       <c r="F61" s="0" t="s">
         <v>348</v>
@@ -4506,10 +4516,10 @@
         <v>61</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="F62" s="0" t="s">
         <v>352</v>
@@ -4535,10 +4545,10 @@
         <v>62</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="F63" s="0" t="s">
         <v>355</v>
@@ -4547,7 +4557,7 @@
         <v>356</v>
       </c>
       <c r="L63" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M63" s="0" t="s">
         <v>354</v>
@@ -4564,10 +4574,10 @@
         <v>63</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="F64" s="0" t="s">
         <v>357</v>
@@ -4593,10 +4603,10 @@
         <v>64</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="F65" s="0" t="s">
         <v>359</v>
@@ -4605,7 +4615,7 @@
         <v>360</v>
       </c>
       <c r="L65" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M65" s="0" t="s">
         <v>354</v>
@@ -4622,10 +4632,10 @@
         <v>65</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="F66" s="0" t="s">
         <v>361</v>
@@ -4651,10 +4661,10 @@
         <v>66</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="F67" s="0" t="s">
         <v>363</v>
@@ -4680,10 +4690,10 @@
         <v>67</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="F68" s="0" t="s">
         <v>365</v>
@@ -4692,7 +4702,7 @@
         <v>366</v>
       </c>
       <c r="L68" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M68" s="0" t="s">
         <v>354</v>
@@ -4709,10 +4719,10 @@
         <v>68</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="F69" s="0" t="s">
         <v>367</v>
@@ -4721,7 +4731,7 @@
         <v>368</v>
       </c>
       <c r="L69" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M69" s="0" t="s">
         <v>354</v>
@@ -4738,10 +4748,10 @@
         <v>69</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="F70" s="0" t="s">
         <v>369</v>
@@ -4750,7 +4760,7 @@
         <v>370</v>
       </c>
       <c r="L70" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M70" s="0" t="s">
         <v>354</v>
@@ -4767,10 +4777,10 @@
         <v>70</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="F71" s="0" t="s">
         <v>371</v>
@@ -4782,7 +4792,7 @@
         <v>373</v>
       </c>
       <c r="M71" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="N71" s="4" t="n">
         <v>1</v>
@@ -4796,10 +4806,10 @@
         <v>71</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="F72" s="0" t="s">
         <v>374</v>
@@ -4811,7 +4821,7 @@
         <v>373</v>
       </c>
       <c r="M72" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="N72" s="4" t="n">
         <v>4.5</v>
@@ -4825,10 +4835,10 @@
         <v>72</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="F73" s="0" t="s">
         <v>376</v>
@@ -4840,7 +4850,7 @@
         <v>373</v>
       </c>
       <c r="M73" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="N73" s="4" t="n">
         <v>0.015</v>
@@ -4854,10 +4864,10 @@
         <v>73</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="F74" s="0" t="s">
         <v>378</v>
@@ -4869,7 +4879,7 @@
         <v>373</v>
       </c>
       <c r="M74" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="N74" s="4" t="n">
         <v>3</v>
@@ -4883,10 +4893,10 @@
         <v>74</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="F75" s="0" t="s">
         <v>380</v>
@@ -4898,7 +4908,7 @@
         <v>9</v>
       </c>
       <c r="M75" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="N75" s="4" t="n">
         <v>37</v>
@@ -4912,10 +4922,10 @@
         <v>75</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="F76" s="0" t="s">
         <v>382</v>
@@ -4928,7 +4938,7 @@
         <v>9</v>
       </c>
       <c r="M76" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="N76" s="4" t="n">
         <v>20</v>
@@ -4942,10 +4952,10 @@
         <v>76</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="F77" s="0" t="s">
         <v>384</v>
@@ -4958,7 +4968,7 @@
         <v>9</v>
       </c>
       <c r="M77" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="N77" s="4" t="n">
         <v>28</v>
@@ -4972,10 +4982,10 @@
         <v>77</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="F78" s="0" t="s">
         <v>386</v>
@@ -4984,7 +4994,7 @@
         <v>387</v>
       </c>
       <c r="L78" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M78" s="0" t="s">
         <v>354</v>
@@ -5001,10 +5011,10 @@
         <v>78</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="F79" s="0" t="s">
         <v>388</v>
@@ -5030,10 +5040,10 @@
         <v>79</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="F80" s="0" t="s">
         <v>390</v>
@@ -5042,7 +5052,7 @@
         <v>391</v>
       </c>
       <c r="L80" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M80" s="0" t="s">
         <v>354</v>
@@ -5059,7 +5069,7 @@
         <v>80</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D81" s="0" t="s">
         <v>392</v>
@@ -5071,7 +5081,7 @@
         <v>394</v>
       </c>
       <c r="L81" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M81" s="0" t="s">
         <v>395</v>
@@ -5088,7 +5098,7 @@
         <v>81</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D82" s="0" t="s">
         <v>392</v>
@@ -5100,7 +5110,7 @@
         <v>397</v>
       </c>
       <c r="L82" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M82" s="0" t="s">
         <v>395</v>
@@ -5117,7 +5127,7 @@
         <v>82</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D83" s="0" t="s">
         <v>392</v>
@@ -5129,7 +5139,7 @@
         <v>399</v>
       </c>
       <c r="L83" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M83" s="0" t="s">
         <v>395</v>
@@ -5146,7 +5156,7 @@
         <v>83</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D84" s="0" t="s">
         <v>392</v>
@@ -5158,7 +5168,7 @@
         <v>401</v>
       </c>
       <c r="L84" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M84" s="0" t="s">
         <v>395</v>
@@ -5175,7 +5185,7 @@
         <v>84</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D85" s="0" t="s">
         <v>392</v>
@@ -5204,7 +5214,7 @@
         <v>85</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D86" s="0" t="s">
         <v>392</v>
@@ -5233,7 +5243,7 @@
         <v>86</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D87" s="0" t="s">
         <v>392</v>
@@ -5245,7 +5255,7 @@
         <v>408</v>
       </c>
       <c r="L87" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M87" s="0" t="s">
         <v>409</v>
@@ -5262,7 +5272,7 @@
         <v>87</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D88" s="0" t="s">
         <v>392</v>
@@ -5274,7 +5284,7 @@
         <v>411</v>
       </c>
       <c r="L88" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M88" s="0" t="s">
         <v>409</v>
@@ -5291,7 +5301,7 @@
         <v>88</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D89" s="0" t="s">
         <v>392</v>
@@ -5320,7 +5330,7 @@
         <v>89</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D90" s="0" t="s">
         <v>415</v>
@@ -5332,7 +5342,7 @@
         <v>417</v>
       </c>
       <c r="L90" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N90" s="4" t="n">
         <v>0.6</v>
@@ -5346,7 +5356,7 @@
         <v>90</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D91" s="0" t="s">
         <v>392</v>
@@ -5358,7 +5368,7 @@
         <v>419</v>
       </c>
       <c r="L91" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M91" s="0" t="s">
         <v>48</v>
@@ -5375,7 +5385,7 @@
         <v>91</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D92" s="0" t="s">
         <v>392</v>
@@ -5399,7 +5409,7 @@
         <v>424</v>
       </c>
       <c r="M92" s="0" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="N92" s="4" t="n">
         <v>1.19</v>
@@ -5607,7 +5617,7 @@
   </sheetPr>
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A23" activeCellId="0" sqref="A23"/>
     </sheetView>
   </sheetViews>
@@ -5654,7 +5664,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>342</v>
+        <v>64</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>437</v>
@@ -5662,7 +5672,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>342</v>
+        <v>64</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>438</v>
@@ -5670,7 +5680,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>342</v>
+        <v>64</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>439</v>
@@ -5678,7 +5688,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>342</v>
+        <v>64</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>440</v>
@@ -5686,7 +5696,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>342</v>
+        <v>64</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>441</v>
@@ -5694,7 +5704,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>342</v>
+        <v>64</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>442</v>
@@ -5702,10 +5712,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>342</v>
+        <v>64</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>342</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6010,7 +6020,7 @@
         <v>473</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H9" s="0" t="n">
         <v>1</v>
@@ -6036,7 +6046,7 @@
         <v>476</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H10" s="0" t="n">
         <v>1</v>
@@ -6062,7 +6072,7 @@
         <v>478</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H11" s="0" t="n">
         <v>1</v>
@@ -6088,7 +6098,7 @@
         <v>480</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H12" s="0" t="n">
         <v>1</v>
@@ -6114,7 +6124,7 @@
         <v>482</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H13" s="0" t="n">
         <v>1</v>
@@ -6140,7 +6150,7 @@
         <v>486</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H14" s="0" t="n">
         <v>1</v>
@@ -6192,7 +6202,7 @@
         <v>494</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H16" s="0" t="n">
         <v>1</v>
@@ -6218,7 +6228,7 @@
         <v>497</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H17" s="0" t="n">
         <v>1</v>
@@ -6244,7 +6254,7 @@
         <v>499</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H18" s="0" t="n">
         <v>1</v>
@@ -6270,7 +6280,7 @@
         <v>501</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H19" s="0" t="n">
         <v>1</v>
@@ -6296,7 +6306,7 @@
         <v>503</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H20" s="0" t="n">
         <v>1</v>
@@ -6368,13 +6378,13 @@
         <v>512</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F23" s="0" t="s">
         <v>513</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H23" s="0" t="n">
         <v>1</v>
@@ -6500,7 +6510,7 @@
         <v>529</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F3" s="0" t="s">
         <v>530</v>
@@ -6535,7 +6545,7 @@
         <v>529</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F4" s="0" t="s">
         <v>533</v>
@@ -6570,7 +6580,7 @@
         <v>529</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F5" s="0" t="s">
         <v>537</v>
@@ -6605,7 +6615,7 @@
         <v>529</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F6" s="0" t="s">
         <v>543</v>
@@ -6620,7 +6630,7 @@
         <v>545</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K6" s="0" t="s">
         <v>546</v>
@@ -6640,7 +6650,7 @@
         <v>529</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F7" s="0" t="s">
         <v>547</v>
@@ -6655,7 +6665,7 @@
         <v>549</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K7" s="0" t="s">
         <v>550</v>
@@ -6690,7 +6700,7 @@
         <v>554</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K8" s="0" t="s">
         <v>555</v>
@@ -6725,7 +6735,7 @@
         <v>558</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K9" s="0" t="s">
         <v>559</v>
@@ -6745,7 +6755,7 @@
         <v>560</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F10" s="0" t="s">
         <v>561</v>
@@ -6760,7 +6770,7 @@
         <v>563</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K10" s="0" t="s">
         <v>564</v>
@@ -6780,7 +6790,7 @@
         <v>560</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F11" s="0" t="s">
         <v>565</v>
@@ -6830,7 +6840,7 @@
         <v>571</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K12" s="0" t="s">
         <v>572</v>
@@ -6865,7 +6875,7 @@
         <v>576</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K13" s="0" t="s">
         <v>577</v>
@@ -6882,7 +6892,7 @@
         <v>542</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E14" s="0" t="s">
         <v>579</v>
@@ -6900,7 +6910,7 @@
         <v>581</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K14" s="0" t="s">
         <v>582</v>
@@ -6917,7 +6927,7 @@
         <v>542</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E15" s="0" t="s">
         <v>579</v>
@@ -6935,7 +6945,7 @@
         <v>585</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K15" s="0" t="s">
         <v>586</v>
@@ -6987,7 +6997,7 @@
         <v>542</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E17" s="0" t="s">
         <v>523</v>
@@ -7022,7 +7032,7 @@
         <v>542</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E18" s="0" t="s">
         <v>523</v>
@@ -7092,7 +7102,7 @@
         <v>542</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E20" s="0" t="s">
         <v>606</v>
@@ -7127,13 +7137,13 @@
         <v>542</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E21" s="0" t="s">
         <v>606</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G21" s="0" t="s">
         <v>525</v>

--- a/inst/doc/files/parameterization.xlsx
+++ b/inst/doc/files/parameterization.xlsx
@@ -33,13 +33,14 @@
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">parameters!$A$1:$Q$102</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">parameters!$A$1:$Q$102</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">parameters!$A$1:$Q$102</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">parameters!$A$1:$Q$102</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="612">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1187" uniqueCount="614">
   <si>
     <t>name.rsunflo.fr</t>
   </si>
@@ -1133,7 +1134,13 @@
     <t>LAI_d</t>
   </si>
   <si>
+    <t>PotentialLeafDuration</t>
+  </si>
+  <si>
     <t>Valeur du maximum de la fonction de la durée de vie des feuilles en fonction du rang sur la tige</t>
+  </si>
+  <si>
+    <t>Thermal time between expansion and senescence</t>
   </si>
   <si>
     <t>LAI_e</t>
@@ -2152,8 +2159,8 @@
   </sheetPr>
   <dimension ref="1:102"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A67" activeCellId="0" sqref="A67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.15"/>
@@ -4666,11 +4673,20 @@
       <c r="D67" s="0" t="s">
         <v>334</v>
       </c>
+      <c r="E67" s="0" t="s">
+        <v>64</v>
+      </c>
       <c r="F67" s="0" t="s">
         <v>363</v>
       </c>
+      <c r="I67" s="0" t="s">
+        <v>364</v>
+      </c>
       <c r="J67" s="0" t="s">
-        <v>364</v>
+        <v>365</v>
+      </c>
+      <c r="K67" s="0" t="s">
+        <v>366</v>
       </c>
       <c r="L67" s="3" t="s">
         <v>47</v>
@@ -4696,10 +4712,10 @@
         <v>334</v>
       </c>
       <c r="F68" s="0" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="J68" s="0" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="L68" s="3" t="s">
         <v>69</v>
@@ -4725,10 +4741,10 @@
         <v>334</v>
       </c>
       <c r="F69" s="0" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="J69" s="0" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="L69" s="3" t="s">
         <v>69</v>
@@ -4754,10 +4770,10 @@
         <v>334</v>
       </c>
       <c r="F70" s="0" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="J70" s="0" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="L70" s="3" t="s">
         <v>86</v>
@@ -4783,13 +4799,13 @@
         <v>334</v>
       </c>
       <c r="F71" s="0" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="J71" s="0" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="L71" s="3" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="M71" s="0" t="s">
         <v>107</v>
@@ -4812,13 +4828,13 @@
         <v>334</v>
       </c>
       <c r="F72" s="0" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="J72" s="0" t="s">
+        <v>377</v>
+      </c>
+      <c r="L72" s="3" t="s">
         <v>375</v>
-      </c>
-      <c r="L72" s="3" t="s">
-        <v>373</v>
       </c>
       <c r="M72" s="0" t="s">
         <v>107</v>
@@ -4841,13 +4857,13 @@
         <v>334</v>
       </c>
       <c r="F73" s="0" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="J73" s="0" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="L73" s="3" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="M73" s="0" t="s">
         <v>107</v>
@@ -4870,13 +4886,13 @@
         <v>334</v>
       </c>
       <c r="F74" s="0" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="J74" s="0" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="L74" s="3" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="M74" s="0" t="s">
         <v>107</v>
@@ -4899,10 +4915,10 @@
         <v>334</v>
       </c>
       <c r="F75" s="0" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="J75" s="0" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="L75" s="3" t="s">
         <v>9</v>
@@ -4928,10 +4944,10 @@
         <v>334</v>
       </c>
       <c r="F76" s="0" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="J76" s="3" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="K76" s="3"/>
       <c r="L76" s="3" t="s">
@@ -4958,10 +4974,10 @@
         <v>334</v>
       </c>
       <c r="F77" s="0" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="J77" s="3" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="K77" s="3"/>
       <c r="L77" s="3" t="s">
@@ -4988,10 +5004,10 @@
         <v>334</v>
       </c>
       <c r="F78" s="0" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="J78" s="0" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="L78" s="3" t="s">
         <v>86</v>
@@ -5017,10 +5033,10 @@
         <v>334</v>
       </c>
       <c r="F79" s="0" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="J79" s="0" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="L79" s="3" t="s">
         <v>47</v>
@@ -5046,10 +5062,10 @@
         <v>334</v>
       </c>
       <c r="F80" s="0" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="J80" s="0" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="L80" s="3" t="s">
         <v>86</v>
@@ -5072,19 +5088,19 @@
         <v>333</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="F81" s="0" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="J81" s="0" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="L81" s="3" t="s">
         <v>133</v>
       </c>
       <c r="M81" s="0" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="N81" s="4" t="n">
         <v>4.53</v>
@@ -5101,19 +5117,19 @@
         <v>333</v>
       </c>
       <c r="D82" s="0" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="F82" s="0" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="J82" s="0" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="L82" s="3" t="s">
         <v>86</v>
       </c>
       <c r="M82" s="0" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="N82" s="4" t="n">
         <v>0.42</v>
@@ -5130,19 +5146,19 @@
         <v>333</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="F83" s="0" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="J83" s="0" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="L83" s="3" t="s">
         <v>133</v>
       </c>
       <c r="M83" s="0" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="N83" s="4" t="n">
         <v>6.49</v>
@@ -5159,19 +5175,19 @@
         <v>333</v>
       </c>
       <c r="D84" s="0" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="F84" s="0" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="J84" s="0" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="L84" s="3" t="s">
         <v>86</v>
       </c>
       <c r="M84" s="0" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="N84" s="4" t="n">
         <v>0.44</v>
@@ -5188,19 +5204,19 @@
         <v>333</v>
       </c>
       <c r="D85" s="0" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="F85" s="0" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="J85" s="0" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="L85" s="3" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="M85" s="0" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="N85" s="4" t="n">
         <v>75</v>
@@ -5217,19 +5233,19 @@
         <v>333</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="F86" s="0" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="J86" s="0" t="s">
+        <v>408</v>
+      </c>
+      <c r="L86" s="3" t="s">
         <v>406</v>
       </c>
-      <c r="L86" s="3" t="s">
-        <v>404</v>
-      </c>
       <c r="M86" s="0" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="N86" s="4" t="n">
         <v>75</v>
@@ -5246,19 +5262,19 @@
         <v>333</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="F87" s="0" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="J87" s="0" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="L87" s="3" t="s">
         <v>86</v>
       </c>
       <c r="M87" s="0" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="N87" s="4" t="n">
         <v>0.6</v>
@@ -5275,19 +5291,19 @@
         <v>333</v>
       </c>
       <c r="D88" s="0" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="F88" s="0" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="J88" s="0" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="L88" s="3" t="s">
         <v>86</v>
       </c>
       <c r="M88" s="0" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="N88" s="4" t="n">
         <v>0.3</v>
@@ -5304,16 +5320,16 @@
         <v>333</v>
       </c>
       <c r="D89" s="0" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="F89" s="0" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="J89" s="0" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="L89" s="3" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="M89" s="0" t="s">
         <v>48</v>
@@ -5333,13 +5349,13 @@
         <v>333</v>
       </c>
       <c r="D90" s="0" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="F90" s="0" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="J90" s="0" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="L90" s="3" t="s">
         <v>86</v>
@@ -5359,13 +5375,13 @@
         <v>333</v>
       </c>
       <c r="D91" s="0" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="F91" s="0" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="J91" s="0" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>86</v>
@@ -5388,25 +5404,25 @@
         <v>333</v>
       </c>
       <c r="D92" s="0" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="E92" s="0" t="s">
         <v>41</v>
       </c>
       <c r="F92" s="0" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="I92" s="0" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="J92" s="0" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="K92" s="0" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="L92" s="3" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="M92" s="0" t="s">
         <v>342</v>
@@ -5423,13 +5439,13 @@
         <v>100</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="D93" s="0" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="F93" s="0" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="L93" s="3"/>
       <c r="P93" s="0" t="n">
@@ -5441,13 +5457,13 @@
         <v>101</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="D94" s="0" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="F94" s="0" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="L94" s="3"/>
       <c r="P94" s="0" t="n">
@@ -5459,13 +5475,13 @@
         <v>102</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="D95" s="0" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="F95" s="0" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="L95" s="3"/>
       <c r="P95" s="0" t="n">
@@ -5477,13 +5493,13 @@
         <v>103</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="D96" s="0" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="F96" s="0" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="L96" s="3"/>
       <c r="P96" s="0" t="n">
@@ -5495,13 +5511,13 @@
         <v>104</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="D97" s="0" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="F97" s="0" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="L97" s="3"/>
       <c r="P97" s="0" t="n">
@@ -5513,13 +5529,13 @@
         <v>105</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="D98" s="0" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="F98" s="0" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="L98" s="3"/>
       <c r="P98" s="0" t="n">
@@ -5531,13 +5547,13 @@
         <v>106</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="D99" s="0" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="F99" s="0" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="L99" s="3"/>
       <c r="P99" s="0" t="n">
@@ -5549,13 +5565,13 @@
         <v>107</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="D100" s="0" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="F100" s="0" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="L100" s="3"/>
       <c r="P100" s="0" t="n">
@@ -5567,13 +5583,13 @@
         <v>108</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="D101" s="0" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="F101" s="0" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="L101" s="3"/>
       <c r="P101" s="0" t="n">
@@ -5585,13 +5601,13 @@
         <v>109</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="D102" s="0" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="F102" s="0" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="P102" s="0" t="n">
         <v>0</v>
@@ -5659,7 +5675,7 @@
         <v>41</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5667,7 +5683,7 @@
         <v>64</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5675,7 +5691,7 @@
         <v>64</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5683,7 +5699,7 @@
         <v>64</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5691,7 +5707,7 @@
         <v>64</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5699,7 +5715,7 @@
         <v>64</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5707,7 +5723,7 @@
         <v>64</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5720,42 +5736,42 @@
     </row>
     <row r="10" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
   </sheetData>
@@ -5797,10 +5813,10 @@
         <v>27</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>32</v>
@@ -5815,7 +5831,7 @@
         <v>4</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5823,19 +5839,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="G2" s="0" t="s">
         <v>9</v>
@@ -5849,19 +5865,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="G3" s="0" t="s">
         <v>9</v>
@@ -5875,19 +5891,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="G4" s="0" t="s">
         <v>9</v>
@@ -5901,13 +5917,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>14</v>
@@ -5916,7 +5932,7 @@
         <v>16</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="H5" s="0" t="n">
         <v>1</v>
@@ -5927,13 +5943,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>19</v>
@@ -5953,13 +5969,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>24</v>
@@ -5979,22 +5995,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="H8" s="0" t="n">
         <v>1</v>
@@ -6005,19 +6021,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="G9" s="0" t="s">
         <v>86</v>
@@ -6031,19 +6047,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="G10" s="0" t="s">
         <v>86</v>
@@ -6057,19 +6073,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="G11" s="0" t="s">
         <v>86</v>
@@ -6083,19 +6099,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="G12" s="0" t="s">
         <v>86</v>
@@ -6109,19 +6125,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="G13" s="0" t="s">
         <v>86</v>
@@ -6135,19 +6151,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="G14" s="0" t="s">
         <v>86</v>
@@ -6161,22 +6177,22 @@
         <v>14</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="H15" s="0" t="n">
         <v>1</v>
@@ -6187,19 +6203,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="G16" s="0" t="s">
         <v>86</v>
@@ -6213,19 +6229,19 @@
         <v>16</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="G17" s="0" t="s">
         <v>86</v>
@@ -6239,19 +6255,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="G18" s="0" t="s">
         <v>86</v>
@@ -6265,19 +6281,19 @@
         <v>18</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="G19" s="0" t="s">
         <v>86</v>
@@ -6291,19 +6307,19 @@
         <v>19</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="G20" s="0" t="s">
         <v>86</v>
@@ -6317,22 +6333,22 @@
         <v>20</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="H21" s="0" t="n">
         <v>1</v>
@@ -6343,22 +6359,22 @@
         <v>21</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="H22" s="0" t="n">
         <v>1</v>
@@ -6369,19 +6385,19 @@
         <v>22</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>109</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="G23" s="0" t="s">
         <v>113</v>
@@ -6431,22 +6447,22 @@
         <v>27</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>2</v>
@@ -6458,7 +6474,7 @@
         <v>4</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6466,34 +6482,34 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6501,34 +6517,34 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>86</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>26</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="J3" s="0" t="s">
         <v>23</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6536,34 +6552,34 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="E4" s="0" t="s">
         <v>86</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="J4" s="0" t="s">
         <v>23</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6571,34 +6587,34 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="E5" s="0" t="s">
         <v>86</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="J5" s="0" t="s">
         <v>23</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6606,34 +6622,34 @@
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="E6" s="0" t="s">
         <v>86</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="J6" s="0" t="s">
         <v>86</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6641,34 +6657,34 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="E7" s="0" t="s">
         <v>86</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="J7" s="0" t="s">
         <v>86</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6676,34 +6692,34 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="J8" s="0" t="s">
         <v>86</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6711,34 +6727,34 @@
         <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="J9" s="0" t="s">
         <v>86</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6746,34 +6762,34 @@
         <v>9</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="E10" s="0" t="s">
         <v>86</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="J10" s="0" t="s">
         <v>86</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6781,34 +6797,34 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="E11" s="0" t="s">
         <v>86</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6816,34 +6832,34 @@
         <v>11</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="J12" s="0" t="s">
         <v>86</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6851,34 +6867,34 @@
         <v>12</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="J13" s="0" t="s">
         <v>86</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6886,34 +6902,34 @@
         <v>13</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="D14" s="0" t="s">
         <v>86</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="J14" s="0" t="s">
         <v>86</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6921,34 +6937,34 @@
         <v>14</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="D15" s="0" t="s">
         <v>86</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="J15" s="0" t="s">
         <v>86</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6956,34 +6972,34 @@
         <v>15</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="K16" s="0" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6991,34 +7007,34 @@
         <v>16</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="D17" s="0" t="s">
         <v>86</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7026,34 +7042,34 @@
         <v>17</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="D18" s="0" t="s">
         <v>86</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="K18" s="0" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7061,34 +7077,34 @@
         <v>18</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7096,34 +7112,34 @@
         <v>19</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="D20" s="0" t="s">
         <v>86</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="K20" s="0" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7131,34 +7147,34 @@
         <v>20</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="D21" s="0" t="s">
         <v>86</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="F21" s="0" t="s">
         <v>109</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="K21" s="0" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/inst/doc/files/parameterization.xlsx
+++ b/inst/doc/files/parameterization.xlsx
@@ -34,13 +34,15 @@
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">parameters!$A$1:$Q$102</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">parameters!$A$1:$Q$102</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">parameters!$A$1:$Q$102</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">parameters!$A$1:$Q$102</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">parameters!$A$1:$Q$102</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1187" uniqueCount="614">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1188" uniqueCount="615">
   <si>
     <t>name.rsunflo.fr</t>
   </si>
@@ -159,6 +161,9 @@
     <t>template.gem</t>
   </si>
   <si>
+    <t>count</t>
+  </si>
+  <si>
     <t>Variete</t>
   </si>
   <si>
@@ -1068,259 +1073,259 @@
     <t>Temperature sum from sowing to germination</t>
   </si>
   <si>
+    <t>Phy1</t>
+  </si>
+  <si>
+    <t>Phyllotherm_1</t>
+  </si>
+  <si>
+    <t>Phyllotherme pour les 6 premières feuilles</t>
+  </si>
+  <si>
+    <t>Phyllotherm (leaf &lt;= 6)</t>
+  </si>
+  <si>
+    <t>[@Rey2003]</t>
+  </si>
+  <si>
+    <t>Phy2</t>
+  </si>
+  <si>
+    <t>Phyllotherm_7</t>
+  </si>
+  <si>
+    <t>Phyllotherme pour les feuilles au dela du 6eme rang</t>
+  </si>
+  <si>
+    <t>Phyllotherm (leaf &gt; 7)</t>
+  </si>
+  <si>
+    <t>zRac_max</t>
+  </si>
+  <si>
+    <t>Profondeur d'enracinement maximale de l'espèce</t>
+  </si>
+  <si>
+    <t>[@Casadebaig2008b]</t>
+  </si>
+  <si>
+    <t>AP_a</t>
+  </si>
+  <si>
+    <t>Ajustement de l'effet de la contrainte hydrique sur la phénologie</t>
+  </si>
+  <si>
+    <t>LAI_a</t>
+  </si>
+  <si>
+    <t>Date thermique de fin d'expansion de la troisième paire de feuilles</t>
+  </si>
+  <si>
+    <t>LAI_b</t>
+  </si>
+  <si>
+    <t>Ajustement du calcul des dates thermique de demi-expansion des feuilles</t>
+  </si>
+  <si>
+    <t>LAI_c</t>
+  </si>
+  <si>
+    <t>Valeur de l'asymptote de la fonction de la durée de vie des feuilles en fonction du rang sur la tige</t>
+  </si>
+  <si>
+    <t>LAI_d</t>
+  </si>
+  <si>
+    <t>PotentialLeafDuration</t>
+  </si>
+  <si>
+    <t>Valeur du maximum de la fonction de la durée de vie des feuilles en fonction du rang sur la tige</t>
+  </si>
+  <si>
+    <t>Thermal time between expansion and senescence</t>
+  </si>
+  <si>
+    <t>LAI_e</t>
+  </si>
+  <si>
+    <t>Abscisse du maximum de la fonction de la durée de vie des feuilles (relatif à la position de la plus grande feuille)</t>
+  </si>
+  <si>
+    <t>LAI_f</t>
+  </si>
+  <si>
+    <t>Valeur de l'amplitude de la fonction de la durée de vie des feuilles en fonction du rang sur la tige</t>
+  </si>
+  <si>
+    <t>LAI_Kei</t>
+  </si>
+  <si>
+    <t>Pente de la logistique représentant l'expansion et la senescence foliaire</t>
+  </si>
+  <si>
+    <t>Eb_0</t>
+  </si>
+  <si>
+    <t>Valeur initiale (0-300°Cj) de l'efficience biologique potentielle</t>
+  </si>
+  <si>
+    <t>g/m2/MJ</t>
+  </si>
+  <si>
+    <t>Eb_c</t>
+  </si>
+  <si>
+    <t>Pente de la décroissance de l'efficience biologique potentielle en fin de cycle (M0 - M3)</t>
+  </si>
+  <si>
+    <t>Eb_fin</t>
+  </si>
+  <si>
+    <t>Valeur de l'efficience biologique potentielle en fin de cycle (M3)</t>
+  </si>
+  <si>
+    <t>Eb_max</t>
+  </si>
+  <si>
+    <t>Valeur du plateau d'efficience biologique potentielle (F1-M0)</t>
+  </si>
+  <si>
+    <t>Tmax_PHS</t>
+  </si>
+  <si>
+    <t>Température maximale pour la réponse de la capacité photosynthétique</t>
+  </si>
+  <si>
+    <t>Topt1_PHS</t>
+  </si>
+  <si>
+    <t>Température optimale minimale pour la réponse de la capacité photosynthétique</t>
+  </si>
+  <si>
+    <t>Topt2_PHS</t>
+  </si>
+  <si>
+    <t>Température optimale maximale pour la réponse de la capacité photosynthétique</t>
+  </si>
+  <si>
+    <t>a_Pho</t>
+  </si>
+  <si>
+    <t>Décalage entre le seuil de réponse de la transpiration et celui de la photosynthèse</t>
+  </si>
+  <si>
+    <t>date_TT_F1M0</t>
+  </si>
+  <si>
+    <t>Durée de la phase de floraison utilisée dans le calcul d'indicateurs</t>
+  </si>
+  <si>
+    <t>AA_a</t>
+  </si>
+  <si>
+    <t>Ajustement du transport actif de nitrate dans la plante</t>
+  </si>
+  <si>
+    <t>EXPERT_Plante</t>
+  </si>
+  <si>
+    <t>PNCc_a</t>
+  </si>
+  <si>
+    <t>Teneur en azote critique de la biomasse aerienne au seuil de biomasse juvénile</t>
+  </si>
+  <si>
+    <t>[@Debaeke2012a]</t>
+  </si>
+  <si>
+    <t>PNCc_b</t>
+  </si>
+  <si>
+    <t>Décroissance de la courbe de dilution pour la teneur en azote critique</t>
+  </si>
+  <si>
+    <t>PNCm_a</t>
+  </si>
+  <si>
+    <t>Teneur en azote maximale de la biomasse aerienne au seuil de biomasse juvénile</t>
+  </si>
+  <si>
+    <t>PNCm_b</t>
+  </si>
+  <si>
+    <t>Décroissance de la courbe de dilution pour la teneur en azote maximale</t>
+  </si>
+  <si>
+    <t>TDMc_seuil</t>
+  </si>
+  <si>
+    <t>Seuil de biomasse aerienne au stade juvénile considéré pour la courbe de dilution d'azote critique</t>
+  </si>
+  <si>
+    <t>g/m2</t>
+  </si>
+  <si>
+    <t>TDMm_seuil</t>
+  </si>
+  <si>
+    <t>Seuil de biomasse aerienne au stade juvénile considéré pour la courbe de dilution d'azote maximal</t>
+  </si>
+  <si>
+    <t>INNseuil</t>
+  </si>
+  <si>
+    <t>Indice de nutrition azoté minimum considéré dans la réponse de la croissance foliaire</t>
+  </si>
+  <si>
+    <t>[@Brisson2008]</t>
+  </si>
+  <si>
+    <t>FNLEm</t>
+  </si>
+  <si>
+    <t>Valeur minimale de la fonction de réponse de la croissance foliaire à l'azote</t>
+  </si>
+  <si>
+    <t>VitCroiRac</t>
+  </si>
+  <si>
+    <t>Vitesse de croissance racinaire</t>
+  </si>
+  <si>
+    <t>mm/°Cd</t>
+  </si>
+  <si>
+    <t>EXPERT_SimuInit</t>
+  </si>
+  <si>
+    <t>SeuilETRETM</t>
+  </si>
+  <si>
+    <t>Seuil de ratio ETR/ETM considéré dans le calcul d'indicateur de contrainte hydrique</t>
+  </si>
+  <si>
+    <t>Kc</t>
+  </si>
+  <si>
+    <t>Coefficient cultural utilisé pour calculer l'évapotranspiration potentielle</t>
+  </si>
+  <si>
+    <t>dHE</t>
+  </si>
+  <si>
+    <t>ElongationRate</t>
+  </si>
+  <si>
+    <t>Réciproque de la vitesse d'élongation de l'hypocotyle</t>
+  </si>
+  <si>
+    <t>Reciprocal of hypocotyl elongation rate</t>
+  </si>
+  <si>
+    <t>°Cd/mm</t>
+  </si>
+  <si>
     <t>[@Villalobos1996]</t>
-  </si>
-  <si>
-    <t>Phy1</t>
-  </si>
-  <si>
-    <t>Phyllotherm_1</t>
-  </si>
-  <si>
-    <t>Phyllotherme pour les 6 premières feuilles</t>
-  </si>
-  <si>
-    <t>Phyllotherm (leaf &lt;= 6)</t>
-  </si>
-  <si>
-    <t>[@Rey2003]</t>
-  </si>
-  <si>
-    <t>Phy2</t>
-  </si>
-  <si>
-    <t>Phyllotherm_7</t>
-  </si>
-  <si>
-    <t>Phyllotherme pour les feuilles au dela du 6eme rang</t>
-  </si>
-  <si>
-    <t>Phyllotherm (leaf &gt; 7)</t>
-  </si>
-  <si>
-    <t>zRac_max</t>
-  </si>
-  <si>
-    <t>Profondeur d'enracinement maximale de l'espèce</t>
-  </si>
-  <si>
-    <t>[@Casadebaig2008b]</t>
-  </si>
-  <si>
-    <t>AP_a</t>
-  </si>
-  <si>
-    <t>Ajustement de l'effet de la contrainte hydrique sur la phénologie</t>
-  </si>
-  <si>
-    <t>LAI_a</t>
-  </si>
-  <si>
-    <t>Date thermique de fin d'expansion de la troisième paire de feuilles</t>
-  </si>
-  <si>
-    <t>LAI_b</t>
-  </si>
-  <si>
-    <t>Ajustement du calcul des dates thermique de demi-expansion des feuilles</t>
-  </si>
-  <si>
-    <t>LAI_c</t>
-  </si>
-  <si>
-    <t>Valeur de l'asymptote de la fonction de la durée de vie des feuilles en fonction du rang sur la tige</t>
-  </si>
-  <si>
-    <t>LAI_d</t>
-  </si>
-  <si>
-    <t>PotentialLeafDuration</t>
-  </si>
-  <si>
-    <t>Valeur du maximum de la fonction de la durée de vie des feuilles en fonction du rang sur la tige</t>
-  </si>
-  <si>
-    <t>Thermal time between expansion and senescence</t>
-  </si>
-  <si>
-    <t>LAI_e</t>
-  </si>
-  <si>
-    <t>Abscisse du maximum de la fonction de la durée de vie des feuilles (relatif à la position de la plus grande feuille)</t>
-  </si>
-  <si>
-    <t>LAI_f</t>
-  </si>
-  <si>
-    <t>Valeur de l'amplitude de la fonction de la durée de vie des feuilles en fonction du rang sur la tige</t>
-  </si>
-  <si>
-    <t>LAI_Kei</t>
-  </si>
-  <si>
-    <t>Pente de la logistique représentant l'expansion et la senescence foliaire</t>
-  </si>
-  <si>
-    <t>Eb_0</t>
-  </si>
-  <si>
-    <t>Valeur initiale (0-300°Cj) de l'efficience biologique potentielle</t>
-  </si>
-  <si>
-    <t>g/m2/MJ</t>
-  </si>
-  <si>
-    <t>Eb_c</t>
-  </si>
-  <si>
-    <t>Pente de la décroissance de l'efficience biologique potentielle en fin de cycle (M0 - M3)</t>
-  </si>
-  <si>
-    <t>Eb_fin</t>
-  </si>
-  <si>
-    <t>Valeur de l'efficience biologique potentielle en fin de cycle (M3)</t>
-  </si>
-  <si>
-    <t>Eb_max</t>
-  </si>
-  <si>
-    <t>Valeur du plateau d'efficience biologique potentielle (F1-M0)</t>
-  </si>
-  <si>
-    <t>Tmax_PHS</t>
-  </si>
-  <si>
-    <t>Température maximale pour la réponse de la capacité photosynthétique</t>
-  </si>
-  <si>
-    <t>Topt1_PHS</t>
-  </si>
-  <si>
-    <t>Température optimale minimale pour la réponse de la capacité photosynthétique</t>
-  </si>
-  <si>
-    <t>Topt2_PHS</t>
-  </si>
-  <si>
-    <t>Température optimale maximale pour la réponse de la capacité photosynthétique</t>
-  </si>
-  <si>
-    <t>a_Pho</t>
-  </si>
-  <si>
-    <t>Décalage entre le seuil de réponse de la transpiration et celui de la photosynthèse</t>
-  </si>
-  <si>
-    <t>date_TT_F1M0</t>
-  </si>
-  <si>
-    <t>Durée de la phase de floraison utilisée dans le calcul d'indicateurs</t>
-  </si>
-  <si>
-    <t>AA_a</t>
-  </si>
-  <si>
-    <t>Ajustement du transport actif de nitrate dans la plante</t>
-  </si>
-  <si>
-    <t>EXPERT_Plante</t>
-  </si>
-  <si>
-    <t>PNCc_a</t>
-  </si>
-  <si>
-    <t>Teneur en azote critique de la biomasse aerienne au seuil de biomasse juvénile</t>
-  </si>
-  <si>
-    <t>[@Debaeke2012a]</t>
-  </si>
-  <si>
-    <t>PNCc_b</t>
-  </si>
-  <si>
-    <t>Décroissance de la courbe de dilution pour la teneur en azote critique</t>
-  </si>
-  <si>
-    <t>PNCm_a</t>
-  </si>
-  <si>
-    <t>Teneur en azote maximale de la biomasse aerienne au seuil de biomasse juvénile</t>
-  </si>
-  <si>
-    <t>PNCm_b</t>
-  </si>
-  <si>
-    <t>Décroissance de la courbe de dilution pour la teneur en azote maximale</t>
-  </si>
-  <si>
-    <t>TDMc_seuil</t>
-  </si>
-  <si>
-    <t>Seuil de biomasse aerienne au stade juvénile considéré pour la courbe de dilution d'azote critique</t>
-  </si>
-  <si>
-    <t>g/m2</t>
-  </si>
-  <si>
-    <t>TDMm_seuil</t>
-  </si>
-  <si>
-    <t>Seuil de biomasse aerienne au stade juvénile considéré pour la courbe de dilution d'azote maximal</t>
-  </si>
-  <si>
-    <t>INNseuil</t>
-  </si>
-  <si>
-    <t>Indice de nutrition azoté minimum considéré dans la réponse de la croissance foliaire</t>
-  </si>
-  <si>
-    <t>[@Brisson2008]</t>
-  </si>
-  <si>
-    <t>FNLEm</t>
-  </si>
-  <si>
-    <t>Valeur minimale de la fonction de réponse de la croissance foliaire à l'azote</t>
-  </si>
-  <si>
-    <t>VitCroiRac</t>
-  </si>
-  <si>
-    <t>Vitesse de croissance racinaire</t>
-  </si>
-  <si>
-    <t>mm/°Cd</t>
-  </si>
-  <si>
-    <t>EXPERT_SimuInit</t>
-  </si>
-  <si>
-    <t>SeuilETRETM</t>
-  </si>
-  <si>
-    <t>Seuil de ratio ETR/ETM considéré dans le calcul d'indicateur de contrainte hydrique</t>
-  </si>
-  <si>
-    <t>Kc</t>
-  </si>
-  <si>
-    <t>Coefficient cultural utilisé pour calculer l'évapotranspiration potentielle</t>
-  </si>
-  <si>
-    <t>dHE</t>
-  </si>
-  <si>
-    <t>ElongationRate</t>
-  </si>
-  <si>
-    <t>Réciproque de la vitesse d'élongation de l'hypocotyle</t>
-  </si>
-  <si>
-    <t>Reciprocal of hypocotyl elongation rate</t>
-  </si>
-  <si>
-    <t>°Cd/mm</t>
   </si>
   <si>
     <t>Simulation</t>
@@ -2022,6 +2027,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
+    <tabColor rgb="FFFFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:E6"/>
@@ -2154,13 +2160,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
+  <sheetPr filterMode="true">
+    <tabColor rgb="FFFFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="1:102"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A67" activeCellId="0" sqref="A67"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M92" activeCellId="0" sqref="M92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.15"/>
@@ -2235,6 +2242,9 @@
       <c r="Q1" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="R1" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="AMJ1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2245,43 +2255,46 @@
         <v>2</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N2" s="0" t="n">
         <v>482</v>
       </c>
       <c r="P2" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R2" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2292,42 +2305,45 @@
         <v>2</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F3" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="M3" s="0" t="s">
         <v>49</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="J3" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="K3" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>48</v>
       </c>
       <c r="N3" s="0" t="n">
         <v>836</v>
       </c>
       <c r="P3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R3" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2339,43 +2355,46 @@
         <v>2</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N4" s="0" t="n">
         <v>1083</v>
       </c>
       <c r="P4" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="R4" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2386,37 +2405,37 @@
         <v>2</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N5" s="0" t="n">
         <v>1673</v>
@@ -2424,8 +2443,11 @@
       <c r="P5" s="0" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="R5" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
         <v>5</v>
       </c>
@@ -2433,37 +2455,37 @@
         <v>2</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N6" s="0" t="n">
         <v>29</v>
@@ -2471,8 +2493,11 @@
       <c r="P6" s="0" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="R6" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
         <v>6</v>
       </c>
@@ -2480,37 +2505,37 @@
         <v>2</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F7" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="L7" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="G7" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="H7" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="I7" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="J7" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="K7" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="M7" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N7" s="0" t="n">
         <v>17</v>
@@ -2518,8 +2543,11 @@
       <c r="P7" s="0" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="R7" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
         <v>7</v>
       </c>
@@ -2527,37 +2555,37 @@
         <v>2</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N8" s="0" t="n">
         <v>448</v>
@@ -2565,8 +2593,11 @@
       <c r="P8" s="0" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="R8" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
         <v>8</v>
       </c>
@@ -2574,34 +2605,34 @@
         <v>2</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N9" s="0" t="n">
         <v>0.88</v>
@@ -2609,8 +2640,11 @@
       <c r="P9" s="0" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="R9" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
         <v>9</v>
       </c>
@@ -2618,34 +2652,34 @@
         <v>2</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F10" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="I10" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="K10" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="L10" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="G10" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="I10" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="K10" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>86</v>
-      </c>
       <c r="M10" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="N10" s="0" t="n">
         <v>-4.42</v>
@@ -2653,8 +2687,11 @@
       <c r="P10" s="0" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="R10" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
         <v>10</v>
       </c>
@@ -2662,34 +2699,34 @@
         <v>2</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F11" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="I11" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="J11" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="K11" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="M11" s="0" t="s">
         <v>93</v>
-      </c>
-      <c r="G11" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="H11" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="I11" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="J11" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="K11" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="M11" s="0" t="s">
-        <v>92</v>
       </c>
       <c r="N11" s="0" t="n">
         <v>-9.3</v>
@@ -2697,8 +2734,11 @@
       <c r="P11" s="0" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="R11" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
         <v>11</v>
       </c>
@@ -2706,32 +2746,32 @@
         <v>2</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L12" s="3"/>
       <c r="M12" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N12" s="0" t="n">
         <v>1</v>
@@ -2739,8 +2779,11 @@
       <c r="P12" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="R12" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
         <v>12</v>
       </c>
@@ -2748,34 +2791,34 @@
         <v>2</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L13" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M13" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N13" s="0" t="n">
         <v>0.398</v>
@@ -2783,8 +2826,11 @@
       <c r="P13" s="0" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="R13" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
         <v>13</v>
       </c>
@@ -2792,34 +2838,34 @@
         <v>2</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F14" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="I14" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="J14" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="K14" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="M14" s="0" t="s">
         <v>108</v>
-      </c>
-      <c r="G14" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="H14" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="I14" s="0" t="s">
-        <v>110</v>
-      </c>
-      <c r="J14" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="K14" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="M14" s="0" t="s">
-        <v>107</v>
       </c>
       <c r="N14" s="0" t="n">
         <v>55.4</v>
@@ -2827,72 +2873,78 @@
       <c r="P14" s="0" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="R14" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
         <v>14</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="P15" s="0" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="R15" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
         <v>15</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K16" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L16" s="3" t="s">
         <v>23</v>
       </c>
       <c r="M16" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N16" s="0" t="n">
         <v>1800</v>
@@ -2900,37 +2952,40 @@
       <c r="P16" s="0" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="R16" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
         <v>16</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="N17" s="0" t="n">
         <v>19.69</v>
@@ -2938,37 +2993,40 @@
       <c r="P17" s="0" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="R17" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
         <v>17</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F18" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="H18" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="I18" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="J18" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="K18" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="L18" s="3" t="s">
         <v>134</v>
-      </c>
-      <c r="G18" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="H18" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="I18" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="J18" s="0" t="s">
-        <v>137</v>
-      </c>
-      <c r="K18" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>133</v>
       </c>
       <c r="N18" s="0" t="n">
         <v>9.69</v>
@@ -2976,37 +3034,40 @@
       <c r="P18" s="0" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="R18" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
         <v>18</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="N19" s="0" t="n">
         <v>19.69</v>
@@ -3014,37 +3075,40 @@
       <c r="P19" s="0" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="R19" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
         <v>19</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K20" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="N20" s="0" t="n">
         <v>9.69</v>
@@ -3052,37 +3116,40 @@
       <c r="P20" s="0" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="R20" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
         <v>20</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K21" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="N21" s="0" t="n">
         <v>1.5</v>
@@ -3090,37 +3157,40 @@
       <c r="P21" s="0" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="R21" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
         <v>21</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F22" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="H22" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="I22" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="J22" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="K22" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="L22" s="3" t="s">
         <v>156</v>
-      </c>
-      <c r="G22" s="0" t="s">
-        <v>157</v>
-      </c>
-      <c r="H22" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="I22" s="0" t="s">
-        <v>152</v>
-      </c>
-      <c r="J22" s="0" t="s">
-        <v>159</v>
-      </c>
-      <c r="K22" s="0" t="s">
-        <v>160</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>155</v>
       </c>
       <c r="N22" s="0" t="n">
         <v>1.5</v>
@@ -3128,37 +3198,40 @@
       <c r="P22" s="0" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="R22" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
         <v>22</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K23" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="N23" s="0" t="n">
         <v>0</v>
@@ -3166,40 +3239,43 @@
       <c r="P23" s="0" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="R23" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
         <v>23</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K24" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M24" s="0" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="N24" s="0" t="n">
         <v>0.5</v>
@@ -3207,28 +3283,31 @@
       <c r="P24" s="0" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="R24" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="n">
         <v>24</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F25" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="J25" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="M25" s="0" t="s">
         <v>176</v>
-      </c>
-      <c r="J25" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="L25" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="M25" s="0" t="s">
-        <v>175</v>
       </c>
       <c r="N25" s="0" t="n">
         <v>0.2</v>
@@ -3236,37 +3315,40 @@
       <c r="P25" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="R25" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="n">
         <v>25</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I26" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K26" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N26" s="5" t="n">
         <v>41380</v>
@@ -3274,42 +3356,48 @@
       <c r="P26" s="0" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="R26" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="n">
         <v>26</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F27" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="G27" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="H27" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="I27" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="J27" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="K27" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="L27" s="3" t="s">
         <v>187</v>
-      </c>
-      <c r="G27" s="0" t="s">
-        <v>188</v>
-      </c>
-      <c r="H27" s="0" t="s">
-        <v>189</v>
-      </c>
-      <c r="I27" s="0" t="s">
-        <v>190</v>
-      </c>
-      <c r="J27" s="0" t="s">
-        <v>191</v>
-      </c>
-      <c r="K27" s="0" t="s">
-        <v>192</v>
-      </c>
-      <c r="L27" s="3" t="s">
-        <v>186</v>
       </c>
       <c r="N27" s="5" t="n">
         <v>41509</v>
       </c>
       <c r="P27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R27" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3318,31 +3406,31 @@
         <v>27</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="I28" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="J28" s="0" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K28" s="0" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L28" s="3" t="s">
         <v>23</v>
@@ -3353,37 +3441,40 @@
       <c r="P28" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="R28" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="n">
         <v>28</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I29" s="0" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="J29" s="0" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="K29" s="0" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="N29" s="4" t="n">
         <v>6.8</v>
@@ -3391,37 +3482,40 @@
       <c r="P29" s="0" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="R29" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="n">
         <v>29</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="I30" s="0" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="J30" s="0" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K30" s="0" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>41275</v>
@@ -3429,37 +3523,40 @@
       <c r="P30" s="0" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="R30" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="n">
         <v>30</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="I31" s="0" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="J31" s="0" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K31" s="0" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N31" s="4" t="n">
         <v>0</v>
@@ -3467,37 +3564,40 @@
       <c r="P31" s="0" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="R31" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="n">
         <v>31</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I32" s="0" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="J32" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K32" s="0" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>41275</v>
@@ -3505,37 +3605,40 @@
       <c r="P32" s="0" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="R32" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="n">
         <v>32</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="I33" s="0" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="J33" s="0" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K33" s="0" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N33" s="4" t="n">
         <v>0</v>
@@ -3543,37 +3646,40 @@
       <c r="P33" s="0" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="R33" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="n">
         <v>33</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="I34" s="0" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="J34" s="0" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K34" s="0" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>41275</v>
@@ -3581,37 +3687,40 @@
       <c r="P34" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="R34" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="n">
         <v>34</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="I35" s="0" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="J35" s="0" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="K35" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L35" s="3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N35" s="4" t="n">
         <v>0</v>
@@ -3619,37 +3728,40 @@
       <c r="P35" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="R35" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="n">
         <v>35</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="I36" s="0" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="J36" s="0" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K36" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>41275</v>
@@ -3657,37 +3769,40 @@
       <c r="P36" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="R36" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="n">
         <v>36</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="I37" s="0" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="J37" s="0" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="K37" s="0" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N37" s="4" t="n">
         <v>0</v>
@@ -3695,37 +3810,40 @@
       <c r="P37" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="R37" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="n">
         <v>37</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="I38" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="J38" s="0" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="K38" s="0" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L38" s="3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>41275</v>
@@ -3733,34 +3851,37 @@
       <c r="P38" s="0" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" customFormat="false" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="R38" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="n">
         <v>38</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="I39" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="J39" s="0" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="K39" s="0" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L39" s="3" t="s">
         <v>23</v>
@@ -3771,37 +3892,40 @@
       <c r="P39" s="0" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" customFormat="false" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="R39" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="n">
         <v>39</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I40" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="J40" s="0" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="K40" s="0" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L40" s="3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>41275</v>
@@ -3809,34 +3933,37 @@
       <c r="P40" s="0" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="R40" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="n">
         <v>40</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H41" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="I41" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="J41" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K41" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L41" s="3" t="s">
         <v>23</v>
@@ -3847,37 +3974,40 @@
       <c r="P41" s="0" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" customFormat="false" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="R41" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="n">
         <v>41</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H42" s="0" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="I42" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="J42" s="0" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="K42" s="0" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="L42" s="3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>41275</v>
@@ -3885,34 +4015,37 @@
       <c r="P42" s="0" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="R42" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="n">
         <v>42</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H43" s="0" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="I43" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="J43" s="0" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="K43" s="0" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L43" s="3" t="s">
         <v>23</v>
@@ -3923,37 +4056,40 @@
       <c r="P43" s="0" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" customFormat="false" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="R43" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="n">
         <v>43</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H44" s="0" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="I44" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="J44" s="0" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="K44" s="0" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L44" s="3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>41275</v>
@@ -3961,34 +4097,37 @@
       <c r="P44" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" customFormat="false" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="R44" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="n">
         <v>44</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H45" s="0" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="I45" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="J45" s="0" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K45" s="0" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L45" s="3" t="s">
         <v>23</v>
@@ -3999,37 +4138,40 @@
       <c r="P45" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" customFormat="false" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="R45" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="n">
         <v>45</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H46" s="0" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="I46" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="J46" s="0" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="K46" s="0" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="L46" s="3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>41275</v>
@@ -4037,34 +4179,37 @@
       <c r="P46" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="R46" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="n">
         <v>46</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H47" s="0" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="I47" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="J47" s="0" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K47" s="0" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="L47" s="3" t="s">
         <v>23</v>
@@ -4075,37 +4220,40 @@
       <c r="P47" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="R47" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="n">
         <v>47</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="G48" s="0" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H48" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="I48" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="J48" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="K48" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L48" s="3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>41275</v>
@@ -4113,34 +4261,37 @@
       <c r="P48" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="R48" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="n">
         <v>48</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H49" s="0" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="I49" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="J49" s="0" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="K49" s="0" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="L49" s="3" t="s">
         <v>23</v>
@@ -4151,219 +4302,243 @@
       <c r="P49" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="R49" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="n">
         <v>49</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="G50" s="0" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H50" s="0" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="J50" s="0" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="L50" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="P50" s="0" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="R50" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="n">
         <v>50</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H51" s="0" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="J51" s="0" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="L51" s="0" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="P51" s="0" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="R51" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="n">
         <v>51</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H52" s="0" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="J52" s="0" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L52" s="3" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="P52" s="0" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="R52" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="n">
         <v>52</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F53" s="0" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H53" s="0" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="J53" s="0" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="L53" s="3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="P53" s="0" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="R53" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="n">
         <v>53</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F54" s="0" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="G54" s="0" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H54" s="0" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="J54" s="0" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L54" s="3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="P54" s="0" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="R54" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="n">
         <v>54</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F55" s="0" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="G55" s="0" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H55" s="0" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="J55" s="0" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="L55" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="P55" s="0" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="R55" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="n">
         <v>55</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F56" s="0" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="G56" s="0" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H56" s="0" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="J56" s="0" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="L56" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="P56" s="0" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="R56" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="n">
         <v>56</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F57" s="0" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="J57" s="0" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L57" s="3" t="s">
         <v>23</v>
@@ -4374,34 +4549,40 @@
       <c r="P57" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="R57" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="n">
         <v>57</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F58" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="J58" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>9</v>
       </c>
       <c r="M58" s="0" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="N58" s="4" t="n">
         <v>4.8</v>
       </c>
       <c r="P58" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="R58" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4409,31 +4590,31 @@
         <v>58</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F59" s="0" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="I59" s="0" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="J59" s="0" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K59" s="0" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="L59" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M59" s="0" t="s">
-        <v>342</v>
+        <v>108</v>
       </c>
       <c r="N59" s="4" t="n">
         <v>86.2</v>
@@ -4441,19 +4622,22 @@
       <c r="P59" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" customFormat="false" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="R59" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="n">
         <v>59</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F60" s="0" t="s">
         <v>343</v>
@@ -4468,7 +4652,7 @@
         <v>346</v>
       </c>
       <c r="L60" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M60" s="0" t="s">
         <v>347</v>
@@ -4479,19 +4663,22 @@
       <c r="P60" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="R60" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="13.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="n">
         <v>60</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F61" s="0" t="s">
         <v>348</v>
@@ -4506,7 +4693,7 @@
         <v>351</v>
       </c>
       <c r="L61" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M61" s="0" t="s">
         <v>347</v>
@@ -4517,16 +4704,19 @@
       <c r="P61" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="R61" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="13.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="n">
         <v>61</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F62" s="0" t="s">
         <v>352</v>
@@ -4546,16 +4736,19 @@
       <c r="P62" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="R62" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="13.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="n">
         <v>62</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F63" s="0" t="s">
         <v>355</v>
@@ -4564,7 +4757,7 @@
         <v>356</v>
       </c>
       <c r="L63" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M63" s="0" t="s">
         <v>354</v>
@@ -4575,16 +4768,19 @@
       <c r="P63" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="R63" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="13.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="n">
         <v>63</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F64" s="0" t="s">
         <v>357</v>
@@ -4593,7 +4789,7 @@
         <v>358</v>
       </c>
       <c r="L64" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M64" s="0" t="s">
         <v>354</v>
@@ -4604,16 +4800,19 @@
       <c r="P64" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="R64" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="13.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="n">
         <v>64</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F65" s="0" t="s">
         <v>359</v>
@@ -4622,7 +4821,7 @@
         <v>360</v>
       </c>
       <c r="L65" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M65" s="0" t="s">
         <v>354</v>
@@ -4633,16 +4832,19 @@
       <c r="P65" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="R65" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="13.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="n">
         <v>65</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F66" s="0" t="s">
         <v>361</v>
@@ -4651,7 +4853,7 @@
         <v>362</v>
       </c>
       <c r="L66" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M66" s="0" t="s">
         <v>354</v>
@@ -4662,19 +4864,22 @@
       <c r="P66" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="R66" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="13.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="n">
         <v>66</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E67" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F67" s="0" t="s">
         <v>363</v>
@@ -4689,7 +4894,7 @@
         <v>366</v>
       </c>
       <c r="L67" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M67" s="0" t="s">
         <v>354</v>
@@ -4700,16 +4905,19 @@
       <c r="P67" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="R67" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="13.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="n">
         <v>67</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F68" s="0" t="s">
         <v>367</v>
@@ -4718,7 +4926,7 @@
         <v>368</v>
       </c>
       <c r="L68" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M68" s="0" t="s">
         <v>354</v>
@@ -4729,16 +4937,19 @@
       <c r="P68" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="R68" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="13.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="n">
         <v>68</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F69" s="0" t="s">
         <v>369</v>
@@ -4747,7 +4958,7 @@
         <v>370</v>
       </c>
       <c r="L69" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M69" s="0" t="s">
         <v>354</v>
@@ -4758,16 +4969,19 @@
       <c r="P69" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="R69" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="13.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="n">
         <v>69</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F70" s="0" t="s">
         <v>371</v>
@@ -4776,7 +4990,7 @@
         <v>372</v>
       </c>
       <c r="L70" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M70" s="0" t="s">
         <v>354</v>
@@ -4787,16 +5001,19 @@
       <c r="P70" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="R70" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="13.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="n">
         <v>70</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F71" s="0" t="s">
         <v>373</v>
@@ -4808,7 +5025,7 @@
         <v>375</v>
       </c>
       <c r="M71" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N71" s="4" t="n">
         <v>1</v>
@@ -4816,16 +5033,19 @@
       <c r="P71" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="R71" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="13.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="n">
         <v>71</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F72" s="0" t="s">
         <v>376</v>
@@ -4837,7 +5057,7 @@
         <v>375</v>
       </c>
       <c r="M72" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N72" s="4" t="n">
         <v>4.5</v>
@@ -4845,16 +5065,19 @@
       <c r="P72" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="R72" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="13.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="n">
         <v>72</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F73" s="0" t="s">
         <v>378</v>
@@ -4866,7 +5089,7 @@
         <v>375</v>
       </c>
       <c r="M73" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N73" s="4" t="n">
         <v>0.015</v>
@@ -4874,16 +5097,19 @@
       <c r="P73" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="R73" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="13.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="n">
         <v>73</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F74" s="0" t="s">
         <v>380</v>
@@ -4895,7 +5121,7 @@
         <v>375</v>
       </c>
       <c r="M74" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N74" s="4" t="n">
         <v>3</v>
@@ -4903,16 +5129,19 @@
       <c r="P74" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="R74" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="13.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="n">
         <v>74</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F75" s="0" t="s">
         <v>382</v>
@@ -4924,7 +5153,7 @@
         <v>9</v>
       </c>
       <c r="M75" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N75" s="4" t="n">
         <v>37</v>
@@ -4932,16 +5161,19 @@
       <c r="P75" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="R75" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="13.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="n">
         <v>75</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F76" s="0" t="s">
         <v>384</v>
@@ -4954,7 +5186,7 @@
         <v>9</v>
       </c>
       <c r="M76" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N76" s="4" t="n">
         <v>20</v>
@@ -4962,16 +5194,19 @@
       <c r="P76" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="R76" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="13.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="n">
         <v>76</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F77" s="0" t="s">
         <v>386</v>
@@ -4984,7 +5219,7 @@
         <v>9</v>
       </c>
       <c r="M77" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N77" s="4" t="n">
         <v>28</v>
@@ -4992,16 +5227,19 @@
       <c r="P77" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="R77" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="13.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="n">
         <v>77</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F78" s="0" t="s">
         <v>388</v>
@@ -5010,7 +5248,7 @@
         <v>389</v>
       </c>
       <c r="L78" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M78" s="0" t="s">
         <v>354</v>
@@ -5021,16 +5259,19 @@
       <c r="P78" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="R78" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="13.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="n">
         <v>78</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F79" s="0" t="s">
         <v>390</v>
@@ -5039,7 +5280,7 @@
         <v>391</v>
       </c>
       <c r="L79" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M79" s="0" t="s">
         <v>354</v>
@@ -5050,16 +5291,19 @@
       <c r="P79" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="R79" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="13.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="n">
         <v>79</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F80" s="0" t="s">
         <v>392</v>
@@ -5068,7 +5312,7 @@
         <v>393</v>
       </c>
       <c r="L80" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M80" s="0" t="s">
         <v>354</v>
@@ -5079,13 +5323,16 @@
       <c r="P80" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="R80" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="13.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="n">
         <v>80</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D81" s="0" t="s">
         <v>394</v>
@@ -5097,7 +5344,7 @@
         <v>396</v>
       </c>
       <c r="L81" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M81" s="0" t="s">
         <v>397</v>
@@ -5108,13 +5355,16 @@
       <c r="P81" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="R81" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="13.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="n">
         <v>81</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D82" s="0" t="s">
         <v>394</v>
@@ -5126,7 +5376,7 @@
         <v>399</v>
       </c>
       <c r="L82" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M82" s="0" t="s">
         <v>397</v>
@@ -5137,13 +5387,16 @@
       <c r="P82" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="R82" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="13.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="n">
         <v>82</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D83" s="0" t="s">
         <v>394</v>
@@ -5155,7 +5408,7 @@
         <v>401</v>
       </c>
       <c r="L83" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M83" s="0" t="s">
         <v>397</v>
@@ -5166,13 +5419,16 @@
       <c r="P83" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="R83" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="13.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="n">
         <v>83</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D84" s="0" t="s">
         <v>394</v>
@@ -5184,7 +5440,7 @@
         <v>403</v>
       </c>
       <c r="L84" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M84" s="0" t="s">
         <v>397</v>
@@ -5195,13 +5451,16 @@
       <c r="P84" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="R84" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="13.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="n">
         <v>84</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D85" s="0" t="s">
         <v>394</v>
@@ -5224,13 +5483,16 @@
       <c r="P85" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="R85" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="13.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="n">
         <v>85</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D86" s="0" t="s">
         <v>394</v>
@@ -5253,13 +5515,16 @@
       <c r="P86" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="R86" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="13.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="n">
         <v>86</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D87" s="0" t="s">
         <v>394</v>
@@ -5271,7 +5536,7 @@
         <v>410</v>
       </c>
       <c r="L87" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M87" s="0" t="s">
         <v>411</v>
@@ -5282,13 +5547,16 @@
       <c r="P87" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="R87" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="13.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="n">
         <v>87</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D88" s="0" t="s">
         <v>394</v>
@@ -5300,7 +5568,7 @@
         <v>413</v>
       </c>
       <c r="L88" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M88" s="0" t="s">
         <v>411</v>
@@ -5311,13 +5579,16 @@
       <c r="P88" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="R88" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="13.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="n">
         <v>88</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D89" s="0" t="s">
         <v>394</v>
@@ -5332,7 +5603,7 @@
         <v>416</v>
       </c>
       <c r="M89" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N89" s="4" t="n">
         <v>0.7</v>
@@ -5340,13 +5611,16 @@
       <c r="P89" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="R89" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="13.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="n">
         <v>89</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D90" s="0" t="s">
         <v>417</v>
@@ -5358,7 +5632,7 @@
         <v>419</v>
       </c>
       <c r="L90" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N90" s="4" t="n">
         <v>0.6</v>
@@ -5366,13 +5640,16 @@
       <c r="P90" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="R90" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="13.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="n">
         <v>90</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D91" s="0" t="s">
         <v>394</v>
@@ -5384,16 +5661,19 @@
         <v>421</v>
       </c>
       <c r="L91" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M91" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N91" s="4" t="n">
         <v>1.2</v>
       </c>
       <c r="P91" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="R91" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5401,13 +5681,13 @@
         <v>91</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D92" s="0" t="s">
         <v>394</v>
       </c>
       <c r="E92" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F92" s="0" t="s">
         <v>422</v>
@@ -5425,7 +5705,7 @@
         <v>426</v>
       </c>
       <c r="M92" s="0" t="s">
-        <v>342</v>
+        <v>427</v>
       </c>
       <c r="N92" s="4" t="n">
         <v>1.19</v>
@@ -5433,188 +5713,227 @@
       <c r="P92" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="R92" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="13.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="n">
         <v>100</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D93" s="0" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="F93" s="0" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="L93" s="3"/>
       <c r="P93" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="R93" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="13.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="n">
         <v>101</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D94" s="0" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="F94" s="0" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="L94" s="3"/>
       <c r="P94" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="R94" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="13.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="n">
         <v>102</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D95" s="0" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="F95" s="0" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="L95" s="3"/>
       <c r="P95" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="R95" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="13.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="n">
         <v>103</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D96" s="0" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="F96" s="0" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="L96" s="3"/>
       <c r="P96" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="R96" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="13.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="n">
         <v>104</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D97" s="0" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="F97" s="0" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="L97" s="3"/>
       <c r="P97" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="R97" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="13.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="n">
         <v>105</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D98" s="0" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="F98" s="0" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="L98" s="3"/>
       <c r="P98" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="R98" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="13.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="n">
         <v>106</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D99" s="0" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="F99" s="0" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="L99" s="3"/>
       <c r="P99" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="R99" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="13.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="n">
         <v>107</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D100" s="0" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="F100" s="0" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="L100" s="3"/>
       <c r="P100" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="R100" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="13.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="n">
         <v>108</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D101" s="0" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="F101" s="0" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="L101" s="3"/>
       <c r="P101" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R101" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="13.15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="n">
         <v>109</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D102" s="0" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="F102" s="0" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="P102" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="R102" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q102"/>
+  <autoFilter ref="A1:Q102">
+    <filterColumn colId="4">
+      <customFilters and="true">
+        <customFilter operator="equal" val="Phenology"/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -5629,6 +5948,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
+    <tabColor rgb="FFFFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:G14"/>
@@ -5672,106 +5992,106 @@
     </row>
     <row r="2" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
   </sheetData>
@@ -5788,6 +6108,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
+    <tabColor rgb="FFFFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:H23"/>
@@ -5813,10 +6134,10 @@
         <v>27</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>32</v>
@@ -5831,7 +6152,7 @@
         <v>4</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5839,19 +6160,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="G2" s="0" t="s">
         <v>9</v>
@@ -5865,19 +6186,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="G3" s="0" t="s">
         <v>9</v>
@@ -5891,19 +6212,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="G4" s="0" t="s">
         <v>9</v>
@@ -5917,13 +6238,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>14</v>
@@ -5932,7 +6253,7 @@
         <v>16</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H5" s="0" t="n">
         <v>1</v>
@@ -5943,13 +6264,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>19</v>
@@ -5969,13 +6290,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>24</v>
@@ -5995,22 +6316,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H8" s="0" t="n">
         <v>1</v>
@@ -6021,22 +6342,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H9" s="0" t="n">
         <v>1</v>
@@ -6047,22 +6368,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H10" s="0" t="n">
         <v>1</v>
@@ -6073,22 +6394,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H11" s="0" t="n">
         <v>1</v>
@@ -6099,22 +6420,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H12" s="0" t="n">
         <v>1</v>
@@ -6125,22 +6446,22 @@
         <v>12</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H13" s="0" t="n">
         <v>1</v>
@@ -6151,22 +6472,22 @@
         <v>13</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H14" s="0" t="n">
         <v>1</v>
@@ -6177,22 +6498,22 @@
         <v>14</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H15" s="0" t="n">
         <v>1</v>
@@ -6203,22 +6524,22 @@
         <v>15</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H16" s="0" t="n">
         <v>1</v>
@@ -6229,22 +6550,22 @@
         <v>16</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H17" s="0" t="n">
         <v>1</v>
@@ -6255,22 +6576,22 @@
         <v>17</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H18" s="0" t="n">
         <v>1</v>
@@ -6281,22 +6602,22 @@
         <v>18</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H19" s="0" t="n">
         <v>1</v>
@@ -6307,22 +6628,22 @@
         <v>19</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H20" s="0" t="n">
         <v>1</v>
@@ -6333,19 +6654,19 @@
         <v>20</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="G21" s="0" t="s">
         <v>406</v>
@@ -6359,22 +6680,22 @@
         <v>21</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H22" s="0" t="n">
         <v>1</v>
@@ -6385,22 +6706,22 @@
         <v>22</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H23" s="0" t="n">
         <v>1</v>
@@ -6420,6 +6741,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
+    <tabColor rgb="FFFFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:K22"/>
@@ -6447,22 +6769,22 @@
         <v>27</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>2</v>
@@ -6474,7 +6796,7 @@
         <v>4</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6482,34 +6804,34 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6517,34 +6839,34 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>26</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="J3" s="0" t="s">
         <v>23</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6552,34 +6874,34 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="J4" s="0" t="s">
         <v>23</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6587,34 +6909,34 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="J5" s="0" t="s">
         <v>23</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6622,34 +6944,34 @@
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6657,34 +6979,34 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6692,34 +7014,34 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6727,34 +7049,34 @@
         <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6762,34 +7084,34 @@
         <v>9</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6797,34 +7119,34 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6832,34 +7154,34 @@
         <v>11</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6867,34 +7189,34 @@
         <v>12</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6902,34 +7224,34 @@
         <v>13</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6937,34 +7259,34 @@
         <v>14</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6972,34 +7294,34 @@
         <v>15</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="K16" s="0" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7007,34 +7329,34 @@
         <v>16</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7042,34 +7364,34 @@
         <v>17</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="J18" s="0" t="s">
         <v>406</v>
       </c>
       <c r="K18" s="0" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7077,34 +7399,34 @@
         <v>18</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7112,34 +7434,34 @@
         <v>19</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="K20" s="0" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7147,34 +7469,34 @@
         <v>20</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="K21" s="0" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/inst/doc/files/parameterization.xlsx
+++ b/inst/doc/files/parameterization.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="240" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="232" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="climate" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,34 +15,36 @@
     <sheet name="indicators" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">parameters!$A$1:$Q$102</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">parameters!$A$1:$Q$102</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">parameters!$A$1:$Q$102</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">parameters!$A$1:$Q$102</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">parameters!$A$1:$Q$102</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">parameters!$A$1:$Q$102</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">parameters!$A$1:$Q$102</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">parameters!$A$1:$Q$102</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">parameters!$A$1:$Q$102</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">parameters!$A$1:$Q$102</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">parameters!$A$1:$Q$102</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">parameters!$A$1:$Q$102</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">parameters!$A$1:$Q$102</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">parameters!$A$1:$Q$102</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">parameters!$A$1:$Q$102</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">parameters!$A$1:$Q$102</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">parameters!$A$1:$Q$102</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">parameters!$A$1:$Q$102</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">parameters!$A$1:$Q$102</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">parameters!$A$1:$Q$102</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">parameters!$A$1:$Q$102</definedName>
+    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">parameters!$A$1:$P$102</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">parameters!$A$1:$P$102</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">parameters!$A$1:$P$102</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">parameters!$A$1:$P$102</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">parameters!$A$1:$P$102</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">parameters!$A$1:$P$102</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">parameters!$A$1:$P$102</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">parameters!$A$1:$P$102</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">parameters!$A$1:$P$102</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">parameters!$A$1:$P$102</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">parameters!$A$1:$P$102</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">parameters!$A$1:$P$102</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">parameters!$A$1:$P$102</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">parameters!$A$1:$P$102</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">parameters!$A$1:$P$102</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">parameters!$A$1:$P$102</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">parameters!$A$1:$P$102</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">parameters!$A$1:$P$102</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">parameters!$A$1:$P$102</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">parameters!$A$1:$P$102</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">parameters!$A$1:$P$102</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">parameters!$A$1:$P$102</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">parameters!$A$1:$P$102</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1188" uniqueCount="615">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1189" uniqueCount="616">
   <si>
     <t>name.rsunflo.fr</t>
   </si>
@@ -152,15 +154,15 @@
     <t>value</t>
   </si>
   <si>
-    <t>template.dev</t>
-  </si>
-  <si>
     <t>template.default</t>
   </si>
   <si>
     <t>template.gem</t>
   </si>
   <si>
+    <t>template.simple</t>
+  </si>
+  <si>
     <t>count</t>
   </si>
   <si>
@@ -405,6 +407,9 @@
   </si>
   <si>
     <t>Nom du fichier climatique</t>
+  </si>
+  <si>
+    <t>Climate file path</t>
   </si>
   <si>
     <t>AUZ_2006.txt</t>
@@ -2160,14 +2165,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="true">
+  <sheetPr filterMode="false">
     <tabColor rgb="FFFFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="1:102"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M92" activeCellId="0" sqref="M92"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N29" activeCellId="0" sqref="N29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.15"/>
@@ -2185,9 +2190,9 @@
     <col collapsed="false" hidden="false" max="12" min="12" style="0" width="21.2091836734694"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="0" width="18.9234693877551"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="0" width="12.8061224489796"/>
-    <col collapsed="false" hidden="false" max="16" min="15" style="0" width="15.8826530612245"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="13.5612244897959"/>
-    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="11.8061224489796"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="15.8826530612245"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="13.5612244897959"/>
+    <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="11.8061224489796"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2290,8 +2295,14 @@
       <c r="N2" s="0" t="n">
         <v>482</v>
       </c>
+      <c r="O2" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="P2" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="Q2" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="R2" s="0" t="n">
         <v>0</v>
@@ -2340,7 +2351,13 @@
       <c r="N3" s="0" t="n">
         <v>836</v>
       </c>
+      <c r="O3" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="P3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="0" t="n">
         <v>1</v>
       </c>
       <c r="R3" s="0" t="n">
@@ -2390,8 +2407,14 @@
       <c r="N4" s="0" t="n">
         <v>1083</v>
       </c>
+      <c r="O4" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="P4" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="Q4" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="R4" s="0" t="n">
         <v>0</v>
@@ -2440,14 +2463,20 @@
       <c r="N5" s="0" t="n">
         <v>1673</v>
       </c>
+      <c r="O5" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="P5" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="Q5" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="R5" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
         <v>5</v>
       </c>
@@ -2490,14 +2519,20 @@
       <c r="N6" s="0" t="n">
         <v>29</v>
       </c>
+      <c r="O6" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="P6" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="Q6" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="R6" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
         <v>6</v>
       </c>
@@ -2540,14 +2575,20 @@
       <c r="N7" s="0" t="n">
         <v>17</v>
       </c>
+      <c r="O7" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="P7" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="Q7" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="R7" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
         <v>7</v>
       </c>
@@ -2590,14 +2631,20 @@
       <c r="N8" s="0" t="n">
         <v>448</v>
       </c>
+      <c r="O8" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="P8" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="Q8" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="R8" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
         <v>8</v>
       </c>
@@ -2637,14 +2684,20 @@
       <c r="N9" s="0" t="n">
         <v>0.88</v>
       </c>
+      <c r="O9" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="P9" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="Q9" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="R9" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
         <v>9</v>
       </c>
@@ -2684,14 +2737,20 @@
       <c r="N10" s="0" t="n">
         <v>-4.42</v>
       </c>
+      <c r="O10" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="P10" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="Q10" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="R10" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
         <v>10</v>
       </c>
@@ -2731,14 +2790,20 @@
       <c r="N11" s="0" t="n">
         <v>-9.3</v>
       </c>
+      <c r="O11" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="P11" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="Q11" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="R11" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
         <v>11</v>
       </c>
@@ -2776,14 +2841,20 @@
       <c r="N12" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="O12" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="P12" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="Q12" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="R12" s="0" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
         <v>12</v>
       </c>
@@ -2823,14 +2894,20 @@
       <c r="N13" s="0" t="n">
         <v>0.398</v>
       </c>
+      <c r="O13" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="P13" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="Q13" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="R13" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
         <v>13</v>
       </c>
@@ -2870,14 +2947,20 @@
       <c r="N14" s="0" t="n">
         <v>55.4</v>
       </c>
+      <c r="O14" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="P14" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="Q14" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="R14" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
         <v>14</v>
       </c>
@@ -2899,20 +2982,29 @@
       <c r="J15" s="0" t="s">
         <v>120</v>
       </c>
+      <c r="K15" s="0" t="s">
+        <v>121</v>
+      </c>
       <c r="L15" s="3" t="s">
         <v>87</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
+      </c>
+      <c r="O15" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="P15" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="Q15" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="R15" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
         <v>15</v>
       </c>
@@ -2920,25 +3012,25 @@
         <v>115</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K16" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L16" s="3" t="s">
         <v>23</v>
@@ -2947,16 +3039,22 @@
         <v>49</v>
       </c>
       <c r="N16" s="0" t="n">
-        <v>1800</v>
+        <v>1000</v>
+      </c>
+      <c r="O16" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="P16" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="Q16" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="R16" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
         <v>16</v>
       </c>
@@ -2964,40 +3062,46 @@
         <v>115</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="N17" s="0" t="n">
         <v>19.69</v>
       </c>
+      <c r="O17" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="P17" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="Q17" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="R17" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
         <v>17</v>
       </c>
@@ -3005,40 +3109,46 @@
         <v>115</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F18" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="H18" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="I18" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="J18" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="K18" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="L18" s="3" t="s">
         <v>135</v>
-      </c>
-      <c r="G18" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="H18" s="0" t="s">
-        <v>137</v>
-      </c>
-      <c r="I18" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="J18" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="K18" s="0" t="s">
-        <v>139</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>134</v>
       </c>
       <c r="N18" s="0" t="n">
         <v>9.69</v>
       </c>
+      <c r="O18" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="P18" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="Q18" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="R18" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
         <v>18</v>
       </c>
@@ -3046,40 +3156,46 @@
         <v>115</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="N19" s="0" t="n">
         <v>19.69</v>
       </c>
+      <c r="O19" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="P19" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="Q19" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="R19" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
         <v>19</v>
       </c>
@@ -3087,40 +3203,46 @@
         <v>115</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K20" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="N20" s="0" t="n">
         <v>9.69</v>
       </c>
+      <c r="O20" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="P20" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="Q20" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="R20" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
         <v>20</v>
       </c>
@@ -3128,40 +3250,46 @@
         <v>115</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K21" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N21" s="0" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
+      </c>
+      <c r="O21" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="P21" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="Q21" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="R21" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
         <v>21</v>
       </c>
@@ -3169,40 +3297,46 @@
         <v>115</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F22" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="H22" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="I22" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="J22" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="K22" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="L22" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="G22" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="H22" s="0" t="s">
-        <v>159</v>
-      </c>
-      <c r="I22" s="0" t="s">
-        <v>153</v>
-      </c>
-      <c r="J22" s="0" t="s">
-        <v>160</v>
-      </c>
-      <c r="K22" s="0" t="s">
-        <v>161</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>156</v>
-      </c>
       <c r="N22" s="0" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
+      </c>
+      <c r="O22" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="P22" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="Q22" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="R22" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
         <v>22</v>
       </c>
@@ -3210,40 +3344,46 @@
         <v>115</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K23" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="N23" s="0" t="n">
-        <v>0</v>
+        <v>0.1</v>
+      </c>
+      <c r="O23" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="P23" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="Q23" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="R23" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
         <v>23</v>
       </c>
@@ -3251,43 +3391,49 @@
         <v>115</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K24" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M24" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="N24" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="O24" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="P24" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="Q24" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="R24" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="n">
         <v>24</v>
       </c>
@@ -3295,107 +3441,125 @@
         <v>115</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L25" s="3" t="s">
         <v>87</v>
       </c>
       <c r="M25" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="N25" s="0" t="n">
         <v>0.2</v>
       </c>
+      <c r="O25" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="P25" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="Q25" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="R25" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="n">
         <v>25</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I26" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K26" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N26" s="5" t="n">
         <v>41380</v>
       </c>
+      <c r="O26" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="P26" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="Q26" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="R26" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="n">
         <v>26</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F27" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="G27" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="H27" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="I27" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="J27" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="K27" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="L27" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="G27" s="0" t="s">
-        <v>189</v>
-      </c>
-      <c r="H27" s="0" t="s">
-        <v>190</v>
-      </c>
-      <c r="I27" s="0" t="s">
-        <v>191</v>
-      </c>
-      <c r="J27" s="0" t="s">
-        <v>192</v>
-      </c>
-      <c r="K27" s="0" t="s">
-        <v>193</v>
-      </c>
-      <c r="L27" s="3" t="s">
-        <v>187</v>
-      </c>
       <c r="N27" s="5" t="n">
-        <v>41509</v>
+        <v>41548</v>
+      </c>
+      <c r="O27" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="P27" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="Q27" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="R27" s="0" t="n">
         <v>1</v>
@@ -3406,31 +3570,31 @@
         <v>27</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E28" s="0" t="s">
         <v>42</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="I28" s="0" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="J28" s="0" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K28" s="0" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L28" s="3" t="s">
         <v>23</v>
@@ -3438,450 +3602,516 @@
       <c r="N28" s="4" t="n">
         <v>30</v>
       </c>
+      <c r="O28" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="P28" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="Q28" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="R28" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="13.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="n">
         <v>28</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="I29" s="0" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="J29" s="0" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K29" s="0" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="N29" s="4" t="n">
-        <v>6.8</v>
+        <v>7</v>
+      </c>
+      <c r="O29" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="P29" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="Q29" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="R29" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="13.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="n">
         <v>29</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="I30" s="0" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="J30" s="0" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="K30" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>41275</v>
       </c>
+      <c r="O30" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="P30" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="Q30" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="R30" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="13.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="n">
         <v>30</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="I31" s="0" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="J31" s="0" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K31" s="0" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N31" s="4" t="n">
         <v>0</v>
       </c>
+      <c r="O31" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="P31" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="Q31" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="R31" s="0" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="n">
         <v>31</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="I32" s="0" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="J32" s="0" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="K32" s="0" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>41275</v>
       </c>
+      <c r="O32" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="P32" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="Q32" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="R32" s="0" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="12.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="n">
         <v>32</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="I33" s="0" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="J33" s="0" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K33" s="0" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N33" s="4" t="n">
         <v>0</v>
       </c>
+      <c r="O33" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="P33" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="Q33" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="R33" s="0" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="12.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="n">
         <v>33</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I34" s="0" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="J34" s="0" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="K34" s="0" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>41275</v>
       </c>
+      <c r="O34" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="P34" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="Q34" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="R34" s="0" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="n">
         <v>34</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I35" s="0" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="J35" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="K35" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="L35" s="3" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N35" s="4" t="n">
         <v>0</v>
       </c>
+      <c r="O35" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="P35" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="Q35" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="R35" s="0" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="12.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="n">
         <v>35</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="I36" s="0" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="J36" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K36" s="0" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>41275</v>
       </c>
+      <c r="O36" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="P36" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="Q36" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="R36" s="0" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="12.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="n">
         <v>36</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="I37" s="0" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="J37" s="0" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="K37" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N37" s="4" t="n">
         <v>0</v>
       </c>
+      <c r="O37" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="P37" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="Q37" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="R37" s="0" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="13.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="n">
         <v>37</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I38" s="0" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="J38" s="0" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="K38" s="0" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L38" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>41275</v>
       </c>
+      <c r="O38" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="P38" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="Q38" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="R38" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="12.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="n">
         <v>38</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="I39" s="0" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="J39" s="0" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="K39" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L39" s="3" t="s">
         <v>23</v>
@@ -3889,81 +4119,93 @@
       <c r="N39" s="4" t="n">
         <v>0</v>
       </c>
+      <c r="O39" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="P39" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="Q39" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="R39" s="0" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="12.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="n">
         <v>39</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="I40" s="0" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="J40" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="K40" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L40" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>41275</v>
       </c>
+      <c r="O40" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="P40" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="Q40" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="R40" s="0" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="13.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="n">
         <v>40</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H41" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="I41" s="0" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="J41" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="K41" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L41" s="3" t="s">
         <v>23</v>
@@ -3971,81 +4213,93 @@
       <c r="N41" s="4" t="n">
         <v>0</v>
       </c>
+      <c r="O41" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="P41" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="Q41" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="R41" s="0" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="12.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="n">
         <v>41</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H42" s="0" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="I42" s="0" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="J42" s="0" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K42" s="0" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="L42" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>41275</v>
       </c>
+      <c r="O42" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="P42" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="Q42" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="R42" s="0" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="13.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="n">
         <v>42</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H43" s="0" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="I43" s="0" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="J43" s="0" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="K43" s="0" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L43" s="3" t="s">
         <v>23</v>
@@ -4053,81 +4307,93 @@
       <c r="N43" s="4" t="n">
         <v>0</v>
       </c>
+      <c r="O43" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="P43" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="Q43" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="R43" s="0" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="12.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="n">
         <v>43</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H44" s="0" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="I44" s="0" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="J44" s="0" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="K44" s="0" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L44" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>41275</v>
       </c>
+      <c r="O44" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="P44" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="Q44" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="R44" s="0" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="12.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="n">
         <v>44</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H45" s="0" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="I45" s="0" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="J45" s="0" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="K45" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L45" s="3" t="s">
         <v>23</v>
@@ -4135,81 +4401,93 @@
       <c r="N45" s="4" t="n">
         <v>0</v>
       </c>
+      <c r="O45" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="P45" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="Q45" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="R45" s="0" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="12.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="n">
         <v>45</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H46" s="0" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="I46" s="0" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="J46" s="0" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="K46" s="0" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L46" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>41275</v>
       </c>
+      <c r="O46" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="P46" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="Q46" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="R46" s="0" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="13.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="n">
         <v>46</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H47" s="0" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="I47" s="0" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="J47" s="0" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="K47" s="0" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="L47" s="3" t="s">
         <v>23</v>
@@ -4217,81 +4495,93 @@
       <c r="N47" s="4" t="n">
         <v>0</v>
       </c>
+      <c r="O47" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="P47" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="Q47" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="R47" s="0" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="13.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="n">
         <v>47</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G48" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H48" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="I48" s="0" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="J48" s="0" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="K48" s="0" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="L48" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>41275</v>
       </c>
+      <c r="O48" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="P48" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="Q48" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="R48" s="0" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="13.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="n">
         <v>48</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H49" s="0" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="I49" s="0" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="J49" s="0" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="K49" s="0" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L49" s="3" t="s">
         <v>23</v>
@@ -4299,246 +4589,315 @@
       <c r="N49" s="4" t="n">
         <v>0</v>
       </c>
+      <c r="O49" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="P49" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="Q49" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="R49" s="0" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="13.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="n">
         <v>49</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="G50" s="0" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H50" s="0" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="J50" s="0" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L50" s="3" t="s">
-        <v>306</v>
+        <v>307</v>
+      </c>
+      <c r="N50" s="5" t="n">
+        <v>41373</v>
+      </c>
+      <c r="O50" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="P50" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="Q50" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="R50" s="0" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="13.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="n">
         <v>50</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H51" s="0" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="J51" s="0" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="L51" s="0" t="s">
-        <v>309</v>
+        <v>310</v>
+      </c>
+      <c r="N51" s="0" t="n">
+        <v>180</v>
+      </c>
+      <c r="O51" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="P51" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="Q51" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="R51" s="0" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="13.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="n">
         <v>51</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H52" s="0" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="J52" s="0" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="L52" s="3" t="s">
-        <v>315</v>
+        <v>316</v>
+      </c>
+      <c r="N52" s="6" t="n">
+        <v>41275</v>
+      </c>
+      <c r="O52" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="P52" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="Q52" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="R52" s="0" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="13.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="n">
         <v>52</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F53" s="0" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H53" s="0" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="J53" s="0" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="L53" s="3" t="s">
-        <v>217</v>
+        <v>218</v>
+      </c>
+      <c r="N53" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="O53" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="P53" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="Q53" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="R53" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="13.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="n">
         <v>53</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F54" s="0" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G54" s="0" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H54" s="0" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="J54" s="0" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L54" s="3" t="s">
-        <v>217</v>
+        <v>218</v>
+      </c>
+      <c r="N54" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="O54" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="P54" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="Q54" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="R54" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="13.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="n">
         <v>54</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F55" s="0" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="G55" s="0" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H55" s="0" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="J55" s="0" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="L55" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="N55" s="0" t="n">
+        <v>19.7</v>
+      </c>
+      <c r="O55" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="P55" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="Q55" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="R55" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="13.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="n">
         <v>55</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F56" s="0" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="G56" s="0" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H56" s="0" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="J56" s="0" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="L56" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="N56" s="0" t="n">
+        <v>19.7</v>
+      </c>
+      <c r="O56" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="P56" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="Q56" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="R56" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="13.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="n">
         <v>56</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F57" s="0" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="J57" s="0" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="L57" s="3" t="s">
         <v>23</v>
@@ -4546,39 +4905,51 @@
       <c r="N57" s="4" t="n">
         <v>300</v>
       </c>
+      <c r="O57" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="P57" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="Q57" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="R57" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="13.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="n">
         <v>57</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="F58" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="J58" s="0" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>9</v>
       </c>
       <c r="M58" s="0" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="N58" s="4" t="n">
         <v>4.8</v>
       </c>
+      <c r="O58" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="P58" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="0" t="n">
         <v>0</v>
       </c>
       <c r="R58" s="0" t="n">
@@ -4590,25 +4961,25 @@
         <v>58</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E59" s="0" t="s">
         <v>42</v>
       </c>
       <c r="F59" s="0" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="I59" s="0" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="J59" s="0" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="K59" s="0" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L59" s="3" t="s">
         <v>48</v>
@@ -4619,410 +4990,482 @@
       <c r="N59" s="4" t="n">
         <v>86.2</v>
       </c>
+      <c r="O59" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="P59" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="Q59" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="R59" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="12.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="n">
         <v>59</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E60" s="0" t="s">
         <v>65</v>
       </c>
       <c r="F60" s="0" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="I60" s="0" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="J60" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="K60" s="0" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="L60" s="3" t="s">
         <v>48</v>
       </c>
       <c r="M60" s="0" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="N60" s="4" t="n">
         <v>71.43</v>
       </c>
+      <c r="O60" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="P60" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="Q60" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="R60" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="13.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="n">
         <v>60</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E61" s="0" t="s">
         <v>65</v>
       </c>
       <c r="F61" s="0" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="I61" s="0" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="J61" s="0" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="K61" s="0" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="L61" s="3" t="s">
         <v>48</v>
       </c>
       <c r="M61" s="0" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="N61" s="4" t="n">
         <v>16.34</v>
       </c>
+      <c r="O61" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="P61" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="Q61" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="R61" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="13.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="n">
         <v>61</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="F62" s="0" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="J62" s="0" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="L62" s="3" t="s">
         <v>23</v>
       </c>
       <c r="M62" s="0" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="N62" s="4" t="n">
         <v>1800</v>
       </c>
+      <c r="O62" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="P62" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="Q62" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="R62" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="13.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="n">
         <v>62</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="F63" s="0" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="J63" s="0" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="L63" s="3" t="s">
         <v>87</v>
       </c>
       <c r="M63" s="0" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="N63" s="4" t="n">
         <v>0.1</v>
       </c>
+      <c r="O63" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="P63" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="Q63" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="R63" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="13.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="n">
         <v>63</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="F64" s="0" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="J64" s="0" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="L64" s="3" t="s">
         <v>48</v>
       </c>
       <c r="M64" s="0" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="N64" s="4" t="n">
         <v>400</v>
       </c>
+      <c r="O64" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="P64" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="Q64" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="R64" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="13.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="n">
         <v>64</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="F65" s="0" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="J65" s="0" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="L65" s="3" t="s">
         <v>87</v>
       </c>
       <c r="M65" s="0" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="N65" s="4" t="n">
         <v>1</v>
       </c>
+      <c r="O65" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="P65" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="Q65" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="R65" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="13.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="n">
         <v>65</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="F66" s="0" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="J66" s="0" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="L66" s="3" t="s">
         <v>48</v>
       </c>
       <c r="M66" s="0" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="N66" s="4" t="n">
         <v>153</v>
       </c>
+      <c r="O66" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="P66" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="Q66" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="R66" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="13.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="n">
         <v>66</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E67" s="0" t="s">
         <v>65</v>
       </c>
       <c r="F67" s="0" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="I67" s="0" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="J67" s="0" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="K67" s="0" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="L67" s="3" t="s">
         <v>48</v>
       </c>
       <c r="M67" s="0" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="N67" s="4" t="n">
         <v>851.33</v>
       </c>
+      <c r="O67" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="P67" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="Q67" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="R67" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="13.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="n">
         <v>67</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="F68" s="0" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="J68" s="0" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="L68" s="3" t="s">
         <v>70</v>
       </c>
       <c r="M68" s="0" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="N68" s="4" t="n">
         <v>-0.03783</v>
       </c>
+      <c r="O68" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="P68" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="Q68" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="R68" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="13.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="n">
         <v>68</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="F69" s="0" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="J69" s="0" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="L69" s="3" t="s">
         <v>70</v>
       </c>
       <c r="M69" s="0" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="N69" s="4" t="n">
         <v>0.78469</v>
       </c>
+      <c r="O69" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="P69" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="Q69" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="R69" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="13.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="n">
         <v>69</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="F70" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="J70" s="0" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="L70" s="3" t="s">
         <v>87</v>
       </c>
       <c r="M70" s="0" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="N70" s="4" t="n">
         <v>0.01379</v>
       </c>
+      <c r="O70" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="P70" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="Q70" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="R70" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="13.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="n">
         <v>70</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="F71" s="0" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="J71" s="0" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="L71" s="3" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M71" s="0" t="s">
         <v>108</v>
@@ -5030,31 +5473,37 @@
       <c r="N71" s="4" t="n">
         <v>1</v>
       </c>
+      <c r="O71" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="P71" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="Q71" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="R71" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="13.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="n">
         <v>71</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="F72" s="0" t="s">
+        <v>377</v>
+      </c>
+      <c r="J72" s="0" t="s">
+        <v>378</v>
+      </c>
+      <c r="L72" s="3" t="s">
         <v>376</v>
-      </c>
-      <c r="J72" s="0" t="s">
-        <v>377</v>
-      </c>
-      <c r="L72" s="3" t="s">
-        <v>375</v>
       </c>
       <c r="M72" s="0" t="s">
         <v>108</v>
@@ -5062,31 +5511,37 @@
       <c r="N72" s="4" t="n">
         <v>4.5</v>
       </c>
+      <c r="O72" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="P72" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="Q72" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="R72" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="13.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="n">
         <v>72</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="F73" s="0" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="J73" s="0" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="L73" s="3" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M73" s="0" t="s">
         <v>108</v>
@@ -5094,31 +5549,37 @@
       <c r="N73" s="4" t="n">
         <v>0.015</v>
       </c>
+      <c r="O73" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="P73" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="Q73" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="R73" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="13.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="n">
         <v>73</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="F74" s="0" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="J74" s="0" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="L74" s="3" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M74" s="0" t="s">
         <v>108</v>
@@ -5126,28 +5587,34 @@
       <c r="N74" s="4" t="n">
         <v>3</v>
       </c>
+      <c r="O74" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="P74" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="Q74" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="R74" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="13.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="n">
         <v>74</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="F75" s="0" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="J75" s="0" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="L75" s="3" t="s">
         <v>9</v>
@@ -5158,28 +5625,34 @@
       <c r="N75" s="4" t="n">
         <v>37</v>
       </c>
+      <c r="O75" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="P75" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="Q75" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="R75" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="13.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="n">
         <v>75</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="F76" s="0" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="J76" s="3" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="K76" s="3"/>
       <c r="L76" s="3" t="s">
@@ -5191,28 +5664,34 @@
       <c r="N76" s="4" t="n">
         <v>20</v>
       </c>
+      <c r="O76" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="P76" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="Q76" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="R76" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="13.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="n">
         <v>76</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="F77" s="0" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="J77" s="3" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="K77" s="3"/>
       <c r="L77" s="3" t="s">
@@ -5224,383 +5703,455 @@
       <c r="N77" s="4" t="n">
         <v>28</v>
       </c>
+      <c r="O77" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="P77" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="Q77" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="R77" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="13.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="n">
         <v>77</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="F78" s="0" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="J78" s="0" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="L78" s="3" t="s">
         <v>87</v>
       </c>
       <c r="M78" s="0" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="N78" s="4" t="n">
         <v>-25</v>
       </c>
+      <c r="O78" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="P78" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="Q78" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="R78" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="13.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="n">
         <v>78</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="F79" s="0" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="J79" s="0" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="L79" s="3" t="s">
         <v>48</v>
       </c>
       <c r="M79" s="0" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="N79" s="4" t="n">
         <v>350</v>
       </c>
+      <c r="O79" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="P79" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="Q79" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="R79" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="13.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="n">
         <v>79</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="F80" s="0" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="J80" s="0" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="L80" s="3" t="s">
         <v>87</v>
       </c>
       <c r="M80" s="0" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="N80" s="4" t="n">
         <v>0.1</v>
       </c>
+      <c r="O80" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="P80" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="Q80" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="R80" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="13.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="n">
         <v>80</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="F81" s="0" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="J81" s="0" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="L81" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M81" s="0" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="N81" s="4" t="n">
         <v>4.53</v>
       </c>
+      <c r="O81" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="P81" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="Q81" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="R81" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="13.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="n">
         <v>81</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D82" s="0" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="F82" s="0" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="J82" s="0" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="L82" s="3" t="s">
         <v>87</v>
       </c>
       <c r="M82" s="0" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="N82" s="4" t="n">
         <v>0.42</v>
       </c>
+      <c r="O82" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="P82" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="Q82" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="R82" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="13.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="n">
         <v>82</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="F83" s="0" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="J83" s="0" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="L83" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M83" s="0" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="N83" s="4" t="n">
         <v>6.49</v>
       </c>
+      <c r="O83" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="P83" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="Q83" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="R83" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="13.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="n">
         <v>83</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D84" s="0" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="F84" s="0" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="J84" s="0" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="L84" s="3" t="s">
         <v>87</v>
       </c>
       <c r="M84" s="0" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="N84" s="4" t="n">
         <v>0.44</v>
       </c>
+      <c r="O84" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="P84" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="Q84" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="R84" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="13.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="n">
         <v>84</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D85" s="0" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="F85" s="0" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="J85" s="0" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="L85" s="3" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="M85" s="0" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="N85" s="4" t="n">
         <v>75</v>
       </c>
+      <c r="O85" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="P85" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="Q85" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="R85" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="13.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="n">
         <v>85</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="F86" s="0" t="s">
+        <v>408</v>
+      </c>
+      <c r="J86" s="0" t="s">
+        <v>409</v>
+      </c>
+      <c r="L86" s="3" t="s">
         <v>407</v>
       </c>
-      <c r="J86" s="0" t="s">
-        <v>408</v>
-      </c>
-      <c r="L86" s="3" t="s">
-        <v>406</v>
-      </c>
       <c r="M86" s="0" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="N86" s="4" t="n">
         <v>75</v>
       </c>
+      <c r="O86" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="P86" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="Q86" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="R86" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="13.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="n">
         <v>86</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="F87" s="0" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="J87" s="0" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="L87" s="3" t="s">
         <v>87</v>
       </c>
       <c r="M87" s="0" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="N87" s="4" t="n">
         <v>0.6</v>
       </c>
+      <c r="O87" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="P87" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="Q87" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="R87" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="13.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="n">
         <v>87</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D88" s="0" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="F88" s="0" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="J88" s="0" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="L88" s="3" t="s">
         <v>87</v>
       </c>
       <c r="M88" s="0" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="N88" s="4" t="n">
         <v>0.3</v>
       </c>
+      <c r="O88" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="P88" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="Q88" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="R88" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="13.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="n">
         <v>88</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D89" s="0" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="F89" s="0" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="J89" s="0" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="L89" s="3" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="M89" s="0" t="s">
         <v>49</v>
@@ -5608,28 +6159,34 @@
       <c r="N89" s="4" t="n">
         <v>0.7</v>
       </c>
+      <c r="O89" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="P89" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="Q89" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="R89" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="13.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="n">
         <v>89</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D90" s="0" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="F90" s="0" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="J90" s="0" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="L90" s="3" t="s">
         <v>87</v>
@@ -5637,28 +6194,34 @@
       <c r="N90" s="4" t="n">
         <v>0.6</v>
       </c>
+      <c r="O90" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="P90" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="Q90" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="R90" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="13.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="n">
         <v>90</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D91" s="0" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="F91" s="0" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="J91" s="0" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>87</v>
@@ -5669,7 +6232,13 @@
       <c r="N91" s="4" t="n">
         <v>1.2</v>
       </c>
+      <c r="O91" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="P91" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="0" t="n">
         <v>0</v>
       </c>
       <c r="R91" s="0" t="n">
@@ -5681,259 +6250,319 @@
         <v>91</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D92" s="0" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E92" s="0" t="s">
         <v>42</v>
       </c>
       <c r="F92" s="0" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="I92" s="0" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="J92" s="0" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="K92" s="0" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="L92" s="3" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="M92" s="0" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="N92" s="4" t="n">
         <v>1.19</v>
       </c>
+      <c r="O92" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="P92" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="Q92" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="R92" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="13.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="n">
         <v>100</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D93" s="0" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="F93" s="0" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="L93" s="3"/>
+      <c r="O93" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="P93" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="Q93" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="R93" s="0" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="13.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="n">
         <v>101</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D94" s="0" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="F94" s="0" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="L94" s="3"/>
+      <c r="O94" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="P94" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="Q94" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="R94" s="0" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="13.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="n">
         <v>102</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D95" s="0" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="F95" s="0" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="L95" s="3"/>
+      <c r="O95" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="P95" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="Q95" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="R95" s="0" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="13.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="n">
         <v>103</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D96" s="0" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="F96" s="0" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="L96" s="3"/>
+      <c r="O96" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="P96" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="Q96" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="R96" s="0" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="13.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="n">
         <v>104</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D97" s="0" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="F97" s="0" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="L97" s="3"/>
+      <c r="O97" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="P97" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="Q97" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="R97" s="0" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="13.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="n">
         <v>105</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D98" s="0" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="F98" s="0" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="L98" s="3"/>
+      <c r="O98" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="P98" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="Q98" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="R98" s="0" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="13.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="n">
         <v>106</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D99" s="0" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="F99" s="0" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="L99" s="3"/>
+      <c r="O99" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="P99" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="Q99" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="R99" s="0" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="13.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="n">
         <v>107</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D100" s="0" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="F100" s="0" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="L100" s="3"/>
+      <c r="O100" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="P100" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="Q100" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="R100" s="0" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="13.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="n">
         <v>108</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D101" s="0" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="F101" s="0" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="L101" s="3"/>
+      <c r="O101" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="P101" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="Q101" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="R101" s="0" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="13.15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="n">
         <v>109</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D102" s="0" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="F102" s="0" t="s">
-        <v>434</v>
+        <v>435</v>
+      </c>
+      <c r="O102" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="P102" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="Q102" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="R102" s="0" t="n">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q102">
-    <filterColumn colId="4">
-      <customFilters and="true">
-        <customFilter operator="equal" val="Phenology"/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:P102"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -5995,7 +6624,7 @@
         <v>42</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6003,7 +6632,7 @@
         <v>65</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6011,7 +6640,7 @@
         <v>65</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6019,7 +6648,7 @@
         <v>65</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6027,7 +6656,7 @@
         <v>65</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6035,7 +6664,7 @@
         <v>65</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6043,7 +6672,7 @@
         <v>65</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6056,42 +6685,42 @@
     </row>
     <row r="10" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
   </sheetData>
@@ -6134,10 +6763,10 @@
         <v>27</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>32</v>
@@ -6152,7 +6781,7 @@
         <v>4</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6160,19 +6789,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="G2" s="0" t="s">
         <v>9</v>
@@ -6186,19 +6815,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="G3" s="0" t="s">
         <v>9</v>
@@ -6212,19 +6841,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="G4" s="0" t="s">
         <v>9</v>
@@ -6238,13 +6867,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>14</v>
@@ -6253,7 +6882,7 @@
         <v>16</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="H5" s="0" t="n">
         <v>1</v>
@@ -6264,13 +6893,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>19</v>
@@ -6290,13 +6919,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>24</v>
@@ -6316,22 +6945,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="H8" s="0" t="n">
         <v>1</v>
@@ -6342,19 +6971,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="G9" s="0" t="s">
         <v>87</v>
@@ -6368,19 +6997,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="G10" s="0" t="s">
         <v>87</v>
@@ -6394,19 +7023,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="G11" s="0" t="s">
         <v>87</v>
@@ -6420,19 +7049,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="G12" s="0" t="s">
         <v>87</v>
@@ -6446,19 +7075,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="G13" s="0" t="s">
         <v>87</v>
@@ -6472,19 +7101,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="G14" s="0" t="s">
         <v>87</v>
@@ -6498,22 +7127,22 @@
         <v>14</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="H15" s="0" t="n">
         <v>1</v>
@@ -6524,19 +7153,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="G16" s="0" t="s">
         <v>87</v>
@@ -6550,19 +7179,19 @@
         <v>16</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="G17" s="0" t="s">
         <v>87</v>
@@ -6576,19 +7205,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="G18" s="0" t="s">
         <v>87</v>
@@ -6602,19 +7231,19 @@
         <v>18</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="G19" s="0" t="s">
         <v>87</v>
@@ -6628,19 +7257,19 @@
         <v>19</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="G20" s="0" t="s">
         <v>87</v>
@@ -6654,22 +7283,22 @@
         <v>20</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H21" s="0" t="n">
         <v>1</v>
@@ -6680,22 +7309,22 @@
         <v>21</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H22" s="0" t="n">
         <v>1</v>
@@ -6706,19 +7335,19 @@
         <v>22</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>110</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="G23" s="0" t="s">
         <v>114</v>
@@ -6769,22 +7398,22 @@
         <v>27</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>2</v>
@@ -6796,7 +7425,7 @@
         <v>4</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6804,34 +7433,34 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6839,34 +7468,34 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>87</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>26</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="J3" s="0" t="s">
         <v>23</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6874,34 +7503,34 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E4" s="0" t="s">
         <v>87</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="J4" s="0" t="s">
         <v>23</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6909,34 +7538,34 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E5" s="0" t="s">
         <v>87</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="J5" s="0" t="s">
         <v>23</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6944,34 +7573,34 @@
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E6" s="0" t="s">
         <v>87</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="J6" s="0" t="s">
         <v>87</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6979,34 +7608,34 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E7" s="0" t="s">
         <v>87</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="J7" s="0" t="s">
         <v>87</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7014,34 +7643,34 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="J8" s="0" t="s">
         <v>87</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7049,34 +7678,34 @@
         <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="J9" s="0" t="s">
         <v>87</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7084,34 +7713,34 @@
         <v>9</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="E10" s="0" t="s">
         <v>87</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="J10" s="0" t="s">
         <v>87</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7119,34 +7748,34 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="E11" s="0" t="s">
         <v>87</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7154,34 +7783,34 @@
         <v>11</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="J12" s="0" t="s">
         <v>87</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7189,34 +7818,34 @@
         <v>12</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="J13" s="0" t="s">
         <v>87</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7224,34 +7853,34 @@
         <v>13</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="D14" s="0" t="s">
         <v>87</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="J14" s="0" t="s">
         <v>87</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7259,34 +7888,34 @@
         <v>14</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="D15" s="0" t="s">
         <v>87</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="J15" s="0" t="s">
         <v>87</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7294,34 +7923,34 @@
         <v>15</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="K16" s="0" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7329,34 +7958,34 @@
         <v>16</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="D17" s="0" t="s">
         <v>87</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7364,34 +7993,34 @@
         <v>17</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="D18" s="0" t="s">
         <v>87</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="K18" s="0" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7399,34 +8028,34 @@
         <v>18</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7434,34 +8063,34 @@
         <v>19</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="D20" s="0" t="s">
         <v>87</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="K20" s="0" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7469,34 +8098,34 @@
         <v>20</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="D21" s="0" t="s">
         <v>87</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="F21" s="0" t="s">
         <v>110</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="K21" s="0" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/inst/doc/files/parameterization.xlsx
+++ b/inst/doc/files/parameterization.xlsx
@@ -38,13 +38,15 @@
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">parameters!$A$1:$P$102</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">parameters!$A$1:$P$102</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">parameters!$A$1:$P$102</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">parameters!$A$1:$P$102</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">parameters!$A$1:$P$102</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1189" uniqueCount="616">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1190" uniqueCount="617">
   <si>
     <t>name.rsunflo.fr</t>
   </si>
@@ -166,6 +168,9 @@
     <t>count</t>
   </si>
   <si>
+    <t>need</t>
+  </si>
+  <si>
     <t>Variete</t>
   </si>
   <si>
@@ -271,7 +276,7 @@
     <t>Rang (depuis le sol) de la plus grande feuille du profil foliaire à la floraison</t>
   </si>
   <si>
-    <t>Potential rank of the largest leave of leaf profile at flowering</t>
+    <t>Potential rank of the plant largest leaf at flowering</t>
   </si>
   <si>
     <t>cSF</t>
@@ -286,7 +291,7 @@
     <t>Surface de la plus grande feuille du profil folaire à la floraison</t>
   </si>
   <si>
-    <t>Potential area of the largest leave of leaf profile at flowering</t>
+    <t>Potential area of the plant largest leaf at flowering</t>
   </si>
   <si>
     <t>cm2</t>
@@ -2171,8 +2176,8 @@
   </sheetPr>
   <dimension ref="1:102"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N29" activeCellId="0" sqref="N29"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K9" activeCellId="0" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.15"/>
@@ -2250,6 +2255,9 @@
       <c r="R1" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="S1" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="AMJ1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2260,37 +2268,37 @@
         <v>2</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N2" s="0" t="n">
         <v>482</v>
@@ -2305,6 +2313,9 @@
         <v>0</v>
       </c>
       <c r="R2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2316,37 +2327,37 @@
         <v>2</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F3" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="M3" s="0" t="s">
         <v>50</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="J3" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="K3" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>49</v>
       </c>
       <c r="N3" s="0" t="n">
         <v>836</v>
@@ -2361,6 +2372,9 @@
         <v>1</v>
       </c>
       <c r="R3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S3" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2372,37 +2386,37 @@
         <v>2</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N4" s="0" t="n">
         <v>1083</v>
@@ -2417,6 +2431,9 @@
         <v>0</v>
       </c>
       <c r="R4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2428,37 +2445,37 @@
         <v>2</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N5" s="0" t="n">
         <v>1673</v>
@@ -2473,6 +2490,9 @@
         <v>1</v>
       </c>
       <c r="R5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S5" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2484,37 +2504,37 @@
         <v>2</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N6" s="0" t="n">
         <v>29</v>
@@ -2529,6 +2549,9 @@
         <v>1</v>
       </c>
       <c r="R6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S6" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2540,37 +2563,37 @@
         <v>2</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F7" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="L7" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="G7" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="H7" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="I7" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="J7" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="K7" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>70</v>
-      </c>
       <c r="M7" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N7" s="0" t="n">
         <v>17</v>
@@ -2585,6 +2608,9 @@
         <v>1</v>
       </c>
       <c r="R7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S7" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2596,37 +2622,37 @@
         <v>2</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N8" s="0" t="n">
         <v>448</v>
@@ -2641,6 +2667,9 @@
         <v>1</v>
       </c>
       <c r="R8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S8" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2652,34 +2681,34 @@
         <v>2</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N9" s="0" t="n">
         <v>0.88</v>
@@ -2694,6 +2723,9 @@
         <v>1</v>
       </c>
       <c r="R9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S9" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2705,34 +2737,34 @@
         <v>2</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F10" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I10" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="K10" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="L10" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="G10" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="I10" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="K10" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>87</v>
-      </c>
       <c r="M10" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="N10" s="0" t="n">
         <v>-4.42</v>
@@ -2747,6 +2779,9 @@
         <v>1</v>
       </c>
       <c r="R10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S10" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2758,34 +2793,34 @@
         <v>2</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F11" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="I11" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="J11" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="K11" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M11" s="0" t="s">
         <v>94</v>
-      </c>
-      <c r="G11" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="H11" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="I11" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="J11" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="K11" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="M11" s="0" t="s">
-        <v>93</v>
       </c>
       <c r="N11" s="0" t="n">
         <v>-9.3</v>
@@ -2800,6 +2835,9 @@
         <v>1</v>
       </c>
       <c r="R11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S11" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2811,32 +2849,32 @@
         <v>2</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L12" s="3"/>
       <c r="M12" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N12" s="0" t="n">
         <v>1</v>
@@ -2851,6 +2889,9 @@
         <v>0</v>
       </c>
       <c r="R12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2862,34 +2903,34 @@
         <v>2</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L13" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M13" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N13" s="0" t="n">
         <v>0.398</v>
@@ -2904,6 +2945,9 @@
         <v>1</v>
       </c>
       <c r="R13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S13" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2915,34 +2959,34 @@
         <v>2</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F14" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="I14" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="J14" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="K14" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="M14" s="0" t="s">
         <v>109</v>
-      </c>
-      <c r="G14" s="0" t="s">
-        <v>110</v>
-      </c>
-      <c r="H14" s="0" t="s">
-        <v>110</v>
-      </c>
-      <c r="I14" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="J14" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="K14" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="M14" s="0" t="s">
-        <v>108</v>
       </c>
       <c r="N14" s="0" t="n">
         <v>55.4</v>
@@ -2957,6 +3001,9 @@
         <v>1</v>
       </c>
       <c r="R14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S14" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2965,31 +3012,31 @@
         <v>14</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O15" s="0" t="n">
         <v>1</v>
@@ -3001,7 +3048,10 @@
         <v>1</v>
       </c>
       <c r="R15" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="S15" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3009,34 +3059,34 @@
         <v>15</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K16" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L16" s="3" t="s">
         <v>23</v>
       </c>
       <c r="M16" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N16" s="0" t="n">
         <v>1000</v>
@@ -3051,6 +3101,9 @@
         <v>0</v>
       </c>
       <c r="R16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S16" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3059,31 +3112,31 @@
         <v>16</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="N17" s="0" t="n">
         <v>19.69</v>
@@ -3098,6 +3151,9 @@
         <v>0</v>
       </c>
       <c r="R17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S17" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3106,31 +3162,31 @@
         <v>17</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F18" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="H18" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="I18" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="J18" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="K18" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="L18" s="3" t="s">
         <v>136</v>
-      </c>
-      <c r="G18" s="0" t="s">
-        <v>137</v>
-      </c>
-      <c r="H18" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="I18" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="J18" s="0" t="s">
-        <v>139</v>
-      </c>
-      <c r="K18" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>135</v>
       </c>
       <c r="N18" s="0" t="n">
         <v>9.69</v>
@@ -3145,6 +3201,9 @@
         <v>0</v>
       </c>
       <c r="R18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S18" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3153,31 +3212,31 @@
         <v>18</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="N19" s="0" t="n">
         <v>19.69</v>
@@ -3192,6 +3251,9 @@
         <v>0</v>
       </c>
       <c r="R19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S19" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3200,31 +3262,31 @@
         <v>19</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K20" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="N20" s="0" t="n">
         <v>9.69</v>
@@ -3239,6 +3301,9 @@
         <v>0</v>
       </c>
       <c r="R20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S20" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3247,31 +3312,31 @@
         <v>20</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K21" s="0" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="N21" s="0" t="n">
         <v>1.3</v>
@@ -3286,6 +3351,9 @@
         <v>0</v>
       </c>
       <c r="R21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S21" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3294,31 +3362,31 @@
         <v>21</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F22" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="H22" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="I22" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="J22" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="K22" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="L22" s="3" t="s">
         <v>158</v>
-      </c>
-      <c r="G22" s="0" t="s">
-        <v>159</v>
-      </c>
-      <c r="H22" s="0" t="s">
-        <v>160</v>
-      </c>
-      <c r="I22" s="0" t="s">
-        <v>154</v>
-      </c>
-      <c r="J22" s="0" t="s">
-        <v>161</v>
-      </c>
-      <c r="K22" s="0" t="s">
-        <v>162</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>157</v>
       </c>
       <c r="N22" s="0" t="n">
         <v>1.3</v>
@@ -3333,6 +3401,9 @@
         <v>0</v>
       </c>
       <c r="R22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S22" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3341,31 +3412,31 @@
         <v>22</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K23" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N23" s="0" t="n">
         <v>0.1</v>
@@ -3380,6 +3451,9 @@
         <v>0</v>
       </c>
       <c r="R23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S23" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3388,34 +3462,34 @@
         <v>23</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K24" s="0" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M24" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="N24" s="0" t="n">
         <v>0.5</v>
@@ -3430,6 +3504,9 @@
         <v>0</v>
       </c>
       <c r="R24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S24" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3438,22 +3515,22 @@
         <v>24</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F25" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="J25" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M25" s="0" t="s">
         <v>178</v>
-      </c>
-      <c r="J25" s="0" t="s">
-        <v>179</v>
-      </c>
-      <c r="L25" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="M25" s="0" t="s">
-        <v>177</v>
       </c>
       <c r="N25" s="0" t="n">
         <v>0.2</v>
@@ -3469,6 +3546,9 @@
       </c>
       <c r="R25" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="S25" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3476,31 +3556,31 @@
         <v>25</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="I26" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K26" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N26" s="5" t="n">
         <v>41380</v>
@@ -3515,6 +3595,9 @@
         <v>0</v>
       </c>
       <c r="R26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S26" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3523,31 +3606,31 @@
         <v>26</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F27" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="G27" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="H27" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="I27" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="J27" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="K27" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="L27" s="3" t="s">
         <v>189</v>
-      </c>
-      <c r="G27" s="0" t="s">
-        <v>190</v>
-      </c>
-      <c r="H27" s="0" t="s">
-        <v>191</v>
-      </c>
-      <c r="I27" s="0" t="s">
-        <v>192</v>
-      </c>
-      <c r="J27" s="0" t="s">
-        <v>193</v>
-      </c>
-      <c r="K27" s="0" t="s">
-        <v>194</v>
-      </c>
-      <c r="L27" s="3" t="s">
-        <v>188</v>
       </c>
       <c r="N27" s="5" t="n">
         <v>41548</v>
@@ -3562,6 +3645,9 @@
         <v>0</v>
       </c>
       <c r="R27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S27" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3570,31 +3656,31 @@
         <v>27</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="I28" s="0" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="J28" s="0" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K28" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L28" s="3" t="s">
         <v>23</v>
@@ -3613,6 +3699,9 @@
       </c>
       <c r="R28" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="S28" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3620,31 +3709,31 @@
         <v>28</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I29" s="0" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="J29" s="0" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K29" s="0" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="N29" s="4" t="n">
         <v>7</v>
@@ -3659,6 +3748,9 @@
         <v>0</v>
       </c>
       <c r="R29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S29" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3667,31 +3759,31 @@
         <v>29</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="I30" s="0" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="J30" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K30" s="0" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>41275</v>
@@ -3706,6 +3798,9 @@
         <v>0</v>
       </c>
       <c r="R30" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S30" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3714,31 +3809,31 @@
         <v>30</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="I31" s="0" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="J31" s="0" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="K31" s="0" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="N31" s="4" t="n">
         <v>0</v>
@@ -3753,6 +3848,9 @@
         <v>0</v>
       </c>
       <c r="R31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3761,31 +3859,31 @@
         <v>31</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I32" s="0" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="J32" s="0" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="K32" s="0" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>41275</v>
@@ -3800,6 +3898,9 @@
         <v>0</v>
       </c>
       <c r="R32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3808,31 +3909,31 @@
         <v>32</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="I33" s="0" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="J33" s="0" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="K33" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="N33" s="4" t="n">
         <v>0</v>
@@ -3847,6 +3948,9 @@
         <v>0</v>
       </c>
       <c r="R33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S33" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3855,31 +3959,31 @@
         <v>33</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="I34" s="0" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="J34" s="0" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K34" s="0" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>41275</v>
@@ -3894,6 +3998,9 @@
         <v>0</v>
       </c>
       <c r="R34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3902,31 +4009,31 @@
         <v>34</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I35" s="0" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="J35" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="K35" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L35" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="N35" s="4" t="n">
         <v>0</v>
@@ -3941,6 +4048,9 @@
         <v>0</v>
       </c>
       <c r="R35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3949,31 +4059,31 @@
         <v>35</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="I36" s="0" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="J36" s="0" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K36" s="0" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>41275</v>
@@ -3988,6 +4098,9 @@
         <v>0</v>
       </c>
       <c r="R36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S36" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3996,31 +4109,31 @@
         <v>36</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="I37" s="0" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="J37" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="K37" s="0" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="N37" s="4" t="n">
         <v>0</v>
@@ -4035,6 +4148,9 @@
         <v>0</v>
       </c>
       <c r="R37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4043,31 +4159,31 @@
         <v>37</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="I38" s="0" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="J38" s="0" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="K38" s="0" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L38" s="3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>41275</v>
@@ -4082,6 +4198,9 @@
         <v>0</v>
       </c>
       <c r="R38" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S38" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4090,28 +4209,28 @@
         <v>38</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="I39" s="0" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="J39" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="K39" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L39" s="3" t="s">
         <v>23</v>
@@ -4129,6 +4248,9 @@
         <v>0</v>
       </c>
       <c r="R39" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S39" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4137,31 +4259,31 @@
         <v>39</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="I40" s="0" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="J40" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="K40" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L40" s="3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>41275</v>
@@ -4176,6 +4298,9 @@
         <v>0</v>
       </c>
       <c r="R40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4184,28 +4309,28 @@
         <v>40</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H41" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="I41" s="0" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="J41" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K41" s="0" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L41" s="3" t="s">
         <v>23</v>
@@ -4223,6 +4348,9 @@
         <v>0</v>
       </c>
       <c r="R41" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4231,31 +4359,31 @@
         <v>41</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H42" s="0" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="I42" s="0" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="J42" s="0" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="K42" s="0" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="L42" s="3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>41275</v>
@@ -4270,6 +4398,9 @@
         <v>0</v>
       </c>
       <c r="R42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S42" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4278,28 +4409,28 @@
         <v>42</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H43" s="0" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="I43" s="0" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="J43" s="0" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="K43" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L43" s="3" t="s">
         <v>23</v>
@@ -4317,6 +4448,9 @@
         <v>0</v>
       </c>
       <c r="R43" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4325,31 +4459,31 @@
         <v>43</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H44" s="0" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="I44" s="0" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="J44" s="0" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="K44" s="0" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L44" s="3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>41275</v>
@@ -4364,6 +4498,9 @@
         <v>0</v>
       </c>
       <c r="R44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4372,28 +4509,28 @@
         <v>44</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H45" s="0" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="I45" s="0" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="J45" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="K45" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L45" s="3" t="s">
         <v>23</v>
@@ -4411,6 +4548,9 @@
         <v>0</v>
       </c>
       <c r="R45" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S45" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4419,31 +4559,31 @@
         <v>45</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H46" s="0" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="I46" s="0" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="J46" s="0" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="K46" s="0" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="L46" s="3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>41275</v>
@@ -4458,6 +4598,9 @@
         <v>0</v>
       </c>
       <c r="R46" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4466,28 +4609,28 @@
         <v>46</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H47" s="0" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="I47" s="0" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="J47" s="0" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="K47" s="0" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="L47" s="3" t="s">
         <v>23</v>
@@ -4505,6 +4648,9 @@
         <v>0</v>
       </c>
       <c r="R47" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S47" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4513,31 +4659,31 @@
         <v>47</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="G48" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H48" s="0" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="I48" s="0" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="J48" s="0" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="K48" s="0" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="L48" s="3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>41275</v>
@@ -4552,6 +4698,9 @@
         <v>0</v>
       </c>
       <c r="R48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S48" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4560,28 +4709,28 @@
         <v>48</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H49" s="0" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="I49" s="0" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="J49" s="0" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="K49" s="0" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L49" s="3" t="s">
         <v>23</v>
@@ -4599,6 +4748,9 @@
         <v>0</v>
       </c>
       <c r="R49" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S49" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4607,22 +4759,22 @@
         <v>49</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G50" s="0" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H50" s="0" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="J50" s="0" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L50" s="3" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="N50" s="5" t="n">
         <v>41373</v>
@@ -4637,6 +4789,9 @@
         <v>1</v>
       </c>
       <c r="R50" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S50" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4645,22 +4800,22 @@
         <v>50</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H51" s="0" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="J51" s="0" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="L51" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="N51" s="0" t="n">
         <v>180</v>
@@ -4675,6 +4830,9 @@
         <v>0</v>
       </c>
       <c r="R51" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S51" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4683,25 +4841,25 @@
         <v>51</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H52" s="0" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="J52" s="0" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="L52" s="3" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="N52" s="6" t="n">
         <v>41275</v>
@@ -4716,6 +4874,9 @@
         <v>0</v>
       </c>
       <c r="R52" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S52" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4724,25 +4885,25 @@
         <v>52</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="F53" s="0" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H53" s="0" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="J53" s="0" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L53" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="N53" s="0" t="n">
         <v>10</v>
@@ -4757,6 +4918,9 @@
         <v>0</v>
       </c>
       <c r="R53" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S53" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4765,25 +4929,25 @@
         <v>53</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="F54" s="0" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="G54" s="0" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H54" s="0" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="J54" s="0" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="L54" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="N54" s="0" t="n">
         <v>20</v>
@@ -4798,6 +4962,9 @@
         <v>0</v>
       </c>
       <c r="R54" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S54" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4806,25 +4973,25 @@
         <v>54</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="F55" s="0" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="G55" s="0" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H55" s="0" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="J55" s="0" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="L55" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="N55" s="0" t="n">
         <v>19.7</v>
@@ -4839,6 +5006,9 @@
         <v>0</v>
       </c>
       <c r="R55" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S55" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4847,25 +5017,25 @@
         <v>55</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="F56" s="0" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="G56" s="0" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H56" s="0" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="J56" s="0" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L56" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="N56" s="0" t="n">
         <v>19.7</v>
@@ -4880,6 +5050,9 @@
         <v>0</v>
       </c>
       <c r="R56" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S56" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4888,16 +5061,16 @@
         <v>56</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="F57" s="0" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="J57" s="0" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L57" s="3" t="s">
         <v>23</v>
@@ -4916,6 +5089,9 @@
       </c>
       <c r="R57" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="S57" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4923,22 +5099,22 @@
         <v>57</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F58" s="0" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="J58" s="0" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>9</v>
       </c>
       <c r="M58" s="0" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="N58" s="4" t="n">
         <v>4.8</v>
@@ -4954,6 +5130,9 @@
       </c>
       <c r="R58" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="S58" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4961,31 +5140,31 @@
         <v>58</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F59" s="0" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="I59" s="0" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="J59" s="0" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K59" s="0" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="L59" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M59" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N59" s="4" t="n">
         <v>86.2</v>
@@ -5001,6 +5180,9 @@
       </c>
       <c r="R59" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="S59" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5008,31 +5190,31 @@
         <v>59</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F60" s="0" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="I60" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="J60" s="0" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="K60" s="0" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="L60" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M60" s="0" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="N60" s="4" t="n">
         <v>71.43</v>
@@ -5048,6 +5230,9 @@
       </c>
       <c r="R60" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="S60" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5055,31 +5240,31 @@
         <v>60</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F61" s="0" t="s">
+        <v>350</v>
+      </c>
+      <c r="I61" s="0" t="s">
+        <v>351</v>
+      </c>
+      <c r="J61" s="0" t="s">
+        <v>352</v>
+      </c>
+      <c r="K61" s="0" t="s">
+        <v>353</v>
+      </c>
+      <c r="L61" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="M61" s="0" t="s">
         <v>349</v>
-      </c>
-      <c r="I61" s="0" t="s">
-        <v>350</v>
-      </c>
-      <c r="J61" s="0" t="s">
-        <v>351</v>
-      </c>
-      <c r="K61" s="0" t="s">
-        <v>352</v>
-      </c>
-      <c r="L61" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="M61" s="0" t="s">
-        <v>348</v>
       </c>
       <c r="N61" s="4" t="n">
         <v>16.34</v>
@@ -5095,6 +5280,9 @@
       </c>
       <c r="R61" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="S61" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5102,22 +5290,22 @@
         <v>61</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F62" s="0" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="J62" s="0" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="L62" s="3" t="s">
         <v>23</v>
       </c>
       <c r="M62" s="0" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="N62" s="4" t="n">
         <v>1800</v>
@@ -5133,6 +5321,9 @@
       </c>
       <c r="R62" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="S62" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5140,22 +5331,22 @@
         <v>62</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F63" s="0" t="s">
+        <v>357</v>
+      </c>
+      <c r="J63" s="0" t="s">
+        <v>358</v>
+      </c>
+      <c r="L63" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M63" s="0" t="s">
         <v>356</v>
-      </c>
-      <c r="J63" s="0" t="s">
-        <v>357</v>
-      </c>
-      <c r="L63" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="M63" s="0" t="s">
-        <v>355</v>
       </c>
       <c r="N63" s="4" t="n">
         <v>0.1</v>
@@ -5171,6 +5362,9 @@
       </c>
       <c r="R63" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="S63" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5178,22 +5372,22 @@
         <v>63</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F64" s="0" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="J64" s="0" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="L64" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M64" s="0" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="N64" s="4" t="n">
         <v>400</v>
@@ -5209,6 +5403,9 @@
       </c>
       <c r="R64" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="S64" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5216,22 +5413,22 @@
         <v>64</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F65" s="0" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="J65" s="0" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="L65" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M65" s="0" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="N65" s="4" t="n">
         <v>1</v>
@@ -5247,6 +5444,9 @@
       </c>
       <c r="R65" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="S65" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5254,22 +5454,22 @@
         <v>65</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F66" s="0" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="J66" s="0" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L66" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M66" s="0" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="N66" s="4" t="n">
         <v>153</v>
@@ -5285,6 +5485,9 @@
       </c>
       <c r="R66" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="S66" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5292,31 +5495,31 @@
         <v>66</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E67" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F67" s="0" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="I67" s="0" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="J67" s="0" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="K67" s="0" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="L67" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M67" s="0" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="N67" s="4" t="n">
         <v>851.33</v>
@@ -5332,6 +5535,9 @@
       </c>
       <c r="R67" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="S67" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5339,22 +5545,22 @@
         <v>67</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F68" s="0" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="J68" s="0" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="L68" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M68" s="0" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="N68" s="4" t="n">
         <v>-0.03783</v>
@@ -5370,6 +5576,9 @@
       </c>
       <c r="R68" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="S68" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5377,22 +5586,22 @@
         <v>68</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F69" s="0" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="J69" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="L69" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M69" s="0" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="N69" s="4" t="n">
         <v>0.78469</v>
@@ -5408,6 +5617,9 @@
       </c>
       <c r="R69" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="S69" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5415,22 +5627,22 @@
         <v>69</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F70" s="0" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="J70" s="0" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="L70" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M70" s="0" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="N70" s="4" t="n">
         <v>0.01379</v>
@@ -5446,6 +5658,9 @@
       </c>
       <c r="R70" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="S70" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5453,22 +5668,22 @@
         <v>70</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F71" s="0" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="J71" s="0" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="L71" s="3" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="M71" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N71" s="4" t="n">
         <v>1</v>
@@ -5484,6 +5699,9 @@
       </c>
       <c r="R71" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="S71" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5491,22 +5709,22 @@
         <v>71</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F72" s="0" t="s">
+        <v>378</v>
+      </c>
+      <c r="J72" s="0" t="s">
+        <v>379</v>
+      </c>
+      <c r="L72" s="3" t="s">
         <v>377</v>
       </c>
-      <c r="J72" s="0" t="s">
-        <v>378</v>
-      </c>
-      <c r="L72" s="3" t="s">
-        <v>376</v>
-      </c>
       <c r="M72" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N72" s="4" t="n">
         <v>4.5</v>
@@ -5522,6 +5740,9 @@
       </c>
       <c r="R72" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="S72" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5529,22 +5750,22 @@
         <v>72</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F73" s="0" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="J73" s="0" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="L73" s="3" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="M73" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N73" s="4" t="n">
         <v>0.015</v>
@@ -5560,6 +5781,9 @@
       </c>
       <c r="R73" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="S73" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5567,22 +5791,22 @@
         <v>73</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F74" s="0" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="J74" s="0" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="L74" s="3" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="M74" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N74" s="4" t="n">
         <v>3</v>
@@ -5598,6 +5822,9 @@
       </c>
       <c r="R74" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="S74" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5605,22 +5832,22 @@
         <v>74</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F75" s="0" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="J75" s="0" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="L75" s="3" t="s">
         <v>9</v>
       </c>
       <c r="M75" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N75" s="4" t="n">
         <v>37</v>
@@ -5636,6 +5863,9 @@
       </c>
       <c r="R75" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="S75" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5643,23 +5873,23 @@
         <v>75</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F76" s="0" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="J76" s="3" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="K76" s="3"/>
       <c r="L76" s="3" t="s">
         <v>9</v>
       </c>
       <c r="M76" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N76" s="4" t="n">
         <v>20</v>
@@ -5675,6 +5905,9 @@
       </c>
       <c r="R76" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="S76" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5682,23 +5915,23 @@
         <v>76</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F77" s="0" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="J77" s="3" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="K77" s="3"/>
       <c r="L77" s="3" t="s">
         <v>9</v>
       </c>
       <c r="M77" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N77" s="4" t="n">
         <v>28</v>
@@ -5714,6 +5947,9 @@
       </c>
       <c r="R77" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="S77" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5721,22 +5957,22 @@
         <v>77</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F78" s="0" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="J78" s="0" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L78" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M78" s="0" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="N78" s="4" t="n">
         <v>-25</v>
@@ -5752,6 +5988,9 @@
       </c>
       <c r="R78" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="S78" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5759,22 +5998,22 @@
         <v>78</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F79" s="0" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="J79" s="0" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="L79" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M79" s="0" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="N79" s="4" t="n">
         <v>350</v>
@@ -5789,7 +6028,10 @@
         <v>0</v>
       </c>
       <c r="R79" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="S79" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5797,22 +6039,22 @@
         <v>79</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F80" s="0" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="J80" s="0" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="L80" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M80" s="0" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="N80" s="4" t="n">
         <v>0.1</v>
@@ -5828,6 +6070,9 @@
       </c>
       <c r="R80" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="S80" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5835,22 +6080,22 @@
         <v>80</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="F81" s="0" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="J81" s="0" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="L81" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M81" s="0" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="N81" s="4" t="n">
         <v>4.53</v>
@@ -5866,6 +6111,9 @@
       </c>
       <c r="R81" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="S81" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5873,22 +6121,22 @@
         <v>81</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D82" s="0" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="F82" s="0" t="s">
+        <v>400</v>
+      </c>
+      <c r="J82" s="0" t="s">
+        <v>401</v>
+      </c>
+      <c r="L82" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M82" s="0" t="s">
         <v>399</v>
-      </c>
-      <c r="J82" s="0" t="s">
-        <v>400</v>
-      </c>
-      <c r="L82" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="M82" s="0" t="s">
-        <v>398</v>
       </c>
       <c r="N82" s="4" t="n">
         <v>0.42</v>
@@ -5904,6 +6152,9 @@
       </c>
       <c r="R82" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="S82" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5911,22 +6162,22 @@
         <v>82</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="F83" s="0" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="J83" s="0" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="L83" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M83" s="0" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="N83" s="4" t="n">
         <v>6.49</v>
@@ -5942,6 +6193,9 @@
       </c>
       <c r="R83" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="S83" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5949,22 +6203,22 @@
         <v>83</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D84" s="0" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="F84" s="0" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="J84" s="0" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="L84" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M84" s="0" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="N84" s="4" t="n">
         <v>0.44</v>
@@ -5980,6 +6234,9 @@
       </c>
       <c r="R84" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="S84" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5987,22 +6244,22 @@
         <v>84</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D85" s="0" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="F85" s="0" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="J85" s="0" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="L85" s="3" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="M85" s="0" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="N85" s="4" t="n">
         <v>75</v>
@@ -6018,6 +6275,9 @@
       </c>
       <c r="R85" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="S85" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6025,22 +6285,22 @@
         <v>85</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="F86" s="0" t="s">
+        <v>409</v>
+      </c>
+      <c r="J86" s="0" t="s">
+        <v>410</v>
+      </c>
+      <c r="L86" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="J86" s="0" t="s">
-        <v>409</v>
-      </c>
-      <c r="L86" s="3" t="s">
-        <v>407</v>
-      </c>
       <c r="M86" s="0" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="N86" s="4" t="n">
         <v>75</v>
@@ -6056,6 +6316,9 @@
       </c>
       <c r="R86" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="S86" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6063,22 +6326,22 @@
         <v>86</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="F87" s="0" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="J87" s="0" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="L87" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M87" s="0" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="N87" s="4" t="n">
         <v>0.6</v>
@@ -6094,6 +6357,9 @@
       </c>
       <c r="R87" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="S87" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6101,22 +6367,22 @@
         <v>87</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D88" s="0" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="F88" s="0" t="s">
+        <v>414</v>
+      </c>
+      <c r="J88" s="0" t="s">
+        <v>415</v>
+      </c>
+      <c r="L88" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M88" s="0" t="s">
         <v>413</v>
-      </c>
-      <c r="J88" s="0" t="s">
-        <v>414</v>
-      </c>
-      <c r="L88" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="M88" s="0" t="s">
-        <v>412</v>
       </c>
       <c r="N88" s="4" t="n">
         <v>0.3</v>
@@ -6132,6 +6398,9 @@
       </c>
       <c r="R88" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="S88" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6139,22 +6408,22 @@
         <v>88</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D89" s="0" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="F89" s="0" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="J89" s="0" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="L89" s="3" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="M89" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N89" s="4" t="n">
         <v>0.7</v>
@@ -6170,6 +6439,9 @@
       </c>
       <c r="R89" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="S89" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6177,19 +6449,19 @@
         <v>89</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D90" s="0" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="F90" s="0" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="J90" s="0" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="L90" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N90" s="4" t="n">
         <v>0.6</v>
@@ -6204,7 +6476,10 @@
         <v>0</v>
       </c>
       <c r="R90" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="S90" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6212,22 +6487,22 @@
         <v>90</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D91" s="0" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="F91" s="0" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="J91" s="0" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="L91" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M91" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N91" s="4" t="n">
         <v>1.2</v>
@@ -6243,6 +6518,9 @@
       </c>
       <c r="R91" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="S91" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6250,31 +6528,31 @@
         <v>91</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D92" s="0" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E92" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F92" s="0" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="I92" s="0" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="J92" s="0" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="K92" s="0" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="L92" s="3" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="M92" s="0" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="N92" s="4" t="n">
         <v>1.19</v>
@@ -6290,6 +6568,9 @@
       </c>
       <c r="R92" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="S92" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6297,13 +6578,13 @@
         <v>100</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D93" s="0" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="F93" s="0" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="L93" s="3"/>
       <c r="O93" s="0" t="n">
@@ -6316,6 +6597,9 @@
         <v>0</v>
       </c>
       <c r="R93" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S93" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6324,13 +6608,13 @@
         <v>101</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D94" s="0" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="F94" s="0" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="L94" s="3"/>
       <c r="O94" s="0" t="n">
@@ -6343,6 +6627,9 @@
         <v>0</v>
       </c>
       <c r="R94" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S94" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6351,13 +6638,13 @@
         <v>102</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D95" s="0" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="F95" s="0" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="L95" s="3"/>
       <c r="O95" s="0" t="n">
@@ -6370,6 +6657,9 @@
         <v>0</v>
       </c>
       <c r="R95" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S95" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6378,13 +6668,13 @@
         <v>103</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D96" s="0" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="F96" s="0" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="L96" s="3"/>
       <c r="O96" s="0" t="n">
@@ -6397,6 +6687,9 @@
         <v>0</v>
       </c>
       <c r="R96" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S96" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6405,13 +6698,13 @@
         <v>104</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D97" s="0" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="F97" s="0" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="L97" s="3"/>
       <c r="O97" s="0" t="n">
@@ -6424,6 +6717,9 @@
         <v>0</v>
       </c>
       <c r="R97" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S97" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6432,13 +6728,13 @@
         <v>105</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D98" s="0" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="F98" s="0" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="L98" s="3"/>
       <c r="O98" s="0" t="n">
@@ -6451,6 +6747,9 @@
         <v>0</v>
       </c>
       <c r="R98" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S98" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6459,13 +6758,13 @@
         <v>106</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D99" s="0" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="F99" s="0" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="L99" s="3"/>
       <c r="O99" s="0" t="n">
@@ -6478,6 +6777,9 @@
         <v>0</v>
       </c>
       <c r="R99" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S99" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6486,13 +6788,13 @@
         <v>107</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D100" s="0" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="F100" s="0" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="L100" s="3"/>
       <c r="O100" s="0" t="n">
@@ -6505,6 +6807,9 @@
         <v>0</v>
       </c>
       <c r="R100" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S100" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6513,13 +6818,13 @@
         <v>108</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D101" s="0" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="F101" s="0" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="L101" s="3"/>
       <c r="O101" s="0" t="n">
@@ -6532,6 +6837,9 @@
         <v>0</v>
       </c>
       <c r="R101" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S101" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6540,13 +6848,13 @@
         <v>109</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D102" s="0" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="F102" s="0" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="O102" s="0" t="n">
         <v>0</v>
@@ -6558,6 +6866,9 @@
         <v>0</v>
       </c>
       <c r="R102" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S102" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6621,106 +6932,106 @@
     </row>
     <row r="2" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
   </sheetData>
@@ -6763,10 +7074,10 @@
         <v>27</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>32</v>
@@ -6781,7 +7092,7 @@
         <v>4</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6789,19 +7100,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="G2" s="0" t="s">
         <v>9</v>
@@ -6815,19 +7126,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="G3" s="0" t="s">
         <v>9</v>
@@ -6841,19 +7152,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="G4" s="0" t="s">
         <v>9</v>
@@ -6867,13 +7178,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>14</v>
@@ -6882,7 +7193,7 @@
         <v>16</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="H5" s="0" t="n">
         <v>1</v>
@@ -6893,13 +7204,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>19</v>
@@ -6919,13 +7230,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>24</v>
@@ -6945,22 +7256,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H8" s="0" t="n">
         <v>1</v>
@@ -6971,22 +7282,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H9" s="0" t="n">
         <v>1</v>
@@ -6997,22 +7308,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H10" s="0" t="n">
         <v>1</v>
@@ -7023,22 +7334,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H11" s="0" t="n">
         <v>1</v>
@@ -7049,22 +7360,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H12" s="0" t="n">
         <v>1</v>
@@ -7075,22 +7386,22 @@
         <v>12</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H13" s="0" t="n">
         <v>1</v>
@@ -7101,22 +7412,22 @@
         <v>13</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H14" s="0" t="n">
         <v>1</v>
@@ -7127,22 +7438,22 @@
         <v>14</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="H15" s="0" t="n">
         <v>1</v>
@@ -7153,22 +7464,22 @@
         <v>15</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H16" s="0" t="n">
         <v>1</v>
@@ -7179,22 +7490,22 @@
         <v>16</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H17" s="0" t="n">
         <v>1</v>
@@ -7205,22 +7516,22 @@
         <v>17</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H18" s="0" t="n">
         <v>1</v>
@@ -7231,22 +7542,22 @@
         <v>18</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H19" s="0" t="n">
         <v>1</v>
@@ -7257,22 +7568,22 @@
         <v>19</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H20" s="0" t="n">
         <v>1</v>
@@ -7283,22 +7594,22 @@
         <v>20</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H21" s="0" t="n">
         <v>1</v>
@@ -7309,22 +7620,22 @@
         <v>21</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H22" s="0" t="n">
         <v>1</v>
@@ -7335,22 +7646,22 @@
         <v>22</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H23" s="0" t="n">
         <v>1</v>
@@ -7398,22 +7709,22 @@
         <v>27</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>2</v>
@@ -7425,7 +7736,7 @@
         <v>4</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7433,34 +7744,34 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7468,34 +7779,34 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>26</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="J3" s="0" t="s">
         <v>23</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7503,34 +7814,34 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="J4" s="0" t="s">
         <v>23</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7538,34 +7849,34 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="J5" s="0" t="s">
         <v>23</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7573,34 +7884,34 @@
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7608,34 +7919,34 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7643,34 +7954,34 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7678,34 +7989,34 @@
         <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7713,34 +8024,34 @@
         <v>9</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7748,34 +8059,34 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7783,34 +8094,34 @@
         <v>11</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7818,34 +8129,34 @@
         <v>12</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7853,34 +8164,34 @@
         <v>13</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7888,34 +8199,34 @@
         <v>14</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7923,34 +8234,34 @@
         <v>15</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="K16" s="0" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7958,34 +8269,34 @@
         <v>16</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7993,34 +8304,34 @@
         <v>17</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="K18" s="0" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8028,34 +8339,34 @@
         <v>18</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8063,34 +8374,34 @@
         <v>19</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="K20" s="0" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8098,34 +8409,34 @@
         <v>20</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="K21" s="0" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/inst/doc/files/parameterization.xlsx
+++ b/inst/doc/files/parameterization.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="232" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="286" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="climate" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,38 +15,39 @@
     <sheet name="indicators" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">parameters!$A$1:$P$102</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">parameters!$A$1:$P$102</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">parameters!$A$1:$P$102</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">parameters!$A$1:$P$102</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">parameters!$A$1:$P$102</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">parameters!$A$1:$P$102</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">parameters!$A$1:$P$102</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">parameters!$A$1:$P$102</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">parameters!$A$1:$P$102</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">parameters!$A$1:$P$102</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">parameters!$A$1:$P$102</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">parameters!$A$1:$P$102</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">parameters!$A$1:$P$102</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">parameters!$A$1:$P$102</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">parameters!$A$1:$P$102</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">parameters!$A$1:$P$102</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">parameters!$A$1:$P$102</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">parameters!$A$1:$P$102</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">parameters!$A$1:$P$102</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">parameters!$A$1:$P$102</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">parameters!$A$1:$P$102</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">parameters!$A$1:$P$102</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">parameters!$A$1:$P$102</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">parameters!$A$1:$P$102</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">parameters!$A$1:$P$102</definedName>
+    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">parameters!$A$1:$Q$102</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">parameters!$A$1:$Q$102</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">parameters!$A$1:$Q$102</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">parameters!$A$1:$Q$102</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">parameters!$A$1:$Q$102</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">parameters!$A$1:$Q$102</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">parameters!$A$1:$Q$102</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">parameters!$A$1:$Q$102</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">parameters!$A$1:$Q$102</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">parameters!$A$1:$Q$102</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">parameters!$A$1:$Q$102</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">parameters!$A$1:$Q$102</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">parameters!$A$1:$Q$102</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">parameters!$A$1:$Q$102</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">parameters!$A$1:$Q$102</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">parameters!$A$1:$Q$102</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">parameters!$A$1:$Q$102</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">parameters!$A$1:$Q$102</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">parameters!$A$1:$Q$102</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">parameters!$A$1:$Q$102</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">parameters!$A$1:$Q$102</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">parameters!$A$1:$Q$102</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">parameters!$A$1:$Q$102</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">parameters!$A$1:$Q$102</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">parameters!$A$1:$Q$102</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">parameters!$A$1:$Q$102</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1190" uniqueCount="617">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1293" uniqueCount="625">
   <si>
     <t>name.rsunflo.fr</t>
   </si>
@@ -138,6 +139,9 @@
     <t>category</t>
   </si>
   <si>
+    <t>category.en</t>
+  </si>
+  <si>
     <t>condition</t>
   </si>
   <si>
@@ -171,9 +175,15 @@
     <t>need</t>
   </si>
   <si>
+    <t>optimization</t>
+  </si>
+  <si>
     <t>Variete</t>
   </si>
   <si>
+    <t>Genotype</t>
+  </si>
+  <si>
     <t>CONFIG_Variete</t>
   </si>
   <si>
@@ -399,6 +409,9 @@
     <t>Pedoclimat</t>
   </si>
   <si>
+    <t>Environment</t>
+  </si>
+  <si>
     <t>CONFIG_ClimatNomFichier</t>
   </si>
   <si>
@@ -594,6 +607,9 @@
     <t>Conduite</t>
   </si>
   <si>
+    <t>Management</t>
+  </si>
+  <si>
     <t>CONFIG_Conduite</t>
   </si>
   <si>
@@ -966,6 +982,9 @@
     <t>Initialisation</t>
   </si>
   <si>
+    <t>Initialization</t>
+  </si>
+  <si>
     <t>begin</t>
   </si>
   <si>
@@ -1059,6 +1078,9 @@
     <t>Espece</t>
   </si>
   <si>
+    <t>Species</t>
+  </si>
+  <si>
     <t>CONFIG_Plante</t>
   </si>
   <si>
@@ -1339,6 +1361,9 @@
   </si>
   <si>
     <t>Simulation</t>
+  </si>
+  <si>
+    <t>Software</t>
   </si>
   <si>
     <t>zCondClimat</t>
@@ -2174,10 +2199,10 @@
     <tabColor rgb="FFFFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:102"/>
+  <dimension ref="A1:U102"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K9" activeCellId="0" sqref="K9"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="U2" activeCellId="0" sqref="U2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.15"/>
@@ -2185,19 +2210,19 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.69387755102041"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="7.62244897959184"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.2908163265306"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.6122448979592"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="20.25"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.1377551020408"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="17.5408163265306"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="23.6581632653061"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="90.6581632653061"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="55.3826530612245"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="21.2091836734694"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="18.9234693877551"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="12.8061224489796"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="15.8826530612245"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="13.5612244897959"/>
-    <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="11.8061224489796"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="24.6122448979592"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="20.25"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="16.1377551020408"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="17.5408163265306"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="23.6581632653061"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="90.6581632653061"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="55.3826530612245"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="21.2091836734694"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="18.9234693877551"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="12.8061224489796"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="15.8826530612245"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="13.5612244897959"/>
+    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="11.8061224489796"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2220,30 +2245,30 @@
         <v>32</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>36</v>
       </c>
       <c r="P1" s="1" t="s">
@@ -2258,7 +2283,12 @@
       <c r="S1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AMJ1" s="0"/>
+      <c r="T1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
@@ -2268,54 +2298,60 @@
         <v>2</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="M2" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="N2" s="0" t="n">
+      <c r="L2" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="O2" s="0" t="n">
         <v>482</v>
       </c>
-      <c r="O2" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="P2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="Q2" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R2" s="0" t="n">
         <v>0</v>
       </c>
       <c r="S2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2327,44 +2363,44 @@
         <v>2</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G3" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="H3" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="I3" s="0" t="s">
+      <c r="N3" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="J3" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="K3" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="N3" s="0" t="n">
+      <c r="O3" s="0" t="n">
         <v>836</v>
       </c>
-      <c r="O3" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="P3" s="0" t="n">
         <v>1</v>
       </c>
@@ -2375,6 +2411,12 @@
         <v>1</v>
       </c>
       <c r="S3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U3" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2386,54 +2428,60 @@
         <v>2</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="N4" s="0" t="n">
+        <v>62</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="O4" s="0" t="n">
         <v>1083</v>
       </c>
-      <c r="O4" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="P4" s="0" t="n">
         <v>1</v>
       </c>
       <c r="Q4" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R4" s="0" t="n">
         <v>0</v>
       </c>
       <c r="S4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2445,44 +2493,44 @@
         <v>2</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="M5" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="N5" s="0" t="n">
+        <v>67</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="O5" s="0" t="n">
         <v>1673</v>
       </c>
-      <c r="O5" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="P5" s="0" t="n">
         <v>1</v>
       </c>
@@ -2493,6 +2541,12 @@
         <v>1</v>
       </c>
       <c r="S5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U5" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2504,44 +2558,44 @@
         <v>2</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="M6" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="N6" s="0" t="n">
+        <v>72</v>
+      </c>
+      <c r="L6" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="N6" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="O6" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="O6" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="P6" s="0" t="n">
         <v>1</v>
       </c>
@@ -2552,6 +2606,12 @@
         <v>1</v>
       </c>
       <c r="S6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U6" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2563,44 +2623,44 @@
         <v>2</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I7" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="L7" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="M7" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="J7" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="K7" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="M7" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="N7" s="0" t="n">
+      <c r="N7" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="O7" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="O7" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="P7" s="0" t="n">
         <v>1</v>
       </c>
@@ -2611,6 +2671,12 @@
         <v>1</v>
       </c>
       <c r="S7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U7" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2622,44 +2688,44 @@
         <v>2</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="M8" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="N8" s="0" t="n">
+        <v>83</v>
+      </c>
+      <c r="L8" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="N8" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="O8" s="0" t="n">
         <v>448</v>
       </c>
-      <c r="O8" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="P8" s="0" t="n">
         <v>1</v>
       </c>
@@ -2670,6 +2736,12 @@
         <v>1</v>
       </c>
       <c r="S8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U8" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2681,41 +2753,41 @@
         <v>2</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>83</v>
+        <v>44</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>45</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="M9" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="N9" s="0" t="n">
+        <v>89</v>
+      </c>
+      <c r="L9" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="N9" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="O9" s="0" t="n">
         <v>0.88</v>
       </c>
-      <c r="O9" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="P9" s="0" t="n">
         <v>1</v>
       </c>
@@ -2726,6 +2798,12 @@
         <v>1</v>
       </c>
       <c r="S9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U9" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2737,41 +2815,41 @@
         <v>2</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>89</v>
+        <v>44</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>45</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="I10" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="J10" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="L10" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="M10" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="K10" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="M10" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="N10" s="0" t="n">
+      <c r="N10" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="O10" s="0" t="n">
         <v>-4.42</v>
       </c>
-      <c r="O10" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="P10" s="0" t="n">
         <v>1</v>
       </c>
@@ -2782,6 +2860,12 @@
         <v>1</v>
       </c>
       <c r="S10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U10" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2793,41 +2877,41 @@
         <v>2</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="F11" s="0" t="s">
-        <v>95</v>
+        <v>44</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>45</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I11" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="J11" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="K11" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="L11" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="N11" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="J11" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="K11" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="M11" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="N11" s="0" t="n">
+      <c r="O11" s="0" t="n">
         <v>-9.3</v>
       </c>
-      <c r="O11" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="P11" s="0" t="n">
         <v>1</v>
       </c>
@@ -2838,6 +2922,12 @@
         <v>1</v>
       </c>
       <c r="S11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U11" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2849,38 +2939,38 @@
         <v>2</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="F12" s="0" t="s">
-        <v>100</v>
+        <v>44</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>45</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="L12" s="3"/>
-      <c r="M12" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="N12" s="0" t="n">
-        <v>1</v>
+        <v>105</v>
+      </c>
+      <c r="L12" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="M12" s="3"/>
+      <c r="N12" s="0" t="s">
+        <v>53</v>
       </c>
       <c r="O12" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P12" s="0" t="n">
         <v>0</v>
@@ -2892,6 +2982,12 @@
         <v>0</v>
       </c>
       <c r="S12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2903,41 +2999,41 @@
         <v>2</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="F13" s="0" t="s">
-        <v>104</v>
+        <v>44</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>45</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L13" s="0" t="s">
-        <v>88</v>
+        <v>111</v>
       </c>
       <c r="M13" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="N13" s="0" t="n">
+        <v>91</v>
+      </c>
+      <c r="N13" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="O13" s="0" t="n">
         <v>0.398</v>
       </c>
-      <c r="O13" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="P13" s="0" t="n">
         <v>1</v>
       </c>
@@ -2949,6 +3045,12 @@
       </c>
       <c r="S13" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="T13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U13" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2959,41 +3061,41 @@
         <v>2</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="F14" s="0" t="s">
-        <v>110</v>
+        <v>44</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>45</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I14" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="J14" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="K14" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="L14" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="N14" s="0" t="s">
         <v>112</v>
       </c>
-      <c r="J14" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="K14" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="M14" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="N14" s="0" t="n">
+      <c r="O14" s="0" t="n">
         <v>55.4</v>
       </c>
-      <c r="O14" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="P14" s="0" t="n">
         <v>1</v>
       </c>
@@ -3005,6 +3107,12 @@
       </c>
       <c r="S14" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="T14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U14" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3012,34 +3120,34 @@
         <v>14</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>117</v>
-      </c>
-      <c r="F15" s="0" t="s">
-        <v>118</v>
+        <v>120</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>121</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>120</v>
-      </c>
-      <c r="J15" s="0" t="s">
-        <v>121</v>
+        <v>123</v>
+      </c>
+      <c r="I15" s="0" t="s">
+        <v>124</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="N15" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="O15" s="0" t="n">
-        <v>1</v>
+        <v>125</v>
+      </c>
+      <c r="L15" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="O15" s="4" t="s">
+        <v>127</v>
       </c>
       <c r="P15" s="0" t="n">
         <v>1</v>
@@ -3048,9 +3156,15 @@
         <v>1</v>
       </c>
       <c r="R15" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3059,51 +3173,57 @@
         <v>15</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="F16" s="0" t="s">
-        <v>125</v>
+        <v>120</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>128</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="K16" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="L16" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="L16" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="M16" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="M16" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="N16" s="0" t="n">
+      <c r="N16" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="O16" s="0" t="n">
         <v>1000</v>
       </c>
-      <c r="O16" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="P16" s="0" t="n">
         <v>1</v>
       </c>
       <c r="Q16" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R16" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U16" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3112,48 +3232,54 @@
         <v>16</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="F17" s="0" t="s">
-        <v>130</v>
+        <v>120</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>128</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="N17" s="0" t="n">
+        <v>138</v>
+      </c>
+      <c r="L17" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="O17" s="0" t="n">
         <v>19.69</v>
       </c>
-      <c r="O17" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="P17" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q17" s="0" t="n">
         <v>0</v>
       </c>
       <c r="R17" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U17" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3162,48 +3288,54 @@
         <v>17</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="F18" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="H18" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="I18" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J18" s="0" t="s">
         <v>137</v>
       </c>
-      <c r="G18" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="H18" s="0" t="s">
-        <v>139</v>
-      </c>
-      <c r="I18" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="J18" s="0" t="s">
+      <c r="K18" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="L18" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="M18" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="K18" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="N18" s="0" t="n">
+      <c r="O18" s="0" t="n">
         <v>9.69</v>
       </c>
-      <c r="O18" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="P18" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q18" s="0" t="n">
         <v>0</v>
       </c>
       <c r="R18" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U18" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3212,49 +3344,55 @@
         <v>18</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="F19" s="0" t="s">
-        <v>142</v>
+        <v>120</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>128</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>146</v>
-      </c>
-      <c r="L19" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="N19" s="0" t="n">
+        <v>149</v>
+      </c>
+      <c r="L19" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="O19" s="0" t="n">
         <v>19.69</v>
       </c>
-      <c r="O19" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="P19" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q19" s="0" t="n">
         <v>0</v>
       </c>
       <c r="R19" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S19" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="T19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U19" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3262,49 +3400,55 @@
         <v>19</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="F20" s="0" t="s">
-        <v>147</v>
+        <v>120</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>128</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="K20" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="N20" s="0" t="n">
+        <v>154</v>
+      </c>
+      <c r="L20" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="O20" s="0" t="n">
         <v>9.69</v>
       </c>
-      <c r="O20" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="P20" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q20" s="0" t="n">
         <v>0</v>
       </c>
       <c r="R20" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S20" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="T20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U20" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3312,48 +3456,54 @@
         <v>20</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="F21" s="0" t="s">
-        <v>152</v>
+        <v>120</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>128</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="K21" s="0" t="s">
-        <v>157</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="N21" s="0" t="n">
+        <v>160</v>
+      </c>
+      <c r="L21" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="O21" s="0" t="n">
         <v>1.3</v>
       </c>
-      <c r="O21" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="P21" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q21" s="0" t="n">
         <v>0</v>
       </c>
       <c r="R21" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U21" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3362,49 +3512,55 @@
         <v>21</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="F22" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="H22" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="I22" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="J22" s="0" t="s">
         <v>159</v>
       </c>
-      <c r="G22" s="0" t="s">
-        <v>160</v>
-      </c>
-      <c r="H22" s="0" t="s">
-        <v>161</v>
-      </c>
-      <c r="I22" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="J22" s="0" t="s">
+      <c r="K22" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="L22" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="M22" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="K22" s="0" t="s">
-        <v>163</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="N22" s="0" t="n">
+      <c r="O22" s="0" t="n">
         <v>1.3</v>
       </c>
-      <c r="O22" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="P22" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q22" s="0" t="n">
         <v>0</v>
       </c>
       <c r="R22" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S22" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="T22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U22" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3412,49 +3568,55 @@
         <v>22</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="F23" s="0" t="s">
-        <v>164</v>
+        <v>120</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>128</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="K23" s="0" t="s">
-        <v>169</v>
-      </c>
-      <c r="L23" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="N23" s="0" t="n">
+        <v>172</v>
+      </c>
+      <c r="L23" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="O23" s="0" t="n">
         <v>0.1</v>
       </c>
-      <c r="O23" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="P23" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q23" s="0" t="n">
         <v>0</v>
       </c>
       <c r="R23" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S23" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="T23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U23" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3462,52 +3624,58 @@
         <v>23</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="F24" s="0" t="s">
-        <v>171</v>
+        <v>120</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>128</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="K24" s="0" t="s">
-        <v>176</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="M24" s="0" t="s">
-        <v>178</v>
-      </c>
-      <c r="N24" s="0" t="n">
+        <v>179</v>
+      </c>
+      <c r="L24" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="N24" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="O24" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="O24" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="P24" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q24" s="0" t="n">
         <v>0</v>
       </c>
       <c r="R24" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S24" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="T24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U24" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3515,29 +3683,29 @@
         <v>24</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="F25" s="0" t="s">
-        <v>179</v>
-      </c>
-      <c r="J25" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="L25" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="M25" s="0" t="s">
-        <v>178</v>
-      </c>
-      <c r="N25" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="G25" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="K25" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="M25" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="N25" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="O25" s="0" t="n">
         <v>0.2</v>
       </c>
-      <c r="O25" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="P25" s="0" t="n">
         <v>0</v>
       </c>
@@ -3545,9 +3713,15 @@
         <v>0</v>
       </c>
       <c r="R25" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3556,48 +3730,54 @@
         <v>25</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>182</v>
-      </c>
-      <c r="F26" s="0" t="s">
-        <v>183</v>
+        <v>186</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>187</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="I26" s="0" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="K26" s="0" t="s">
-        <v>188</v>
-      </c>
-      <c r="L26" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="N26" s="5" t="n">
+        <v>192</v>
+      </c>
+      <c r="L26" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="O26" s="5" t="n">
         <v>41380</v>
       </c>
-      <c r="O26" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="P26" s="0" t="n">
         <v>1</v>
       </c>
       <c r="Q26" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R26" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U26" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3606,48 +3786,54 @@
         <v>26</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>182</v>
-      </c>
-      <c r="F27" s="0" t="s">
-        <v>190</v>
+        <v>186</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>187</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="I27" s="0" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="J27" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="K27" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="L27" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="M27" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="K27" s="0" t="s">
-        <v>195</v>
-      </c>
-      <c r="L27" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="N27" s="5" t="n">
+      <c r="O27" s="5" t="n">
         <v>41548</v>
       </c>
-      <c r="O27" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="P27" s="0" t="n">
         <v>1</v>
       </c>
       <c r="Q27" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R27" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U27" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3656,41 +3842,41 @@
         <v>27</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>43</v>
+        <v>187</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>196</v>
+        <v>46</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="I28" s="0" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="J28" s="0" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="K28" s="0" t="s">
-        <v>201</v>
-      </c>
-      <c r="L28" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="L28" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="M28" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N28" s="4" t="n">
+      <c r="O28" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="O28" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="P28" s="0" t="n">
         <v>0</v>
       </c>
@@ -3698,9 +3884,15 @@
         <v>0</v>
       </c>
       <c r="R28" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3709,48 +3901,54 @@
         <v>28</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>182</v>
-      </c>
-      <c r="F29" s="0" t="s">
-        <v>202</v>
+        <v>186</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>187</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="I29" s="0" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="J29" s="0" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="K29" s="0" t="s">
-        <v>206</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="N29" s="4" t="n">
+        <v>210</v>
+      </c>
+      <c r="L29" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="O29" s="4" t="n">
         <v>7</v>
       </c>
-      <c r="O29" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="P29" s="0" t="n">
         <v>1</v>
       </c>
       <c r="Q29" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R29" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U29" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3759,49 +3957,55 @@
         <v>29</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>182</v>
-      </c>
-      <c r="F30" s="0" t="s">
-        <v>208</v>
+        <v>186</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>187</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="I30" s="0" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="J30" s="0" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="K30" s="0" t="s">
-        <v>213</v>
-      </c>
-      <c r="L30" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="N30" s="6" t="n">
+        <v>217</v>
+      </c>
+      <c r="L30" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="M30" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="O30" s="6" t="n">
         <v>41275</v>
       </c>
-      <c r="O30" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="P30" s="0" t="n">
         <v>1</v>
       </c>
       <c r="Q30" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R30" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S30" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="T30" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U30" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3809,48 +4013,54 @@
         <v>30</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>182</v>
-      </c>
-      <c r="F31" s="0" t="s">
-        <v>214</v>
+        <v>186</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>187</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="H31" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="I31" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="J31" s="0" t="s">
         <v>216</v>
       </c>
-      <c r="I31" s="0" t="s">
-        <v>211</v>
-      </c>
-      <c r="J31" s="0" t="s">
-        <v>217</v>
-      </c>
       <c r="K31" s="0" t="s">
-        <v>218</v>
-      </c>
-      <c r="L31" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="N31" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" s="0" t="n">
-        <v>1</v>
+        <v>222</v>
+      </c>
+      <c r="L31" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="M31" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="O31" s="4" t="n">
+        <v>0</v>
       </c>
       <c r="P31" s="0" t="n">
         <v>1</v>
       </c>
       <c r="Q31" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R31" s="0" t="n">
         <v>0</v>
       </c>
       <c r="S31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3859,40 +4069,40 @@
         <v>31</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>182</v>
-      </c>
-      <c r="F32" s="0" t="s">
-        <v>220</v>
+        <v>186</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>187</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="I32" s="0" t="s">
-        <v>211</v>
+        <v>227</v>
       </c>
       <c r="J32" s="0" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="K32" s="0" t="s">
-        <v>224</v>
-      </c>
-      <c r="L32" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="N32" s="6" t="n">
+        <v>228</v>
+      </c>
+      <c r="L32" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="O32" s="6" t="n">
         <v>41275</v>
       </c>
-      <c r="O32" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="P32" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q32" s="0" t="n">
         <v>0</v>
@@ -3901,6 +4111,12 @@
         <v>0</v>
       </c>
       <c r="S32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3909,40 +4125,40 @@
         <v>32</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>182</v>
-      </c>
-      <c r="F33" s="0" t="s">
-        <v>225</v>
+        <v>186</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>187</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="I33" s="0" t="s">
-        <v>211</v>
+        <v>232</v>
       </c>
       <c r="J33" s="0" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="K33" s="0" t="s">
-        <v>229</v>
-      </c>
-      <c r="L33" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="N33" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" s="0" t="n">
-        <v>1</v>
+        <v>233</v>
+      </c>
+      <c r="L33" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="O33" s="4" t="n">
+        <v>0</v>
       </c>
       <c r="P33" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q33" s="0" t="n">
         <v>0</v>
@@ -3951,6 +4167,12 @@
         <v>0</v>
       </c>
       <c r="S33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U33" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3959,38 +4181,38 @@
         <v>33</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>182</v>
-      </c>
-      <c r="F34" s="0" t="s">
-        <v>230</v>
+        <v>186</v>
+      </c>
+      <c r="E34" s="0" t="s">
+        <v>187</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="I34" s="0" t="s">
-        <v>211</v>
+        <v>237</v>
       </c>
       <c r="J34" s="0" t="s">
-        <v>233</v>
+        <v>216</v>
       </c>
       <c r="K34" s="0" t="s">
-        <v>234</v>
-      </c>
-      <c r="L34" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="N34" s="6" t="n">
+        <v>238</v>
+      </c>
+      <c r="L34" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="M34" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="O34" s="6" t="n">
         <v>41275</v>
       </c>
-      <c r="O34" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="P34" s="0" t="n">
         <v>0</v>
       </c>
@@ -4001,6 +4223,12 @@
         <v>0</v>
       </c>
       <c r="S34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4009,36 +4237,36 @@
         <v>34</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>182</v>
-      </c>
-      <c r="F35" s="0" t="s">
-        <v>235</v>
+        <v>186</v>
+      </c>
+      <c r="E35" s="0" t="s">
+        <v>187</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="I35" s="0" t="s">
-        <v>211</v>
+        <v>242</v>
       </c>
       <c r="J35" s="0" t="s">
-        <v>238</v>
+        <v>216</v>
       </c>
       <c r="K35" s="0" t="s">
-        <v>239</v>
-      </c>
-      <c r="L35" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="N35" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" s="0" t="n">
+        <v>243</v>
+      </c>
+      <c r="L35" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="O35" s="4" t="n">
         <v>0</v>
       </c>
       <c r="P35" s="0" t="n">
@@ -4051,6 +4279,12 @@
         <v>0</v>
       </c>
       <c r="S35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4059,38 +4293,38 @@
         <v>35</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>182</v>
-      </c>
-      <c r="F36" s="0" t="s">
-        <v>240</v>
+        <v>186</v>
+      </c>
+      <c r="E36" s="0" t="s">
+        <v>187</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="I36" s="0" t="s">
-        <v>211</v>
+        <v>247</v>
       </c>
       <c r="J36" s="0" t="s">
-        <v>243</v>
+        <v>216</v>
       </c>
       <c r="K36" s="0" t="s">
-        <v>244</v>
-      </c>
-      <c r="L36" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="N36" s="6" t="n">
+        <v>248</v>
+      </c>
+      <c r="L36" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="M36" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="O36" s="6" t="n">
         <v>41275</v>
       </c>
-      <c r="O36" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="P36" s="0" t="n">
         <v>0</v>
       </c>
@@ -4101,6 +4335,12 @@
         <v>0</v>
       </c>
       <c r="S36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U36" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4109,36 +4349,36 @@
         <v>36</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>182</v>
-      </c>
-      <c r="F37" s="0" t="s">
-        <v>245</v>
+        <v>186</v>
+      </c>
+      <c r="E37" s="0" t="s">
+        <v>187</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="I37" s="0" t="s">
-        <v>211</v>
+        <v>252</v>
       </c>
       <c r="J37" s="0" t="s">
-        <v>248</v>
+        <v>216</v>
       </c>
       <c r="K37" s="0" t="s">
-        <v>249</v>
-      </c>
-      <c r="L37" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="N37" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" s="0" t="n">
+        <v>253</v>
+      </c>
+      <c r="L37" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="M37" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="O37" s="4" t="n">
         <v>0</v>
       </c>
       <c r="P37" s="0" t="n">
@@ -4151,6 +4391,12 @@
         <v>0</v>
       </c>
       <c r="S37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4159,49 +4405,55 @@
         <v>37</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>182</v>
-      </c>
-      <c r="F38" s="0" t="s">
-        <v>250</v>
+        <v>186</v>
+      </c>
+      <c r="E38" s="0" t="s">
+        <v>187</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="I38" s="0" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="J38" s="0" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="K38" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="L38" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="N38" s="6" t="n">
+        <v>259</v>
+      </c>
+      <c r="L38" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="M38" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="O38" s="6" t="n">
         <v>41275</v>
       </c>
-      <c r="O38" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="P38" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q38" s="0" t="n">
         <v>0</v>
       </c>
       <c r="R38" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S38" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="T38" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U38" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4209,40 +4461,40 @@
         <v>38</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>182</v>
-      </c>
-      <c r="F39" s="0" t="s">
-        <v>255</v>
+        <v>186</v>
+      </c>
+      <c r="E39" s="0" t="s">
+        <v>187</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="I39" s="0" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="J39" s="0" t="s">
         <v>258</v>
       </c>
       <c r="K39" s="0" t="s">
-        <v>259</v>
-      </c>
-      <c r="L39" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="L39" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="M39" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N39" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O39" s="0" t="n">
-        <v>1</v>
+      <c r="O39" s="4" t="n">
+        <v>0</v>
       </c>
       <c r="P39" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q39" s="0" t="n">
         <v>0</v>
@@ -4251,6 +4503,12 @@
         <v>0</v>
       </c>
       <c r="S39" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T39" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U39" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4259,40 +4517,40 @@
         <v>39</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>182</v>
-      </c>
-      <c r="F40" s="0" t="s">
-        <v>260</v>
+        <v>186</v>
+      </c>
+      <c r="E40" s="0" t="s">
+        <v>187</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="I40" s="0" t="s">
-        <v>253</v>
+        <v>267</v>
       </c>
       <c r="J40" s="0" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="K40" s="0" t="s">
-        <v>263</v>
-      </c>
-      <c r="L40" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="N40" s="6" t="n">
+        <v>268</v>
+      </c>
+      <c r="L40" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="M40" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="O40" s="6" t="n">
         <v>41275</v>
       </c>
-      <c r="O40" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="P40" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q40" s="0" t="n">
         <v>0</v>
@@ -4301,6 +4559,12 @@
         <v>0</v>
       </c>
       <c r="S40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4309,40 +4573,40 @@
         <v>40</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>182</v>
-      </c>
-      <c r="F41" s="0" t="s">
-        <v>264</v>
+        <v>186</v>
+      </c>
+      <c r="E41" s="0" t="s">
+        <v>187</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="H41" s="0" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="I41" s="0" t="s">
-        <v>253</v>
+        <v>271</v>
       </c>
       <c r="J41" s="0" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="K41" s="0" t="s">
-        <v>268</v>
-      </c>
-      <c r="L41" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="L41" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="M41" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N41" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" s="0" t="n">
-        <v>1</v>
+      <c r="O41" s="4" t="n">
+        <v>0</v>
       </c>
       <c r="P41" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q41" s="0" t="n">
         <v>0</v>
@@ -4351,6 +4615,12 @@
         <v>0</v>
       </c>
       <c r="S41" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4359,40 +4629,40 @@
         <v>41</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>182</v>
-      </c>
-      <c r="F42" s="0" t="s">
-        <v>269</v>
+        <v>186</v>
+      </c>
+      <c r="E42" s="0" t="s">
+        <v>187</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="H42" s="0" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="I42" s="0" t="s">
-        <v>253</v>
+        <v>276</v>
       </c>
       <c r="J42" s="0" t="s">
-        <v>272</v>
+        <v>258</v>
       </c>
       <c r="K42" s="0" t="s">
-        <v>272</v>
-      </c>
-      <c r="L42" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="N42" s="6" t="n">
+        <v>277</v>
+      </c>
+      <c r="L42" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="M42" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="O42" s="6" t="n">
         <v>41275</v>
       </c>
-      <c r="O42" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="P42" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q42" s="0" t="n">
         <v>0</v>
@@ -4401,6 +4671,12 @@
         <v>0</v>
       </c>
       <c r="S42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U42" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4409,40 +4685,40 @@
         <v>42</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>182</v>
-      </c>
-      <c r="F43" s="0" t="s">
-        <v>273</v>
+        <v>186</v>
+      </c>
+      <c r="E43" s="0" t="s">
+        <v>187</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="H43" s="0" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="I43" s="0" t="s">
-        <v>253</v>
+        <v>280</v>
       </c>
       <c r="J43" s="0" t="s">
-        <v>276</v>
+        <v>258</v>
       </c>
       <c r="K43" s="0" t="s">
-        <v>277</v>
-      </c>
-      <c r="L43" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="L43" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="M43" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N43" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" s="0" t="n">
-        <v>1</v>
+      <c r="O43" s="4" t="n">
+        <v>0</v>
       </c>
       <c r="P43" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q43" s="0" t="n">
         <v>0</v>
@@ -4451,6 +4727,12 @@
         <v>0</v>
       </c>
       <c r="S43" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4459,38 +4741,38 @@
         <v>43</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>182</v>
-      </c>
-      <c r="F44" s="0" t="s">
-        <v>278</v>
+        <v>186</v>
+      </c>
+      <c r="E44" s="0" t="s">
+        <v>187</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="H44" s="0" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="I44" s="0" t="s">
-        <v>253</v>
+        <v>285</v>
       </c>
       <c r="J44" s="0" t="s">
-        <v>281</v>
+        <v>258</v>
       </c>
       <c r="K44" s="0" t="s">
-        <v>281</v>
-      </c>
-      <c r="L44" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="N44" s="6" t="n">
+        <v>286</v>
+      </c>
+      <c r="L44" s="0" t="s">
+        <v>286</v>
+      </c>
+      <c r="M44" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="O44" s="6" t="n">
         <v>41275</v>
       </c>
-      <c r="O44" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="P44" s="0" t="n">
         <v>0</v>
       </c>
@@ -4501,6 +4783,12 @@
         <v>0</v>
       </c>
       <c r="S44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4509,36 +4797,36 @@
         <v>44</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>182</v>
-      </c>
-      <c r="F45" s="0" t="s">
-        <v>282</v>
+        <v>186</v>
+      </c>
+      <c r="E45" s="0" t="s">
+        <v>187</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="H45" s="0" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="I45" s="0" t="s">
-        <v>253</v>
+        <v>289</v>
       </c>
       <c r="J45" s="0" t="s">
-        <v>285</v>
+        <v>258</v>
       </c>
       <c r="K45" s="0" t="s">
-        <v>286</v>
-      </c>
-      <c r="L45" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="L45" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="M45" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N45" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O45" s="0" t="n">
+      <c r="O45" s="4" t="n">
         <v>0</v>
       </c>
       <c r="P45" s="0" t="n">
@@ -4551,6 +4839,12 @@
         <v>0</v>
       </c>
       <c r="S45" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T45" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U45" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4559,38 +4853,38 @@
         <v>45</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>182</v>
-      </c>
-      <c r="F46" s="0" t="s">
-        <v>287</v>
+        <v>186</v>
+      </c>
+      <c r="E46" s="0" t="s">
+        <v>187</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="H46" s="0" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="I46" s="0" t="s">
-        <v>253</v>
+        <v>294</v>
       </c>
       <c r="J46" s="0" t="s">
-        <v>290</v>
+        <v>258</v>
       </c>
       <c r="K46" s="0" t="s">
-        <v>290</v>
-      </c>
-      <c r="L46" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="N46" s="6" t="n">
+        <v>295</v>
+      </c>
+      <c r="L46" s="0" t="s">
+        <v>295</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="O46" s="6" t="n">
         <v>41275</v>
       </c>
-      <c r="O46" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="P46" s="0" t="n">
         <v>0</v>
       </c>
@@ -4601,6 +4895,12 @@
         <v>0</v>
       </c>
       <c r="S46" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4609,36 +4909,36 @@
         <v>46</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>182</v>
-      </c>
-      <c r="F47" s="0" t="s">
-        <v>291</v>
+        <v>186</v>
+      </c>
+      <c r="E47" s="0" t="s">
+        <v>187</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="H47" s="0" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="I47" s="0" t="s">
-        <v>253</v>
+        <v>298</v>
       </c>
       <c r="J47" s="0" t="s">
-        <v>294</v>
+        <v>258</v>
       </c>
       <c r="K47" s="0" t="s">
-        <v>295</v>
-      </c>
-      <c r="L47" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="L47" s="0" t="s">
+        <v>300</v>
+      </c>
+      <c r="M47" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N47" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O47" s="0" t="n">
+      <c r="O47" s="4" t="n">
         <v>0</v>
       </c>
       <c r="P47" s="0" t="n">
@@ -4651,6 +4951,12 @@
         <v>0</v>
       </c>
       <c r="S47" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T47" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U47" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4659,38 +4965,38 @@
         <v>47</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>182</v>
-      </c>
-      <c r="F48" s="0" t="s">
-        <v>296</v>
+        <v>186</v>
+      </c>
+      <c r="E48" s="0" t="s">
+        <v>187</v>
       </c>
       <c r="G48" s="0" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="H48" s="0" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="I48" s="0" t="s">
-        <v>253</v>
+        <v>303</v>
       </c>
       <c r="J48" s="0" t="s">
-        <v>299</v>
+        <v>258</v>
       </c>
       <c r="K48" s="0" t="s">
-        <v>299</v>
-      </c>
-      <c r="L48" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="N48" s="6" t="n">
+        <v>304</v>
+      </c>
+      <c r="L48" s="0" t="s">
+        <v>304</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="O48" s="6" t="n">
         <v>41275</v>
       </c>
-      <c r="O48" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="P48" s="0" t="n">
         <v>0</v>
       </c>
@@ -4701,6 +5007,12 @@
         <v>0</v>
       </c>
       <c r="S48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U48" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4709,36 +5021,36 @@
         <v>48</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>182</v>
-      </c>
-      <c r="F49" s="0" t="s">
-        <v>300</v>
+        <v>186</v>
+      </c>
+      <c r="E49" s="0" t="s">
+        <v>187</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="H49" s="0" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="I49" s="0" t="s">
-        <v>253</v>
+        <v>307</v>
       </c>
       <c r="J49" s="0" t="s">
-        <v>303</v>
+        <v>258</v>
       </c>
       <c r="K49" s="0" t="s">
-        <v>304</v>
-      </c>
-      <c r="L49" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="L49" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="M49" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N49" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O49" s="0" t="n">
+      <c r="O49" s="4" t="n">
         <v>0</v>
       </c>
       <c r="P49" s="0" t="n">
@@ -4751,6 +5063,12 @@
         <v>0</v>
       </c>
       <c r="S49" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T49" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U49" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4759,29 +5077,29 @@
         <v>49</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>305</v>
-      </c>
-      <c r="F50" s="0" t="s">
-        <v>306</v>
+        <v>310</v>
+      </c>
+      <c r="D50" s="0" t="s">
+        <v>311</v>
       </c>
       <c r="G50" s="0" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="H50" s="0" t="s">
-        <v>306</v>
-      </c>
-      <c r="J50" s="0" t="s">
-        <v>307</v>
-      </c>
-      <c r="L50" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="N50" s="5" t="n">
+        <v>312</v>
+      </c>
+      <c r="I50" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="K50" s="0" t="s">
+        <v>313</v>
+      </c>
+      <c r="M50" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="O50" s="5" t="n">
         <v>41373</v>
       </c>
-      <c r="O50" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="P50" s="0" t="n">
         <v>1</v>
       </c>
@@ -4789,9 +5107,15 @@
         <v>1</v>
       </c>
       <c r="R50" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S50" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T50" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U50" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4800,39 +5124,45 @@
         <v>50</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>305</v>
-      </c>
-      <c r="F51" s="0" t="s">
-        <v>309</v>
+        <v>310</v>
+      </c>
+      <c r="D51" s="0" t="s">
+        <v>311</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="H51" s="0" t="s">
-        <v>309</v>
-      </c>
-      <c r="J51" s="0" t="s">
-        <v>310</v>
-      </c>
-      <c r="L51" s="0" t="s">
-        <v>311</v>
-      </c>
-      <c r="N51" s="0" t="n">
+        <v>315</v>
+      </c>
+      <c r="I51" s="0" t="s">
+        <v>315</v>
+      </c>
+      <c r="K51" s="0" t="s">
+        <v>316</v>
+      </c>
+      <c r="M51" s="0" t="s">
+        <v>317</v>
+      </c>
+      <c r="O51" s="0" t="n">
         <v>180</v>
       </c>
-      <c r="O51" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="P51" s="0" t="n">
         <v>1</v>
       </c>
       <c r="Q51" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R51" s="0" t="n">
         <v>0</v>
       </c>
       <c r="S51" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T51" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U51" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4841,34 +5171,34 @@
         <v>51</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>312</v>
-      </c>
-      <c r="F52" s="0" t="s">
-        <v>313</v>
+        <v>311</v>
+      </c>
+      <c r="E52" s="0" t="s">
+        <v>318</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="H52" s="0" t="s">
-        <v>315</v>
-      </c>
-      <c r="J52" s="0" t="s">
-        <v>316</v>
-      </c>
-      <c r="L52" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="N52" s="6" t="n">
+        <v>320</v>
+      </c>
+      <c r="I52" s="0" t="s">
+        <v>321</v>
+      </c>
+      <c r="K52" s="0" t="s">
+        <v>322</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="O52" s="6" t="n">
         <v>41275</v>
       </c>
-      <c r="O52" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="P52" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q52" s="0" t="n">
         <v>0</v>
@@ -4877,6 +5207,12 @@
         <v>0</v>
       </c>
       <c r="S52" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T52" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U52" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4885,42 +5221,48 @@
         <v>52</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>312</v>
-      </c>
-      <c r="F53" s="0" t="s">
+        <v>311</v>
+      </c>
+      <c r="E53" s="0" t="s">
         <v>318</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="H53" s="0" t="s">
-        <v>320</v>
-      </c>
-      <c r="J53" s="0" t="s">
-        <v>321</v>
-      </c>
-      <c r="L53" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="N53" s="0" t="n">
+        <v>325</v>
+      </c>
+      <c r="I53" s="0" t="s">
+        <v>326</v>
+      </c>
+      <c r="K53" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="M53" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="O53" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="O53" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="P53" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q53" s="0" t="n">
         <v>0</v>
       </c>
       <c r="R53" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S53" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T53" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U53" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4929,43 +5271,49 @@
         <v>53</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>312</v>
-      </c>
-      <c r="F54" s="0" t="s">
-        <v>322</v>
+        <v>311</v>
+      </c>
+      <c r="E54" s="0" t="s">
+        <v>318</v>
       </c>
       <c r="G54" s="0" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="H54" s="0" t="s">
-        <v>324</v>
-      </c>
-      <c r="J54" s="0" t="s">
-        <v>325</v>
-      </c>
-      <c r="L54" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="N54" s="0" t="n">
+        <v>329</v>
+      </c>
+      <c r="I54" s="0" t="s">
+        <v>330</v>
+      </c>
+      <c r="K54" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="M54" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="O54" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="O54" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="P54" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q54" s="0" t="n">
         <v>0</v>
       </c>
       <c r="R54" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S54" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="T54" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U54" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4973,43 +5321,49 @@
         <v>54</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>312</v>
-      </c>
-      <c r="F55" s="0" t="s">
-        <v>326</v>
+        <v>311</v>
+      </c>
+      <c r="E55" s="0" t="s">
+        <v>318</v>
       </c>
       <c r="G55" s="0" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="H55" s="0" t="s">
-        <v>328</v>
-      </c>
-      <c r="J55" s="0" t="s">
-        <v>329</v>
-      </c>
-      <c r="L55" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="N55" s="0" t="n">
+        <v>333</v>
+      </c>
+      <c r="I55" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="K55" s="0" t="s">
+        <v>335</v>
+      </c>
+      <c r="M55" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="O55" s="0" t="n">
         <v>19.7</v>
       </c>
-      <c r="O55" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="P55" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q55" s="0" t="n">
         <v>0</v>
       </c>
       <c r="R55" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S55" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="T55" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U55" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5017,43 +5371,49 @@
         <v>55</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>312</v>
-      </c>
-      <c r="F56" s="0" t="s">
-        <v>330</v>
+        <v>311</v>
+      </c>
+      <c r="E56" s="0" t="s">
+        <v>318</v>
       </c>
       <c r="G56" s="0" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="H56" s="0" t="s">
-        <v>332</v>
-      </c>
-      <c r="J56" s="0" t="s">
-        <v>333</v>
-      </c>
-      <c r="L56" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="N56" s="0" t="n">
+        <v>337</v>
+      </c>
+      <c r="I56" s="0" t="s">
+        <v>338</v>
+      </c>
+      <c r="K56" s="0" t="s">
+        <v>339</v>
+      </c>
+      <c r="M56" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="O56" s="0" t="n">
         <v>19.7</v>
       </c>
-      <c r="O56" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="P56" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q56" s="0" t="n">
         <v>0</v>
       </c>
       <c r="R56" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S56" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="T56" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U56" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5061,26 +5421,26 @@
         <v>56</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>312</v>
-      </c>
-      <c r="F57" s="0" t="s">
-        <v>334</v>
-      </c>
-      <c r="J57" s="0" t="s">
-        <v>335</v>
-      </c>
-      <c r="L57" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="E57" s="0" t="s">
+        <v>318</v>
+      </c>
+      <c r="G57" s="0" t="s">
+        <v>340</v>
+      </c>
+      <c r="K57" s="0" t="s">
+        <v>341</v>
+      </c>
+      <c r="M57" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N57" s="4" t="n">
+      <c r="O57" s="4" t="n">
         <v>300</v>
       </c>
-      <c r="O57" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="P57" s="0" t="n">
         <v>0</v>
       </c>
@@ -5088,9 +5448,15 @@
         <v>0</v>
       </c>
       <c r="R57" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S57" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T57" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U57" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5099,29 +5465,29 @@
         <v>57</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>337</v>
-      </c>
-      <c r="F58" s="0" t="s">
-        <v>338</v>
-      </c>
-      <c r="J58" s="0" t="s">
-        <v>339</v>
-      </c>
-      <c r="L58" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="E58" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="G58" s="0" t="s">
+        <v>345</v>
+      </c>
+      <c r="K58" s="0" t="s">
+        <v>346</v>
+      </c>
+      <c r="M58" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="M58" s="0" t="s">
-        <v>340</v>
-      </c>
-      <c r="N58" s="4" t="n">
+      <c r="N58" s="0" t="s">
+        <v>347</v>
+      </c>
+      <c r="O58" s="4" t="n">
         <v>4.8</v>
       </c>
-      <c r="O58" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="P58" s="0" t="n">
         <v>0</v>
       </c>
@@ -5129,9 +5495,15 @@
         <v>0</v>
       </c>
       <c r="R58" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S58" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T58" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U58" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5140,38 +5512,38 @@
         <v>58</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>43</v>
+        <v>344</v>
       </c>
       <c r="F59" s="0" t="s">
-        <v>341</v>
-      </c>
-      <c r="I59" s="0" t="s">
-        <v>342</v>
+        <v>46</v>
+      </c>
+      <c r="G59" s="0" t="s">
+        <v>348</v>
       </c>
       <c r="J59" s="0" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="K59" s="0" t="s">
-        <v>344</v>
-      </c>
-      <c r="L59" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="M59" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="N59" s="4" t="n">
+        <v>350</v>
+      </c>
+      <c r="L59" s="0" t="s">
+        <v>351</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="N59" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="O59" s="4" t="n">
         <v>86.2</v>
       </c>
-      <c r="O59" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="P59" s="0" t="n">
         <v>0</v>
       </c>
@@ -5179,9 +5551,15 @@
         <v>0</v>
       </c>
       <c r="R59" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S59" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T59" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U59" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5190,38 +5568,38 @@
         <v>59</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>66</v>
+        <v>344</v>
       </c>
       <c r="F60" s="0" t="s">
-        <v>345</v>
-      </c>
-      <c r="I60" s="0" t="s">
-        <v>346</v>
+        <v>69</v>
+      </c>
+      <c r="G60" s="0" t="s">
+        <v>352</v>
       </c>
       <c r="J60" s="0" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="K60" s="0" t="s">
-        <v>348</v>
-      </c>
-      <c r="L60" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="M60" s="0" t="s">
-        <v>349</v>
-      </c>
-      <c r="N60" s="4" t="n">
+        <v>354</v>
+      </c>
+      <c r="L60" s="0" t="s">
+        <v>355</v>
+      </c>
+      <c r="M60" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="N60" s="0" t="s">
+        <v>356</v>
+      </c>
+      <c r="O60" s="4" t="n">
         <v>71.43</v>
       </c>
-      <c r="O60" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="P60" s="0" t="n">
         <v>0</v>
       </c>
@@ -5229,9 +5607,15 @@
         <v>0</v>
       </c>
       <c r="R60" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S60" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T60" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U60" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5240,38 +5624,38 @@
         <v>60</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>66</v>
+        <v>344</v>
       </c>
       <c r="F61" s="0" t="s">
-        <v>350</v>
-      </c>
-      <c r="I61" s="0" t="s">
-        <v>351</v>
+        <v>69</v>
+      </c>
+      <c r="G61" s="0" t="s">
+        <v>357</v>
       </c>
       <c r="J61" s="0" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="K61" s="0" t="s">
-        <v>353</v>
-      </c>
-      <c r="L61" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="M61" s="0" t="s">
-        <v>349</v>
-      </c>
-      <c r="N61" s="4" t="n">
+        <v>359</v>
+      </c>
+      <c r="L61" s="0" t="s">
+        <v>360</v>
+      </c>
+      <c r="M61" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="N61" s="0" t="s">
+        <v>356</v>
+      </c>
+      <c r="O61" s="4" t="n">
         <v>16.34</v>
       </c>
-      <c r="O61" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="P61" s="0" t="n">
         <v>0</v>
       </c>
@@ -5279,9 +5663,15 @@
         <v>0</v>
       </c>
       <c r="R61" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S61" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T61" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U61" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5290,29 +5680,29 @@
         <v>61</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>337</v>
-      </c>
-      <c r="F62" s="0" t="s">
-        <v>354</v>
-      </c>
-      <c r="J62" s="0" t="s">
-        <v>355</v>
-      </c>
-      <c r="L62" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="E62" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="G62" s="0" t="s">
+        <v>361</v>
+      </c>
+      <c r="K62" s="0" t="s">
+        <v>362</v>
+      </c>
+      <c r="M62" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="M62" s="0" t="s">
-        <v>356</v>
-      </c>
-      <c r="N62" s="4" t="n">
+      <c r="N62" s="0" t="s">
+        <v>363</v>
+      </c>
+      <c r="O62" s="4" t="n">
         <v>1800</v>
       </c>
-      <c r="O62" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="P62" s="0" t="n">
         <v>0</v>
       </c>
@@ -5320,9 +5710,15 @@
         <v>0</v>
       </c>
       <c r="R62" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S62" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T62" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U62" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5331,29 +5727,29 @@
         <v>62</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>337</v>
-      </c>
-      <c r="F63" s="0" t="s">
-        <v>357</v>
-      </c>
-      <c r="J63" s="0" t="s">
-        <v>358</v>
-      </c>
-      <c r="L63" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="M63" s="0" t="s">
-        <v>356</v>
-      </c>
-      <c r="N63" s="4" t="n">
+        <v>343</v>
+      </c>
+      <c r="E63" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="G63" s="0" t="s">
+        <v>364</v>
+      </c>
+      <c r="K63" s="0" t="s">
+        <v>365</v>
+      </c>
+      <c r="M63" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="N63" s="0" t="s">
+        <v>363</v>
+      </c>
+      <c r="O63" s="4" t="n">
         <v>0.1</v>
       </c>
-      <c r="O63" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="P63" s="0" t="n">
         <v>0</v>
       </c>
@@ -5361,9 +5757,15 @@
         <v>0</v>
       </c>
       <c r="R63" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S63" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T63" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U63" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5372,29 +5774,29 @@
         <v>63</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>337</v>
-      </c>
-      <c r="F64" s="0" t="s">
-        <v>359</v>
-      </c>
-      <c r="J64" s="0" t="s">
-        <v>360</v>
-      </c>
-      <c r="L64" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="M64" s="0" t="s">
-        <v>356</v>
-      </c>
-      <c r="N64" s="4" t="n">
+        <v>343</v>
+      </c>
+      <c r="E64" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="G64" s="0" t="s">
+        <v>366</v>
+      </c>
+      <c r="K64" s="0" t="s">
+        <v>367</v>
+      </c>
+      <c r="M64" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="N64" s="0" t="s">
+        <v>363</v>
+      </c>
+      <c r="O64" s="4" t="n">
         <v>400</v>
       </c>
-      <c r="O64" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="P64" s="0" t="n">
         <v>0</v>
       </c>
@@ -5402,9 +5804,15 @@
         <v>0</v>
       </c>
       <c r="R64" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S64" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T64" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U64" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5413,28 +5821,28 @@
         <v>64</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>337</v>
-      </c>
-      <c r="F65" s="0" t="s">
-        <v>361</v>
-      </c>
-      <c r="J65" s="0" t="s">
-        <v>362</v>
-      </c>
-      <c r="L65" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="M65" s="0" t="s">
-        <v>356</v>
-      </c>
-      <c r="N65" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O65" s="0" t="n">
-        <v>0</v>
+        <v>343</v>
+      </c>
+      <c r="E65" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="G65" s="0" t="s">
+        <v>368</v>
+      </c>
+      <c r="K65" s="0" t="s">
+        <v>369</v>
+      </c>
+      <c r="M65" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="N65" s="0" t="s">
+        <v>363</v>
+      </c>
+      <c r="O65" s="4" t="n">
+        <v>1</v>
       </c>
       <c r="P65" s="0" t="n">
         <v>0</v>
@@ -5443,9 +5851,15 @@
         <v>0</v>
       </c>
       <c r="R65" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S65" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T65" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U65" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5454,29 +5868,29 @@
         <v>65</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>337</v>
-      </c>
-      <c r="F66" s="0" t="s">
+        <v>343</v>
+      </c>
+      <c r="E66" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="G66" s="0" t="s">
+        <v>370</v>
+      </c>
+      <c r="K66" s="0" t="s">
+        <v>371</v>
+      </c>
+      <c r="M66" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="N66" s="0" t="s">
         <v>363</v>
       </c>
-      <c r="J66" s="0" t="s">
-        <v>364</v>
-      </c>
-      <c r="L66" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="M66" s="0" t="s">
-        <v>356</v>
-      </c>
-      <c r="N66" s="4" t="n">
+      <c r="O66" s="4" t="n">
         <v>153</v>
       </c>
-      <c r="O66" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="P66" s="0" t="n">
         <v>0</v>
       </c>
@@ -5484,9 +5898,15 @@
         <v>0</v>
       </c>
       <c r="R66" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S66" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T66" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U66" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5495,38 +5915,38 @@
         <v>66</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="E67" s="0" t="s">
-        <v>66</v>
+        <v>344</v>
       </c>
       <c r="F67" s="0" t="s">
-        <v>365</v>
-      </c>
-      <c r="I67" s="0" t="s">
-        <v>366</v>
+        <v>69</v>
+      </c>
+      <c r="G67" s="0" t="s">
+        <v>372</v>
       </c>
       <c r="J67" s="0" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="K67" s="0" t="s">
-        <v>368</v>
-      </c>
-      <c r="L67" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="M67" s="0" t="s">
-        <v>356</v>
-      </c>
-      <c r="N67" s="4" t="n">
+        <v>374</v>
+      </c>
+      <c r="L67" s="0" t="s">
+        <v>375</v>
+      </c>
+      <c r="M67" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="N67" s="0" t="s">
+        <v>363</v>
+      </c>
+      <c r="O67" s="4" t="n">
         <v>851.33</v>
       </c>
-      <c r="O67" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="P67" s="0" t="n">
         <v>0</v>
       </c>
@@ -5534,9 +5954,15 @@
         <v>0</v>
       </c>
       <c r="R67" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S67" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T67" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U67" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5545,29 +5971,29 @@
         <v>67</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>337</v>
-      </c>
-      <c r="F68" s="0" t="s">
-        <v>369</v>
-      </c>
-      <c r="J68" s="0" t="s">
-        <v>370</v>
-      </c>
-      <c r="L68" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="M68" s="0" t="s">
-        <v>356</v>
-      </c>
-      <c r="N68" s="4" t="n">
+        <v>343</v>
+      </c>
+      <c r="E68" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="G68" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="K68" s="0" t="s">
+        <v>377</v>
+      </c>
+      <c r="M68" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="N68" s="0" t="s">
+        <v>363</v>
+      </c>
+      <c r="O68" s="4" t="n">
         <v>-0.03783</v>
       </c>
-      <c r="O68" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="P68" s="0" t="n">
         <v>0</v>
       </c>
@@ -5575,9 +6001,15 @@
         <v>0</v>
       </c>
       <c r="R68" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S68" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T68" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U68" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5586,29 +6018,29 @@
         <v>68</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>337</v>
-      </c>
-      <c r="F69" s="0" t="s">
-        <v>371</v>
-      </c>
-      <c r="J69" s="0" t="s">
-        <v>372</v>
-      </c>
-      <c r="L69" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="M69" s="0" t="s">
-        <v>356</v>
-      </c>
-      <c r="N69" s="4" t="n">
+        <v>343</v>
+      </c>
+      <c r="E69" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="G69" s="0" t="s">
+        <v>378</v>
+      </c>
+      <c r="K69" s="0" t="s">
+        <v>379</v>
+      </c>
+      <c r="M69" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="N69" s="0" t="s">
+        <v>363</v>
+      </c>
+      <c r="O69" s="4" t="n">
         <v>0.78469</v>
       </c>
-      <c r="O69" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="P69" s="0" t="n">
         <v>0</v>
       </c>
@@ -5616,9 +6048,15 @@
         <v>0</v>
       </c>
       <c r="R69" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S69" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T69" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U69" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5627,29 +6065,29 @@
         <v>69</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>337</v>
-      </c>
-      <c r="F70" s="0" t="s">
-        <v>373</v>
-      </c>
-      <c r="J70" s="0" t="s">
-        <v>374</v>
-      </c>
-      <c r="L70" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="M70" s="0" t="s">
-        <v>356</v>
-      </c>
-      <c r="N70" s="4" t="n">
+        <v>343</v>
+      </c>
+      <c r="E70" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="G70" s="0" t="s">
+        <v>380</v>
+      </c>
+      <c r="K70" s="0" t="s">
+        <v>381</v>
+      </c>
+      <c r="M70" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="N70" s="0" t="s">
+        <v>363</v>
+      </c>
+      <c r="O70" s="4" t="n">
         <v>0.01379</v>
       </c>
-      <c r="O70" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="P70" s="0" t="n">
         <v>0</v>
       </c>
@@ -5657,9 +6095,15 @@
         <v>0</v>
       </c>
       <c r="R70" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S70" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T70" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U70" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5668,28 +6112,28 @@
         <v>70</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>337</v>
-      </c>
-      <c r="F71" s="0" t="s">
-        <v>375</v>
-      </c>
-      <c r="J71" s="0" t="s">
-        <v>376</v>
-      </c>
-      <c r="L71" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="M71" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="N71" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O71" s="0" t="n">
-        <v>0</v>
+        <v>343</v>
+      </c>
+      <c r="E71" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="G71" s="0" t="s">
+        <v>382</v>
+      </c>
+      <c r="K71" s="0" t="s">
+        <v>383</v>
+      </c>
+      <c r="M71" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="N71" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="O71" s="4" t="n">
+        <v>1</v>
       </c>
       <c r="P71" s="0" t="n">
         <v>0</v>
@@ -5698,9 +6142,15 @@
         <v>0</v>
       </c>
       <c r="R71" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S71" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T71" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U71" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5709,29 +6159,29 @@
         <v>71</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>337</v>
-      </c>
-      <c r="F72" s="0" t="s">
-        <v>378</v>
-      </c>
-      <c r="J72" s="0" t="s">
-        <v>379</v>
-      </c>
-      <c r="L72" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="M72" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="N72" s="4" t="n">
+        <v>343</v>
+      </c>
+      <c r="E72" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="G72" s="0" t="s">
+        <v>385</v>
+      </c>
+      <c r="K72" s="0" t="s">
+        <v>386</v>
+      </c>
+      <c r="M72" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="N72" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="O72" s="4" t="n">
         <v>4.5</v>
       </c>
-      <c r="O72" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="P72" s="0" t="n">
         <v>0</v>
       </c>
@@ -5739,9 +6189,15 @@
         <v>0</v>
       </c>
       <c r="R72" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S72" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T72" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U72" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5750,29 +6206,29 @@
         <v>72</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>337</v>
-      </c>
-      <c r="F73" s="0" t="s">
-        <v>380</v>
-      </c>
-      <c r="J73" s="0" t="s">
-        <v>381</v>
-      </c>
-      <c r="L73" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="M73" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="N73" s="4" t="n">
+        <v>343</v>
+      </c>
+      <c r="E73" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="G73" s="0" t="s">
+        <v>387</v>
+      </c>
+      <c r="K73" s="0" t="s">
+        <v>388</v>
+      </c>
+      <c r="M73" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="N73" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="O73" s="4" t="n">
         <v>0.015</v>
       </c>
-      <c r="O73" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="P73" s="0" t="n">
         <v>0</v>
       </c>
@@ -5780,9 +6236,15 @@
         <v>0</v>
       </c>
       <c r="R73" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S73" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T73" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U73" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5791,29 +6253,29 @@
         <v>73</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>337</v>
-      </c>
-      <c r="F74" s="0" t="s">
-        <v>382</v>
-      </c>
-      <c r="J74" s="0" t="s">
-        <v>383</v>
-      </c>
-      <c r="L74" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="M74" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="N74" s="4" t="n">
+        <v>343</v>
+      </c>
+      <c r="E74" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="G74" s="0" t="s">
+        <v>389</v>
+      </c>
+      <c r="K74" s="0" t="s">
+        <v>390</v>
+      </c>
+      <c r="M74" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="N74" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="O74" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="O74" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="P74" s="0" t="n">
         <v>0</v>
       </c>
@@ -5821,9 +6283,15 @@
         <v>0</v>
       </c>
       <c r="R74" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S74" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T74" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U74" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5832,29 +6300,29 @@
         <v>74</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>337</v>
-      </c>
-      <c r="F75" s="0" t="s">
-        <v>384</v>
-      </c>
-      <c r="J75" s="0" t="s">
-        <v>385</v>
-      </c>
-      <c r="L75" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="E75" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="G75" s="0" t="s">
+        <v>391</v>
+      </c>
+      <c r="K75" s="0" t="s">
+        <v>392</v>
+      </c>
+      <c r="M75" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="M75" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="N75" s="4" t="n">
+      <c r="N75" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="O75" s="4" t="n">
         <v>37</v>
       </c>
-      <c r="O75" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="P75" s="0" t="n">
         <v>0</v>
       </c>
@@ -5862,9 +6330,15 @@
         <v>0</v>
       </c>
       <c r="R75" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S75" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T75" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U75" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5873,30 +6347,30 @@
         <v>75</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>337</v>
-      </c>
-      <c r="F76" s="0" t="s">
-        <v>386</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="K76" s="3"/>
-      <c r="L76" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="E76" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="G76" s="0" t="s">
+        <v>393</v>
+      </c>
+      <c r="K76" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="L76" s="3"/>
+      <c r="M76" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="M76" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="N76" s="4" t="n">
+      <c r="N76" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="O76" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="O76" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="P76" s="0" t="n">
         <v>0</v>
       </c>
@@ -5904,9 +6378,15 @@
         <v>0</v>
       </c>
       <c r="R76" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S76" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T76" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U76" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5915,30 +6395,30 @@
         <v>76</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>337</v>
-      </c>
-      <c r="F77" s="0" t="s">
-        <v>388</v>
-      </c>
-      <c r="J77" s="3" t="s">
-        <v>389</v>
-      </c>
-      <c r="K77" s="3"/>
-      <c r="L77" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="E77" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="G77" s="0" t="s">
+        <v>395</v>
+      </c>
+      <c r="K77" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="L77" s="3"/>
+      <c r="M77" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="M77" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="N77" s="4" t="n">
+      <c r="N77" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="O77" s="4" t="n">
         <v>28</v>
       </c>
-      <c r="O77" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="P77" s="0" t="n">
         <v>0</v>
       </c>
@@ -5946,9 +6426,15 @@
         <v>0</v>
       </c>
       <c r="R77" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S77" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T77" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U77" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5957,29 +6443,29 @@
         <v>77</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>337</v>
-      </c>
-      <c r="F78" s="0" t="s">
-        <v>390</v>
-      </c>
-      <c r="J78" s="0" t="s">
-        <v>391</v>
-      </c>
-      <c r="L78" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="M78" s="0" t="s">
-        <v>356</v>
-      </c>
-      <c r="N78" s="4" t="n">
+        <v>343</v>
+      </c>
+      <c r="E78" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="G78" s="0" t="s">
+        <v>397</v>
+      </c>
+      <c r="K78" s="0" t="s">
+        <v>398</v>
+      </c>
+      <c r="M78" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="N78" s="0" t="s">
+        <v>363</v>
+      </c>
+      <c r="O78" s="4" t="n">
         <v>-25</v>
       </c>
-      <c r="O78" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="P78" s="0" t="n">
         <v>0</v>
       </c>
@@ -5987,9 +6473,15 @@
         <v>0</v>
       </c>
       <c r="R78" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S78" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T78" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U78" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5998,29 +6490,29 @@
         <v>78</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>337</v>
-      </c>
-      <c r="F79" s="0" t="s">
-        <v>392</v>
-      </c>
-      <c r="J79" s="0" t="s">
-        <v>393</v>
-      </c>
-      <c r="L79" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="M79" s="0" t="s">
-        <v>356</v>
-      </c>
-      <c r="N79" s="4" t="n">
+        <v>343</v>
+      </c>
+      <c r="E79" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="G79" s="0" t="s">
+        <v>399</v>
+      </c>
+      <c r="K79" s="0" t="s">
+        <v>400</v>
+      </c>
+      <c r="M79" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="N79" s="0" t="s">
+        <v>363</v>
+      </c>
+      <c r="O79" s="4" t="n">
         <v>350</v>
       </c>
-      <c r="O79" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="P79" s="0" t="n">
         <v>0</v>
       </c>
@@ -6031,6 +6523,12 @@
         <v>0</v>
       </c>
       <c r="S79" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T79" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U79" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6039,29 +6537,29 @@
         <v>79</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>337</v>
-      </c>
-      <c r="F80" s="0" t="s">
-        <v>394</v>
-      </c>
-      <c r="J80" s="0" t="s">
-        <v>395</v>
-      </c>
-      <c r="L80" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="M80" s="0" t="s">
-        <v>356</v>
-      </c>
-      <c r="N80" s="4" t="n">
+        <v>343</v>
+      </c>
+      <c r="E80" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="G80" s="0" t="s">
+        <v>401</v>
+      </c>
+      <c r="K80" s="0" t="s">
+        <v>402</v>
+      </c>
+      <c r="M80" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="N80" s="0" t="s">
+        <v>363</v>
+      </c>
+      <c r="O80" s="4" t="n">
         <v>0.1</v>
       </c>
-      <c r="O80" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="P80" s="0" t="n">
         <v>0</v>
       </c>
@@ -6069,9 +6567,15 @@
         <v>0</v>
       </c>
       <c r="R80" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S80" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T80" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U80" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6080,29 +6584,29 @@
         <v>80</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>396</v>
-      </c>
-      <c r="F81" s="0" t="s">
-        <v>397</v>
-      </c>
-      <c r="J81" s="0" t="s">
-        <v>398</v>
-      </c>
-      <c r="L81" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="M81" s="0" t="s">
-        <v>399</v>
-      </c>
-      <c r="N81" s="4" t="n">
+        <v>343</v>
+      </c>
+      <c r="E81" s="0" t="s">
+        <v>403</v>
+      </c>
+      <c r="G81" s="0" t="s">
+        <v>404</v>
+      </c>
+      <c r="K81" s="0" t="s">
+        <v>405</v>
+      </c>
+      <c r="M81" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="N81" s="0" t="s">
+        <v>406</v>
+      </c>
+      <c r="O81" s="4" t="n">
         <v>4.53</v>
       </c>
-      <c r="O81" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="P81" s="0" t="n">
         <v>0</v>
       </c>
@@ -6110,9 +6614,15 @@
         <v>0</v>
       </c>
       <c r="R81" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S81" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T81" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U81" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6121,29 +6631,29 @@
         <v>81</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="D82" s="0" t="s">
-        <v>396</v>
-      </c>
-      <c r="F82" s="0" t="s">
-        <v>400</v>
-      </c>
-      <c r="J82" s="0" t="s">
-        <v>401</v>
-      </c>
-      <c r="L82" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="M82" s="0" t="s">
-        <v>399</v>
-      </c>
-      <c r="N82" s="4" t="n">
+        <v>343</v>
+      </c>
+      <c r="E82" s="0" t="s">
+        <v>403</v>
+      </c>
+      <c r="G82" s="0" t="s">
+        <v>407</v>
+      </c>
+      <c r="K82" s="0" t="s">
+        <v>408</v>
+      </c>
+      <c r="M82" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="N82" s="0" t="s">
+        <v>406</v>
+      </c>
+      <c r="O82" s="4" t="n">
         <v>0.42</v>
       </c>
-      <c r="O82" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="P82" s="0" t="n">
         <v>0</v>
       </c>
@@ -6151,9 +6661,15 @@
         <v>0</v>
       </c>
       <c r="R82" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S82" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T82" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U82" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6162,29 +6678,29 @@
         <v>82</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>396</v>
-      </c>
-      <c r="F83" s="0" t="s">
-        <v>402</v>
-      </c>
-      <c r="J83" s="0" t="s">
+        <v>343</v>
+      </c>
+      <c r="E83" s="0" t="s">
         <v>403</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="M83" s="0" t="s">
-        <v>399</v>
-      </c>
-      <c r="N83" s="4" t="n">
+      <c r="G83" s="0" t="s">
+        <v>409</v>
+      </c>
+      <c r="K83" s="0" t="s">
+        <v>410</v>
+      </c>
+      <c r="M83" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="N83" s="0" t="s">
+        <v>406</v>
+      </c>
+      <c r="O83" s="4" t="n">
         <v>6.49</v>
       </c>
-      <c r="O83" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="P83" s="0" t="n">
         <v>0</v>
       </c>
@@ -6192,9 +6708,15 @@
         <v>0</v>
       </c>
       <c r="R83" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S83" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T83" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U83" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6203,29 +6725,29 @@
         <v>83</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="D84" s="0" t="s">
-        <v>396</v>
-      </c>
-      <c r="F84" s="0" t="s">
-        <v>404</v>
-      </c>
-      <c r="J84" s="0" t="s">
-        <v>405</v>
-      </c>
-      <c r="L84" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="M84" s="0" t="s">
-        <v>399</v>
-      </c>
-      <c r="N84" s="4" t="n">
+        <v>343</v>
+      </c>
+      <c r="E84" s="0" t="s">
+        <v>403</v>
+      </c>
+      <c r="G84" s="0" t="s">
+        <v>411</v>
+      </c>
+      <c r="K84" s="0" t="s">
+        <v>412</v>
+      </c>
+      <c r="M84" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="N84" s="0" t="s">
+        <v>406</v>
+      </c>
+      <c r="O84" s="4" t="n">
         <v>0.44</v>
       </c>
-      <c r="O84" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="P84" s="0" t="n">
         <v>0</v>
       </c>
@@ -6233,9 +6755,15 @@
         <v>0</v>
       </c>
       <c r="R84" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S84" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T84" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U84" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6244,29 +6772,29 @@
         <v>84</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="D85" s="0" t="s">
-        <v>396</v>
-      </c>
-      <c r="F85" s="0" t="s">
+        <v>343</v>
+      </c>
+      <c r="E85" s="0" t="s">
+        <v>403</v>
+      </c>
+      <c r="G85" s="0" t="s">
+        <v>413</v>
+      </c>
+      <c r="K85" s="0" t="s">
+        <v>414</v>
+      </c>
+      <c r="M85" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="N85" s="0" t="s">
         <v>406</v>
       </c>
-      <c r="J85" s="0" t="s">
-        <v>407</v>
-      </c>
-      <c r="L85" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="M85" s="0" t="s">
-        <v>399</v>
-      </c>
-      <c r="N85" s="4" t="n">
+      <c r="O85" s="4" t="n">
         <v>75</v>
       </c>
-      <c r="O85" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="P85" s="0" t="n">
         <v>0</v>
       </c>
@@ -6274,9 +6802,15 @@
         <v>0</v>
       </c>
       <c r="R85" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S85" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T85" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U85" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6285,29 +6819,29 @@
         <v>85</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>396</v>
-      </c>
-      <c r="F86" s="0" t="s">
-        <v>409</v>
-      </c>
-      <c r="J86" s="0" t="s">
-        <v>410</v>
-      </c>
-      <c r="L86" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="M86" s="0" t="s">
-        <v>399</v>
-      </c>
-      <c r="N86" s="4" t="n">
+        <v>343</v>
+      </c>
+      <c r="E86" s="0" t="s">
+        <v>403</v>
+      </c>
+      <c r="G86" s="0" t="s">
+        <v>416</v>
+      </c>
+      <c r="K86" s="0" t="s">
+        <v>417</v>
+      </c>
+      <c r="M86" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="N86" s="0" t="s">
+        <v>406</v>
+      </c>
+      <c r="O86" s="4" t="n">
         <v>75</v>
       </c>
-      <c r="O86" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="P86" s="0" t="n">
         <v>0</v>
       </c>
@@ -6315,9 +6849,15 @@
         <v>0</v>
       </c>
       <c r="R86" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S86" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T86" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U86" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6326,29 +6866,29 @@
         <v>86</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>396</v>
-      </c>
-      <c r="F87" s="0" t="s">
-        <v>411</v>
-      </c>
-      <c r="J87" s="0" t="s">
-        <v>412</v>
-      </c>
-      <c r="L87" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="M87" s="0" t="s">
-        <v>413</v>
-      </c>
-      <c r="N87" s="4" t="n">
+        <v>343</v>
+      </c>
+      <c r="E87" s="0" t="s">
+        <v>403</v>
+      </c>
+      <c r="G87" s="0" t="s">
+        <v>418</v>
+      </c>
+      <c r="K87" s="0" t="s">
+        <v>419</v>
+      </c>
+      <c r="M87" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="N87" s="0" t="s">
+        <v>420</v>
+      </c>
+      <c r="O87" s="4" t="n">
         <v>0.6</v>
       </c>
-      <c r="O87" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="P87" s="0" t="n">
         <v>0</v>
       </c>
@@ -6356,9 +6896,15 @@
         <v>0</v>
       </c>
       <c r="R87" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S87" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T87" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U87" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6367,29 +6913,29 @@
         <v>87</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="D88" s="0" t="s">
-        <v>396</v>
-      </c>
-      <c r="F88" s="0" t="s">
-        <v>414</v>
-      </c>
-      <c r="J88" s="0" t="s">
-        <v>415</v>
-      </c>
-      <c r="L88" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="M88" s="0" t="s">
-        <v>413</v>
-      </c>
-      <c r="N88" s="4" t="n">
+        <v>343</v>
+      </c>
+      <c r="E88" s="0" t="s">
+        <v>403</v>
+      </c>
+      <c r="G88" s="0" t="s">
+        <v>421</v>
+      </c>
+      <c r="K88" s="0" t="s">
+        <v>422</v>
+      </c>
+      <c r="M88" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="N88" s="0" t="s">
+        <v>420</v>
+      </c>
+      <c r="O88" s="4" t="n">
         <v>0.3</v>
       </c>
-      <c r="O88" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="P88" s="0" t="n">
         <v>0</v>
       </c>
@@ -6397,9 +6943,15 @@
         <v>0</v>
       </c>
       <c r="R88" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S88" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T88" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U88" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6408,29 +6960,29 @@
         <v>88</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="D89" s="0" t="s">
-        <v>396</v>
-      </c>
-      <c r="F89" s="0" t="s">
-        <v>416</v>
-      </c>
-      <c r="J89" s="0" t="s">
-        <v>417</v>
-      </c>
-      <c r="L89" s="3" t="s">
-        <v>418</v>
-      </c>
-      <c r="M89" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="N89" s="4" t="n">
+        <v>343</v>
+      </c>
+      <c r="E89" s="0" t="s">
+        <v>403</v>
+      </c>
+      <c r="G89" s="0" t="s">
+        <v>423</v>
+      </c>
+      <c r="K89" s="0" t="s">
+        <v>424</v>
+      </c>
+      <c r="M89" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="N89" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="O89" s="4" t="n">
         <v>0.7</v>
       </c>
-      <c r="O89" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="P89" s="0" t="n">
         <v>0</v>
       </c>
@@ -6438,9 +6990,15 @@
         <v>0</v>
       </c>
       <c r="R89" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S89" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T89" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U89" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6449,26 +7007,26 @@
         <v>89</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="D90" s="0" t="s">
-        <v>419</v>
-      </c>
-      <c r="F90" s="0" t="s">
-        <v>420</v>
-      </c>
-      <c r="J90" s="0" t="s">
-        <v>421</v>
-      </c>
-      <c r="L90" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="N90" s="4" t="n">
+        <v>343</v>
+      </c>
+      <c r="E90" s="0" t="s">
+        <v>426</v>
+      </c>
+      <c r="G90" s="0" t="s">
+        <v>427</v>
+      </c>
+      <c r="K90" s="0" t="s">
+        <v>428</v>
+      </c>
+      <c r="M90" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="O90" s="4" t="n">
         <v>0.6</v>
       </c>
-      <c r="O90" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="P90" s="0" t="n">
         <v>0</v>
       </c>
@@ -6479,6 +7037,12 @@
         <v>0</v>
       </c>
       <c r="S90" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T90" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U90" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6487,29 +7051,29 @@
         <v>90</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="D91" s="0" t="s">
-        <v>396</v>
-      </c>
-      <c r="F91" s="0" t="s">
-        <v>422</v>
-      </c>
-      <c r="J91" s="0" t="s">
-        <v>423</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="M91" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="N91" s="4" t="n">
+        <v>343</v>
+      </c>
+      <c r="E91" s="0" t="s">
+        <v>403</v>
+      </c>
+      <c r="G91" s="0" t="s">
+        <v>429</v>
+      </c>
+      <c r="K91" s="0" t="s">
+        <v>430</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="N91" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="O91" s="4" t="n">
         <v>1.2</v>
       </c>
-      <c r="O91" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="P91" s="0" t="n">
         <v>0</v>
       </c>
@@ -6517,9 +7081,15 @@
         <v>0</v>
       </c>
       <c r="R91" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S91" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T91" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U91" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6528,38 +7098,38 @@
         <v>91</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="D92" s="0" t="s">
-        <v>396</v>
+        <v>343</v>
       </c>
       <c r="E92" s="0" t="s">
-        <v>43</v>
+        <v>403</v>
       </c>
       <c r="F92" s="0" t="s">
-        <v>424</v>
-      </c>
-      <c r="I92" s="0" t="s">
-        <v>425</v>
+        <v>46</v>
+      </c>
+      <c r="G92" s="0" t="s">
+        <v>431</v>
       </c>
       <c r="J92" s="0" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="K92" s="0" t="s">
-        <v>427</v>
-      </c>
-      <c r="L92" s="3" t="s">
-        <v>428</v>
-      </c>
-      <c r="M92" s="0" t="s">
-        <v>429</v>
-      </c>
-      <c r="N92" s="4" t="n">
+        <v>433</v>
+      </c>
+      <c r="L92" s="0" t="s">
+        <v>434</v>
+      </c>
+      <c r="M92" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="N92" s="0" t="s">
+        <v>436</v>
+      </c>
+      <c r="O92" s="4" t="n">
         <v>1.19</v>
       </c>
-      <c r="O92" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="P92" s="0" t="n">
         <v>0</v>
       </c>
@@ -6567,9 +7137,15 @@
         <v>0</v>
       </c>
       <c r="R92" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S92" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T92" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U92" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6578,18 +7154,18 @@
         <v>100</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="D93" s="0" t="s">
-        <v>431</v>
-      </c>
-      <c r="F93" s="0" t="s">
-        <v>432</v>
-      </c>
-      <c r="L93" s="3"/>
-      <c r="O93" s="0" t="n">
-        <v>0</v>
-      </c>
+        <v>438</v>
+      </c>
+      <c r="E93" s="0" t="s">
+        <v>439</v>
+      </c>
+      <c r="G93" s="0" t="s">
+        <v>440</v>
+      </c>
+      <c r="M93" s="3"/>
       <c r="P93" s="0" t="n">
         <v>0</v>
       </c>
@@ -6600,6 +7176,12 @@
         <v>0</v>
       </c>
       <c r="S93" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T93" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U93" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6608,18 +7190,18 @@
         <v>101</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="D94" s="0" t="s">
-        <v>431</v>
-      </c>
-      <c r="F94" s="0" t="s">
-        <v>433</v>
-      </c>
-      <c r="L94" s="3"/>
-      <c r="O94" s="0" t="n">
-        <v>0</v>
-      </c>
+        <v>438</v>
+      </c>
+      <c r="E94" s="0" t="s">
+        <v>439</v>
+      </c>
+      <c r="G94" s="0" t="s">
+        <v>441</v>
+      </c>
+      <c r="M94" s="3"/>
       <c r="P94" s="0" t="n">
         <v>0</v>
       </c>
@@ -6630,6 +7212,12 @@
         <v>0</v>
       </c>
       <c r="S94" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T94" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U94" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6638,18 +7226,18 @@
         <v>102</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="D95" s="0" t="s">
-        <v>431</v>
-      </c>
-      <c r="F95" s="0" t="s">
-        <v>434</v>
-      </c>
-      <c r="L95" s="3"/>
-      <c r="O95" s="0" t="n">
-        <v>0</v>
-      </c>
+        <v>438</v>
+      </c>
+      <c r="E95" s="0" t="s">
+        <v>439</v>
+      </c>
+      <c r="G95" s="0" t="s">
+        <v>442</v>
+      </c>
+      <c r="M95" s="3"/>
       <c r="P95" s="0" t="n">
         <v>0</v>
       </c>
@@ -6660,6 +7248,12 @@
         <v>0</v>
       </c>
       <c r="S95" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T95" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U95" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6668,18 +7262,18 @@
         <v>103</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="D96" s="0" t="s">
-        <v>431</v>
-      </c>
-      <c r="F96" s="0" t="s">
-        <v>435</v>
-      </c>
-      <c r="L96" s="3"/>
-      <c r="O96" s="0" t="n">
-        <v>0</v>
-      </c>
+        <v>438</v>
+      </c>
+      <c r="E96" s="0" t="s">
+        <v>439</v>
+      </c>
+      <c r="G96" s="0" t="s">
+        <v>443</v>
+      </c>
+      <c r="M96" s="3"/>
       <c r="P96" s="0" t="n">
         <v>0</v>
       </c>
@@ -6690,6 +7284,12 @@
         <v>0</v>
       </c>
       <c r="S96" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T96" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U96" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6698,18 +7298,18 @@
         <v>104</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="D97" s="0" t="s">
-        <v>431</v>
-      </c>
-      <c r="F97" s="0" t="s">
-        <v>436</v>
-      </c>
-      <c r="L97" s="3"/>
-      <c r="O97" s="0" t="n">
-        <v>0</v>
-      </c>
+        <v>438</v>
+      </c>
+      <c r="E97" s="0" t="s">
+        <v>439</v>
+      </c>
+      <c r="G97" s="0" t="s">
+        <v>444</v>
+      </c>
+      <c r="M97" s="3"/>
       <c r="P97" s="0" t="n">
         <v>0</v>
       </c>
@@ -6720,6 +7320,12 @@
         <v>0</v>
       </c>
       <c r="S97" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T97" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U97" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6728,18 +7334,18 @@
         <v>105</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="D98" s="0" t="s">
-        <v>431</v>
-      </c>
-      <c r="F98" s="0" t="s">
-        <v>437</v>
-      </c>
-      <c r="L98" s="3"/>
-      <c r="O98" s="0" t="n">
-        <v>0</v>
-      </c>
+        <v>438</v>
+      </c>
+      <c r="E98" s="0" t="s">
+        <v>439</v>
+      </c>
+      <c r="G98" s="0" t="s">
+        <v>445</v>
+      </c>
+      <c r="M98" s="3"/>
       <c r="P98" s="0" t="n">
         <v>0</v>
       </c>
@@ -6750,6 +7356,12 @@
         <v>0</v>
       </c>
       <c r="S98" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T98" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U98" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6758,18 +7370,18 @@
         <v>106</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="D99" s="0" t="s">
-        <v>431</v>
-      </c>
-      <c r="F99" s="0" t="s">
         <v>438</v>
       </c>
-      <c r="L99" s="3"/>
-      <c r="O99" s="0" t="n">
-        <v>0</v>
-      </c>
+      <c r="E99" s="0" t="s">
+        <v>439</v>
+      </c>
+      <c r="G99" s="0" t="s">
+        <v>446</v>
+      </c>
+      <c r="M99" s="3"/>
       <c r="P99" s="0" t="n">
         <v>0</v>
       </c>
@@ -6780,6 +7392,12 @@
         <v>0</v>
       </c>
       <c r="S99" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T99" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U99" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6788,18 +7406,18 @@
         <v>107</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="D100" s="0" t="s">
-        <v>439</v>
-      </c>
-      <c r="F100" s="0" t="s">
-        <v>434</v>
-      </c>
-      <c r="L100" s="3"/>
-      <c r="O100" s="0" t="n">
-        <v>0</v>
-      </c>
+        <v>438</v>
+      </c>
+      <c r="E100" s="0" t="s">
+        <v>447</v>
+      </c>
+      <c r="G100" s="0" t="s">
+        <v>442</v>
+      </c>
+      <c r="M100" s="3"/>
       <c r="P100" s="0" t="n">
         <v>0</v>
       </c>
@@ -6810,6 +7428,12 @@
         <v>0</v>
       </c>
       <c r="S100" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T100" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U100" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6818,18 +7442,18 @@
         <v>108</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="D101" s="0" t="s">
-        <v>439</v>
-      </c>
-      <c r="F101" s="0" t="s">
-        <v>440</v>
-      </c>
-      <c r="L101" s="3"/>
-      <c r="O101" s="0" t="n">
-        <v>0</v>
-      </c>
+        <v>438</v>
+      </c>
+      <c r="E101" s="0" t="s">
+        <v>447</v>
+      </c>
+      <c r="G101" s="0" t="s">
+        <v>448</v>
+      </c>
+      <c r="M101" s="3"/>
       <c r="P101" s="0" t="n">
         <v>0</v>
       </c>
@@ -6840,6 +7464,12 @@
         <v>0</v>
       </c>
       <c r="S101" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T101" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U101" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6848,16 +7478,16 @@
         <v>109</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="D102" s="0" t="s">
-        <v>439</v>
-      </c>
-      <c r="F102" s="0" t="s">
-        <v>436</v>
-      </c>
-      <c r="O102" s="0" t="n">
-        <v>0</v>
+        <v>438</v>
+      </c>
+      <c r="E102" s="0" t="s">
+        <v>447</v>
+      </c>
+      <c r="G102" s="0" t="s">
+        <v>444</v>
       </c>
       <c r="P102" s="0" t="n">
         <v>0</v>
@@ -6871,9 +7501,15 @@
       <c r="S102" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="T102" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U102" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P102"/>
+  <autoFilter ref="A1:Q102"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -6909,10 +7545,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -6927,111 +7563,111 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>443</v>
+        <v>451</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>449</v>
+        <v>457</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>450</v>
+        <v>458</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>451</v>
+        <v>459</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>453</v>
+        <v>461</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>452</v>
+        <v>460</v>
       </c>
     </row>
   </sheetData>
@@ -7074,16 +7710,16 @@
         <v>27</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
@@ -7092,7 +7728,7 @@
         <v>4</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>456</v>
+        <v>464</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7100,19 +7736,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>458</v>
+        <v>466</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>459</v>
+        <v>467</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>460</v>
+        <v>468</v>
       </c>
       <c r="G2" s="0" t="s">
         <v>9</v>
@@ -7126,19 +7762,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>458</v>
+        <v>466</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>461</v>
+        <v>469</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="G3" s="0" t="s">
         <v>9</v>
@@ -7152,19 +7788,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>458</v>
+        <v>466</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>463</v>
+        <v>471</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>464</v>
+        <v>472</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c r="G4" s="0" t="s">
         <v>9</v>
@@ -7178,13 +7814,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>458</v>
+        <v>466</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>466</v>
+        <v>474</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>14</v>
@@ -7193,7 +7829,7 @@
         <v>16</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="H5" s="0" t="n">
         <v>1</v>
@@ -7204,13 +7840,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>458</v>
+        <v>466</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>468</v>
+        <v>476</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>19</v>
@@ -7230,13 +7866,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>458</v>
+        <v>466</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>469</v>
+        <v>477</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>24</v>
@@ -7256,22 +7892,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>474</v>
+        <v>482</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>475</v>
+        <v>483</v>
       </c>
       <c r="H8" s="0" t="n">
         <v>1</v>
@@ -7282,22 +7918,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>476</v>
+        <v>484</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>477</v>
+        <v>485</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H9" s="0" t="n">
         <v>1</v>
@@ -7308,22 +7944,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H10" s="0" t="n">
         <v>1</v>
@@ -7334,22 +7970,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H11" s="0" t="n">
         <v>1</v>
@@ -7360,22 +7996,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>484</v>
+        <v>492</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>484</v>
+        <v>492</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>485</v>
+        <v>493</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H12" s="0" t="n">
         <v>1</v>
@@ -7386,22 +8022,22 @@
         <v>12</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>486</v>
+        <v>494</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>486</v>
+        <v>494</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>487</v>
+        <v>495</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H13" s="0" t="n">
         <v>1</v>
@@ -7412,22 +8048,22 @@
         <v>13</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>488</v>
+        <v>496</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>489</v>
+        <v>497</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>490</v>
+        <v>498</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>491</v>
+        <v>499</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H14" s="0" t="n">
         <v>1</v>
@@ -7438,22 +8074,22 @@
         <v>14</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>492</v>
+        <v>500</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>493</v>
+        <v>501</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>494</v>
+        <v>502</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>495</v>
+        <v>503</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>496</v>
+        <v>504</v>
       </c>
       <c r="H15" s="0" t="n">
         <v>1</v>
@@ -7464,22 +8100,22 @@
         <v>15</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>492</v>
+        <v>500</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>497</v>
+        <v>505</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>498</v>
+        <v>506</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>499</v>
+        <v>507</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H16" s="0" t="n">
         <v>1</v>
@@ -7490,22 +8126,22 @@
         <v>16</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>492</v>
+        <v>500</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>500</v>
+        <v>508</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>501</v>
+        <v>509</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>502</v>
+        <v>510</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H17" s="0" t="n">
         <v>1</v>
@@ -7516,22 +8152,22 @@
         <v>17</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>504</v>
+        <v>512</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H18" s="0" t="n">
         <v>1</v>
@@ -7542,22 +8178,22 @@
         <v>18</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>505</v>
+        <v>513</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>506</v>
+        <v>514</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H19" s="0" t="n">
         <v>1</v>
@@ -7568,22 +8204,22 @@
         <v>19</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>507</v>
+        <v>515</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>453</v>
+        <v>461</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>508</v>
+        <v>516</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H20" s="0" t="n">
         <v>1</v>
@@ -7594,22 +8230,22 @@
         <v>20</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>509</v>
+        <v>517</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>509</v>
+        <v>517</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>510</v>
+        <v>518</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="H21" s="0" t="n">
         <v>1</v>
@@ -7620,22 +8256,22 @@
         <v>21</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>511</v>
+        <v>519</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>512</v>
+        <v>520</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>513</v>
+        <v>521</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>514</v>
+        <v>522</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>515</v>
+        <v>523</v>
       </c>
       <c r="H22" s="0" t="n">
         <v>1</v>
@@ -7646,22 +8282,22 @@
         <v>22</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>516</v>
+        <v>524</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>518</v>
+        <v>526</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="H23" s="0" t="n">
         <v>1</v>
@@ -7709,22 +8345,22 @@
         <v>27</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>520</v>
+        <v>528</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>523</v>
+        <v>531</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>2</v>
@@ -7736,7 +8372,7 @@
         <v>4</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>524</v>
+        <v>532</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7744,34 +8380,34 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>525</v>
+        <v>533</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>526</v>
+        <v>534</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>527</v>
+        <v>535</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>528</v>
+        <v>536</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>529</v>
+        <v>537</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>530</v>
+        <v>538</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>531</v>
+        <v>539</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>532</v>
+        <v>540</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>533</v>
+        <v>541</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7779,34 +8415,34 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>525</v>
+        <v>533</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>526</v>
+        <v>534</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>534</v>
+        <v>542</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>535</v>
+        <v>543</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>530</v>
+        <v>538</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>26</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>536</v>
+        <v>544</v>
       </c>
       <c r="J3" s="0" t="s">
         <v>23</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>537</v>
+        <v>545</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7814,34 +8450,34 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>525</v>
+        <v>533</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>526</v>
+        <v>534</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>534</v>
+        <v>542</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F4" s="0" t="s">
+        <v>546</v>
+      </c>
+      <c r="G4" s="0" t="s">
         <v>538</v>
       </c>
-      <c r="G4" s="0" t="s">
-        <v>530</v>
-      </c>
       <c r="H4" s="0" t="s">
-        <v>539</v>
+        <v>547</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>540</v>
+        <v>548</v>
       </c>
       <c r="J4" s="0" t="s">
         <v>23</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>541</v>
+        <v>549</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7849,34 +8485,34 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>525</v>
+        <v>533</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>526</v>
+        <v>534</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>534</v>
+        <v>542</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>542</v>
+        <v>550</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>530</v>
+        <v>538</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>543</v>
+        <v>551</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>544</v>
+        <v>552</v>
       </c>
       <c r="J5" s="0" t="s">
         <v>23</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>545</v>
+        <v>553</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7884,34 +8520,34 @@
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>546</v>
+        <v>554</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>547</v>
+        <v>555</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>534</v>
+        <v>542</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>548</v>
+        <v>556</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>530</v>
+        <v>538</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>549</v>
+        <v>557</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>550</v>
+        <v>558</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>551</v>
+        <v>559</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7919,34 +8555,34 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>546</v>
+        <v>554</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>547</v>
+        <v>555</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>534</v>
+        <v>542</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>552</v>
+        <v>560</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>530</v>
+        <v>538</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>553</v>
+        <v>561</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>554</v>
+        <v>562</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>555</v>
+        <v>563</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7954,34 +8590,34 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>546</v>
+        <v>554</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>547</v>
+        <v>555</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>534</v>
+        <v>542</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>556</v>
+        <v>564</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>557</v>
+        <v>565</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>530</v>
+        <v>538</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>558</v>
+        <v>566</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>559</v>
+        <v>567</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>560</v>
+        <v>568</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7989,34 +8625,34 @@
         <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>546</v>
+        <v>554</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>547</v>
+        <v>555</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>534</v>
+        <v>542</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>528</v>
+        <v>536</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>561</v>
+        <v>569</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>530</v>
+        <v>538</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>562</v>
+        <v>570</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>563</v>
+        <v>571</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>564</v>
+        <v>572</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8024,34 +8660,34 @@
         <v>9</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>546</v>
+        <v>554</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>547</v>
+        <v>555</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>565</v>
+        <v>573</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>566</v>
+        <v>574</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>530</v>
+        <v>538</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>567</v>
+        <v>575</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>568</v>
+        <v>576</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>569</v>
+        <v>577</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8059,34 +8695,34 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>546</v>
+        <v>554</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>547</v>
+        <v>555</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>565</v>
+        <v>573</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>570</v>
+        <v>578</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>530</v>
+        <v>538</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>495</v>
+        <v>503</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>571</v>
+        <v>579</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>572</v>
+        <v>580</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>573</v>
+        <v>581</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8094,34 +8730,34 @@
         <v>11</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>546</v>
+        <v>554</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>547</v>
+        <v>555</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>565</v>
+        <v>573</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>528</v>
+        <v>536</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>574</v>
+        <v>582</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>530</v>
+        <v>538</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>575</v>
+        <v>583</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>576</v>
+        <v>584</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>577</v>
+        <v>585</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8129,34 +8765,34 @@
         <v>12</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>546</v>
+        <v>554</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>547</v>
+        <v>555</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>578</v>
+        <v>586</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>528</v>
+        <v>536</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>579</v>
+        <v>587</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>530</v>
+        <v>538</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>580</v>
+        <v>588</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>581</v>
+        <v>589</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>582</v>
+        <v>590</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8164,34 +8800,34 @@
         <v>13</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>583</v>
+        <v>591</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>547</v>
+        <v>555</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>584</v>
+        <v>592</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>530</v>
+        <v>538</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>585</v>
+        <v>593</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>586</v>
+        <v>594</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>587</v>
+        <v>595</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8199,34 +8835,34 @@
         <v>14</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>583</v>
+        <v>591</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>547</v>
+        <v>555</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>584</v>
+        <v>592</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>588</v>
+        <v>596</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>530</v>
+        <v>538</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>589</v>
+        <v>597</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>590</v>
+        <v>598</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>591</v>
+        <v>599</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8234,34 +8870,34 @@
         <v>15</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>525</v>
+        <v>533</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>547</v>
+        <v>555</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>527</v>
+        <v>535</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>584</v>
+        <v>592</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>592</v>
+        <v>600</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>530</v>
+        <v>538</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>593</v>
+        <v>601</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>594</v>
+        <v>602</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="K16" s="0" t="s">
-        <v>595</v>
+        <v>603</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8269,34 +8905,34 @@
         <v>16</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>583</v>
+        <v>591</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>547</v>
+        <v>555</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>528</v>
+        <v>536</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>530</v>
+        <v>538</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>597</v>
+        <v>605</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>598</v>
+        <v>606</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>599</v>
+        <v>607</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>600</v>
+        <v>608</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8304,34 +8940,34 @@
         <v>17</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>583</v>
+        <v>591</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>547</v>
+        <v>555</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>528</v>
+        <v>536</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>601</v>
+        <v>609</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>530</v>
+        <v>538</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>602</v>
+        <v>610</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>603</v>
+        <v>611</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="K18" s="0" t="s">
-        <v>604</v>
+        <v>612</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8339,34 +8975,34 @@
         <v>18</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>605</v>
+        <v>613</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>547</v>
+        <v>555</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>578</v>
+        <v>586</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>606</v>
+        <v>614</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>607</v>
+        <v>615</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>530</v>
+        <v>538</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>608</v>
+        <v>616</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>609</v>
+        <v>617</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>475</v>
+        <v>483</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>610</v>
+        <v>618</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8374,34 +9010,34 @@
         <v>19</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>583</v>
+        <v>591</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>547</v>
+        <v>555</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>611</v>
+        <v>619</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>513</v>
+        <v>521</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>530</v>
+        <v>538</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>514</v>
+        <v>522</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>612</v>
+        <v>620</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>515</v>
+        <v>523</v>
       </c>
       <c r="K20" s="0" t="s">
-        <v>613</v>
+        <v>621</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8409,34 +9045,34 @@
         <v>20</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>583</v>
+        <v>591</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>547</v>
+        <v>555</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>611</v>
+        <v>619</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>530</v>
+        <v>538</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>518</v>
+        <v>526</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>614</v>
+        <v>622</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>615</v>
+        <v>623</v>
       </c>
       <c r="K21" s="0" t="s">
-        <v>616</v>
+        <v>624</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/inst/doc/files/parameterization.xlsx
+++ b/inst/doc/files/parameterization.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="286" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="233" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="climate" sheetId="1" state="visible" r:id="rId2"/>
@@ -41,13 +41,14 @@
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">parameters!$A$1:$Q$102</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">parameters!$A$1:$Q$102</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">parameters!$A$1:$Q$102</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">parameters!$A$1:$Q$102</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1293" uniqueCount="625">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1339" uniqueCount="650">
   <si>
     <t>name.rsunflo.fr</t>
   </si>
@@ -1468,9 +1469,15 @@
     <t>TM</t>
   </si>
   <si>
+    <t>TemperatureAirMean</t>
+  </si>
+  <si>
     <t>Température moyenne</t>
   </si>
   <si>
+    <t>Mean air temperature</t>
+  </si>
+  <si>
     <t>RG</t>
   </si>
   <si>
@@ -1498,424 +1505,493 @@
     <t>Temps thermique cumulé depuis la levée</t>
   </si>
   <si>
+    <t>Temperature sum from emergence</t>
+  </si>
+  <si>
+    <t>PhasePhenoPlante</t>
+  </si>
+  <si>
+    <t>PhenoStage</t>
+  </si>
+  <si>
+    <t>Index de phénologie</t>
+  </si>
+  <si>
+    <t>Phenological stages index </t>
+  </si>
+  <si>
+    <t>contrainte_eau</t>
+  </si>
+  <si>
+    <t>FTSW</t>
+  </si>
+  <si>
+    <t>WaterStress</t>
+  </si>
+  <si>
+    <t>Facteur de contrainte hydrique</t>
+  </si>
+  <si>
+    <t>Water stress index</t>
+  </si>
+  <si>
+    <t>FHTR</t>
+  </si>
+  <si>
+    <t>WaterStressConductance</t>
+  </si>
+  <si>
+    <t>Facteur de réponse de la transpiration à la contrainte hydrique</t>
+  </si>
+  <si>
+    <t>Transpiration response to water stress</t>
+  </si>
+  <si>
+    <t>FHRUE</t>
+  </si>
+  <si>
+    <t>Facteur de réponse de la photosynthèse à la contrainte hydrique</t>
+  </si>
+  <si>
+    <t>Photosynthesis response to water stress</t>
+  </si>
+  <si>
+    <t>ETRETM</t>
+  </si>
+  <si>
+    <t>WaterSupplyDemandRatio</t>
+  </si>
+  <si>
+    <t>Ratio ETR/ETM</t>
+  </si>
+  <si>
+    <t>Water supply:demand ratio</t>
+  </si>
+  <si>
+    <t>contrainte_temperature</t>
+  </si>
+  <si>
+    <t>FT</t>
+  </si>
+  <si>
+    <t>FTRUE</t>
+  </si>
+  <si>
+    <t>ThermalStressRUE</t>
+  </si>
+  <si>
+    <t>Facteur de réponse de la photosynthèse à la contrainte thermique</t>
+  </si>
+  <si>
+    <t>Photosynthesis response to thermal stress</t>
+  </si>
+  <si>
+    <t>contrainte_azote</t>
+  </si>
+  <si>
+    <t>Nabs</t>
+  </si>
+  <si>
+    <t>NAB</t>
+  </si>
+  <si>
+    <t>NitrogenAbsorbed</t>
+  </si>
+  <si>
+    <t>Azote absorbé</t>
+  </si>
+  <si>
+    <t>Absorbed nitrogen</t>
+  </si>
+  <si>
+    <t>kg.ha-1.d-1</t>
+  </si>
+  <si>
+    <t>INN</t>
+  </si>
+  <si>
+    <t>NNI</t>
+  </si>
+  <si>
+    <t>NitrogenNutritionIndex</t>
+  </si>
+  <si>
+    <t>Indice de nutrition azoté</t>
+  </si>
+  <si>
+    <t>Nitrogen nutrition index</t>
+  </si>
+  <si>
+    <t>FNIRUE</t>
+  </si>
+  <si>
+    <t>FNRUE</t>
+  </si>
+  <si>
+    <t>NitrogenStressRUE</t>
+  </si>
+  <si>
+    <t>Facteur de réponse de la photosynthèse à la contrainte azote</t>
+  </si>
+  <si>
+    <t>Photosynthesis response to nitrogen stress</t>
+  </si>
+  <si>
+    <t>croissance_plante</t>
+  </si>
+  <si>
+    <t>Indice foliaire</t>
+  </si>
+  <si>
+    <t>Leaf area index</t>
+  </si>
+  <si>
+    <t>Ei</t>
+  </si>
+  <si>
+    <t>Efficience d'interception de la lumière</t>
+  </si>
+  <si>
+    <t>Radiation interception efficiency</t>
+  </si>
+  <si>
+    <t>Eb</t>
+  </si>
+  <si>
+    <t>Efficience d'utilisation de la lumière</t>
+  </si>
+  <si>
+    <t>Radiation use efficiency</t>
+  </si>
+  <si>
+    <t>TDM</t>
+  </si>
+  <si>
+    <t>Biomasse aérienne</t>
+  </si>
+  <si>
+    <t>Crop aerial dry biomass</t>
+  </si>
+  <si>
+    <t>g.m-2</t>
+  </si>
+  <si>
+    <t>elaboration_rendement</t>
+  </si>
+  <si>
+    <t>photo_RDT_aFinMATURATION</t>
+  </si>
+  <si>
+    <t>GY</t>
+  </si>
+  <si>
+    <t>CropYield</t>
+  </si>
+  <si>
+    <t>Rendement en grain</t>
+  </si>
+  <si>
+    <t>Grain yield</t>
+  </si>
+  <si>
+    <t>q.ha-1</t>
+  </si>
+  <si>
+    <t>elaboration_qualite</t>
+  </si>
+  <si>
+    <t>photo_TH_aFinMATURATION</t>
+  </si>
+  <si>
+    <t>OilContent</t>
+  </si>
+  <si>
+    <t>Teneur en huile</t>
+  </si>
+  <si>
+    <t>Grain oil content</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>factor</t>
+  </si>
+  <si>
+    <t>process</t>
+  </si>
+  <si>
+    <t>position</t>
+  </si>
+  <si>
+    <t>formula</t>
+  </si>
+  <si>
+    <t>resource</t>
+  </si>
+  <si>
+    <t>climate</t>
+  </si>
+  <si>
+    <t>light</t>
+  </si>
+  <si>
+    <t>photosynthesis</t>
+  </si>
+  <si>
+    <t>SGR</t>
+  </si>
+  <si>
+    <t>cycle</t>
+  </si>
+  <si>
+    <t>Rayonnement incident (PAR)</t>
+  </si>
+  <si>
+    <t>Photosynthetically active radiation</t>
+  </si>
+  <si>
+    <t>sum(GR*0.48)</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>SRR</t>
+  </si>
+  <si>
+    <t>Rain</t>
+  </si>
+  <si>
+    <t>sum(RR)</t>
+  </si>
+  <si>
+    <t>SETP</t>
+  </si>
+  <si>
+    <t>Evapotranspiration</t>
+  </si>
+  <si>
+    <t>Potential evapotranspiration</t>
+  </si>
+  <si>
+    <t>sum(ETP)</t>
+  </si>
+  <si>
+    <t>SCWD</t>
+  </si>
+  <si>
+    <t>Déficit hydrique climatique</t>
+  </si>
+  <si>
+    <t>Climatic water deficit</t>
+  </si>
+  <si>
+    <t>sum(P-ETP)</t>
+  </si>
+  <si>
+    <t>constraint</t>
+  </si>
+  <si>
+    <t>crop</t>
+  </si>
+  <si>
+    <t>SFTSW</t>
+  </si>
+  <si>
+    <t>Déficit hydrique édaphique (continu)</t>
+  </si>
+  <si>
+    <t>Edaphic water deficit (continuous)</t>
+  </si>
+  <si>
+    <t>sum(1-FTSW)</t>
+  </si>
+  <si>
+    <t>NETR</t>
+  </si>
+  <si>
+    <t>Déficit hydrique édaphique (discret)</t>
+  </si>
+  <si>
+    <t>Edaphic water deficit (discrete)</t>
+  </si>
+  <si>
+    <t>sum(ETR/ETM &lt; 0.6)</t>
+  </si>
+  <si>
+    <t>transpiration</t>
+  </si>
+  <si>
+    <t>SFHTR</t>
+  </si>
+  <si>
+    <t>Effet de la contrainte hydrique sur la transpiration</t>
+  </si>
+  <si>
+    <t>Water stress impact on crop transpiration</t>
+  </si>
+  <si>
+    <t>sum(1-FHTR)</t>
+  </si>
+  <si>
+    <t>SFHRUE</t>
+  </si>
+  <si>
+    <t>Effet de la contrainte hydrique sur la photosynthèse</t>
+  </si>
+  <si>
+    <t>Water stress impact on crop photosynthesis</t>
+  </si>
+  <si>
+    <t>sum(1-FHRUE)</t>
+  </si>
+  <si>
+    <t>nitrogen</t>
+  </si>
+  <si>
+    <t>SNNI</t>
+  </si>
+  <si>
+    <t>Déficit azoté</t>
+  </si>
+  <si>
+    <t>Nitrogen deficit</t>
+  </si>
+  <si>
+    <t>sum(1-NNI)</t>
+  </si>
+  <si>
+    <t>SNAB</t>
+  </si>
+  <si>
+    <t>kg/ha</t>
+  </si>
+  <si>
+    <t>diff(range(NAB))</t>
+  </si>
+  <si>
+    <t>SFNRUE</t>
+  </si>
+  <si>
+    <t>Effet de la contrainte azote sur la photosynthèse</t>
+  </si>
+  <si>
+    <t>Nitrogen stress impact on photosynthesis</t>
+  </si>
+  <si>
+    <t>sum(1-FNRUE)</t>
+  </si>
+  <si>
+    <t>temperature</t>
+  </si>
+  <si>
+    <t>SFTRUE</t>
+  </si>
+  <si>
+    <t>Effet de la contrainte thermique sur la photosynthèse</t>
+  </si>
+  <si>
+    <t>Thermal stress impact on photosynthesis</t>
+  </si>
+  <si>
+    <t>sum(1-FTRUE)</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>interception</t>
+  </si>
+  <si>
+    <t>Indice foliaire maximum</t>
+  </si>
+  <si>
+    <t>max(LAI)</t>
+  </si>
+  <si>
+    <t>DSF</t>
+  </si>
+  <si>
+    <t>Durée de surface foliaire</t>
+  </si>
+  <si>
+    <t>Leaf area duration</t>
+  </si>
+  <si>
+    <t>sum(LAI)</t>
+  </si>
+  <si>
+    <t>SIR</t>
+  </si>
+  <si>
+    <t>Rayonnement intercepté (PAR)</t>
+  </si>
+  <si>
+    <t>Intercepted radiation</t>
+  </si>
+  <si>
+    <t>sum(RIE*GR*0.48)</t>
+  </si>
+  <si>
+    <t>MRUE</t>
+  </si>
+  <si>
+    <t>Photosynthèse</t>
+  </si>
+  <si>
+    <t>Photosynthesis</t>
+  </si>
+  <si>
+    <t>g/MJ/m2</t>
+  </si>
+  <si>
+    <t>mean(RUE)</t>
+  </si>
+  <si>
+    <t>STDM</t>
+  </si>
+  <si>
+    <t>Biomasse</t>
+  </si>
+  <si>
+    <t>Aerial Biomass</t>
+  </si>
+  <si>
+    <t>max(TDM)</t>
+  </si>
+  <si>
+    <t>ressource</t>
+  </si>
+  <si>
+    <t>phenology</t>
+  </si>
+  <si>
+    <t>TT</t>
+  </si>
+  <si>
+    <t>Temps thermique (base 4.8°C)</t>
+  </si>
+  <si>
+    <t>Thermal time</t>
+  </si>
+  <si>
     <t>°C.j</t>
   </si>
   <si>
-    <t>PhasePhenoPlante</t>
-  </si>
-  <si>
-    <t>PhenoStage</t>
-  </si>
-  <si>
-    <t>Index de phénologie</t>
-  </si>
-  <si>
-    <t>contrainte_eau</t>
-  </si>
-  <si>
-    <t>FTSW</t>
-  </si>
-  <si>
-    <t>Facteur de contrainte hydrique</t>
-  </si>
-  <si>
-    <t>FHTR</t>
-  </si>
-  <si>
-    <t>Facteur de réponse de la transpiration à la contrainte hydrique</t>
-  </si>
-  <si>
-    <t>FHRUE</t>
-  </si>
-  <si>
-    <t>Facteur de réponse de la photosynthèse à la contrainte hydrique</t>
-  </si>
-  <si>
-    <t>ETRETM</t>
-  </si>
-  <si>
-    <t>Ratio ETR/ETM</t>
-  </si>
-  <si>
-    <t>contrainte_temperature</t>
-  </si>
-  <si>
-    <t>FT</t>
-  </si>
-  <si>
-    <t>FTRUE</t>
-  </si>
-  <si>
-    <t>Facteur de réponse de la photosynthèse à la contrainte thermique</t>
-  </si>
-  <si>
-    <t>contrainte_azote</t>
-  </si>
-  <si>
-    <t>Nabs</t>
-  </si>
-  <si>
-    <t>NAB</t>
-  </si>
-  <si>
-    <t>Azote absorbé</t>
-  </si>
-  <si>
-    <t>kg/ha/j</t>
-  </si>
-  <si>
-    <t>INN</t>
-  </si>
-  <si>
-    <t>NNI</t>
-  </si>
-  <si>
-    <t>Indice de nutrition azoté</t>
-  </si>
-  <si>
-    <t>FNIRUE</t>
-  </si>
-  <si>
-    <t>FNRUE</t>
-  </si>
-  <si>
-    <t>Facteur de réponse de la photosynthèse à la contrainte azote</t>
-  </si>
-  <si>
-    <t>croissance_plante</t>
-  </si>
-  <si>
-    <t>Indice foliaire</t>
-  </si>
-  <si>
-    <t>Ei</t>
-  </si>
-  <si>
-    <t>Efficience d'interception de la lumière</t>
-  </si>
-  <si>
-    <t>Eb</t>
-  </si>
-  <si>
-    <t>Efficience d'utilisation de la lumière</t>
-  </si>
-  <si>
-    <t>TDM</t>
-  </si>
-  <si>
-    <t>Biomasse aérienne</t>
-  </si>
-  <si>
-    <t>elaboration_rendement</t>
-  </si>
-  <si>
-    <t>photo_RDT_aFinMATURATION</t>
-  </si>
-  <si>
-    <t>GY</t>
-  </si>
-  <si>
-    <t>Rendement en grain</t>
+    <t>max(TTA2)</t>
+  </si>
+  <si>
+    <t>performance</t>
   </si>
   <si>
     <t>q/ha</t>
   </si>
   <si>
-    <t>elaboration_qualite</t>
-  </si>
-  <si>
-    <t>photo_TH_aFinMATURATION</t>
-  </si>
-  <si>
-    <t>Teneur en huile</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>level</t>
-  </si>
-  <si>
-    <t>factor</t>
-  </si>
-  <si>
-    <t>process</t>
-  </si>
-  <si>
-    <t>position</t>
-  </si>
-  <si>
-    <t>formula</t>
-  </si>
-  <si>
-    <t>resource</t>
-  </si>
-  <si>
-    <t>climate</t>
-  </si>
-  <si>
-    <t>light</t>
-  </si>
-  <si>
-    <t>photosynthesis</t>
-  </si>
-  <si>
-    <t>SGR</t>
-  </si>
-  <si>
-    <t>cycle</t>
-  </si>
-  <si>
-    <t>Rayonnement incident (PAR)</t>
-  </si>
-  <si>
-    <t>Photosynthetically active radiation</t>
-  </si>
-  <si>
-    <t>sum(GR*0.48)</t>
-  </si>
-  <si>
-    <t>water</t>
-  </si>
-  <si>
-    <t>SRR</t>
-  </si>
-  <si>
-    <t>Rain</t>
-  </si>
-  <si>
-    <t>sum(RR)</t>
-  </si>
-  <si>
-    <t>SETP</t>
-  </si>
-  <si>
-    <t>Evapotranspiration</t>
-  </si>
-  <si>
-    <t>Potential evapotranspiration</t>
-  </si>
-  <si>
-    <t>sum(ETP)</t>
-  </si>
-  <si>
-    <t>SCWD</t>
-  </si>
-  <si>
-    <t>Déficit hydrique climatique</t>
-  </si>
-  <si>
-    <t>Climatic water deficit</t>
-  </si>
-  <si>
-    <t>sum(P-ETP)</t>
-  </si>
-  <si>
-    <t>constraint</t>
-  </si>
-  <si>
-    <t>crop</t>
-  </si>
-  <si>
-    <t>SFTSW</t>
-  </si>
-  <si>
-    <t>Déficit hydrique édaphique (continu)</t>
-  </si>
-  <si>
-    <t>Edaphic water deficit (continuous)</t>
-  </si>
-  <si>
-    <t>sum(1-FTSW)</t>
-  </si>
-  <si>
-    <t>NETR</t>
-  </si>
-  <si>
-    <t>Déficit hydrique édaphique (discret)</t>
-  </si>
-  <si>
-    <t>Edaphic water deficit (discrete)</t>
-  </si>
-  <si>
-    <t>sum(ETR/ETM &lt; 0.6)</t>
-  </si>
-  <si>
-    <t>transpiration</t>
-  </si>
-  <si>
-    <t>SFHTR</t>
-  </si>
-  <si>
-    <t>Effet de la contrainte hydrique sur la transpiration</t>
-  </si>
-  <si>
-    <t>Water stress impact on crop transpiration</t>
-  </si>
-  <si>
-    <t>sum(1-FHTR)</t>
-  </si>
-  <si>
-    <t>SFHRUE</t>
-  </si>
-  <si>
-    <t>Effet de la contrainte hydrique sur la photosynthèse</t>
-  </si>
-  <si>
-    <t>Water stress impact on crop photosynthesis</t>
-  </si>
-  <si>
-    <t>sum(1-FHRUE)</t>
-  </si>
-  <si>
-    <t>nitrogen</t>
-  </si>
-  <si>
-    <t>SNNI</t>
-  </si>
-  <si>
-    <t>Déficit azoté</t>
-  </si>
-  <si>
-    <t>Nitrogen deficit</t>
-  </si>
-  <si>
-    <t>sum(1-NNI)</t>
-  </si>
-  <si>
-    <t>SNAB</t>
-  </si>
-  <si>
-    <t>Absorbed nitrogen</t>
-  </si>
-  <si>
-    <t>kg/ha</t>
-  </si>
-  <si>
-    <t>diff(range(NAB))</t>
-  </si>
-  <si>
-    <t>SFNRUE</t>
-  </si>
-  <si>
-    <t>Effet de la contrainte azote sur la photosynthèse</t>
-  </si>
-  <si>
-    <t>Nitrogen stress impact on photosynthesis</t>
-  </si>
-  <si>
-    <t>sum(1-FNRUE)</t>
-  </si>
-  <si>
-    <t>temperature</t>
-  </si>
-  <si>
-    <t>SFTRUE</t>
-  </si>
-  <si>
-    <t>Effet de la contrainte thermique sur la photosynthèse</t>
-  </si>
-  <si>
-    <t>Thermal stress impact on photosynthesis</t>
-  </si>
-  <si>
-    <t>sum(1-FTRUE)</t>
-  </si>
-  <si>
-    <t>state</t>
-  </si>
-  <si>
-    <t>interception</t>
-  </si>
-  <si>
-    <t>Indice foliaire maximum</t>
-  </si>
-  <si>
-    <t>Leaf area index</t>
-  </si>
-  <si>
-    <t>max(LAI)</t>
-  </si>
-  <si>
-    <t>DSF</t>
-  </si>
-  <si>
-    <t>Durée de surface foliaire</t>
-  </si>
-  <si>
-    <t>Leaf area duration</t>
-  </si>
-  <si>
-    <t>sum(LAI)</t>
-  </si>
-  <si>
-    <t>SIR</t>
-  </si>
-  <si>
-    <t>Rayonnement intercepté (PAR)</t>
-  </si>
-  <si>
-    <t>Intercepted radiation</t>
-  </si>
-  <si>
-    <t>sum(RIE*GR*0.48)</t>
-  </si>
-  <si>
-    <t>MRUE</t>
-  </si>
-  <si>
-    <t>Photosynthèse</t>
-  </si>
-  <si>
-    <t>Photosynthesis</t>
-  </si>
-  <si>
-    <t>g/MJ/m2</t>
-  </si>
-  <si>
-    <t>mean(RUE)</t>
-  </si>
-  <si>
-    <t>STDM</t>
-  </si>
-  <si>
-    <t>Biomasse</t>
-  </si>
-  <si>
-    <t>Aerial Biomass</t>
-  </si>
-  <si>
-    <t>max(TDM)</t>
-  </si>
-  <si>
-    <t>ressource</t>
-  </si>
-  <si>
-    <t>phenology</t>
-  </si>
-  <si>
-    <t>TT</t>
-  </si>
-  <si>
-    <t>Temps thermique (base 4.8°C)</t>
-  </si>
-  <si>
-    <t>Thermal time</t>
-  </si>
-  <si>
-    <t>max(TTA2)</t>
-  </si>
-  <si>
-    <t>performance</t>
-  </si>
-  <si>
-    <t>Grain yield</t>
-  </si>
-  <si>
     <t>max(GY)</t>
-  </si>
-  <si>
-    <t>Grain oil content</t>
   </si>
   <si>
     <t>% (DM)</t>
@@ -2068,7 +2144,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.15"/>
@@ -2201,8 +2277,8 @@
   </sheetPr>
   <dimension ref="A1:U102"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="U2" activeCellId="0" sqref="U2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L4" activeCellId="0" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.15"/>
@@ -7687,25 +7763,27 @@
     <tabColor rgb="FFFFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G24" activeCellId="0" sqref="G24"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I23" activeCellId="0" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.2"/>
+  <sheetFormatPr defaultRowHeight="13.15"/>
   <cols>
     <col collapsed="false" hidden="false" max="2" min="1" style="0" width="11.6377551020408"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.1428571428571"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.7704081632653"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.984693877551"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="55.3826530612245"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="22.5510204081633"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="12.8418367346939"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.6377551020408"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.8979591836735"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="55.3826530612245"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="30.734693877551"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="22.5510204081633"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="12.8418367346939"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="11.6377551020408"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
@@ -7722,16 +7800,22 @@
         <v>34</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
@@ -7748,16 +7832,22 @@
         <v>5</v>
       </c>
       <c r="F2" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="0" t="s">
         <v>468</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="H2" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J2" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
         <v>2</v>
       </c>
@@ -7774,16 +7864,22 @@
         <v>10</v>
       </c>
       <c r="F3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="0" t="s">
         <v>470</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="H3" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J3" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
         <v>3</v>
       </c>
@@ -7803,13 +7899,19 @@
         <v>473</v>
       </c>
       <c r="G4" s="0" t="s">
+        <v>474</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>475</v>
+      </c>
+      <c r="I4" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J4" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
         <v>4</v>
       </c>
@@ -7820,22 +7922,28 @@
         <v>466</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="0" t="s">
-        <v>475</v>
-      </c>
-      <c r="H5" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>477</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
         <v>5</v>
       </c>
@@ -7846,22 +7954,28 @@
         <v>466</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>19</v>
       </c>
       <c r="F6" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="0" t="s">
+      <c r="H6" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J6" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
         <v>6</v>
       </c>
@@ -7872,290 +7986,356 @@
         <v>466</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>24</v>
       </c>
       <c r="F7" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="0" t="s">
+      <c r="H7" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J7" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>481</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>482</v>
+        <v>483</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>449</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>483</v>
-      </c>
-      <c r="H8" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>484</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>485</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
         <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>485</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>486</v>
+        <v>487</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>487</v>
       </c>
       <c r="G9" s="0" t="s">
+        <v>488</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>489</v>
+      </c>
+      <c r="I9" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="H9" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J9" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
         <v>9</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>488</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>489</v>
+        <v>491</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>492</v>
       </c>
       <c r="G10" s="0" t="s">
+        <v>493</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>494</v>
+      </c>
+      <c r="I10" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="H10" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J10" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>490</v>
-      </c>
-      <c r="F11" s="0" t="s">
-        <v>491</v>
+        <v>495</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>496</v>
       </c>
       <c r="G11" s="0" t="s">
+        <v>497</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>498</v>
+      </c>
+      <c r="I11" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="H11" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J11" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
         <v>11</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>492</v>
-      </c>
-      <c r="F12" s="0" t="s">
-        <v>493</v>
+        <v>499</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>496</v>
       </c>
       <c r="G12" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>501</v>
+      </c>
+      <c r="I12" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="H12" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J12" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
         <v>12</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>494</v>
+        <v>502</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>494</v>
-      </c>
-      <c r="F13" s="0" t="s">
-        <v>495</v>
+        <v>502</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>503</v>
       </c>
       <c r="G13" s="0" t="s">
+        <v>504</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>505</v>
+      </c>
+      <c r="I13" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="H13" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J13" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
         <v>13</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>496</v>
+        <v>506</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>497</v>
+        <v>507</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>498</v>
-      </c>
-      <c r="F14" s="0" t="s">
-        <v>499</v>
+        <v>508</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>509</v>
       </c>
       <c r="G14" s="0" t="s">
+        <v>510</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>511</v>
+      </c>
+      <c r="I14" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="H14" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J14" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
         <v>14</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>500</v>
+        <v>512</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>501</v>
+        <v>513</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>502</v>
-      </c>
-      <c r="F15" s="0" t="s">
-        <v>503</v>
+        <v>514</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>515</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>504</v>
-      </c>
-      <c r="H15" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>516</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>517</v>
+      </c>
+      <c r="I15" s="0" t="s">
+        <v>518</v>
+      </c>
+      <c r="J15" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
         <v>15</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>500</v>
+        <v>512</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>505</v>
+        <v>519</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>506</v>
-      </c>
-      <c r="F16" s="0" t="s">
-        <v>507</v>
+        <v>520</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>521</v>
       </c>
       <c r="G16" s="0" t="s">
+        <v>522</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>523</v>
+      </c>
+      <c r="I16" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="H16" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J16" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
         <v>16</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>500</v>
+        <v>512</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>508</v>
+        <v>524</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>509</v>
-      </c>
-      <c r="F17" s="0" t="s">
-        <v>510</v>
+        <v>525</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>526</v>
       </c>
       <c r="G17" s="0" t="s">
+        <v>527</v>
+      </c>
+      <c r="H17" s="0" t="s">
+        <v>528</v>
+      </c>
+      <c r="I17" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="H17" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J17" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
         <v>17</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>511</v>
+        <v>529</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>458</v>
@@ -8163,143 +8343,179 @@
       <c r="E18" s="3" t="s">
         <v>458</v>
       </c>
-      <c r="F18" s="0" t="s">
-        <v>512</v>
+      <c r="F18" s="3" t="s">
+        <v>458</v>
       </c>
       <c r="G18" s="0" t="s">
+        <v>530</v>
+      </c>
+      <c r="H18" s="0" t="s">
+        <v>531</v>
+      </c>
+      <c r="I18" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="H18" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J18" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
         <v>18</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>511</v>
+        <v>529</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>513</v>
+        <v>532</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="F19" s="0" t="s">
-        <v>514</v>
+      <c r="F19" s="3" t="s">
+        <v>459</v>
       </c>
       <c r="G19" s="0" t="s">
+        <v>533</v>
+      </c>
+      <c r="H19" s="0" t="s">
+        <v>534</v>
+      </c>
+      <c r="I19" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="H19" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J19" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
         <v>19</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>511</v>
+        <v>529</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>515</v>
+        <v>535</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>461</v>
       </c>
-      <c r="F20" s="0" t="s">
-        <v>516</v>
+      <c r="F20" s="3" t="s">
+        <v>461</v>
       </c>
       <c r="G20" s="0" t="s">
+        <v>536</v>
+      </c>
+      <c r="H20" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="I20" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="H20" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J20" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
         <v>20</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>511</v>
+        <v>529</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>517</v>
+        <v>538</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>517</v>
-      </c>
-      <c r="F21" s="0" t="s">
-        <v>518</v>
+        <v>538</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>460</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>415</v>
-      </c>
-      <c r="H21" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>539</v>
+      </c>
+      <c r="H21" s="0" t="s">
+        <v>540</v>
+      </c>
+      <c r="I21" s="0" t="s">
+        <v>541</v>
+      </c>
+      <c r="J21" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
         <v>21</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>519</v>
+        <v>542</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>520</v>
+        <v>543</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>521</v>
-      </c>
-      <c r="F22" s="0" t="s">
-        <v>522</v>
+        <v>544</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>545</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>523</v>
-      </c>
-      <c r="H22" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>546</v>
+      </c>
+      <c r="H22" s="0" t="s">
+        <v>547</v>
+      </c>
+      <c r="I22" s="0" t="s">
+        <v>548</v>
+      </c>
+      <c r="J22" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
         <v>22</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>524</v>
+        <v>549</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>525</v>
+        <v>550</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="F23" s="0" t="s">
-        <v>526</v>
+      <c r="F23" s="3" t="s">
+        <v>551</v>
       </c>
       <c r="G23" s="0" t="s">
+        <v>552</v>
+      </c>
+      <c r="H23" s="0" t="s">
+        <v>553</v>
+      </c>
+      <c r="I23" s="0" t="s">
         <v>118</v>
       </c>
-      <c r="H23" s="0" t="n">
+      <c r="J23" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8345,22 +8561,22 @@
         <v>27</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>527</v>
+        <v>554</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>528</v>
+        <v>555</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>529</v>
+        <v>556</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>530</v>
+        <v>557</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>531</v>
+        <v>558</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>2</v>
@@ -8372,7 +8588,7 @@
         <v>4</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>532</v>
+        <v>559</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8380,34 +8596,34 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>533</v>
+        <v>560</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>534</v>
+        <v>561</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>535</v>
+        <v>562</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>536</v>
+        <v>563</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>537</v>
+        <v>564</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>538</v>
+        <v>565</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>539</v>
+        <v>566</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>540</v>
+        <v>567</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>541</v>
+        <v>568</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8415,34 +8631,34 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>533</v>
+        <v>560</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>534</v>
+        <v>561</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>542</v>
+        <v>569</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>91</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>543</v>
+        <v>570</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>538</v>
+        <v>565</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>26</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>544</v>
+        <v>571</v>
       </c>
       <c r="J3" s="0" t="s">
         <v>23</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>545</v>
+        <v>572</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8450,34 +8666,34 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>533</v>
+        <v>560</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>534</v>
+        <v>561</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>542</v>
+        <v>569</v>
       </c>
       <c r="E4" s="0" t="s">
         <v>91</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>546</v>
+        <v>573</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>538</v>
+        <v>565</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>547</v>
+        <v>574</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>548</v>
+        <v>575</v>
       </c>
       <c r="J4" s="0" t="s">
         <v>23</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>549</v>
+        <v>576</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8485,34 +8701,34 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>533</v>
+        <v>560</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>534</v>
+        <v>561</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>542</v>
+        <v>569</v>
       </c>
       <c r="E5" s="0" t="s">
         <v>91</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>550</v>
+        <v>577</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>538</v>
+        <v>565</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>551</v>
+        <v>578</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>552</v>
+        <v>579</v>
       </c>
       <c r="J5" s="0" t="s">
         <v>23</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>553</v>
+        <v>580</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8520,34 +8736,34 @@
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>554</v>
+        <v>581</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>555</v>
+        <v>582</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>542</v>
+        <v>569</v>
       </c>
       <c r="E6" s="0" t="s">
         <v>91</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>556</v>
+        <v>583</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>538</v>
+        <v>565</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>557</v>
+        <v>584</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>558</v>
+        <v>585</v>
       </c>
       <c r="J6" s="0" t="s">
         <v>91</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>559</v>
+        <v>586</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8555,34 +8771,34 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>554</v>
+        <v>581</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>555</v>
+        <v>582</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>542</v>
+        <v>569</v>
       </c>
       <c r="E7" s="0" t="s">
         <v>91</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>560</v>
+        <v>587</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>538</v>
+        <v>565</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>561</v>
+        <v>588</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>562</v>
+        <v>589</v>
       </c>
       <c r="J7" s="0" t="s">
         <v>91</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>563</v>
+        <v>590</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8590,34 +8806,34 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>554</v>
+        <v>581</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>555</v>
+        <v>582</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>542</v>
+        <v>569</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>564</v>
+        <v>591</v>
       </c>
       <c r="F8" s="0" t="s">
+        <v>592</v>
+      </c>
+      <c r="G8" s="0" t="s">
         <v>565</v>
       </c>
-      <c r="G8" s="0" t="s">
-        <v>538</v>
-      </c>
       <c r="H8" s="0" t="s">
-        <v>566</v>
+        <v>593</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>567</v>
+        <v>594</v>
       </c>
       <c r="J8" s="0" t="s">
         <v>91</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>568</v>
+        <v>595</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8625,34 +8841,34 @@
         <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>554</v>
+        <v>581</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>555</v>
+        <v>582</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>542</v>
+        <v>569</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>536</v>
+        <v>563</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>569</v>
+        <v>596</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>538</v>
+        <v>565</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>570</v>
+        <v>597</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>571</v>
+        <v>598</v>
       </c>
       <c r="J9" s="0" t="s">
         <v>91</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>572</v>
+        <v>599</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8660,34 +8876,34 @@
         <v>9</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>554</v>
+        <v>581</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>555</v>
+        <v>582</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>573</v>
+        <v>600</v>
       </c>
       <c r="E10" s="0" t="s">
         <v>91</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>574</v>
+        <v>601</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>538</v>
+        <v>565</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>575</v>
+        <v>602</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>576</v>
+        <v>603</v>
       </c>
       <c r="J10" s="0" t="s">
         <v>91</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>577</v>
+        <v>604</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8695,34 +8911,34 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>554</v>
+        <v>581</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>555</v>
+        <v>582</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>573</v>
+        <v>600</v>
       </c>
       <c r="E11" s="0" t="s">
         <v>91</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>578</v>
+        <v>605</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>538</v>
+        <v>565</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>503</v>
+        <v>516</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>579</v>
+        <v>517</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>580</v>
+        <v>606</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>581</v>
+        <v>607</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8730,34 +8946,34 @@
         <v>11</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>554</v>
+        <v>581</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>555</v>
+        <v>582</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>573</v>
+        <v>600</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>536</v>
+        <v>563</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>582</v>
+        <v>608</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>538</v>
+        <v>565</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>583</v>
+        <v>609</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>584</v>
+        <v>610</v>
       </c>
       <c r="J12" s="0" t="s">
         <v>91</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>585</v>
+        <v>611</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8765,34 +8981,34 @@
         <v>12</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>554</v>
+        <v>581</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>555</v>
+        <v>582</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>586</v>
+        <v>612</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>536</v>
+        <v>563</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>587</v>
+        <v>613</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>538</v>
+        <v>565</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>588</v>
+        <v>614</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>589</v>
+        <v>615</v>
       </c>
       <c r="J13" s="0" t="s">
         <v>91</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>590</v>
+        <v>616</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8800,34 +9016,34 @@
         <v>13</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>591</v>
+        <v>617</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>555</v>
+        <v>582</v>
       </c>
       <c r="D14" s="0" t="s">
         <v>91</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>592</v>
+        <v>618</v>
       </c>
       <c r="F14" s="0" t="s">
         <v>458</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>538</v>
+        <v>565</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>593</v>
+        <v>619</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>594</v>
+        <v>531</v>
       </c>
       <c r="J14" s="0" t="s">
         <v>91</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>595</v>
+        <v>620</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8835,34 +9051,34 @@
         <v>14</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>591</v>
+        <v>617</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>555</v>
+        <v>582</v>
       </c>
       <c r="D15" s="0" t="s">
         <v>91</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>592</v>
+        <v>618</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>596</v>
+        <v>621</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>538</v>
+        <v>565</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>597</v>
+        <v>622</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>598</v>
+        <v>623</v>
       </c>
       <c r="J15" s="0" t="s">
         <v>91</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>599</v>
+        <v>624</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8870,34 +9086,34 @@
         <v>15</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>533</v>
+        <v>560</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>555</v>
+        <v>582</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>535</v>
+        <v>562</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>592</v>
+        <v>618</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>600</v>
+        <v>625</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>538</v>
+        <v>565</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>601</v>
+        <v>626</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>602</v>
+        <v>627</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="K16" s="0" t="s">
-        <v>603</v>
+        <v>628</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8905,34 +9121,34 @@
         <v>16</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>591</v>
+        <v>617</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>555</v>
+        <v>582</v>
       </c>
       <c r="D17" s="0" t="s">
         <v>91</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>536</v>
+        <v>563</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>604</v>
+        <v>629</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>538</v>
+        <v>565</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>605</v>
+        <v>630</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>606</v>
+        <v>631</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>607</v>
+        <v>632</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>608</v>
+        <v>633</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8940,34 +9156,34 @@
         <v>17</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>591</v>
+        <v>617</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>555</v>
+        <v>582</v>
       </c>
       <c r="D18" s="0" t="s">
         <v>91</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>536</v>
+        <v>563</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>609</v>
+        <v>634</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>538</v>
+        <v>565</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>610</v>
+        <v>635</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>611</v>
+        <v>636</v>
       </c>
       <c r="J18" s="0" t="s">
         <v>415</v>
       </c>
       <c r="K18" s="0" t="s">
-        <v>612</v>
+        <v>637</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8975,34 +9191,34 @@
         <v>18</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>613</v>
+        <v>638</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>555</v>
+        <v>582</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>586</v>
+        <v>612</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>614</v>
+        <v>639</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>615</v>
+        <v>640</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>538</v>
+        <v>565</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>616</v>
+        <v>641</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>617</v>
+        <v>642</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>483</v>
+        <v>643</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>618</v>
+        <v>644</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9010,34 +9226,34 @@
         <v>19</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>591</v>
+        <v>617</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>555</v>
+        <v>582</v>
       </c>
       <c r="D20" s="0" t="s">
         <v>91</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>619</v>
+        <v>645</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>521</v>
+        <v>544</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>538</v>
+        <v>565</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>522</v>
+        <v>546</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>620</v>
+        <v>547</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>523</v>
+        <v>646</v>
       </c>
       <c r="K20" s="0" t="s">
-        <v>621</v>
+        <v>647</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9045,34 +9261,34 @@
         <v>20</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>591</v>
+        <v>617</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>555</v>
+        <v>582</v>
       </c>
       <c r="D21" s="0" t="s">
         <v>91</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>619</v>
+        <v>645</v>
       </c>
       <c r="F21" s="0" t="s">
         <v>114</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>538</v>
+        <v>565</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>526</v>
+        <v>552</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>622</v>
+        <v>553</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>623</v>
+        <v>648</v>
       </c>
       <c r="K21" s="0" t="s">
-        <v>624</v>
+        <v>649</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/inst/doc/files/parameterization.xlsx
+++ b/inst/doc/files/parameterization.xlsx
@@ -42,13 +42,15 @@
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">parameters!$A$1:$Q$102</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">parameters!$A$1:$Q$102</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">parameters!$A$1:$Q$102</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">parameters!$A$1:$Q$102</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">parameters!$A$1:$Q$102</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1339" uniqueCount="650">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1339" uniqueCount="651">
   <si>
     <t>name.rsunflo.fr</t>
   </si>
@@ -461,7 +463,7 @@
     <t>field_capacity_1</t>
   </si>
   <si>
-    <t>WaterCapacity</t>
+    <t>SoilWaterCapacity</t>
   </si>
   <si>
     <t>Humidité massique à la capacité au champ dans l'horizon de surface (0 - 30 cm)</t>
@@ -1457,6 +1459,9 @@
     <t>Température minimale</t>
   </si>
   <si>
+    <t>$°C$</t>
+  </si>
+  <si>
     <t>Tx</t>
   </si>
   <si>
@@ -1481,12 +1486,15 @@
     <t>RG</t>
   </si>
   <si>
-    <t>MJ/m2</t>
+    <t>$MJ.m^{-2}$</t>
   </si>
   <si>
     <t>ETPP</t>
   </si>
   <si>
+    <t>$mm$</t>
+  </si>
+  <si>
     <t>Pluie</t>
   </si>
   <si>
@@ -1508,6 +1516,9 @@
     <t>Temperature sum from emergence</t>
   </si>
   <si>
+    <t>$°C.d$</t>
+  </si>
+  <si>
     <t>PhasePhenoPlante</t>
   </si>
   <si>
@@ -1517,7 +1528,7 @@
     <t>Index de phénologie</t>
   </si>
   <si>
-    <t>Phenological stages index </t>
+    <t>Phenological stages index</t>
   </si>
   <si>
     <t>contrainte_eau</t>
@@ -1604,7 +1615,7 @@
     <t>Absorbed nitrogen</t>
   </si>
   <si>
-    <t>kg.ha-1.d-1</t>
+    <t>$kg.ha^{-1}.d^{-1}$</t>
   </si>
   <si>
     <t>INN</t>
@@ -1673,7 +1684,7 @@
     <t>Crop aerial dry biomass</t>
   </si>
   <si>
-    <t>g.m-2</t>
+    <t>$g.m^{-2}$</t>
   </si>
   <si>
     <t>elaboration_rendement</t>
@@ -1694,7 +1705,7 @@
     <t>Grain yield</t>
   </si>
   <si>
-    <t>q.ha-1</t>
+    <t>$q.ha^{-1}$</t>
   </si>
   <si>
     <t>elaboration_qualite</t>
@@ -1712,6 +1723,9 @@
     <t>Grain oil content</t>
   </si>
   <si>
+    <t>$\% (dry matter)$</t>
+  </si>
+  <si>
     <t>type</t>
   </si>
   <si>
@@ -1754,7 +1768,7 @@
     <t>Photosynthetically active radiation</t>
   </si>
   <si>
-    <t>sum(GR*0.48)</t>
+    <t>$sum(GR*0.48)$</t>
   </si>
   <si>
     <t>water</t>
@@ -1766,7 +1780,7 @@
     <t>Rain</t>
   </si>
   <si>
-    <t>sum(RR)</t>
+    <t>$sum(RR)$</t>
   </si>
   <si>
     <t>SETP</t>
@@ -1778,7 +1792,7 @@
     <t>Potential evapotranspiration</t>
   </si>
   <si>
-    <t>sum(ETP)</t>
+    <t>$sum(ETP)$</t>
   </si>
   <si>
     <t>SCWD</t>
@@ -1790,7 +1804,7 @@
     <t>Climatic water deficit</t>
   </si>
   <si>
-    <t>sum(P-ETP)</t>
+    <t>$sum(P-ETP)$</t>
   </si>
   <si>
     <t>constraint</t>
@@ -1808,7 +1822,7 @@
     <t>Edaphic water deficit (continuous)</t>
   </si>
   <si>
-    <t>sum(1-FTSW)</t>
+    <t>$sum(1-FTSW)$</t>
   </si>
   <si>
     <t>NETR</t>
@@ -1820,7 +1834,7 @@
     <t>Edaphic water deficit (discrete)</t>
   </si>
   <si>
-    <t>sum(ETR/ETM &lt; 0.6)</t>
+    <t>$sum(ETR/ETM &lt; 0.6)$</t>
   </si>
   <si>
     <t>transpiration</t>
@@ -1835,7 +1849,7 @@
     <t>Water stress impact on crop transpiration</t>
   </si>
   <si>
-    <t>sum(1-FHTR)</t>
+    <t>$sum(1-FHTR)$</t>
   </si>
   <si>
     <t>SFHRUE</t>
@@ -1847,7 +1861,7 @@
     <t>Water stress impact on crop photosynthesis</t>
   </si>
   <si>
-    <t>sum(1-FHRUE)</t>
+    <t>$sum(1-FHRUE)$</t>
   </si>
   <si>
     <t>nitrogen</t>
@@ -1862,16 +1876,16 @@
     <t>Nitrogen deficit</t>
   </si>
   <si>
-    <t>sum(1-NNI)</t>
+    <t>$sum(1-NNI)$</t>
   </si>
   <si>
     <t>SNAB</t>
   </si>
   <si>
-    <t>kg/ha</t>
-  </si>
-  <si>
-    <t>diff(range(NAB))</t>
+    <t>$kg.ha^{-1}$</t>
+  </si>
+  <si>
+    <t>$diff(range(NAB))$</t>
   </si>
   <si>
     <t>SFNRUE</t>
@@ -1883,7 +1897,7 @@
     <t>Nitrogen stress impact on photosynthesis</t>
   </si>
   <si>
-    <t>sum(1-FNRUE)</t>
+    <t>$sum(1-FNRUE)$</t>
   </si>
   <si>
     <t>temperature</t>
@@ -1898,7 +1912,7 @@
     <t>Thermal stress impact on photosynthesis</t>
   </si>
   <si>
-    <t>sum(1-FTRUE)</t>
+    <t>$sum(1-FTRUE)$</t>
   </si>
   <si>
     <t>state</t>
@@ -1910,7 +1924,7 @@
     <t>Indice foliaire maximum</t>
   </si>
   <si>
-    <t>max(LAI)</t>
+    <t>$max(LAI)$</t>
   </si>
   <si>
     <t>DSF</t>
@@ -1922,7 +1936,7 @@
     <t>Leaf area duration</t>
   </si>
   <si>
-    <t>sum(LAI)</t>
+    <t>$sum(LAI)$</t>
   </si>
   <si>
     <t>SIR</t>
@@ -1934,7 +1948,7 @@
     <t>Intercepted radiation</t>
   </si>
   <si>
-    <t>sum(RIE*GR*0.48)</t>
+    <t>$sum(RIE*GR*0.48)$</t>
   </si>
   <si>
     <t>MRUE</t>
@@ -1946,10 +1960,10 @@
     <t>Photosynthesis</t>
   </si>
   <si>
-    <t>g/MJ/m2</t>
-  </si>
-  <si>
-    <t>mean(RUE)</t>
+    <t>$g.MJ^{-1}.m^{-2}$</t>
+  </si>
+  <si>
+    <t>$mean(RUE)$</t>
   </si>
   <si>
     <t>STDM</t>
@@ -1961,7 +1975,7 @@
     <t>Aerial Biomass</t>
   </si>
   <si>
-    <t>max(TDM)</t>
+    <t>$max(TDM)$</t>
   </si>
   <si>
     <t>ressource</t>
@@ -1979,25 +1993,16 @@
     <t>Thermal time</t>
   </si>
   <si>
-    <t>°C.j</t>
-  </si>
-  <si>
-    <t>max(TTA2)</t>
+    <t>$max(TTA2)$</t>
   </si>
   <si>
     <t>performance</t>
   </si>
   <si>
-    <t>q/ha</t>
-  </si>
-  <si>
-    <t>max(GY)</t>
-  </si>
-  <si>
-    <t>% (DM)</t>
-  </si>
-  <si>
-    <t>max(OC)</t>
+    <t>$max(GY)$</t>
+  </si>
+  <si>
+    <t>$max(OC)$</t>
   </si>
 </sst>
 </file>
@@ -2144,7 +2149,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="I22 D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.15"/>
@@ -2278,7 +2283,7 @@
   <dimension ref="A1:U102"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L4" activeCellId="0" sqref="L4"/>
+      <selection pane="topLeft" activeCell="J20" activeCellId="1" sqref="I22 J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.15"/>
@@ -7606,7 +7611,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A23" activeCellId="0" sqref="A23"/>
+      <selection pane="topLeft" activeCell="A23" activeCellId="1" sqref="I22 A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.15"/>
@@ -7766,7 +7771,7 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I23" activeCellId="0" sqref="I23"/>
+      <selection pane="topLeft" activeCell="I22" activeCellId="0" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.15"/>
@@ -7841,7 +7846,7 @@
         <v>8</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>9</v>
+        <v>469</v>
       </c>
       <c r="J2" s="0" t="n">
         <v>1</v>
@@ -7858,7 +7863,7 @@
         <v>466</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>10</v>
@@ -7867,13 +7872,13 @@
         <v>11</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>13</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>9</v>
+        <v>469</v>
       </c>
       <c r="J3" s="0" t="n">
         <v>1</v>
@@ -7890,22 +7895,22 @@
         <v>466</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>9</v>
+        <v>469</v>
       </c>
       <c r="J4" s="0" t="n">
         <v>1</v>
@@ -7922,7 +7927,7 @@
         <v>466</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>14</v>
@@ -7937,7 +7942,7 @@
         <v>17</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="J5" s="0" t="n">
         <v>1</v>
@@ -7954,7 +7959,7 @@
         <v>466</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>19</v>
@@ -7969,7 +7974,7 @@
         <v>22</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>23</v>
+        <v>480</v>
       </c>
       <c r="J6" s="0" t="n">
         <v>1</v>
@@ -7986,7 +7991,7 @@
         <v>466</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>24</v>
@@ -8001,7 +8006,7 @@
         <v>25</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>23</v>
+        <v>480</v>
       </c>
       <c r="J7" s="0" t="n">
         <v>1</v>
@@ -8012,28 +8017,28 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>449</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>52</v>
+        <v>488</v>
       </c>
       <c r="J8" s="0" t="n">
         <v>1</v>
@@ -8044,25 +8049,25 @@
         <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="I9" s="0" t="s">
         <v>91</v>
@@ -8076,25 +8081,25 @@
         <v>9</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="I10" s="0" t="s">
         <v>91</v>
@@ -8108,25 +8113,25 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="I11" s="0" t="s">
         <v>91</v>
@@ -8140,25 +8145,25 @@
         <v>11</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="D12" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>499</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>499</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>496</v>
-      </c>
       <c r="G12" s="0" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="I12" s="0" t="s">
         <v>91</v>
@@ -8172,25 +8177,25 @@
         <v>12</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="I13" s="0" t="s">
         <v>91</v>
@@ -8204,25 +8209,25 @@
         <v>13</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="I14" s="0" t="s">
         <v>91</v>
@@ -8236,28 +8241,28 @@
         <v>14</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="J15" s="0" t="n">
         <v>1</v>
@@ -8268,25 +8273,25 @@
         <v>15</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="I16" s="0" t="s">
         <v>91</v>
@@ -8300,25 +8305,25 @@
         <v>16</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="I17" s="0" t="s">
         <v>91</v>
@@ -8332,10 +8337,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>458</v>
@@ -8347,10 +8352,10 @@
         <v>458</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="I18" s="0" t="s">
         <v>91</v>
@@ -8364,13 +8369,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>459</v>
@@ -8379,10 +8384,10 @@
         <v>459</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="I19" s="0" t="s">
         <v>91</v>
@@ -8396,13 +8401,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>461</v>
@@ -8411,10 +8416,10 @@
         <v>461</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="I20" s="0" t="s">
         <v>91</v>
@@ -8428,28 +8433,28 @@
         <v>20</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>460</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="J21" s="0" t="n">
         <v>1</v>
@@ -8460,28 +8465,28 @@
         <v>21</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="I22" s="0" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="J22" s="0" t="n">
         <v>1</v>
@@ -8492,28 +8497,28 @@
         <v>22</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>114</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>118</v>
+        <v>557</v>
       </c>
       <c r="J23" s="0" t="n">
         <v>1</v>
@@ -8536,10 +8541,10 @@
     <tabColor rgb="FFFFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J22" activeCellId="0" sqref="J22"/>
+      <selection pane="topLeft" activeCell="J20" activeCellId="1" sqref="I22 J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.2"/>
@@ -8556,27 +8561,27 @@
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
-    <row r="1" s="7" customFormat="true" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="7" customFormat="true" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>2</v>
@@ -8588,637 +8593,637 @@
         <v>4</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>91</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>26</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>23</v>
+        <v>480</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="E4" s="0" t="s">
         <v>91</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>23</v>
+        <v>480</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="E5" s="0" t="s">
         <v>91</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>23</v>
+        <v>480</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="E6" s="0" t="s">
         <v>91</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="J6" s="0" t="s">
         <v>91</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="E7" s="0" t="s">
         <v>91</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="J7" s="0" t="s">
         <v>91</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="D8" s="0" t="s">
+        <v>573</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>595</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>596</v>
+      </c>
+      <c r="G8" s="0" t="s">
         <v>569</v>
       </c>
-      <c r="E8" s="0" t="s">
-        <v>591</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>592</v>
-      </c>
-      <c r="G8" s="0" t="s">
-        <v>565</v>
-      </c>
       <c r="H8" s="0" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="J8" s="0" t="s">
         <v>91</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
         <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="D9" s="0" t="s">
+        <v>573</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>567</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>600</v>
+      </c>
+      <c r="G9" s="0" t="s">
         <v>569</v>
       </c>
-      <c r="E9" s="0" t="s">
-        <v>563</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>596</v>
-      </c>
-      <c r="G9" s="0" t="s">
-        <v>565</v>
-      </c>
       <c r="H9" s="0" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="J9" s="0" t="s">
         <v>91</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
         <v>9</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="E10" s="0" t="s">
         <v>91</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="J10" s="0" t="s">
         <v>91</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="E11" s="0" t="s">
         <v>91</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
         <v>11</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="J12" s="0" t="s">
         <v>91</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
         <v>12</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
       <c r="J13" s="0" t="s">
         <v>91</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
         <v>13</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="D14" s="0" t="s">
         <v>91</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="F14" s="0" t="s">
         <v>458</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="J14" s="0" t="s">
         <v>91</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
         <v>14</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="D15" s="0" t="s">
         <v>91</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="J15" s="0" t="s">
         <v>91</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
         <v>15</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="K16" s="0" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
         <v>16</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="D17" s="0" t="s">
         <v>91</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
         <v>17</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="D18" s="0" t="s">
         <v>91</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>415</v>
+        <v>544</v>
       </c>
       <c r="K18" s="0" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
         <v>18</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>643</v>
+        <v>488</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9226,72 +9231,71 @@
         <v>19</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="D20" s="0" t="s">
         <v>91</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>646</v>
+        <v>551</v>
       </c>
       <c r="K20" s="0" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
         <v>20</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="D21" s="0" t="s">
         <v>91</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="F21" s="0" t="s">
         <v>114</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>648</v>
+        <v>557</v>
       </c>
       <c r="K21" s="0" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>650</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/inst/doc/files/parameterization.xlsx
+++ b/inst/doc/files/parameterization.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="233" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="233" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="climate" sheetId="1" state="visible" r:id="rId2"/>
@@ -44,13 +44,15 @@
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">parameters!$A$1:$Q$102</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">parameters!$A$1:$Q$102</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">parameters!$A$1:$Q$102</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">parameters!$A$1:$Q$102</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">parameters!$A$1:$Q$102</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1339" uniqueCount="651">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1340" uniqueCount="647">
   <si>
     <t>name.rsunflo.fr</t>
   </si>
@@ -208,7 +210,7 @@
     <t>Temperature sum to floral initiation</t>
   </si>
   <si>
-    <t>°Cd</t>
+    <t>$°C.d$</t>
   </si>
   <si>
     <t>[@Lecoeur2011]</t>
@@ -274,7 +276,7 @@
     <t>Potential number of leaves at flowering</t>
   </si>
   <si>
-    <t>leaf</t>
+    <t>$leaf$</t>
   </si>
   <si>
     <t>bSF</t>
@@ -286,7 +288,7 @@
     <t>PotentialLeafProfile</t>
   </si>
   <si>
-    <t>Rang (depuis le sol) de la plus grande feuille du profil foliaire à la floraison</t>
+    <t>Rang de la plus grande feuille du profil à la floraison</t>
   </si>
   <si>
     <t>Potential rank of the plant largest leaf at flowering</t>
@@ -301,13 +303,13 @@
     <t>PotentialLeafSize</t>
   </si>
   <si>
-    <t>Surface de la plus grande feuille du profil folaire à la floraison</t>
+    <t>Surface de la plus grande feuille du profil à la floraison</t>
   </si>
   <si>
     <t>Potential area of the plant largest leaf at flowering</t>
   </si>
   <si>
-    <t>cm2</t>
+    <t>$cm^{-2}$</t>
   </si>
   <si>
     <t>ext</t>
@@ -406,7 +408,7 @@
     <t>Potential seed oil content</t>
   </si>
   <si>
-    <t>% dry matter</t>
+    <t>$\% dry_matter$</t>
   </si>
   <si>
     <t>Pedoclimat</t>
@@ -454,6 +456,9 @@
     <t>Potential rooting depth</t>
   </si>
   <si>
+    <t>$mm$</t>
+  </si>
+  <si>
     <t>Hcc_C1</t>
   </si>
   <si>
@@ -472,7 +477,7 @@
     <t>Water content at field capacity (0-30 cm)</t>
   </si>
   <si>
-    <t>%</t>
+    <t>$\%$</t>
   </si>
   <si>
     <t>Hpf_C1</t>
@@ -538,7 +543,7 @@
     <t>Soil bulk density (0-30cm)</t>
   </si>
   <si>
-    <t>g.cm-3</t>
+    <t>$g.cm^{-3}$</t>
   </si>
   <si>
     <t>da_C2</t>
@@ -574,7 +579,7 @@
     <t>Stone content (0-rooting depth)</t>
   </si>
   <si>
-    <t>[0 ; 1]</t>
+    <t>$[0,1]$</t>
   </si>
   <si>
     <t>Vp</t>
@@ -595,7 +600,7 @@
     <t>Potential nitrogen mineralization rate</t>
   </si>
   <si>
-    <t>kg/ha/day (normalized)</t>
+    <t>$kg.ha^{-1}.day^{-1} (normalized)$</t>
   </si>
   <si>
     <t>[@Vale2007]</t>
@@ -634,7 +639,7 @@
     <t>Sowing date</t>
   </si>
   <si>
-    <t>dd/mm</t>
+    <t>$date (dd/mm)$</t>
   </si>
   <si>
     <t>jrecolte</t>
@@ -688,7 +693,7 @@
     <t>Plant density</t>
   </si>
   <si>
-    <t>pnt/m2</t>
+    <t>$plant.m^{-2}$</t>
   </si>
   <si>
     <t>date_ferti_1</t>
@@ -724,7 +729,7 @@
     <t>Fertilization (amount 1)</t>
   </si>
   <si>
-    <t>kg/ha eq. mineral nitrogen</t>
+    <t>$kg.ha^{-1}$ eq. mineral nitrogen</t>
   </si>
   <si>
     <t>date_ferti_2</t>
@@ -994,7 +999,7 @@
     <t>Date de début de la simulation</t>
   </si>
   <si>
-    <t>jj/mm/aaaa</t>
+    <t>$date (dd/mm/aaaa)$</t>
   </si>
   <si>
     <t>duration</t>
@@ -1003,7 +1008,7 @@
     <t>Durée de la simulation</t>
   </si>
   <si>
-    <t>jour</t>
+    <t>$day$</t>
   </si>
   <si>
     <t>CONFIG_SimuInit</t>
@@ -1021,9 +1026,6 @@
     <t>Date de levée forcée, simulée pour valeur = 01/01</t>
   </si>
   <si>
-    <t>jj/mm</t>
-  </si>
-  <si>
     <t>rh1</t>
   </si>
   <si>
@@ -1093,6 +1095,9 @@
     <t>Température de base pour les processus de croissance et développement</t>
   </si>
   <si>
+    <t>$°C$</t>
+  </si>
+  <si>
     <t>[@Granier1998]</t>
   </si>
   <si>
@@ -1204,7 +1209,7 @@
     <t>Valeur initiale (0-300°Cj) de l'efficience biologique potentielle</t>
   </si>
   <si>
-    <t>g/m2/MJ</t>
+    <t>$g.MJ^{-1}.m^{-2}$</t>
   </si>
   <si>
     <t>Eb_c</t>
@@ -1297,7 +1302,7 @@
     <t>Seuil de biomasse aerienne au stade juvénile considéré pour la courbe de dilution d'azote critique</t>
   </si>
   <si>
-    <t>g/m2</t>
+    <t>$g.m^{-2}$</t>
   </si>
   <si>
     <t>TDMm_seuil</t>
@@ -1327,7 +1332,7 @@
     <t>Vitesse de croissance racinaire</t>
   </si>
   <si>
-    <t>mm/°Cd</t>
+    <t>$mm.Cd{^-1}$</t>
   </si>
   <si>
     <t>EXPERT_SimuInit</t>
@@ -1357,7 +1362,7 @@
     <t>Reciprocal of hypocotyl elongation rate</t>
   </si>
   <si>
-    <t>°Cd/mm</t>
+    <t>$°Cd.mm^{-1}$</t>
   </si>
   <si>
     <t>[@Villalobos1996]</t>
@@ -1459,9 +1464,6 @@
     <t>Température minimale</t>
   </si>
   <si>
-    <t>$°C$</t>
-  </si>
-  <si>
     <t>Tx</t>
   </si>
   <si>
@@ -1492,9 +1494,6 @@
     <t>ETPP</t>
   </si>
   <si>
-    <t>$mm$</t>
-  </si>
-  <si>
     <t>Pluie</t>
   </si>
   <si>
@@ -1516,9 +1515,6 @@
     <t>Temperature sum from emergence</t>
   </si>
   <si>
-    <t>$°C.d$</t>
-  </si>
-  <si>
     <t>PhasePhenoPlante</t>
   </si>
   <si>
@@ -1684,9 +1680,6 @@
     <t>Crop aerial dry biomass</t>
   </si>
   <si>
-    <t>$g.m^{-2}$</t>
-  </si>
-  <si>
     <t>elaboration_rendement</t>
   </si>
   <si>
@@ -1958,9 +1951,6 @@
   </si>
   <si>
     <t>Photosynthesis</t>
-  </si>
-  <si>
-    <t>$g.MJ^{-1}.m^{-2}$</t>
   </si>
   <si>
     <t>$mean(RUE)$</t>
@@ -2149,7 +2139,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="I22 D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.15"/>
@@ -2282,8 +2272,8 @@
   </sheetPr>
   <dimension ref="A1:U102"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J20" activeCellId="1" sqref="I22 J20"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K12" activeCellId="0" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.15"/>
@@ -3046,7 +3036,9 @@
       <c r="L12" s="0" t="s">
         <v>106</v>
       </c>
-      <c r="M12" s="3"/>
+      <c r="M12" s="3" t="s">
+        <v>91</v>
+      </c>
       <c r="N12" s="0" t="s">
         <v>53</v>
       </c>
@@ -3281,7 +3273,7 @@
         <v>133</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>23</v>
+        <v>134</v>
       </c>
       <c r="N16" s="0" t="s">
         <v>53</v>
@@ -3322,25 +3314,25 @@
         <v>128</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L17" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O17" s="0" t="n">
         <v>19.69</v>
@@ -3378,25 +3370,25 @@
         <v>128</v>
       </c>
       <c r="G18" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="H18" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I18" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="J18" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="K18" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="L18" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="M18" s="3" t="s">
         <v>141</v>
-      </c>
-      <c r="H18" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="I18" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="J18" s="0" t="s">
-        <v>137</v>
-      </c>
-      <c r="K18" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="L18" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>140</v>
       </c>
       <c r="O18" s="0" t="n">
         <v>9.69</v>
@@ -3434,25 +3426,25 @@
         <v>128</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L19" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O19" s="0" t="n">
         <v>19.69</v>
@@ -3490,25 +3482,25 @@
         <v>128</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K20" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L20" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O20" s="0" t="n">
         <v>9.69</v>
@@ -3546,25 +3538,25 @@
         <v>128</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K21" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L21" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O21" s="0" t="n">
         <v>1.3</v>
@@ -3602,25 +3594,25 @@
         <v>128</v>
       </c>
       <c r="G22" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="H22" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="I22" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="J22" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="K22" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="L22" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="M22" s="3" t="s">
         <v>163</v>
-      </c>
-      <c r="H22" s="0" t="s">
-        <v>164</v>
-      </c>
-      <c r="I22" s="0" t="s">
-        <v>165</v>
-      </c>
-      <c r="J22" s="0" t="s">
-        <v>159</v>
-      </c>
-      <c r="K22" s="0" t="s">
-        <v>166</v>
-      </c>
-      <c r="L22" s="0" t="s">
-        <v>167</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>162</v>
       </c>
       <c r="O22" s="0" t="n">
         <v>1.3</v>
@@ -3658,25 +3650,25 @@
         <v>128</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K23" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L23" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="O23" s="0" t="n">
         <v>0.1</v>
@@ -3714,28 +3706,28 @@
         <v>128</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K24" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L24" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N24" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O24" s="0" t="n">
         <v>0.5</v>
@@ -3773,16 +3765,16 @@
         <v>128</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K25" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M25" s="3" t="s">
         <v>91</v>
       </c>
       <c r="N25" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O25" s="0" t="n">
         <v>0.2</v>
@@ -3811,34 +3803,34 @@
         <v>25</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="I26" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K26" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L26" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O26" s="5" t="n">
         <v>41380</v>
@@ -3867,34 +3859,34 @@
         <v>26</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G27" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="H27" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="I27" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="J27" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="K27" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="L27" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="M27" s="3" t="s">
         <v>195</v>
-      </c>
-      <c r="H27" s="0" t="s">
-        <v>196</v>
-      </c>
-      <c r="I27" s="0" t="s">
-        <v>197</v>
-      </c>
-      <c r="J27" s="0" t="s">
-        <v>198</v>
-      </c>
-      <c r="K27" s="0" t="s">
-        <v>199</v>
-      </c>
-      <c r="L27" s="0" t="s">
-        <v>200</v>
-      </c>
-      <c r="M27" s="3" t="s">
-        <v>194</v>
       </c>
       <c r="O27" s="5" t="n">
         <v>41548</v>
@@ -3923,37 +3915,37 @@
         <v>27</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F28" s="0" t="s">
         <v>46</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I28" s="0" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="J28" s="0" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K28" s="0" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L28" s="0" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>23</v>
+        <v>134</v>
       </c>
       <c r="O28" s="4" t="n">
         <v>30</v>
@@ -3982,34 +3974,34 @@
         <v>28</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="I29" s="0" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="J29" s="0" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K29" s="0" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L29" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="O29" s="4" t="n">
         <v>7</v>
@@ -4038,34 +4030,34 @@
         <v>29</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="I30" s="0" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="J30" s="0" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="K30" s="0" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L30" s="0" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O30" s="6" t="n">
         <v>41275</v>
@@ -4094,34 +4086,34 @@
         <v>30</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="I31" s="0" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="J31" s="0" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="K31" s="0" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L31" s="0" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="O31" s="4" t="n">
         <v>0</v>
@@ -4150,34 +4142,34 @@
         <v>31</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="I32" s="0" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="J32" s="0" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="K32" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L32" s="0" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M32" s="3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O32" s="6" t="n">
         <v>41275</v>
@@ -4206,34 +4198,34 @@
         <v>32</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="I33" s="0" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J33" s="0" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="K33" s="0" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L33" s="0" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M33" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="O33" s="4" t="n">
         <v>0</v>
@@ -4262,34 +4254,34 @@
         <v>33</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I34" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="J34" s="0" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="K34" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L34" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M34" s="3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O34" s="6" t="n">
         <v>41275</v>
@@ -4318,34 +4310,34 @@
         <v>34</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="I35" s="0" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="J35" s="0" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="K35" s="0" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L35" s="0" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M35" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="O35" s="4" t="n">
         <v>0</v>
@@ -4374,34 +4366,34 @@
         <v>35</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="I36" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="J36" s="0" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="K36" s="0" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L36" s="0" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M36" s="3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O36" s="6" t="n">
         <v>41275</v>
@@ -4430,34 +4422,34 @@
         <v>36</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="I37" s="0" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="J37" s="0" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="K37" s="0" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L37" s="0" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M37" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="O37" s="4" t="n">
         <v>0</v>
@@ -4486,34 +4478,34 @@
         <v>37</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="I38" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="J38" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="K38" s="0" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L38" s="0" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M38" s="3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O38" s="6" t="n">
         <v>41275</v>
@@ -4542,34 +4534,34 @@
         <v>38</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="I39" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="J39" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="K39" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="L39" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M39" s="3" t="s">
-        <v>23</v>
+        <v>134</v>
       </c>
       <c r="O39" s="4" t="n">
         <v>0</v>
@@ -4598,34 +4590,34 @@
         <v>39</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="I40" s="0" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="J40" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="K40" s="0" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L40" s="0" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M40" s="3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O40" s="6" t="n">
         <v>41275</v>
@@ -4654,34 +4646,34 @@
         <v>40</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H41" s="0" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="I41" s="0" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="J41" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="K41" s="0" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L41" s="0" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M41" s="3" t="s">
-        <v>23</v>
+        <v>134</v>
       </c>
       <c r="O41" s="4" t="n">
         <v>0</v>
@@ -4710,34 +4702,34 @@
         <v>41</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H42" s="0" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="I42" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="J42" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="K42" s="0" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L42" s="0" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M42" s="3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O42" s="6" t="n">
         <v>41275</v>
@@ -4766,34 +4758,34 @@
         <v>42</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H43" s="0" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="I43" s="0" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="J43" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="K43" s="0" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L43" s="0" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M43" s="3" t="s">
-        <v>23</v>
+        <v>134</v>
       </c>
       <c r="O43" s="4" t="n">
         <v>0</v>
@@ -4822,34 +4814,34 @@
         <v>43</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H44" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="I44" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="J44" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="K44" s="0" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="L44" s="0" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M44" s="3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O44" s="6" t="n">
         <v>41275</v>
@@ -4878,34 +4870,34 @@
         <v>44</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H45" s="0" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="I45" s="0" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="J45" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="K45" s="0" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="L45" s="0" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="M45" s="3" t="s">
-        <v>23</v>
+        <v>134</v>
       </c>
       <c r="O45" s="4" t="n">
         <v>0</v>
@@ -4934,34 +4926,34 @@
         <v>45</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H46" s="0" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="I46" s="0" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="J46" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="K46" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="L46" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="M46" s="3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O46" s="6" t="n">
         <v>41275</v>
@@ -4990,34 +4982,34 @@
         <v>46</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H47" s="0" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="I47" s="0" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="J47" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="K47" s="0" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L47" s="0" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M47" s="3" t="s">
-        <v>23</v>
+        <v>134</v>
       </c>
       <c r="O47" s="4" t="n">
         <v>0</v>
@@ -5046,34 +5038,34 @@
         <v>47</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G48" s="0" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H48" s="0" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="I48" s="0" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="J48" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="K48" s="0" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="L48" s="0" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M48" s="3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O48" s="6" t="n">
         <v>41275</v>
@@ -5102,34 +5094,34 @@
         <v>48</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H49" s="0" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="I49" s="0" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="J49" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="K49" s="0" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="L49" s="0" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="M49" s="3" t="s">
-        <v>23</v>
+        <v>134</v>
       </c>
       <c r="O49" s="4" t="n">
         <v>0</v>
@@ -5158,25 +5150,25 @@
         <v>49</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="G50" s="0" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H50" s="0" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="I50" s="0" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="K50" s="0" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="M50" s="3" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="O50" s="5" t="n">
         <v>41373</v>
@@ -5205,25 +5197,25 @@
         <v>50</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H51" s="0" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="I51" s="0" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="K51" s="0" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M51" s="0" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="O51" s="0" t="n">
         <v>180</v>
@@ -5252,28 +5244,28 @@
         <v>51</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H52" s="0" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="I52" s="0" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="K52" s="0" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M52" s="3" t="s">
-        <v>323</v>
+        <v>195</v>
       </c>
       <c r="O52" s="6" t="n">
         <v>41275</v>
@@ -5302,13 +5294,13 @@
         <v>52</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="G53" s="0" t="s">
         <v>324</v>
@@ -5323,7 +5315,7 @@
         <v>327</v>
       </c>
       <c r="M53" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="O53" s="0" t="n">
         <v>10</v>
@@ -5352,13 +5344,13 @@
         <v>53</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="G54" s="0" t="s">
         <v>328</v>
@@ -5373,7 +5365,7 @@
         <v>331</v>
       </c>
       <c r="M54" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="O54" s="0" t="n">
         <v>20</v>
@@ -5402,13 +5394,13 @@
         <v>54</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="G55" s="0" t="s">
         <v>332</v>
@@ -5423,7 +5415,7 @@
         <v>335</v>
       </c>
       <c r="M55" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O55" s="0" t="n">
         <v>19.7</v>
@@ -5452,13 +5444,13 @@
         <v>55</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="G56" s="0" t="s">
         <v>336</v>
@@ -5473,7 +5465,7 @@
         <v>339</v>
       </c>
       <c r="M56" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O56" s="0" t="n">
         <v>19.7</v>
@@ -5502,13 +5494,13 @@
         <v>56</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="G57" s="0" t="s">
         <v>340</v>
@@ -5517,7 +5509,7 @@
         <v>341</v>
       </c>
       <c r="M57" s="3" t="s">
-        <v>23</v>
+        <v>134</v>
       </c>
       <c r="O57" s="4" t="n">
         <v>300</v>
@@ -5561,10 +5553,10 @@
         <v>346</v>
       </c>
       <c r="M58" s="3" t="s">
-        <v>9</v>
+        <v>347</v>
       </c>
       <c r="N58" s="0" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="O58" s="4" t="n">
         <v>4.8</v>
@@ -5605,16 +5597,16 @@
         <v>46</v>
       </c>
       <c r="G59" s="0" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="J59" s="0" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="K59" s="0" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="L59" s="0" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="M59" s="3" t="s">
         <v>52</v>
@@ -5661,22 +5653,22 @@
         <v>69</v>
       </c>
       <c r="G60" s="0" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="J60" s="0" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="K60" s="0" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="L60" s="0" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="M60" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N60" s="0" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="O60" s="4" t="n">
         <v>71.43</v>
@@ -5717,22 +5709,22 @@
         <v>69</v>
       </c>
       <c r="G61" s="0" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="J61" s="0" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="K61" s="0" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="L61" s="0" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="M61" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N61" s="0" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="O61" s="4" t="n">
         <v>16.34</v>
@@ -5770,16 +5762,16 @@
         <v>344</v>
       </c>
       <c r="G62" s="0" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="K62" s="0" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="M62" s="3" t="s">
-        <v>23</v>
+        <v>134</v>
       </c>
       <c r="N62" s="0" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="O62" s="4" t="n">
         <v>1800</v>
@@ -5817,16 +5809,16 @@
         <v>344</v>
       </c>
       <c r="G63" s="0" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="K63" s="0" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M63" s="3" t="s">
         <v>91</v>
       </c>
       <c r="N63" s="0" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="O63" s="4" t="n">
         <v>0.1</v>
@@ -5864,16 +5856,16 @@
         <v>344</v>
       </c>
       <c r="G64" s="0" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="K64" s="0" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M64" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N64" s="0" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="O64" s="4" t="n">
         <v>400</v>
@@ -5911,16 +5903,16 @@
         <v>344</v>
       </c>
       <c r="G65" s="0" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="K65" s="0" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M65" s="3" t="s">
         <v>91</v>
       </c>
       <c r="N65" s="0" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="O65" s="4" t="n">
         <v>1</v>
@@ -5958,16 +5950,16 @@
         <v>344</v>
       </c>
       <c r="G66" s="0" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="K66" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="M66" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N66" s="0" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="O66" s="4" t="n">
         <v>153</v>
@@ -6008,22 +6000,22 @@
         <v>69</v>
       </c>
       <c r="G67" s="0" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="J67" s="0" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="K67" s="0" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="L67" s="0" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M67" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N67" s="0" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="O67" s="4" t="n">
         <v>851.33</v>
@@ -6061,16 +6053,16 @@
         <v>344</v>
       </c>
       <c r="G68" s="0" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="K68" s="0" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="M68" s="3" t="s">
         <v>74</v>
       </c>
       <c r="N68" s="0" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="O68" s="4" t="n">
         <v>-0.03783</v>
@@ -6108,16 +6100,16 @@
         <v>344</v>
       </c>
       <c r="G69" s="0" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="K69" s="0" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="M69" s="3" t="s">
         <v>74</v>
       </c>
       <c r="N69" s="0" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="O69" s="4" t="n">
         <v>0.78469</v>
@@ -6155,16 +6147,16 @@
         <v>344</v>
       </c>
       <c r="G70" s="0" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K70" s="0" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M70" s="3" t="s">
         <v>91</v>
       </c>
       <c r="N70" s="0" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="O70" s="4" t="n">
         <v>0.01379</v>
@@ -6202,13 +6194,13 @@
         <v>344</v>
       </c>
       <c r="G71" s="0" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="K71" s="0" t="s">
-        <v>383</v>
-      </c>
-      <c r="M71" s="3" t="s">
         <v>384</v>
+      </c>
+      <c r="M71" s="0" t="s">
+        <v>385</v>
       </c>
       <c r="N71" s="0" t="s">
         <v>112</v>
@@ -6249,13 +6241,13 @@
         <v>344</v>
       </c>
       <c r="G72" s="0" t="s">
+        <v>386</v>
+      </c>
+      <c r="K72" s="0" t="s">
+        <v>387</v>
+      </c>
+      <c r="M72" s="0" t="s">
         <v>385</v>
-      </c>
-      <c r="K72" s="0" t="s">
-        <v>386</v>
-      </c>
-      <c r="M72" s="3" t="s">
-        <v>384</v>
       </c>
       <c r="N72" s="0" t="s">
         <v>112</v>
@@ -6296,13 +6288,13 @@
         <v>344</v>
       </c>
       <c r="G73" s="0" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="K73" s="0" t="s">
-        <v>388</v>
-      </c>
-      <c r="M73" s="3" t="s">
-        <v>384</v>
+        <v>389</v>
+      </c>
+      <c r="M73" s="0" t="s">
+        <v>385</v>
       </c>
       <c r="N73" s="0" t="s">
         <v>112</v>
@@ -6343,13 +6335,13 @@
         <v>344</v>
       </c>
       <c r="G74" s="0" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="K74" s="0" t="s">
-        <v>390</v>
-      </c>
-      <c r="M74" s="3" t="s">
-        <v>384</v>
+        <v>391</v>
+      </c>
+      <c r="M74" s="0" t="s">
+        <v>385</v>
       </c>
       <c r="N74" s="0" t="s">
         <v>112</v>
@@ -6390,13 +6382,13 @@
         <v>344</v>
       </c>
       <c r="G75" s="0" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="K75" s="0" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="M75" s="3" t="s">
-        <v>9</v>
+        <v>347</v>
       </c>
       <c r="N75" s="0" t="s">
         <v>112</v>
@@ -6437,14 +6429,14 @@
         <v>344</v>
       </c>
       <c r="G76" s="0" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="K76" s="3" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="L76" s="3"/>
       <c r="M76" s="3" t="s">
-        <v>9</v>
+        <v>347</v>
       </c>
       <c r="N76" s="0" t="s">
         <v>112</v>
@@ -6485,14 +6477,14 @@
         <v>344</v>
       </c>
       <c r="G77" s="0" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="K77" s="3" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="L77" s="3"/>
       <c r="M77" s="3" t="s">
-        <v>9</v>
+        <v>347</v>
       </c>
       <c r="N77" s="0" t="s">
         <v>112</v>
@@ -6533,16 +6525,16 @@
         <v>344</v>
       </c>
       <c r="G78" s="0" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="K78" s="0" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="M78" s="3" t="s">
         <v>91</v>
       </c>
       <c r="N78" s="0" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="O78" s="4" t="n">
         <v>-25</v>
@@ -6580,16 +6572,16 @@
         <v>344</v>
       </c>
       <c r="G79" s="0" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="K79" s="0" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="M79" s="3" t="s">
-        <v>52</v>
+        <v>347</v>
       </c>
       <c r="N79" s="0" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="O79" s="4" t="n">
         <v>350</v>
@@ -6627,16 +6619,16 @@
         <v>344</v>
       </c>
       <c r="G80" s="0" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="K80" s="0" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="M80" s="3" t="s">
         <v>91</v>
       </c>
       <c r="N80" s="0" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="O80" s="4" t="n">
         <v>0.1</v>
@@ -6671,19 +6663,19 @@
         <v>343</v>
       </c>
       <c r="E81" s="0" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="G81" s="0" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="K81" s="0" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="M81" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="N81" s="0" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="O81" s="4" t="n">
         <v>4.53</v>
@@ -6718,19 +6710,19 @@
         <v>343</v>
       </c>
       <c r="E82" s="0" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="G82" s="0" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="K82" s="0" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="M82" s="3" t="s">
         <v>91</v>
       </c>
       <c r="N82" s="0" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="O82" s="4" t="n">
         <v>0.42</v>
@@ -6765,19 +6757,19 @@
         <v>343</v>
       </c>
       <c r="E83" s="0" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="G83" s="0" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="K83" s="0" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="M83" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="N83" s="0" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="O83" s="4" t="n">
         <v>6.49</v>
@@ -6812,19 +6804,19 @@
         <v>343</v>
       </c>
       <c r="E84" s="0" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="G84" s="0" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="K84" s="0" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="M84" s="3" t="s">
         <v>91</v>
       </c>
       <c r="N84" s="0" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="O84" s="4" t="n">
         <v>0.44</v>
@@ -6859,19 +6851,19 @@
         <v>343</v>
       </c>
       <c r="E85" s="0" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="G85" s="0" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="K85" s="0" t="s">
-        <v>414</v>
-      </c>
-      <c r="M85" s="3" t="s">
         <v>415</v>
       </c>
+      <c r="M85" s="0" t="s">
+        <v>416</v>
+      </c>
       <c r="N85" s="0" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="O85" s="4" t="n">
         <v>75</v>
@@ -6906,19 +6898,19 @@
         <v>343</v>
       </c>
       <c r="E86" s="0" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="G86" s="0" t="s">
+        <v>417</v>
+      </c>
+      <c r="K86" s="0" t="s">
+        <v>418</v>
+      </c>
+      <c r="M86" s="0" t="s">
         <v>416</v>
       </c>
-      <c r="K86" s="0" t="s">
-        <v>417</v>
-      </c>
-      <c r="M86" s="3" t="s">
-        <v>415</v>
-      </c>
       <c r="N86" s="0" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="O86" s="4" t="n">
         <v>75</v>
@@ -6953,19 +6945,19 @@
         <v>343</v>
       </c>
       <c r="E87" s="0" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="G87" s="0" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="K87" s="0" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="M87" s="3" t="s">
         <v>91</v>
       </c>
       <c r="N87" s="0" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="O87" s="4" t="n">
         <v>0.6</v>
@@ -7000,19 +6992,19 @@
         <v>343</v>
       </c>
       <c r="E88" s="0" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="G88" s="0" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="K88" s="0" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="M88" s="3" t="s">
         <v>91</v>
       </c>
       <c r="N88" s="0" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="O88" s="4" t="n">
         <v>0.3</v>
@@ -7047,16 +7039,16 @@
         <v>343</v>
       </c>
       <c r="E89" s="0" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="G89" s="0" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="K89" s="0" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="M89" s="3" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="N89" s="0" t="s">
         <v>53</v>
@@ -7094,13 +7086,13 @@
         <v>343</v>
       </c>
       <c r="E90" s="0" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="G90" s="0" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="K90" s="0" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="M90" s="3" t="s">
         <v>91</v>
@@ -7138,13 +7130,13 @@
         <v>343</v>
       </c>
       <c r="E91" s="0" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="G91" s="0" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="K91" s="0" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>91</v>
@@ -7185,28 +7177,28 @@
         <v>343</v>
       </c>
       <c r="E92" s="0" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="F92" s="0" t="s">
         <v>46</v>
       </c>
       <c r="G92" s="0" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="J92" s="0" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="K92" s="0" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="L92" s="0" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="M92" s="3" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="N92" s="0" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="O92" s="4" t="n">
         <v>1.19</v>
@@ -7235,16 +7227,16 @@
         <v>100</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D93" s="0" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="E93" s="0" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G93" s="0" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="M93" s="3"/>
       <c r="P93" s="0" t="n">
@@ -7271,16 +7263,16 @@
         <v>101</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D94" s="0" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="E94" s="0" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G94" s="0" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="M94" s="3"/>
       <c r="P94" s="0" t="n">
@@ -7307,16 +7299,16 @@
         <v>102</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D95" s="0" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="E95" s="0" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G95" s="0" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="M95" s="3"/>
       <c r="P95" s="0" t="n">
@@ -7343,16 +7335,16 @@
         <v>103</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D96" s="0" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="E96" s="0" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G96" s="0" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="M96" s="3"/>
       <c r="P96" s="0" t="n">
@@ -7379,16 +7371,16 @@
         <v>104</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D97" s="0" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="E97" s="0" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G97" s="0" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="M97" s="3"/>
       <c r="P97" s="0" t="n">
@@ -7415,16 +7407,16 @@
         <v>105</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D98" s="0" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="E98" s="0" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G98" s="0" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="M98" s="3"/>
       <c r="P98" s="0" t="n">
@@ -7451,16 +7443,16 @@
         <v>106</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D99" s="0" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="E99" s="0" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G99" s="0" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="M99" s="3"/>
       <c r="P99" s="0" t="n">
@@ -7487,16 +7479,16 @@
         <v>107</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D100" s="0" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="E100" s="0" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="G100" s="0" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="M100" s="3"/>
       <c r="P100" s="0" t="n">
@@ -7523,16 +7515,16 @@
         <v>108</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D101" s="0" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="E101" s="0" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="G101" s="0" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="M101" s="3"/>
       <c r="P101" s="0" t="n">
@@ -7559,16 +7551,16 @@
         <v>109</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D102" s="0" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="E102" s="0" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="G102" s="0" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="P102" s="0" t="n">
         <v>0</v>
@@ -7611,7 +7603,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A23" activeCellId="1" sqref="I22 A23"/>
+      <selection pane="topLeft" activeCell="A23" activeCellId="0" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.15"/>
@@ -7652,7 +7644,7 @@
         <v>46</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7660,7 +7652,7 @@
         <v>69</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7668,7 +7660,7 @@
         <v>69</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7676,7 +7668,7 @@
         <v>69</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7684,7 +7676,7 @@
         <v>69</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7692,7 +7684,7 @@
         <v>69</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7700,7 +7692,7 @@
         <v>69</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7713,42 +7705,42 @@
     </row>
     <row r="10" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
   </sheetData>
@@ -7770,7 +7762,7 @@
   </sheetPr>
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I22" activeCellId="0" sqref="I22"/>
     </sheetView>
   </sheetViews>
@@ -7793,10 +7785,10 @@
         <v>27</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>33</v>
@@ -7817,7 +7809,7 @@
         <v>4</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7825,13 +7817,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>5</v>
@@ -7840,13 +7832,13 @@
         <v>6</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H2" s="0" t="s">
         <v>8</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>469</v>
+        <v>347</v>
       </c>
       <c r="J2" s="0" t="n">
         <v>1</v>
@@ -7857,10 +7849,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>470</v>
@@ -7878,7 +7870,7 @@
         <v>13</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>469</v>
+        <v>347</v>
       </c>
       <c r="J3" s="0" t="n">
         <v>1</v>
@@ -7889,10 +7881,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>472</v>
@@ -7910,7 +7902,7 @@
         <v>476</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>469</v>
+        <v>347</v>
       </c>
       <c r="J4" s="0" t="n">
         <v>1</v>
@@ -7921,10 +7913,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>477</v>
@@ -7953,10 +7945,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>479</v>
@@ -7974,7 +7966,7 @@
         <v>22</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>480</v>
+        <v>134</v>
       </c>
       <c r="J6" s="0" t="n">
         <v>1</v>
@@ -7985,13 +7977,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>24</v>
@@ -8006,7 +7998,7 @@
         <v>25</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>480</v>
+        <v>134</v>
       </c>
       <c r="J7" s="0" t="n">
         <v>1</v>
@@ -8017,28 +8009,28 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
+        <v>481</v>
+      </c>
+      <c r="C8" s="0" t="s">
         <v>482</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="D8" s="3" t="s">
         <v>483</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="E8" s="3" t="s">
         <v>484</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="F8" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="G8" s="0" t="s">
         <v>485</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>449</v>
-      </c>
-      <c r="G8" s="0" t="s">
+      <c r="H8" s="0" t="s">
         <v>486</v>
       </c>
-      <c r="H8" s="0" t="s">
-        <v>487</v>
-      </c>
       <c r="I8" s="0" t="s">
-        <v>488</v>
+        <v>52</v>
       </c>
       <c r="J8" s="0" t="n">
         <v>1</v>
@@ -8049,25 +8041,25 @@
         <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
+        <v>481</v>
+      </c>
+      <c r="C9" s="0" t="s">
         <v>482</v>
       </c>
-      <c r="C9" s="0" t="s">
-        <v>483</v>
-      </c>
       <c r="D9" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="G9" s="0" t="s">
         <v>489</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="H9" s="0" t="s">
         <v>490</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>490</v>
-      </c>
-      <c r="G9" s="0" t="s">
-        <v>491</v>
-      </c>
-      <c r="H9" s="0" t="s">
-        <v>492</v>
       </c>
       <c r="I9" s="0" t="s">
         <v>91</v>
@@ -8081,25 +8073,25 @@
         <v>9</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C10" s="0" t="s">
+        <v>491</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>493</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="G10" s="0" t="s">
         <v>494</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>494</v>
-      </c>
-      <c r="F10" s="3" t="s">
+      <c r="H10" s="0" t="s">
         <v>495</v>
-      </c>
-      <c r="G10" s="0" t="s">
-        <v>496</v>
-      </c>
-      <c r="H10" s="0" t="s">
-        <v>497</v>
       </c>
       <c r="I10" s="0" t="s">
         <v>91</v>
@@ -8113,25 +8105,25 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="D11" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="G11" s="0" t="s">
         <v>498</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>498</v>
-      </c>
-      <c r="F11" s="3" t="s">
+      <c r="H11" s="0" t="s">
         <v>499</v>
-      </c>
-      <c r="G11" s="0" t="s">
-        <v>500</v>
-      </c>
-      <c r="H11" s="0" t="s">
-        <v>501</v>
       </c>
       <c r="I11" s="0" t="s">
         <v>91</v>
@@ -8145,25 +8137,25 @@
         <v>11</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="D12" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>501</v>
+      </c>
+      <c r="H12" s="0" t="s">
         <v>502</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>502</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>499</v>
-      </c>
-      <c r="G12" s="0" t="s">
-        <v>503</v>
-      </c>
-      <c r="H12" s="0" t="s">
-        <v>504</v>
       </c>
       <c r="I12" s="0" t="s">
         <v>91</v>
@@ -8177,25 +8169,25 @@
         <v>12</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="D13" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="G13" s="0" t="s">
         <v>505</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>505</v>
-      </c>
-      <c r="F13" s="3" t="s">
+      <c r="H13" s="0" t="s">
         <v>506</v>
-      </c>
-      <c r="G13" s="0" t="s">
-        <v>507</v>
-      </c>
-      <c r="H13" s="0" t="s">
-        <v>508</v>
       </c>
       <c r="I13" s="0" t="s">
         <v>91</v>
@@ -8209,25 +8201,25 @@
         <v>13</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C14" s="0" t="s">
+        <v>507</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>510</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="G14" s="0" t="s">
         <v>511</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="H14" s="0" t="s">
         <v>512</v>
-      </c>
-      <c r="G14" s="0" t="s">
-        <v>513</v>
-      </c>
-      <c r="H14" s="0" t="s">
-        <v>514</v>
       </c>
       <c r="I14" s="0" t="s">
         <v>91</v>
@@ -8241,28 +8233,28 @@
         <v>14</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C15" s="0" t="s">
+        <v>513</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="F15" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="G15" s="0" t="s">
         <v>517</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="H15" s="0" t="s">
         <v>518</v>
       </c>
-      <c r="G15" s="0" t="s">
+      <c r="I15" s="0" t="s">
         <v>519</v>
-      </c>
-      <c r="H15" s="0" t="s">
-        <v>520</v>
-      </c>
-      <c r="I15" s="0" t="s">
-        <v>521</v>
       </c>
       <c r="J15" s="0" t="n">
         <v>1</v>
@@ -8273,25 +8265,25 @@
         <v>15</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="D16" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>522</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="G16" s="0" t="s">
         <v>523</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="H16" s="0" t="s">
         <v>524</v>
-      </c>
-      <c r="G16" s="0" t="s">
-        <v>525</v>
-      </c>
-      <c r="H16" s="0" t="s">
-        <v>526</v>
       </c>
       <c r="I16" s="0" t="s">
         <v>91</v>
@@ -8305,25 +8297,25 @@
         <v>16</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="D17" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="F17" s="3" t="s">
         <v>527</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="G17" s="0" t="s">
         <v>528</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="H17" s="0" t="s">
         <v>529</v>
-      </c>
-      <c r="G17" s="0" t="s">
-        <v>530</v>
-      </c>
-      <c r="H17" s="0" t="s">
-        <v>531</v>
       </c>
       <c r="I17" s="0" t="s">
         <v>91</v>
@@ -8337,25 +8329,25 @@
         <v>17</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C18" s="0" t="s">
+        <v>530</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>531</v>
+      </c>
+      <c r="H18" s="0" t="s">
         <v>532</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>458</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>458</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>458</v>
-      </c>
-      <c r="G18" s="0" t="s">
-        <v>533</v>
-      </c>
-      <c r="H18" s="0" t="s">
-        <v>534</v>
       </c>
       <c r="I18" s="0" t="s">
         <v>91</v>
@@ -8369,25 +8361,25 @@
         <v>18</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D19" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>534</v>
+      </c>
+      <c r="H19" s="0" t="s">
         <v>535</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>459</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>459</v>
-      </c>
-      <c r="G19" s="0" t="s">
-        <v>536</v>
-      </c>
-      <c r="H19" s="0" t="s">
-        <v>537</v>
       </c>
       <c r="I19" s="0" t="s">
         <v>91</v>
@@ -8401,25 +8393,25 @@
         <v>19</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D20" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="H20" s="0" t="s">
         <v>538</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>461</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>461</v>
-      </c>
-      <c r="G20" s="0" t="s">
-        <v>539</v>
-      </c>
-      <c r="H20" s="0" t="s">
-        <v>540</v>
       </c>
       <c r="I20" s="0" t="s">
         <v>91</v>
@@ -8433,28 +8425,28 @@
         <v>20</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D21" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="G21" s="0" t="s">
+        <v>540</v>
+      </c>
+      <c r="H21" s="0" t="s">
         <v>541</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>541</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>460</v>
-      </c>
-      <c r="G21" s="0" t="s">
-        <v>542</v>
-      </c>
-      <c r="H21" s="0" t="s">
-        <v>543</v>
-      </c>
       <c r="I21" s="0" t="s">
-        <v>544</v>
+        <v>416</v>
       </c>
       <c r="J21" s="0" t="n">
         <v>1</v>
@@ -8465,28 +8457,28 @@
         <v>21</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C22" s="0" t="s">
+        <v>542</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="F22" s="3" t="s">
         <v>545</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="G22" s="0" t="s">
         <v>546</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="H22" s="0" t="s">
         <v>547</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="I22" s="0" t="s">
         <v>548</v>
-      </c>
-      <c r="G22" s="0" t="s">
-        <v>549</v>
-      </c>
-      <c r="H22" s="0" t="s">
-        <v>550</v>
-      </c>
-      <c r="I22" s="0" t="s">
-        <v>551</v>
       </c>
       <c r="J22" s="0" t="n">
         <v>1</v>
@@ -8497,28 +8489,28 @@
         <v>22</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>114</v>
       </c>
       <c r="F23" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="G23" s="0" t="s">
+        <v>552</v>
+      </c>
+      <c r="H23" s="0" t="s">
+        <v>553</v>
+      </c>
+      <c r="I23" s="0" t="s">
         <v>554</v>
-      </c>
-      <c r="G23" s="0" t="s">
-        <v>555</v>
-      </c>
-      <c r="H23" s="0" t="s">
-        <v>556</v>
-      </c>
-      <c r="I23" s="0" t="s">
-        <v>557</v>
       </c>
       <c r="J23" s="0" t="n">
         <v>1</v>
@@ -8544,7 +8536,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J20" activeCellId="1" sqref="I22 J20"/>
+      <selection pane="topLeft" activeCell="J17" activeCellId="0" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.2"/>
@@ -8566,22 +8558,22 @@
         <v>27</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>558</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>559</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>561</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>2</v>
@@ -8593,7 +8585,7 @@
         <v>4</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8601,34 +8593,34 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
+        <v>561</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>562</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>563</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>564</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="F2" s="0" t="s">
         <v>565</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="G2" s="0" t="s">
         <v>566</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="H2" s="0" t="s">
         <v>567</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="I2" s="0" t="s">
         <v>568</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>569</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>570</v>
-      </c>
-      <c r="I2" s="0" t="s">
-        <v>571</v>
       </c>
       <c r="J2" s="0" t="s">
         <v>478</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8636,34 +8628,34 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>91</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>26</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>480</v>
+        <v>134</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8671,34 +8663,34 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="E4" s="0" t="s">
         <v>91</v>
       </c>
       <c r="F4" s="0" t="s">
+        <v>574</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>566</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>575</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>576</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="K4" s="0" t="s">
         <v>577</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>569</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>578</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>579</v>
-      </c>
-      <c r="J4" s="0" t="s">
-        <v>480</v>
-      </c>
-      <c r="K4" s="0" t="s">
-        <v>580</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8706,34 +8698,34 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="E5" s="0" t="s">
         <v>91</v>
       </c>
       <c r="F5" s="0" t="s">
+        <v>578</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>566</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>579</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>580</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="K5" s="0" t="s">
         <v>581</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>569</v>
-      </c>
-      <c r="H5" s="0" t="s">
-        <v>582</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>583</v>
-      </c>
-      <c r="J5" s="0" t="s">
-        <v>480</v>
-      </c>
-      <c r="K5" s="0" t="s">
-        <v>584</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8741,34 +8733,34 @@
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="E6" s="0" t="s">
         <v>91</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="J6" s="0" t="s">
         <v>91</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8776,34 +8768,34 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="E7" s="0" t="s">
         <v>91</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="J7" s="0" t="s">
         <v>91</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8811,34 +8803,34 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="E8" s="0" t="s">
+        <v>592</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>593</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>566</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>594</v>
+      </c>
+      <c r="I8" s="0" t="s">
         <v>595</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>596</v>
-      </c>
-      <c r="G8" s="0" t="s">
-        <v>569</v>
-      </c>
-      <c r="H8" s="0" t="s">
-        <v>597</v>
-      </c>
-      <c r="I8" s="0" t="s">
-        <v>598</v>
       </c>
       <c r="J8" s="0" t="s">
         <v>91</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8846,34 +8838,34 @@
         <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="J9" s="0" t="s">
         <v>91</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8881,34 +8873,34 @@
         <v>9</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="E10" s="0" t="s">
         <v>91</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="J10" s="0" t="s">
         <v>91</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8916,34 +8908,34 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="E11" s="0" t="s">
         <v>91</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8951,34 +8943,34 @@
         <v>11</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="J12" s="0" t="s">
         <v>91</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8986,34 +8978,34 @@
         <v>12</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="D13" s="0" t="s">
+        <v>613</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>564</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>614</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>566</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>615</v>
+      </c>
+      <c r="I13" s="0" t="s">
         <v>616</v>
-      </c>
-      <c r="E13" s="0" t="s">
-        <v>567</v>
-      </c>
-      <c r="F13" s="0" t="s">
-        <v>617</v>
-      </c>
-      <c r="G13" s="0" t="s">
-        <v>569</v>
-      </c>
-      <c r="H13" s="0" t="s">
-        <v>618</v>
-      </c>
-      <c r="I13" s="0" t="s">
-        <v>619</v>
       </c>
       <c r="J13" s="0" t="s">
         <v>91</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9021,34 +9013,34 @@
         <v>13</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="D14" s="0" t="s">
         <v>91</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="J14" s="0" t="s">
         <v>91</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9056,34 +9048,34 @@
         <v>14</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="D15" s="0" t="s">
         <v>91</v>
       </c>
       <c r="E15" s="0" t="s">
+        <v>619</v>
+      </c>
+      <c r="F15" s="0" t="s">
         <v>622</v>
       </c>
-      <c r="F15" s="0" t="s">
-        <v>625</v>
-      </c>
       <c r="G15" s="0" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="J15" s="0" t="s">
         <v>91</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9091,34 +9083,34 @@
         <v>15</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="D16" s="0" t="s">
+        <v>563</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>619</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>626</v>
+      </c>
+      <c r="G16" s="0" t="s">
         <v>566</v>
       </c>
-      <c r="E16" s="0" t="s">
-        <v>622</v>
-      </c>
-      <c r="F16" s="0" t="s">
-        <v>629</v>
-      </c>
-      <c r="G16" s="0" t="s">
-        <v>569</v>
-      </c>
       <c r="H16" s="0" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="J16" s="0" t="s">
         <v>478</v>
       </c>
       <c r="K16" s="0" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9126,34 +9118,34 @@
         <v>16</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="D17" s="0" t="s">
         <v>91</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="F17" s="0" t="s">
+        <v>630</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>566</v>
+      </c>
+      <c r="H17" s="0" t="s">
+        <v>631</v>
+      </c>
+      <c r="I17" s="0" t="s">
+        <v>632</v>
+      </c>
+      <c r="J17" s="0" t="s">
+        <v>385</v>
+      </c>
+      <c r="K17" s="0" t="s">
         <v>633</v>
-      </c>
-      <c r="G17" s="0" t="s">
-        <v>569</v>
-      </c>
-      <c r="H17" s="0" t="s">
-        <v>634</v>
-      </c>
-      <c r="I17" s="0" t="s">
-        <v>635</v>
-      </c>
-      <c r="J17" s="0" t="s">
-        <v>636</v>
-      </c>
-      <c r="K17" s="0" t="s">
-        <v>637</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9161,34 +9153,34 @@
         <v>17</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="D18" s="0" t="s">
         <v>91</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>544</v>
+        <v>416</v>
       </c>
       <c r="K18" s="0" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9196,34 +9188,34 @@
         <v>18</v>
       </c>
       <c r="B19" s="0" t="s">
+        <v>638</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>583</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>613</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>639</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>640</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>566</v>
+      </c>
+      <c r="H19" s="0" t="s">
+        <v>641</v>
+      </c>
+      <c r="I19" s="0" t="s">
         <v>642</v>
       </c>
-      <c r="C19" s="0" t="s">
-        <v>586</v>
-      </c>
-      <c r="D19" s="0" t="s">
-        <v>616</v>
-      </c>
-      <c r="E19" s="0" t="s">
+      <c r="J19" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="K19" s="0" t="s">
         <v>643</v>
-      </c>
-      <c r="F19" s="0" t="s">
-        <v>644</v>
-      </c>
-      <c r="G19" s="0" t="s">
-        <v>569</v>
-      </c>
-      <c r="H19" s="0" t="s">
-        <v>645</v>
-      </c>
-      <c r="I19" s="0" t="s">
-        <v>646</v>
-      </c>
-      <c r="J19" s="0" t="s">
-        <v>488</v>
-      </c>
-      <c r="K19" s="0" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9231,34 +9223,34 @@
         <v>19</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="D20" s="0" t="s">
         <v>91</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="F20" s="0" t="s">
+        <v>544</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>566</v>
+      </c>
+      <c r="H20" s="0" t="s">
+        <v>546</v>
+      </c>
+      <c r="I20" s="0" t="s">
         <v>547</v>
       </c>
-      <c r="G20" s="0" t="s">
-        <v>569</v>
-      </c>
-      <c r="H20" s="0" t="s">
-        <v>549</v>
-      </c>
-      <c r="I20" s="0" t="s">
-        <v>550</v>
-      </c>
       <c r="J20" s="0" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="K20" s="0" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9266,34 +9258,34 @@
         <v>20</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="D21" s="0" t="s">
         <v>91</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="F21" s="0" t="s">
         <v>114</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="K21" s="0" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
     </row>
   </sheetData>

--- a/inst/doc/files/parameterization.xlsx
+++ b/inst/doc/files/parameterization.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="233" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="248" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="climate" sheetId="1" state="visible" r:id="rId2"/>
@@ -46,13 +46,17 @@
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">parameters!$A$1:$Q$102</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">parameters!$A$1:$Q$102</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">parameters!$A$1:$Q$102</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">parameters!$A$1:$Q$102</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">parameters!$A$1:$Q$102</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">parameters!$A$1:$Q$102</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">parameters!$A$1:$Q$102</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1340" uniqueCount="647">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1788" uniqueCount="723">
   <si>
     <t>name.rsunflo.fr</t>
   </si>
@@ -1719,6 +1723,9 @@
     <t>$\% (dry matter)$</t>
   </si>
   <si>
+    <t>verbose</t>
+  </si>
+  <si>
     <t>type</t>
   </si>
   <si>
@@ -1731,12 +1738,15 @@
     <t>process</t>
   </si>
   <si>
-    <t>position</t>
-  </si>
-  <si>
     <t>formula</t>
   </si>
   <si>
+    <t>integration</t>
+  </si>
+  <si>
+    <t>crop</t>
+  </si>
+  <si>
     <t>resource</t>
   </si>
   <si>
@@ -1752,9 +1762,6 @@
     <t>SGR</t>
   </si>
   <si>
-    <t>cycle</t>
-  </si>
-  <si>
     <t>Rayonnement incident (PAR)</t>
   </si>
   <si>
@@ -1785,7 +1792,7 @@
     <t>Potential evapotranspiration</t>
   </si>
   <si>
-    <t>$sum(ETP)$</t>
+    <t>$sum(PET)$</t>
   </si>
   <si>
     <t>SCWD</t>
@@ -1797,13 +1804,115 @@
     <t>Climatic water deficit</t>
   </si>
   <si>
-    <t>$sum(P-ETP)$</t>
+    <t>$sum(RR-PET)$</t>
+  </si>
+  <si>
+    <t>temperature</t>
+  </si>
+  <si>
+    <t>phenology</t>
+  </si>
+  <si>
+    <t>TT</t>
+  </si>
+  <si>
+    <t>Temps thermique (base 4.8°C)</t>
+  </si>
+  <si>
+    <t>Thermal time (4.8 C basis)</t>
+  </si>
+  <si>
+    <t>$sum(TM - 4.8)$</t>
+  </si>
+  <si>
+    <t>D_SE</t>
+  </si>
+  <si>
+    <t>Durée de la phase semis - levée</t>
+  </si>
+  <si>
+    <t>Duration of sowing - emergence phase</t>
+  </si>
+  <si>
+    <t>$d$</t>
+  </si>
+  <si>
+    <t>emergence</t>
+  </si>
+  <si>
+    <t>D_EF</t>
+  </si>
+  <si>
+    <t>Durée de la phase végétative</t>
+  </si>
+  <si>
+    <t>Duration of vegetative phase</t>
+  </si>
+  <si>
+    <t>vegetative</t>
+  </si>
+  <si>
+    <t>D_FM</t>
+  </si>
+  <si>
+    <t>Durée de la phase de floraison</t>
+  </si>
+  <si>
+    <t>Duration of flowering phase</t>
+  </si>
+  <si>
+    <t>flowering</t>
+  </si>
+  <si>
+    <t>D_MH</t>
+  </si>
+  <si>
+    <t>Durée de la phase de remplissage</t>
+  </si>
+  <si>
+    <t>Duration of grain filling phase</t>
+  </si>
+  <si>
+    <t>filling</t>
   </si>
   <si>
     <t>constraint</t>
   </si>
   <si>
-    <t>crop</t>
+    <t>NHT</t>
+  </si>
+  <si>
+    <t>Nombre de jours de hautes tempértures</t>
+  </si>
+  <si>
+    <t>Thermal stress, high temperature (discrete)</t>
+  </si>
+  <si>
+    <t>$sum(TM &gt; 28)$</t>
+  </si>
+  <si>
+    <t>NLT</t>
+  </si>
+  <si>
+    <t>Nombre de jours de basses butes tempértures</t>
+  </si>
+  <si>
+    <t>Thermal stress, low temperature (discrete)</t>
+  </si>
+  <si>
+    <t>$sum(TM &lt; 20)$</t>
+  </si>
+  <si>
+    <t>SFTRUE</t>
+  </si>
+  <si>
+    <t>Effet de la contrainte thermique sur la photosynthèse</t>
+  </si>
+  <si>
+    <t>Thermal stress impact on photosynthesis</t>
+  </si>
+  <si>
+    <t>$sum(1-FTRUE)$</t>
   </si>
   <si>
     <t>SFTSW</t>
@@ -1827,7 +1936,7 @@
     <t>Edaphic water deficit (discrete)</t>
   </si>
   <si>
-    <t>$sum(ETR/ETM &lt; 0.6)$</t>
+    <t>$sum(ET/PET &lt; 0.6)$</t>
   </si>
   <si>
     <t>transpiration</t>
@@ -1863,10 +1972,10 @@
     <t>SNNI</t>
   </si>
   <si>
-    <t>Déficit azoté</t>
-  </si>
-  <si>
-    <t>Nitrogen deficit</t>
+    <t>Déficit azoté (continu)</t>
+  </si>
+  <si>
+    <t>Nitrogen deficit (continuous)</t>
   </si>
   <si>
     <t>$sum(1-NNI)$</t>
@@ -1893,21 +2002,6 @@
     <t>$sum(1-FNRUE)$</t>
   </si>
   <si>
-    <t>temperature</t>
-  </si>
-  <si>
-    <t>SFTRUE</t>
-  </si>
-  <si>
-    <t>Effet de la contrainte thermique sur la photosynthèse</t>
-  </si>
-  <si>
-    <t>Thermal stress impact on photosynthesis</t>
-  </si>
-  <si>
-    <t>$sum(1-FTRUE)$</t>
-  </si>
-  <si>
     <t>state</t>
   </si>
   <si>
@@ -1920,7 +2014,7 @@
     <t>$max(LAI)$</t>
   </si>
   <si>
-    <t>DSF</t>
+    <t>LAD</t>
   </si>
   <si>
     <t>Durée de surface foliaire</t>
@@ -1959,7 +2053,7 @@
     <t>STDM</t>
   </si>
   <si>
-    <t>Biomasse</t>
+    <t>Biomasse aerienne</t>
   </si>
   <si>
     <t>Aerial Biomass</t>
@@ -1968,24 +2062,6 @@
     <t>$max(TDM)$</t>
   </si>
   <si>
-    <t>ressource</t>
-  </si>
-  <si>
-    <t>phenology</t>
-  </si>
-  <si>
-    <t>TT</t>
-  </si>
-  <si>
-    <t>Temps thermique (base 4.8°C)</t>
-  </si>
-  <si>
-    <t>Thermal time</t>
-  </si>
-  <si>
-    <t>$max(TTA2)$</t>
-  </si>
-  <si>
     <t>performance</t>
   </si>
   <si>
@@ -1993,6 +2069,162 @@
   </si>
   <si>
     <t>$max(OC)$</t>
+  </si>
+  <si>
+    <t>stage</t>
+  </si>
+  <si>
+    <t>SGR_EF</t>
+  </si>
+  <si>
+    <t>SGR_FM</t>
+  </si>
+  <si>
+    <t>SGR_MH</t>
+  </si>
+  <si>
+    <t>SRR_EF</t>
+  </si>
+  <si>
+    <t>SRR_FM</t>
+  </si>
+  <si>
+    <t>SRR_MH</t>
+  </si>
+  <si>
+    <t>SCWD_EF</t>
+  </si>
+  <si>
+    <t>SCWD_FM</t>
+  </si>
+  <si>
+    <t>SCWD_MH</t>
+  </si>
+  <si>
+    <t>METR_EF</t>
+  </si>
+  <si>
+    <t>$mean(ET/PET)$</t>
+  </si>
+  <si>
+    <t>METR_FM</t>
+  </si>
+  <si>
+    <t>METR_FH</t>
+  </si>
+  <si>
+    <t>NETR_EF</t>
+  </si>
+  <si>
+    <t>NETR_FM</t>
+  </si>
+  <si>
+    <t>NETR_MH</t>
+  </si>
+  <si>
+    <t>SFTSW_EF</t>
+  </si>
+  <si>
+    <t>SFTSW_FM</t>
+  </si>
+  <si>
+    <t>SFTSW_MH</t>
+  </si>
+  <si>
+    <t>TT_SE</t>
+  </si>
+  <si>
+    <t>TT_EF</t>
+  </si>
+  <si>
+    <t>TT_FM</t>
+  </si>
+  <si>
+    <t>TT_MH</t>
+  </si>
+  <si>
+    <t>NLT_EF</t>
+  </si>
+  <si>
+    <t>Nombre de jours froids</t>
+  </si>
+  <si>
+    <t>Thermal stress, cold (discrete)</t>
+  </si>
+  <si>
+    <t>NLT_FM</t>
+  </si>
+  <si>
+    <t>NLT_MH</t>
+  </si>
+  <si>
+    <t>NHT_EF</t>
+  </si>
+  <si>
+    <t>Nombre de jours chauds</t>
+  </si>
+  <si>
+    <t>Thermal stress, heath (discrete)</t>
+  </si>
+  <si>
+    <t>NHT_FM</t>
+  </si>
+  <si>
+    <t>NHT_MH</t>
+  </si>
+  <si>
+    <t>SNAB_EM</t>
+  </si>
+  <si>
+    <t>Azote absorbé jusqu'à la fin floraison</t>
+  </si>
+  <si>
+    <t>NNI_F</t>
+  </si>
+  <si>
+    <t>Indice de nutrition azoté à la floraison</t>
+  </si>
+  <si>
+    <t>Nitrogen nutrition index at flowering</t>
+  </si>
+  <si>
+    <t>$max(NNI)$</t>
+  </si>
+  <si>
+    <t>NNNID_EM</t>
+  </si>
+  <si>
+    <t>Deficit azoté jusqu'à la fin floraison (discret)</t>
+  </si>
+  <si>
+    <t>Nitrogen deficit up to end of flowering (discrete)</t>
+  </si>
+  <si>
+    <t>$sum(NNI &lt; 0.8)$</t>
+  </si>
+  <si>
+    <t>NNNIE_EM</t>
+  </si>
+  <si>
+    <t>Excès azoté jusqu'à la fin floraison (discret)</t>
+  </si>
+  <si>
+    <t>Nitrogen excess up to end of flowering (discrete)</t>
+  </si>
+  <si>
+    <t>$sum(NNI &gt; 1.2)$</t>
+  </si>
+  <si>
+    <t>STDM_F</t>
+  </si>
+  <si>
+    <t>Biomasse aerienne à la floraison</t>
+  </si>
+  <si>
+    <t>Aerial Biomass at flowering</t>
+  </si>
+  <si>
+    <t>$max(TDM$</t>
   </si>
 </sst>
 </file>
@@ -2272,7 +2504,7 @@
   </sheetPr>
   <dimension ref="A1:U102"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="K12" activeCellId="0" sqref="K12"/>
     </sheetView>
   </sheetViews>
@@ -7760,579 +7992,528 @@
     <tabColor rgb="FFFFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I22" activeCellId="0" sqref="I22"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="11.6377551020408"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.1428571428571"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.7704081632653"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.984693877551"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.8979591836735"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="55.3826530612245"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="30.734693877551"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="22.5510204081633"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="12.8418367346939"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="11.6377551020408"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6377551020408"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.1428571428571"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.7704081632653"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.984693877551"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.8979591836735"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="55.3826530612245"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="30.734693877551"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="22.5510204081633"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.8418367346939"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="11.6377551020408"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>463</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>464</v>
+        <v>33</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="1" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
-        <v>1</v>
+      <c r="A2" s="0" t="s">
+        <v>466</v>
       </c>
       <c r="B2" s="0" t="s">
+        <v>467</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>469</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>347</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
         <v>466</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="B3" s="0" t="s">
         <v>467</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>468</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>469</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="0" t="s">
+      <c r="C3" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>471</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="0" t="s">
         <v>347</v>
       </c>
-      <c r="J2" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="0" t="s">
+      <c r="I3" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
         <v>466</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="B4" s="0" t="s">
         <v>467</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>470</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>471</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="0" t="s">
+      <c r="C4" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>474</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>475</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>476</v>
+      </c>
+      <c r="H4" s="0" t="s">
         <v>347</v>
       </c>
-      <c r="J3" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="0" t="s">
+      <c r="I4" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
         <v>466</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="B5" s="0" t="s">
         <v>467</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>472</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>473</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>474</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>475</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>476</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>347</v>
-      </c>
-      <c r="J4" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="0" t="s">
+      <c r="C5" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>478</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
         <v>466</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="B6" s="0" t="s">
         <v>467</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>477</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>478</v>
-      </c>
-      <c r="J5" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="0" t="s">
+      <c r="C6" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
         <v>466</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="B7" s="0" t="s">
         <v>467</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>479</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="I6" s="0" t="s">
+      <c r="C7" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="0" t="s">
         <v>134</v>
       </c>
-      <c r="J6" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>466</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>467</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>480</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="H7" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="I7" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="J7" s="0" t="n">
+      <c r="I7" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
-        <v>7</v>
+      <c r="A8" s="0" t="s">
+        <v>481</v>
       </c>
       <c r="B8" s="0" t="s">
+        <v>482</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>485</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>486</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
         <v>481</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="B9" s="0" t="s">
         <v>482</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>483</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>484</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>450</v>
-      </c>
-      <c r="G8" s="0" t="s">
-        <v>485</v>
-      </c>
-      <c r="H8" s="0" t="s">
-        <v>486</v>
-      </c>
-      <c r="I8" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="J8" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>481</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>482</v>
+      <c r="C9" s="3" t="s">
+        <v>487</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>488</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>488</v>
+      <c r="F9" s="0" t="s">
+        <v>489</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>490</v>
-      </c>
-      <c r="I9" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="J9" s="0" t="n">
+      <c r="I9" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
-        <v>9</v>
+      <c r="A10" s="0" t="s">
+        <v>481</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>481</v>
-      </c>
-      <c r="C10" s="0" t="s">
         <v>491</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>492</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>492</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>492</v>
-      </c>
-      <c r="F10" s="3" t="s">
         <v>493</v>
       </c>
+      <c r="F10" s="0" t="s">
+        <v>494</v>
+      </c>
       <c r="G10" s="0" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>495</v>
-      </c>
-      <c r="I10" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="J10" s="0" t="n">
+      <c r="I10" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
-        <v>10</v>
+      <c r="A11" s="0" t="s">
+        <v>481</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>481</v>
-      </c>
-      <c r="C11" s="0" t="s">
         <v>491</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>496</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>496</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>496</v>
-      </c>
-      <c r="F11" s="3" t="s">
         <v>497</v>
       </c>
+      <c r="F11" s="0" t="s">
+        <v>498</v>
+      </c>
       <c r="G11" s="0" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>499</v>
-      </c>
-      <c r="I11" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="J11" s="0" t="n">
+      <c r="I11" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
-        <v>11</v>
+      <c r="A12" s="0" t="s">
+        <v>481</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>481</v>
-      </c>
-      <c r="C12" s="0" t="s">
         <v>491</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>500</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>500</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>500</v>
-      </c>
-      <c r="F12" s="3" t="s">
         <v>497</v>
       </c>
+      <c r="F12" s="0" t="s">
+        <v>501</v>
+      </c>
       <c r="G12" s="0" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>502</v>
-      </c>
-      <c r="I12" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="J12" s="0" t="n">
+      <c r="I12" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
-        <v>12</v>
+      <c r="A13" s="0" t="s">
+        <v>481</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>481</v>
-      </c>
-      <c r="C13" s="0" t="s">
         <v>491</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>503</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>503</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>503</v>
-      </c>
-      <c r="F13" s="3" t="s">
         <v>504</v>
       </c>
+      <c r="F13" s="0" t="s">
+        <v>505</v>
+      </c>
       <c r="G13" s="0" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>506</v>
-      </c>
-      <c r="I13" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="J13" s="0" t="n">
+      <c r="I13" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
-        <v>13</v>
+      <c r="A14" s="0" t="s">
+        <v>481</v>
       </c>
       <c r="B14" s="0" t="s">
+        <v>507</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>511</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>512</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
         <v>481</v>
       </c>
-      <c r="C14" s="0" t="s">
-        <v>507</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>508</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>509</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>510</v>
-      </c>
-      <c r="G14" s="0" t="s">
-        <v>511</v>
-      </c>
-      <c r="H14" s="0" t="s">
-        <v>512</v>
-      </c>
-      <c r="I14" s="0" t="s">
+      <c r="B15" s="0" t="s">
+        <v>513</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>517</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>518</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>519</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>481</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>513</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>523</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>524</v>
+      </c>
+      <c r="H16" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="J14" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="B15" s="0" t="s">
+      <c r="I16" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
         <v>481</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="B17" s="0" t="s">
         <v>513</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>514</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>515</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>516</v>
-      </c>
-      <c r="G15" s="0" t="s">
-        <v>517</v>
-      </c>
-      <c r="H15" s="0" t="s">
-        <v>518</v>
-      </c>
-      <c r="I15" s="0" t="s">
-        <v>519</v>
-      </c>
-      <c r="J15" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="B16" s="0" t="s">
+      <c r="C17" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>528</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>529</v>
+      </c>
+      <c r="H17" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="I17" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
         <v>481</v>
       </c>
-      <c r="C16" s="0" t="s">
-        <v>513</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>520</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>521</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="G16" s="0" t="s">
-        <v>523</v>
-      </c>
-      <c r="H16" s="0" t="s">
-        <v>524</v>
-      </c>
-      <c r="I16" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="J16" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="B17" s="0" t="s">
-        <v>481</v>
-      </c>
-      <c r="C17" s="0" t="s">
-        <v>513</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>526</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>527</v>
-      </c>
-      <c r="G17" s="0" t="s">
-        <v>528</v>
-      </c>
-      <c r="H17" s="0" t="s">
-        <v>529</v>
-      </c>
-      <c r="I17" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="J17" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
-        <v>17</v>
-      </c>
       <c r="B18" s="0" t="s">
-        <v>481</v>
-      </c>
-      <c r="C18" s="0" t="s">
         <v>530</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>459</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>459</v>
@@ -8340,179 +8521,161 @@
       <c r="E18" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>459</v>
+      <c r="F18" s="0" t="s">
+        <v>531</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>532</v>
-      </c>
-      <c r="I18" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="J18" s="0" t="n">
+      <c r="I18" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
-        <v>18</v>
+      <c r="A19" s="0" t="s">
+        <v>481</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>481</v>
-      </c>
-      <c r="C19" s="0" t="s">
         <v>530</v>
       </c>
+      <c r="C19" s="3" t="s">
+        <v>533</v>
+      </c>
       <c r="D19" s="3" t="s">
-        <v>533</v>
+        <v>460</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>460</v>
       </c>
-      <c r="F19" s="3" t="s">
-        <v>460</v>
+      <c r="F19" s="0" t="s">
+        <v>534</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>535</v>
-      </c>
-      <c r="I19" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="J19" s="0" t="n">
+      <c r="I19" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
-        <v>19</v>
+      <c r="A20" s="0" t="s">
+        <v>481</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>481</v>
-      </c>
-      <c r="C20" s="0" t="s">
         <v>530</v>
       </c>
+      <c r="C20" s="3" t="s">
+        <v>536</v>
+      </c>
       <c r="D20" s="3" t="s">
-        <v>536</v>
+        <v>462</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>462</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>462</v>
+      <c r="F20" s="0" t="s">
+        <v>537</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>538</v>
-      </c>
-      <c r="I20" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="J20" s="0" t="n">
+      <c r="I20" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="n">
-        <v>20</v>
+      <c r="A21" s="0" t="s">
+        <v>481</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>481</v>
-      </c>
-      <c r="C21" s="0" t="s">
         <v>530</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>539</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>539</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>539</v>
-      </c>
-      <c r="F21" s="3" t="s">
         <v>461</v>
       </c>
+      <c r="F21" s="0" t="s">
+        <v>540</v>
+      </c>
       <c r="G21" s="0" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>541</v>
-      </c>
-      <c r="I21" s="0" t="s">
         <v>416</v>
       </c>
-      <c r="J21" s="0" t="n">
+      <c r="I21" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="n">
-        <v>21</v>
+      <c r="A22" s="0" t="s">
+        <v>481</v>
       </c>
       <c r="B22" s="0" t="s">
+        <v>542</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>546</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>547</v>
+      </c>
+      <c r="H22" s="0" t="s">
+        <v>548</v>
+      </c>
+      <c r="I22" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
         <v>481</v>
       </c>
-      <c r="C22" s="0" t="s">
-        <v>542</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>543</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>544</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>545</v>
-      </c>
-      <c r="G22" s="0" t="s">
-        <v>546</v>
-      </c>
-      <c r="H22" s="0" t="s">
-        <v>547</v>
-      </c>
-      <c r="I22" s="0" t="s">
-        <v>548</v>
-      </c>
-      <c r="J22" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="n">
-        <v>22</v>
-      </c>
       <c r="B23" s="0" t="s">
-        <v>481</v>
-      </c>
-      <c r="C23" s="0" t="s">
         <v>549</v>
       </c>
+      <c r="C23" s="3" t="s">
+        <v>550</v>
+      </c>
       <c r="D23" s="3" t="s">
-        <v>550</v>
+        <v>114</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="F23" s="3" t="s">
         <v>551</v>
       </c>
+      <c r="F23" s="0" t="s">
+        <v>552</v>
+      </c>
       <c r="G23" s="0" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>553</v>
-      </c>
-      <c r="I23" s="0" t="s">
         <v>554</v>
       </c>
-      <c r="J23" s="0" t="n">
+      <c r="I23" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8533,368 +8696,369 @@
     <tabColor rgb="FFFFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K21"/>
+  <dimension ref="1:60"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J17" activeCellId="0" sqref="J17"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A26" activeCellId="0" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.2"/>
+  <sheetFormatPr defaultRowHeight="13.15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.25510204081633"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="11.5204081632653"/>
     <col collapsed="false" hidden="false" max="4" min="3" style="0" width="13.8316326530612"/>
     <col collapsed="false" hidden="false" max="6" min="5" style="0" width="15.8010204081633"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.89795918367347"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="43.5765306122449"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="37.9591836734694"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="17.7755102040816"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="22.8418367346939"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="43.5765306122449"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="37.9591836734694"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="17.7755102040816"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="22.8418367346939"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="10.6836734693878"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" s="7" customFormat="true" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>555</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>559</v>
+        <v>2</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>4</v>
+        <v>560</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>560</v>
-      </c>
+        <v>561</v>
+      </c>
+      <c r="AMI1" s="0"/>
+      <c r="AMJ1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
-        <v>1</v>
+      <c r="A2" s="0" t="s">
+        <v>562</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="C2" s="0" t="s">
+        <v>564</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>565</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>566</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>567</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>568</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>569</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>478</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>570</v>
+      </c>
+      <c r="K2" s="0" t="s">
         <v>562</v>
       </c>
-      <c r="D2" s="0" t="s">
+    </row>
+    <row r="3" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>562</v>
+      </c>
+      <c r="B3" s="0" t="s">
         <v>563</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="C3" s="0" t="s">
         <v>564</v>
       </c>
-      <c r="F2" s="0" t="s">
-        <v>565</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>566</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>567</v>
-      </c>
-      <c r="I2" s="0" t="s">
-        <v>568</v>
-      </c>
-      <c r="J2" s="0" t="s">
-        <v>478</v>
-      </c>
-      <c r="K2" s="0" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>561</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>562</v>
-      </c>
       <c r="D3" s="0" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>91</v>
       </c>
       <c r="F3" s="0" t="s">
+        <v>572</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>573</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>574</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>562</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>563</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>564</v>
+      </c>
+      <c r="D4" s="0" t="s">
         <v>571</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>566</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>572</v>
-      </c>
-      <c r="J3" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="K3" s="0" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>561</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>562</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>570</v>
       </c>
       <c r="E4" s="0" t="s">
         <v>91</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>566</v>
+        <v>576</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>576</v>
+        <v>134</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>134</v>
+        <v>578</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>577</v>
+        <v>562</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
-        <v>4</v>
+      <c r="A5" s="0" t="s">
+        <v>562</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="E5" s="0" t="s">
         <v>91</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>566</v>
+        <v>580</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>580</v>
+        <v>134</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>134</v>
+        <v>582</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>581</v>
+        <v>562</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
-        <v>5</v>
+      <c r="A6" s="0" t="s">
+        <v>562</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>582</v>
+        <v>563</v>
       </c>
       <c r="C6" s="0" t="s">
+        <v>562</v>
+      </c>
+      <c r="D6" s="0" t="s">
         <v>583</v>
       </c>
-      <c r="D6" s="0" t="s">
-        <v>570</v>
-      </c>
       <c r="E6" s="0" t="s">
-        <v>91</v>
+        <v>584</v>
       </c>
       <c r="F6" s="0" t="s">
+        <v>585</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>586</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>587</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>588</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>562</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>563</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>562</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>583</v>
+      </c>
+      <c r="E7" s="0" t="s">
         <v>584</v>
       </c>
-      <c r="G6" s="0" t="s">
-        <v>566</v>
-      </c>
-      <c r="H6" s="0" t="s">
-        <v>585</v>
-      </c>
-      <c r="I6" s="0" t="s">
-        <v>586</v>
-      </c>
-      <c r="J6" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="K6" s="0" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>582</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>583</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>570</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>91</v>
-      </c>
       <c r="F7" s="0" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>566</v>
+        <v>590</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="J7" s="0" t="s">
         <v>91</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
-        <v>7</v>
+      <c r="A8" s="0" t="s">
+        <v>562</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>582</v>
+        <v>563</v>
       </c>
       <c r="C8" s="0" t="s">
+        <v>562</v>
+      </c>
+      <c r="D8" s="0" t="s">
         <v>583</v>
       </c>
-      <c r="D8" s="0" t="s">
-        <v>570</v>
-      </c>
       <c r="E8" s="0" t="s">
+        <v>584</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>594</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>595</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>596</v>
+      </c>
+      <c r="I8" s="0" t="s">
         <v>592</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>593</v>
-      </c>
-      <c r="G8" s="0" t="s">
-        <v>566</v>
-      </c>
-      <c r="H8" s="0" t="s">
-        <v>594</v>
-      </c>
-      <c r="I8" s="0" t="s">
-        <v>595</v>
       </c>
       <c r="J8" s="0" t="s">
         <v>91</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
-        <v>8</v>
+      <c r="A9" s="0" t="s">
+        <v>562</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>582</v>
+        <v>563</v>
       </c>
       <c r="C9" s="0" t="s">
+        <v>562</v>
+      </c>
+      <c r="D9" s="0" t="s">
         <v>583</v>
       </c>
-      <c r="D9" s="0" t="s">
-        <v>570</v>
-      </c>
       <c r="E9" s="0" t="s">
-        <v>564</v>
+        <v>584</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>566</v>
+        <v>599</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
       <c r="J9" s="0" t="s">
         <v>91</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
-        <v>9</v>
+      <c r="A10" s="0" t="s">
+        <v>562</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>582</v>
+        <v>563</v>
       </c>
       <c r="C10" s="0" t="s">
+        <v>562</v>
+      </c>
+      <c r="D10" s="0" t="s">
         <v>583</v>
       </c>
-      <c r="D10" s="0" t="s">
-        <v>601</v>
-      </c>
       <c r="E10" s="0" t="s">
-        <v>91</v>
+        <v>584</v>
       </c>
       <c r="F10" s="0" t="s">
         <v>602</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>566</v>
+        <v>603</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>604</v>
+        <v>592</v>
       </c>
       <c r="J10" s="0" t="s">
         <v>91</v>
@@ -8904,388 +9068,1753 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
-        <v>10</v>
+      <c r="A11" s="0" t="s">
+        <v>562</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>582</v>
+        <v>606</v>
       </c>
       <c r="C11" s="0" t="s">
+        <v>562</v>
+      </c>
+      <c r="D11" s="0" t="s">
         <v>583</v>
       </c>
-      <c r="D11" s="0" t="s">
-        <v>601</v>
-      </c>
       <c r="E11" s="0" t="s">
+        <v>566</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>607</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>608</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>609</v>
+      </c>
+      <c r="I11" s="0" t="s">
+        <v>592</v>
+      </c>
+      <c r="J11" s="0" t="s">
+        <v>610</v>
+      </c>
+      <c r="K11" s="0" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>562</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>606</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>562</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>583</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>566</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>611</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>612</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>613</v>
+      </c>
+      <c r="I12" s="0" t="s">
+        <v>592</v>
+      </c>
+      <c r="J12" s="0" t="s">
+        <v>614</v>
+      </c>
+      <c r="K12" s="0" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>562</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>606</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>562</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>583</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>566</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>615</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>616</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>617</v>
+      </c>
+      <c r="I13" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="F11" s="0" t="s">
+      <c r="J13" s="0" t="s">
+        <v>618</v>
+      </c>
+      <c r="K13" s="0" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>562</v>
+      </c>
+      <c r="B14" s="0" t="s">
         <v>606</v>
       </c>
-      <c r="G11" s="0" t="s">
+      <c r="C14" s="0" t="s">
+        <v>562</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>571</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>619</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>620</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>621</v>
+      </c>
+      <c r="I14" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="J14" s="0" t="s">
+        <v>622</v>
+      </c>
+      <c r="K14" s="0" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>562</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>606</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>562</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>571</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>623</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>624</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>625</v>
+      </c>
+      <c r="I15" s="0" t="s">
+        <v>592</v>
+      </c>
+      <c r="J15" s="0" t="s">
+        <v>626</v>
+      </c>
+      <c r="K15" s="0" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>562</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>606</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>562</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>571</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>627</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>628</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>629</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>630</v>
+      </c>
+      <c r="I16" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="J16" s="0" t="s">
+        <v>631</v>
+      </c>
+      <c r="K16" s="0" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>562</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>606</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>562</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>571</v>
+      </c>
+      <c r="E17" s="0" t="s">
         <v>566</v>
       </c>
-      <c r="H11" s="0" t="s">
+      <c r="F17" s="0" t="s">
+        <v>632</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>633</v>
+      </c>
+      <c r="H17" s="0" t="s">
+        <v>634</v>
+      </c>
+      <c r="I17" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="J17" s="0" t="s">
+        <v>635</v>
+      </c>
+      <c r="K17" s="0" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>562</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>606</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>562</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>636</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>566</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>637</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>638</v>
+      </c>
+      <c r="H18" s="0" t="s">
+        <v>639</v>
+      </c>
+      <c r="I18" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="J18" s="0" t="s">
+        <v>640</v>
+      </c>
+      <c r="K18" s="0" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>562</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>563</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>562</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>636</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>641</v>
+      </c>
+      <c r="G19" s="0" t="s">
         <v>517</v>
       </c>
-      <c r="I11" s="0" t="s">
+      <c r="H19" s="0" t="s">
         <v>518</v>
-      </c>
-      <c r="J11" s="0" t="s">
-        <v>607</v>
-      </c>
-      <c r="K11" s="0" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>582</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>583</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>601</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>564</v>
-      </c>
-      <c r="F12" s="0" t="s">
-        <v>609</v>
-      </c>
-      <c r="G12" s="0" t="s">
-        <v>566</v>
-      </c>
-      <c r="H12" s="0" t="s">
-        <v>610</v>
-      </c>
-      <c r="I12" s="0" t="s">
-        <v>611</v>
-      </c>
-      <c r="J12" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="K12" s="0" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>582</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>583</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>613</v>
-      </c>
-      <c r="E13" s="0" t="s">
-        <v>564</v>
-      </c>
-      <c r="F13" s="0" t="s">
-        <v>614</v>
-      </c>
-      <c r="G13" s="0" t="s">
-        <v>566</v>
-      </c>
-      <c r="H13" s="0" t="s">
-        <v>615</v>
-      </c>
-      <c r="I13" s="0" t="s">
-        <v>616</v>
-      </c>
-      <c r="J13" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="K13" s="0" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>618</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>583</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="E14" s="0" t="s">
-        <v>619</v>
-      </c>
-      <c r="F14" s="0" t="s">
-        <v>459</v>
-      </c>
-      <c r="G14" s="0" t="s">
-        <v>566</v>
-      </c>
-      <c r="H14" s="0" t="s">
-        <v>620</v>
-      </c>
-      <c r="I14" s="0" t="s">
-        <v>532</v>
-      </c>
-      <c r="J14" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="K14" s="0" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>618</v>
-      </c>
-      <c r="C15" s="0" t="s">
-        <v>583</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="E15" s="0" t="s">
-        <v>619</v>
-      </c>
-      <c r="F15" s="0" t="s">
-        <v>622</v>
-      </c>
-      <c r="G15" s="0" t="s">
-        <v>566</v>
-      </c>
-      <c r="H15" s="0" t="s">
-        <v>623</v>
-      </c>
-      <c r="I15" s="0" t="s">
-        <v>624</v>
-      </c>
-      <c r="J15" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="K15" s="0" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="B16" s="0" t="s">
-        <v>561</v>
-      </c>
-      <c r="C16" s="0" t="s">
-        <v>583</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>563</v>
-      </c>
-      <c r="E16" s="0" t="s">
-        <v>619</v>
-      </c>
-      <c r="F16" s="0" t="s">
-        <v>626</v>
-      </c>
-      <c r="G16" s="0" t="s">
-        <v>566</v>
-      </c>
-      <c r="H16" s="0" t="s">
-        <v>627</v>
-      </c>
-      <c r="I16" s="0" t="s">
-        <v>628</v>
-      </c>
-      <c r="J16" s="0" t="s">
-        <v>478</v>
-      </c>
-      <c r="K16" s="0" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="B17" s="0" t="s">
-        <v>618</v>
-      </c>
-      <c r="C17" s="0" t="s">
-        <v>583</v>
-      </c>
-      <c r="D17" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="E17" s="0" t="s">
-        <v>564</v>
-      </c>
-      <c r="F17" s="0" t="s">
-        <v>630</v>
-      </c>
-      <c r="G17" s="0" t="s">
-        <v>566</v>
-      </c>
-      <c r="H17" s="0" t="s">
-        <v>631</v>
-      </c>
-      <c r="I17" s="0" t="s">
-        <v>632</v>
-      </c>
-      <c r="J17" s="0" t="s">
-        <v>385</v>
-      </c>
-      <c r="K17" s="0" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
-        <v>17</v>
-      </c>
-      <c r="B18" s="0" t="s">
-        <v>618</v>
-      </c>
-      <c r="C18" s="0" t="s">
-        <v>583</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="E18" s="0" t="s">
-        <v>564</v>
-      </c>
-      <c r="F18" s="0" t="s">
-        <v>634</v>
-      </c>
-      <c r="G18" s="0" t="s">
-        <v>566</v>
-      </c>
-      <c r="H18" s="0" t="s">
-        <v>635</v>
-      </c>
-      <c r="I18" s="0" t="s">
-        <v>636</v>
-      </c>
-      <c r="J18" s="0" t="s">
-        <v>416</v>
-      </c>
-      <c r="K18" s="0" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="B19" s="0" t="s">
-        <v>638</v>
-      </c>
-      <c r="C19" s="0" t="s">
-        <v>583</v>
-      </c>
-      <c r="D19" s="0" t="s">
-        <v>613</v>
-      </c>
-      <c r="E19" s="0" t="s">
-        <v>639</v>
-      </c>
-      <c r="F19" s="0" t="s">
-        <v>640</v>
-      </c>
-      <c r="G19" s="0" t="s">
-        <v>566</v>
-      </c>
-      <c r="H19" s="0" t="s">
-        <v>641</v>
       </c>
       <c r="I19" s="0" t="s">
         <v>642</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>52</v>
+        <v>643</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>643</v>
+        <v>562</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
-        <v>19</v>
+      <c r="A20" s="0" t="s">
+        <v>562</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>618</v>
+        <v>606</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>583</v>
+        <v>562</v>
       </c>
       <c r="D20" s="0" t="s">
+        <v>636</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>566</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>644</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>645</v>
+      </c>
+      <c r="H20" s="0" t="s">
+        <v>646</v>
+      </c>
+      <c r="I20" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="E20" s="0" t="s">
-        <v>644</v>
-      </c>
-      <c r="F20" s="0" t="s">
-        <v>544</v>
-      </c>
-      <c r="G20" s="0" t="s">
-        <v>566</v>
-      </c>
-      <c r="H20" s="0" t="s">
-        <v>546</v>
-      </c>
-      <c r="I20" s="0" t="s">
-        <v>547</v>
-      </c>
       <c r="J20" s="0" t="s">
-        <v>548</v>
+        <v>647</v>
       </c>
       <c r="K20" s="0" t="s">
-        <v>645</v>
+        <v>562</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="n">
-        <v>20</v>
+      <c r="A21" s="0" t="s">
+        <v>562</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>618</v>
+        <v>648</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>583</v>
+        <v>562</v>
       </c>
       <c r="D21" s="0" t="s">
         <v>91</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>644</v>
+        <v>649</v>
       </c>
       <c r="F21" s="0" t="s">
+        <v>459</v>
+      </c>
+      <c r="G21" s="0" t="s">
+        <v>650</v>
+      </c>
+      <c r="H21" s="0" t="s">
+        <v>532</v>
+      </c>
+      <c r="I21" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="J21" s="0" t="s">
+        <v>651</v>
+      </c>
+      <c r="K21" s="0" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>562</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>648</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>562</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>649</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>652</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>653</v>
+      </c>
+      <c r="H22" s="0" t="s">
+        <v>654</v>
+      </c>
+      <c r="I22" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="J22" s="0" t="s">
+        <v>655</v>
+      </c>
+      <c r="K22" s="0" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>562</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>563</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>562</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>565</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>649</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>656</v>
+      </c>
+      <c r="G23" s="0" t="s">
+        <v>657</v>
+      </c>
+      <c r="H23" s="0" t="s">
+        <v>658</v>
+      </c>
+      <c r="I23" s="0" t="s">
+        <v>478</v>
+      </c>
+      <c r="J23" s="0" t="s">
+        <v>659</v>
+      </c>
+      <c r="K23" s="0" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>562</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>648</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>562</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>566</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>660</v>
+      </c>
+      <c r="G24" s="0" t="s">
+        <v>661</v>
+      </c>
+      <c r="H24" s="0" t="s">
+        <v>662</v>
+      </c>
+      <c r="I24" s="0" t="s">
+        <v>385</v>
+      </c>
+      <c r="J24" s="0" t="s">
+        <v>663</v>
+      </c>
+      <c r="K24" s="0" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>562</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>648</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>562</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>566</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>664</v>
+      </c>
+      <c r="G25" s="0" t="s">
+        <v>665</v>
+      </c>
+      <c r="H25" s="0" t="s">
+        <v>666</v>
+      </c>
+      <c r="I25" s="0" t="s">
+        <v>416</v>
+      </c>
+      <c r="J25" s="0" t="s">
+        <v>667</v>
+      </c>
+      <c r="K25" s="0" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>562</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>648</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>562</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>668</v>
+      </c>
+      <c r="F26" s="0" t="s">
+        <v>544</v>
+      </c>
+      <c r="G26" s="0" t="s">
+        <v>546</v>
+      </c>
+      <c r="H26" s="0" t="s">
+        <v>547</v>
+      </c>
+      <c r="I26" s="0" t="s">
+        <v>548</v>
+      </c>
+      <c r="J26" s="0" t="s">
+        <v>669</v>
+      </c>
+      <c r="K26" s="0" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>562</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>648</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>562</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>668</v>
+      </c>
+      <c r="F27" s="0" t="s">
         <v>114</v>
       </c>
-      <c r="G21" s="0" t="s">
+      <c r="G27" s="0" t="s">
+        <v>552</v>
+      </c>
+      <c r="H27" s="0" t="s">
+        <v>553</v>
+      </c>
+      <c r="I27" s="0" t="s">
+        <v>554</v>
+      </c>
+      <c r="J27" s="0" t="s">
+        <v>670</v>
+      </c>
+      <c r="K27" s="0" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>671</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>563</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>564</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>565</v>
+      </c>
+      <c r="E28" s="0" t="s">
         <v>566</v>
       </c>
-      <c r="H21" s="0" t="s">
-        <v>552</v>
-      </c>
-      <c r="I21" s="0" t="s">
-        <v>553</v>
-      </c>
-      <c r="J21" s="0" t="s">
-        <v>554</v>
-      </c>
-      <c r="K21" s="0" t="s">
-        <v>646</v>
+      <c r="F28" s="0" t="s">
+        <v>672</v>
+      </c>
+      <c r="G28" s="0" t="s">
+        <v>568</v>
+      </c>
+      <c r="H28" s="0" t="s">
+        <v>569</v>
+      </c>
+      <c r="I28" s="0" t="s">
+        <v>478</v>
+      </c>
+      <c r="J28" s="0" t="s">
+        <v>570</v>
+      </c>
+      <c r="K28" s="0" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>671</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>563</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>564</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>565</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>566</v>
+      </c>
+      <c r="F29" s="0" t="s">
+        <v>673</v>
+      </c>
+      <c r="G29" s="0" t="s">
+        <v>568</v>
+      </c>
+      <c r="H29" s="0" t="s">
+        <v>569</v>
+      </c>
+      <c r="I29" s="0" t="s">
+        <v>478</v>
+      </c>
+      <c r="J29" s="0" t="s">
+        <v>570</v>
+      </c>
+      <c r="K29" s="0" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>671</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>563</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>564</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>565</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>566</v>
+      </c>
+      <c r="F30" s="0" t="s">
+        <v>674</v>
+      </c>
+      <c r="G30" s="0" t="s">
+        <v>568</v>
+      </c>
+      <c r="H30" s="0" t="s">
+        <v>569</v>
+      </c>
+      <c r="I30" s="0" t="s">
+        <v>478</v>
+      </c>
+      <c r="J30" s="0" t="s">
+        <v>570</v>
+      </c>
+      <c r="K30" s="0" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>671</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>563</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>564</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>571</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="F31" s="0" t="s">
+        <v>675</v>
+      </c>
+      <c r="G31" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="H31" s="0" t="s">
+        <v>573</v>
+      </c>
+      <c r="I31" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="J31" s="0" t="s">
+        <v>574</v>
+      </c>
+      <c r="K31" s="0" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>671</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>563</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>564</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>571</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="F32" s="0" t="s">
+        <v>676</v>
+      </c>
+      <c r="G32" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="H32" s="0" t="s">
+        <v>573</v>
+      </c>
+      <c r="I32" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="J32" s="0" t="s">
+        <v>574</v>
+      </c>
+      <c r="K32" s="0" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>671</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>563</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>564</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>571</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="F33" s="0" t="s">
+        <v>677</v>
+      </c>
+      <c r="G33" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="H33" s="0" t="s">
+        <v>573</v>
+      </c>
+      <c r="I33" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="J33" s="0" t="s">
+        <v>574</v>
+      </c>
+      <c r="K33" s="0" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>671</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>563</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>564</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>571</v>
+      </c>
+      <c r="E34" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="F34" s="0" t="s">
+        <v>678</v>
+      </c>
+      <c r="G34" s="0" t="s">
+        <v>580</v>
+      </c>
+      <c r="H34" s="0" t="s">
+        <v>581</v>
+      </c>
+      <c r="I34" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="J34" s="0" t="s">
+        <v>582</v>
+      </c>
+      <c r="K34" s="0" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>671</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>563</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>564</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>571</v>
+      </c>
+      <c r="E35" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="F35" s="0" t="s">
+        <v>679</v>
+      </c>
+      <c r="G35" s="0" t="s">
+        <v>580</v>
+      </c>
+      <c r="H35" s="0" t="s">
+        <v>581</v>
+      </c>
+      <c r="I35" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="J35" s="0" t="s">
+        <v>582</v>
+      </c>
+      <c r="K35" s="0" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>671</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>563</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>564</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>571</v>
+      </c>
+      <c r="E36" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="F36" s="0" t="s">
+        <v>680</v>
+      </c>
+      <c r="G36" s="0" t="s">
+        <v>580</v>
+      </c>
+      <c r="H36" s="0" t="s">
+        <v>581</v>
+      </c>
+      <c r="I36" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="J36" s="0" t="s">
+        <v>582</v>
+      </c>
+      <c r="K36" s="0" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>671</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>606</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>562</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>571</v>
+      </c>
+      <c r="E37" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="F37" s="0" t="s">
+        <v>681</v>
+      </c>
+      <c r="G37" s="0" t="s">
+        <v>620</v>
+      </c>
+      <c r="H37" s="0" t="s">
+        <v>621</v>
+      </c>
+      <c r="I37" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="J37" s="0" t="s">
+        <v>682</v>
+      </c>
+      <c r="K37" s="0" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>671</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>606</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>562</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>571</v>
+      </c>
+      <c r="E38" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="F38" s="0" t="s">
+        <v>683</v>
+      </c>
+      <c r="G38" s="0" t="s">
+        <v>620</v>
+      </c>
+      <c r="H38" s="0" t="s">
+        <v>621</v>
+      </c>
+      <c r="I38" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="J38" s="0" t="s">
+        <v>682</v>
+      </c>
+      <c r="K38" s="0" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>671</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>606</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>562</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>571</v>
+      </c>
+      <c r="E39" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="F39" s="0" t="s">
+        <v>684</v>
+      </c>
+      <c r="G39" s="0" t="s">
+        <v>620</v>
+      </c>
+      <c r="H39" s="0" t="s">
+        <v>621</v>
+      </c>
+      <c r="I39" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="J39" s="0" t="s">
+        <v>682</v>
+      </c>
+      <c r="K39" s="0" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>671</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>606</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>562</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>571</v>
+      </c>
+      <c r="E40" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="F40" s="0" t="s">
+        <v>685</v>
+      </c>
+      <c r="G40" s="0" t="s">
+        <v>624</v>
+      </c>
+      <c r="H40" s="0" t="s">
+        <v>625</v>
+      </c>
+      <c r="I40" s="0" t="s">
+        <v>592</v>
+      </c>
+      <c r="J40" s="0" t="s">
+        <v>626</v>
+      </c>
+      <c r="K40" s="0" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>671</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>606</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>562</v>
+      </c>
+      <c r="D41" s="0" t="s">
+        <v>571</v>
+      </c>
+      <c r="E41" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="F41" s="0" t="s">
+        <v>686</v>
+      </c>
+      <c r="G41" s="0" t="s">
+        <v>624</v>
+      </c>
+      <c r="H41" s="0" t="s">
+        <v>625</v>
+      </c>
+      <c r="I41" s="0" t="s">
+        <v>592</v>
+      </c>
+      <c r="J41" s="0" t="s">
+        <v>626</v>
+      </c>
+      <c r="K41" s="0" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>671</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>606</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>562</v>
+      </c>
+      <c r="D42" s="0" t="s">
+        <v>571</v>
+      </c>
+      <c r="E42" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="F42" s="0" t="s">
+        <v>687</v>
+      </c>
+      <c r="G42" s="0" t="s">
+        <v>624</v>
+      </c>
+      <c r="H42" s="0" t="s">
+        <v>625</v>
+      </c>
+      <c r="I42" s="0" t="s">
+        <v>592</v>
+      </c>
+      <c r="J42" s="0" t="s">
+        <v>626</v>
+      </c>
+      <c r="K42" s="0" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>671</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>606</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>562</v>
+      </c>
+      <c r="D43" s="0" t="s">
+        <v>571</v>
+      </c>
+      <c r="E43" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="F43" s="0" t="s">
+        <v>688</v>
+      </c>
+      <c r="G43" s="0" t="s">
+        <v>620</v>
+      </c>
+      <c r="H43" s="0" t="s">
+        <v>621</v>
+      </c>
+      <c r="I43" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="J43" s="0" t="s">
+        <v>622</v>
+      </c>
+      <c r="K43" s="0" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>671</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>606</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>562</v>
+      </c>
+      <c r="D44" s="0" t="s">
+        <v>571</v>
+      </c>
+      <c r="E44" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="F44" s="0" t="s">
+        <v>689</v>
+      </c>
+      <c r="G44" s="0" t="s">
+        <v>620</v>
+      </c>
+      <c r="H44" s="0" t="s">
+        <v>621</v>
+      </c>
+      <c r="I44" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="J44" s="0" t="s">
+        <v>622</v>
+      </c>
+      <c r="K44" s="0" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
+        <v>671</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>606</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>562</v>
+      </c>
+      <c r="D45" s="0" t="s">
+        <v>571</v>
+      </c>
+      <c r="E45" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="F45" s="0" t="s">
+        <v>690</v>
+      </c>
+      <c r="G45" s="0" t="s">
+        <v>620</v>
+      </c>
+      <c r="H45" s="0" t="s">
+        <v>621</v>
+      </c>
+      <c r="I45" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="J45" s="0" t="s">
+        <v>622</v>
+      </c>
+      <c r="K45" s="0" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
+        <v>671</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>563</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>562</v>
+      </c>
+      <c r="D46" s="0" t="s">
+        <v>583</v>
+      </c>
+      <c r="E46" s="0" t="s">
+        <v>584</v>
+      </c>
+      <c r="F46" s="0" t="s">
+        <v>691</v>
+      </c>
+      <c r="G46" s="0" t="s">
+        <v>586</v>
+      </c>
+      <c r="H46" s="0" t="s">
+        <v>587</v>
+      </c>
+      <c r="I46" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="J46" s="0" t="s">
+        <v>588</v>
+      </c>
+      <c r="K46" s="0" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
+        <v>671</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>563</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>562</v>
+      </c>
+      <c r="D47" s="0" t="s">
+        <v>583</v>
+      </c>
+      <c r="E47" s="0" t="s">
+        <v>584</v>
+      </c>
+      <c r="F47" s="0" t="s">
+        <v>692</v>
+      </c>
+      <c r="G47" s="0" t="s">
+        <v>586</v>
+      </c>
+      <c r="H47" s="0" t="s">
+        <v>587</v>
+      </c>
+      <c r="I47" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="J47" s="0" t="s">
+        <v>588</v>
+      </c>
+      <c r="K47" s="0" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>671</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>563</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>562</v>
+      </c>
+      <c r="D48" s="0" t="s">
+        <v>583</v>
+      </c>
+      <c r="E48" s="0" t="s">
+        <v>584</v>
+      </c>
+      <c r="F48" s="0" t="s">
+        <v>693</v>
+      </c>
+      <c r="G48" s="0" t="s">
+        <v>586</v>
+      </c>
+      <c r="H48" s="0" t="s">
+        <v>587</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J48" s="0" t="s">
+        <v>588</v>
+      </c>
+      <c r="K48" s="0" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
+        <v>671</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>563</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>562</v>
+      </c>
+      <c r="D49" s="0" t="s">
+        <v>583</v>
+      </c>
+      <c r="E49" s="0" t="s">
+        <v>584</v>
+      </c>
+      <c r="F49" s="0" t="s">
+        <v>694</v>
+      </c>
+      <c r="G49" s="0" t="s">
+        <v>586</v>
+      </c>
+      <c r="H49" s="0" t="s">
+        <v>587</v>
+      </c>
+      <c r="I49" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="J49" s="0" t="s">
+        <v>588</v>
+      </c>
+      <c r="K49" s="0" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
+        <v>671</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>606</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>562</v>
+      </c>
+      <c r="D50" s="0" t="s">
+        <v>583</v>
+      </c>
+      <c r="E50" s="0" t="s">
+        <v>566</v>
+      </c>
+      <c r="F50" s="0" t="s">
+        <v>695</v>
+      </c>
+      <c r="G50" s="0" t="s">
+        <v>696</v>
+      </c>
+      <c r="H50" s="0" t="s">
+        <v>697</v>
+      </c>
+      <c r="I50" s="0" t="s">
+        <v>592</v>
+      </c>
+      <c r="J50" s="0" t="s">
+        <v>614</v>
+      </c>
+      <c r="K50" s="0" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
+        <v>671</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>606</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>562</v>
+      </c>
+      <c r="D51" s="0" t="s">
+        <v>583</v>
+      </c>
+      <c r="E51" s="0" t="s">
+        <v>566</v>
+      </c>
+      <c r="F51" s="0" t="s">
+        <v>698</v>
+      </c>
+      <c r="G51" s="0" t="s">
+        <v>696</v>
+      </c>
+      <c r="H51" s="0" t="s">
+        <v>697</v>
+      </c>
+      <c r="I51" s="0" t="s">
+        <v>592</v>
+      </c>
+      <c r="J51" s="0" t="s">
+        <v>614</v>
+      </c>
+      <c r="K51" s="0" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="s">
+        <v>671</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>606</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>562</v>
+      </c>
+      <c r="D52" s="0" t="s">
+        <v>583</v>
+      </c>
+      <c r="E52" s="0" t="s">
+        <v>566</v>
+      </c>
+      <c r="F52" s="0" t="s">
+        <v>699</v>
+      </c>
+      <c r="G52" s="0" t="s">
+        <v>696</v>
+      </c>
+      <c r="H52" s="0" t="s">
+        <v>697</v>
+      </c>
+      <c r="I52" s="0" t="s">
+        <v>592</v>
+      </c>
+      <c r="J52" s="0" t="s">
+        <v>614</v>
+      </c>
+      <c r="K52" s="0" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="s">
+        <v>671</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>606</v>
+      </c>
+      <c r="C53" s="0" t="s">
+        <v>562</v>
+      </c>
+      <c r="D53" s="0" t="s">
+        <v>583</v>
+      </c>
+      <c r="E53" s="0" t="s">
+        <v>566</v>
+      </c>
+      <c r="F53" s="0" t="s">
+        <v>700</v>
+      </c>
+      <c r="G53" s="0" t="s">
+        <v>701</v>
+      </c>
+      <c r="H53" s="0" t="s">
+        <v>702</v>
+      </c>
+      <c r="I53" s="0" t="s">
+        <v>592</v>
+      </c>
+      <c r="J53" s="0" t="s">
+        <v>610</v>
+      </c>
+      <c r="K53" s="0" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="s">
+        <v>671</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>606</v>
+      </c>
+      <c r="C54" s="0" t="s">
+        <v>562</v>
+      </c>
+      <c r="D54" s="0" t="s">
+        <v>583</v>
+      </c>
+      <c r="E54" s="0" t="s">
+        <v>566</v>
+      </c>
+      <c r="F54" s="0" t="s">
+        <v>703</v>
+      </c>
+      <c r="G54" s="0" t="s">
+        <v>701</v>
+      </c>
+      <c r="H54" s="0" t="s">
+        <v>702</v>
+      </c>
+      <c r="I54" s="0" t="s">
+        <v>592</v>
+      </c>
+      <c r="J54" s="0" t="s">
+        <v>610</v>
+      </c>
+      <c r="K54" s="0" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="s">
+        <v>671</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>606</v>
+      </c>
+      <c r="C55" s="0" t="s">
+        <v>562</v>
+      </c>
+      <c r="D55" s="0" t="s">
+        <v>583</v>
+      </c>
+      <c r="E55" s="0" t="s">
+        <v>566</v>
+      </c>
+      <c r="F55" s="0" t="s">
+        <v>704</v>
+      </c>
+      <c r="G55" s="0" t="s">
+        <v>701</v>
+      </c>
+      <c r="H55" s="0" t="s">
+        <v>702</v>
+      </c>
+      <c r="I55" s="0" t="s">
+        <v>592</v>
+      </c>
+      <c r="J55" s="0" t="s">
+        <v>610</v>
+      </c>
+      <c r="K55" s="0" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="s">
+        <v>671</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>563</v>
+      </c>
+      <c r="C56" s="0" t="s">
+        <v>562</v>
+      </c>
+      <c r="D56" s="0" t="s">
+        <v>636</v>
+      </c>
+      <c r="E56" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="F56" s="0" t="s">
+        <v>705</v>
+      </c>
+      <c r="G56" s="0" t="s">
+        <v>706</v>
+      </c>
+      <c r="H56" s="0" t="s">
+        <v>518</v>
+      </c>
+      <c r="I56" s="0" t="s">
+        <v>642</v>
+      </c>
+      <c r="J56" s="0" t="s">
+        <v>643</v>
+      </c>
+      <c r="K56" s="0" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="s">
+        <v>671</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>606</v>
+      </c>
+      <c r="C57" s="0" t="s">
+        <v>562</v>
+      </c>
+      <c r="D57" s="0" t="s">
+        <v>636</v>
+      </c>
+      <c r="E57" s="0" t="s">
+        <v>566</v>
+      </c>
+      <c r="F57" s="0" t="s">
+        <v>707</v>
+      </c>
+      <c r="G57" s="0" t="s">
+        <v>708</v>
+      </c>
+      <c r="H57" s="0" t="s">
+        <v>709</v>
+      </c>
+      <c r="I57" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="J57" s="0" t="s">
+        <v>710</v>
+      </c>
+      <c r="K57" s="0" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="s">
+        <v>671</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>606</v>
+      </c>
+      <c r="C58" s="0" t="s">
+        <v>562</v>
+      </c>
+      <c r="D58" s="0" t="s">
+        <v>636</v>
+      </c>
+      <c r="E58" s="0" t="s">
+        <v>566</v>
+      </c>
+      <c r="F58" s="0" t="s">
+        <v>711</v>
+      </c>
+      <c r="G58" s="0" t="s">
+        <v>712</v>
+      </c>
+      <c r="H58" s="0" t="s">
+        <v>713</v>
+      </c>
+      <c r="I58" s="0" t="s">
+        <v>592</v>
+      </c>
+      <c r="J58" s="0" t="s">
+        <v>714</v>
+      </c>
+      <c r="K58" s="0" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="s">
+        <v>671</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>606</v>
+      </c>
+      <c r="C59" s="0" t="s">
+        <v>562</v>
+      </c>
+      <c r="D59" s="0" t="s">
+        <v>636</v>
+      </c>
+      <c r="E59" s="0" t="s">
+        <v>566</v>
+      </c>
+      <c r="F59" s="0" t="s">
+        <v>715</v>
+      </c>
+      <c r="G59" s="0" t="s">
+        <v>716</v>
+      </c>
+      <c r="H59" s="0" t="s">
+        <v>717</v>
+      </c>
+      <c r="I59" s="0" t="s">
+        <v>592</v>
+      </c>
+      <c r="J59" s="0" t="s">
+        <v>718</v>
+      </c>
+      <c r="K59" s="0" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="s">
+        <v>671</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>648</v>
+      </c>
+      <c r="C60" s="0" t="s">
+        <v>562</v>
+      </c>
+      <c r="D60" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="E60" s="0" t="s">
+        <v>566</v>
+      </c>
+      <c r="F60" s="0" t="s">
+        <v>719</v>
+      </c>
+      <c r="G60" s="0" t="s">
+        <v>720</v>
+      </c>
+      <c r="H60" s="0" t="s">
+        <v>721</v>
+      </c>
+      <c r="I60" s="0" t="s">
+        <v>416</v>
+      </c>
+      <c r="J60" s="0" t="s">
+        <v>722</v>
+      </c>
+      <c r="K60" s="0" t="s">
+        <v>601</v>
       </c>
     </row>
   </sheetData>

--- a/inst/doc/files/parameterization.xlsx
+++ b/inst/doc/files/parameterization.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="climate" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,7 +15,7 @@
     <sheet name="indicators" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">parameters!$A$1:$R$102</definedName>
+    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">parameters!$A$1:$V$102</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">parameters!$A$1:$R$102</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">parameters!$A$1:$R$102</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">parameters!$A$1:$R$102</definedName>
@@ -55,6 +55,7 @@
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">parameters!$A$1:$R$102</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">parameters!$A$1:$R$102</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">parameters!$A$1:$R$102</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">parameters!$A$1:$R$102</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
 </workbook>
@@ -2603,8 +2604,8 @@
   </sheetPr>
   <dimension ref="A1:V102"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P8" activeCellId="0" sqref="P8"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="S1" activeCellId="0" sqref="S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.15"/>
@@ -8034,7 +8035,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R102"/>
+  <autoFilter ref="A1:V102"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -8918,7 +8919,7 @@
   </sheetPr>
   <dimension ref="1:85"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A36" activeCellId="0" sqref="A36"/>
     </sheetView>
   </sheetViews>

--- a/inst/doc/files/parameterization.xlsx
+++ b/inst/doc/files/parameterization.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="climate" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,8 +15,8 @@
     <sheet name="indicators" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">parameters!$A$1:$V$102</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">parameters!$A$1:$R$102</definedName>
+    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">parameters!$A$1:$R$102</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">parameters!$A$1:$V$102</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">parameters!$A$1:$R$102</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">parameters!$A$1:$R$102</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">parameters!$A$1:$R$102</definedName>
@@ -56,13 +56,14 @@
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">parameters!$A$1:$R$102</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">parameters!$A$1:$R$102</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">parameters!$A$1:$R$102</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">parameters!$A$1:$R$102</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2077" uniqueCount="753">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2077" uniqueCount="754">
   <si>
     <t>name.rsunflo.fr</t>
   </si>
@@ -130,1387 +131,1390 @@
     <t>Evapotranspiration de référence</t>
   </si>
   <si>
+    <t>Reference evapotranspiration (Penman-Monteith)</t>
+  </si>
+  <si>
+    <t>mm</t>
+  </si>
+  <si>
+    <t>RR</t>
+  </si>
+  <si>
+    <t>Rainfall</t>
+  </si>
+  <si>
+    <t>Précipitations</t>
+  </si>
+  <si>
+    <t>rankID</t>
+  </si>
+  <si>
+    <t>cID</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>category.en</t>
+  </si>
+  <si>
+    <t>condition</t>
+  </si>
+  <si>
+    <t>module</t>
+  </si>
+  <si>
+    <t>name.vle</t>
+  </si>
+  <si>
+    <t>name.rsunflo.en</t>
+  </si>
+  <si>
+    <t>reference</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>method</t>
+  </si>
+  <si>
+    <t>template.default</t>
+  </si>
+  <si>
+    <t>template.gem</t>
+  </si>
+  <si>
+    <t>template.simple</t>
+  </si>
+  <si>
+    <t>count</t>
+  </si>
+  <si>
+    <t>need</t>
+  </si>
+  <si>
+    <t>optimization</t>
+  </si>
+  <si>
+    <t>Variete</t>
+  </si>
+  <si>
+    <t>Genotype</t>
+  </si>
+  <si>
+    <t>CONFIG_Variete</t>
+  </si>
+  <si>
+    <t>Phenology</t>
+  </si>
+  <si>
+    <t>date_TT_E1</t>
+  </si>
+  <si>
+    <t>TDE1</t>
+  </si>
+  <si>
+    <t>ThermalTimeVegetative</t>
+  </si>
+  <si>
+    <t>Durée de la phase levée (A2) - initiation florale (E1)</t>
+  </si>
+  <si>
+    <t>Temperature sum to floral initiation</t>
+  </si>
+  <si>
+    <t>$°C.d$</t>
+  </si>
+  <si>
+    <t>[@Lecoeur2011]</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>date_TT_F1</t>
+  </si>
+  <si>
+    <t>TDF1</t>
+  </si>
+  <si>
+    <t>ThermalTimeFlowering</t>
+  </si>
+  <si>
+    <t>Durée de la phase levée (A2) - floraison (F1)</t>
+  </si>
+  <si>
+    <t>Temperature sum from emergence to the beginning of flowering</t>
+  </si>
+  <si>
+    <t>date_TT_M0</t>
+  </si>
+  <si>
+    <t>TDM0</t>
+  </si>
+  <si>
+    <t>ThermalTimeSenescence</t>
+  </si>
+  <si>
+    <t>Durée de la phase levée (A2) - debut maturité (M0)</t>
+  </si>
+  <si>
+    <t>Temperature sum from emergence to the beginning of grain filling</t>
+  </si>
+  <si>
+    <t>date_TT_M3</t>
+  </si>
+  <si>
+    <t>TDM3</t>
+  </si>
+  <si>
+    <t>ThermalTimeMaturity</t>
+  </si>
+  <si>
+    <t>Durée de la phase levée (A2) - maturité (M3)</t>
+  </si>
+  <si>
+    <t>Temperature sum from emergence to seed physiological maturity</t>
+  </si>
+  <si>
+    <t>LeafArea</t>
+  </si>
+  <si>
+    <t>TLN</t>
+  </si>
+  <si>
+    <t>PotentialLeafNumber</t>
+  </si>
+  <si>
+    <t>Nombre de feuille potentiel</t>
+  </si>
+  <si>
+    <t>Potential number of leaves at flowering</t>
+  </si>
+  <si>
+    <t>$leaf$</t>
+  </si>
+  <si>
+    <t>bSF</t>
+  </si>
+  <si>
+    <t>LLH</t>
+  </si>
+  <si>
+    <t>PotentialLeafProfile</t>
+  </si>
+  <si>
+    <t>Rang de la plus grande feuille du profil à la floraison</t>
+  </si>
+  <si>
+    <t>Potential rank of the plant largest leaf at flowering</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>cSF</t>
+  </si>
+  <si>
+    <t>LLS</t>
+  </si>
+  <si>
+    <t>PotentialLeafSize</t>
+  </si>
+  <si>
+    <t>Surface de la plus grande feuille du profil à la floraison</t>
+  </si>
+  <si>
+    <t>Potential area of the plant largest leaf at flowering</t>
+  </si>
+  <si>
+    <t>$cm^{-2}$</t>
+  </si>
+  <si>
+    <t>ext</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>ExtinctionCoefficient</t>
+  </si>
+  <si>
+    <t>Coefficient d’extinction du rayonnement lors de la phase végétative (E1-F1)</t>
+  </si>
+  <si>
+    <t>Light extinction coefficient during vegetative growth</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>a_LE</t>
+  </si>
+  <si>
+    <t>LE</t>
+  </si>
+  <si>
+    <t>WaterResponseExpansion</t>
+  </si>
+  <si>
+    <t>Seuil de réponse de l'expansion foliaire à une contrainte hydrique</t>
+  </si>
+  <si>
+    <t>Threshold for leaf expansion response to water stress</t>
+  </si>
+  <si>
+    <t>[@Casadebaig2008]</t>
+  </si>
+  <si>
+    <t>a_TR</t>
+  </si>
+  <si>
+    <t>TR</t>
+  </si>
+  <si>
+    <t>WaterResponseConductance</t>
+  </si>
+  <si>
+    <t>Seuil de réponse de la conductance stomatique à une contrainte hydrique</t>
+  </si>
+  <si>
+    <t>Threshold for stomatal conductance response to water stress</t>
+  </si>
+  <si>
+    <t>PHS</t>
+  </si>
+  <si>
+    <t>PotentialPhotosynthesis</t>
+  </si>
+  <si>
+    <t>Capacité photosynthétique relative à la variete Melody</t>
+  </si>
+  <si>
+    <t>Potential photosynthesis capacity</t>
+  </si>
+  <si>
+    <t>IRg</t>
+  </si>
+  <si>
+    <t>HI</t>
+  </si>
+  <si>
+    <t>PotentialHarvestIndex</t>
+  </si>
+  <si>
+    <t>Indice de récolte potentiel</t>
+  </si>
+  <si>
+    <t>Potential harvest index</t>
+  </si>
+  <si>
+    <t>[@Casadebaig2011]</t>
+  </si>
+  <si>
+    <t>thp</t>
+  </si>
+  <si>
+    <t>OC</t>
+  </si>
+  <si>
+    <t>PotentialOilContent</t>
+  </si>
+  <si>
+    <t>Teneur en huile dans l’akène en conditions potentielles</t>
+  </si>
+  <si>
+    <t>Potential seed oil content</t>
+  </si>
+  <si>
+    <t>$\% dry_matter$</t>
+  </si>
+  <si>
+    <t>Pedoclimat</t>
+  </si>
+  <si>
+    <t>Environment</t>
+  </si>
+  <si>
+    <t>CONFIG_ClimatNomFichier</t>
+  </si>
+  <si>
+    <t>datas_file</t>
+  </si>
+  <si>
+    <t>meteo</t>
+  </si>
+  <si>
+    <t>file</t>
+  </si>
+  <si>
+    <t>Nom du fichier climatique</t>
+  </si>
+  <si>
+    <t>Climate file path</t>
+  </si>
+  <si>
+    <t>AUZ_2006.txt</t>
+  </si>
+  <si>
+    <t>CONFIG_Sol</t>
+  </si>
+  <si>
+    <t>profondeur</t>
+  </si>
+  <si>
+    <t>root_depth</t>
+  </si>
+  <si>
+    <t>RootingDepth</t>
+  </si>
+  <si>
+    <t>Profondeur d'enracinement maximale</t>
+  </si>
+  <si>
+    <t>Potential rooting depth</t>
+  </si>
+  <si>
+    <t>$mm$</t>
+  </si>
+  <si>
+    <t>Hcc_C1</t>
+  </si>
+  <si>
+    <t>hcc1</t>
+  </si>
+  <si>
+    <t>field_capacity_1</t>
+  </si>
+  <si>
+    <t>SoilWaterCapacity</t>
+  </si>
+  <si>
+    <t>Humidité massique à la capacité au champ dans l'horizon de surface (0 - 30 cm)</t>
+  </si>
+  <si>
+    <t>Water content at field capacity (0-30 cm)</t>
+  </si>
+  <si>
+    <t>$\%$</t>
+  </si>
+  <si>
+    <t>Hpf_C1</t>
+  </si>
+  <si>
+    <t>hpf1</t>
+  </si>
+  <si>
+    <t>wilting_point_1</t>
+  </si>
+  <si>
+    <t>Humidité massique au point de flétrissement dans l'horizon de surface (0 - 30 cm)</t>
+  </si>
+  <si>
+    <t>Water content at wilting point (0-30cm)</t>
+  </si>
+  <si>
+    <t>Hcc_C2</t>
+  </si>
+  <si>
+    <t>hcc2</t>
+  </si>
+  <si>
+    <t>field_capacity_2</t>
+  </si>
+  <si>
+    <t>Humidité massique à la capacité au champ dans l'horizon inférieur (30 cm - profondeur)</t>
+  </si>
+  <si>
+    <t>Water content at field capacity (30 cm-rooting depth)</t>
+  </si>
+  <si>
+    <t>Hpf_C2</t>
+  </si>
+  <si>
+    <t>hpf2</t>
+  </si>
+  <si>
+    <t>wilting_point_2</t>
+  </si>
+  <si>
+    <t>Humidité massique au point de flétrissement dans l'horizon inférieur (30 cm - profondeur)</t>
+  </si>
+  <si>
+    <t>Water content at wilting point (30 cm-rooting depth)</t>
+  </si>
+  <si>
+    <t>da_C1</t>
+  </si>
+  <si>
+    <t>da1</t>
+  </si>
+  <si>
+    <t>soil_density_1</t>
+  </si>
+  <si>
+    <t>SoilDensity</t>
+  </si>
+  <si>
+    <t>Densité apparente du sol dans l'horizon de surface (0 - 30 cm)</t>
+  </si>
+  <si>
+    <t>Soil bulk density (0-30cm)</t>
+  </si>
+  <si>
+    <t>$g.cm^{-3}$</t>
+  </si>
+  <si>
+    <t>da_C2</t>
+  </si>
+  <si>
+    <t>da2</t>
+  </si>
+  <si>
+    <t>soil_density_2</t>
+  </si>
+  <si>
+    <t>Densité apparente du sol dans l'horizon inférieur (30 cm - profondeur)</t>
+  </si>
+  <si>
+    <t>Soil bulk density (30 cm-rooting depth)</t>
+  </si>
+  <si>
+    <t>TC</t>
+  </si>
+  <si>
+    <t>cailloux</t>
+  </si>
+  <si>
+    <t>stone_content</t>
+  </si>
+  <si>
+    <t>StoneContent</t>
+  </si>
+  <si>
+    <t>Taux de cailloux</t>
+  </si>
+  <si>
+    <t>Stone content (0-rooting depth)</t>
+  </si>
+  <si>
+    <t>$[0,1]$</t>
+  </si>
+  <si>
+    <t>Vp</t>
+  </si>
+  <si>
+    <t>mineralisation</t>
+  </si>
+  <si>
+    <t>mineralization</t>
+  </si>
+  <si>
+    <t>MineralizationRate</t>
+  </si>
+  <si>
+    <t>Vitesse potentielle de minéralisation</t>
+  </si>
+  <si>
+    <t>Potential nitrogen mineralization rate</t>
+  </si>
+  <si>
+    <t>$kg.ha^{-1}.day^{-1} (normalized)$</t>
+  </si>
+  <si>
+    <t>[@Vale2007]</t>
+  </si>
+  <si>
+    <t>Fpf</t>
+  </si>
+  <si>
+    <t>Valeur au point de flétrissement de la fonction "humidité" pour la minéralisation</t>
+  </si>
+  <si>
+    <t>Conduite</t>
+  </si>
+  <si>
+    <t>Management</t>
+  </si>
+  <si>
+    <t>CONFIG_Conduite</t>
+  </si>
+  <si>
+    <t>jsemis</t>
+  </si>
+  <si>
+    <t>semis</t>
+  </si>
+  <si>
+    <t>crop_sowing</t>
+  </si>
+  <si>
+    <t>SowingDate</t>
+  </si>
+  <si>
+    <t>Date de semis</t>
+  </si>
+  <si>
+    <t>Sowing date</t>
+  </si>
+  <si>
+    <t>$date (dd/mm)$</t>
+  </si>
+  <si>
+    <t>jrecolte</t>
+  </si>
+  <si>
+    <t>recolte</t>
+  </si>
+  <si>
+    <t>crop_harvest</t>
+  </si>
+  <si>
+    <t>HarvestDate</t>
+  </si>
+  <si>
+    <t>Date de récolte</t>
+  </si>
+  <si>
+    <t>Harvest date</t>
+  </si>
+  <si>
+    <t>zSemis</t>
+  </si>
+  <si>
+    <t>semis_profondeur</t>
+  </si>
+  <si>
+    <t>crop_sowing_depth</t>
+  </si>
+  <si>
+    <t>SowingDepth</t>
+  </si>
+  <si>
+    <t>Profondeur de semis</t>
+  </si>
+  <si>
+    <t>Sowing depth</t>
+  </si>
+  <si>
+    <t>densite</t>
+  </si>
+  <si>
+    <t>crop_density</t>
+  </si>
+  <si>
+    <t>SowingDensity</t>
+  </si>
+  <si>
+    <t>Densité du peuplement à la levée</t>
+  </si>
+  <si>
+    <t>Plant density</t>
+  </si>
+  <si>
+    <t>$plant.m^{-2}$</t>
+  </si>
+  <si>
+    <t>date_ferti_1</t>
+  </si>
+  <si>
+    <t>azote_date1</t>
+  </si>
+  <si>
+    <t>nitrogen_date_1</t>
+  </si>
+  <si>
+    <t>Fertilization</t>
+  </si>
+  <si>
+    <t>Fertilisation (date 1)</t>
+  </si>
+  <si>
+    <t>Fertilization (date 1)</t>
+  </si>
+  <si>
+    <t>apport_ferti_1</t>
+  </si>
+  <si>
+    <t>azote_dose1</t>
+  </si>
+  <si>
+    <t>nitrogen_dose_1</t>
+  </si>
+  <si>
+    <t>Fertilisation (dose 1)</t>
+  </si>
+  <si>
+    <t>Fertilization (amount 1)</t>
+  </si>
+  <si>
+    <t>$kg.ha^{-1}$ eq. mineral nitrogen</t>
+  </si>
+  <si>
+    <t>date_ferti_2</t>
+  </si>
+  <si>
+    <t>azote_date2</t>
+  </si>
+  <si>
+    <t>nitrogen_date_2</t>
+  </si>
+  <si>
+    <t>Fertilisation (date 2)</t>
+  </si>
+  <si>
+    <t>Fertilization (date 2)</t>
+  </si>
+  <si>
+    <t>apport_ferti_2</t>
+  </si>
+  <si>
+    <t>azote_dose2</t>
+  </si>
+  <si>
+    <t>nitrogen_dose_2</t>
+  </si>
+  <si>
+    <t>Fertilisation (dose 2)</t>
+  </si>
+  <si>
+    <t>Fertilization (amount 2)</t>
+  </si>
+  <si>
+    <t>date_ferti_3</t>
+  </si>
+  <si>
+    <t>azote_date3</t>
+  </si>
+  <si>
+    <t>nitrogen_date_3</t>
+  </si>
+  <si>
+    <t>Fertilisation (date 3)</t>
+  </si>
+  <si>
+    <t>Fertilization (date 3)</t>
+  </si>
+  <si>
+    <t>apport_ferti_3</t>
+  </si>
+  <si>
+    <t>azote_dose3</t>
+  </si>
+  <si>
+    <t>nitrogen_dose_3</t>
+  </si>
+  <si>
+    <t>Fertilisation (dose 3)</t>
+  </si>
+  <si>
+    <t>Fertilization (amount 3)</t>
+  </si>
+  <si>
+    <t>date_ferti_4</t>
+  </si>
+  <si>
+    <t>azote_date4</t>
+  </si>
+  <si>
+    <t>nitrogen_date_4</t>
+  </si>
+  <si>
+    <t>Fertilisation (date 4)</t>
+  </si>
+  <si>
+    <t>Fertilization (date 4)</t>
+  </si>
+  <si>
+    <t>apport_ferti_4</t>
+  </si>
+  <si>
+    <t>azote_dose4</t>
+  </si>
+  <si>
+    <t>nitrogen_dose_4</t>
+  </si>
+  <si>
+    <t>Fertilisation (dose 4)</t>
+  </si>
+  <si>
+    <t>Fertilization (amount 4)</t>
+  </si>
+  <si>
+    <t>date_irrig_1</t>
+  </si>
+  <si>
+    <t>eau_date1</t>
+  </si>
+  <si>
+    <t>water_date_1</t>
+  </si>
+  <si>
+    <t>Irrigation</t>
+  </si>
+  <si>
+    <t>Irrigation (date 1)</t>
+  </si>
+  <si>
+    <t>apport_irrig_1</t>
+  </si>
+  <si>
+    <t>eau_dose1</t>
+  </si>
+  <si>
+    <t>water_dose_1</t>
+  </si>
+  <si>
+    <t>Irrigation (dose 1)</t>
+  </si>
+  <si>
+    <t>Irrigation (amount 1)</t>
+  </si>
+  <si>
+    <t>date_irrig_2</t>
+  </si>
+  <si>
+    <t>eau_date2</t>
+  </si>
+  <si>
+    <t>water_date_2</t>
+  </si>
+  <si>
+    <t>Irrigation (date 2)</t>
+  </si>
+  <si>
+    <t>apport_irrig_2</t>
+  </si>
+  <si>
+    <t>eau_dose2</t>
+  </si>
+  <si>
+    <t>water_dose_2</t>
+  </si>
+  <si>
+    <t>Irrigation (dose 2)</t>
+  </si>
+  <si>
+    <t>Irrigation (amount 2)</t>
+  </si>
+  <si>
+    <t>date_irrig_3</t>
+  </si>
+  <si>
+    <t>eau_date3</t>
+  </si>
+  <si>
+    <t>water_date_3</t>
+  </si>
+  <si>
+    <t>Irrigation (date 3)</t>
+  </si>
+  <si>
+    <t>apport_irrig_3</t>
+  </si>
+  <si>
+    <t>eau_dose3</t>
+  </si>
+  <si>
+    <t>water_dose_3</t>
+  </si>
+  <si>
+    <t>Irrigation (dose 3)</t>
+  </si>
+  <si>
+    <t>Irrigation (amount 3)</t>
+  </si>
+  <si>
+    <t>date_irrig_4</t>
+  </si>
+  <si>
+    <t>eau_date4</t>
+  </si>
+  <si>
+    <t>water_date_4</t>
+  </si>
+  <si>
+    <t>Irrigation (date 4)</t>
+  </si>
+  <si>
+    <t>apport_irrig_4</t>
+  </si>
+  <si>
+    <t>eau_dose4</t>
+  </si>
+  <si>
+    <t>water_dose_4</t>
+  </si>
+  <si>
+    <t>Irrigation (dose 4)</t>
+  </si>
+  <si>
+    <t>Irrigation (amount 4)</t>
+  </si>
+  <si>
+    <t>date_irrig_5</t>
+  </si>
+  <si>
+    <t>eau_date5</t>
+  </si>
+  <si>
+    <t>water_date_5</t>
+  </si>
+  <si>
+    <t>Irrigation (date 5)</t>
+  </si>
+  <si>
+    <t>apport_irrig_5</t>
+  </si>
+  <si>
+    <t>eau_dose5</t>
+  </si>
+  <si>
+    <t>water_dose_5</t>
+  </si>
+  <si>
+    <t>Irrigation (dose 5)</t>
+  </si>
+  <si>
+    <t>Irrigation (amount 5)</t>
+  </si>
+  <si>
+    <t>date_irrig_6</t>
+  </si>
+  <si>
+    <t>eau_date6</t>
+  </si>
+  <si>
+    <t>water_date_6</t>
+  </si>
+  <si>
+    <t>Irrigation (date 6)</t>
+  </si>
+  <si>
+    <t>apport_irrig_6</t>
+  </si>
+  <si>
+    <t>eau_dose6</t>
+  </si>
+  <si>
+    <t>water_dose_6</t>
+  </si>
+  <si>
+    <t>Irrigation (dose 6)</t>
+  </si>
+  <si>
+    <t>Irrigation (amount 6)</t>
+  </si>
+  <si>
+    <t>Initialisation</t>
+  </si>
+  <si>
+    <t>Initialization</t>
+  </si>
+  <si>
+    <t>begin</t>
+  </si>
+  <si>
+    <t>Date de début de la simulation</t>
+  </si>
+  <si>
+    <t>$date (dd/mm/aaaa)$</t>
+  </si>
+  <si>
+    <t>duration</t>
+  </si>
+  <si>
+    <t>Durée de la simulation</t>
+  </si>
+  <si>
+    <t>$day$</t>
+  </si>
+  <si>
+    <t>CONFIG_SimuInit</t>
+  </si>
+  <si>
+    <t>dateLevee_casForcee</t>
+  </si>
+  <si>
+    <t>levee</t>
+  </si>
+  <si>
+    <t>crop_emergence</t>
+  </si>
+  <si>
+    <t>Date de levée forcée, simulée pour valeur = 01/01</t>
+  </si>
+  <si>
+    <t>rh1</t>
+  </si>
+  <si>
+    <t>ninit1</t>
+  </si>
+  <si>
+    <t>nitrogen_initial_1</t>
+  </si>
+  <si>
+    <t>Reliquats azotés dans l'horizon de surface (0 - 30 cm)</t>
+  </si>
+  <si>
+    <t>rh2</t>
+  </si>
+  <si>
+    <t>ninit2</t>
+  </si>
+  <si>
+    <t>nitrogen_initial_2</t>
+  </si>
+  <si>
+    <t>Reliquats azotés dans l'horizon inférieur (30 cm - profondeur)</t>
+  </si>
+  <si>
+    <t>Hini_C1</t>
+  </si>
+  <si>
+    <t>hinit1</t>
+  </si>
+  <si>
+    <t>water_initial_1</t>
+  </si>
+  <si>
+    <t>Humidité massique initiale dans l'horizon de surface  (0 - 30 cm)</t>
+  </si>
+  <si>
+    <t>Hini_C2</t>
+  </si>
+  <si>
+    <t>hinit2</t>
+  </si>
+  <si>
+    <t>water_initial_2</t>
+  </si>
+  <si>
+    <t>Humidité massique initiale dans l'horizon inférieur  (30 cm - profondeur)</t>
+  </si>
+  <si>
+    <t>zC1</t>
+  </si>
+  <si>
+    <t>Profondeur de l'horizon de surface</t>
+  </si>
+  <si>
+    <t>Espece</t>
+  </si>
+  <si>
+    <t>Species</t>
+  </si>
+  <si>
+    <t>CONFIG_Plante</t>
+  </si>
+  <si>
+    <t>Tbase</t>
+  </si>
+  <si>
+    <t>Température de base pour les processus de croissance et développement</t>
+  </si>
+  <si>
+    <t>$°C$</t>
+  </si>
+  <si>
+    <t>[@Granier1998]</t>
+  </si>
+  <si>
+    <t>date_TT_germination</t>
+  </si>
+  <si>
+    <t>Germination</t>
+  </si>
+  <si>
+    <t>Durée de la phase de germination</t>
+  </si>
+  <si>
+    <t>Temperature sum from sowing to germination</t>
+  </si>
+  <si>
+    <t>Phy1</t>
+  </si>
+  <si>
+    <t>Phyllotherm_1</t>
+  </si>
+  <si>
+    <t>Phyllotherme pour les 6 premières feuilles</t>
+  </si>
+  <si>
+    <t>Phyllotherm (leaf &lt;= 6)</t>
+  </si>
+  <si>
+    <t>[@Rey2003]</t>
+  </si>
+  <si>
+    <t>Phy2</t>
+  </si>
+  <si>
+    <t>Phyllotherm_7</t>
+  </si>
+  <si>
+    <t>Phyllotherme pour les feuilles au dela du 6eme rang</t>
+  </si>
+  <si>
+    <t>Phyllotherm (leaf &gt; 7)</t>
+  </si>
+  <si>
+    <t>zRac_max</t>
+  </si>
+  <si>
+    <t>Profondeur d'enracinement maximale de l'espèce</t>
+  </si>
+  <si>
+    <t>[@Casadebaig2008b]</t>
+  </si>
+  <si>
+    <t>AP_a</t>
+  </si>
+  <si>
+    <t>Ajustement de l'effet de la contrainte hydrique sur la phénologie</t>
+  </si>
+  <si>
+    <t>LAI_a</t>
+  </si>
+  <si>
+    <t>Date thermique de fin d'expansion de la troisième paire de feuilles</t>
+  </si>
+  <si>
+    <t>LAI_b</t>
+  </si>
+  <si>
+    <t>Ajustement du calcul des dates thermique de demi-expansion des feuilles</t>
+  </si>
+  <si>
+    <t>LAI_c</t>
+  </si>
+  <si>
+    <t>Valeur de l'asymptote de la fonction de la durée de vie des feuilles en fonction du rang sur la tige</t>
+  </si>
+  <si>
+    <t>LAI_d</t>
+  </si>
+  <si>
+    <t>PotentialLeafDuration</t>
+  </si>
+  <si>
+    <t>Valeur du maximum de la fonction de la durée de vie des feuilles en fonction du rang sur la tige</t>
+  </si>
+  <si>
+    <t>Thermal time between expansion and senescence</t>
+  </si>
+  <si>
+    <t>LAI_e</t>
+  </si>
+  <si>
+    <t>Abscisse du maximum de la fonction de la durée de vie des feuilles (relatif à la position de la plus grande feuille)</t>
+  </si>
+  <si>
+    <t>LAI_f</t>
+  </si>
+  <si>
+    <t>Valeur de l'amplitude de la fonction de la durée de vie des feuilles en fonction du rang sur la tige</t>
+  </si>
+  <si>
+    <t>LAI_Kei</t>
+  </si>
+  <si>
+    <t>Pente de la logistique représentant l'expansion et la senescence foliaire</t>
+  </si>
+  <si>
+    <t>Eb_0</t>
+  </si>
+  <si>
+    <t>Valeur initiale (0-300°Cj) de l'efficience biologique potentielle</t>
+  </si>
+  <si>
+    <t>$g.MJ^{-1}.m^{-2}$</t>
+  </si>
+  <si>
+    <t>Eb_c</t>
+  </si>
+  <si>
+    <t>Pente de la décroissance de l'efficience biologique potentielle en fin de cycle (M0 - M3)</t>
+  </si>
+  <si>
+    <t>Eb_fin</t>
+  </si>
+  <si>
+    <t>Valeur de l'efficience biologique potentielle en fin de cycle (M3)</t>
+  </si>
+  <si>
+    <t>Eb_max</t>
+  </si>
+  <si>
+    <t>Valeur du plateau d'efficience biologique potentielle (F1-M0)</t>
+  </si>
+  <si>
+    <t>Tmax_PHS</t>
+  </si>
+  <si>
+    <t>Température maximale pour la réponse de la capacité photosynthétique</t>
+  </si>
+  <si>
+    <t>Topt1_PHS</t>
+  </si>
+  <si>
+    <t>Température optimale minimale pour la réponse de la capacité photosynthétique</t>
+  </si>
+  <si>
+    <t>Topt2_PHS</t>
+  </si>
+  <si>
+    <t>Température optimale maximale pour la réponse de la capacité photosynthétique</t>
+  </si>
+  <si>
+    <t>a_Pho</t>
+  </si>
+  <si>
+    <t>Décalage entre le seuil de réponse de la transpiration et celui de la photosynthèse</t>
+  </si>
+  <si>
+    <t>date_TT_F1M0</t>
+  </si>
+  <si>
+    <t>Durée de la phase de floraison utilisée dans le calcul d'indicateurs</t>
+  </si>
+  <si>
+    <t>AA_a</t>
+  </si>
+  <si>
+    <t>Ajustement du transport actif de nitrate dans la plante</t>
+  </si>
+  <si>
+    <t>EXPERT_Plante</t>
+  </si>
+  <si>
+    <t>PNCc_a</t>
+  </si>
+  <si>
+    <t>Teneur en azote critique de la biomasse aerienne au seuil de biomasse juvénile</t>
+  </si>
+  <si>
+    <t>[@Debaeke2012a]</t>
+  </si>
+  <si>
+    <t>PNCc_b</t>
+  </si>
+  <si>
+    <t>Décroissance de la courbe de dilution pour la teneur en azote critique</t>
+  </si>
+  <si>
+    <t>PNCm_a</t>
+  </si>
+  <si>
+    <t>Teneur en azote maximale de la biomasse aerienne au seuil de biomasse juvénile</t>
+  </si>
+  <si>
+    <t>PNCm_b</t>
+  </si>
+  <si>
+    <t>Décroissance de la courbe de dilution pour la teneur en azote maximale</t>
+  </si>
+  <si>
+    <t>TDMc_seuil</t>
+  </si>
+  <si>
+    <t>Seuil de biomasse aerienne au stade juvénile considéré pour la courbe de dilution d'azote critique</t>
+  </si>
+  <si>
+    <t>$g.m^{-2}$</t>
+  </si>
+  <si>
+    <t>TDMm_seuil</t>
+  </si>
+  <si>
+    <t>Seuil de biomasse aerienne au stade juvénile considéré pour la courbe de dilution d'azote maximal</t>
+  </si>
+  <si>
+    <t>INNseuil</t>
+  </si>
+  <si>
+    <t>Indice de nutrition azoté minimum considéré dans la réponse de la croissance foliaire</t>
+  </si>
+  <si>
+    <t>[@Brisson2008]</t>
+  </si>
+  <si>
+    <t>FNLEm</t>
+  </si>
+  <si>
+    <t>Valeur minimale de la fonction de réponse de la croissance foliaire à l'azote</t>
+  </si>
+  <si>
+    <t>VitCroiRac</t>
+  </si>
+  <si>
+    <t>Vitesse de croissance racinaire</t>
+  </si>
+  <si>
+    <t>$mm.Cd{^-1}$</t>
+  </si>
+  <si>
+    <t>EXPERT_SimuInit</t>
+  </si>
+  <si>
+    <t>SeuilETRETM</t>
+  </si>
+  <si>
+    <t>Seuil de ratio ETR/ETM considéré dans le calcul d'indicateur de contrainte hydrique</t>
+  </si>
+  <si>
+    <t>Kc</t>
+  </si>
+  <si>
+    <t>Coefficient cultural utilisé pour calculer l'évapotranspiration potentielle</t>
+  </si>
+  <si>
+    <t>dHE</t>
+  </si>
+  <si>
+    <t>ElongationRate</t>
+  </si>
+  <si>
+    <t>Réciproque de la vitesse d'élongation de l'hypocotyle</t>
+  </si>
+  <si>
+    <t>Reciprocal of hypocotyl elongation rate</t>
+  </si>
+  <si>
+    <t>$°Cd.mm^{-1}$</t>
+  </si>
+  <si>
+    <t>[@Villalobos1996]</t>
+  </si>
+  <si>
+    <t>Simulation</t>
+  </si>
+  <si>
+    <t>Software</t>
+  </si>
+  <si>
+    <t>zCondClimat</t>
+  </si>
+  <si>
+    <t>columns</t>
+  </si>
+  <si>
+    <t>day_column</t>
+  </si>
+  <si>
+    <t>mode</t>
+  </si>
+  <si>
+    <t>month_column</t>
+  </si>
+  <si>
+    <t>time-step</t>
+  </si>
+  <si>
+    <t>variables</t>
+  </si>
+  <si>
+    <t>year_column</t>
+  </si>
+  <si>
+    <t>zCondEqDiff_sunflo</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>ThermalTime</t>
+  </si>
+  <si>
+    <t>LeafInitiationTime</t>
+  </si>
+  <si>
+    <t>LeafExpansionTime</t>
+  </si>
+  <si>
+    <t>LeafSenescenceTime</t>
+  </si>
+  <si>
+    <t>LeafNumber</t>
+  </si>
+  <si>
+    <t>LeafExpansionRate</t>
+  </si>
+  <si>
+    <t>LeafSenescenceRate</t>
+  </si>
+  <si>
+    <t>CropInterception</t>
+  </si>
+  <si>
+    <t>PlantLeafArea</t>
+  </si>
+  <si>
+    <t>LAI</t>
+  </si>
+  <si>
+    <t>RIE</t>
+  </si>
+  <si>
+    <t>CropBiomass</t>
+  </si>
+  <si>
+    <t>RUE</t>
+  </si>
+  <si>
+    <t>package</t>
+  </si>
+  <si>
+    <t>model</t>
+  </si>
+  <si>
+    <t>viewDynamic</t>
+  </si>
+  <si>
+    <t>climat</t>
+  </si>
+  <si>
+    <t>lecture</t>
+  </si>
+  <si>
+    <t>Tn</t>
+  </si>
+  <si>
+    <t>Température minimale</t>
+  </si>
+  <si>
+    <t>Tx</t>
+  </si>
+  <si>
+    <t>Température maximale</t>
+  </si>
+  <si>
+    <t>Tmoy</t>
+  </si>
+  <si>
+    <t>TM</t>
+  </si>
+  <si>
+    <t>TemperatureAirMean</t>
+  </si>
+  <si>
+    <t>Température moyenne</t>
+  </si>
+  <si>
+    <t>Mean air temperature</t>
+  </si>
+  <si>
+    <t>RG</t>
+  </si>
+  <si>
+    <t>$MJ.m^{-2}$</t>
+  </si>
+  <si>
+    <t>ETPP</t>
+  </si>
+  <si>
     <t>Reference evapotranspiration</t>
-  </si>
-  <si>
-    <t>mm</t>
-  </si>
-  <si>
-    <t>RR</t>
-  </si>
-  <si>
-    <t>Rainfall</t>
-  </si>
-  <si>
-    <t>Précipitations</t>
-  </si>
-  <si>
-    <t>rankID</t>
-  </si>
-  <si>
-    <t>cID</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>category.en</t>
-  </si>
-  <si>
-    <t>condition</t>
-  </si>
-  <si>
-    <t>module</t>
-  </si>
-  <si>
-    <t>name.vle</t>
-  </si>
-  <si>
-    <t>name.rsunflo.en</t>
-  </si>
-  <si>
-    <t>reference</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>method</t>
-  </si>
-  <si>
-    <t>template.default</t>
-  </si>
-  <si>
-    <t>template.gem</t>
-  </si>
-  <si>
-    <t>template.simple</t>
-  </si>
-  <si>
-    <t>count</t>
-  </si>
-  <si>
-    <t>need</t>
-  </si>
-  <si>
-    <t>optimization</t>
-  </si>
-  <si>
-    <t>Variete</t>
-  </si>
-  <si>
-    <t>Genotype</t>
-  </si>
-  <si>
-    <t>CONFIG_Variete</t>
-  </si>
-  <si>
-    <t>Phenology</t>
-  </si>
-  <si>
-    <t>date_TT_E1</t>
-  </si>
-  <si>
-    <t>TDE1</t>
-  </si>
-  <si>
-    <t>ThermalTimeVegetative</t>
-  </si>
-  <si>
-    <t>Durée de la phase levée (A2) - initiation florale (E1)</t>
-  </si>
-  <si>
-    <t>Temperature sum to floral initiation</t>
-  </si>
-  <si>
-    <t>$°C.d$</t>
-  </si>
-  <si>
-    <t>[@Lecoeur2011]</t>
-  </si>
-  <si>
-    <t>mean</t>
-  </si>
-  <si>
-    <t>date_TT_F1</t>
-  </si>
-  <si>
-    <t>TDF1</t>
-  </si>
-  <si>
-    <t>ThermalTimeFlowering</t>
-  </si>
-  <si>
-    <t>Durée de la phase levée (A2) - floraison (F1)</t>
-  </si>
-  <si>
-    <t>Temperature sum from emergence to the beginning of flowering</t>
-  </si>
-  <si>
-    <t>date_TT_M0</t>
-  </si>
-  <si>
-    <t>TDM0</t>
-  </si>
-  <si>
-    <t>ThermalTimeSenescence</t>
-  </si>
-  <si>
-    <t>Durée de la phase levée (A2) - debut maturité (M0)</t>
-  </si>
-  <si>
-    <t>Temperature sum from emergence to the beginning of grain filling</t>
-  </si>
-  <si>
-    <t>date_TT_M3</t>
-  </si>
-  <si>
-    <t>TDM3</t>
-  </si>
-  <si>
-    <t>ThermalTimeMaturity</t>
-  </si>
-  <si>
-    <t>Durée de la phase levée (A2) - maturité (M3)</t>
-  </si>
-  <si>
-    <t>Temperature sum from emergence to seed physiological maturity</t>
-  </si>
-  <si>
-    <t>LeafArea</t>
-  </si>
-  <si>
-    <t>TLN</t>
-  </si>
-  <si>
-    <t>PotentialLeafNumber</t>
-  </si>
-  <si>
-    <t>Nombre de feuille potentiel</t>
-  </si>
-  <si>
-    <t>Potential number of leaves at flowering</t>
-  </si>
-  <si>
-    <t>$leaf$</t>
-  </si>
-  <si>
-    <t>bSF</t>
-  </si>
-  <si>
-    <t>LLH</t>
-  </si>
-  <si>
-    <t>PotentialLeafProfile</t>
-  </si>
-  <si>
-    <t>Rang de la plus grande feuille du profil à la floraison</t>
-  </si>
-  <si>
-    <t>Potential rank of the plant largest leaf at flowering</t>
-  </si>
-  <si>
-    <t>max</t>
-  </si>
-  <si>
-    <t>cSF</t>
-  </si>
-  <si>
-    <t>LLS</t>
-  </si>
-  <si>
-    <t>PotentialLeafSize</t>
-  </si>
-  <si>
-    <t>Surface de la plus grande feuille du profil à la floraison</t>
-  </si>
-  <si>
-    <t>Potential area of the plant largest leaf at flowering</t>
-  </si>
-  <si>
-    <t>$cm^{-2}$</t>
-  </si>
-  <si>
-    <t>ext</t>
-  </si>
-  <si>
-    <t>K</t>
-  </si>
-  <si>
-    <t>ExtinctionCoefficient</t>
-  </si>
-  <si>
-    <t>Coefficient d’extinction du rayonnement lors de la phase végétative (E1-F1)</t>
-  </si>
-  <si>
-    <t>Light extinction coefficient during vegetative growth</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>a_LE</t>
-  </si>
-  <si>
-    <t>LE</t>
-  </si>
-  <si>
-    <t>WaterResponseExpansion</t>
-  </si>
-  <si>
-    <t>Seuil de réponse de l'expansion foliaire à une contrainte hydrique</t>
-  </si>
-  <si>
-    <t>Threshold for leaf expansion response to water stress</t>
-  </si>
-  <si>
-    <t>[@Casadebaig2008]</t>
-  </si>
-  <si>
-    <t>a_TR</t>
-  </si>
-  <si>
-    <t>TR</t>
-  </si>
-  <si>
-    <t>WaterResponseConductance</t>
-  </si>
-  <si>
-    <t>Seuil de réponse de la conductance stomatique à une contrainte hydrique</t>
-  </si>
-  <si>
-    <t>Threshold for stomatal conductance response to water stress</t>
-  </si>
-  <si>
-    <t>PHS</t>
-  </si>
-  <si>
-    <t>PotentialPhotosynthesis</t>
-  </si>
-  <si>
-    <t>Capacité photosynthétique relative à la variete Melody</t>
-  </si>
-  <si>
-    <t>Potential photosynthesis capacity</t>
-  </si>
-  <si>
-    <t>IRg</t>
-  </si>
-  <si>
-    <t>HI</t>
-  </si>
-  <si>
-    <t>PotentialHarvestIndex</t>
-  </si>
-  <si>
-    <t>Indice de récolte potentiel</t>
-  </si>
-  <si>
-    <t>Potential harvest index</t>
-  </si>
-  <si>
-    <t>[@Casadebaig2011]</t>
-  </si>
-  <si>
-    <t>thp</t>
-  </si>
-  <si>
-    <t>OC</t>
-  </si>
-  <si>
-    <t>PotentialOilContent</t>
-  </si>
-  <si>
-    <t>Teneur en huile dans l’akène en conditions potentielles</t>
-  </si>
-  <si>
-    <t>Potential seed oil content</t>
-  </si>
-  <si>
-    <t>$\% dry_matter$</t>
-  </si>
-  <si>
-    <t>Pedoclimat</t>
-  </si>
-  <si>
-    <t>Environment</t>
-  </si>
-  <si>
-    <t>CONFIG_ClimatNomFichier</t>
-  </si>
-  <si>
-    <t>datas_file</t>
-  </si>
-  <si>
-    <t>meteo</t>
-  </si>
-  <si>
-    <t>file</t>
-  </si>
-  <si>
-    <t>Nom du fichier climatique</t>
-  </si>
-  <si>
-    <t>Climate file path</t>
-  </si>
-  <si>
-    <t>AUZ_2006.txt</t>
-  </si>
-  <si>
-    <t>CONFIG_Sol</t>
-  </si>
-  <si>
-    <t>profondeur</t>
-  </si>
-  <si>
-    <t>root_depth</t>
-  </si>
-  <si>
-    <t>RootingDepth</t>
-  </si>
-  <si>
-    <t>Profondeur d'enracinement maximale</t>
-  </si>
-  <si>
-    <t>Potential rooting depth</t>
-  </si>
-  <si>
-    <t>$mm$</t>
-  </si>
-  <si>
-    <t>Hcc_C1</t>
-  </si>
-  <si>
-    <t>hcc1</t>
-  </si>
-  <si>
-    <t>field_capacity_1</t>
-  </si>
-  <si>
-    <t>SoilWaterCapacity</t>
-  </si>
-  <si>
-    <t>Humidité massique à la capacité au champ dans l'horizon de surface (0 - 30 cm)</t>
-  </si>
-  <si>
-    <t>Water content at field capacity (0-30 cm)</t>
-  </si>
-  <si>
-    <t>$\%$</t>
-  </si>
-  <si>
-    <t>Hpf_C1</t>
-  </si>
-  <si>
-    <t>hpf1</t>
-  </si>
-  <si>
-    <t>wilting_point_1</t>
-  </si>
-  <si>
-    <t>Humidité massique au point de flétrissement dans l'horizon de surface (0 - 30 cm)</t>
-  </si>
-  <si>
-    <t>Water content at wilting point (0-30cm)</t>
-  </si>
-  <si>
-    <t>Hcc_C2</t>
-  </si>
-  <si>
-    <t>hcc2</t>
-  </si>
-  <si>
-    <t>field_capacity_2</t>
-  </si>
-  <si>
-    <t>Humidité massique à la capacité au champ dans l'horizon inférieur (30 cm - profondeur)</t>
-  </si>
-  <si>
-    <t>Water content at field capacity (30 cm-rooting depth)</t>
-  </si>
-  <si>
-    <t>Hpf_C2</t>
-  </si>
-  <si>
-    <t>hpf2</t>
-  </si>
-  <si>
-    <t>wilting_point_2</t>
-  </si>
-  <si>
-    <t>Humidité massique au point de flétrissement dans l'horizon inférieur (30 cm - profondeur)</t>
-  </si>
-  <si>
-    <t>Water content at wilting point (30 cm-rooting depth)</t>
-  </si>
-  <si>
-    <t>da_C1</t>
-  </si>
-  <si>
-    <t>da1</t>
-  </si>
-  <si>
-    <t>soil_density_1</t>
-  </si>
-  <si>
-    <t>SoilDensity</t>
-  </si>
-  <si>
-    <t>Densité apparente du sol dans l'horizon de surface (0 - 30 cm)</t>
-  </si>
-  <si>
-    <t>Soil bulk density (0-30cm)</t>
-  </si>
-  <si>
-    <t>$g.cm^{-3}$</t>
-  </si>
-  <si>
-    <t>da_C2</t>
-  </si>
-  <si>
-    <t>da2</t>
-  </si>
-  <si>
-    <t>soil_density_2</t>
-  </si>
-  <si>
-    <t>Densité apparente du sol dans l'horizon inférieur (30 cm - profondeur)</t>
-  </si>
-  <si>
-    <t>Soil bulk density (30 cm-rooting depth)</t>
-  </si>
-  <si>
-    <t>TC</t>
-  </si>
-  <si>
-    <t>cailloux</t>
-  </si>
-  <si>
-    <t>stone_content</t>
-  </si>
-  <si>
-    <t>StoneContent</t>
-  </si>
-  <si>
-    <t>Taux de cailloux</t>
-  </si>
-  <si>
-    <t>Stone content (0-rooting depth)</t>
-  </si>
-  <si>
-    <t>$[0,1]$</t>
-  </si>
-  <si>
-    <t>Vp</t>
-  </si>
-  <si>
-    <t>mineralisation</t>
-  </si>
-  <si>
-    <t>mineralization</t>
-  </si>
-  <si>
-    <t>MineralizationRate</t>
-  </si>
-  <si>
-    <t>Vitesse potentielle de minéralisation</t>
-  </si>
-  <si>
-    <t>Potential nitrogen mineralization rate</t>
-  </si>
-  <si>
-    <t>$kg.ha^{-1}.day^{-1} (normalized)$</t>
-  </si>
-  <si>
-    <t>[@Vale2007]</t>
-  </si>
-  <si>
-    <t>Fpf</t>
-  </si>
-  <si>
-    <t>Valeur au point de flétrissement de la fonction "humidité" pour la minéralisation</t>
-  </si>
-  <si>
-    <t>Conduite</t>
-  </si>
-  <si>
-    <t>Management</t>
-  </si>
-  <si>
-    <t>CONFIG_Conduite</t>
-  </si>
-  <si>
-    <t>jsemis</t>
-  </si>
-  <si>
-    <t>semis</t>
-  </si>
-  <si>
-    <t>crop_sowing</t>
-  </si>
-  <si>
-    <t>SowingDate</t>
-  </si>
-  <si>
-    <t>Date de semis</t>
-  </si>
-  <si>
-    <t>Sowing date</t>
-  </si>
-  <si>
-    <t>$date (dd/mm)$</t>
-  </si>
-  <si>
-    <t>jrecolte</t>
-  </si>
-  <si>
-    <t>recolte</t>
-  </si>
-  <si>
-    <t>crop_harvest</t>
-  </si>
-  <si>
-    <t>HarvestDate</t>
-  </si>
-  <si>
-    <t>Date de récolte</t>
-  </si>
-  <si>
-    <t>Harvest date</t>
-  </si>
-  <si>
-    <t>zSemis</t>
-  </si>
-  <si>
-    <t>semis_profondeur</t>
-  </si>
-  <si>
-    <t>crop_sowing_depth</t>
-  </si>
-  <si>
-    <t>SowingDepth</t>
-  </si>
-  <si>
-    <t>Profondeur de semis</t>
-  </si>
-  <si>
-    <t>Sowing depth</t>
-  </si>
-  <si>
-    <t>densite</t>
-  </si>
-  <si>
-    <t>crop_density</t>
-  </si>
-  <si>
-    <t>SowingDensity</t>
-  </si>
-  <si>
-    <t>Densité du peuplement à la levée</t>
-  </si>
-  <si>
-    <t>Plant density</t>
-  </si>
-  <si>
-    <t>$plant.m^{-2}$</t>
-  </si>
-  <si>
-    <t>date_ferti_1</t>
-  </si>
-  <si>
-    <t>azote_date1</t>
-  </si>
-  <si>
-    <t>nitrogen_date_1</t>
-  </si>
-  <si>
-    <t>Fertilization</t>
-  </si>
-  <si>
-    <t>Fertilisation (date 1)</t>
-  </si>
-  <si>
-    <t>Fertilization (date 1)</t>
-  </si>
-  <si>
-    <t>apport_ferti_1</t>
-  </si>
-  <si>
-    <t>azote_dose1</t>
-  </si>
-  <si>
-    <t>nitrogen_dose_1</t>
-  </si>
-  <si>
-    <t>Fertilisation (dose 1)</t>
-  </si>
-  <si>
-    <t>Fertilization (amount 1)</t>
-  </si>
-  <si>
-    <t>$kg.ha^{-1}$ eq. mineral nitrogen</t>
-  </si>
-  <si>
-    <t>date_ferti_2</t>
-  </si>
-  <si>
-    <t>azote_date2</t>
-  </si>
-  <si>
-    <t>nitrogen_date_2</t>
-  </si>
-  <si>
-    <t>Fertilisation (date 2)</t>
-  </si>
-  <si>
-    <t>Fertilization (date 2)</t>
-  </si>
-  <si>
-    <t>apport_ferti_2</t>
-  </si>
-  <si>
-    <t>azote_dose2</t>
-  </si>
-  <si>
-    <t>nitrogen_dose_2</t>
-  </si>
-  <si>
-    <t>Fertilisation (dose 2)</t>
-  </si>
-  <si>
-    <t>Fertilization (amount 2)</t>
-  </si>
-  <si>
-    <t>date_ferti_3</t>
-  </si>
-  <si>
-    <t>azote_date3</t>
-  </si>
-  <si>
-    <t>nitrogen_date_3</t>
-  </si>
-  <si>
-    <t>Fertilisation (date 3)</t>
-  </si>
-  <si>
-    <t>Fertilization (date 3)</t>
-  </si>
-  <si>
-    <t>apport_ferti_3</t>
-  </si>
-  <si>
-    <t>azote_dose3</t>
-  </si>
-  <si>
-    <t>nitrogen_dose_3</t>
-  </si>
-  <si>
-    <t>Fertilisation (dose 3)</t>
-  </si>
-  <si>
-    <t>Fertilization (amount 3)</t>
-  </si>
-  <si>
-    <t>date_ferti_4</t>
-  </si>
-  <si>
-    <t>azote_date4</t>
-  </si>
-  <si>
-    <t>nitrogen_date_4</t>
-  </si>
-  <si>
-    <t>Fertilisation (date 4)</t>
-  </si>
-  <si>
-    <t>Fertilization (date 4)</t>
-  </si>
-  <si>
-    <t>apport_ferti_4</t>
-  </si>
-  <si>
-    <t>azote_dose4</t>
-  </si>
-  <si>
-    <t>nitrogen_dose_4</t>
-  </si>
-  <si>
-    <t>Fertilisation (dose 4)</t>
-  </si>
-  <si>
-    <t>Fertilization (amount 4)</t>
-  </si>
-  <si>
-    <t>date_irrig_1</t>
-  </si>
-  <si>
-    <t>eau_date1</t>
-  </si>
-  <si>
-    <t>water_date_1</t>
-  </si>
-  <si>
-    <t>Irrigation</t>
-  </si>
-  <si>
-    <t>Irrigation (date 1)</t>
-  </si>
-  <si>
-    <t>apport_irrig_1</t>
-  </si>
-  <si>
-    <t>eau_dose1</t>
-  </si>
-  <si>
-    <t>water_dose_1</t>
-  </si>
-  <si>
-    <t>Irrigation (dose 1)</t>
-  </si>
-  <si>
-    <t>Irrigation (amount 1)</t>
-  </si>
-  <si>
-    <t>date_irrig_2</t>
-  </si>
-  <si>
-    <t>eau_date2</t>
-  </si>
-  <si>
-    <t>water_date_2</t>
-  </si>
-  <si>
-    <t>Irrigation (date 2)</t>
-  </si>
-  <si>
-    <t>apport_irrig_2</t>
-  </si>
-  <si>
-    <t>eau_dose2</t>
-  </si>
-  <si>
-    <t>water_dose_2</t>
-  </si>
-  <si>
-    <t>Irrigation (dose 2)</t>
-  </si>
-  <si>
-    <t>Irrigation (amount 2)</t>
-  </si>
-  <si>
-    <t>date_irrig_3</t>
-  </si>
-  <si>
-    <t>eau_date3</t>
-  </si>
-  <si>
-    <t>water_date_3</t>
-  </si>
-  <si>
-    <t>Irrigation (date 3)</t>
-  </si>
-  <si>
-    <t>apport_irrig_3</t>
-  </si>
-  <si>
-    <t>eau_dose3</t>
-  </si>
-  <si>
-    <t>water_dose_3</t>
-  </si>
-  <si>
-    <t>Irrigation (dose 3)</t>
-  </si>
-  <si>
-    <t>Irrigation (amount 3)</t>
-  </si>
-  <si>
-    <t>date_irrig_4</t>
-  </si>
-  <si>
-    <t>eau_date4</t>
-  </si>
-  <si>
-    <t>water_date_4</t>
-  </si>
-  <si>
-    <t>Irrigation (date 4)</t>
-  </si>
-  <si>
-    <t>apport_irrig_4</t>
-  </si>
-  <si>
-    <t>eau_dose4</t>
-  </si>
-  <si>
-    <t>water_dose_4</t>
-  </si>
-  <si>
-    <t>Irrigation (dose 4)</t>
-  </si>
-  <si>
-    <t>Irrigation (amount 4)</t>
-  </si>
-  <si>
-    <t>date_irrig_5</t>
-  </si>
-  <si>
-    <t>eau_date5</t>
-  </si>
-  <si>
-    <t>water_date_5</t>
-  </si>
-  <si>
-    <t>Irrigation (date 5)</t>
-  </si>
-  <si>
-    <t>apport_irrig_5</t>
-  </si>
-  <si>
-    <t>eau_dose5</t>
-  </si>
-  <si>
-    <t>water_dose_5</t>
-  </si>
-  <si>
-    <t>Irrigation (dose 5)</t>
-  </si>
-  <si>
-    <t>Irrigation (amount 5)</t>
-  </si>
-  <si>
-    <t>date_irrig_6</t>
-  </si>
-  <si>
-    <t>eau_date6</t>
-  </si>
-  <si>
-    <t>water_date_6</t>
-  </si>
-  <si>
-    <t>Irrigation (date 6)</t>
-  </si>
-  <si>
-    <t>apport_irrig_6</t>
-  </si>
-  <si>
-    <t>eau_dose6</t>
-  </si>
-  <si>
-    <t>water_dose_6</t>
-  </si>
-  <si>
-    <t>Irrigation (dose 6)</t>
-  </si>
-  <si>
-    <t>Irrigation (amount 6)</t>
-  </si>
-  <si>
-    <t>Initialisation</t>
-  </si>
-  <si>
-    <t>Initialization</t>
-  </si>
-  <si>
-    <t>begin</t>
-  </si>
-  <si>
-    <t>Date de début de la simulation</t>
-  </si>
-  <si>
-    <t>$date (dd/mm/aaaa)$</t>
-  </si>
-  <si>
-    <t>duration</t>
-  </si>
-  <si>
-    <t>Durée de la simulation</t>
-  </si>
-  <si>
-    <t>$day$</t>
-  </si>
-  <si>
-    <t>CONFIG_SimuInit</t>
-  </si>
-  <si>
-    <t>dateLevee_casForcee</t>
-  </si>
-  <si>
-    <t>levee</t>
-  </si>
-  <si>
-    <t>crop_emergence</t>
-  </si>
-  <si>
-    <t>Date de levée forcée, simulée pour valeur = 01/01</t>
-  </si>
-  <si>
-    <t>rh1</t>
-  </si>
-  <si>
-    <t>ninit1</t>
-  </si>
-  <si>
-    <t>nitrogen_initial_1</t>
-  </si>
-  <si>
-    <t>Reliquats azotés dans l'horizon de surface (0 - 30 cm)</t>
-  </si>
-  <si>
-    <t>rh2</t>
-  </si>
-  <si>
-    <t>ninit2</t>
-  </si>
-  <si>
-    <t>nitrogen_initial_2</t>
-  </si>
-  <si>
-    <t>Reliquats azotés dans l'horizon inférieur (30 cm - profondeur)</t>
-  </si>
-  <si>
-    <t>Hini_C1</t>
-  </si>
-  <si>
-    <t>hinit1</t>
-  </si>
-  <si>
-    <t>water_initial_1</t>
-  </si>
-  <si>
-    <t>Humidité massique initiale dans l'horizon de surface  (0 - 30 cm)</t>
-  </si>
-  <si>
-    <t>Hini_C2</t>
-  </si>
-  <si>
-    <t>hinit2</t>
-  </si>
-  <si>
-    <t>water_initial_2</t>
-  </si>
-  <si>
-    <t>Humidité massique initiale dans l'horizon inférieur  (30 cm - profondeur)</t>
-  </si>
-  <si>
-    <t>zC1</t>
-  </si>
-  <si>
-    <t>Profondeur de l'horizon de surface</t>
-  </si>
-  <si>
-    <t>Espece</t>
-  </si>
-  <si>
-    <t>Species</t>
-  </si>
-  <si>
-    <t>CONFIG_Plante</t>
-  </si>
-  <si>
-    <t>Tbase</t>
-  </si>
-  <si>
-    <t>Température de base pour les processus de croissance et développement</t>
-  </si>
-  <si>
-    <t>$°C$</t>
-  </si>
-  <si>
-    <t>[@Granier1998]</t>
-  </si>
-  <si>
-    <t>date_TT_germination</t>
-  </si>
-  <si>
-    <t>Germination</t>
-  </si>
-  <si>
-    <t>Durée de la phase de germination</t>
-  </si>
-  <si>
-    <t>Temperature sum from sowing to germination</t>
-  </si>
-  <si>
-    <t>Phy1</t>
-  </si>
-  <si>
-    <t>Phyllotherm_1</t>
-  </si>
-  <si>
-    <t>Phyllotherme pour les 6 premières feuilles</t>
-  </si>
-  <si>
-    <t>Phyllotherm (leaf &lt;= 6)</t>
-  </si>
-  <si>
-    <t>[@Rey2003]</t>
-  </si>
-  <si>
-    <t>Phy2</t>
-  </si>
-  <si>
-    <t>Phyllotherm_7</t>
-  </si>
-  <si>
-    <t>Phyllotherme pour les feuilles au dela du 6eme rang</t>
-  </si>
-  <si>
-    <t>Phyllotherm (leaf &gt; 7)</t>
-  </si>
-  <si>
-    <t>zRac_max</t>
-  </si>
-  <si>
-    <t>Profondeur d'enracinement maximale de l'espèce</t>
-  </si>
-  <si>
-    <t>[@Casadebaig2008b]</t>
-  </si>
-  <si>
-    <t>AP_a</t>
-  </si>
-  <si>
-    <t>Ajustement de l'effet de la contrainte hydrique sur la phénologie</t>
-  </si>
-  <si>
-    <t>LAI_a</t>
-  </si>
-  <si>
-    <t>Date thermique de fin d'expansion de la troisième paire de feuilles</t>
-  </si>
-  <si>
-    <t>LAI_b</t>
-  </si>
-  <si>
-    <t>Ajustement du calcul des dates thermique de demi-expansion des feuilles</t>
-  </si>
-  <si>
-    <t>LAI_c</t>
-  </si>
-  <si>
-    <t>Valeur de l'asymptote de la fonction de la durée de vie des feuilles en fonction du rang sur la tige</t>
-  </si>
-  <si>
-    <t>LAI_d</t>
-  </si>
-  <si>
-    <t>PotentialLeafDuration</t>
-  </si>
-  <si>
-    <t>Valeur du maximum de la fonction de la durée de vie des feuilles en fonction du rang sur la tige</t>
-  </si>
-  <si>
-    <t>Thermal time between expansion and senescence</t>
-  </si>
-  <si>
-    <t>LAI_e</t>
-  </si>
-  <si>
-    <t>Abscisse du maximum de la fonction de la durée de vie des feuilles (relatif à la position de la plus grande feuille)</t>
-  </si>
-  <si>
-    <t>LAI_f</t>
-  </si>
-  <si>
-    <t>Valeur de l'amplitude de la fonction de la durée de vie des feuilles en fonction du rang sur la tige</t>
-  </si>
-  <si>
-    <t>LAI_Kei</t>
-  </si>
-  <si>
-    <t>Pente de la logistique représentant l'expansion et la senescence foliaire</t>
-  </si>
-  <si>
-    <t>Eb_0</t>
-  </si>
-  <si>
-    <t>Valeur initiale (0-300°Cj) de l'efficience biologique potentielle</t>
-  </si>
-  <si>
-    <t>$g.MJ^{-1}.m^{-2}$</t>
-  </si>
-  <si>
-    <t>Eb_c</t>
-  </si>
-  <si>
-    <t>Pente de la décroissance de l'efficience biologique potentielle en fin de cycle (M0 - M3)</t>
-  </si>
-  <si>
-    <t>Eb_fin</t>
-  </si>
-  <si>
-    <t>Valeur de l'efficience biologique potentielle en fin de cycle (M3)</t>
-  </si>
-  <si>
-    <t>Eb_max</t>
-  </si>
-  <si>
-    <t>Valeur du plateau d'efficience biologique potentielle (F1-M0)</t>
-  </si>
-  <si>
-    <t>Tmax_PHS</t>
-  </si>
-  <si>
-    <t>Température maximale pour la réponse de la capacité photosynthétique</t>
-  </si>
-  <si>
-    <t>Topt1_PHS</t>
-  </si>
-  <si>
-    <t>Température optimale minimale pour la réponse de la capacité photosynthétique</t>
-  </si>
-  <si>
-    <t>Topt2_PHS</t>
-  </si>
-  <si>
-    <t>Température optimale maximale pour la réponse de la capacité photosynthétique</t>
-  </si>
-  <si>
-    <t>a_Pho</t>
-  </si>
-  <si>
-    <t>Décalage entre le seuil de réponse de la transpiration et celui de la photosynthèse</t>
-  </si>
-  <si>
-    <t>date_TT_F1M0</t>
-  </si>
-  <si>
-    <t>Durée de la phase de floraison utilisée dans le calcul d'indicateurs</t>
-  </si>
-  <si>
-    <t>AA_a</t>
-  </si>
-  <si>
-    <t>Ajustement du transport actif de nitrate dans la plante</t>
-  </si>
-  <si>
-    <t>EXPERT_Plante</t>
-  </si>
-  <si>
-    <t>PNCc_a</t>
-  </si>
-  <si>
-    <t>Teneur en azote critique de la biomasse aerienne au seuil de biomasse juvénile</t>
-  </si>
-  <si>
-    <t>[@Debaeke2012a]</t>
-  </si>
-  <si>
-    <t>PNCc_b</t>
-  </si>
-  <si>
-    <t>Décroissance de la courbe de dilution pour la teneur en azote critique</t>
-  </si>
-  <si>
-    <t>PNCm_a</t>
-  </si>
-  <si>
-    <t>Teneur en azote maximale de la biomasse aerienne au seuil de biomasse juvénile</t>
-  </si>
-  <si>
-    <t>PNCm_b</t>
-  </si>
-  <si>
-    <t>Décroissance de la courbe de dilution pour la teneur en azote maximale</t>
-  </si>
-  <si>
-    <t>TDMc_seuil</t>
-  </si>
-  <si>
-    <t>Seuil de biomasse aerienne au stade juvénile considéré pour la courbe de dilution d'azote critique</t>
-  </si>
-  <si>
-    <t>$g.m^{-2}$</t>
-  </si>
-  <si>
-    <t>TDMm_seuil</t>
-  </si>
-  <si>
-    <t>Seuil de biomasse aerienne au stade juvénile considéré pour la courbe de dilution d'azote maximal</t>
-  </si>
-  <si>
-    <t>INNseuil</t>
-  </si>
-  <si>
-    <t>Indice de nutrition azoté minimum considéré dans la réponse de la croissance foliaire</t>
-  </si>
-  <si>
-    <t>[@Brisson2008]</t>
-  </si>
-  <si>
-    <t>FNLEm</t>
-  </si>
-  <si>
-    <t>Valeur minimale de la fonction de réponse de la croissance foliaire à l'azote</t>
-  </si>
-  <si>
-    <t>VitCroiRac</t>
-  </si>
-  <si>
-    <t>Vitesse de croissance racinaire</t>
-  </si>
-  <si>
-    <t>$mm.Cd{^-1}$</t>
-  </si>
-  <si>
-    <t>EXPERT_SimuInit</t>
-  </si>
-  <si>
-    <t>SeuilETRETM</t>
-  </si>
-  <si>
-    <t>Seuil de ratio ETR/ETM considéré dans le calcul d'indicateur de contrainte hydrique</t>
-  </si>
-  <si>
-    <t>Kc</t>
-  </si>
-  <si>
-    <t>Coefficient cultural utilisé pour calculer l'évapotranspiration potentielle</t>
-  </si>
-  <si>
-    <t>dHE</t>
-  </si>
-  <si>
-    <t>ElongationRate</t>
-  </si>
-  <si>
-    <t>Réciproque de la vitesse d'élongation de l'hypocotyle</t>
-  </si>
-  <si>
-    <t>Reciprocal of hypocotyl elongation rate</t>
-  </si>
-  <si>
-    <t>$°Cd.mm^{-1}$</t>
-  </si>
-  <si>
-    <t>[@Villalobos1996]</t>
-  </si>
-  <si>
-    <t>Simulation</t>
-  </si>
-  <si>
-    <t>Software</t>
-  </si>
-  <si>
-    <t>zCondClimat</t>
-  </si>
-  <si>
-    <t>columns</t>
-  </si>
-  <si>
-    <t>day_column</t>
-  </si>
-  <si>
-    <t>mode</t>
-  </si>
-  <si>
-    <t>month_column</t>
-  </si>
-  <si>
-    <t>time-step</t>
-  </si>
-  <si>
-    <t>variables</t>
-  </si>
-  <si>
-    <t>year_column</t>
-  </si>
-  <si>
-    <t>zCondEqDiff_sunflo</t>
-  </si>
-  <si>
-    <t>size</t>
-  </si>
-  <si>
-    <t>ThermalTime</t>
-  </si>
-  <si>
-    <t>LeafInitiationTime</t>
-  </si>
-  <si>
-    <t>LeafExpansionTime</t>
-  </si>
-  <si>
-    <t>LeafSenescenceTime</t>
-  </si>
-  <si>
-    <t>LeafNumber</t>
-  </si>
-  <si>
-    <t>LeafExpansionRate</t>
-  </si>
-  <si>
-    <t>LeafSenescenceRate</t>
-  </si>
-  <si>
-    <t>CropInterception</t>
-  </si>
-  <si>
-    <t>PlantLeafArea</t>
-  </si>
-  <si>
-    <t>LAI</t>
-  </si>
-  <si>
-    <t>RIE</t>
-  </si>
-  <si>
-    <t>CropBiomass</t>
-  </si>
-  <si>
-    <t>RUE</t>
-  </si>
-  <si>
-    <t>package</t>
-  </si>
-  <si>
-    <t>model</t>
-  </si>
-  <si>
-    <t>viewDynamic</t>
-  </si>
-  <si>
-    <t>climat</t>
-  </si>
-  <si>
-    <t>lecture</t>
-  </si>
-  <si>
-    <t>Tn</t>
-  </si>
-  <si>
-    <t>Température minimale</t>
-  </si>
-  <si>
-    <t>Tx</t>
-  </si>
-  <si>
-    <t>Température maximale</t>
-  </si>
-  <si>
-    <t>Tmoy</t>
-  </si>
-  <si>
-    <t>TM</t>
-  </si>
-  <si>
-    <t>TemperatureAirMean</t>
-  </si>
-  <si>
-    <t>Température moyenne</t>
-  </si>
-  <si>
-    <t>Mean air temperature</t>
-  </si>
-  <si>
-    <t>RG</t>
-  </si>
-  <si>
-    <t>$MJ.m^{-2}$</t>
-  </si>
-  <si>
-    <t>ETPP</t>
   </si>
   <si>
     <t>Pluie</t>
@@ -2470,17 +2474,17 @@
   </sheetPr>
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.280612244898"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.6224489795918"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.3061224489796"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.1530612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.280612244898"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.719387755102"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.780612244898"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="41.3622448979592"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="12.9591836734694"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2604,29 +2608,29 @@
   </sheetPr>
   <dimension ref="A1:V102"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="S1" activeCellId="0" sqref="S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.69387755102041"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="7.62244897959184"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.2908163265306"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="24.6122448979592"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="20.25"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="16.1377551020408"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="17.5408163265306"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="23.6581632653061"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="90.6581632653061"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="55.3826530612245"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="21.2091836734694"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="18.9234693877551"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="12.8061224489796"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="11.0051020408163"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="15.8826530612245"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="13.5612244897959"/>
-    <col collapsed="false" hidden="false" max="1025" min="19" style="0" width="11.8061224489796"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.63775510204082"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.1989795918367"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="27.719387755102"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="22.6785714285714"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="18.1785714285714"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="19.6173469387755"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="26.6377551020408"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="102.413265306122"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="62.4540816326531"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="23.7602040816327"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="21.4183673469388"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="14.3979591836735"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="1025" min="19" style="0" width="13.3214285714286"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8035,7 +8039,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:V102"/>
+  <autoFilter ref="A1:R102"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -8061,12 +8065,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.1020408163265"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.7091836734694"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.6479591836735"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="25.3061224489796"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.1785714285714"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.219387755102"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.719387755102"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="28.6173469387755"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="12.9591836734694"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8221,16 +8225,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6377551020408"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.1428571428571"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.7704081632653"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.984693877551"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.8979591836735"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="55.3826530612245"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="30.734693877551"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="22.5510204081633"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.8418367346939"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="11.6377551020408"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.1377551020408"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.4387755102041"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="31.3163265306122"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.2397959183673"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="62.4540816326531"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="34.5561224489796"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="25.3775510204082"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="14.3979591836735"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="13.1377551020408"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8398,7 +8402,7 @@
         <v>21</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>22</v>
+        <v>483</v>
       </c>
       <c r="H6" s="0" t="s">
         <v>137</v>
@@ -8415,7 +8419,7 @@
         <v>470</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>24</v>
@@ -8438,25 +8442,25 @@
     </row>
     <row r="8" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>453</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="H8" s="0" t="s">
         <v>53</v>
@@ -8467,25 +8471,25 @@
     </row>
     <row r="9" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H9" s="0" t="s">
         <v>94</v>
@@ -8496,25 +8500,25 @@
     </row>
     <row r="10" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H10" s="0" t="s">
         <v>94</v>
@@ -8525,25 +8529,25 @@
     </row>
     <row r="11" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H11" s="0" t="s">
         <v>94</v>
@@ -8554,25 +8558,25 @@
     </row>
     <row r="12" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H12" s="0" t="s">
         <v>94</v>
@@ -8583,25 +8587,25 @@
     </row>
     <row r="13" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H13" s="0" t="s">
         <v>94</v>
@@ -8612,25 +8616,25 @@
     </row>
     <row r="14" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H14" s="0" t="s">
         <v>94</v>
@@ -8641,28 +8645,28 @@
     </row>
     <row r="15" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="I15" s="0" t="n">
         <v>1</v>
@@ -8670,25 +8674,25 @@
     </row>
     <row r="16" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H16" s="0" t="s">
         <v>94</v>
@@ -8699,25 +8703,25 @@
     </row>
     <row r="17" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H17" s="0" t="s">
         <v>94</v>
@@ -8728,10 +8732,10 @@
     </row>
     <row r="18" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>462</v>
@@ -8743,10 +8747,10 @@
         <v>462</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H18" s="0" t="s">
         <v>94</v>
@@ -8757,13 +8761,13 @@
     </row>
     <row r="19" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>463</v>
@@ -8772,10 +8776,10 @@
         <v>463</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="H19" s="0" t="s">
         <v>94</v>
@@ -8786,13 +8790,13 @@
     </row>
     <row r="20" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>465</v>
@@ -8801,10 +8805,10 @@
         <v>465</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H20" s="0" t="s">
         <v>94</v>
@@ -8815,25 +8819,25 @@
     </row>
     <row r="21" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>464</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="H21" s="0" t="s">
         <v>419</v>
@@ -8844,28 +8848,28 @@
     </row>
     <row r="22" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="I22" s="0" t="n">
         <v>1</v>
@@ -8873,28 +8877,28 @@
     </row>
     <row r="23" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>117</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="I23" s="0" t="n">
         <v>1</v>
@@ -8925,32 +8929,32 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="13.8316326530612"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="15.8010204081633"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="43.5765306122449"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="40.4234693877551"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="17.7755102040816"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="22.8418367346939"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="10.6836734693878"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="15.4795918367347"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="49.1377551020408"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="45.719387755102"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="20.1581632653061"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="25.7397959183673"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="12.0612244897959"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="12.9591836734694"/>
   </cols>
   <sheetData>
     <row r="1" s="8" customFormat="true" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>34</v>
@@ -8965,2952 +8969,2952 @@
         <v>4</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="AMI1" s="0"/>
       <c r="AMJ1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="I2" s="0" t="s">
         <v>481</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>94</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="G3" s="0" t="s">
         <v>26</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="I3" s="0" t="s">
         <v>137</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="E4" s="0" t="s">
         <v>94</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="I4" s="0" t="s">
         <v>137</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="E5" s="0" t="s">
         <v>94</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="I5" s="0" t="s">
         <v>137</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="I6" s="0" t="s">
         <v>53</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="J7" s="0" t="s">
         <v>94</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="J8" s="0" t="s">
         <v>94</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="J9" s="0" t="s">
         <v>94</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="J10" s="0" t="s">
         <v>94</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="I13" s="0" t="s">
         <v>94</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="E14" s="0" t="s">
         <v>94</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="I14" s="0" t="s">
         <v>94</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="E15" s="0" t="s">
         <v>94</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="I15" s="0" t="s">
         <v>94</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="E16" s="0" t="s">
         <v>94</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="K16" s="0" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="I17" s="0" t="s">
         <v>94</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="I18" s="0" t="s">
         <v>94</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="K18" s="0" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="E19" s="0" t="s">
         <v>94</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="I20" s="0" t="s">
         <v>94</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="K20" s="0" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="I21" s="0" t="s">
         <v>94</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="K21" s="0" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="D22" s="0" t="s">
         <v>94</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="F22" s="0" t="s">
         <v>462</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="I22" s="0" t="s">
         <v>94</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="K22" s="0" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="D23" s="0" t="s">
         <v>94</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="I23" s="0" t="s">
         <v>94</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="K23" s="0" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="I24" s="0" t="s">
         <v>481</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="K24" s="0" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="D25" s="0" t="s">
         <v>94</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="I25" s="0" t="s">
         <v>388</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="K25" s="0" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="D26" s="0" t="s">
         <v>94</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="I26" s="0" t="s">
         <v>419</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="K26" s="0" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="D27" s="0" t="s">
         <v>94</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="I27" s="0" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="J27" s="0" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="K27" s="0" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="D28" s="0" t="s">
         <v>94</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="F28" s="0" t="s">
         <v>117</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="I28" s="0" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="J28" s="0" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="K28" s="0" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="I29" s="0" t="s">
         <v>481</v>
       </c>
       <c r="J29" s="0" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="K29" s="0" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="I30" s="0" t="s">
         <v>481</v>
       </c>
       <c r="J30" s="0" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="K30" s="0" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="I31" s="0" t="s">
         <v>481</v>
       </c>
       <c r="J31" s="0" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="K31" s="0" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="E32" s="0" t="s">
         <v>94</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="G32" s="0" t="s">
         <v>26</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="I32" s="0" t="s">
         <v>137</v>
       </c>
       <c r="J32" s="0" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="K32" s="0" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="E33" s="0" t="s">
         <v>94</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="G33" s="0" t="s">
         <v>26</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="I33" s="0" t="s">
         <v>137</v>
       </c>
       <c r="J33" s="0" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="K33" s="0" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="E34" s="0" t="s">
         <v>94</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="G34" s="0" t="s">
         <v>26</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="I34" s="0" t="s">
         <v>137</v>
       </c>
       <c r="J34" s="0" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="K34" s="0" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="E35" s="0" t="s">
         <v>94</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="I35" s="0" t="s">
         <v>137</v>
       </c>
       <c r="J35" s="0" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="K35" s="0" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="E36" s="0" t="s">
         <v>94</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="I36" s="0" t="s">
         <v>137</v>
       </c>
       <c r="J36" s="0" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="K36" s="0" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="E37" s="0" t="s">
         <v>94</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="I37" s="0" t="s">
         <v>137</v>
       </c>
       <c r="J37" s="0" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="K37" s="0" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="E38" s="0" t="s">
         <v>94</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="I38" s="0" t="s">
         <v>137</v>
       </c>
       <c r="J38" s="0" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="K38" s="0" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="E39" s="0" t="s">
         <v>94</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="I39" s="0" t="s">
         <v>137</v>
       </c>
       <c r="J39" s="0" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="K39" s="0" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="E40" s="0" t="s">
         <v>94</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="I40" s="0" t="s">
         <v>137</v>
       </c>
       <c r="J40" s="0" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="K40" s="0" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="E41" s="0" t="s">
         <v>94</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="H41" s="0" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="I41" s="0" t="s">
         <v>94</v>
       </c>
       <c r="J41" s="0" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="K41" s="0" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="E42" s="0" t="s">
         <v>94</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="H42" s="0" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="I42" s="0" t="s">
         <v>94</v>
       </c>
       <c r="J42" s="0" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="K42" s="0" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="E43" s="0" t="s">
         <v>94</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="H43" s="0" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="I43" s="0" t="s">
         <v>94</v>
       </c>
       <c r="J43" s="0" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="K43" s="0" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="E44" s="0" t="s">
         <v>94</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="H44" s="0" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="I44" s="0" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="J44" s="0" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="K44" s="0" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="E45" s="0" t="s">
         <v>94</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="H45" s="0" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="I45" s="0" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="J45" s="0" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="K45" s="0" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="E46" s="0" t="s">
         <v>94</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="H46" s="0" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="I46" s="0" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="J46" s="0" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="K46" s="0" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="E47" s="0" t="s">
         <v>94</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="H47" s="0" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="I47" s="0" t="s">
         <v>94</v>
       </c>
       <c r="J47" s="0" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="K47" s="0" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="E48" s="0" t="s">
         <v>94</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="G48" s="0" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="H48" s="0" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="I48" s="0" t="s">
         <v>94</v>
       </c>
       <c r="J48" s="0" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="K48" s="0" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="E49" s="0" t="s">
         <v>94</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="H49" s="0" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="I49" s="0" t="s">
         <v>94</v>
       </c>
       <c r="J49" s="0" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="K49" s="0" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="G50" s="0" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="H50" s="0" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="I50" s="0" t="s">
         <v>94</v>
       </c>
       <c r="J50" s="0" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="K50" s="0" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="H51" s="0" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="I51" s="0" t="s">
         <v>94</v>
       </c>
       <c r="J51" s="0" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="K51" s="0" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="H52" s="0" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="I52" s="0" t="s">
         <v>94</v>
       </c>
       <c r="J52" s="0" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="K52" s="0" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="F53" s="0" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="H53" s="0" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="I53" s="0" t="s">
         <v>94</v>
       </c>
       <c r="J53" s="0" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="K53" s="0" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="F54" s="0" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="G54" s="0" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="H54" s="0" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="I54" s="0" t="s">
         <v>94</v>
       </c>
       <c r="J54" s="0" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="K54" s="0" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="F55" s="0" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="G55" s="0" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="H55" s="0" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="I55" s="0" t="s">
         <v>94</v>
       </c>
       <c r="J55" s="0" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="K55" s="0" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="F56" s="0" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="G56" s="0" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="H56" s="0" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="I56" s="0" t="s">
         <v>53</v>
       </c>
       <c r="J56" s="0" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="K56" s="0" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="F57" s="0" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="G57" s="0" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="H57" s="0" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="I57" s="0" t="s">
         <v>53</v>
       </c>
       <c r="J57" s="0" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="K57" s="0" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="F58" s="0" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="G58" s="0" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="H58" s="0" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="I58" s="4" t="s">
         <v>53</v>
       </c>
       <c r="J58" s="0" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="K58" s="0" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="F59" s="0" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="G59" s="0" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="H59" s="0" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="I59" s="0" t="s">
         <v>53</v>
       </c>
       <c r="J59" s="0" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="K59" s="0" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="F60" s="0" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="G60" s="0" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H60" s="0" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="I60" s="0" t="s">
         <v>94</v>
       </c>
       <c r="J60" s="0" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="K60" s="0" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="F61" s="0" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="G61" s="0" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H61" s="0" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="I61" s="0" t="s">
         <v>94</v>
       </c>
       <c r="J61" s="0" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="K61" s="0" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="F62" s="0" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="G62" s="0" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H62" s="0" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="I62" s="0" t="s">
         <v>94</v>
       </c>
       <c r="J62" s="0" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="K62" s="0" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="E63" s="0" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="F63" s="0" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="G63" s="0" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="H63" s="0" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="I63" s="0" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="J63" s="0" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="K63" s="0" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="E64" s="0" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="F64" s="0" t="s">
+        <v>717</v>
+      </c>
+      <c r="G64" s="0" t="s">
+        <v>715</v>
+      </c>
+      <c r="H64" s="0" t="s">
         <v>716</v>
       </c>
-      <c r="G64" s="0" t="s">
-        <v>714</v>
-      </c>
-      <c r="H64" s="0" t="s">
-        <v>715</v>
-      </c>
       <c r="I64" s="0" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="J64" s="0" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="K64" s="0" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B65" s="0" t="s">
+        <v>612</v>
+      </c>
+      <c r="C65" s="0" t="s">
+        <v>587</v>
+      </c>
+      <c r="D65" s="0" t="s">
+        <v>588</v>
+      </c>
+      <c r="E65" s="0" t="s">
+        <v>570</v>
+      </c>
+      <c r="F65" s="0" t="s">
+        <v>718</v>
+      </c>
+      <c r="G65" s="0" t="s">
+        <v>715</v>
+      </c>
+      <c r="H65" s="0" t="s">
+        <v>716</v>
+      </c>
+      <c r="I65" s="0" t="s">
+        <v>597</v>
+      </c>
+      <c r="J65" s="0" t="s">
+        <v>620</v>
+      </c>
+      <c r="K65" s="0" t="s">
         <v>611</v>
-      </c>
-      <c r="C65" s="0" t="s">
-        <v>586</v>
-      </c>
-      <c r="D65" s="0" t="s">
-        <v>587</v>
-      </c>
-      <c r="E65" s="0" t="s">
-        <v>569</v>
-      </c>
-      <c r="F65" s="0" t="s">
-        <v>717</v>
-      </c>
-      <c r="G65" s="0" t="s">
-        <v>714</v>
-      </c>
-      <c r="H65" s="0" t="s">
-        <v>715</v>
-      </c>
-      <c r="I65" s="0" t="s">
-        <v>596</v>
-      </c>
-      <c r="J65" s="0" t="s">
-        <v>619</v>
-      </c>
-      <c r="K65" s="0" t="s">
-        <v>610</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="E66" s="0" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="F66" s="0" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="G66" s="0" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="H66" s="0" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="I66" s="0" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="J66" s="0" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="K66" s="0" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="E67" s="0" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="F67" s="0" t="s">
+        <v>722</v>
+      </c>
+      <c r="G67" s="0" t="s">
+        <v>720</v>
+      </c>
+      <c r="H67" s="0" t="s">
         <v>721</v>
       </c>
-      <c r="G67" s="0" t="s">
-        <v>719</v>
-      </c>
-      <c r="H67" s="0" t="s">
-        <v>720</v>
-      </c>
       <c r="I67" s="0" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="J67" s="0" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="K67" s="0" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B68" s="0" t="s">
+        <v>612</v>
+      </c>
+      <c r="C68" s="0" t="s">
+        <v>587</v>
+      </c>
+      <c r="D68" s="0" t="s">
+        <v>588</v>
+      </c>
+      <c r="E68" s="0" t="s">
+        <v>570</v>
+      </c>
+      <c r="F68" s="0" t="s">
+        <v>723</v>
+      </c>
+      <c r="G68" s="0" t="s">
+        <v>720</v>
+      </c>
+      <c r="H68" s="0" t="s">
+        <v>721</v>
+      </c>
+      <c r="I68" s="0" t="s">
+        <v>597</v>
+      </c>
+      <c r="J68" s="0" t="s">
+        <v>616</v>
+      </c>
+      <c r="K68" s="0" t="s">
         <v>611</v>
-      </c>
-      <c r="C68" s="0" t="s">
-        <v>586</v>
-      </c>
-      <c r="D68" s="0" t="s">
-        <v>587</v>
-      </c>
-      <c r="E68" s="0" t="s">
-        <v>569</v>
-      </c>
-      <c r="F68" s="0" t="s">
-        <v>722</v>
-      </c>
-      <c r="G68" s="0" t="s">
-        <v>719</v>
-      </c>
-      <c r="H68" s="0" t="s">
-        <v>720</v>
-      </c>
-      <c r="I68" s="0" t="s">
-        <v>596</v>
-      </c>
-      <c r="J68" s="0" t="s">
-        <v>615</v>
-      </c>
-      <c r="K68" s="0" t="s">
-        <v>610</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="E69" s="0" t="s">
         <v>94</v>
       </c>
       <c r="F69" s="0" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="G69" s="0" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H69" s="0" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="I69" s="0" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="J69" s="0" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="K69" s="0" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="E70" s="0" t="s">
         <v>94</v>
       </c>
       <c r="F70" s="0" t="s">
+        <v>726</v>
+      </c>
+      <c r="G70" s="0" t="s">
+        <v>521</v>
+      </c>
+      <c r="H70" s="0" t="s">
+        <v>522</v>
+      </c>
+      <c r="I70" s="0" t="s">
+        <v>646</v>
+      </c>
+      <c r="J70" s="0" t="s">
         <v>725</v>
       </c>
-      <c r="G70" s="0" t="s">
-        <v>520</v>
-      </c>
-      <c r="H70" s="0" t="s">
-        <v>521</v>
-      </c>
-      <c r="I70" s="0" t="s">
-        <v>645</v>
-      </c>
-      <c r="J70" s="0" t="s">
-        <v>724</v>
-      </c>
       <c r="K70" s="0" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="E71" s="0" t="s">
         <v>94</v>
       </c>
       <c r="F71" s="0" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="G71" s="0" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H71" s="0" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="I71" s="0" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="J71" s="0" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="K71" s="0" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="E72" s="0" t="s">
         <v>94</v>
       </c>
       <c r="F72" s="0" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="G72" s="0" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H72" s="0" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="I72" s="0" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="J72" s="0" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="K72" s="0" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="E73" s="0" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="F73" s="0" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="G73" s="0" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="H73" s="0" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="I73" s="0" t="s">
         <v>94</v>
       </c>
       <c r="J73" s="0" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="K73" s="0" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="E74" s="0" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="F74" s="0" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="G74" s="0" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="H74" s="0" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="I74" s="0" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="J74" s="0" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="K74" s="0" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="E75" s="0" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="F75" s="0" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="G75" s="0" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="H75" s="0" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="I75" s="0" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="J75" s="0" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="K75" s="0" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="E76" s="0" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="F76" s="0" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="G76" s="0" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="H76" s="0" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="I76" s="0" t="s">
         <v>94</v>
       </c>
       <c r="J76" s="0" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="K76" s="0" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="E77" s="0" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="F77" s="0" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="G77" s="0" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="H77" s="0" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="I77" s="0" t="s">
         <v>94</v>
       </c>
       <c r="J77" s="0" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="K77" s="0" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="E78" s="0" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="F78" s="0" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="G78" s="0" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="H78" s="0" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="I78" s="0" t="s">
         <v>94</v>
       </c>
       <c r="J78" s="0" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="K78" s="0" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="E79" s="0" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="F79" s="0" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="G79" s="0" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="H79" s="0" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="I79" s="0" t="s">
         <v>94</v>
       </c>
       <c r="J79" s="0" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="K79" s="0" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="E80" s="0" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="F80" s="0" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="G80" s="0" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="H80" s="0" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="I80" s="0" t="s">
         <v>94</v>
       </c>
       <c r="J80" s="0" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="K80" s="0" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="E81" s="0" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="F81" s="0" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="G81" s="0" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="H81" s="0" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="I81" s="0" t="s">
         <v>94</v>
       </c>
       <c r="J81" s="0" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="K81" s="0" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="D82" s="0" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="E82" s="0" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="F82" s="0" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="G82" s="0" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="H82" s="0" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="I82" s="0" t="s">
         <v>481</v>
       </c>
       <c r="J82" s="0" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="K82" s="0" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="E83" s="0" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="F83" s="0" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="G83" s="0" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="H83" s="0" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="I83" s="0" t="s">
         <v>481</v>
       </c>
       <c r="J83" s="0" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="K83" s="0" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="D84" s="0" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="E84" s="0" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="F84" s="0" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="G84" s="0" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="H84" s="0" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="I84" s="0" t="s">
         <v>481</v>
       </c>
       <c r="J84" s="0" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="K84" s="0" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="D85" s="0" t="s">
         <v>94</v>
       </c>
       <c r="E85" s="0" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="F85" s="0" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="G85" s="0" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="H85" s="0" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="I85" s="0" t="s">
         <v>419</v>
       </c>
       <c r="J85" s="0" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="K85" s="0" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
   </sheetData>

--- a/inst/doc/files/parameterization.xlsx
+++ b/inst/doc/files/parameterization.xlsx
@@ -5,19 +5,19 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="climate" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="parameters" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="variables" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="modules" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="outputs" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="indicators" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">parameters!$A$1:$R$102</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">parameters!$A$1:$V$102</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">parameters!$A$1:$R$102</definedName>
+    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">parameters!$A$1:$V$102</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">parameters!$A$1:$R$102</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">parameters!$A$1:$V$102</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">parameters!$A$1:$R$102</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">parameters!$A$1:$R$102</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">parameters!$A$1:$R$102</definedName>
@@ -57,13 +57,19 @@
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">parameters!$A$1:$R$102</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">parameters!$A$1:$R$102</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">parameters!$A$1:$R$102</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">parameters!$A$1:$R$102</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="Unspecified"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2077" uniqueCount="754">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2199" uniqueCount="793">
   <si>
     <t>name.rsunflo.fr</t>
   </si>
@@ -1157,7 +1163,7 @@
     <t>Phyllotherme pour les feuilles au dela du 6eme rang</t>
   </si>
   <si>
-    <t>Phyllotherm (leaf &gt; 7)</t>
+    <t>Phyllotherm (leaf &gt; 6)</t>
   </si>
   <si>
     <t>zRac_max</t>
@@ -1184,519 +1190,642 @@
     <t>LAI_b</t>
   </si>
   <si>
+    <t>LeafExpansionShift</t>
+  </si>
+  <si>
     <t>Ajustement du calcul des dates thermique de demi-expansion des feuilles</t>
   </si>
   <si>
     <t>LAI_c</t>
   </si>
   <si>
+    <t>PotentialLeafDurationMin</t>
+  </si>
+  <si>
     <t>Valeur de l'asymptote de la fonction de la durée de vie des feuilles en fonction du rang sur la tige</t>
   </si>
   <si>
     <t>LAI_d</t>
   </si>
   <si>
+    <t>PotentialLeafDurationMax</t>
+  </si>
+  <si>
+    <t>Valeur du maximum de la fonction de la durée de vie des feuilles en fonction du rang sur la tige</t>
+  </si>
+  <si>
+    <t>Maximum thermal time between expansion and senescence</t>
+  </si>
+  <si>
+    <t>LAI_e</t>
+  </si>
+  <si>
+    <t>Abscisse du maximum de la fonction de la durée de vie des feuilles (relatif à la position de la plus grande feuille)</t>
+  </si>
+  <si>
+    <t>LAI_f</t>
+  </si>
+  <si>
+    <t>PotentialLeafDurationWidth</t>
+  </si>
+  <si>
+    <t>Valeur de l'amplitude de la fonction de la durée de vie des feuilles en fonction du rang sur la tige</t>
+  </si>
+  <si>
+    <t>LAI_Kei</t>
+  </si>
+  <si>
+    <t>PotentialGrowthSlope</t>
+  </si>
+  <si>
+    <t>Pente de la logistique représentant l'expansion et la senescence foliaire</t>
+  </si>
+  <si>
+    <t>Eb_0</t>
+  </si>
+  <si>
+    <t>Valeur initiale (0-300°Cj) de l'efficience biologique potentielle</t>
+  </si>
+  <si>
+    <t>$g.MJ^{-1}.m^{-2}$</t>
+  </si>
+  <si>
+    <t>Eb_c</t>
+  </si>
+  <si>
+    <t>Pente de la décroissance de l'efficience biologique potentielle en fin de cycle (M0 - M3)</t>
+  </si>
+  <si>
+    <t>Eb_fin</t>
+  </si>
+  <si>
+    <t>Valeur de l'efficience biologique potentielle en fin de cycle (M3)</t>
+  </si>
+  <si>
+    <t>Eb_max</t>
+  </si>
+  <si>
+    <t>Valeur du plateau d'efficience biologique potentielle (F1-M0)</t>
+  </si>
+  <si>
+    <t>Tmax_PHS</t>
+  </si>
+  <si>
+    <t>Température maximale pour la réponse de la capacité photosynthétique</t>
+  </si>
+  <si>
+    <t>Topt1_PHS</t>
+  </si>
+  <si>
+    <t>Température optimale minimale pour la réponse de la capacité photosynthétique</t>
+  </si>
+  <si>
+    <t>Topt2_PHS</t>
+  </si>
+  <si>
+    <t>Température optimale maximale pour la réponse de la capacité photosynthétique</t>
+  </si>
+  <si>
+    <t>a_Pho</t>
+  </si>
+  <si>
+    <t>Décalage entre le seuil de réponse de la transpiration et celui de la photosynthèse</t>
+  </si>
+  <si>
+    <t>date_TT_F1M0</t>
+  </si>
+  <si>
+    <t>Durée de la phase de floraison utilisée dans le calcul d'indicateurs</t>
+  </si>
+  <si>
+    <t>AA_a</t>
+  </si>
+  <si>
+    <t>Ajustement du transport actif de nitrate dans la plante</t>
+  </si>
+  <si>
+    <t>EXPERT_Plante</t>
+  </si>
+  <si>
+    <t>PNCc_a</t>
+  </si>
+  <si>
+    <t>Teneur en azote critique de la biomasse aerienne au seuil de biomasse juvénile</t>
+  </si>
+  <si>
+    <t>[@Debaeke2012a]</t>
+  </si>
+  <si>
+    <t>PNCc_b</t>
+  </si>
+  <si>
+    <t>Décroissance de la courbe de dilution pour la teneur en azote critique</t>
+  </si>
+  <si>
+    <t>PNCm_a</t>
+  </si>
+  <si>
+    <t>Teneur en azote maximale de la biomasse aerienne au seuil de biomasse juvénile</t>
+  </si>
+  <si>
+    <t>PNCm_b</t>
+  </si>
+  <si>
+    <t>Décroissance de la courbe de dilution pour la teneur en azote maximale</t>
+  </si>
+  <si>
+    <t>TDMc_seuil</t>
+  </si>
+  <si>
+    <t>Seuil de biomasse aerienne au stade juvénile considéré pour la courbe de dilution d'azote critique</t>
+  </si>
+  <si>
+    <t>$g.m^{-2}$</t>
+  </si>
+  <si>
+    <t>TDMm_seuil</t>
+  </si>
+  <si>
+    <t>Seuil de biomasse aerienne au stade juvénile considéré pour la courbe de dilution d'azote maximal</t>
+  </si>
+  <si>
+    <t>INNseuil</t>
+  </si>
+  <si>
+    <t>Indice de nutrition azoté minimum considéré dans la réponse de la croissance foliaire</t>
+  </si>
+  <si>
+    <t>[@Brisson2008]</t>
+  </si>
+  <si>
+    <t>FNLEm</t>
+  </si>
+  <si>
+    <t>Valeur minimale de la fonction de réponse de la croissance foliaire à l'azote</t>
+  </si>
+  <si>
+    <t>VitCroiRac</t>
+  </si>
+  <si>
+    <t>Vitesse de croissance racinaire</t>
+  </si>
+  <si>
+    <t>$mm.Cd{^-1}$</t>
+  </si>
+  <si>
+    <t>EXPERT_SimuInit</t>
+  </si>
+  <si>
+    <t>SeuilETRETM</t>
+  </si>
+  <si>
+    <t>Seuil de ratio ETR/ETM considéré dans le calcul d'indicateur de contrainte hydrique</t>
+  </si>
+  <si>
+    <t>Kc</t>
+  </si>
+  <si>
+    <t>Coefficient cultural utilisé pour calculer l'évapotranspiration potentielle</t>
+  </si>
+  <si>
+    <t>dHE</t>
+  </si>
+  <si>
+    <t>ElongationRate</t>
+  </si>
+  <si>
+    <t>Réciproque de la vitesse d'élongation de l'hypocotyle</t>
+  </si>
+  <si>
+    <t>Reciprocal of hypocotyl elongation rate</t>
+  </si>
+  <si>
+    <t>$°Cd.mm^{-1}$</t>
+  </si>
+  <si>
+    <t>[@Villalobos1996]</t>
+  </si>
+  <si>
+    <t>Simulation</t>
+  </si>
+  <si>
+    <t>Software</t>
+  </si>
+  <si>
+    <t>zCondClimat</t>
+  </si>
+  <si>
+    <t>columns</t>
+  </si>
+  <si>
+    <t>day_column</t>
+  </si>
+  <si>
+    <t>mode</t>
+  </si>
+  <si>
+    <t>month_column</t>
+  </si>
+  <si>
+    <t>time-step</t>
+  </si>
+  <si>
+    <t>variables</t>
+  </si>
+  <si>
+    <t>year_column</t>
+  </si>
+  <si>
+    <t>zCondEqDiff_sunflo</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>ThermalTime</t>
+  </si>
+  <si>
+    <t>Thermal time</t>
+  </si>
+  <si>
+    <t>PotentialLeafAreaIndex</t>
+  </si>
+  <si>
+    <t>input</t>
+  </si>
+  <si>
+    <t>LeafInitiationTime</t>
+  </si>
+  <si>
+    <t>Thermal time of initiation of leaf i</t>
+  </si>
+  <si>
+    <t>LeafExpansionTime</t>
+  </si>
+  <si>
+    <t>Inflexion point x-coordinate of expansion dynamics for leaf i</t>
+  </si>
+  <si>
+    <t>LeafExpansionDuration</t>
+  </si>
+  <si>
+    <t>Thermal time between expansion and senescence dynamics for leaf i</t>
+  </si>
+  <si>
+    <t>LeafSenescenceTime</t>
+  </si>
+  <si>
+    <t>Inflexion point x-coordinate of senescence dynamics for leaf i</t>
+  </si>
+  <si>
+    <t>PotentialLeafArea</t>
+  </si>
+  <si>
+    <t>Potential final area for leaf i</t>
+  </si>
+  <si>
+    <t>$cm^2$</t>
+  </si>
+  <si>
+    <t>rate</t>
+  </si>
+  <si>
+    <t>LeafExpansionRate</t>
+  </si>
+  <si>
+    <t>Potential growth rate for leaf i</t>
+  </si>
+  <si>
+    <t>$cm^2.°Cd^{-1}$</t>
+  </si>
+  <si>
+    <t>LeafSenescenceRate</t>
+  </si>
+  <si>
+    <t>Potential senescence rate for leaf i</t>
+  </si>
+  <si>
+    <t>LeafAreaExpanded</t>
+  </si>
+  <si>
+    <t>Total leaf area for leaf i</t>
+  </si>
+  <si>
+    <t>LeafAreaSenescent</t>
+  </si>
+  <si>
+    <t>Senescent area for leaf i</t>
+  </si>
+  <si>
+    <t>Photosynthetically active area for leaf i</t>
+  </si>
+  <si>
+    <t>PlantLeafArea</t>
+  </si>
+  <si>
+    <t>Plant leaf area</t>
+  </si>
+  <si>
+    <t>PotentialLAIRate</t>
+  </si>
+  <si>
+    <t>Potential rate of daily LAI increase</t>
+  </si>
+  <si>
+    <t>$-$</t>
+  </si>
+  <si>
+    <t>parameter</t>
+  </si>
+  <si>
     <t>PotentialLeafDuration</t>
   </si>
   <si>
-    <t>Valeur du maximum de la fonction de la durée de vie des feuilles en fonction du rang sur la tige</t>
-  </si>
-  <si>
-    <t>Thermal time between expansion and senescence</t>
-  </si>
-  <si>
-    <t>LAI_e</t>
-  </si>
-  <si>
-    <t>Abscisse du maximum de la fonction de la durée de vie des feuilles (relatif à la position de la plus grande feuille)</t>
-  </si>
-  <si>
-    <t>LAI_f</t>
-  </si>
-  <si>
-    <t>Valeur de l'amplitude de la fonction de la durée de vie des feuilles en fonction du rang sur la tige</t>
-  </si>
-  <si>
-    <t>LAI_Kei</t>
-  </si>
-  <si>
-    <t>Pente de la logistique représentant l'expansion et la senescence foliaire</t>
-  </si>
-  <si>
-    <t>Eb_0</t>
-  </si>
-  <si>
-    <t>Valeur initiale (0-300°Cj) de l'efficience biologique potentielle</t>
-  </si>
-  <si>
-    <t>$g.MJ^{-1}.m^{-2}$</t>
-  </si>
-  <si>
-    <t>Eb_c</t>
-  </si>
-  <si>
-    <t>Pente de la décroissance de l'efficience biologique potentielle en fin de cycle (M0 - M3)</t>
-  </si>
-  <si>
-    <t>Eb_fin</t>
-  </si>
-  <si>
-    <t>Valeur de l'efficience biologique potentielle en fin de cycle (M3)</t>
-  </si>
-  <si>
-    <t>Eb_max</t>
-  </si>
-  <si>
-    <t>Valeur du plateau d'efficience biologique potentielle (F1-M0)</t>
-  </si>
-  <si>
-    <t>Tmax_PHS</t>
-  </si>
-  <si>
-    <t>Température maximale pour la réponse de la capacité photosynthétique</t>
-  </si>
-  <si>
-    <t>Topt1_PHS</t>
-  </si>
-  <si>
-    <t>Température optimale minimale pour la réponse de la capacité photosynthétique</t>
-  </si>
-  <si>
-    <t>Topt2_PHS</t>
-  </si>
-  <si>
-    <t>Température optimale maximale pour la réponse de la capacité photosynthétique</t>
-  </si>
-  <si>
-    <t>a_Pho</t>
-  </si>
-  <si>
-    <t>Décalage entre le seuil de réponse de la transpiration et celui de la photosynthèse</t>
-  </si>
-  <si>
-    <t>date_TT_F1M0</t>
-  </si>
-  <si>
-    <t>Durée de la phase de floraison utilisée dans le calcul d'indicateurs</t>
-  </si>
-  <si>
-    <t>AA_a</t>
-  </si>
-  <si>
-    <t>Ajustement du transport actif de nitrate dans la plante</t>
-  </si>
-  <si>
-    <t>EXPERT_Plante</t>
-  </si>
-  <si>
-    <t>PNCc_a</t>
-  </si>
-  <si>
-    <t>Teneur en azote critique de la biomasse aerienne au seuil de biomasse juvénile</t>
-  </si>
-  <si>
-    <t>[@Debaeke2012a]</t>
-  </si>
-  <si>
-    <t>PNCc_b</t>
-  </si>
-  <si>
-    <t>Décroissance de la courbe de dilution pour la teneur en azote critique</t>
-  </si>
-  <si>
-    <t>PNCm_a</t>
-  </si>
-  <si>
-    <t>Teneur en azote maximale de la biomasse aerienne au seuil de biomasse juvénile</t>
-  </si>
-  <si>
-    <t>PNCm_b</t>
-  </si>
-  <si>
-    <t>Décroissance de la courbe de dilution pour la teneur en azote maximale</t>
-  </si>
-  <si>
-    <t>TDMc_seuil</t>
-  </si>
-  <si>
-    <t>Seuil de biomasse aerienne au stade juvénile considéré pour la courbe de dilution d'azote critique</t>
-  </si>
-  <si>
-    <t>$g.m^{-2}$</t>
-  </si>
-  <si>
-    <t>TDMm_seuil</t>
-  </si>
-  <si>
-    <t>Seuil de biomasse aerienne au stade juvénile considéré pour la courbe de dilution d'azote maximal</t>
-  </si>
-  <si>
-    <t>INNseuil</t>
-  </si>
-  <si>
-    <t>Indice de nutrition azoté minimum considéré dans la réponse de la croissance foliaire</t>
-  </si>
-  <si>
-    <t>[@Brisson2008]</t>
-  </si>
-  <si>
-    <t>FNLEm</t>
-  </si>
-  <si>
-    <t>Valeur minimale de la fonction de réponse de la croissance foliaire à l'azote</t>
-  </si>
-  <si>
-    <t>VitCroiRac</t>
-  </si>
-  <si>
-    <t>Vitesse de croissance racinaire</t>
-  </si>
-  <si>
-    <t>$mm.Cd{^-1}$</t>
-  </si>
-  <si>
-    <t>EXPERT_SimuInit</t>
-  </si>
-  <si>
-    <t>SeuilETRETM</t>
-  </si>
-  <si>
-    <t>Seuil de ratio ETR/ETM considéré dans le calcul d'indicateur de contrainte hydrique</t>
-  </si>
-  <si>
-    <t>Kc</t>
-  </si>
-  <si>
-    <t>Coefficient cultural utilisé pour calculer l'évapotranspiration potentielle</t>
-  </si>
-  <si>
-    <t>dHE</t>
-  </si>
-  <si>
-    <t>ElongationRate</t>
-  </si>
-  <si>
-    <t>Réciproque de la vitesse d'élongation de l'hypocotyle</t>
-  </si>
-  <si>
-    <t>Reciprocal of hypocotyl elongation rate</t>
-  </si>
-  <si>
-    <t>$°Cd.mm^{-1}$</t>
-  </si>
-  <si>
-    <t>[@Villalobos1996]</t>
-  </si>
-  <si>
-    <t>Simulation</t>
-  </si>
-  <si>
-    <t>Software</t>
-  </si>
-  <si>
-    <t>zCondClimat</t>
-  </si>
-  <si>
-    <t>columns</t>
-  </si>
-  <si>
-    <t>day_column</t>
-  </si>
-  <si>
-    <t>mode</t>
-  </si>
-  <si>
-    <t>month_column</t>
-  </si>
-  <si>
-    <t>time-step</t>
-  </si>
-  <si>
-    <t>variables</t>
-  </si>
-  <si>
-    <t>year_column</t>
-  </si>
-  <si>
-    <t>zCondEqDiff_sunflo</t>
-  </si>
-  <si>
-    <t>size</t>
-  </si>
-  <si>
-    <t>ThermalTime</t>
-  </si>
-  <si>
-    <t>LeafInitiationTime</t>
-  </si>
-  <si>
-    <t>LeafExpansionTime</t>
-  </si>
-  <si>
-    <t>LeafSenescenceTime</t>
-  </si>
-  <si>
-    <t>LeafNumber</t>
-  </si>
-  <si>
-    <t>LeafExpansionRate</t>
-  </si>
-  <si>
-    <t>LeafSenescenceRate</t>
-  </si>
-  <si>
-    <t>CropInterception</t>
-  </si>
-  <si>
-    <t>PlantLeafArea</t>
+    <t>Plant density at crop emergence</t>
+  </si>
+  <si>
+    <t>LeafAreaIndex</t>
+  </si>
+  <si>
+    <t>RIE</t>
+  </si>
+  <si>
+    <t>Radiation Interception Efficiency</t>
+  </si>
+  <si>
+    <t>FTSW</t>
+  </si>
+  <si>
+    <t>Fraction of Transpirable Soil Water</t>
+  </si>
+  <si>
+    <t>NNI</t>
+  </si>
+  <si>
+    <t>Plant Nitrogen Nutrition Index</t>
+  </si>
+  <si>
+    <t>WaterStressExpansion</t>
+  </si>
+  <si>
+    <t>Scalar for water deficit effect on leaf expansion</t>
+  </si>
+  <si>
+    <t>NitrogenStressExpansion</t>
+  </si>
+  <si>
+    <t>Scalar for nitrogen deficit effect on leaf expansion</t>
+  </si>
+  <si>
+    <t>RadiationStressExpansion</t>
+  </si>
+  <si>
+    <t>Scalar for radiation interception effect on leaf expansion</t>
+  </si>
+  <si>
+    <t>package</t>
+  </si>
+  <si>
+    <t>model</t>
+  </si>
+  <si>
+    <t>viewDynamic</t>
+  </si>
+  <si>
+    <t>climat</t>
+  </si>
+  <si>
+    <t>lecture</t>
+  </si>
+  <si>
+    <t>Tn</t>
+  </si>
+  <si>
+    <t>Température minimale</t>
+  </si>
+  <si>
+    <t>Tx</t>
+  </si>
+  <si>
+    <t>Température maximale</t>
+  </si>
+  <si>
+    <t>Tmoy</t>
+  </si>
+  <si>
+    <t>TM</t>
+  </si>
+  <si>
+    <t>TemperatureAirMean</t>
+  </si>
+  <si>
+    <t>Température moyenne</t>
+  </si>
+  <si>
+    <t>Mean air temperature</t>
+  </si>
+  <si>
+    <t>RG</t>
+  </si>
+  <si>
+    <t>$MJ.m^{-2}$</t>
+  </si>
+  <si>
+    <t>ETPP</t>
+  </si>
+  <si>
+    <t>Reference evapotranspiration</t>
+  </si>
+  <si>
+    <t>Pluie</t>
+  </si>
+  <si>
+    <t>bio</t>
+  </si>
+  <si>
+    <t>phenologie</t>
+  </si>
+  <si>
+    <t>TT_A2</t>
+  </si>
+  <si>
+    <t>TTA2</t>
+  </si>
+  <si>
+    <t>Temps thermique cumulé depuis la levée</t>
+  </si>
+  <si>
+    <t>Temperature sum from emergence</t>
+  </si>
+  <si>
+    <t>PhasePhenoPlante</t>
+  </si>
+  <si>
+    <t>PhenoStage</t>
+  </si>
+  <si>
+    <t>Index de phénologie</t>
+  </si>
+  <si>
+    <t>Phenological stages index</t>
+  </si>
+  <si>
+    <t>contrainte_eau</t>
+  </si>
+  <si>
+    <t>WaterStress</t>
+  </si>
+  <si>
+    <t>Facteur de contrainte hydrique</t>
+  </si>
+  <si>
+    <t>Water stress index</t>
+  </si>
+  <si>
+    <t>FHTR</t>
+  </si>
+  <si>
+    <t>WaterStressConductance</t>
+  </si>
+  <si>
+    <t>Facteur de réponse de la transpiration à la contrainte hydrique</t>
+  </si>
+  <si>
+    <t>Transpiration response to water stress</t>
+  </si>
+  <si>
+    <t>FHRUE</t>
+  </si>
+  <si>
+    <t>Facteur de réponse de la photosynthèse à la contrainte hydrique</t>
+  </si>
+  <si>
+    <t>Photosynthesis response to water stress</t>
+  </si>
+  <si>
+    <t>ETRETM</t>
+  </si>
+  <si>
+    <t>WaterSupplyDemandRatio</t>
+  </si>
+  <si>
+    <t>Ratio ETR/ETM</t>
+  </si>
+  <si>
+    <t>Water supply:demand ratio</t>
+  </si>
+  <si>
+    <t>contrainte_temperature</t>
+  </si>
+  <si>
+    <t>FT</t>
+  </si>
+  <si>
+    <t>FTRUE</t>
+  </si>
+  <si>
+    <t>ThermalStressRUE</t>
+  </si>
+  <si>
+    <t>Facteur de réponse de la photosynthèse à la contrainte thermique</t>
+  </si>
+  <si>
+    <t>Photosynthesis response to thermal stress</t>
+  </si>
+  <si>
+    <t>contrainte_azote</t>
+  </si>
+  <si>
+    <t>Nabs</t>
+  </si>
+  <si>
+    <t>NAB</t>
+  </si>
+  <si>
+    <t>NitrogenAbsorbed</t>
+  </si>
+  <si>
+    <t>Azote absorbé</t>
+  </si>
+  <si>
+    <t>Absorbed nitrogen</t>
+  </si>
+  <si>
+    <t>$kg.ha^{-1}.d^{-1}$</t>
+  </si>
+  <si>
+    <t>INN</t>
+  </si>
+  <si>
+    <t>NitrogenNutritionIndex</t>
+  </si>
+  <si>
+    <t>Indice de nutrition azoté</t>
+  </si>
+  <si>
+    <t>Nitrogen nutrition index</t>
+  </si>
+  <si>
+    <t>FNIRUE</t>
+  </si>
+  <si>
+    <t>FNRUE</t>
+  </si>
+  <si>
+    <t>NitrogenStressRUE</t>
+  </si>
+  <si>
+    <t>Facteur de réponse de la photosynthèse à la contrainte azote</t>
+  </si>
+  <si>
+    <t>Photosynthesis response to nitrogen stress</t>
+  </si>
+  <si>
+    <t>croissance_plante</t>
   </si>
   <si>
     <t>LAI</t>
   </si>
   <si>
-    <t>RIE</t>
+    <t>Indice foliaire</t>
+  </si>
+  <si>
+    <t>Leaf area index</t>
+  </si>
+  <si>
+    <t>Ei</t>
+  </si>
+  <si>
+    <t>Efficience d'interception de la lumière</t>
+  </si>
+  <si>
+    <t>Radiation interception efficiency</t>
+  </si>
+  <si>
+    <t>Eb</t>
+  </si>
+  <si>
+    <t>RUE</t>
+  </si>
+  <si>
+    <t>Efficience d'utilisation de la lumière</t>
+  </si>
+  <si>
+    <t>Radiation use efficiency</t>
+  </si>
+  <si>
+    <t>TDM</t>
   </si>
   <si>
     <t>CropBiomass</t>
   </si>
   <si>
-    <t>RUE</t>
-  </si>
-  <si>
-    <t>package</t>
-  </si>
-  <si>
-    <t>model</t>
-  </si>
-  <si>
-    <t>viewDynamic</t>
-  </si>
-  <si>
-    <t>climat</t>
-  </si>
-  <si>
-    <t>lecture</t>
-  </si>
-  <si>
-    <t>Tn</t>
-  </si>
-  <si>
-    <t>Température minimale</t>
-  </si>
-  <si>
-    <t>Tx</t>
-  </si>
-  <si>
-    <t>Température maximale</t>
-  </si>
-  <si>
-    <t>Tmoy</t>
-  </si>
-  <si>
-    <t>TM</t>
-  </si>
-  <si>
-    <t>TemperatureAirMean</t>
-  </si>
-  <si>
-    <t>Température moyenne</t>
-  </si>
-  <si>
-    <t>Mean air temperature</t>
-  </si>
-  <si>
-    <t>RG</t>
-  </si>
-  <si>
-    <t>$MJ.m^{-2}$</t>
-  </si>
-  <si>
-    <t>ETPP</t>
-  </si>
-  <si>
-    <t>Reference evapotranspiration</t>
-  </si>
-  <si>
-    <t>Pluie</t>
-  </si>
-  <si>
-    <t>bio</t>
-  </si>
-  <si>
-    <t>phenologie</t>
-  </si>
-  <si>
-    <t>TT_A2</t>
-  </si>
-  <si>
-    <t>TTA2</t>
-  </si>
-  <si>
-    <t>Temps thermique cumulé depuis la levée</t>
-  </si>
-  <si>
-    <t>Temperature sum from emergence</t>
-  </si>
-  <si>
-    <t>PhasePhenoPlante</t>
-  </si>
-  <si>
-    <t>PhenoStage</t>
-  </si>
-  <si>
-    <t>Index de phénologie</t>
-  </si>
-  <si>
-    <t>Phenological stages index</t>
-  </si>
-  <si>
-    <t>contrainte_eau</t>
-  </si>
-  <si>
-    <t>FTSW</t>
-  </si>
-  <si>
-    <t>WaterStress</t>
-  </si>
-  <si>
-    <t>Facteur de contrainte hydrique</t>
-  </si>
-  <si>
-    <t>Water stress index</t>
-  </si>
-  <si>
-    <t>FHTR</t>
-  </si>
-  <si>
-    <t>WaterStressConductance</t>
-  </si>
-  <si>
-    <t>Facteur de réponse de la transpiration à la contrainte hydrique</t>
-  </si>
-  <si>
-    <t>Transpiration response to water stress</t>
-  </si>
-  <si>
-    <t>FHRUE</t>
-  </si>
-  <si>
-    <t>Facteur de réponse de la photosynthèse à la contrainte hydrique</t>
-  </si>
-  <si>
-    <t>Photosynthesis response to water stress</t>
-  </si>
-  <si>
-    <t>ETRETM</t>
-  </si>
-  <si>
-    <t>WaterSupplyDemandRatio</t>
-  </si>
-  <si>
-    <t>Ratio ETR/ETM</t>
-  </si>
-  <si>
-    <t>Water supply:demand ratio</t>
-  </si>
-  <si>
-    <t>contrainte_temperature</t>
-  </si>
-  <si>
-    <t>FT</t>
-  </si>
-  <si>
-    <t>FTRUE</t>
-  </si>
-  <si>
-    <t>ThermalStressRUE</t>
-  </si>
-  <si>
-    <t>Facteur de réponse de la photosynthèse à la contrainte thermique</t>
-  </si>
-  <si>
-    <t>Photosynthesis response to thermal stress</t>
-  </si>
-  <si>
-    <t>contrainte_azote</t>
-  </si>
-  <si>
-    <t>Nabs</t>
-  </si>
-  <si>
-    <t>NAB</t>
-  </si>
-  <si>
-    <t>NitrogenAbsorbed</t>
-  </si>
-  <si>
-    <t>Azote absorbé</t>
-  </si>
-  <si>
-    <t>Absorbed nitrogen</t>
-  </si>
-  <si>
-    <t>$kg.ha^{-1}.d^{-1}$</t>
-  </si>
-  <si>
-    <t>INN</t>
-  </si>
-  <si>
-    <t>NNI</t>
-  </si>
-  <si>
-    <t>NitrogenNutritionIndex</t>
-  </si>
-  <si>
-    <t>Indice de nutrition azoté</t>
-  </si>
-  <si>
-    <t>Nitrogen nutrition index</t>
-  </si>
-  <si>
-    <t>FNIRUE</t>
-  </si>
-  <si>
-    <t>FNRUE</t>
-  </si>
-  <si>
-    <t>NitrogenStressRUE</t>
-  </si>
-  <si>
-    <t>Facteur de réponse de la photosynthèse à la contrainte azote</t>
-  </si>
-  <si>
-    <t>Photosynthesis response to nitrogen stress</t>
-  </si>
-  <si>
-    <t>croissance_plante</t>
-  </si>
-  <si>
-    <t>Indice foliaire</t>
-  </si>
-  <si>
-    <t>Leaf area index</t>
-  </si>
-  <si>
-    <t>Ei</t>
-  </si>
-  <si>
-    <t>Efficience d'interception de la lumière</t>
-  </si>
-  <si>
-    <t>Radiation interception efficiency</t>
-  </si>
-  <si>
-    <t>Eb</t>
-  </si>
-  <si>
-    <t>Efficience d'utilisation de la lumière</t>
-  </si>
-  <si>
-    <t>Radiation use efficiency</t>
-  </si>
-  <si>
-    <t>TDM</t>
-  </si>
-  <si>
     <t>Biomasse aérienne</t>
   </si>
   <si>
@@ -1745,9 +1874,6 @@
     <t>verbose</t>
   </si>
   <si>
-    <t>type</t>
-  </si>
-  <si>
     <t>level</t>
   </si>
   <si>
@@ -2031,9 +2157,6 @@
   </si>
   <si>
     <t>$sum(1-FNRUE)$</t>
-  </si>
-  <si>
-    <t>state</t>
   </si>
   <si>
     <t>interception</t>
@@ -2474,17 +2597,17 @@
   </sheetPr>
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.280612244898"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.719387755102"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.780612244898"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="41.3622448979592"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.4387755102041"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.0612244897959"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.7397959183673"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="46.6173469387755"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="14.5816326530612"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2608,29 +2731,29 @@
   </sheetPr>
   <dimension ref="A1:V102"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="S1" activeCellId="0" sqref="S1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L10" activeCellId="0" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.63775510204082"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.1989795918367"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="27.719387755102"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="22.6785714285714"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="18.1785714285714"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="19.6173469387755"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="26.6377551020408"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="102.413265306122"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="62.4540816326531"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="23.7602040816327"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="21.4183673469388"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="14.3979591836735"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="12.4183673469388"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="1025" min="19" style="0" width="13.3214285714286"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.2397959183673"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.71938775510204"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.1785714285714"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="31.1377551020408"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="25.5561224489796"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="20.5204081632653"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="22.1377551020408"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="30.0561224489796"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="115.551020408163"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="70.5561224489796"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="26.8163265306122"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="24.3010204081633"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="16.1989795918367"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="20.1581632653061"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="17.0969387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="19" style="0" width="14.9387755102041"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6331,11 +6454,17 @@
       <c r="E65" s="0" t="s">
         <v>347</v>
       </c>
+      <c r="F65" s="0" t="s">
+        <v>71</v>
+      </c>
       <c r="G65" s="0" t="s">
         <v>372</v>
       </c>
+      <c r="J65" s="0" t="s">
+        <v>373</v>
+      </c>
       <c r="K65" s="0" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M65" s="4" t="s">
         <v>94</v>
@@ -6379,11 +6508,17 @@
       <c r="E66" s="0" t="s">
         <v>347</v>
       </c>
+      <c r="F66" s="0" t="s">
+        <v>71</v>
+      </c>
       <c r="G66" s="0" t="s">
-        <v>374</v>
+        <v>375</v>
+      </c>
+      <c r="J66" s="0" t="s">
+        <v>376</v>
       </c>
       <c r="K66" s="0" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="M66" s="4" t="s">
         <v>53</v>
@@ -6431,16 +6566,16 @@
         <v>71</v>
       </c>
       <c r="G67" s="0" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="J67" s="0" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="K67" s="0" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="L67" s="0" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="M67" s="4" t="s">
         <v>53</v>
@@ -6484,11 +6619,14 @@
       <c r="E68" s="0" t="s">
         <v>347</v>
       </c>
+      <c r="F68" s="0" t="s">
+        <v>71</v>
+      </c>
       <c r="G68" s="0" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="K68" s="0" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="M68" s="4" t="s">
         <v>76</v>
@@ -6532,11 +6670,17 @@
       <c r="E69" s="0" t="s">
         <v>347</v>
       </c>
+      <c r="F69" s="0" t="s">
+        <v>71</v>
+      </c>
       <c r="G69" s="0" t="s">
-        <v>382</v>
+        <v>384</v>
+      </c>
+      <c r="J69" s="0" t="s">
+        <v>385</v>
       </c>
       <c r="K69" s="0" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="M69" s="4" t="s">
         <v>76</v>
@@ -6580,11 +6724,17 @@
       <c r="E70" s="0" t="s">
         <v>347</v>
       </c>
+      <c r="F70" s="0" t="s">
+        <v>71</v>
+      </c>
       <c r="G70" s="0" t="s">
-        <v>384</v>
+        <v>387</v>
+      </c>
+      <c r="J70" s="0" t="s">
+        <v>388</v>
       </c>
       <c r="K70" s="0" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="M70" s="4" t="s">
         <v>94</v>
@@ -6629,13 +6779,13 @@
         <v>347</v>
       </c>
       <c r="G71" s="0" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="K71" s="0" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="M71" s="0" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="N71" s="0" t="s">
         <v>115</v>
@@ -6677,13 +6827,13 @@
         <v>347</v>
       </c>
       <c r="G72" s="0" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="K72" s="0" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="M72" s="0" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="N72" s="0" t="s">
         <v>115</v>
@@ -6725,13 +6875,13 @@
         <v>347</v>
       </c>
       <c r="G73" s="0" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="K73" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="M73" s="0" t="s">
         <v>392</v>
-      </c>
-      <c r="M73" s="0" t="s">
-        <v>388</v>
       </c>
       <c r="N73" s="0" t="s">
         <v>115</v>
@@ -6773,13 +6923,13 @@
         <v>347</v>
       </c>
       <c r="G74" s="0" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="K74" s="0" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="M74" s="0" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="N74" s="0" t="s">
         <v>115</v>
@@ -6821,10 +6971,10 @@
         <v>347</v>
       </c>
       <c r="G75" s="0" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="K75" s="0" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="M75" s="4" t="s">
         <v>350</v>
@@ -6869,10 +7019,10 @@
         <v>347</v>
       </c>
       <c r="G76" s="0" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="K76" s="4" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="L76" s="4"/>
       <c r="M76" s="4" t="s">
@@ -6918,10 +7068,10 @@
         <v>347</v>
       </c>
       <c r="G77" s="0" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="K77" s="4" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="L77" s="4"/>
       <c r="M77" s="4" t="s">
@@ -6967,10 +7117,10 @@
         <v>347</v>
       </c>
       <c r="G78" s="0" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="K78" s="0" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="M78" s="4" t="s">
         <v>94</v>
@@ -7015,10 +7165,10 @@
         <v>347</v>
       </c>
       <c r="G79" s="0" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="K79" s="0" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="M79" s="4" t="s">
         <v>350</v>
@@ -7063,10 +7213,10 @@
         <v>347</v>
       </c>
       <c r="G80" s="0" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="K80" s="0" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="M80" s="4" t="s">
         <v>94</v>
@@ -7108,19 +7258,19 @@
         <v>346</v>
       </c>
       <c r="E81" s="0" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="G81" s="0" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="K81" s="0" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="M81" s="4" t="s">
         <v>144</v>
       </c>
       <c r="N81" s="0" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="O81" s="5" t="n">
         <v>4.53</v>
@@ -7156,19 +7306,19 @@
         <v>346</v>
       </c>
       <c r="E82" s="0" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="G82" s="0" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="K82" s="0" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="M82" s="4" t="s">
         <v>94</v>
       </c>
       <c r="N82" s="0" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="O82" s="5" t="n">
         <v>0.42</v>
@@ -7204,19 +7354,19 @@
         <v>346</v>
       </c>
       <c r="E83" s="0" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="G83" s="0" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="K83" s="0" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="M83" s="4" t="s">
         <v>144</v>
       </c>
       <c r="N83" s="0" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="O83" s="5" t="n">
         <v>6.49</v>
@@ -7252,19 +7402,19 @@
         <v>346</v>
       </c>
       <c r="E84" s="0" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="G84" s="0" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="K84" s="0" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="M84" s="4" t="s">
         <v>94</v>
       </c>
       <c r="N84" s="0" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="O84" s="5" t="n">
         <v>0.44</v>
@@ -7300,19 +7450,19 @@
         <v>346</v>
       </c>
       <c r="E85" s="0" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="G85" s="0" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="K85" s="0" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="M85" s="0" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="N85" s="0" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="O85" s="5" t="n">
         <v>75</v>
@@ -7348,19 +7498,19 @@
         <v>346</v>
       </c>
       <c r="E86" s="0" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="G86" s="0" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="K86" s="0" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="M86" s="0" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="N86" s="0" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="O86" s="5" t="n">
         <v>75</v>
@@ -7396,19 +7546,19 @@
         <v>346</v>
       </c>
       <c r="E87" s="0" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="G87" s="0" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="K87" s="0" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="M87" s="4" t="s">
         <v>94</v>
       </c>
       <c r="N87" s="0" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="O87" s="5" t="n">
         <v>0.6</v>
@@ -7444,19 +7594,19 @@
         <v>346</v>
       </c>
       <c r="E88" s="0" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="G88" s="0" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="K88" s="0" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="M88" s="4" t="s">
         <v>94</v>
       </c>
       <c r="N88" s="0" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="O88" s="5" t="n">
         <v>0.3</v>
@@ -7492,16 +7642,16 @@
         <v>346</v>
       </c>
       <c r="E89" s="0" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="G89" s="0" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="K89" s="0" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="M89" s="4" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="N89" s="0" t="s">
         <v>54</v>
@@ -7540,13 +7690,13 @@
         <v>346</v>
       </c>
       <c r="E90" s="0" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="G90" s="0" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="K90" s="0" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="M90" s="4" t="s">
         <v>94</v>
@@ -7585,13 +7735,13 @@
         <v>346</v>
       </c>
       <c r="E91" s="0" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="G91" s="0" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="K91" s="0" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="M91" s="4" t="s">
         <v>94</v>
@@ -7633,28 +7783,28 @@
         <v>346</v>
       </c>
       <c r="E92" s="0" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="F92" s="0" t="s">
         <v>47</v>
       </c>
       <c r="G92" s="0" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="J92" s="0" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="K92" s="0" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="L92" s="0" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="M92" s="4" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="N92" s="0" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="O92" s="5" t="n">
         <v>1.19</v>
@@ -7684,16 +7834,16 @@
         <v>100</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="D93" s="0" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="E93" s="0" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="G93" s="0" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="M93" s="4"/>
       <c r="Q93" s="0" t="n">
@@ -7720,16 +7870,16 @@
         <v>101</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="D94" s="0" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="E94" s="0" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="G94" s="0" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="M94" s="4"/>
       <c r="Q94" s="0" t="n">
@@ -7756,16 +7906,16 @@
         <v>102</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="D95" s="0" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="E95" s="0" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="G95" s="0" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="M95" s="4"/>
       <c r="Q95" s="0" t="n">
@@ -7792,16 +7942,16 @@
         <v>103</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="D96" s="0" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="E96" s="0" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="G96" s="0" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="M96" s="4"/>
       <c r="Q96" s="0" t="n">
@@ -7828,16 +7978,16 @@
         <v>104</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="D97" s="0" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="E97" s="0" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="G97" s="0" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="M97" s="4"/>
       <c r="Q97" s="0" t="n">
@@ -7864,16 +8014,16 @@
         <v>105</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="D98" s="0" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="E98" s="0" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="G98" s="0" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="M98" s="4"/>
       <c r="Q98" s="0" t="n">
@@ -7900,16 +8050,16 @@
         <v>106</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="D99" s="0" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="E99" s="0" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="G99" s="0" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="M99" s="4"/>
       <c r="Q99" s="0" t="n">
@@ -7936,16 +8086,16 @@
         <v>107</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="D100" s="0" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="E100" s="0" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="G100" s="0" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="M100" s="4"/>
       <c r="Q100" s="0" t="n">
@@ -7972,16 +8122,16 @@
         <v>108</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="D101" s="0" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="E101" s="0" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="G101" s="0" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="M101" s="4"/>
       <c r="Q101" s="0" t="n">
@@ -8008,16 +8158,16 @@
         <v>109</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="D102" s="0" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="E102" s="0" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="G102" s="0" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="Q102" s="0" t="n">
         <v>0</v>
@@ -8039,7 +8189,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R102"/>
+  <autoFilter ref="A1:V102"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -8057,34 +8207,34 @@
     <tabColor rgb="FFFFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A23" activeCellId="0" sqref="A23"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A30" activeCellId="0" sqref="A30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.15"/>
+  <sheetFormatPr defaultRowHeight="13.85"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.1785714285714"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.219387755102"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.719387755102"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="28.6173469387755"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.5204081632653"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="14.5816326530612"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="26.0969387755102"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="48.8418367346939"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="32.3979591836735"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="14.5816326530612"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -8092,112 +8242,481 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="2" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="0" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="0" t="s">
+        <v>458</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>459</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>460</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
+        <v>461</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>462</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>459</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>460</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>461</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>458</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>463</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>464</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>461</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>458</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>465</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>466</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>461</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>458</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>467</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>468</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>461</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>458</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>469</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>470</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>461</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>458</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>471</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>472</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>461</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>474</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>475</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>476</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>461</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>474</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>478</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>479</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>461</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>458</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>480</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>481</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>461</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>458</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>482</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>483</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>461</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>458</v>
+      </c>
+      <c r="D13" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="C3" s="0" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="C7" s="0" t="s">
+      <c r="E13" s="0" t="s">
+        <v>484</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>461</v>
+      </c>
+      <c r="B14" s="0" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>460</v>
-      </c>
-      <c r="C10" s="0" t="s">
+      <c r="D14" s="0" t="s">
+        <v>485</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>486</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>460</v>
-      </c>
-      <c r="C11" s="0" t="s">
+      <c r="B15" s="0" t="s">
+        <v>474</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>487</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>488</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>461</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>490</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>461</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>490</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>461</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>490</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>461</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>490</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>357</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>359</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>461</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>490</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>362</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>364</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>461</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>490</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>491</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>381</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>461</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>490</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>493</v>
+      </c>
+      <c r="B23" s="0" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>460</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>464</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>464</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>464</v>
+      <c r="D23" s="0" t="s">
+        <v>494</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>495</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>493</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>462</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>496</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>497</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>493</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>462</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>498</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>499</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>493</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>490</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="F26" s="0" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>493</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>458</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>501</v>
+      </c>
+      <c r="F27" s="0" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>493</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>458</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>502</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>503</v>
+      </c>
+      <c r="F28" s="0" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>493</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>458</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>504</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>505</v>
+      </c>
+      <c r="F29" s="0" t="s">
+        <v>489</v>
       </c>
     </row>
   </sheetData>
@@ -8219,30 +8738,30 @@
   </sheetPr>
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.1377551020408"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.4387755102041"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="31.3163265306122"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.2397959183673"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="62.4540816326531"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="34.5561224489796"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="25.3775510204082"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="14.3979591836735"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="13.1377551020408"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.7602040816327"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.219387755102"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.2755102040816"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.3367346938776"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="23.7602040816327"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="70.5561224489796"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="38.8775510204082"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="28.6173469387755"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="16.1989795918367"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="14.7602040816327"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>466</v>
+        <v>506</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>467</v>
+        <v>507</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>33</v>
@@ -8263,18 +8782,18 @@
         <v>4</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>468</v>
+        <v>508</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>469</v>
+        <v>509</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>470</v>
+        <v>510</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>471</v>
+        <v>511</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>5</v>
@@ -8283,7 +8802,7 @@
         <v>6</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>472</v>
+        <v>512</v>
       </c>
       <c r="G2" s="0" t="s">
         <v>8</v>
@@ -8297,13 +8816,13 @@
     </row>
     <row r="3" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>469</v>
+        <v>509</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>470</v>
+        <v>510</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>473</v>
+        <v>513</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>10</v>
@@ -8312,7 +8831,7 @@
         <v>11</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>474</v>
+        <v>514</v>
       </c>
       <c r="G3" s="0" t="s">
         <v>13</v>
@@ -8326,25 +8845,25 @@
     </row>
     <row r="4" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>469</v>
+        <v>509</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>470</v>
+        <v>510</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>475</v>
+        <v>515</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>476</v>
+        <v>516</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>477</v>
+        <v>517</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>478</v>
+        <v>518</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>479</v>
+        <v>519</v>
       </c>
       <c r="H4" s="0" t="s">
         <v>350</v>
@@ -8355,13 +8874,13 @@
     </row>
     <row r="5" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>469</v>
+        <v>509</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>470</v>
+        <v>510</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>480</v>
+        <v>520</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>14</v>
@@ -8376,7 +8895,7 @@
         <v>17</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>481</v>
+        <v>521</v>
       </c>
       <c r="I5" s="0" t="n">
         <v>1</v>
@@ -8384,13 +8903,13 @@
     </row>
     <row r="6" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>469</v>
+        <v>509</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>470</v>
+        <v>510</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>482</v>
+        <v>522</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>19</v>
@@ -8402,7 +8921,7 @@
         <v>21</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>483</v>
+        <v>523</v>
       </c>
       <c r="H6" s="0" t="s">
         <v>137</v>
@@ -8413,13 +8932,13 @@
     </row>
     <row r="7" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>469</v>
+        <v>509</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>470</v>
+        <v>510</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>484</v>
+        <v>524</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>24</v>
@@ -8442,25 +8961,25 @@
     </row>
     <row r="8" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>485</v>
+        <v>525</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>486</v>
+        <v>526</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>487</v>
+        <v>527</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>488</v>
+        <v>528</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>489</v>
+        <v>529</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>490</v>
+        <v>530</v>
       </c>
       <c r="H8" s="0" t="s">
         <v>53</v>
@@ -8471,25 +8990,25 @@
     </row>
     <row r="9" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>485</v>
+        <v>525</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>486</v>
+        <v>526</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>491</v>
+        <v>531</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>492</v>
+        <v>532</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>492</v>
+        <v>532</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>493</v>
+        <v>533</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>494</v>
+        <v>534</v>
       </c>
       <c r="H9" s="0" t="s">
         <v>94</v>
@@ -8500,10 +9019,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>485</v>
+        <v>525</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>495</v>
+        <v>535</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>496</v>
@@ -8512,13 +9031,13 @@
         <v>496</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>497</v>
+        <v>536</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>498</v>
+        <v>537</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>499</v>
+        <v>538</v>
       </c>
       <c r="H10" s="0" t="s">
         <v>94</v>
@@ -8529,25 +9048,25 @@
     </row>
     <row r="11" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>485</v>
+        <v>525</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>495</v>
+        <v>535</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>500</v>
+        <v>539</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>500</v>
+        <v>539</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>501</v>
+        <v>540</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>502</v>
+        <v>541</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>503</v>
+        <v>542</v>
       </c>
       <c r="H11" s="0" t="s">
         <v>94</v>
@@ -8558,25 +9077,25 @@
     </row>
     <row r="12" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>485</v>
+        <v>525</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>495</v>
+        <v>535</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>504</v>
+        <v>543</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>504</v>
+        <v>543</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>501</v>
+        <v>540</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>505</v>
+        <v>544</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>506</v>
+        <v>545</v>
       </c>
       <c r="H12" s="0" t="s">
         <v>94</v>
@@ -8587,25 +9106,25 @@
     </row>
     <row r="13" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>485</v>
+        <v>525</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>495</v>
+        <v>535</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>507</v>
+        <v>546</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>507</v>
+        <v>546</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>508</v>
+        <v>547</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>509</v>
+        <v>548</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>510</v>
+        <v>549</v>
       </c>
       <c r="H13" s="0" t="s">
         <v>94</v>
@@ -8616,25 +9135,25 @@
     </row>
     <row r="14" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>485</v>
+        <v>525</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>511</v>
+        <v>550</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>512</v>
+        <v>551</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>513</v>
+        <v>552</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>514</v>
+        <v>553</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>515</v>
+        <v>554</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>516</v>
+        <v>555</v>
       </c>
       <c r="H14" s="0" t="s">
         <v>94</v>
@@ -8645,28 +9164,28 @@
     </row>
     <row r="15" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>485</v>
+        <v>525</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>517</v>
+        <v>556</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>518</v>
+        <v>557</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>519</v>
+        <v>558</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>520</v>
+        <v>559</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>521</v>
+        <v>560</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>522</v>
+        <v>561</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>523</v>
+        <v>562</v>
       </c>
       <c r="I15" s="0" t="n">
         <v>1</v>
@@ -8674,25 +9193,25 @@
     </row>
     <row r="16" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>485</v>
+        <v>525</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>517</v>
+        <v>556</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>524</v>
+        <v>563</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>525</v>
+        <v>498</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>526</v>
+        <v>564</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>527</v>
+        <v>565</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>528</v>
+        <v>566</v>
       </c>
       <c r="H16" s="0" t="s">
         <v>94</v>
@@ -8703,25 +9222,25 @@
     </row>
     <row r="17" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>485</v>
+        <v>525</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>517</v>
+        <v>556</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>529</v>
+        <v>567</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>530</v>
+        <v>568</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>531</v>
+        <v>569</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>532</v>
+        <v>570</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>533</v>
+        <v>571</v>
       </c>
       <c r="H17" s="0" t="s">
         <v>94</v>
@@ -8732,25 +9251,25 @@
     </row>
     <row r="18" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>485</v>
+        <v>525</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>534</v>
+        <v>572</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>462</v>
+        <v>573</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>462</v>
+        <v>573</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>462</v>
+        <v>573</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>535</v>
+        <v>574</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>536</v>
+        <v>575</v>
       </c>
       <c r="H18" s="0" t="s">
         <v>94</v>
@@ -8761,25 +9280,25 @@
     </row>
     <row r="19" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>485</v>
+        <v>525</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>534</v>
+        <v>572</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>537</v>
+        <v>576</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>463</v>
+        <v>494</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>463</v>
+        <v>494</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>538</v>
+        <v>577</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>539</v>
+        <v>578</v>
       </c>
       <c r="H19" s="0" t="s">
         <v>94</v>
@@ -8790,25 +9309,25 @@
     </row>
     <row r="20" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>485</v>
+        <v>525</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>534</v>
+        <v>572</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>540</v>
+        <v>579</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>465</v>
+        <v>580</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>465</v>
+        <v>580</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>541</v>
+        <v>581</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>542</v>
+        <v>582</v>
       </c>
       <c r="H20" s="0" t="s">
         <v>94</v>
@@ -8819,28 +9338,28 @@
     </row>
     <row r="21" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>485</v>
+        <v>525</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>534</v>
+        <v>572</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>543</v>
+        <v>583</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>543</v>
+        <v>583</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>464</v>
+        <v>584</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>544</v>
+        <v>585</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>545</v>
+        <v>586</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="I21" s="0" t="n">
         <v>1</v>
@@ -8848,28 +9367,28 @@
     </row>
     <row r="22" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>485</v>
+        <v>525</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>546</v>
+        <v>587</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>547</v>
+        <v>588</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>548</v>
+        <v>589</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>549</v>
+        <v>590</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>550</v>
+        <v>591</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>551</v>
+        <v>592</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>552</v>
+        <v>593</v>
       </c>
       <c r="I22" s="0" t="n">
         <v>1</v>
@@ -8877,28 +9396,28 @@
     </row>
     <row r="23" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>485</v>
+        <v>525</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>553</v>
+        <v>594</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>554</v>
+        <v>595</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>117</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>555</v>
+        <v>596</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>556</v>
+        <v>597</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>557</v>
+        <v>598</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>558</v>
+        <v>599</v>
       </c>
       <c r="I23" s="0" t="n">
         <v>1</v>
@@ -8923,38 +9442,38 @@
   </sheetPr>
   <dimension ref="1:85"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A36" activeCellId="0" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="15.4795918367347"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="49.1377551020408"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="45.719387755102"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="20.1581632653061"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="25.7397959183673"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="12.0612244897959"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="14.5816326530612"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="17.4591836734694"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="20.1581632653061"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="55.4387755102041"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="51.4744897959184"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="22.6785714285714"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="28.9795918367347"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="13.5"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="14.5816326530612"/>
   </cols>
   <sheetData>
     <row r="1" s="8" customFormat="true" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>559</v>
+        <v>600</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>560</v>
+        <v>457</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>561</v>
+        <v>601</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>562</v>
+        <v>602</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>563</v>
+        <v>603</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>34</v>
@@ -8969,2952 +9488,2952 @@
         <v>4</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>564</v>
+        <v>604</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>565</v>
+        <v>605</v>
       </c>
       <c r="AMI1" s="0"/>
       <c r="AMJ1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>566</v>
+        <v>606</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>567</v>
+        <v>607</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>568</v>
+        <v>608</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>569</v>
+        <v>609</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>570</v>
+        <v>610</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>571</v>
+        <v>611</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>572</v>
+        <v>612</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>573</v>
+        <v>613</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>481</v>
+        <v>521</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>574</v>
+        <v>614</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>566</v>
+        <v>606</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>566</v>
+        <v>606</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>567</v>
+        <v>607</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>568</v>
+        <v>608</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>575</v>
+        <v>615</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>94</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>576</v>
+        <v>616</v>
       </c>
       <c r="G3" s="0" t="s">
         <v>26</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>577</v>
+        <v>617</v>
       </c>
       <c r="I3" s="0" t="s">
         <v>137</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>578</v>
+        <v>618</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>566</v>
+        <v>606</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>566</v>
+        <v>606</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>567</v>
+        <v>607</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>568</v>
+        <v>608</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>575</v>
+        <v>615</v>
       </c>
       <c r="E4" s="0" t="s">
         <v>94</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>579</v>
+        <v>619</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>580</v>
+        <v>620</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>581</v>
+        <v>621</v>
       </c>
       <c r="I4" s="0" t="s">
         <v>137</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>582</v>
+        <v>622</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>566</v>
+        <v>606</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>566</v>
+        <v>606</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>567</v>
+        <v>607</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>568</v>
+        <v>608</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>575</v>
+        <v>615</v>
       </c>
       <c r="E5" s="0" t="s">
         <v>94</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>583</v>
+        <v>623</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>584</v>
+        <v>624</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>585</v>
+        <v>625</v>
       </c>
       <c r="I5" s="0" t="s">
         <v>137</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>586</v>
+        <v>626</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>566</v>
+        <v>606</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>566</v>
+        <v>606</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>567</v>
+        <v>607</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>587</v>
+        <v>627</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>588</v>
+        <v>628</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>589</v>
+        <v>629</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>590</v>
+        <v>630</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>591</v>
+        <v>631</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>592</v>
+        <v>632</v>
       </c>
       <c r="I6" s="0" t="s">
         <v>53</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>593</v>
+        <v>633</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>566</v>
+        <v>606</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>566</v>
+        <v>606</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>567</v>
+        <v>607</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>587</v>
+        <v>627</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>588</v>
+        <v>628</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>589</v>
+        <v>629</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>594</v>
+        <v>634</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>595</v>
+        <v>635</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>596</v>
+        <v>636</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>597</v>
+        <v>637</v>
       </c>
       <c r="J7" s="0" t="s">
         <v>94</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>598</v>
+        <v>638</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>566</v>
+        <v>606</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>567</v>
+        <v>607</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>599</v>
+        <v>639</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>588</v>
+        <v>628</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>589</v>
+        <v>629</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>600</v>
+        <v>640</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>601</v>
+        <v>641</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>602</v>
+        <v>642</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>597</v>
+        <v>637</v>
       </c>
       <c r="J8" s="0" t="s">
         <v>94</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>603</v>
+        <v>643</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>566</v>
+        <v>606</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>567</v>
+        <v>607</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>599</v>
+        <v>639</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>588</v>
+        <v>628</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>589</v>
+        <v>629</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>604</v>
+        <v>644</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>605</v>
+        <v>645</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>606</v>
+        <v>646</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>597</v>
+        <v>637</v>
       </c>
       <c r="J9" s="0" t="s">
         <v>94</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>607</v>
+        <v>647</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>566</v>
+        <v>606</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>567</v>
+        <v>607</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>599</v>
+        <v>639</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>588</v>
+        <v>628</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>589</v>
+        <v>629</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>608</v>
+        <v>648</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>609</v>
+        <v>649</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>610</v>
+        <v>650</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>597</v>
+        <v>637</v>
       </c>
       <c r="J10" s="0" t="s">
         <v>94</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>611</v>
+        <v>651</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>566</v>
+        <v>606</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>612</v>
+        <v>652</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>587</v>
+        <v>627</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>588</v>
+        <v>628</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>570</v>
+        <v>610</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>613</v>
+        <v>653</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>614</v>
+        <v>654</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>615</v>
+        <v>655</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>597</v>
+        <v>637</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>616</v>
+        <v>656</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>566</v>
+        <v>606</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>566</v>
+        <v>606</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>612</v>
+        <v>652</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>587</v>
+        <v>627</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>588</v>
+        <v>628</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>570</v>
+        <v>610</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>617</v>
+        <v>657</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>618</v>
+        <v>658</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>619</v>
+        <v>659</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>597</v>
+        <v>637</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>620</v>
+        <v>660</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>566</v>
+        <v>606</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>566</v>
+        <v>606</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>612</v>
+        <v>652</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>587</v>
+        <v>627</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>588</v>
+        <v>628</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>570</v>
+        <v>610</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>621</v>
+        <v>661</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>622</v>
+        <v>662</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>623</v>
+        <v>663</v>
       </c>
       <c r="I13" s="0" t="s">
         <v>94</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>624</v>
+        <v>664</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>566</v>
+        <v>606</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>566</v>
+        <v>606</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>612</v>
+        <v>652</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>587</v>
+        <v>627</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>575</v>
+        <v>615</v>
       </c>
       <c r="E14" s="0" t="s">
         <v>94</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>625</v>
+        <v>665</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>626</v>
+        <v>666</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>627</v>
+        <v>667</v>
       </c>
       <c r="I14" s="0" t="s">
         <v>94</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>628</v>
+        <v>668</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>566</v>
+        <v>606</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>566</v>
+        <v>606</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>612</v>
+        <v>652</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>587</v>
+        <v>627</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>575</v>
+        <v>615</v>
       </c>
       <c r="E15" s="0" t="s">
         <v>94</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>629</v>
+        <v>669</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>626</v>
+        <v>666</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>627</v>
+        <v>667</v>
       </c>
       <c r="I15" s="0" t="s">
         <v>94</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>630</v>
+        <v>670</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>566</v>
+        <v>606</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>566</v>
+        <v>606</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>612</v>
+        <v>652</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>587</v>
+        <v>627</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>575</v>
+        <v>615</v>
       </c>
       <c r="E16" s="0" t="s">
         <v>94</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>631</v>
+        <v>671</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>632</v>
+        <v>672</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>633</v>
+        <v>673</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>597</v>
+        <v>637</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>634</v>
+        <v>674</v>
       </c>
       <c r="K16" s="0" t="s">
-        <v>566</v>
+        <v>606</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>566</v>
+        <v>606</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>612</v>
+        <v>652</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>599</v>
+        <v>639</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>575</v>
+        <v>615</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>635</v>
+        <v>675</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>636</v>
+        <v>676</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>637</v>
+        <v>677</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>638</v>
+        <v>678</v>
       </c>
       <c r="I17" s="0" t="s">
         <v>94</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>639</v>
+        <v>679</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>566</v>
+        <v>606</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>566</v>
+        <v>606</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>612</v>
+        <v>652</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>599</v>
+        <v>639</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>575</v>
+        <v>615</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>570</v>
+        <v>610</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>640</v>
+        <v>680</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>641</v>
+        <v>681</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>642</v>
+        <v>682</v>
       </c>
       <c r="I18" s="0" t="s">
         <v>94</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>643</v>
+        <v>683</v>
       </c>
       <c r="K18" s="0" t="s">
-        <v>566</v>
+        <v>606</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>566</v>
+        <v>606</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>567</v>
+        <v>607</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>587</v>
+        <v>627</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>644</v>
+        <v>684</v>
       </c>
       <c r="E19" s="0" t="s">
         <v>94</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>645</v>
+        <v>685</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>521</v>
+        <v>560</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>522</v>
+        <v>561</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>646</v>
+        <v>686</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>647</v>
+        <v>687</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>566</v>
+        <v>606</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>566</v>
+        <v>606</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>612</v>
+        <v>652</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>587</v>
+        <v>627</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>644</v>
+        <v>684</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>570</v>
+        <v>610</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>648</v>
+        <v>688</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>649</v>
+        <v>689</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>650</v>
+        <v>690</v>
       </c>
       <c r="I20" s="0" t="s">
         <v>94</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>651</v>
+        <v>691</v>
       </c>
       <c r="K20" s="0" t="s">
-        <v>566</v>
+        <v>606</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>566</v>
+        <v>606</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>612</v>
+        <v>652</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>587</v>
+        <v>627</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>644</v>
+        <v>684</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>570</v>
+        <v>610</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>652</v>
+        <v>692</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>653</v>
+        <v>693</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>654</v>
+        <v>694</v>
       </c>
       <c r="I21" s="0" t="s">
         <v>94</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>655</v>
+        <v>695</v>
       </c>
       <c r="K21" s="0" t="s">
-        <v>566</v>
+        <v>606</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>566</v>
+        <v>606</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>656</v>
+        <v>458</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>599</v>
+        <v>639</v>
       </c>
       <c r="D22" s="0" t="s">
         <v>94</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>657</v>
+        <v>696</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>462</v>
+        <v>573</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>658</v>
+        <v>697</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>536</v>
+        <v>575</v>
       </c>
       <c r="I22" s="0" t="s">
         <v>94</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>659</v>
+        <v>698</v>
       </c>
       <c r="K22" s="0" t="s">
-        <v>566</v>
+        <v>606</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>566</v>
+        <v>606</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>656</v>
+        <v>458</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>599</v>
+        <v>639</v>
       </c>
       <c r="D23" s="0" t="s">
         <v>94</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>657</v>
+        <v>696</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>660</v>
+        <v>699</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>661</v>
+        <v>700</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>662</v>
+        <v>701</v>
       </c>
       <c r="I23" s="0" t="s">
         <v>94</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>663</v>
+        <v>702</v>
       </c>
       <c r="K23" s="0" t="s">
-        <v>566</v>
+        <v>606</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>566</v>
+        <v>606</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>567</v>
+        <v>607</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>599</v>
+        <v>639</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>569</v>
+        <v>609</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>657</v>
+        <v>696</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>664</v>
+        <v>703</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>665</v>
+        <v>704</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>666</v>
+        <v>705</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>481</v>
+        <v>521</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>667</v>
+        <v>706</v>
       </c>
       <c r="K24" s="0" t="s">
-        <v>566</v>
+        <v>606</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>566</v>
+        <v>606</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>656</v>
+        <v>458</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>599</v>
+        <v>639</v>
       </c>
       <c r="D25" s="0" t="s">
         <v>94</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>570</v>
+        <v>610</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>668</v>
+        <v>707</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>669</v>
+        <v>708</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>670</v>
+        <v>709</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>671</v>
+        <v>710</v>
       </c>
       <c r="K25" s="0" t="s">
-        <v>566</v>
+        <v>606</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>566</v>
+        <v>606</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>656</v>
+        <v>458</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>599</v>
+        <v>639</v>
       </c>
       <c r="D26" s="0" t="s">
         <v>94</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>570</v>
+        <v>610</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>672</v>
+        <v>711</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>673</v>
+        <v>712</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>674</v>
+        <v>713</v>
       </c>
       <c r="I26" s="0" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>675</v>
+        <v>714</v>
       </c>
       <c r="K26" s="0" t="s">
-        <v>566</v>
+        <v>606</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>566</v>
+        <v>606</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>656</v>
+        <v>458</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>599</v>
+        <v>639</v>
       </c>
       <c r="D27" s="0" t="s">
         <v>94</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>676</v>
+        <v>715</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>548</v>
+        <v>589</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>550</v>
+        <v>591</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>551</v>
+        <v>592</v>
       </c>
       <c r="I27" s="0" t="s">
-        <v>552</v>
+        <v>593</v>
       </c>
       <c r="J27" s="0" t="s">
-        <v>677</v>
+        <v>716</v>
       </c>
       <c r="K27" s="0" t="s">
-        <v>566</v>
+        <v>606</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>566</v>
+        <v>606</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>656</v>
+        <v>458</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>599</v>
+        <v>639</v>
       </c>
       <c r="D28" s="0" t="s">
         <v>94</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>676</v>
+        <v>715</v>
       </c>
       <c r="F28" s="0" t="s">
         <v>117</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>556</v>
+        <v>597</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>557</v>
+        <v>598</v>
       </c>
       <c r="I28" s="0" t="s">
-        <v>558</v>
+        <v>599</v>
       </c>
       <c r="J28" s="0" t="s">
-        <v>678</v>
+        <v>717</v>
       </c>
       <c r="K28" s="0" t="s">
-        <v>566</v>
+        <v>606</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>679</v>
+        <v>718</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>567</v>
+        <v>607</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>568</v>
+        <v>608</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>569</v>
+        <v>609</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>570</v>
+        <v>610</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>680</v>
+        <v>719</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>572</v>
+        <v>612</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>573</v>
+        <v>613</v>
       </c>
       <c r="I29" s="0" t="s">
-        <v>481</v>
+        <v>521</v>
       </c>
       <c r="J29" s="0" t="s">
-        <v>574</v>
+        <v>614</v>
       </c>
       <c r="K29" s="0" t="s">
-        <v>603</v>
+        <v>643</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>679</v>
+        <v>718</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>567</v>
+        <v>607</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>568</v>
+        <v>608</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>569</v>
+        <v>609</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>570</v>
+        <v>610</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>681</v>
+        <v>720</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>572</v>
+        <v>612</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>573</v>
+        <v>613</v>
       </c>
       <c r="I30" s="0" t="s">
-        <v>481</v>
+        <v>521</v>
       </c>
       <c r="J30" s="0" t="s">
-        <v>574</v>
+        <v>614</v>
       </c>
       <c r="K30" s="0" t="s">
-        <v>607</v>
+        <v>647</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>679</v>
+        <v>718</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>567</v>
+        <v>607</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>568</v>
+        <v>608</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>569</v>
+        <v>609</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>570</v>
+        <v>610</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>682</v>
+        <v>721</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>572</v>
+        <v>612</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>573</v>
+        <v>613</v>
       </c>
       <c r="I31" s="0" t="s">
-        <v>481</v>
+        <v>521</v>
       </c>
       <c r="J31" s="0" t="s">
-        <v>574</v>
+        <v>614</v>
       </c>
       <c r="K31" s="0" t="s">
-        <v>611</v>
+        <v>651</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>679</v>
+        <v>718</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>567</v>
+        <v>607</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>568</v>
+        <v>608</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>575</v>
+        <v>615</v>
       </c>
       <c r="E32" s="0" t="s">
         <v>94</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>683</v>
+        <v>722</v>
       </c>
       <c r="G32" s="0" t="s">
         <v>26</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>577</v>
+        <v>617</v>
       </c>
       <c r="I32" s="0" t="s">
         <v>137</v>
       </c>
       <c r="J32" s="0" t="s">
-        <v>578</v>
+        <v>618</v>
       </c>
       <c r="K32" s="0" t="s">
-        <v>603</v>
+        <v>643</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>679</v>
+        <v>718</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>567</v>
+        <v>607</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>568</v>
+        <v>608</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>575</v>
+        <v>615</v>
       </c>
       <c r="E33" s="0" t="s">
         <v>94</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>684</v>
+        <v>723</v>
       </c>
       <c r="G33" s="0" t="s">
         <v>26</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>577</v>
+        <v>617</v>
       </c>
       <c r="I33" s="0" t="s">
         <v>137</v>
       </c>
       <c r="J33" s="0" t="s">
-        <v>578</v>
+        <v>618</v>
       </c>
       <c r="K33" s="0" t="s">
-        <v>607</v>
+        <v>647</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>679</v>
+        <v>718</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>567</v>
+        <v>607</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>568</v>
+        <v>608</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>575</v>
+        <v>615</v>
       </c>
       <c r="E34" s="0" t="s">
         <v>94</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>685</v>
+        <v>724</v>
       </c>
       <c r="G34" s="0" t="s">
         <v>26</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>577</v>
+        <v>617</v>
       </c>
       <c r="I34" s="0" t="s">
         <v>137</v>
       </c>
       <c r="J34" s="0" t="s">
-        <v>578</v>
+        <v>618</v>
       </c>
       <c r="K34" s="0" t="s">
-        <v>611</v>
+        <v>651</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>679</v>
+        <v>718</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>567</v>
+        <v>607</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>568</v>
+        <v>608</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>575</v>
+        <v>615</v>
       </c>
       <c r="E35" s="0" t="s">
         <v>94</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>686</v>
+        <v>725</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>580</v>
+        <v>620</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>581</v>
+        <v>621</v>
       </c>
       <c r="I35" s="0" t="s">
         <v>137</v>
       </c>
       <c r="J35" s="0" t="s">
-        <v>582</v>
+        <v>622</v>
       </c>
       <c r="K35" s="0" t="s">
-        <v>603</v>
+        <v>643</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>679</v>
+        <v>718</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>567</v>
+        <v>607</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>568</v>
+        <v>608</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>575</v>
+        <v>615</v>
       </c>
       <c r="E36" s="0" t="s">
         <v>94</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>687</v>
+        <v>726</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>580</v>
+        <v>620</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>581</v>
+        <v>621</v>
       </c>
       <c r="I36" s="0" t="s">
         <v>137</v>
       </c>
       <c r="J36" s="0" t="s">
-        <v>582</v>
+        <v>622</v>
       </c>
       <c r="K36" s="0" t="s">
-        <v>607</v>
+        <v>647</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>679</v>
+        <v>718</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>567</v>
+        <v>607</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>568</v>
+        <v>608</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>575</v>
+        <v>615</v>
       </c>
       <c r="E37" s="0" t="s">
         <v>94</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>688</v>
+        <v>727</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>580</v>
+        <v>620</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>581</v>
+        <v>621</v>
       </c>
       <c r="I37" s="0" t="s">
         <v>137</v>
       </c>
       <c r="J37" s="0" t="s">
-        <v>582</v>
+        <v>622</v>
       </c>
       <c r="K37" s="0" t="s">
-        <v>611</v>
+        <v>651</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>679</v>
+        <v>718</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>567</v>
+        <v>607</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>568</v>
+        <v>608</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>575</v>
+        <v>615</v>
       </c>
       <c r="E38" s="0" t="s">
         <v>94</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>689</v>
+        <v>728</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>584</v>
+        <v>624</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>585</v>
+        <v>625</v>
       </c>
       <c r="I38" s="0" t="s">
         <v>137</v>
       </c>
       <c r="J38" s="0" t="s">
-        <v>586</v>
+        <v>626</v>
       </c>
       <c r="K38" s="0" t="s">
-        <v>603</v>
+        <v>643</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>679</v>
+        <v>718</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>567</v>
+        <v>607</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>568</v>
+        <v>608</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>575</v>
+        <v>615</v>
       </c>
       <c r="E39" s="0" t="s">
         <v>94</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>690</v>
+        <v>729</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>584</v>
+        <v>624</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>585</v>
+        <v>625</v>
       </c>
       <c r="I39" s="0" t="s">
         <v>137</v>
       </c>
       <c r="J39" s="0" t="s">
-        <v>586</v>
+        <v>626</v>
       </c>
       <c r="K39" s="0" t="s">
-        <v>607</v>
+        <v>647</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>679</v>
+        <v>718</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>567</v>
+        <v>607</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>568</v>
+        <v>608</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>575</v>
+        <v>615</v>
       </c>
       <c r="E40" s="0" t="s">
         <v>94</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>691</v>
+        <v>730</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>584</v>
+        <v>624</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>585</v>
+        <v>625</v>
       </c>
       <c r="I40" s="0" t="s">
         <v>137</v>
       </c>
       <c r="J40" s="0" t="s">
-        <v>586</v>
+        <v>626</v>
       </c>
       <c r="K40" s="0" t="s">
-        <v>611</v>
+        <v>651</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>679</v>
+        <v>718</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>612</v>
+        <v>652</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>587</v>
+        <v>627</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>575</v>
+        <v>615</v>
       </c>
       <c r="E41" s="0" t="s">
         <v>94</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>692</v>
+        <v>731</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>626</v>
+        <v>666</v>
       </c>
       <c r="H41" s="0" t="s">
-        <v>627</v>
+        <v>667</v>
       </c>
       <c r="I41" s="0" t="s">
         <v>94</v>
       </c>
       <c r="J41" s="0" t="s">
-        <v>630</v>
+        <v>670</v>
       </c>
       <c r="K41" s="0" t="s">
-        <v>603</v>
+        <v>643</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>679</v>
+        <v>718</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>612</v>
+        <v>652</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>587</v>
+        <v>627</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>575</v>
+        <v>615</v>
       </c>
       <c r="E42" s="0" t="s">
         <v>94</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>693</v>
+        <v>732</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>626</v>
+        <v>666</v>
       </c>
       <c r="H42" s="0" t="s">
-        <v>627</v>
+        <v>667</v>
       </c>
       <c r="I42" s="0" t="s">
         <v>94</v>
       </c>
       <c r="J42" s="0" t="s">
-        <v>630</v>
+        <v>670</v>
       </c>
       <c r="K42" s="0" t="s">
-        <v>607</v>
+        <v>647</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>679</v>
+        <v>718</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>612</v>
+        <v>652</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>587</v>
+        <v>627</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>575</v>
+        <v>615</v>
       </c>
       <c r="E43" s="0" t="s">
         <v>94</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>694</v>
+        <v>733</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>626</v>
+        <v>666</v>
       </c>
       <c r="H43" s="0" t="s">
-        <v>627</v>
+        <v>667</v>
       </c>
       <c r="I43" s="0" t="s">
         <v>94</v>
       </c>
       <c r="J43" s="0" t="s">
-        <v>630</v>
+        <v>670</v>
       </c>
       <c r="K43" s="0" t="s">
-        <v>611</v>
+        <v>651</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>679</v>
+        <v>718</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>612</v>
+        <v>652</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>587</v>
+        <v>627</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>575</v>
+        <v>615</v>
       </c>
       <c r="E44" s="0" t="s">
         <v>94</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>695</v>
+        <v>734</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>632</v>
+        <v>672</v>
       </c>
       <c r="H44" s="0" t="s">
-        <v>633</v>
+        <v>673</v>
       </c>
       <c r="I44" s="0" t="s">
-        <v>597</v>
+        <v>637</v>
       </c>
       <c r="J44" s="0" t="s">
-        <v>634</v>
+        <v>674</v>
       </c>
       <c r="K44" s="0" t="s">
-        <v>603</v>
+        <v>643</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>679</v>
+        <v>718</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>612</v>
+        <v>652</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>587</v>
+        <v>627</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>575</v>
+        <v>615</v>
       </c>
       <c r="E45" s="0" t="s">
         <v>94</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>696</v>
+        <v>735</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>632</v>
+        <v>672</v>
       </c>
       <c r="H45" s="0" t="s">
-        <v>633</v>
+        <v>673</v>
       </c>
       <c r="I45" s="0" t="s">
-        <v>597</v>
+        <v>637</v>
       </c>
       <c r="J45" s="0" t="s">
-        <v>634</v>
+        <v>674</v>
       </c>
       <c r="K45" s="0" t="s">
-        <v>607</v>
+        <v>647</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>679</v>
+        <v>718</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>612</v>
+        <v>652</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>587</v>
+        <v>627</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>575</v>
+        <v>615</v>
       </c>
       <c r="E46" s="0" t="s">
         <v>94</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>697</v>
+        <v>736</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>632</v>
+        <v>672</v>
       </c>
       <c r="H46" s="0" t="s">
-        <v>633</v>
+        <v>673</v>
       </c>
       <c r="I46" s="0" t="s">
-        <v>597</v>
+        <v>637</v>
       </c>
       <c r="J46" s="0" t="s">
-        <v>634</v>
+        <v>674</v>
       </c>
       <c r="K46" s="0" t="s">
-        <v>611</v>
+        <v>651</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>679</v>
+        <v>718</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>612</v>
+        <v>652</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>587</v>
+        <v>627</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>575</v>
+        <v>615</v>
       </c>
       <c r="E47" s="0" t="s">
         <v>94</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>698</v>
+        <v>737</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>626</v>
+        <v>666</v>
       </c>
       <c r="H47" s="0" t="s">
-        <v>627</v>
+        <v>667</v>
       </c>
       <c r="I47" s="0" t="s">
         <v>94</v>
       </c>
       <c r="J47" s="0" t="s">
-        <v>628</v>
+        <v>668</v>
       </c>
       <c r="K47" s="0" t="s">
-        <v>603</v>
+        <v>643</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>679</v>
+        <v>718</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>612</v>
+        <v>652</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>587</v>
+        <v>627</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>575</v>
+        <v>615</v>
       </c>
       <c r="E48" s="0" t="s">
         <v>94</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>699</v>
+        <v>738</v>
       </c>
       <c r="G48" s="0" t="s">
-        <v>626</v>
+        <v>666</v>
       </c>
       <c r="H48" s="0" t="s">
-        <v>627</v>
+        <v>667</v>
       </c>
       <c r="I48" s="0" t="s">
         <v>94</v>
       </c>
       <c r="J48" s="0" t="s">
-        <v>628</v>
+        <v>668</v>
       </c>
       <c r="K48" s="0" t="s">
-        <v>607</v>
+        <v>647</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>679</v>
+        <v>718</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>612</v>
+        <v>652</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>587</v>
+        <v>627</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>575</v>
+        <v>615</v>
       </c>
       <c r="E49" s="0" t="s">
         <v>94</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>700</v>
+        <v>739</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>626</v>
+        <v>666</v>
       </c>
       <c r="H49" s="0" t="s">
-        <v>627</v>
+        <v>667</v>
       </c>
       <c r="I49" s="0" t="s">
         <v>94</v>
       </c>
       <c r="J49" s="0" t="s">
-        <v>628</v>
+        <v>668</v>
       </c>
       <c r="K49" s="0" t="s">
-        <v>611</v>
+        <v>651</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>679</v>
+        <v>718</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>612</v>
+        <v>652</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>599</v>
+        <v>639</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>575</v>
+        <v>615</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>570</v>
+        <v>610</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>701</v>
+        <v>740</v>
       </c>
       <c r="G50" s="0" t="s">
-        <v>641</v>
+        <v>681</v>
       </c>
       <c r="H50" s="0" t="s">
-        <v>642</v>
+        <v>682</v>
       </c>
       <c r="I50" s="0" t="s">
         <v>94</v>
       </c>
       <c r="J50" s="0" t="s">
+        <v>683</v>
+      </c>
+      <c r="K50" s="0" t="s">
         <v>643</v>
-      </c>
-      <c r="K50" s="0" t="s">
-        <v>603</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>679</v>
+        <v>718</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>612</v>
+        <v>652</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>599</v>
+        <v>639</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>575</v>
+        <v>615</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>570</v>
+        <v>610</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>702</v>
+        <v>741</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>641</v>
+        <v>681</v>
       </c>
       <c r="H51" s="0" t="s">
-        <v>642</v>
+        <v>682</v>
       </c>
       <c r="I51" s="0" t="s">
         <v>94</v>
       </c>
       <c r="J51" s="0" t="s">
-        <v>643</v>
+        <v>683</v>
       </c>
       <c r="K51" s="0" t="s">
-        <v>607</v>
+        <v>647</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>679</v>
+        <v>718</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>612</v>
+        <v>652</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>599</v>
+        <v>639</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>575</v>
+        <v>615</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>570</v>
+        <v>610</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>703</v>
+        <v>742</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>641</v>
+        <v>681</v>
       </c>
       <c r="H52" s="0" t="s">
-        <v>642</v>
+        <v>682</v>
       </c>
       <c r="I52" s="0" t="s">
         <v>94</v>
       </c>
       <c r="J52" s="0" t="s">
-        <v>643</v>
+        <v>683</v>
       </c>
       <c r="K52" s="0" t="s">
-        <v>611</v>
+        <v>651</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>679</v>
+        <v>718</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>612</v>
+        <v>652</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>599</v>
+        <v>639</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>575</v>
+        <v>615</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>635</v>
+        <v>675</v>
       </c>
       <c r="F53" s="0" t="s">
-        <v>704</v>
+        <v>743</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>637</v>
+        <v>677</v>
       </c>
       <c r="H53" s="0" t="s">
-        <v>638</v>
+        <v>678</v>
       </c>
       <c r="I53" s="0" t="s">
         <v>94</v>
       </c>
       <c r="J53" s="0" t="s">
-        <v>639</v>
+        <v>679</v>
       </c>
       <c r="K53" s="0" t="s">
-        <v>603</v>
+        <v>643</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>679</v>
+        <v>718</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>612</v>
+        <v>652</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>599</v>
+        <v>639</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>575</v>
+        <v>615</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>635</v>
+        <v>675</v>
       </c>
       <c r="F54" s="0" t="s">
-        <v>705</v>
+        <v>744</v>
       </c>
       <c r="G54" s="0" t="s">
-        <v>637</v>
+        <v>677</v>
       </c>
       <c r="H54" s="0" t="s">
-        <v>638</v>
+        <v>678</v>
       </c>
       <c r="I54" s="0" t="s">
         <v>94</v>
       </c>
       <c r="J54" s="0" t="s">
-        <v>639</v>
+        <v>679</v>
       </c>
       <c r="K54" s="0" t="s">
-        <v>607</v>
+        <v>647</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>679</v>
+        <v>718</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>612</v>
+        <v>652</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>599</v>
+        <v>639</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>575</v>
+        <v>615</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>635</v>
+        <v>675</v>
       </c>
       <c r="F55" s="0" t="s">
-        <v>706</v>
+        <v>745</v>
       </c>
       <c r="G55" s="0" t="s">
-        <v>637</v>
+        <v>677</v>
       </c>
       <c r="H55" s="0" t="s">
-        <v>638</v>
+        <v>678</v>
       </c>
       <c r="I55" s="0" t="s">
         <v>94</v>
       </c>
       <c r="J55" s="0" t="s">
-        <v>639</v>
+        <v>679</v>
       </c>
       <c r="K55" s="0" t="s">
-        <v>611</v>
+        <v>651</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>679</v>
+        <v>718</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>567</v>
+        <v>607</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>587</v>
+        <v>627</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>588</v>
+        <v>628</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>589</v>
+        <v>629</v>
       </c>
       <c r="F56" s="0" t="s">
-        <v>707</v>
+        <v>746</v>
       </c>
       <c r="G56" s="0" t="s">
-        <v>591</v>
+        <v>631</v>
       </c>
       <c r="H56" s="0" t="s">
-        <v>592</v>
+        <v>632</v>
       </c>
       <c r="I56" s="0" t="s">
         <v>53</v>
       </c>
       <c r="J56" s="0" t="s">
-        <v>593</v>
+        <v>633</v>
       </c>
       <c r="K56" s="0" t="s">
-        <v>598</v>
+        <v>638</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>679</v>
+        <v>718</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>567</v>
+        <v>607</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>599</v>
+        <v>639</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>588</v>
+        <v>628</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>589</v>
+        <v>629</v>
       </c>
       <c r="F57" s="0" t="s">
-        <v>708</v>
+        <v>747</v>
       </c>
       <c r="G57" s="0" t="s">
-        <v>591</v>
+        <v>631</v>
       </c>
       <c r="H57" s="0" t="s">
-        <v>592</v>
+        <v>632</v>
       </c>
       <c r="I57" s="0" t="s">
         <v>53</v>
       </c>
       <c r="J57" s="0" t="s">
-        <v>593</v>
+        <v>633</v>
       </c>
       <c r="K57" s="0" t="s">
-        <v>603</v>
+        <v>643</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>679</v>
+        <v>718</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>567</v>
+        <v>607</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>599</v>
+        <v>639</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>588</v>
+        <v>628</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>589</v>
+        <v>629</v>
       </c>
       <c r="F58" s="0" t="s">
-        <v>709</v>
+        <v>748</v>
       </c>
       <c r="G58" s="0" t="s">
-        <v>591</v>
+        <v>631</v>
       </c>
       <c r="H58" s="0" t="s">
-        <v>592</v>
+        <v>632</v>
       </c>
       <c r="I58" s="4" t="s">
         <v>53</v>
       </c>
       <c r="J58" s="0" t="s">
-        <v>593</v>
+        <v>633</v>
       </c>
       <c r="K58" s="0" t="s">
-        <v>607</v>
+        <v>647</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>679</v>
+        <v>718</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>567</v>
+        <v>607</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>599</v>
+        <v>639</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>588</v>
+        <v>628</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>589</v>
+        <v>629</v>
       </c>
       <c r="F59" s="0" t="s">
-        <v>710</v>
+        <v>749</v>
       </c>
       <c r="G59" s="0" t="s">
-        <v>591</v>
+        <v>631</v>
       </c>
       <c r="H59" s="0" t="s">
-        <v>592</v>
+        <v>632</v>
       </c>
       <c r="I59" s="0" t="s">
         <v>53</v>
       </c>
       <c r="J59" s="0" t="s">
-        <v>593</v>
+        <v>633</v>
       </c>
       <c r="K59" s="0" t="s">
-        <v>611</v>
+        <v>651</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>679</v>
+        <v>718</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>612</v>
+        <v>652</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>587</v>
+        <v>627</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>588</v>
+        <v>628</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>570</v>
+        <v>610</v>
       </c>
       <c r="F60" s="0" t="s">
-        <v>711</v>
+        <v>750</v>
       </c>
       <c r="G60" s="0" t="s">
-        <v>622</v>
+        <v>662</v>
       </c>
       <c r="H60" s="0" t="s">
-        <v>623</v>
+        <v>663</v>
       </c>
       <c r="I60" s="0" t="s">
         <v>94</v>
       </c>
       <c r="J60" s="0" t="s">
-        <v>624</v>
+        <v>664</v>
       </c>
       <c r="K60" s="0" t="s">
-        <v>603</v>
+        <v>643</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>679</v>
+        <v>718</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>612</v>
+        <v>652</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>587</v>
+        <v>627</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>588</v>
+        <v>628</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>570</v>
+        <v>610</v>
       </c>
       <c r="F61" s="0" t="s">
-        <v>712</v>
+        <v>751</v>
       </c>
       <c r="G61" s="0" t="s">
-        <v>622</v>
+        <v>662</v>
       </c>
       <c r="H61" s="0" t="s">
-        <v>623</v>
+        <v>663</v>
       </c>
       <c r="I61" s="0" t="s">
         <v>94</v>
       </c>
       <c r="J61" s="0" t="s">
-        <v>624</v>
+        <v>664</v>
       </c>
       <c r="K61" s="0" t="s">
-        <v>607</v>
+        <v>647</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>679</v>
+        <v>718</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>612</v>
+        <v>652</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>587</v>
+        <v>627</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>588</v>
+        <v>628</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>570</v>
+        <v>610</v>
       </c>
       <c r="F62" s="0" t="s">
-        <v>713</v>
+        <v>752</v>
       </c>
       <c r="G62" s="0" t="s">
-        <v>622</v>
+        <v>662</v>
       </c>
       <c r="H62" s="0" t="s">
-        <v>623</v>
+        <v>663</v>
       </c>
       <c r="I62" s="0" t="s">
         <v>94</v>
       </c>
       <c r="J62" s="0" t="s">
-        <v>624</v>
+        <v>664</v>
       </c>
       <c r="K62" s="0" t="s">
-        <v>611</v>
+        <v>651</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>679</v>
+        <v>718</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>612</v>
+        <v>652</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>587</v>
+        <v>627</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>588</v>
+        <v>628</v>
       </c>
       <c r="E63" s="0" t="s">
-        <v>570</v>
+        <v>610</v>
       </c>
       <c r="F63" s="0" t="s">
-        <v>714</v>
+        <v>753</v>
       </c>
       <c r="G63" s="0" t="s">
-        <v>715</v>
+        <v>754</v>
       </c>
       <c r="H63" s="0" t="s">
-        <v>716</v>
+        <v>755</v>
       </c>
       <c r="I63" s="0" t="s">
-        <v>597</v>
+        <v>637</v>
       </c>
       <c r="J63" s="0" t="s">
-        <v>620</v>
+        <v>660</v>
       </c>
       <c r="K63" s="0" t="s">
-        <v>603</v>
+        <v>643</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>679</v>
+        <v>718</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>612</v>
+        <v>652</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>587</v>
+        <v>627</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>588</v>
+        <v>628</v>
       </c>
       <c r="E64" s="0" t="s">
-        <v>570</v>
+        <v>610</v>
       </c>
       <c r="F64" s="0" t="s">
-        <v>717</v>
+        <v>756</v>
       </c>
       <c r="G64" s="0" t="s">
-        <v>715</v>
+        <v>754</v>
       </c>
       <c r="H64" s="0" t="s">
-        <v>716</v>
+        <v>755</v>
       </c>
       <c r="I64" s="0" t="s">
-        <v>597</v>
+        <v>637</v>
       </c>
       <c r="J64" s="0" t="s">
-        <v>620</v>
+        <v>660</v>
       </c>
       <c r="K64" s="0" t="s">
-        <v>607</v>
+        <v>647</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>679</v>
+        <v>718</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>612</v>
+        <v>652</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>587</v>
+        <v>627</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>588</v>
+        <v>628</v>
       </c>
       <c r="E65" s="0" t="s">
-        <v>570</v>
+        <v>610</v>
       </c>
       <c r="F65" s="0" t="s">
-        <v>718</v>
+        <v>757</v>
       </c>
       <c r="G65" s="0" t="s">
-        <v>715</v>
+        <v>754</v>
       </c>
       <c r="H65" s="0" t="s">
-        <v>716</v>
+        <v>755</v>
       </c>
       <c r="I65" s="0" t="s">
-        <v>597</v>
+        <v>637</v>
       </c>
       <c r="J65" s="0" t="s">
-        <v>620</v>
+        <v>660</v>
       </c>
       <c r="K65" s="0" t="s">
-        <v>611</v>
+        <v>651</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>679</v>
+        <v>718</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>612</v>
+        <v>652</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>587</v>
+        <v>627</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>588</v>
+        <v>628</v>
       </c>
       <c r="E66" s="0" t="s">
-        <v>570</v>
+        <v>610</v>
       </c>
       <c r="F66" s="0" t="s">
-        <v>719</v>
+        <v>758</v>
       </c>
       <c r="G66" s="0" t="s">
-        <v>720</v>
+        <v>759</v>
       </c>
       <c r="H66" s="0" t="s">
-        <v>721</v>
+        <v>760</v>
       </c>
       <c r="I66" s="0" t="s">
-        <v>597</v>
+        <v>637</v>
       </c>
       <c r="J66" s="0" t="s">
-        <v>616</v>
+        <v>656</v>
       </c>
       <c r="K66" s="0" t="s">
-        <v>603</v>
+        <v>643</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>679</v>
+        <v>718</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>612</v>
+        <v>652</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>587</v>
+        <v>627</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>588</v>
+        <v>628</v>
       </c>
       <c r="E67" s="0" t="s">
-        <v>570</v>
+        <v>610</v>
       </c>
       <c r="F67" s="0" t="s">
-        <v>722</v>
+        <v>761</v>
       </c>
       <c r="G67" s="0" t="s">
-        <v>720</v>
+        <v>759</v>
       </c>
       <c r="H67" s="0" t="s">
-        <v>721</v>
+        <v>760</v>
       </c>
       <c r="I67" s="0" t="s">
-        <v>597</v>
+        <v>637</v>
       </c>
       <c r="J67" s="0" t="s">
-        <v>616</v>
+        <v>656</v>
       </c>
       <c r="K67" s="0" t="s">
-        <v>607</v>
+        <v>647</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>679</v>
+        <v>718</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>612</v>
+        <v>652</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>587</v>
+        <v>627</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>588</v>
+        <v>628</v>
       </c>
       <c r="E68" s="0" t="s">
-        <v>570</v>
+        <v>610</v>
       </c>
       <c r="F68" s="0" t="s">
-        <v>723</v>
+        <v>762</v>
       </c>
       <c r="G68" s="0" t="s">
-        <v>720</v>
+        <v>759</v>
       </c>
       <c r="H68" s="0" t="s">
-        <v>721</v>
+        <v>760</v>
       </c>
       <c r="I68" s="0" t="s">
-        <v>597</v>
+        <v>637</v>
       </c>
       <c r="J68" s="0" t="s">
-        <v>616</v>
+        <v>656</v>
       </c>
       <c r="K68" s="0" t="s">
-        <v>611</v>
+        <v>651</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>679</v>
+        <v>718</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>567</v>
+        <v>607</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>587</v>
+        <v>627</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>644</v>
+        <v>684</v>
       </c>
       <c r="E69" s="0" t="s">
         <v>94</v>
       </c>
       <c r="F69" s="0" t="s">
-        <v>724</v>
+        <v>763</v>
       </c>
       <c r="G69" s="0" t="s">
-        <v>521</v>
+        <v>560</v>
       </c>
       <c r="H69" s="0" t="s">
-        <v>522</v>
+        <v>561</v>
       </c>
       <c r="I69" s="0" t="s">
-        <v>646</v>
+        <v>686</v>
       </c>
       <c r="J69" s="0" t="s">
-        <v>725</v>
+        <v>764</v>
       </c>
       <c r="K69" s="0" t="s">
-        <v>603</v>
+        <v>643</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>679</v>
+        <v>718</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>567</v>
+        <v>607</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>587</v>
+        <v>627</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>644</v>
+        <v>684</v>
       </c>
       <c r="E70" s="0" t="s">
         <v>94</v>
       </c>
       <c r="F70" s="0" t="s">
-        <v>726</v>
+        <v>765</v>
       </c>
       <c r="G70" s="0" t="s">
-        <v>521</v>
+        <v>560</v>
       </c>
       <c r="H70" s="0" t="s">
-        <v>522</v>
+        <v>561</v>
       </c>
       <c r="I70" s="0" t="s">
-        <v>646</v>
+        <v>686</v>
       </c>
       <c r="J70" s="0" t="s">
-        <v>725</v>
+        <v>764</v>
       </c>
       <c r="K70" s="0" t="s">
-        <v>607</v>
+        <v>647</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>679</v>
+        <v>718</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>567</v>
+        <v>607</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>587</v>
+        <v>627</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>644</v>
+        <v>684</v>
       </c>
       <c r="E71" s="0" t="s">
         <v>94</v>
       </c>
       <c r="F71" s="0" t="s">
-        <v>727</v>
+        <v>766</v>
       </c>
       <c r="G71" s="0" t="s">
-        <v>521</v>
+        <v>560</v>
       </c>
       <c r="H71" s="0" t="s">
-        <v>522</v>
+        <v>561</v>
       </c>
       <c r="I71" s="0" t="s">
-        <v>646</v>
+        <v>686</v>
       </c>
       <c r="J71" s="0" t="s">
-        <v>725</v>
+        <v>764</v>
       </c>
       <c r="K71" s="0" t="s">
-        <v>607</v>
+        <v>647</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>679</v>
+        <v>718</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>567</v>
+        <v>607</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>587</v>
+        <v>627</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>644</v>
+        <v>684</v>
       </c>
       <c r="E72" s="0" t="s">
         <v>94</v>
       </c>
       <c r="F72" s="0" t="s">
-        <v>728</v>
+        <v>767</v>
       </c>
       <c r="G72" s="0" t="s">
-        <v>521</v>
+        <v>560</v>
       </c>
       <c r="H72" s="0" t="s">
-        <v>522</v>
+        <v>561</v>
       </c>
       <c r="I72" s="0" t="s">
-        <v>646</v>
+        <v>686</v>
       </c>
       <c r="J72" s="0" t="s">
-        <v>725</v>
+        <v>764</v>
       </c>
       <c r="K72" s="0" t="s">
-        <v>611</v>
+        <v>651</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>679</v>
+        <v>718</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>612</v>
+        <v>652</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>587</v>
+        <v>627</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>644</v>
+        <v>684</v>
       </c>
       <c r="E73" s="0" t="s">
-        <v>570</v>
+        <v>610</v>
       </c>
       <c r="F73" s="0" t="s">
-        <v>729</v>
+        <v>768</v>
       </c>
       <c r="G73" s="0" t="s">
-        <v>730</v>
+        <v>769</v>
       </c>
       <c r="H73" s="0" t="s">
-        <v>731</v>
+        <v>770</v>
       </c>
       <c r="I73" s="0" t="s">
         <v>94</v>
       </c>
       <c r="J73" s="0" t="s">
-        <v>732</v>
+        <v>771</v>
       </c>
       <c r="K73" s="0" t="s">
-        <v>607</v>
+        <v>647</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>679</v>
+        <v>718</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>612</v>
+        <v>652</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>587</v>
+        <v>627</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>644</v>
+        <v>684</v>
       </c>
       <c r="E74" s="0" t="s">
-        <v>570</v>
+        <v>610</v>
       </c>
       <c r="F74" s="0" t="s">
-        <v>733</v>
+        <v>772</v>
       </c>
       <c r="G74" s="0" t="s">
-        <v>734</v>
+        <v>773</v>
       </c>
       <c r="H74" s="0" t="s">
-        <v>735</v>
+        <v>774</v>
       </c>
       <c r="I74" s="0" t="s">
-        <v>597</v>
+        <v>637</v>
       </c>
       <c r="J74" s="0" t="s">
-        <v>736</v>
+        <v>775</v>
       </c>
       <c r="K74" s="0" t="s">
-        <v>607</v>
+        <v>647</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>679</v>
+        <v>718</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>612</v>
+        <v>652</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>587</v>
+        <v>627</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>644</v>
+        <v>684</v>
       </c>
       <c r="E75" s="0" t="s">
-        <v>570</v>
+        <v>610</v>
       </c>
       <c r="F75" s="0" t="s">
-        <v>737</v>
+        <v>776</v>
       </c>
       <c r="G75" s="0" t="s">
-        <v>738</v>
+        <v>777</v>
       </c>
       <c r="H75" s="0" t="s">
-        <v>739</v>
+        <v>778</v>
       </c>
       <c r="I75" s="0" t="s">
-        <v>597</v>
+        <v>637</v>
       </c>
       <c r="J75" s="0" t="s">
-        <v>740</v>
+        <v>779</v>
       </c>
       <c r="K75" s="0" t="s">
-        <v>607</v>
+        <v>647</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>679</v>
+        <v>718</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>612</v>
+        <v>652</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>587</v>
+        <v>627</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>644</v>
+        <v>684</v>
       </c>
       <c r="E76" s="0" t="s">
-        <v>570</v>
+        <v>610</v>
       </c>
       <c r="F76" s="0" t="s">
-        <v>741</v>
+        <v>780</v>
       </c>
       <c r="G76" s="0" t="s">
-        <v>649</v>
+        <v>689</v>
       </c>
       <c r="H76" s="0" t="s">
-        <v>650</v>
+        <v>690</v>
       </c>
       <c r="I76" s="0" t="s">
         <v>94</v>
       </c>
       <c r="J76" s="0" t="s">
-        <v>651</v>
+        <v>691</v>
       </c>
       <c r="K76" s="0" t="s">
-        <v>603</v>
+        <v>643</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>679</v>
+        <v>718</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>612</v>
+        <v>652</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>587</v>
+        <v>627</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>644</v>
+        <v>684</v>
       </c>
       <c r="E77" s="0" t="s">
-        <v>570</v>
+        <v>610</v>
       </c>
       <c r="F77" s="0" t="s">
-        <v>742</v>
+        <v>781</v>
       </c>
       <c r="G77" s="0" t="s">
-        <v>649</v>
+        <v>689</v>
       </c>
       <c r="H77" s="0" t="s">
-        <v>650</v>
+        <v>690</v>
       </c>
       <c r="I77" s="0" t="s">
         <v>94</v>
       </c>
       <c r="J77" s="0" t="s">
-        <v>651</v>
+        <v>691</v>
       </c>
       <c r="K77" s="0" t="s">
-        <v>607</v>
+        <v>647</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>679</v>
+        <v>718</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>612</v>
+        <v>652</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>587</v>
+        <v>627</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>644</v>
+        <v>684</v>
       </c>
       <c r="E78" s="0" t="s">
-        <v>570</v>
+        <v>610</v>
       </c>
       <c r="F78" s="0" t="s">
-        <v>743</v>
+        <v>782</v>
       </c>
       <c r="G78" s="0" t="s">
-        <v>649</v>
+        <v>689</v>
       </c>
       <c r="H78" s="0" t="s">
-        <v>650</v>
+        <v>690</v>
       </c>
       <c r="I78" s="0" t="s">
         <v>94</v>
       </c>
       <c r="J78" s="0" t="s">
+        <v>691</v>
+      </c>
+      <c r="K78" s="0" t="s">
         <v>651</v>
-      </c>
-      <c r="K78" s="0" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>679</v>
+        <v>718</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>612</v>
+        <v>652</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>587</v>
+        <v>627</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>644</v>
+        <v>684</v>
       </c>
       <c r="E79" s="0" t="s">
-        <v>570</v>
+        <v>610</v>
       </c>
       <c r="F79" s="0" t="s">
-        <v>744</v>
+        <v>783</v>
       </c>
       <c r="G79" s="0" t="s">
-        <v>653</v>
+        <v>693</v>
       </c>
       <c r="H79" s="0" t="s">
-        <v>654</v>
+        <v>694</v>
       </c>
       <c r="I79" s="0" t="s">
         <v>94</v>
       </c>
       <c r="J79" s="0" t="s">
-        <v>655</v>
+        <v>695</v>
       </c>
       <c r="K79" s="0" t="s">
-        <v>603</v>
+        <v>643</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>679</v>
+        <v>718</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>612</v>
+        <v>652</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>587</v>
+        <v>627</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>644</v>
+        <v>684</v>
       </c>
       <c r="E80" s="0" t="s">
-        <v>570</v>
+        <v>610</v>
       </c>
       <c r="F80" s="0" t="s">
-        <v>745</v>
+        <v>784</v>
       </c>
       <c r="G80" s="0" t="s">
-        <v>653</v>
+        <v>693</v>
       </c>
       <c r="H80" s="0" t="s">
-        <v>654</v>
+        <v>694</v>
       </c>
       <c r="I80" s="0" t="s">
         <v>94</v>
       </c>
       <c r="J80" s="0" t="s">
-        <v>655</v>
+        <v>695</v>
       </c>
       <c r="K80" s="0" t="s">
-        <v>607</v>
+        <v>647</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>679</v>
+        <v>718</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>612</v>
+        <v>652</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>587</v>
+        <v>627</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>644</v>
+        <v>684</v>
       </c>
       <c r="E81" s="0" t="s">
-        <v>570</v>
+        <v>610</v>
       </c>
       <c r="F81" s="0" t="s">
-        <v>746</v>
+        <v>785</v>
       </c>
       <c r="G81" s="0" t="s">
-        <v>653</v>
+        <v>693</v>
       </c>
       <c r="H81" s="0" t="s">
-        <v>654</v>
+        <v>694</v>
       </c>
       <c r="I81" s="0" t="s">
         <v>94</v>
       </c>
       <c r="J81" s="0" t="s">
-        <v>655</v>
+        <v>695</v>
       </c>
       <c r="K81" s="0" t="s">
-        <v>611</v>
+        <v>651</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>679</v>
+        <v>718</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>567</v>
+        <v>607</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>599</v>
+        <v>639</v>
       </c>
       <c r="D82" s="0" t="s">
-        <v>569</v>
+        <v>609</v>
       </c>
       <c r="E82" s="0" t="s">
-        <v>657</v>
+        <v>696</v>
       </c>
       <c r="F82" s="0" t="s">
-        <v>747</v>
+        <v>786</v>
       </c>
       <c r="G82" s="0" t="s">
-        <v>665</v>
+        <v>704</v>
       </c>
       <c r="H82" s="0" t="s">
-        <v>666</v>
+        <v>705</v>
       </c>
       <c r="I82" s="0" t="s">
-        <v>481</v>
+        <v>521</v>
       </c>
       <c r="J82" s="0" t="s">
-        <v>667</v>
+        <v>706</v>
       </c>
       <c r="K82" s="0" t="s">
-        <v>603</v>
+        <v>643</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>679</v>
+        <v>718</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>567</v>
+        <v>607</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>599</v>
+        <v>639</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>569</v>
+        <v>609</v>
       </c>
       <c r="E83" s="0" t="s">
-        <v>657</v>
+        <v>696</v>
       </c>
       <c r="F83" s="0" t="s">
-        <v>748</v>
+        <v>787</v>
       </c>
       <c r="G83" s="0" t="s">
-        <v>665</v>
+        <v>704</v>
       </c>
       <c r="H83" s="0" t="s">
-        <v>666</v>
+        <v>705</v>
       </c>
       <c r="I83" s="0" t="s">
-        <v>481</v>
+        <v>521</v>
       </c>
       <c r="J83" s="0" t="s">
-        <v>667</v>
+        <v>706</v>
       </c>
       <c r="K83" s="0" t="s">
-        <v>607</v>
+        <v>647</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>679</v>
+        <v>718</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>567</v>
+        <v>607</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>599</v>
+        <v>639</v>
       </c>
       <c r="D84" s="0" t="s">
-        <v>569</v>
+        <v>609</v>
       </c>
       <c r="E84" s="0" t="s">
-        <v>657</v>
+        <v>696</v>
       </c>
       <c r="F84" s="0" t="s">
-        <v>749</v>
+        <v>788</v>
       </c>
       <c r="G84" s="0" t="s">
-        <v>665</v>
+        <v>704</v>
       </c>
       <c r="H84" s="0" t="s">
-        <v>666</v>
+        <v>705</v>
       </c>
       <c r="I84" s="0" t="s">
-        <v>481</v>
+        <v>521</v>
       </c>
       <c r="J84" s="0" t="s">
-        <v>667</v>
+        <v>706</v>
       </c>
       <c r="K84" s="0" t="s">
-        <v>611</v>
+        <v>651</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>679</v>
+        <v>718</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>656</v>
+        <v>458</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>599</v>
+        <v>639</v>
       </c>
       <c r="D85" s="0" t="s">
         <v>94</v>
       </c>
       <c r="E85" s="0" t="s">
-        <v>570</v>
+        <v>610</v>
       </c>
       <c r="F85" s="0" t="s">
-        <v>750</v>
+        <v>789</v>
       </c>
       <c r="G85" s="0" t="s">
-        <v>751</v>
+        <v>790</v>
       </c>
       <c r="H85" s="0" t="s">
-        <v>752</v>
+        <v>791</v>
       </c>
       <c r="I85" s="0" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="J85" s="0" t="s">
-        <v>753</v>
+        <v>792</v>
       </c>
       <c r="K85" s="0" t="s">
-        <v>607</v>
+        <v>647</v>
       </c>
     </row>
   </sheetData>

--- a/inst/doc/files/parameterization.xlsx
+++ b/inst/doc/files/parameterization.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="climate" sheetId="1" state="visible" r:id="rId2"/>
@@ -16,9 +16,9 @@
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">parameters!$A$1:$V$102</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">parameters!$A$1:$R$102</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">parameters!$A$1:$V$102</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">parameters!$A$1:$R$102</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">parameters!$A$1:$V$102</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">parameters!$A$1:$R$102</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">parameters!$A$1:$V$102</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">parameters!$A$1:$R$102</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">parameters!$A$1:$R$102</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">parameters!$A$1:$R$102</definedName>
@@ -58,6 +58,7 @@
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">parameters!$A$1:$R$102</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">parameters!$A$1:$R$102</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">parameters!$A$1:$R$102</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">parameters!$A$1:$R$102</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -69,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2199" uniqueCount="793">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2287" uniqueCount="809">
   <si>
     <t>name.rsunflo.fr</t>
   </si>
@@ -2033,7 +2034,7 @@
     <t>NHT</t>
   </si>
   <si>
-    <t>Nombre de jours de hautes tempértures</t>
+    <t>Nombre de jours de hautes températures</t>
   </si>
   <si>
     <t>Thermal stress, high temperature (discrete)</t>
@@ -2045,7 +2046,7 @@
     <t>NLT</t>
   </si>
   <si>
-    <t>Nombre de jours de basses butes tempértures</t>
+    <t>Nombre de jours de basses températures</t>
   </si>
   <si>
     <t>Thermal stress, low temperature (discrete)</t>
@@ -2054,6 +2055,30 @@
     <t>$sum(TM &lt; 20)$</t>
   </si>
   <si>
+    <t>SHT</t>
+  </si>
+  <si>
+    <t>Effet des hautes températures sur la photosynthèse</t>
+  </si>
+  <si>
+    <t>Thermal stress, high temperature (continuous)</t>
+  </si>
+  <si>
+    <t>$sum(1-HTRUE)$</t>
+  </si>
+  <si>
+    <t>SLT</t>
+  </si>
+  <si>
+    <t>Effet des basses températures sur la photosynthèse</t>
+  </si>
+  <si>
+    <t>Thermal stress, low temperature (continuous)</t>
+  </si>
+  <si>
+    <t>$sum(1-LTRUE)$</t>
+  </si>
+  <si>
     <t>SFTRUE</t>
   </si>
   <si>
@@ -2351,13 +2376,37 @@
     <t>Nombre de jours chauds</t>
   </si>
   <si>
-    <t>Thermal stress, heath (discrete)</t>
+    <t>Thermal stress, heat (discrete)</t>
   </si>
   <si>
     <t>NHT_FM</t>
   </si>
   <si>
     <t>NHT_MH</t>
+  </si>
+  <si>
+    <t>SLT_EF</t>
+  </si>
+  <si>
+    <t>Thermal stress, cold (continuous)</t>
+  </si>
+  <si>
+    <t>SLT_FM</t>
+  </si>
+  <si>
+    <t>SLT_MH</t>
+  </si>
+  <si>
+    <t>SHT_EF</t>
+  </si>
+  <si>
+    <t>Thermal stress, heat (continuous)</t>
+  </si>
+  <si>
+    <t>SHT_FM</t>
+  </si>
+  <si>
+    <t>SHT_MH</t>
   </si>
   <si>
     <t>SNAB_EF</t>
@@ -2603,11 +2652,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.4387755102041"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.0612244897959"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.7397959183673"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="46.6173469387755"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="14.5816326530612"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.9591836734694"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.5765306122449"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.0561224489796"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="52.734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="16.3775510204082"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2731,29 +2780,29 @@
   </sheetPr>
   <dimension ref="A1:V102"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="L10" activeCellId="0" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.2397959183673"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.71938775510204"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.1785714285714"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="31.1377551020408"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="25.5561224489796"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="20.5204081632653"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="22.1377551020408"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="30.0561224489796"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="115.551020408163"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="70.5561224489796"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="26.8163265306122"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="24.3010204081633"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="16.1989795918367"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="20.1581632653061"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="17.0969387755102"/>
-    <col collapsed="false" hidden="false" max="1025" min="19" style="0" width="14.9387755102041"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.6785714285714"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.5204081632653"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="35.0969387755102"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="28.7959183673469"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="23.0408163265306"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="25.0204081632653"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="33.8367346938776"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="130.489795918367"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="79.5561224489796"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="30.2397959183673"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="27.3571428571429"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="18.1785714285714"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="22.6785714285714"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="19.2602040816327"/>
+    <col collapsed="false" hidden="false" max="1025" min="19" style="0" width="16.9183673469388"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8209,18 +8258,18 @@
   </sheetPr>
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A30" activeCellId="0" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.85"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.5204081632653"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="14.5816326530612"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="26.0969387755102"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="48.8418367346939"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="32.3979591836735"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="14.5816326530612"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.0408163265306"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="16.3775510204082"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.5204081632653"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="55.0765306122449"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="36.5357142857143"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="16.3775510204082"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8744,16 +8793,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.7602040816327"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.219387755102"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.2755102040816"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.3367346938776"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="23.7602040816327"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="70.5561224489796"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="38.8775510204082"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="28.6173469387755"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="16.1989795918367"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="14.7602040816327"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="36.3571428571429"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.7755102040816"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="22.8571428571429"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="26.8163265306122"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="79.5561224489796"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="43.7397959183673"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="32.3979591836735"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="18.1785714285714"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="16.7397959183673"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9440,23 +9489,23 @@
     <tabColor rgb="FFFFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:85"/>
+  <dimension ref="1:93"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A36" activeCellId="0" sqref="A36"/>
+      <selection pane="topLeft" activeCell="A77" activeCellId="0" sqref="A77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.15"/>
+  <sheetFormatPr defaultRowHeight="13.85"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="14.5816326530612"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="17.4591836734694"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="20.1581632653061"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="55.4387755102041"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="51.4744897959184"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="22.6785714285714"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="28.9795918367347"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="13.5"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="14.5816326530612"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="16.3775510204082"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="19.6173469387755"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="22.6785714285714"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="62.6377551020408"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="58.1377551020408"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="25.5561224489796"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="32.7602040816326"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="16.3775510204082"/>
   </cols>
   <sheetData>
     <row r="1" s="8" customFormat="true" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9846,7 +9895,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>606</v>
       </c>
@@ -9881,7 +9930,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
         <v>606</v>
       </c>
@@ -9916,7 +9965,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
         <v>606</v>
       </c>
@@ -9927,10 +9976,10 @@
         <v>627</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>615</v>
+        <v>628</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>94</v>
+        <v>610</v>
       </c>
       <c r="F14" s="0" t="s">
         <v>665</v>
@@ -9962,25 +10011,25 @@
         <v>627</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>615</v>
+        <v>628</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>94</v>
+        <v>610</v>
       </c>
       <c r="F15" s="0" t="s">
         <v>669</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>666</v>
+        <v>670</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>667</v>
+        <v>671</v>
       </c>
       <c r="I15" s="0" t="s">
         <v>94</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="K15" s="0" t="s">
         <v>606</v>
@@ -10003,19 +10052,19 @@
         <v>94</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>637</v>
+        <v>94</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="K16" s="0" t="s">
         <v>606</v>
@@ -10029,28 +10078,28 @@
         <v>652</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="D17" s="0" t="s">
         <v>615</v>
       </c>
       <c r="E17" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>677</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>674</v>
+      </c>
+      <c r="H17" s="0" t="s">
         <v>675</v>
-      </c>
-      <c r="F17" s="0" t="s">
-        <v>676</v>
-      </c>
-      <c r="G17" s="0" t="s">
-        <v>677</v>
-      </c>
-      <c r="H17" s="0" t="s">
-        <v>678</v>
       </c>
       <c r="I17" s="0" t="s">
         <v>94</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="K17" s="0" t="s">
         <v>606</v>
@@ -10064,28 +10113,28 @@
         <v>652</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="D18" s="0" t="s">
         <v>615</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>610</v>
+        <v>94</v>
       </c>
       <c r="F18" s="0" t="s">
+        <v>679</v>
+      </c>
+      <c r="G18" s="0" t="s">
         <v>680</v>
       </c>
-      <c r="G18" s="0" t="s">
+      <c r="H18" s="0" t="s">
         <v>681</v>
       </c>
-      <c r="H18" s="0" t="s">
+      <c r="I18" s="0" t="s">
+        <v>637</v>
+      </c>
+      <c r="J18" s="0" t="s">
         <v>682</v>
-      </c>
-      <c r="I18" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="J18" s="0" t="s">
-        <v>683</v>
       </c>
       <c r="K18" s="0" t="s">
         <v>606</v>
@@ -10096,28 +10145,28 @@
         <v>606</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>607</v>
+        <v>652</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>627</v>
+        <v>639</v>
       </c>
       <c r="D19" s="0" t="s">
+        <v>615</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>683</v>
+      </c>
+      <c r="F19" s="0" t="s">
         <v>684</v>
       </c>
-      <c r="E19" s="0" t="s">
+      <c r="G19" s="0" t="s">
+        <v>685</v>
+      </c>
+      <c r="H19" s="0" t="s">
+        <v>686</v>
+      </c>
+      <c r="I19" s="0" t="s">
         <v>94</v>
-      </c>
-      <c r="F19" s="0" t="s">
-        <v>685</v>
-      </c>
-      <c r="G19" s="0" t="s">
-        <v>560</v>
-      </c>
-      <c r="H19" s="0" t="s">
-        <v>561</v>
-      </c>
-      <c r="I19" s="0" t="s">
-        <v>686</v>
       </c>
       <c r="J19" s="0" t="s">
         <v>687</v>
@@ -10134,10 +10183,10 @@
         <v>652</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>627</v>
+        <v>639</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>684</v>
+        <v>615</v>
       </c>
       <c r="E20" s="0" t="s">
         <v>610</v>
@@ -10166,28 +10215,28 @@
         <v>606</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>652</v>
+        <v>607</v>
       </c>
       <c r="C21" s="0" t="s">
         <v>627</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>684</v>
+        <v>692</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>610</v>
+        <v>94</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>693</v>
+        <v>560</v>
       </c>
       <c r="H21" s="0" t="s">
+        <v>561</v>
+      </c>
+      <c r="I21" s="0" t="s">
         <v>694</v>
-      </c>
-      <c r="I21" s="0" t="s">
-        <v>94</v>
       </c>
       <c r="J21" s="0" t="s">
         <v>695</v>
@@ -10201,31 +10250,31 @@
         <v>606</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>458</v>
+        <v>652</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>94</v>
+        <v>692</v>
       </c>
       <c r="E22" s="0" t="s">
+        <v>610</v>
+      </c>
+      <c r="F22" s="0" t="s">
         <v>696</v>
-      </c>
-      <c r="F22" s="0" t="s">
-        <v>573</v>
       </c>
       <c r="G22" s="0" t="s">
         <v>697</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>575</v>
+        <v>698</v>
       </c>
       <c r="I22" s="0" t="s">
         <v>94</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="K22" s="0" t="s">
         <v>606</v>
@@ -10236,31 +10285,31 @@
         <v>606</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>458</v>
+        <v>652</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>94</v>
+        <v>692</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>696</v>
+        <v>610</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="I23" s="0" t="s">
         <v>94</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="K23" s="0" t="s">
         <v>606</v>
@@ -10271,28 +10320,28 @@
         <v>606</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>607</v>
+        <v>458</v>
       </c>
       <c r="C24" s="0" t="s">
         <v>639</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>609</v>
+        <v>94</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>696</v>
+        <v>704</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>703</v>
+        <v>573</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>705</v>
+        <v>575</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>521</v>
+        <v>94</v>
       </c>
       <c r="J24" s="0" t="s">
         <v>706</v>
@@ -10315,7 +10364,7 @@
         <v>94</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>610</v>
+        <v>704</v>
       </c>
       <c r="F25" s="0" t="s">
         <v>707</v>
@@ -10327,7 +10376,7 @@
         <v>709</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>392</v>
+        <v>94</v>
       </c>
       <c r="J25" s="0" t="s">
         <v>710</v>
@@ -10341,16 +10390,16 @@
         <v>606</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>458</v>
+        <v>607</v>
       </c>
       <c r="C26" s="0" t="s">
         <v>639</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>94</v>
+        <v>609</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>610</v>
+        <v>704</v>
       </c>
       <c r="F26" s="0" t="s">
         <v>711</v>
@@ -10362,7 +10411,7 @@
         <v>713</v>
       </c>
       <c r="I26" s="0" t="s">
-        <v>423</v>
+        <v>521</v>
       </c>
       <c r="J26" s="0" t="s">
         <v>714</v>
@@ -10385,22 +10434,22 @@
         <v>94</v>
       </c>
       <c r="E27" s="0" t="s">
+        <v>610</v>
+      </c>
+      <c r="F27" s="0" t="s">
         <v>715</v>
       </c>
-      <c r="F27" s="0" t="s">
-        <v>589</v>
-      </c>
       <c r="G27" s="0" t="s">
-        <v>591</v>
+        <v>716</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>592</v>
+        <v>717</v>
       </c>
       <c r="I27" s="0" t="s">
-        <v>593</v>
+        <v>392</v>
       </c>
       <c r="J27" s="0" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="K27" s="0" t="s">
         <v>606</v>
@@ -10420,22 +10469,22 @@
         <v>94</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>715</v>
+        <v>610</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>117</v>
+        <v>719</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>597</v>
+        <v>720</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>598</v>
+        <v>721</v>
       </c>
       <c r="I28" s="0" t="s">
-        <v>599</v>
+        <v>423</v>
       </c>
       <c r="J28" s="0" t="s">
-        <v>717</v>
+        <v>722</v>
       </c>
       <c r="K28" s="0" t="s">
         <v>606</v>
@@ -10443,77 +10492,77 @@
     </row>
     <row r="29" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>718</v>
+        <v>606</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>607</v>
+        <v>458</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>608</v>
+        <v>639</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>609</v>
+        <v>94</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>610</v>
+        <v>723</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>719</v>
+        <v>589</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>612</v>
+        <v>591</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>613</v>
+        <v>592</v>
       </c>
       <c r="I29" s="0" t="s">
-        <v>521</v>
+        <v>593</v>
       </c>
       <c r="J29" s="0" t="s">
-        <v>614</v>
+        <v>724</v>
       </c>
       <c r="K29" s="0" t="s">
-        <v>643</v>
+        <v>606</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>718</v>
+        <v>606</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>607</v>
+        <v>458</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>608</v>
+        <v>639</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>609</v>
+        <v>94</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>610</v>
+        <v>723</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>720</v>
+        <v>117</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>612</v>
+        <v>597</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>613</v>
+        <v>598</v>
       </c>
       <c r="I30" s="0" t="s">
-        <v>521</v>
+        <v>599</v>
       </c>
       <c r="J30" s="0" t="s">
-        <v>614</v>
+        <v>725</v>
       </c>
       <c r="K30" s="0" t="s">
-        <v>647</v>
+        <v>606</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>718</v>
+        <v>726</v>
       </c>
       <c r="B31" s="0" t="s">
         <v>607</v>
@@ -10528,7 +10577,7 @@
         <v>610</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>721</v>
+        <v>727</v>
       </c>
       <c r="G31" s="0" t="s">
         <v>612</v>
@@ -10543,12 +10592,12 @@
         <v>614</v>
       </c>
       <c r="K31" s="0" t="s">
-        <v>651</v>
+        <v>643</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>718</v>
+        <v>726</v>
       </c>
       <c r="B32" s="0" t="s">
         <v>607</v>
@@ -10557,33 +10606,33 @@
         <v>608</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>94</v>
+        <v>610</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>722</v>
+        <v>728</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>26</v>
+        <v>612</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="I32" s="0" t="s">
-        <v>137</v>
+        <v>521</v>
       </c>
       <c r="J32" s="0" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="K32" s="0" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>718</v>
+        <v>726</v>
       </c>
       <c r="B33" s="0" t="s">
         <v>607</v>
@@ -10592,33 +10641,33 @@
         <v>608</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>94</v>
+        <v>610</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>723</v>
+        <v>729</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>26</v>
+        <v>612</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="I33" s="0" t="s">
-        <v>137</v>
+        <v>521</v>
       </c>
       <c r="J33" s="0" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="K33" s="0" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>718</v>
+        <v>726</v>
       </c>
       <c r="B34" s="0" t="s">
         <v>607</v>
@@ -10633,7 +10682,7 @@
         <v>94</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>724</v>
+        <v>730</v>
       </c>
       <c r="G34" s="0" t="s">
         <v>26</v>
@@ -10648,12 +10697,12 @@
         <v>618</v>
       </c>
       <c r="K34" s="0" t="s">
-        <v>651</v>
+        <v>643</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>718</v>
+        <v>726</v>
       </c>
       <c r="B35" s="0" t="s">
         <v>607</v>
@@ -10668,27 +10717,27 @@
         <v>94</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>725</v>
+        <v>731</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>620</v>
+        <v>26</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="I35" s="0" t="s">
         <v>137</v>
       </c>
       <c r="J35" s="0" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="K35" s="0" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>718</v>
+        <v>726</v>
       </c>
       <c r="B36" s="0" t="s">
         <v>607</v>
@@ -10703,27 +10752,27 @@
         <v>94</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>726</v>
+        <v>732</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>620</v>
+        <v>26</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="I36" s="0" t="s">
         <v>137</v>
       </c>
       <c r="J36" s="0" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="K36" s="0" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>718</v>
+        <v>726</v>
       </c>
       <c r="B37" s="0" t="s">
         <v>607</v>
@@ -10738,7 +10787,7 @@
         <v>94</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>727</v>
+        <v>733</v>
       </c>
       <c r="G37" s="0" t="s">
         <v>620</v>
@@ -10753,12 +10802,12 @@
         <v>622</v>
       </c>
       <c r="K37" s="0" t="s">
-        <v>651</v>
+        <v>643</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>718</v>
+        <v>726</v>
       </c>
       <c r="B38" s="0" t="s">
         <v>607</v>
@@ -10773,27 +10822,27 @@
         <v>94</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>728</v>
+        <v>734</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="I38" s="0" t="s">
         <v>137</v>
       </c>
       <c r="J38" s="0" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="K38" s="0" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>718</v>
+        <v>726</v>
       </c>
       <c r="B39" s="0" t="s">
         <v>607</v>
@@ -10808,27 +10857,27 @@
         <v>94</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>729</v>
+        <v>735</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="I39" s="0" t="s">
         <v>137</v>
       </c>
       <c r="J39" s="0" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="K39" s="0" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>718</v>
+        <v>726</v>
       </c>
       <c r="B40" s="0" t="s">
         <v>607</v>
@@ -10843,7 +10892,7 @@
         <v>94</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>730</v>
+        <v>736</v>
       </c>
       <c r="G40" s="0" t="s">
         <v>624</v>
@@ -10858,18 +10907,18 @@
         <v>626</v>
       </c>
       <c r="K40" s="0" t="s">
-        <v>651</v>
+        <v>643</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>718</v>
+        <v>726</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>652</v>
+        <v>607</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>627</v>
+        <v>608</v>
       </c>
       <c r="D41" s="0" t="s">
         <v>615</v>
@@ -10878,33 +10927,33 @@
         <v>94</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>731</v>
+        <v>737</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>666</v>
+        <v>624</v>
       </c>
       <c r="H41" s="0" t="s">
-        <v>667</v>
+        <v>625</v>
       </c>
       <c r="I41" s="0" t="s">
-        <v>94</v>
+        <v>137</v>
       </c>
       <c r="J41" s="0" t="s">
-        <v>670</v>
+        <v>626</v>
       </c>
       <c r="K41" s="0" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>718</v>
+        <v>726</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>652</v>
+        <v>607</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>627</v>
+        <v>608</v>
       </c>
       <c r="D42" s="0" t="s">
         <v>615</v>
@@ -10913,27 +10962,27 @@
         <v>94</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>732</v>
+        <v>738</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>666</v>
+        <v>624</v>
       </c>
       <c r="H42" s="0" t="s">
-        <v>667</v>
+        <v>625</v>
       </c>
       <c r="I42" s="0" t="s">
-        <v>94</v>
+        <v>137</v>
       </c>
       <c r="J42" s="0" t="s">
-        <v>670</v>
+        <v>626</v>
       </c>
       <c r="K42" s="0" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>718</v>
+        <v>726</v>
       </c>
       <c r="B43" s="0" t="s">
         <v>652</v>
@@ -10948,27 +10997,27 @@
         <v>94</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>733</v>
+        <v>739</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>666</v>
+        <v>674</v>
       </c>
       <c r="H43" s="0" t="s">
-        <v>667</v>
+        <v>675</v>
       </c>
       <c r="I43" s="0" t="s">
         <v>94</v>
       </c>
       <c r="J43" s="0" t="s">
-        <v>670</v>
+        <v>678</v>
       </c>
       <c r="K43" s="0" t="s">
-        <v>651</v>
+        <v>643</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>718</v>
+        <v>726</v>
       </c>
       <c r="B44" s="0" t="s">
         <v>652</v>
@@ -10983,27 +11032,27 @@
         <v>94</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>734</v>
+        <v>740</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="H44" s="0" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="I44" s="0" t="s">
-        <v>637</v>
+        <v>94</v>
       </c>
       <c r="J44" s="0" t="s">
-        <v>674</v>
+        <v>678</v>
       </c>
       <c r="K44" s="0" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>718</v>
+        <v>726</v>
       </c>
       <c r="B45" s="0" t="s">
         <v>652</v>
@@ -11018,27 +11067,27 @@
         <v>94</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>735</v>
+        <v>741</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="H45" s="0" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="I45" s="0" t="s">
-        <v>637</v>
+        <v>94</v>
       </c>
       <c r="J45" s="0" t="s">
-        <v>674</v>
+        <v>678</v>
       </c>
       <c r="K45" s="0" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>718</v>
+        <v>726</v>
       </c>
       <c r="B46" s="0" t="s">
         <v>652</v>
@@ -11053,27 +11102,27 @@
         <v>94</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>736</v>
+        <v>742</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>672</v>
+        <v>680</v>
       </c>
       <c r="H46" s="0" t="s">
-        <v>673</v>
+        <v>681</v>
       </c>
       <c r="I46" s="0" t="s">
         <v>637</v>
       </c>
       <c r="J46" s="0" t="s">
-        <v>674</v>
+        <v>682</v>
       </c>
       <c r="K46" s="0" t="s">
-        <v>651</v>
+        <v>643</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>718</v>
+        <v>726</v>
       </c>
       <c r="B47" s="0" t="s">
         <v>652</v>
@@ -11088,27 +11137,27 @@
         <v>94</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>737</v>
+        <v>743</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>666</v>
+        <v>680</v>
       </c>
       <c r="H47" s="0" t="s">
-        <v>667</v>
+        <v>681</v>
       </c>
       <c r="I47" s="0" t="s">
-        <v>94</v>
+        <v>637</v>
       </c>
       <c r="J47" s="0" t="s">
-        <v>668</v>
+        <v>682</v>
       </c>
       <c r="K47" s="0" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>718</v>
+        <v>726</v>
       </c>
       <c r="B48" s="0" t="s">
         <v>652</v>
@@ -11123,27 +11172,27 @@
         <v>94</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>738</v>
+        <v>744</v>
       </c>
       <c r="G48" s="0" t="s">
-        <v>666</v>
+        <v>680</v>
       </c>
       <c r="H48" s="0" t="s">
-        <v>667</v>
+        <v>681</v>
       </c>
       <c r="I48" s="0" t="s">
-        <v>94</v>
+        <v>637</v>
       </c>
       <c r="J48" s="0" t="s">
-        <v>668</v>
+        <v>682</v>
       </c>
       <c r="K48" s="0" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>718</v>
+        <v>726</v>
       </c>
       <c r="B49" s="0" t="s">
         <v>652</v>
@@ -11158,97 +11207,97 @@
         <v>94</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>739</v>
+        <v>745</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>666</v>
+        <v>674</v>
       </c>
       <c r="H49" s="0" t="s">
-        <v>667</v>
+        <v>675</v>
       </c>
       <c r="I49" s="0" t="s">
         <v>94</v>
       </c>
       <c r="J49" s="0" t="s">
-        <v>668</v>
+        <v>676</v>
       </c>
       <c r="K49" s="0" t="s">
-        <v>651</v>
+        <v>643</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>718</v>
+        <v>726</v>
       </c>
       <c r="B50" s="0" t="s">
         <v>652</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="D50" s="0" t="s">
         <v>615</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>610</v>
+        <v>94</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>740</v>
+        <v>746</v>
       </c>
       <c r="G50" s="0" t="s">
-        <v>681</v>
+        <v>674</v>
       </c>
       <c r="H50" s="0" t="s">
-        <v>682</v>
+        <v>675</v>
       </c>
       <c r="I50" s="0" t="s">
         <v>94</v>
       </c>
       <c r="J50" s="0" t="s">
-        <v>683</v>
+        <v>676</v>
       </c>
       <c r="K50" s="0" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>718</v>
+        <v>726</v>
       </c>
       <c r="B51" s="0" t="s">
         <v>652</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="D51" s="0" t="s">
         <v>615</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>610</v>
+        <v>94</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>741</v>
+        <v>747</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>681</v>
+        <v>674</v>
       </c>
       <c r="H51" s="0" t="s">
-        <v>682</v>
+        <v>675</v>
       </c>
       <c r="I51" s="0" t="s">
         <v>94</v>
       </c>
       <c r="J51" s="0" t="s">
-        <v>683</v>
+        <v>676</v>
       </c>
       <c r="K51" s="0" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>718</v>
+        <v>726</v>
       </c>
       <c r="B52" s="0" t="s">
         <v>652</v>
@@ -11263,27 +11312,27 @@
         <v>610</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>742</v>
+        <v>748</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>681</v>
+        <v>689</v>
       </c>
       <c r="H52" s="0" t="s">
-        <v>682</v>
+        <v>690</v>
       </c>
       <c r="I52" s="0" t="s">
         <v>94</v>
       </c>
       <c r="J52" s="0" t="s">
-        <v>683</v>
+        <v>691</v>
       </c>
       <c r="K52" s="0" t="s">
-        <v>651</v>
+        <v>643</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>718</v>
+        <v>726</v>
       </c>
       <c r="B53" s="0" t="s">
         <v>652</v>
@@ -11295,30 +11344,30 @@
         <v>615</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>675</v>
+        <v>610</v>
       </c>
       <c r="F53" s="0" t="s">
-        <v>743</v>
+        <v>749</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>677</v>
+        <v>689</v>
       </c>
       <c r="H53" s="0" t="s">
-        <v>678</v>
+        <v>690</v>
       </c>
       <c r="I53" s="0" t="s">
         <v>94</v>
       </c>
       <c r="J53" s="0" t="s">
-        <v>679</v>
+        <v>691</v>
       </c>
       <c r="K53" s="0" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>718</v>
+        <v>726</v>
       </c>
       <c r="B54" s="0" t="s">
         <v>652</v>
@@ -11330,30 +11379,30 @@
         <v>615</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>675</v>
+        <v>610</v>
       </c>
       <c r="F54" s="0" t="s">
-        <v>744</v>
+        <v>750</v>
       </c>
       <c r="G54" s="0" t="s">
-        <v>677</v>
+        <v>689</v>
       </c>
       <c r="H54" s="0" t="s">
-        <v>678</v>
+        <v>690</v>
       </c>
       <c r="I54" s="0" t="s">
         <v>94</v>
       </c>
       <c r="J54" s="0" t="s">
-        <v>679</v>
+        <v>691</v>
       </c>
       <c r="K54" s="0" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>718</v>
+        <v>726</v>
       </c>
       <c r="B55" s="0" t="s">
         <v>652</v>
@@ -11365,106 +11414,106 @@
         <v>615</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>675</v>
+        <v>683</v>
       </c>
       <c r="F55" s="0" t="s">
-        <v>745</v>
+        <v>751</v>
       </c>
       <c r="G55" s="0" t="s">
-        <v>677</v>
+        <v>685</v>
       </c>
       <c r="H55" s="0" t="s">
-        <v>678</v>
+        <v>686</v>
       </c>
       <c r="I55" s="0" t="s">
         <v>94</v>
       </c>
       <c r="J55" s="0" t="s">
-        <v>679</v>
+        <v>687</v>
       </c>
       <c r="K55" s="0" t="s">
-        <v>651</v>
+        <v>643</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>718</v>
+        <v>726</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>607</v>
+        <v>652</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>627</v>
+        <v>639</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>628</v>
+        <v>615</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>629</v>
+        <v>683</v>
       </c>
       <c r="F56" s="0" t="s">
-        <v>746</v>
+        <v>752</v>
       </c>
       <c r="G56" s="0" t="s">
-        <v>631</v>
+        <v>685</v>
       </c>
       <c r="H56" s="0" t="s">
-        <v>632</v>
+        <v>686</v>
       </c>
       <c r="I56" s="0" t="s">
-        <v>53</v>
+        <v>94</v>
       </c>
       <c r="J56" s="0" t="s">
-        <v>633</v>
+        <v>687</v>
       </c>
       <c r="K56" s="0" t="s">
-        <v>638</v>
+        <v>647</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>718</v>
+        <v>726</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>607</v>
+        <v>652</v>
       </c>
       <c r="C57" s="0" t="s">
         <v>639</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>628</v>
+        <v>615</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>629</v>
+        <v>683</v>
       </c>
       <c r="F57" s="0" t="s">
-        <v>747</v>
+        <v>753</v>
       </c>
       <c r="G57" s="0" t="s">
-        <v>631</v>
+        <v>685</v>
       </c>
       <c r="H57" s="0" t="s">
-        <v>632</v>
+        <v>686</v>
       </c>
       <c r="I57" s="0" t="s">
-        <v>53</v>
+        <v>94</v>
       </c>
       <c r="J57" s="0" t="s">
-        <v>633</v>
+        <v>687</v>
       </c>
       <c r="K57" s="0" t="s">
-        <v>643</v>
+        <v>651</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>718</v>
+        <v>726</v>
       </c>
       <c r="B58" s="0" t="s">
         <v>607</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="D58" s="0" t="s">
         <v>628</v>
@@ -11473,7 +11522,7 @@
         <v>629</v>
       </c>
       <c r="F58" s="0" t="s">
-        <v>748</v>
+        <v>754</v>
       </c>
       <c r="G58" s="0" t="s">
         <v>631</v>
@@ -11481,19 +11530,19 @@
       <c r="H58" s="0" t="s">
         <v>632</v>
       </c>
-      <c r="I58" s="4" t="s">
+      <c r="I58" s="0" t="s">
         <v>53</v>
       </c>
       <c r="J58" s="0" t="s">
         <v>633</v>
       </c>
       <c r="K58" s="0" t="s">
-        <v>647</v>
+        <v>638</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>718</v>
+        <v>726</v>
       </c>
       <c r="B59" s="0" t="s">
         <v>607</v>
@@ -11508,7 +11557,7 @@
         <v>629</v>
       </c>
       <c r="F59" s="0" t="s">
-        <v>749</v>
+        <v>755</v>
       </c>
       <c r="G59" s="0" t="s">
         <v>631</v>
@@ -11523,82 +11572,82 @@
         <v>633</v>
       </c>
       <c r="K59" s="0" t="s">
-        <v>651</v>
+        <v>643</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>718</v>
+        <v>726</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>652</v>
+        <v>607</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>627</v>
+        <v>639</v>
       </c>
       <c r="D60" s="0" t="s">
         <v>628</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>610</v>
+        <v>629</v>
       </c>
       <c r="F60" s="0" t="s">
-        <v>750</v>
+        <v>756</v>
       </c>
       <c r="G60" s="0" t="s">
-        <v>662</v>
+        <v>631</v>
       </c>
       <c r="H60" s="0" t="s">
-        <v>663</v>
-      </c>
-      <c r="I60" s="0" t="s">
-        <v>94</v>
+        <v>632</v>
+      </c>
+      <c r="I60" s="4" t="s">
+        <v>53</v>
       </c>
       <c r="J60" s="0" t="s">
-        <v>664</v>
+        <v>633</v>
       </c>
       <c r="K60" s="0" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>718</v>
+        <v>726</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>652</v>
+        <v>607</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>627</v>
+        <v>639</v>
       </c>
       <c r="D61" s="0" t="s">
         <v>628</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>610</v>
+        <v>629</v>
       </c>
       <c r="F61" s="0" t="s">
-        <v>751</v>
+        <v>757</v>
       </c>
       <c r="G61" s="0" t="s">
-        <v>662</v>
+        <v>631</v>
       </c>
       <c r="H61" s="0" t="s">
-        <v>663</v>
+        <v>632</v>
       </c>
       <c r="I61" s="0" t="s">
-        <v>94</v>
+        <v>53</v>
       </c>
       <c r="J61" s="0" t="s">
-        <v>664</v>
+        <v>633</v>
       </c>
       <c r="K61" s="0" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>718</v>
+        <v>726</v>
       </c>
       <c r="B62" s="0" t="s">
         <v>652</v>
@@ -11613,27 +11662,27 @@
         <v>610</v>
       </c>
       <c r="F62" s="0" t="s">
-        <v>752</v>
+        <v>758</v>
       </c>
       <c r="G62" s="0" t="s">
-        <v>662</v>
+        <v>670</v>
       </c>
       <c r="H62" s="0" t="s">
-        <v>663</v>
+        <v>671</v>
       </c>
       <c r="I62" s="0" t="s">
         <v>94</v>
       </c>
       <c r="J62" s="0" t="s">
-        <v>664</v>
+        <v>672</v>
       </c>
       <c r="K62" s="0" t="s">
-        <v>651</v>
+        <v>643</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>718</v>
+        <v>726</v>
       </c>
       <c r="B63" s="0" t="s">
         <v>652</v>
@@ -11648,27 +11697,27 @@
         <v>610</v>
       </c>
       <c r="F63" s="0" t="s">
-        <v>753</v>
+        <v>759</v>
       </c>
       <c r="G63" s="0" t="s">
-        <v>754</v>
+        <v>670</v>
       </c>
       <c r="H63" s="0" t="s">
-        <v>755</v>
+        <v>671</v>
       </c>
       <c r="I63" s="0" t="s">
-        <v>637</v>
+        <v>94</v>
       </c>
       <c r="J63" s="0" t="s">
-        <v>660</v>
+        <v>672</v>
       </c>
       <c r="K63" s="0" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>718</v>
+        <v>726</v>
       </c>
       <c r="B64" s="0" t="s">
         <v>652</v>
@@ -11683,27 +11732,27 @@
         <v>610</v>
       </c>
       <c r="F64" s="0" t="s">
-        <v>756</v>
+        <v>760</v>
       </c>
       <c r="G64" s="0" t="s">
-        <v>754</v>
+        <v>670</v>
       </c>
       <c r="H64" s="0" t="s">
-        <v>755</v>
+        <v>671</v>
       </c>
       <c r="I64" s="0" t="s">
-        <v>637</v>
+        <v>94</v>
       </c>
       <c r="J64" s="0" t="s">
-        <v>660</v>
+        <v>672</v>
       </c>
       <c r="K64" s="0" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>718</v>
+        <v>726</v>
       </c>
       <c r="B65" s="0" t="s">
         <v>652</v>
@@ -11718,13 +11767,13 @@
         <v>610</v>
       </c>
       <c r="F65" s="0" t="s">
-        <v>757</v>
+        <v>761</v>
       </c>
       <c r="G65" s="0" t="s">
-        <v>754</v>
+        <v>762</v>
       </c>
       <c r="H65" s="0" t="s">
-        <v>755</v>
+        <v>763</v>
       </c>
       <c r="I65" s="0" t="s">
         <v>637</v>
@@ -11733,12 +11782,12 @@
         <v>660</v>
       </c>
       <c r="K65" s="0" t="s">
-        <v>651</v>
+        <v>643</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>718</v>
+        <v>726</v>
       </c>
       <c r="B66" s="0" t="s">
         <v>652</v>
@@ -11753,27 +11802,27 @@
         <v>610</v>
       </c>
       <c r="F66" s="0" t="s">
-        <v>758</v>
+        <v>764</v>
       </c>
       <c r="G66" s="0" t="s">
-        <v>759</v>
+        <v>762</v>
       </c>
       <c r="H66" s="0" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
       <c r="I66" s="0" t="s">
         <v>637</v>
       </c>
       <c r="J66" s="0" t="s">
-        <v>656</v>
+        <v>660</v>
       </c>
       <c r="K66" s="0" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>718</v>
+        <v>726</v>
       </c>
       <c r="B67" s="0" t="s">
         <v>652</v>
@@ -11788,27 +11837,27 @@
         <v>610</v>
       </c>
       <c r="F67" s="0" t="s">
-        <v>761</v>
+        <v>765</v>
       </c>
       <c r="G67" s="0" t="s">
-        <v>759</v>
+        <v>762</v>
       </c>
       <c r="H67" s="0" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
       <c r="I67" s="0" t="s">
         <v>637</v>
       </c>
       <c r="J67" s="0" t="s">
-        <v>656</v>
+        <v>660</v>
       </c>
       <c r="K67" s="0" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>718</v>
+        <v>726</v>
       </c>
       <c r="B68" s="0" t="s">
         <v>652</v>
@@ -11823,13 +11872,13 @@
         <v>610</v>
       </c>
       <c r="F68" s="0" t="s">
-        <v>762</v>
+        <v>766</v>
       </c>
       <c r="G68" s="0" t="s">
-        <v>759</v>
+        <v>767</v>
       </c>
       <c r="H68" s="0" t="s">
-        <v>760</v>
+        <v>768</v>
       </c>
       <c r="I68" s="0" t="s">
         <v>637</v>
@@ -11838,152 +11887,152 @@
         <v>656</v>
       </c>
       <c r="K68" s="0" t="s">
-        <v>651</v>
+        <v>643</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>718</v>
+        <v>726</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>607</v>
+        <v>652</v>
       </c>
       <c r="C69" s="0" t="s">
         <v>627</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>684</v>
+        <v>628</v>
       </c>
       <c r="E69" s="0" t="s">
-        <v>94</v>
+        <v>610</v>
       </c>
       <c r="F69" s="0" t="s">
-        <v>763</v>
+        <v>769</v>
       </c>
       <c r="G69" s="0" t="s">
-        <v>560</v>
+        <v>767</v>
       </c>
       <c r="H69" s="0" t="s">
-        <v>561</v>
+        <v>768</v>
       </c>
       <c r="I69" s="0" t="s">
-        <v>686</v>
+        <v>637</v>
       </c>
       <c r="J69" s="0" t="s">
-        <v>764</v>
+        <v>656</v>
       </c>
       <c r="K69" s="0" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>718</v>
+        <v>726</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>607</v>
+        <v>652</v>
       </c>
       <c r="C70" s="0" t="s">
         <v>627</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>684</v>
+        <v>628</v>
       </c>
       <c r="E70" s="0" t="s">
-        <v>94</v>
+        <v>610</v>
       </c>
       <c r="F70" s="0" t="s">
-        <v>765</v>
+        <v>770</v>
       </c>
       <c r="G70" s="0" t="s">
-        <v>560</v>
+        <v>767</v>
       </c>
       <c r="H70" s="0" t="s">
-        <v>561</v>
+        <v>768</v>
       </c>
       <c r="I70" s="0" t="s">
-        <v>686</v>
+        <v>637</v>
       </c>
       <c r="J70" s="0" t="s">
-        <v>764</v>
+        <v>656</v>
       </c>
       <c r="K70" s="0" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>718</v>
+        <v>726</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>607</v>
+        <v>652</v>
       </c>
       <c r="C71" s="0" t="s">
         <v>627</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>684</v>
+        <v>628</v>
       </c>
       <c r="E71" s="0" t="s">
+        <v>610</v>
+      </c>
+      <c r="F71" s="0" t="s">
+        <v>771</v>
+      </c>
+      <c r="G71" s="0" t="s">
+        <v>666</v>
+      </c>
+      <c r="H71" s="0" t="s">
+        <v>772</v>
+      </c>
+      <c r="I71" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="F71" s="0" t="s">
-        <v>766</v>
-      </c>
-      <c r="G71" s="0" t="s">
-        <v>560</v>
-      </c>
-      <c r="H71" s="0" t="s">
-        <v>561</v>
-      </c>
-      <c r="I71" s="0" t="s">
-        <v>686</v>
-      </c>
       <c r="J71" s="0" t="s">
-        <v>764</v>
+        <v>668</v>
       </c>
       <c r="K71" s="0" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>718</v>
+        <v>726</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>607</v>
+        <v>652</v>
       </c>
       <c r="C72" s="0" t="s">
         <v>627</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>684</v>
+        <v>628</v>
       </c>
       <c r="E72" s="0" t="s">
+        <v>610</v>
+      </c>
+      <c r="F72" s="0" t="s">
+        <v>773</v>
+      </c>
+      <c r="G72" s="0" t="s">
+        <v>666</v>
+      </c>
+      <c r="H72" s="0" t="s">
+        <v>772</v>
+      </c>
+      <c r="I72" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="F72" s="0" t="s">
-        <v>767</v>
-      </c>
-      <c r="G72" s="0" t="s">
-        <v>560</v>
-      </c>
-      <c r="H72" s="0" t="s">
-        <v>561</v>
-      </c>
-      <c r="I72" s="0" t="s">
-        <v>686</v>
-      </c>
       <c r="J72" s="0" t="s">
-        <v>764</v>
+        <v>668</v>
       </c>
       <c r="K72" s="0" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>718</v>
+        <v>726</v>
       </c>
       <c r="B73" s="0" t="s">
         <v>652</v>
@@ -11992,33 +12041,33 @@
         <v>627</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>684</v>
+        <v>628</v>
       </c>
       <c r="E73" s="0" t="s">
         <v>610</v>
       </c>
       <c r="F73" s="0" t="s">
-        <v>768</v>
+        <v>774</v>
       </c>
       <c r="G73" s="0" t="s">
-        <v>769</v>
+        <v>666</v>
       </c>
       <c r="H73" s="0" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="I73" s="0" t="s">
         <v>94</v>
       </c>
       <c r="J73" s="0" t="s">
-        <v>771</v>
+        <v>668</v>
       </c>
       <c r="K73" s="0" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>718</v>
+        <v>726</v>
       </c>
       <c r="B74" s="0" t="s">
         <v>652</v>
@@ -12027,33 +12076,33 @@
         <v>627</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>684</v>
+        <v>628</v>
       </c>
       <c r="E74" s="0" t="s">
         <v>610</v>
       </c>
       <c r="F74" s="0" t="s">
-        <v>772</v>
+        <v>775</v>
       </c>
       <c r="G74" s="0" t="s">
-        <v>773</v>
+        <v>662</v>
       </c>
       <c r="H74" s="0" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="I74" s="0" t="s">
-        <v>637</v>
+        <v>94</v>
       </c>
       <c r="J74" s="0" t="s">
-        <v>775</v>
+        <v>664</v>
       </c>
       <c r="K74" s="0" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>718</v>
+        <v>726</v>
       </c>
       <c r="B75" s="0" t="s">
         <v>652</v>
@@ -12062,33 +12111,33 @@
         <v>627</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>684</v>
+        <v>628</v>
       </c>
       <c r="E75" s="0" t="s">
         <v>610</v>
       </c>
       <c r="F75" s="0" t="s">
+        <v>777</v>
+      </c>
+      <c r="G75" s="0" t="s">
+        <v>662</v>
+      </c>
+      <c r="H75" s="0" t="s">
         <v>776</v>
       </c>
-      <c r="G75" s="0" t="s">
-        <v>777</v>
-      </c>
-      <c r="H75" s="0" t="s">
-        <v>778</v>
-      </c>
       <c r="I75" s="0" t="s">
-        <v>637</v>
+        <v>94</v>
       </c>
       <c r="J75" s="0" t="s">
-        <v>779</v>
+        <v>664</v>
       </c>
       <c r="K75" s="0" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>718</v>
+        <v>726</v>
       </c>
       <c r="B76" s="0" t="s">
         <v>652</v>
@@ -12097,173 +12146,173 @@
         <v>627</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>684</v>
+        <v>628</v>
       </c>
       <c r="E76" s="0" t="s">
         <v>610</v>
       </c>
       <c r="F76" s="0" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="G76" s="0" t="s">
-        <v>689</v>
+        <v>662</v>
       </c>
       <c r="H76" s="0" t="s">
-        <v>690</v>
+        <v>776</v>
       </c>
       <c r="I76" s="0" t="s">
         <v>94</v>
       </c>
       <c r="J76" s="0" t="s">
-        <v>691</v>
+        <v>664</v>
       </c>
       <c r="K76" s="0" t="s">
-        <v>643</v>
+        <v>651</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>718</v>
+        <v>726</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>652</v>
+        <v>607</v>
       </c>
       <c r="C77" s="0" t="s">
         <v>627</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>684</v>
+        <v>692</v>
       </c>
       <c r="E77" s="0" t="s">
-        <v>610</v>
+        <v>94</v>
       </c>
       <c r="F77" s="0" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="G77" s="0" t="s">
-        <v>689</v>
+        <v>560</v>
       </c>
       <c r="H77" s="0" t="s">
-        <v>690</v>
+        <v>561</v>
       </c>
       <c r="I77" s="0" t="s">
-        <v>94</v>
+        <v>694</v>
       </c>
       <c r="J77" s="0" t="s">
-        <v>691</v>
+        <v>780</v>
       </c>
       <c r="K77" s="0" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>718</v>
+        <v>726</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>652</v>
+        <v>607</v>
       </c>
       <c r="C78" s="0" t="s">
         <v>627</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>684</v>
+        <v>692</v>
       </c>
       <c r="E78" s="0" t="s">
-        <v>610</v>
+        <v>94</v>
       </c>
       <c r="F78" s="0" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="G78" s="0" t="s">
-        <v>689</v>
+        <v>560</v>
       </c>
       <c r="H78" s="0" t="s">
-        <v>690</v>
+        <v>561</v>
       </c>
       <c r="I78" s="0" t="s">
-        <v>94</v>
+        <v>694</v>
       </c>
       <c r="J78" s="0" t="s">
-        <v>691</v>
+        <v>780</v>
       </c>
       <c r="K78" s="0" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>718</v>
+        <v>726</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>652</v>
+        <v>607</v>
       </c>
       <c r="C79" s="0" t="s">
         <v>627</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>684</v>
+        <v>692</v>
       </c>
       <c r="E79" s="0" t="s">
-        <v>610</v>
+        <v>94</v>
       </c>
       <c r="F79" s="0" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="G79" s="0" t="s">
-        <v>693</v>
+        <v>560</v>
       </c>
       <c r="H79" s="0" t="s">
+        <v>561</v>
+      </c>
+      <c r="I79" s="0" t="s">
         <v>694</v>
       </c>
-      <c r="I79" s="0" t="s">
-        <v>94</v>
-      </c>
       <c r="J79" s="0" t="s">
-        <v>695</v>
+        <v>780</v>
       </c>
       <c r="K79" s="0" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>718</v>
+        <v>726</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>652</v>
+        <v>607</v>
       </c>
       <c r="C80" s="0" t="s">
         <v>627</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>684</v>
+        <v>692</v>
       </c>
       <c r="E80" s="0" t="s">
-        <v>610</v>
+        <v>94</v>
       </c>
       <c r="F80" s="0" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="G80" s="0" t="s">
-        <v>693</v>
+        <v>560</v>
       </c>
       <c r="H80" s="0" t="s">
+        <v>561</v>
+      </c>
+      <c r="I80" s="0" t="s">
         <v>694</v>
       </c>
-      <c r="I80" s="0" t="s">
-        <v>94</v>
-      </c>
       <c r="J80" s="0" t="s">
-        <v>695</v>
+        <v>780</v>
       </c>
       <c r="K80" s="0" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>718</v>
+        <v>726</v>
       </c>
       <c r="B81" s="0" t="s">
         <v>652</v>
@@ -12272,95 +12321,95 @@
         <v>627</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>684</v>
+        <v>692</v>
       </c>
       <c r="E81" s="0" t="s">
         <v>610</v>
       </c>
       <c r="F81" s="0" t="s">
+        <v>784</v>
+      </c>
+      <c r="G81" s="0" t="s">
         <v>785</v>
       </c>
-      <c r="G81" s="0" t="s">
-        <v>693</v>
-      </c>
       <c r="H81" s="0" t="s">
-        <v>694</v>
+        <v>786</v>
       </c>
       <c r="I81" s="0" t="s">
         <v>94</v>
       </c>
       <c r="J81" s="0" t="s">
-        <v>695</v>
+        <v>787</v>
       </c>
       <c r="K81" s="0" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>718</v>
+        <v>726</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>607</v>
+        <v>652</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="D82" s="0" t="s">
-        <v>609</v>
+        <v>692</v>
       </c>
       <c r="E82" s="0" t="s">
-        <v>696</v>
+        <v>610</v>
       </c>
       <c r="F82" s="0" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="G82" s="0" t="s">
-        <v>704</v>
+        <v>789</v>
       </c>
       <c r="H82" s="0" t="s">
-        <v>705</v>
+        <v>790</v>
       </c>
       <c r="I82" s="0" t="s">
-        <v>521</v>
+        <v>637</v>
       </c>
       <c r="J82" s="0" t="s">
-        <v>706</v>
+        <v>791</v>
       </c>
       <c r="K82" s="0" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>718</v>
+        <v>726</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>607</v>
+        <v>652</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>609</v>
+        <v>692</v>
       </c>
       <c r="E83" s="0" t="s">
-        <v>696</v>
+        <v>610</v>
       </c>
       <c r="F83" s="0" t="s">
-        <v>787</v>
+        <v>792</v>
       </c>
       <c r="G83" s="0" t="s">
-        <v>704</v>
+        <v>793</v>
       </c>
       <c r="H83" s="0" t="s">
-        <v>705</v>
+        <v>794</v>
       </c>
       <c r="I83" s="0" t="s">
-        <v>521</v>
+        <v>637</v>
       </c>
       <c r="J83" s="0" t="s">
-        <v>706</v>
+        <v>795</v>
       </c>
       <c r="K83" s="0" t="s">
         <v>647</v>
@@ -12368,71 +12417,351 @@
     </row>
     <row r="84" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>718</v>
+        <v>726</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>607</v>
+        <v>652</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="D84" s="0" t="s">
-        <v>609</v>
+        <v>692</v>
       </c>
       <c r="E84" s="0" t="s">
-        <v>696</v>
+        <v>610</v>
       </c>
       <c r="F84" s="0" t="s">
-        <v>788</v>
+        <v>796</v>
       </c>
       <c r="G84" s="0" t="s">
-        <v>704</v>
+        <v>697</v>
       </c>
       <c r="H84" s="0" t="s">
-        <v>705</v>
+        <v>698</v>
       </c>
       <c r="I84" s="0" t="s">
-        <v>521</v>
+        <v>94</v>
       </c>
       <c r="J84" s="0" t="s">
-        <v>706</v>
+        <v>699</v>
       </c>
       <c r="K84" s="0" t="s">
-        <v>651</v>
+        <v>643</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>718</v>
+        <v>726</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>458</v>
+        <v>652</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="D85" s="0" t="s">
-        <v>94</v>
+        <v>692</v>
       </c>
       <c r="E85" s="0" t="s">
         <v>610</v>
       </c>
       <c r="F85" s="0" t="s">
-        <v>789</v>
+        <v>797</v>
       </c>
       <c r="G85" s="0" t="s">
-        <v>790</v>
+        <v>697</v>
       </c>
       <c r="H85" s="0" t="s">
-        <v>791</v>
+        <v>698</v>
       </c>
       <c r="I85" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="J85" s="0" t="s">
+        <v>699</v>
+      </c>
+      <c r="K85" s="0" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="0" t="s">
+        <v>726</v>
+      </c>
+      <c r="B86" s="0" t="s">
+        <v>652</v>
+      </c>
+      <c r="C86" s="0" t="s">
+        <v>627</v>
+      </c>
+      <c r="D86" s="0" t="s">
+        <v>692</v>
+      </c>
+      <c r="E86" s="0" t="s">
+        <v>610</v>
+      </c>
+      <c r="F86" s="0" t="s">
+        <v>798</v>
+      </c>
+      <c r="G86" s="0" t="s">
+        <v>697</v>
+      </c>
+      <c r="H86" s="0" t="s">
+        <v>698</v>
+      </c>
+      <c r="I86" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="J86" s="0" t="s">
+        <v>699</v>
+      </c>
+      <c r="K86" s="0" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="0" t="s">
+        <v>726</v>
+      </c>
+      <c r="B87" s="0" t="s">
+        <v>652</v>
+      </c>
+      <c r="C87" s="0" t="s">
+        <v>627</v>
+      </c>
+      <c r="D87" s="0" t="s">
+        <v>692</v>
+      </c>
+      <c r="E87" s="0" t="s">
+        <v>610</v>
+      </c>
+      <c r="F87" s="0" t="s">
+        <v>799</v>
+      </c>
+      <c r="G87" s="0" t="s">
+        <v>701</v>
+      </c>
+      <c r="H87" s="0" t="s">
+        <v>702</v>
+      </c>
+      <c r="I87" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="J87" s="0" t="s">
+        <v>703</v>
+      </c>
+      <c r="K87" s="0" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="0" t="s">
+        <v>726</v>
+      </c>
+      <c r="B88" s="0" t="s">
+        <v>652</v>
+      </c>
+      <c r="C88" s="0" t="s">
+        <v>627</v>
+      </c>
+      <c r="D88" s="0" t="s">
+        <v>692</v>
+      </c>
+      <c r="E88" s="0" t="s">
+        <v>610</v>
+      </c>
+      <c r="F88" s="0" t="s">
+        <v>800</v>
+      </c>
+      <c r="G88" s="0" t="s">
+        <v>701</v>
+      </c>
+      <c r="H88" s="0" t="s">
+        <v>702</v>
+      </c>
+      <c r="I88" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="J88" s="0" t="s">
+        <v>703</v>
+      </c>
+      <c r="K88" s="0" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="0" t="s">
+        <v>726</v>
+      </c>
+      <c r="B89" s="0" t="s">
+        <v>652</v>
+      </c>
+      <c r="C89" s="0" t="s">
+        <v>627</v>
+      </c>
+      <c r="D89" s="0" t="s">
+        <v>692</v>
+      </c>
+      <c r="E89" s="0" t="s">
+        <v>610</v>
+      </c>
+      <c r="F89" s="0" t="s">
+        <v>801</v>
+      </c>
+      <c r="G89" s="0" t="s">
+        <v>701</v>
+      </c>
+      <c r="H89" s="0" t="s">
+        <v>702</v>
+      </c>
+      <c r="I89" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="J89" s="0" t="s">
+        <v>703</v>
+      </c>
+      <c r="K89" s="0" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="0" t="s">
+        <v>726</v>
+      </c>
+      <c r="B90" s="0" t="s">
+        <v>607</v>
+      </c>
+      <c r="C90" s="0" t="s">
+        <v>639</v>
+      </c>
+      <c r="D90" s="0" t="s">
+        <v>609</v>
+      </c>
+      <c r="E90" s="0" t="s">
+        <v>704</v>
+      </c>
+      <c r="F90" s="0" t="s">
+        <v>802</v>
+      </c>
+      <c r="G90" s="0" t="s">
+        <v>712</v>
+      </c>
+      <c r="H90" s="0" t="s">
+        <v>713</v>
+      </c>
+      <c r="I90" s="0" t="s">
+        <v>521</v>
+      </c>
+      <c r="J90" s="0" t="s">
+        <v>714</v>
+      </c>
+      <c r="K90" s="0" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="0" t="s">
+        <v>726</v>
+      </c>
+      <c r="B91" s="0" t="s">
+        <v>607</v>
+      </c>
+      <c r="C91" s="0" t="s">
+        <v>639</v>
+      </c>
+      <c r="D91" s="0" t="s">
+        <v>609</v>
+      </c>
+      <c r="E91" s="0" t="s">
+        <v>704</v>
+      </c>
+      <c r="F91" s="0" t="s">
+        <v>803</v>
+      </c>
+      <c r="G91" s="0" t="s">
+        <v>712</v>
+      </c>
+      <c r="H91" s="0" t="s">
+        <v>713</v>
+      </c>
+      <c r="I91" s="0" t="s">
+        <v>521</v>
+      </c>
+      <c r="J91" s="0" t="s">
+        <v>714</v>
+      </c>
+      <c r="K91" s="0" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="0" t="s">
+        <v>726</v>
+      </c>
+      <c r="B92" s="0" t="s">
+        <v>607</v>
+      </c>
+      <c r="C92" s="0" t="s">
+        <v>639</v>
+      </c>
+      <c r="D92" s="0" t="s">
+        <v>609</v>
+      </c>
+      <c r="E92" s="0" t="s">
+        <v>704</v>
+      </c>
+      <c r="F92" s="0" t="s">
+        <v>804</v>
+      </c>
+      <c r="G92" s="0" t="s">
+        <v>712</v>
+      </c>
+      <c r="H92" s="0" t="s">
+        <v>713</v>
+      </c>
+      <c r="I92" s="0" t="s">
+        <v>521</v>
+      </c>
+      <c r="J92" s="0" t="s">
+        <v>714</v>
+      </c>
+      <c r="K92" s="0" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="0" t="s">
+        <v>726</v>
+      </c>
+      <c r="B93" s="0" t="s">
+        <v>458</v>
+      </c>
+      <c r="C93" s="0" t="s">
+        <v>639</v>
+      </c>
+      <c r="D93" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="E93" s="0" t="s">
+        <v>610</v>
+      </c>
+      <c r="F93" s="0" t="s">
+        <v>805</v>
+      </c>
+      <c r="G93" s="0" t="s">
+        <v>806</v>
+      </c>
+      <c r="H93" s="0" t="s">
+        <v>807</v>
+      </c>
+      <c r="I93" s="0" t="s">
         <v>423</v>
       </c>
-      <c r="J85" s="0" t="s">
-        <v>792</v>
-      </c>
-      <c r="K85" s="0" t="s">
+      <c r="J93" s="0" t="s">
+        <v>808</v>
+      </c>
+      <c r="K93" s="0" t="s">
         <v>647</v>
       </c>
     </row>

--- a/inst/doc/files/parameterization.xlsx
+++ b/inst/doc/files/parameterization.xlsx
@@ -17,12 +17,12 @@
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">parameters!$A$1:$V$102</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">parameters!$A$1:$V$102</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">parameters!$A$1:$R$102</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">parameters!$A$1:$V$102</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">parameters!$A$1:$V$102</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">parameters!$A$1:$R$102</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">parameters!$A$1:$R$102</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">parameters!$A$1:$V$102</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0